--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>24777</v>
+        <v>24806</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23071</v>
+        <v>23107</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -765,25 +765,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(30/23)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21900</v>
+        <v>21976</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(2/2d)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -793,25 +793,25 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/23)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>21429</v>
+        <v>21900</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>(2/2d)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>19634</v>
+        <v>19996</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -938,11 +938,11 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(29/12)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>16684</v>
+        <v>17454</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -1301,25 +1301,25 @@
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Soban Mortaza Inayat</t>
+          <t>Jonas Berggård Skåden</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>10.84</v>
+        <v>10.78</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>19.06</v>
+        <v>31.07</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -1366,18 +1366,18 @@
         <v>2002</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>21.59</v>
+        <v>21.48</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>910</v>
+        <v>923</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>19.06</v>
+        <v>31.07</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>12403</v>
+        <v>12432</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -2585,11 +2585,11 @@
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Jonas Berggård Skåden</t>
+          <t>Soban Mortaza Inayat</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="O35" s="15" t="n">
         <v>10.84</v>
@@ -2599,11 +2599,11 @@
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>18.06</v>
+        <v>19.06</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>24777</v>
+        <v>24806</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -4201,11 +4201,11 @@
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Simen Gimnes</t>
+          <t>Sigmund Le Fjeld</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O73" s="15" t="n">
         <v>13.86</v>
@@ -4215,11 +4215,11 @@
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>4.03</v>
+        <v>11.06</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
@@ -4701,11 +4701,11 @@
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Patrick Monga Bifuko</t>
+          <t>Sigurd Clementsen</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="O85" s="15" t="n">
         <v>22.4</v>
@@ -4715,11 +4715,11 @@
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>25.06</v>
+        <v>13.02</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -4761,11 +4761,11 @@
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Clementsen</t>
+          <t>Patrick Monga Bifuko</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="O86" s="15" t="n">
         <v>22.4</v>
@@ -4775,11 +4775,11 @@
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>6.03</v>
+        <v>25.06</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -4902,30 +4902,30 @@
     <row r="89" ht="13" customHeight="1">
       <c r="B89" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>Ilunga Josue Kongolo</t>
+          <t>Herman Ellingsen</t>
         </is>
       </c>
       <c r="D89" s="7" t="n">
         <v>2002</v>
       </c>
       <c r="E89" s="15" t="n">
-        <v>22.51</v>
+        <v>7.14</v>
       </c>
       <c r="F89" s="7" t="n">
         <v>802</v>
       </c>
       <c r="G89" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H89" s="16" t="n">
-        <v>11.05</v>
+        <v>30.01</v>
       </c>
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
@@ -4960,30 +4960,30 @@
     <row r="90" ht="13" customHeight="1">
       <c r="B90" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>Herman Ellingsen</t>
+          <t>Ilunga Josue Kongolo</t>
         </is>
       </c>
       <c r="D90" s="7" t="n">
         <v>2002</v>
       </c>
       <c r="E90" s="15" t="n">
-        <v>7.14</v>
+        <v>22.51</v>
       </c>
       <c r="F90" s="7" t="n">
         <v>802</v>
       </c>
       <c r="G90" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H90" s="16" t="n">
-        <v>30.01</v>
+        <v>11.05</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
@@ -5109,11 +5109,11 @@
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Sigmund Le Fjeld</t>
+          <t>Simen Gimnes</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O92" s="15" t="n">
         <v>13.86</v>
@@ -5123,11 +5123,11 @@
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>11.06</v>
+        <v>4.03</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -5181,11 +5181,11 @@
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>12.02</v>
+        <v>5.03</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -5211,11 +5211,11 @@
       </c>
       <c r="G94" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Seinäjoki/FIN</t>
         </is>
       </c>
       <c r="H94" s="16" t="n">
-        <v>21.05</v>
+        <v>11.06</v>
       </c>
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
@@ -5225,25 +5225,25 @@
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Hertwig-Ødegaard</t>
+          <t>Markus Le Fjeld</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>6.22</v>
+        <v>6.32</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Västerås/SWE</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>12.02</v>
+        <v>31.07</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -5278,22 +5278,22 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Sondre Alexander Høyland</t>
+          <t>Jonathan Hertwig-Ødegaard</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>12.75</v>
+        <v>6.22</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
@@ -5336,30 +5336,30 @@
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Markus Le Fjeld</t>
+          <t>Sondre Alexander Høyland</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="O96" s="15" t="n">
         <v>12.75</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>4.03</v>
+        <v>12.02</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -5413,7 +5413,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11595</v>
+        <v>11631</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5453,7 +5453,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23071</v>
+        <v>23107</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="F158" s="8" t="n">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="P158" s="8" t="n">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="J159" s="5" t="n"/>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="M159" s="7" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="T159" s="5" t="n"/>
@@ -7915,25 +7915,25 @@
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="D165" s="7" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E165" s="15" t="n">
-        <v>6.87</v>
+        <v>6.81</v>
       </c>
       <c r="F165" s="7" t="n">
-        <v>924</v>
+        <v>954</v>
       </c>
       <c r="G165" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H165" s="16" t="n">
-        <v>20.02</v>
+        <v>21.01</v>
       </c>
       <c r="J165" s="5" t="n"/>
       <c r="L165" s="14" t="inlineStr">
@@ -7943,25 +7943,25 @@
       </c>
       <c r="M165" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N165" s="7" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="O165" s="15" t="n">
-        <v>6.81</v>
+        <v>6.87</v>
       </c>
       <c r="P165" s="7" t="n">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="Q165" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R165" s="16" t="n">
-        <v>21.01</v>
+        <v>20.02</v>
       </c>
       <c r="T165" s="5" t="n"/>
     </row>
@@ -7973,25 +7973,25 @@
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="D166" s="7" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E166" s="15" t="n">
-        <v>10.65</v>
+        <v>10.55</v>
       </c>
       <c r="F166" s="7" t="n">
-        <v>935</v>
+        <v>963</v>
       </c>
       <c r="G166" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Weinheim/GER</t>
         </is>
       </c>
       <c r="H166" s="16" t="n">
-        <v>16.06</v>
+        <v>28.05</v>
       </c>
       <c r="J166" s="5" t="n"/>
       <c r="L166" s="14" t="inlineStr">
@@ -8001,25 +8001,25 @@
       </c>
       <c r="M166" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N166" s="7" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="O166" s="15" t="n">
-        <v>10.55</v>
+        <v>10.65</v>
       </c>
       <c r="P166" s="7" t="n">
-        <v>963</v>
+        <v>935</v>
       </c>
       <c r="Q166" s="7" t="inlineStr">
         <is>
-          <t>Weinheim/GER</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R166" s="16" t="n">
-        <v>28.05</v>
+        <v>16.06</v>
       </c>
       <c r="T166" s="5" t="n"/>
     </row>
@@ -8031,17 +8031,17 @@
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="D167" s="7" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E167" s="15" t="n">
-        <v>21.49</v>
+        <v>20.71</v>
       </c>
       <c r="F167" s="7" t="n">
-        <v>922</v>
+        <v>1024</v>
       </c>
       <c r="G167" s="7" t="inlineStr">
         <is>
@@ -8059,17 +8059,17 @@
       </c>
       <c r="M167" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N167" s="7" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="O167" s="15" t="n">
-        <v>20.71</v>
+        <v>21.49</v>
       </c>
       <c r="P167" s="7" t="n">
-        <v>1024</v>
+        <v>922</v>
       </c>
       <c r="Q167" s="7" t="inlineStr">
         <is>
@@ -8089,25 +8089,25 @@
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>Tor-Junor Kringstad Vedde</t>
+          <t>Daniel Nikolai Pedersen</t>
         </is>
       </c>
       <c r="D168" s="7" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E168" s="15" t="n">
-        <v>48.7</v>
+        <v>52.1</v>
       </c>
       <c r="F168" s="7" t="n">
-        <v>852</v>
+        <v>683</v>
       </c>
       <c r="G168" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sola</t>
         </is>
       </c>
       <c r="H168" s="16" t="n">
-        <v>28.05</v>
+        <v>7.06</v>
       </c>
       <c r="J168" s="5" t="n"/>
       <c r="L168" s="14" t="inlineStr">
@@ -8117,25 +8117,25 @@
       </c>
       <c r="M168" s="7" t="inlineStr">
         <is>
-          <t>Daniel Nikolai Pedersen</t>
+          <t>Tor-Junor Kringstad Vedde</t>
         </is>
       </c>
       <c r="N168" s="7" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="O168" s="15" t="n">
-        <v>52.1</v>
+        <v>48.7</v>
       </c>
       <c r="P168" s="7" t="n">
-        <v>683</v>
+        <v>852</v>
       </c>
       <c r="Q168" s="7" t="inlineStr">
         <is>
-          <t>Sola</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R168" s="16" t="n">
-        <v>7.06</v>
+        <v>28.05</v>
       </c>
       <c r="T168" s="5" t="n"/>
     </row>
@@ -8147,27 +8147,27 @@
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Erik Tangen Gundersen</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E169" s="17" t="inlineStr">
         <is>
-          <t>1,53,24</t>
+          <t>2,03,30</t>
         </is>
       </c>
       <c r="F169" s="7" t="n">
-        <v>835</v>
+        <v>627</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>7.06</v>
+        <v>5.03</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -8177,27 +8177,27 @@
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>Erik Tangen Gundersen</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="O169" s="17" t="inlineStr">
         <is>
-          <t>2,03,30</t>
+          <t>1,53,24</t>
         </is>
       </c>
       <c r="P169" s="7" t="n">
-        <v>627</v>
+        <v>835</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>5.03</v>
+        <v>7.06</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
@@ -8209,27 +8209,27 @@
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Roderick Duodu</t>
+          <t>Erik Tangen Gundersen</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E170" s="17" t="inlineStr">
         <is>
-          <t>3,55,33</t>
+          <t>3,55,88</t>
         </is>
       </c>
       <c r="F170" s="7" t="n">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>2.06</v>
+        <v>4.03</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -8239,27 +8239,27 @@
       </c>
       <c r="M170" s="7" t="inlineStr">
         <is>
-          <t>Erik Tangen Gundersen</t>
+          <t>Roderick Duodu</t>
         </is>
       </c>
       <c r="N170" s="7" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="O170" s="17" t="inlineStr">
         <is>
-          <t>3,55,88</t>
+          <t>3,55,33</t>
         </is>
       </c>
       <c r="P170" s="7" t="n">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R170" s="16" t="n">
-        <v>4.03</v>
+        <v>2.06</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -8271,27 +8271,27 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Simen Seeberg-Rommetveit</t>
+          <t>Zerei Kbrom Mezngi</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2000</v>
+        <v>1986</v>
       </c>
       <c r="E171" s="17" t="inlineStr">
         <is>
-          <t>8,32,52</t>
+          <t>7,49,21</t>
         </is>
       </c>
       <c r="F171" s="7" t="n">
-        <v>802</v>
+        <v>1010</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>3.05</v>
+        <v>30.07</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -8301,27 +8301,27 @@
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Erik Tangen Gundersen</t>
+          <t>Simen Seeberg-Rommetveit</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="O171" s="17" t="inlineStr">
         <is>
-          <t>8,22,65</t>
+          <t>8,32,52</t>
         </is>
       </c>
       <c r="P171" s="7" t="n">
-        <v>847</v>
+        <v>802</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>11.05</v>
+        <v>3.05</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
@@ -8333,19 +8333,19 @@
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Endre Wigaard</t>
+          <t>Zerei Kbrom Mezngi</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="E172" s="17" t="inlineStr">
         <is>
-          <t>15,28,49</t>
+          <t>14,15,85</t>
         </is>
       </c>
       <c r="F172" s="7" t="n">
-        <v>710</v>
+        <v>878</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
@@ -8363,19 +8363,19 @@
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Zerei Kbrom Mezngi</t>
+          <t>Endre Wigaard</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="O172" s="17" t="inlineStr">
         <is>
-          <t>14,15,85</t>
+          <t>15,28,49</t>
         </is>
       </c>
       <c r="P172" s="7" t="n">
-        <v>878</v>
+        <v>710</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
@@ -8390,122 +8390,122 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Akshathan Nadarajah</t>
+          <t>Zerei Kbrom Mezngi</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="E173" s="17" t="inlineStr">
         <is>
-          <t>1,02,58</t>
+          <t>28,21,16</t>
         </is>
       </c>
       <c r="F173" s="7" t="n">
-        <v>561</v>
+        <v>992</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>10.06</v>
+        <v>26.06</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Zerei Kbrom Mezngi</t>
+          <t>Akshathan Nadarajah</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>1986</v>
+        <v>2003</v>
       </c>
       <c r="O173" s="17" t="inlineStr">
         <is>
-          <t>28,21,16</t>
+          <t>1,02,58</t>
         </is>
       </c>
       <c r="P173" s="7" t="n">
-        <v>992</v>
+        <v>561</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>26.06</v>
+        <v>10.06</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Henrik Bøe Johannessen</t>
+          <t>Nikolai Gundersen</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E174" s="15" t="n">
-        <v>1.55</v>
+        <v>2003</v>
+      </c>
+      <c r="E174" s="17" t="inlineStr">
+        <is>
+          <t>10,05,02</t>
+        </is>
       </c>
       <c r="F174" s="7" t="n">
-        <v>408</v>
+        <v>644</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>15.05</v>
+        <v>1.06</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Nikolai Gundersen</t>
+          <t>Henrik Bøe Johannessen</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O174" s="17" t="inlineStr">
-        <is>
-          <t>10,05,02</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O174" s="15" t="n">
+        <v>1.55</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>644</v>
+        <v>408</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>1.06</v>
+        <v>15.05</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
@@ -8517,25 +8517,25 @@
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Casper Lye Clausen</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>5.92</v>
+        <v>5.48</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>588</v>
+        <v>486</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>17.06</v>
+        <v>24.02</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -8545,141 +8545,141 @@
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Casper Lye Clausen</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>5.48</v>
+        <v>5.92</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>486</v>
+        <v>588</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>24.02</v>
+        <v>17.06</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>12.23</v>
+        <v>2.97</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>4.03</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>2.97</v>
+        <v>12.23</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>655</v>
+        <v>585</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>4.03</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Kwadjo Owusu</t>
+          <t>Daniel Korhonen</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2004</v>
+        <v>1976</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>2.64</v>
+        <v>12.35</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>466</v>
+        <v>621</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>12.02</v>
+        <v>5.07</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Daniel Korhonen</t>
+          <t>Benjamin Kwadjo Owusu</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>1976</v>
+        <v>2004</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>12.35</v>
+        <v>2.64</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>621</v>
+        <v>466</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>5.07</v>
+        <v>12.02</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
@@ -8691,25 +8691,25 @@
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Daniel Korhonen</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2004</v>
+        <v>1976</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>44.33</v>
+        <v>40.91</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>762</v>
+        <v>701</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>30.06</v>
+        <v>2.07</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -8719,83 +8719,83 @@
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Daniel Korhonen</t>
+          <t>Eirik Halfdansen-Aspen</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>1976</v>
+        <v>2004</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>40.91</v>
+        <v>44.33</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>701</v>
+        <v>762</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>2.07</v>
+        <v>30.06</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Kasper Sagen</t>
+          <t>Daniel Korhonen</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>1999</v>
+        <v>1976</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>66.98999999999999</v>
+        <v>50.04</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>857</v>
+        <v>753</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Leiria/POR</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>13.03</v>
+        <v>5.07</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Daniel Korhonen</t>
+          <t>Kasper Sagen</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>1976</v>
+        <v>1999</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>50.04</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Leiria/POR</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>5.07</v>
+        <v>13.03</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11014</v>
+        <v>11792</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -8849,7 +8849,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11629</v>
+        <v>11014</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -8952,296 +8952,298 @@
     <row r="186" ht="13" customHeight="1">
       <c r="B186" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Erik Tangen Gundersen</t>
         </is>
       </c>
       <c r="D186" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E186" s="15" t="n">
-        <v>10.75</v>
+        <v>2001</v>
+      </c>
+      <c r="E186" s="17" t="inlineStr">
+        <is>
+          <t>14,18,40</t>
+        </is>
       </c>
       <c r="F186" s="7" t="n">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="G186" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H186" s="16" t="n">
-        <v>19.06</v>
+        <v>21.05</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M186" s="7" t="inlineStr">
         <is>
-          <t>Erik Tangen Gundersen</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N186" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O186" s="17" t="inlineStr">
-        <is>
-          <t>14,18,40</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O186" s="15" t="n">
+        <v>10.75</v>
       </c>
       <c r="P186" s="7" t="n">
-        <v>872</v>
+        <v>907</v>
       </c>
       <c r="Q186" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R186" s="16" t="n">
-        <v>21.05</v>
+        <v>19.06</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
     <row r="187" ht="13" customHeight="1">
       <c r="B187" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Simen Tjelta Larsen</t>
         </is>
       </c>
       <c r="D187" s="7" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="E187" s="15" t="n">
-        <v>6.93</v>
+        <v>10.9</v>
       </c>
       <c r="F187" s="7" t="n">
-        <v>895</v>
+        <v>867</v>
       </c>
       <c r="G187" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H187" s="16" t="n">
-        <v>20.02</v>
+        <v>24.06</v>
       </c>
       <c r="J187" s="5" t="n"/>
       <c r="L187" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M187" s="7" t="inlineStr">
         <is>
-          <t>Simen Tjelta Larsen</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N187" s="7" t="n">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="O187" s="15" t="n">
-        <v>10.9</v>
+        <v>6.93</v>
       </c>
       <c r="P187" s="7" t="n">
-        <v>867</v>
+        <v>895</v>
       </c>
       <c r="Q187" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R187" s="16" t="n">
-        <v>24.06</v>
+        <v>20.02</v>
       </c>
       <c r="T187" s="5" t="n"/>
     </row>
     <row r="188" ht="13" customHeight="1">
       <c r="B188" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Erik Tangen Gundersen</t>
         </is>
       </c>
       <c r="D188" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E188" s="15" t="n">
-        <v>10.88</v>
+        <v>2001</v>
+      </c>
+      <c r="E188" s="17" t="inlineStr">
+        <is>
+          <t>8,22,65</t>
+        </is>
       </c>
       <c r="F188" s="7" t="n">
-        <v>873</v>
+        <v>847</v>
       </c>
       <c r="G188" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H188" s="16" t="n">
-        <v>16.07</v>
+        <v>11.05</v>
       </c>
       <c r="J188" s="5" t="n"/>
       <c r="L188" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M188" s="7" t="inlineStr">
         <is>
-          <t>Simen Tjelta Larsen</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="N188" s="7" t="n">
-        <v>1994</v>
+        <v>2003</v>
       </c>
       <c r="O188" s="15" t="n">
-        <v>22.17</v>
+        <v>10.88</v>
       </c>
       <c r="P188" s="7" t="n">
-        <v>841</v>
+        <v>873</v>
       </c>
       <c r="Q188" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="R188" s="16" t="n">
-        <v>25.06</v>
+        <v>16.07</v>
       </c>
       <c r="T188" s="5" t="n"/>
     </row>
     <row r="189" ht="13" customHeight="1">
       <c r="B189" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Simen Tjelta Larsen</t>
         </is>
       </c>
       <c r="D189" s="7" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="E189" s="15" t="n">
-        <v>48.94</v>
+        <v>22.17</v>
       </c>
       <c r="F189" s="7" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G189" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H189" s="16" t="n">
-        <v>28.05</v>
+        <v>25.06</v>
       </c>
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M189" s="7" t="inlineStr">
         <is>
-          <t>Nikolai Gundersen</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N189" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O189" s="17" t="inlineStr">
-        <is>
-          <t>8,34,33</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O189" s="15" t="n">
+        <v>48.94</v>
       </c>
       <c r="P189" s="7" t="n">
-        <v>794</v>
+        <v>840</v>
       </c>
       <c r="Q189" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R189" s="16" t="n">
-        <v>26.02</v>
+        <v>28.05</v>
       </c>
       <c r="T189" s="5" t="n"/>
     </row>
     <row r="190" ht="13" customHeight="1">
       <c r="B190" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Simen Seeberg-Rommetveit</t>
+          <t>Nikolai Gundersen</t>
         </is>
       </c>
       <c r="D190" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E190" s="17" t="inlineStr">
         <is>
-          <t>1,53,54</t>
+          <t>8,34,33</t>
         </is>
       </c>
       <c r="F190" s="7" t="n">
-        <v>827</v>
+        <v>794</v>
       </c>
       <c r="G190" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H190" s="16" t="n">
-        <v>26.06</v>
+        <v>26.02</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Erik Steinsland</t>
+          <t>Simen Seeberg-Rommetveit</t>
         </is>
       </c>
       <c r="N190" s="7" t="n">
         <v>2000</v>
       </c>
-      <c r="O190" s="15" t="n">
-        <v>11.39</v>
+      <c r="O190" s="17" t="inlineStr">
+        <is>
+          <t>1,53,54</t>
+        </is>
       </c>
       <c r="P190" s="7" t="n">
-        <v>746</v>
+        <v>827</v>
       </c>
       <c r="Q190" s="7" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R190" s="16" t="n">
-        <v>14.06</v>
+        <v>26.06</v>
       </c>
       <c r="T190" s="5" t="n"/>
     </row>
@@ -9253,229 +9255,229 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Holen</t>
+          <t>Oscar Alm Harestad</t>
         </is>
       </c>
       <c r="D191" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E191" s="15" t="n">
-        <v>11.1</v>
+        <v>11.25</v>
       </c>
       <c r="F191" s="7" t="n">
-        <v>816</v>
+        <v>779</v>
       </c>
       <c r="G191" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H191" s="16" t="n">
-        <v>18.06</v>
+        <v>31.07</v>
       </c>
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Daniel Nikolai Pedersen</t>
+          <t>Jonathan Holen</t>
         </is>
       </c>
       <c r="N191" s="7" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="O191" s="15" t="n">
-        <v>23.29</v>
+        <v>11.1</v>
       </c>
       <c r="P191" s="7" t="n">
-        <v>718</v>
+        <v>816</v>
       </c>
       <c r="Q191" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R191" s="16" t="n">
-        <v>9.06</v>
+        <v>18.06</v>
       </c>
       <c r="T191" s="5" t="n"/>
     </row>
     <row r="192" ht="13" customHeight="1">
       <c r="B192" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>Thomas Graftås</t>
+          <t>Daniel Nikolai Pedersen</t>
         </is>
       </c>
       <c r="D192" s="7" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E192" s="15" t="n">
-        <v>11.14</v>
+        <v>22.93</v>
       </c>
       <c r="F192" s="7" t="n">
-        <v>806</v>
+        <v>756</v>
       </c>
       <c r="G192" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H192" s="16" t="n">
-        <v>19.06</v>
+        <v>31.07</v>
       </c>
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M192" s="7" t="inlineStr">
         <is>
-          <t>Nikolai Gundersen</t>
+          <t>Thomas Graftås</t>
         </is>
       </c>
       <c r="N192" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O192" s="17" t="inlineStr">
-        <is>
-          <t>4,06,01</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O192" s="15" t="n">
+        <v>11.14</v>
       </c>
       <c r="P192" s="7" t="n">
-        <v>705</v>
+        <v>806</v>
       </c>
       <c r="Q192" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R192" s="16" t="n">
-        <v>4.03</v>
+        <v>19.06</v>
       </c>
       <c r="T192" s="5" t="n"/>
     </row>
     <row r="193" ht="13" customHeight="1">
       <c r="B193" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Erik Steinsland</t>
         </is>
       </c>
       <c r="D193" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E193" s="15" t="n">
-        <v>49.6</v>
+        <v>11.39</v>
       </c>
       <c r="F193" s="7" t="n">
-        <v>805</v>
+        <v>746</v>
       </c>
       <c r="G193" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="H193" s="16" t="n">
-        <v>13.07</v>
+        <v>14.06</v>
       </c>
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M193" s="7" t="inlineStr">
         <is>
-          <t>Philip Kauffmann</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N193" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="O193" s="15" t="n">
-        <v>23.93</v>
+        <v>49.6</v>
       </c>
       <c r="P193" s="7" t="n">
-        <v>654</v>
+        <v>805</v>
       </c>
       <c r="Q193" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R193" s="16" t="n">
-        <v>3.05</v>
+        <v>13.07</v>
       </c>
       <c r="T193" s="5" t="n"/>
     </row>
     <row r="194" ht="13" customHeight="1">
       <c r="B194" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Nikolai Gundersen</t>
         </is>
       </c>
       <c r="D194" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E194" s="15" t="n">
-        <v>7.14</v>
+      <c r="E194" s="17" t="inlineStr">
+        <is>
+          <t>4,06,01</t>
+        </is>
       </c>
       <c r="F194" s="7" t="n">
-        <v>802</v>
+        <v>705</v>
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>29.01</v>
+        <v>4.03</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M194" s="7" t="inlineStr">
         <is>
-          <t>Kåre O. Babajide Vedvik</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="N194" s="7" t="n">
-        <v>1994</v>
+        <v>2003</v>
       </c>
       <c r="O194" s="15" t="n">
-        <v>2.96</v>
+        <v>7.14</v>
       </c>
       <c r="P194" s="7" t="n">
-        <v>650</v>
+        <v>802</v>
       </c>
       <c r="Q194" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R194" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>29.01</v>
       </c>
       <c r="T194" s="5" t="n"/>
     </row>
@@ -9487,25 +9489,25 @@
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Stephan Skogheim Kyeremeh</t>
+          <t>Philip Kauffmann</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E195" s="15" t="n">
-        <v>22.52</v>
+        <v>23.93</v>
       </c>
       <c r="F195" s="7" t="n">
-        <v>801</v>
+        <v>654</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>6.03</v>
+        <v>3.05</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
@@ -9515,315 +9517,315 @@
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Knudsen</t>
+          <t>Stephan Skogheim Kyeremeh</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="O195" s="15" t="n">
-        <v>24.05</v>
+        <v>22.52</v>
       </c>
       <c r="P195" s="7" t="n">
-        <v>642</v>
+        <v>801</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>9.06</v>
+        <v>6.03</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Dag Wergeland</t>
+          <t>Kåre O. Babajide Vedvik</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="E196" s="15" t="n">
-        <v>51.36</v>
+        <v>2.96</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>11.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M196" s="7" t="inlineStr">
         <is>
-          <t>Philip Kauffmann</t>
+          <t>Dag Wergeland</t>
         </is>
       </c>
       <c r="N196" s="7" t="n">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="O196" s="15" t="n">
-        <v>11.87</v>
+        <v>51.36</v>
       </c>
       <c r="P196" s="7" t="n">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="Q196" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R196" s="16" t="n">
-        <v>21.05</v>
+        <v>11.06</v>
       </c>
       <c r="T196" s="5" t="n"/>
     </row>
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Ruben Martinsen</t>
+          <t>Philip Kauffmann</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>49.46</v>
+        <v>5.23</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>619</v>
+        <v>427</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>21.05</v>
+        <v>15.01</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Philip Kauffmann</t>
+          <t>Ruben Martinsen</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>5.23</v>
+        <v>49.46</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>427</v>
+        <v>619</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>15.01</v>
+        <v>21.05</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
     <row r="198" ht="13" customHeight="1">
       <c r="B198" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Andreas Nesse</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>5.71</v>
+        <v>35.96</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>540</v>
+        <v>426</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>13.07</v>
+        <v>19.05</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Andreas Nesse</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>35.96</v>
+        <v>5.71</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>426</v>
+        <v>540</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>19.05</v>
+        <v>13.07</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Felix Naue</t>
+          <t>Theodor Volline Nessler</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>5.25</v>
+        <v>2.56</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Nesodden</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>2.06</v>
+        <v>12.02</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Theodor Volline Nessler</t>
+          <t>Felix Naue</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>2.56</v>
+        <v>5.25</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nesodden</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>12.02</v>
+        <v>2.06</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
     <row r="200" ht="13" customHeight="1">
       <c r="B200" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Smitt-Ingebretsen</t>
+          <t>Casper Lye Clausen</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>278</v>
+        <v>408</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Brandbu</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>20.02</v>
+        <v>19.05</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Casper Lye Clausen</t>
+          <t>Sigurd Smitt-Ingebretsen</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>408</v>
+        <v>278</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>19.05</v>
+        <v>20.02</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -9860,7 +9862,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>10886</v>
+        <v>10184</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -9877,7 +9879,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>9800</v>
+        <v>10886</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -9900,7 +9902,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21900</v>
+        <v>21976</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -9917,7 +9919,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>21429</v>
+        <v>21900</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -9932,7 +9934,7 @@
         </is>
       </c>
       <c r="C206" s="20" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="19" t="inlineStr">
@@ -9941,7 +9943,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -11304,30 +11306,30 @@
     <row r="241" ht="13" customHeight="1">
       <c r="B241" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>Henrik Duncan</t>
+          <t>Henrik Flåtnes</t>
         </is>
       </c>
       <c r="D241" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E241" s="15" t="n">
-        <v>11.09</v>
+        <v>7.1</v>
       </c>
       <c r="F241" s="7" t="n">
         <v>819</v>
       </c>
       <c r="G241" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H241" s="16" t="n">
-        <v>12.06</v>
+        <v>21.01</v>
       </c>
       <c r="J241" s="5" t="n"/>
       <c r="L241" s="14" t="inlineStr">
@@ -11364,30 +11366,30 @@
     <row r="242" ht="13" customHeight="1">
       <c r="B242" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C242" s="7" t="inlineStr">
         <is>
-          <t>Henrik Flåtnes</t>
+          <t>Henrik Duncan</t>
         </is>
       </c>
       <c r="D242" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E242" s="15" t="n">
-        <v>7.1</v>
+        <v>11.09</v>
       </c>
       <c r="F242" s="7" t="n">
         <v>819</v>
       </c>
       <c r="G242" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H242" s="16" t="n">
-        <v>21.01</v>
+        <v>12.06</v>
       </c>
       <c r="J242" s="5" t="n"/>
       <c r="L242" s="14" t="inlineStr">
@@ -12587,27 +12589,27 @@
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sture</t>
+          <t>Marius Garmann Sørli</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="E274" s="17" t="inlineStr">
         <is>
-          <t>4,17,32</t>
+          <t>3,54,30+</t>
         </is>
       </c>
       <c r="F274" s="7" t="n">
-        <v>614</v>
+        <v>818</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>29.01</v>
+        <v>1.08</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
@@ -12995,7 +12997,7 @@
         </is>
       </c>
       <c r="D281" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E281" s="15" t="n">
         <v>12.92</v>
@@ -13033,7 +13035,7 @@
         </is>
       </c>
       <c r="D282" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E282" s="15" t="n">
         <v>45.28</v>
@@ -13071,7 +13073,7 @@
         </is>
       </c>
       <c r="D283" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E283" s="15" t="n">
         <v>44.44</v>
@@ -13130,7 +13132,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>10959</v>
+        <v>11163</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -13250,32 +13252,30 @@
     <row r="290" ht="13" customHeight="1">
       <c r="B290" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C290" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lillebø</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D290" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E290" s="17" t="inlineStr">
-        <is>
-          <t>2,02,08</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E290" s="15" t="n">
+        <v>23.81</v>
       </c>
       <c r="F290" s="7" t="n">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="G290" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H290" s="16" t="n">
-        <v>4.06</v>
+        <v>1.08</v>
       </c>
       <c r="J290" s="5" t="n"/>
       <c r="L290" s="14" t="inlineStr">
@@ -13310,7 +13310,7 @@
     <row r="291" ht="13" customHeight="1">
       <c r="B291" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C291" s="7" t="inlineStr">
@@ -13322,18 +13322,18 @@
         <v>2005</v>
       </c>
       <c r="E291" s="15" t="n">
-        <v>7.57</v>
+        <v>11.76</v>
       </c>
       <c r="F291" s="7" t="n">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="G291" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H291" s="16" t="n">
-        <v>19.03</v>
+        <v>1.08</v>
       </c>
       <c r="J291" s="5" t="n"/>
       <c r="L291" s="14" t="inlineStr">
@@ -13373,19 +13373,19 @@
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sture</t>
+          <t>Sigve Lillebø</t>
         </is>
       </c>
       <c r="D292" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E292" s="17" t="inlineStr">
         <is>
-          <t>2,03,05</t>
+          <t>2,02,08</t>
         </is>
       </c>
       <c r="F292" s="7" t="n">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="G292" s="7" t="inlineStr">
         <is>
@@ -13430,30 +13430,30 @@
     <row r="293" ht="13" customHeight="1">
       <c r="B293" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>Jon-Henning Hilleren</t>
+          <t>Jesper Jensen</t>
         </is>
       </c>
       <c r="D293" s="7" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E293" s="15" t="n">
-        <v>24.23</v>
+        <v>11.86</v>
       </c>
       <c r="F293" s="7" t="n">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="G293" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H293" s="16" t="n">
-        <v>15.05</v>
+        <v>1.08</v>
       </c>
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
@@ -13490,22 +13490,22 @@
     <row r="294" ht="13" customHeight="1">
       <c r="B294" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>Magnus Farestveit</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D294" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E294" s="15" t="n">
-        <v>24.28</v>
+        <v>7.57</v>
       </c>
       <c r="F294" s="7" t="n">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>19.02</v>
+        <v>19.03</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
@@ -13550,30 +13550,32 @@
     <row r="295" ht="13" customHeight="1">
       <c r="B295" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>Sigve Lillebø</t>
+          <t>Johannes Sture</t>
         </is>
       </c>
       <c r="D295" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E295" s="15" t="n">
-        <v>53.7</v>
+        <v>2005</v>
+      </c>
+      <c r="E295" s="17" t="inlineStr">
+        <is>
+          <t>2,03,05</t>
+        </is>
       </c>
       <c r="F295" s="7" t="n">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="G295" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H295" s="16" t="n">
-        <v>29.05</v>
+        <v>4.06</v>
       </c>
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
@@ -13610,30 +13612,30 @@
     <row r="296" ht="13" customHeight="1">
       <c r="B296" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Jon-Henning Hilleren</t>
         </is>
       </c>
       <c r="D296" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E296" s="15" t="n">
-        <v>11.98</v>
+        <v>24.23</v>
       </c>
       <c r="F296" s="7" t="n">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="G296" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H296" s="16" t="n">
-        <v>19.06</v>
+        <v>15.05</v>
       </c>
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
@@ -13668,30 +13670,30 @@
     <row r="297" ht="13" customHeight="1">
       <c r="B297" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>Jon-Henning Hilleren</t>
+          <t>Magnus Farestveit</t>
         </is>
       </c>
       <c r="D297" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E297" s="15" t="n">
-        <v>12.02</v>
+        <v>24.28</v>
       </c>
       <c r="F297" s="7" t="n">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="G297" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H297" s="16" t="n">
-        <v>4.06</v>
+        <v>19.02</v>
       </c>
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
@@ -13726,30 +13728,30 @@
     <row r="298" ht="13" customHeight="1">
       <c r="B298" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Sigve Lillebø</t>
         </is>
       </c>
       <c r="D298" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E298" s="15" t="n">
-        <v>24.47</v>
+        <v>53.7</v>
       </c>
       <c r="F298" s="7" t="n">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="G298" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H298" s="16" t="n">
-        <v>6.03</v>
+        <v>29.05</v>
       </c>
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
@@ -13786,30 +13788,32 @@
     <row r="299" ht="13" customHeight="1">
       <c r="B299" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Johannes Sture</t>
         </is>
       </c>
       <c r="D299" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="E299" s="15" t="n">
-        <v>54.09</v>
+      <c r="E299" s="17" t="inlineStr">
+        <is>
+          <t>4,17,32</t>
+        </is>
       </c>
       <c r="F299" s="7" t="n">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="G299" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H299" s="16" t="n">
-        <v>18.06</v>
+        <v>29.01</v>
       </c>
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
@@ -13891,7 +13895,7 @@
         </is>
       </c>
       <c r="D301" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E301" s="15" t="n">
         <v>1.37</v>
@@ -14064,7 +14068,7 @@
         </is>
       </c>
       <c r="F306" s="20" t="n">
-        <v>8675</v>
+        <v>8833</v>
       </c>
       <c r="J306" s="5" t="n"/>
       <c r="L306" s="19" t="inlineStr">
@@ -14104,7 +14108,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>19634</v>
+        <v>19996</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -14774,32 +14778,32 @@
     <row r="328" ht="13" customHeight="1">
       <c r="B328" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>Johannes Thomsen</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="D328" s="7" t="n">
-        <v>1983</v>
+        <v>2000</v>
       </c>
       <c r="E328" s="17" t="inlineStr">
         <is>
-          <t>31,59,24</t>
+          <t>15,33,34</t>
         </is>
       </c>
       <c r="F328" s="7" t="n">
-        <v>739</v>
+        <v>699</v>
       </c>
       <c r="G328" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H328" s="16" t="n">
-        <v>11.05</v>
+        <v>1.08</v>
       </c>
       <c r="J328" s="5" t="n"/>
       <c r="L328" s="14" t="inlineStr">
@@ -14834,32 +14838,32 @@
     <row r="329" ht="13" customHeight="1">
       <c r="B329" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C329" s="7" t="inlineStr">
         <is>
-          <t>Tom Erling Kårbø</t>
+          <t>Johannes Thomsen</t>
         </is>
       </c>
       <c r="D329" s="7" t="n">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="E329" s="17" t="inlineStr">
         <is>
-          <t>8,26,12</t>
+          <t>31,59,24</t>
         </is>
       </c>
       <c r="F329" s="7" t="n">
-        <v>1004</v>
+        <v>739</v>
       </c>
       <c r="G329" s="7" t="inlineStr">
         <is>
-          <t>Eugene/OR/USA</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H329" s="16" t="n">
-        <v>15.07</v>
+        <v>11.05</v>
       </c>
       <c r="J329" s="5" t="n"/>
       <c r="L329" s="14" t="inlineStr">
@@ -14894,30 +14898,32 @@
     <row r="330" ht="13" customHeight="1">
       <c r="B330" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C330" s="7" t="inlineStr">
         <is>
-          <t>Marius Torbjørnsen</t>
+          <t>Tom Erling Kårbø</t>
         </is>
       </c>
       <c r="D330" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E330" s="15" t="n">
-        <v>1.8</v>
+        <v>1989</v>
+      </c>
+      <c r="E330" s="17" t="inlineStr">
+        <is>
+          <t>8,26,12</t>
+        </is>
       </c>
       <c r="F330" s="7" t="n">
-        <v>652</v>
+        <v>1004</v>
       </c>
       <c r="G330" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Eugene/OR/USA</t>
         </is>
       </c>
       <c r="H330" s="16" t="n">
-        <v>21.05</v>
+        <v>15.07</v>
       </c>
       <c r="J330" s="5" t="n"/>
       <c r="L330" s="14" t="n"/>
@@ -14932,30 +14938,30 @@
     <row r="331" ht="13" customHeight="1">
       <c r="B331" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C331" s="7" t="inlineStr">
         <is>
-          <t>Per Gregersen</t>
+          <t>Marius Torbjørnsen</t>
         </is>
       </c>
       <c r="D331" s="7" t="n">
-        <v>1970</v>
+        <v>2003</v>
       </c>
       <c r="E331" s="15" t="n">
-        <v>3.42</v>
+        <v>1.8</v>
       </c>
       <c r="F331" s="7" t="n">
-        <v>597</v>
+        <v>652</v>
       </c>
       <c r="G331" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H331" s="16" t="n">
-        <v>15.02</v>
+        <v>21.05</v>
       </c>
       <c r="J331" s="5" t="n"/>
       <c r="L331" s="14" t="n"/>
@@ -14970,30 +14976,30 @@
     <row r="332" ht="13" customHeight="1">
       <c r="B332" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C332" s="7" t="inlineStr">
         <is>
-          <t>Marius Torbjørnsen</t>
+          <t>Per Gregersen</t>
         </is>
       </c>
       <c r="D332" s="7" t="n">
-        <v>2003</v>
+        <v>1970</v>
       </c>
       <c r="E332" s="15" t="n">
-        <v>5.88</v>
+        <v>3.42</v>
       </c>
       <c r="F332" s="7" t="n">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="G332" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H332" s="16" t="n">
-        <v>23.02</v>
+        <v>15.02</v>
       </c>
       <c r="J332" s="5" t="n"/>
       <c r="L332" s="14" t="n"/>
@@ -15008,30 +15014,30 @@
     <row r="333" ht="13" customHeight="1">
       <c r="B333" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C333" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Marius Torbjørnsen</t>
         </is>
       </c>
       <c r="D333" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E333" s="15" t="n">
-        <v>1.37</v>
+        <v>5.88</v>
       </c>
       <c r="F333" s="7" t="n">
-        <v>526</v>
+        <v>579</v>
       </c>
       <c r="G333" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H333" s="16" t="n">
-        <v>7.04</v>
+        <v>23.02</v>
       </c>
       <c r="J333" s="5" t="n"/>
       <c r="L333" s="14" t="n"/>
@@ -15046,22 +15052,22 @@
     <row r="334" ht="13" customHeight="1">
       <c r="B334" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C334" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D334" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E334" s="15" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="F334" s="7" t="n">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="G334" s="7" t="inlineStr">
         <is>
@@ -15069,7 +15075,7 @@
         </is>
       </c>
       <c r="H334" s="16" t="n">
-        <v>10.02</v>
+        <v>7.04</v>
       </c>
       <c r="J334" s="5" t="n"/>
       <c r="L334" s="14" t="n"/>
@@ -15082,13 +15088,33 @@
       <c r="T334" s="5" t="n"/>
     </row>
     <row r="335" ht="13" customHeight="1">
-      <c r="B335" s="14" t="n"/>
-      <c r="C335" s="7" t="n"/>
-      <c r="D335" s="7" t="n"/>
-      <c r="E335" s="7" t="n"/>
-      <c r="F335" s="7" t="n"/>
-      <c r="G335" s="7" t="n"/>
-      <c r="H335" s="21" t="n"/>
+      <c r="B335" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C335" s="7" t="inlineStr">
+        <is>
+          <t>Steffen Tjensvoll Hollund</t>
+        </is>
+      </c>
+      <c r="D335" s="7" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E335" s="15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F335" s="7" t="n">
+        <v>453</v>
+      </c>
+      <c r="G335" s="7" t="inlineStr">
+        <is>
+          <t>Bømlo</t>
+        </is>
+      </c>
+      <c r="H335" s="16" t="n">
+        <v>10.03</v>
+      </c>
       <c r="J335" s="5" t="n"/>
       <c r="L335" s="14" t="n"/>
       <c r="M335" s="7" t="n"/>
@@ -15124,7 +15150,7 @@
         </is>
       </c>
       <c r="C337" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E337" s="19" t="inlineStr">
         <is>
@@ -15132,7 +15158,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>8949</v>
+        <v>9648</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -15381,25 +15407,25 @@
       </c>
       <c r="C344" s="7" t="inlineStr">
         <is>
-          <t>Marius Torbjørnsen</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="D344" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E344" s="15" t="n">
-        <v>24.38</v>
+        <v>24.36</v>
       </c>
       <c r="F344" s="7" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G344" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H344" s="16" t="n">
-        <v>5.06</v>
+        <v>31.07</v>
       </c>
       <c r="J344" s="5" t="n"/>
       <c r="L344" s="14" t="inlineStr">
@@ -15436,30 +15462,30 @@
     <row r="345" ht="13" customHeight="1">
       <c r="B345" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Marius Torbjørnsen</t>
         </is>
       </c>
       <c r="D345" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E345" s="15" t="n">
-        <v>1.74</v>
+        <v>24.38</v>
       </c>
       <c r="F345" s="7" t="n">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="G345" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H345" s="16" t="n">
-        <v>13.03</v>
+        <v>5.06</v>
       </c>
       <c r="J345" s="5" t="n"/>
       <c r="L345" s="14" t="inlineStr">
@@ -15496,22 +15522,22 @@
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Marius Torbjørnsen</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E346" s="15" t="n">
-        <v>7.78</v>
+        <v>1.74</v>
       </c>
       <c r="F346" s="7" t="n">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
@@ -15519,7 +15545,7 @@
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>23.02</v>
+        <v>13.03</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
@@ -15556,22 +15582,22 @@
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>Sander Havn Turøy</t>
+          <t>Marius Torbjørnsen</t>
         </is>
       </c>
       <c r="D347" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E347" s="15" t="n">
-        <v>1.7</v>
+        <v>7.78</v>
       </c>
       <c r="F347" s="7" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
@@ -15579,7 +15605,7 @@
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>19.01</v>
+        <v>23.02</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -15616,30 +15642,30 @@
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>Oddvar Hårde</t>
+          <t>Sander Havn Turøy</t>
         </is>
       </c>
       <c r="D348" s="7" t="n">
-        <v>1969</v>
+        <v>2006</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>15.02</v>
+        <v>19.01</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -15676,30 +15702,30 @@
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Oddvar Hårde</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>2006</v>
+        <v>1969</v>
       </c>
       <c r="E349" s="15" t="n">
-        <v>25.16</v>
+        <v>3.2</v>
       </c>
       <c r="F349" s="7" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>22.05</v>
+        <v>15.02</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
@@ -16096,7 +16122,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>7735</v>
+        <v>7806</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16128,7 +16154,7 @@
         </is>
       </c>
       <c r="C360" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E360" s="19" t="inlineStr">
         <is>
@@ -16136,7 +16162,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>16684</v>
+        <v>17454</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16168,7 +16194,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">
@@ -16377,7 +16403,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>15979</v>
+        <v>16423</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -16657,7 +16683,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>8038</v>
+        <v>11012</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -19156,27 +19182,27 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Dagfinn Gjerstad</t>
+          <t>Trygve Feidje Mjelde</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="O61" s="17" t="inlineStr">
         <is>
-          <t>4,05,89</t>
+          <t>3,53,46+</t>
         </is>
       </c>
       <c r="P61" s="7" t="n">
-        <v>706</v>
+        <v>827</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>28.05</v>
+        <v>1.08</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -19407,18 +19433,18 @@
         <v>2003</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>6.6</v>
+        <v>6.98</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>740</v>
+        <v>823</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>29.01</v>
+        <v>1.08</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -19626,7 +19652,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>9231</v>
+        <v>9435</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -19879,30 +19905,32 @@
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M77" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Dagfinn Gjerstad</t>
         </is>
       </c>
       <c r="N77" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O77" s="15" t="n">
-        <v>7.7</v>
+        <v>2006</v>
+      </c>
+      <c r="O77" s="17" t="inlineStr">
+        <is>
+          <t>4,05,89</t>
+        </is>
       </c>
       <c r="P77" s="7" t="n">
-        <v>590</v>
+        <v>706</v>
       </c>
       <c r="Q77" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R77" s="16" t="n">
-        <v>23.05</v>
+        <v>28.05</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -19939,32 +19967,30 @@
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M78" s="7" t="inlineStr">
         <is>
-          <t>Noah Raknes</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="N78" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O78" s="17" t="inlineStr">
-        <is>
-          <t>9,32,19</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O78" s="15" t="n">
+        <v>7.7</v>
       </c>
       <c r="P78" s="7" t="n">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="Q78" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R78" s="16" t="n">
-        <v>19.06</v>
+        <v>23.05</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -20006,27 +20032,27 @@
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Magnus Gjerstad</t>
+          <t>Noah Raknes</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O79" s="17" t="inlineStr">
         <is>
-          <t>9,41,89</t>
+          <t>9,32,19</t>
         </is>
       </c>
       <c r="P79" s="7" t="n">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>6.07</v>
+        <v>19.06</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
@@ -20063,32 +20089,32 @@
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Daniel Bruvik</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="O80" s="17" t="inlineStr">
         <is>
-          <t>35,54,07</t>
+          <t>4,26,38+</t>
         </is>
       </c>
       <c r="P80" s="7" t="n">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>14.07</v>
+        <v>1.08</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -20130,19 +20156,19 @@
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Daniel Bruvik</t>
+          <t>Magnus Gjerstad</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="O81" s="17" t="inlineStr">
         <is>
-          <t>9,46,78</t>
+          <t>9,41,89</t>
         </is>
       </c>
       <c r="P81" s="7" t="n">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
@@ -20187,32 +20213,32 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Torstein Olai Leiren Mastervik</t>
+          <t>Daniel Bruvik</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="O82" s="17" t="inlineStr">
         <is>
-          <t>2,10,30</t>
+          <t>35,54,07</t>
         </is>
       </c>
       <c r="P82" s="7" t="n">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>8.06</v>
+        <v>14.07</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -20325,22 +20351,22 @@
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Kjetil Stokke</t>
+          <t>Eirik Reigstad</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>1991</v>
+        <v>2007</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>29.28</v>
+        <v>5.45</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
@@ -20348,7 +20374,7 @@
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>6.07</v>
+        <v>1.08</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -20363,7 +20389,7 @@
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
@@ -20375,18 +20401,18 @@
         <v>1991</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>9.94</v>
+        <v>29.28</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>22.06</v>
+        <v>6.07</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -20440,7 +20466,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>6748</v>
+        <v>6988</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -20480,7 +20506,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>15979</v>
+        <v>16423</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -28268,17 +28294,17 @@
       </c>
       <c r="M292" s="7" t="inlineStr">
         <is>
-          <t>Magnus Skjoldal</t>
+          <t>Martin Roe</t>
         </is>
       </c>
       <c r="N292" s="7" t="n">
-        <v>1949</v>
+        <v>1992</v>
       </c>
       <c r="O292" s="15" t="n">
-        <v>15.15</v>
+        <v>11.03</v>
       </c>
       <c r="P292" s="7" t="n">
-        <v>108</v>
+        <v>834</v>
       </c>
       <c r="Q292" s="7" t="inlineStr">
         <is>
@@ -28286,7 +28312,7 @@
         </is>
       </c>
       <c r="R292" s="16" t="n">
-        <v>6.07</v>
+        <v>1.08</v>
       </c>
       <c r="T292" s="5" t="n"/>
     </row>
@@ -28321,30 +28347,30 @@
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M293" s="7" t="inlineStr">
         <is>
-          <t>Levi Rørbakken</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="N293" s="7" t="n">
-        <v>2010</v>
+        <v>1976</v>
       </c>
       <c r="O293" s="15" t="n">
-        <v>30.89</v>
+        <v>54.54</v>
       </c>
       <c r="P293" s="7" t="n">
-        <v>171</v>
+        <v>583</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Tampere/FIN</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>18.05</v>
+        <v>6.07</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
@@ -28379,26 +28405,28 @@
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M294" s="7" t="inlineStr">
         <is>
-          <t>Morten Solheim</t>
+          <t>Christer Sælen</t>
         </is>
       </c>
       <c r="N294" s="7" t="n">
-        <v>1976</v>
-      </c>
-      <c r="O294" s="15" t="n">
-        <v>54.54</v>
+        <v>1981</v>
+      </c>
+      <c r="O294" s="17" t="inlineStr">
+        <is>
+          <t>2,24,12</t>
+        </is>
       </c>
       <c r="P294" s="7" t="n">
-        <v>583</v>
+        <v>355</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Tampere/FIN</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
@@ -28439,24 +28467,24 @@
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M295" s="7" t="inlineStr">
         <is>
-          <t>Christer Sælen</t>
+          <t>Sander Kjøsnes Lie</t>
         </is>
       </c>
       <c r="N295" s="7" t="n">
-        <v>1981</v>
+        <v>1999</v>
       </c>
       <c r="O295" s="17" t="inlineStr">
         <is>
-          <t>2,24,12</t>
+          <t>9,11,02</t>
         </is>
       </c>
       <c r="P295" s="7" t="n">
-        <v>355</v>
+        <v>647</v>
       </c>
       <c r="Q295" s="7" t="inlineStr">
         <is>
@@ -28464,7 +28492,7 @@
         </is>
       </c>
       <c r="R295" s="16" t="n">
-        <v>6.07</v>
+        <v>18.05</v>
       </c>
       <c r="T295" s="5" t="n"/>
     </row>
@@ -28501,24 +28529,24 @@
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Sander Kjøsnes Lie</t>
+          <t>Andreas Vågen</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="O296" s="17" t="inlineStr">
         <is>
-          <t>9,11,02</t>
+          <t>15,44,58</t>
         </is>
       </c>
       <c r="P296" s="7" t="n">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
@@ -28526,7 +28554,7 @@
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>18.05</v>
+        <v>1.08</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -28744,25 +28772,25 @@
       </c>
       <c r="M300" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Martin Roe</t>
         </is>
       </c>
       <c r="N300" s="7" t="n">
-        <v>1968</v>
+        <v>1992</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>11.3</v>
+        <v>14.66</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>546</v>
+        <v>776</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R300" s="16" t="n">
-        <v>26.04</v>
+        <v>1.08</v>
       </c>
       <c r="T300" s="5" t="n"/>
     </row>
@@ -28802,25 +28830,25 @@
       </c>
       <c r="M301" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Martin Roe</t>
         </is>
       </c>
       <c r="N301" s="7" t="n">
-        <v>1968</v>
+        <v>1992</v>
       </c>
       <c r="O301" s="15" t="n">
-        <v>28.8</v>
+        <v>45.72</v>
       </c>
       <c r="P301" s="7" t="n">
-        <v>450</v>
+        <v>786</v>
       </c>
       <c r="Q301" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R301" s="16" t="n">
-        <v>26.03</v>
+        <v>1.08</v>
       </c>
       <c r="T301" s="5" t="n"/>
     </row>
@@ -28990,7 +29018,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>5176</v>
+        <v>6973</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -29123,22 +29151,24 @@
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M310" s="7" t="inlineStr">
         <is>
-          <t>Oddvin Årdalsbakke</t>
+          <t>Sander Kjøsnes Lie</t>
         </is>
       </c>
       <c r="N310" s="7" t="n">
-        <v>1962</v>
-      </c>
-      <c r="O310" s="15" t="n">
-        <v>2.51</v>
+        <v>1999</v>
+      </c>
+      <c r="O310" s="17" t="inlineStr">
+        <is>
+          <t>16,27,03</t>
+        </is>
       </c>
       <c r="P310" s="7" t="n">
-        <v>375</v>
+        <v>593</v>
       </c>
       <c r="Q310" s="7" t="inlineStr">
         <is>
@@ -29146,7 +29176,7 @@
         </is>
       </c>
       <c r="R310" s="16" t="n">
-        <v>14.03</v>
+        <v>1.08</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
@@ -29181,32 +29211,30 @@
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M311" s="7" t="inlineStr">
         <is>
-          <t>Lars Olav Brattabø</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="N311" s="7" t="n">
-        <v>1973</v>
-      </c>
-      <c r="O311" s="17" t="inlineStr">
-        <is>
-          <t>10,55,67</t>
-        </is>
+        <v>1968</v>
+      </c>
+      <c r="O311" s="15" t="n">
+        <v>11.3</v>
       </c>
       <c r="P311" s="7" t="n">
-        <v>344</v>
+        <v>546</v>
       </c>
       <c r="Q311" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R311" s="16" t="n">
-        <v>2.06</v>
+        <v>26.04</v>
       </c>
       <c r="T311" s="5" t="n"/>
     </row>
@@ -29241,30 +29269,30 @@
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M312" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="N312" s="7" t="n">
-        <v>2004</v>
+        <v>1968</v>
       </c>
       <c r="O312" s="15" t="n">
-        <v>2.47</v>
+        <v>28.8</v>
       </c>
       <c r="P312" s="7" t="n">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="Q312" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R312" s="16" t="n">
-        <v>14.03</v>
+        <v>26.03</v>
       </c>
       <c r="T312" s="5" t="n"/>
     </row>
@@ -29304,17 +29332,17 @@
       </c>
       <c r="M313" s="7" t="inlineStr">
         <is>
-          <t>Morten Solheim</t>
+          <t>Oddvin Årdalsbakke</t>
         </is>
       </c>
       <c r="N313" s="7" t="n">
-        <v>1976</v>
+        <v>1962</v>
       </c>
       <c r="O313" s="15" t="n">
-        <v>2.47</v>
+        <v>2.51</v>
       </c>
       <c r="P313" s="7" t="n">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="Q313" s="7" t="inlineStr">
         <is>
@@ -29322,7 +29350,7 @@
         </is>
       </c>
       <c r="R313" s="16" t="n">
-        <v>21.02</v>
+        <v>14.03</v>
       </c>
       <c r="T313" s="5" t="n"/>
     </row>
@@ -29362,19 +29390,19 @@
       </c>
       <c r="M314" s="7" t="inlineStr">
         <is>
-          <t>Eirik Brattabø</t>
+          <t>Lars Olav Brattabø</t>
         </is>
       </c>
       <c r="N314" s="7" t="n">
-        <v>2008</v>
+        <v>1973</v>
       </c>
       <c r="O314" s="17" t="inlineStr">
         <is>
-          <t>11,27,14</t>
+          <t>10,55,67</t>
         </is>
       </c>
       <c r="P314" s="7" t="n">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="Q314" s="7" t="inlineStr">
         <is>
@@ -29417,22 +29445,22 @@
       <c r="J315" s="5" t="n"/>
       <c r="L315" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M315" s="7" t="inlineStr">
         <is>
-          <t>Andreas Vladimir Sandin</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="N315" s="7" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="O315" s="15" t="n">
-        <v>9.06</v>
+        <v>2.47</v>
       </c>
       <c r="P315" s="7" t="n">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="Q315" s="7" t="inlineStr">
         <is>
@@ -29440,7 +29468,7 @@
         </is>
       </c>
       <c r="R315" s="16" t="n">
-        <v>6.07</v>
+        <v>21.02</v>
       </c>
       <c r="T315" s="5" t="n"/>
     </row>
@@ -29475,32 +29503,30 @@
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M316" s="7" t="inlineStr">
         <is>
-          <t>Ronny Førland</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="N316" s="7" t="n">
-        <v>1972</v>
-      </c>
-      <c r="O316" s="17" t="inlineStr">
-        <is>
-          <t>12,08,58</t>
-        </is>
+        <v>1976</v>
+      </c>
+      <c r="O316" s="15" t="n">
+        <v>2.47</v>
       </c>
       <c r="P316" s="7" t="n">
-        <v>193</v>
+        <v>342</v>
       </c>
       <c r="Q316" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R316" s="16" t="n">
-        <v>2.06</v>
+        <v>21.02</v>
       </c>
       <c r="T316" s="5" t="n"/>
     </row>
@@ -29535,30 +29561,32 @@
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M317" s="7" t="inlineStr">
         <is>
-          <t>Levi Rørbakken</t>
+          <t>Eirik Brattabø</t>
         </is>
       </c>
       <c r="N317" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O317" s="15" t="n">
-        <v>9.16</v>
+        <v>2008</v>
+      </c>
+      <c r="O317" s="17" t="inlineStr">
+        <is>
+          <t>11,27,14</t>
+        </is>
       </c>
       <c r="P317" s="7" t="n">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="Q317" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R317" s="16" t="n">
-        <v>18.05</v>
+        <v>2.06</v>
       </c>
       <c r="T317" s="5" t="n"/>
     </row>
@@ -29593,30 +29621,30 @@
       <c r="J318" s="5" t="n"/>
       <c r="L318" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M318" s="7" t="inlineStr">
         <is>
-          <t>Jan Kristian Olsen</t>
+          <t>Andreas Vladimir Sandin</t>
         </is>
       </c>
       <c r="N318" s="7" t="n">
-        <v>1947</v>
+        <v>2010</v>
       </c>
       <c r="O318" s="15" t="n">
-        <v>1.15</v>
+        <v>9.06</v>
       </c>
       <c r="P318" s="7" t="n">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="Q318" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R318" s="16" t="n">
-        <v>26.03</v>
+        <v>6.07</v>
       </c>
       <c r="T318" s="5" t="n"/>
     </row>
@@ -29651,30 +29679,32 @@
       <c r="J319" s="5" t="n"/>
       <c r="L319" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M319" s="7" t="inlineStr">
         <is>
-          <t>Thord Flatebø Iversen</t>
+          <t>Ronny Førland</t>
         </is>
       </c>
       <c r="N319" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O319" s="15" t="n">
-        <v>2.27</v>
+        <v>1972</v>
+      </c>
+      <c r="O319" s="17" t="inlineStr">
+        <is>
+          <t>12,08,58</t>
+        </is>
       </c>
       <c r="P319" s="7" t="n">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="Q319" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R319" s="16" t="n">
-        <v>21.02</v>
+        <v>2.06</v>
       </c>
       <c r="T319" s="5" t="n"/>
     </row>
@@ -29714,17 +29744,17 @@
       </c>
       <c r="M320" s="7" t="inlineStr">
         <is>
-          <t>Magnus Skjoldal</t>
+          <t>Levi Rørbakken</t>
         </is>
       </c>
       <c r="N320" s="7" t="n">
-        <v>1949</v>
+        <v>2010</v>
       </c>
       <c r="O320" s="15" t="n">
-        <v>9.390000000000001</v>
+        <v>9.16</v>
       </c>
       <c r="P320" s="7" t="n">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="Q320" s="7" t="inlineStr">
         <is>
@@ -29732,7 +29762,7 @@
         </is>
       </c>
       <c r="R320" s="16" t="n">
-        <v>6.07</v>
+        <v>18.05</v>
       </c>
       <c r="T320" s="5" t="n"/>
     </row>
@@ -29767,30 +29797,30 @@
       <c r="J321" s="5" t="n"/>
       <c r="L321" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M321" s="7" t="inlineStr">
         <is>
-          <t>Andreas Vladimir Sandin</t>
+          <t>Jan Kristian Olsen</t>
         </is>
       </c>
       <c r="N321" s="7" t="n">
-        <v>2010</v>
+        <v>1947</v>
       </c>
       <c r="O321" s="15" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="P321" s="7" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="Q321" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R321" s="16" t="n">
-        <v>19.02</v>
+        <v>26.03</v>
       </c>
       <c r="T321" s="5" t="n"/>
     </row>
@@ -29844,7 +29874,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>2862</v>
+        <v>4039</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -29884,7 +29914,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>8038</v>
+        <v>11012</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30052,7 +30082,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>23838</v>
+        <v>23839</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -30108,7 +30138,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>21995</v>
+        <v>21996</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -30183,25 +30213,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Fredrikstad IF</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(29/12)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21228</v>
+        <v>21403</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -30211,25 +30241,25 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>Fredrikstad IF</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(29/12)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>20785</v>
+        <v>21228</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>(2/2d)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -30239,20 +30269,20 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(29/14)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>20452</v>
+        <v>20785</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(2/2d)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -30388,7 +30418,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>14625</v>
+        <v>14624</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -31153,15 +31183,15 @@
         <v>8.76</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>6.02</v>
+        <v>19.02</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -31563,7 +31593,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>12143</v>
+        <v>12144</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -32643,7 +32673,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>23838</v>
+        <v>23839</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -33030,18 +33060,18 @@
         <v>1994</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>23.89</v>
+        <v>23.88</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>26.06</v>
+        <v>30.07</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -33805,7 +33835,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12170</v>
+        <v>12171</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -34644,19 +34674,19 @@
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Mari Hystad-Haaland</t>
+          <t>Sophie Ulla-Zahl</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>8.369999999999999</v>
+        <v>27.31</v>
       </c>
       <c r="P94" s="7" t="n">
         <v>627</v>
@@ -34667,7 +34697,7 @@
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>5.03</v>
+        <v>6.03</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -34702,19 +34732,19 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Sophie Ulla-Zahl</t>
+          <t>Mari Hystad-Haaland</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>27.31</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="P95" s="7" t="n">
         <v>627</v>
@@ -34725,7 +34755,7 @@
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>6.03</v>
+        <v>5.03</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -34877,7 +34907,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>21995</v>
+        <v>21996</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -37167,7 +37197,7 @@
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="F158" s="8" t="n">
@@ -37181,7 +37211,7 @@
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Østfold</t>
         </is>
       </c>
       <c r="P158" s="8" t="n">
@@ -37197,7 +37227,7 @@
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad IF</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="J159" s="5" t="n"/>
@@ -37208,7 +37238,7 @@
       </c>
       <c r="M159" s="7" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>Fredrikstad IF</t>
         </is>
       </c>
       <c r="T159" s="5" t="n"/>
@@ -37337,25 +37367,25 @@
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>Dina Rosenvinge Aasen</t>
+          <t>Tonje Nedberg</t>
         </is>
       </c>
       <c r="D165" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E165" s="15" t="n">
-        <v>7.72</v>
+        <v>7.99</v>
       </c>
       <c r="F165" s="7" t="n">
-        <v>824</v>
+        <v>737</v>
       </c>
       <c r="G165" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H165" s="16" t="n">
-        <v>12.02</v>
+        <v>15.01</v>
       </c>
       <c r="J165" s="5" t="n"/>
       <c r="L165" s="14" t="inlineStr">
@@ -37365,17 +37395,17 @@
       </c>
       <c r="M165" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstø Jensen</t>
+          <t>Dina Rosenvinge Aasen</t>
         </is>
       </c>
       <c r="N165" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O165" s="15" t="n">
-        <v>8.02</v>
+        <v>7.72</v>
       </c>
       <c r="P165" s="7" t="n">
-        <v>728</v>
+        <v>824</v>
       </c>
       <c r="Q165" s="7" t="inlineStr">
         <is>
@@ -37395,25 +37425,25 @@
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>Dina Rosenvinge Aasen</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="D166" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E166" s="15" t="n">
-        <v>12.07</v>
+        <v>12.36</v>
       </c>
       <c r="F166" s="7" t="n">
-        <v>840</v>
+        <v>785</v>
       </c>
       <c r="G166" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H166" s="16" t="n">
-        <v>14.05</v>
+        <v>12.06</v>
       </c>
       <c r="J166" s="5" t="n"/>
       <c r="L166" s="14" t="inlineStr">
@@ -37423,25 +37453,25 @@
       </c>
       <c r="M166" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstø Jensen</t>
+          <t>Dina Rosenvinge Aasen</t>
         </is>
       </c>
       <c r="N166" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O166" s="15" t="n">
-        <v>12.61</v>
+        <v>12.07</v>
       </c>
       <c r="P166" s="7" t="n">
-        <v>739</v>
+        <v>840</v>
       </c>
       <c r="Q166" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R166" s="16" t="n">
-        <v>12.06</v>
+        <v>14.05</v>
       </c>
       <c r="T166" s="5" t="n"/>
     </row>
@@ -37453,25 +37483,25 @@
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>Ida Andrea Breigan</t>
+          <t>Elisabeth Slettum</t>
         </is>
       </c>
       <c r="D167" s="7" t="n">
-        <v>2004</v>
+        <v>1986</v>
       </c>
       <c r="E167" s="15" t="n">
-        <v>24.42</v>
+        <v>23.32</v>
       </c>
       <c r="F167" s="7" t="n">
-        <v>857</v>
+        <v>958</v>
       </c>
       <c r="G167" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H167" s="16" t="n">
-        <v>13.02</v>
+        <v>16.06</v>
       </c>
       <c r="J167" s="5" t="n"/>
       <c r="L167" s="14" t="inlineStr">
@@ -37481,25 +37511,25 @@
       </c>
       <c r="M167" s="7" t="inlineStr">
         <is>
-          <t>Anna Kolstø Jensen</t>
+          <t>Ida Andrea Breigan</t>
         </is>
       </c>
       <c r="N167" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="O167" s="15" t="n">
-        <v>26.43</v>
+        <v>24.42</v>
       </c>
       <c r="P167" s="7" t="n">
-        <v>692</v>
+        <v>857</v>
       </c>
       <c r="Q167" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R167" s="16" t="n">
-        <v>17.06</v>
+        <v>13.02</v>
       </c>
       <c r="T167" s="5" t="n"/>
     </row>
@@ -37511,25 +37541,25 @@
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>Nora Kollerød Wold</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="D168" s="7" t="n">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="E168" s="15" t="n">
-        <v>55.18</v>
+        <v>54.17</v>
       </c>
       <c r="F168" s="7" t="n">
-        <v>848</v>
+        <v>887</v>
       </c>
       <c r="G168" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H168" s="16" t="n">
-        <v>29.01</v>
+        <v>25.06</v>
       </c>
       <c r="J168" s="5" t="n"/>
       <c r="L168" s="14" t="inlineStr">
@@ -37539,27 +37569,25 @@
       </c>
       <c r="M168" s="7" t="inlineStr">
         <is>
-          <t>Nora Jakobsen</t>
+          <t>Nora Kollerød Wold</t>
         </is>
       </c>
       <c r="N168" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O168" s="17" t="inlineStr">
-        <is>
-          <t>1,01,79</t>
-        </is>
+        <v>1997</v>
+      </c>
+      <c r="O168" s="15" t="n">
+        <v>55.18</v>
       </c>
       <c r="P168" s="7" t="n">
-        <v>624</v>
+        <v>848</v>
       </c>
       <c r="Q168" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R168" s="16" t="n">
-        <v>15.05</v>
+        <v>29.01</v>
       </c>
       <c r="T168" s="5" t="n"/>
     </row>
@@ -37571,27 +37599,27 @@
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Sara Busic</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E169" s="17" t="inlineStr">
         <is>
-          <t>2,21,36</t>
+          <t>2,12,41</t>
         </is>
       </c>
       <c r="F169" s="7" t="n">
-        <v>651</v>
+        <v>766</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Seinäjoki/FIN</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>12.06</v>
+        <v>30.06</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -37601,27 +37629,27 @@
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="O169" s="17" t="inlineStr">
         <is>
-          <t>2,11,52</t>
+          <t>2,21,36</t>
         </is>
       </c>
       <c r="P169" s="7" t="n">
-        <v>779</v>
+        <v>651</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Seinäjoki/FIN</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>30.06</v>
+        <v>12.06</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
@@ -37633,27 +37661,27 @@
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Luna Andrine Stang</t>
+          <t>Sara Busic</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="E170" s="17" t="inlineStr">
         <is>
-          <t>5,26,89</t>
+          <t>4,19,82</t>
         </is>
       </c>
       <c r="F170" s="7" t="n">
-        <v>482</v>
+        <v>865</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>18.06</v>
+        <v>25.06</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -37663,199 +37691,195 @@
       </c>
       <c r="M170" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Luna Andrine Stang</t>
         </is>
       </c>
       <c r="N170" s="7" t="n">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="O170" s="17" t="inlineStr">
         <is>
-          <t>4,20,10</t>
+          <t>5,26,89</t>
         </is>
       </c>
       <c r="P170" s="7" t="n">
-        <v>863</v>
+        <v>482</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R170" s="16" t="n">
-        <v>25.06</v>
+        <v>18.06</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
     <row r="171" ht="13" customHeight="1">
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Sara Busic</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E171" s="15" t="n">
-        <v>8.550000000000001</v>
+        <v>2002</v>
+      </c>
+      <c r="E171" s="17" t="inlineStr">
+        <is>
+          <t>9,24,30</t>
+        </is>
       </c>
       <c r="F171" s="7" t="n">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>6.02</v>
+        <v>30.07</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O171" s="17" t="inlineStr">
-        <is>
-          <t>9,21,51</t>
-        </is>
+        <v>1993</v>
+      </c>
+      <c r="O171" s="15" t="n">
+        <v>8.550000000000001</v>
       </c>
       <c r="P171" s="7" t="n">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>21.05</v>
+        <v>6.02</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Tonje Nedberg</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="E172" s="15" t="n">
-        <v>13.78</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>897</v>
+        <v>836</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>26.06</v>
+        <v>15.01</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Kristine Lande Dommersnes</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O172" s="17" t="inlineStr">
-        <is>
-          <t>16,21,74</t>
-        </is>
+        <v>1993</v>
+      </c>
+      <c r="O172" s="15" t="n">
+        <v>13.78</v>
       </c>
       <c r="P172" s="7" t="n">
-        <v>850</v>
+        <v>897</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>8.06</v>
+        <v>26.06</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Nora Kollerød Wold</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="E173" s="15" t="n">
-        <v>57.17</v>
+        <v>15.13</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>938</v>
+        <v>753</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>24.06</v>
+        <v>31.07</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Nora Kollerød Wold</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O173" s="17" t="inlineStr">
-        <is>
-          <t>10,18,52</t>
-        </is>
+        <v>1997</v>
+      </c>
+      <c r="O173" s="15" t="n">
+        <v>57.17</v>
       </c>
       <c r="P173" s="7" t="n">
-        <v>854</v>
+        <v>938</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
@@ -37863,29 +37887,29 @@
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>25.06</v>
+        <v>24.06</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Elisabeth Slettum</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2005</v>
+        <v>1986</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>1.6</v>
+        <v>55.77</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>691</v>
+        <v>989</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
@@ -37893,203 +37917,201 @@
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>28.05</v>
+        <v>30.06</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Irene Storstein</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O174" s="17" t="inlineStr">
-        <is>
-          <t>1,12,82</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O174" s="15" t="n">
+        <v>1.6</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>543</v>
+        <v>691</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>21.05</v>
+        <v>28.05</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Karine Magnussen</t>
+          <t>Anna Theodora Helgesen</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>2.6</v>
+        <v>1.52</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>6.07</v>
+        <v>19.06</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Line Hjortland</t>
+          <t>Karine Magnussen</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>1.43</v>
+        <v>2.6</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>13.03</v>
+        <v>6.07</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Ida Andrea Breigan</t>
+          <t>Lilly Sunde Johansen</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>5.96</v>
+        <v>1.7</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>833</v>
+        <v>332</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>12.02</v>
+        <v>26.02</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Kaja Kleppe Salemonsen</t>
+          <t>Ida Andrea Breigan</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>11.93</v>
+        <v>5.96</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>759</v>
+        <v>833</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Aberdeen/SD/USA</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>14.05</v>
+        <v>12.02</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>1.35</v>
+        <v>4.94</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>712</v>
+        <v>605</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>5.02</v>
+        <v>15.01</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>11.58</v>
+        <v>1.35</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
@@ -38104,97 +38126,97 @@
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Anna Theodora Helgesen</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>2.49</v>
+        <v>10.44</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>6.02</v>
+        <v>18.06</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>39.96</v>
+        <v>2.49</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>724</v>
+        <v>625</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>20.05</v>
+        <v>6.02</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
     <row r="179" ht="13" customHeight="1">
-      <c r="B179" s="14" t="n"/>
-      <c r="C179" s="7" t="n"/>
-      <c r="D179" s="7" t="n"/>
-      <c r="E179" s="7" t="n"/>
-      <c r="F179" s="7" t="n"/>
-      <c r="G179" s="7" t="n"/>
-      <c r="H179" s="21" t="n"/>
+      <c r="B179" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C179" s="7" t="inlineStr">
+        <is>
+          <t>Tonje Nedberg</t>
+        </is>
+      </c>
+      <c r="D179" s="7" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E179" s="15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F179" s="7" t="n">
+        <v>689</v>
+      </c>
+      <c r="G179" s="7" t="inlineStr">
+        <is>
+          <t>Ulsteinvik</t>
+        </is>
+      </c>
+      <c r="H179" s="16" t="n">
+        <v>6.02</v>
+      </c>
       <c r="J179" s="5" t="n"/>
-      <c r="L179" s="14" t="inlineStr">
-        <is>
-          <t>Slegge</t>
-        </is>
-      </c>
-      <c r="M179" s="7" t="inlineStr">
-        <is>
-          <t>Thea Dahl</t>
-        </is>
-      </c>
-      <c r="N179" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O179" s="15" t="n">
-        <v>43.86</v>
-      </c>
-      <c r="P179" s="7" t="n">
-        <v>734</v>
-      </c>
-      <c r="Q179" s="7" t="inlineStr">
-        <is>
-          <t>Lillehammer</t>
-        </is>
-      </c>
-      <c r="R179" s="16" t="n">
-        <v>17.06</v>
-      </c>
+      <c r="L179" s="14" t="n"/>
+      <c r="M179" s="7" t="n"/>
+      <c r="N179" s="7" t="n"/>
+      <c r="O179" s="7" t="n"/>
+      <c r="P179" s="7" t="n"/>
+      <c r="Q179" s="7" t="n"/>
+      <c r="R179" s="21" t="n"/>
       <c r="T179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
@@ -38222,7 +38244,7 @@
         </is>
       </c>
       <c r="C181" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E181" s="19" t="inlineStr">
         <is>
@@ -38230,7 +38252,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>10654</v>
+        <v>11283</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -38239,7 +38261,7 @@
         </is>
       </c>
       <c r="M181" s="20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O181" s="19" t="inlineStr">
         <is>
@@ -38247,7 +38269,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>10988</v>
+        <v>10654</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -38355,17 +38377,19 @@
       </c>
       <c r="C186" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="D186" s="7" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E186" s="15" t="n">
-        <v>57.49</v>
+        <v>2003</v>
+      </c>
+      <c r="E186" s="17" t="inlineStr">
+        <is>
+          <t>1,00,82</t>
+        </is>
       </c>
       <c r="F186" s="7" t="n">
-        <v>926</v>
+        <v>817</v>
       </c>
       <c r="G186" s="7" t="inlineStr">
         <is>
@@ -38378,24 +38402,22 @@
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M186" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="N186" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O186" s="17" t="inlineStr">
-        <is>
-          <t>4,23,67</t>
-        </is>
+        <v>1993</v>
+      </c>
+      <c r="O186" s="15" t="n">
+        <v>57.49</v>
       </c>
       <c r="P186" s="7" t="n">
-        <v>836</v>
+        <v>926</v>
       </c>
       <c r="Q186" s="7" t="inlineStr">
         <is>
@@ -38415,553 +38437,551 @@
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="D187" s="7" t="n">
-        <v>1993</v>
+        <v>2006</v>
       </c>
       <c r="E187" s="15" t="n">
-        <v>24.77</v>
+        <v>24.91</v>
       </c>
       <c r="F187" s="7" t="n">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="G187" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H187" s="16" t="n">
-        <v>5.02</v>
+        <v>31.07</v>
       </c>
       <c r="J187" s="5" t="n"/>
       <c r="L187" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M187" s="7" t="inlineStr">
         <is>
-          <t>Nora Jakobsen</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="N187" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O187" s="17" t="inlineStr">
-        <is>
-          <t>4,35,87</t>
-        </is>
+        <v>1993</v>
+      </c>
+      <c r="O187" s="15" t="n">
+        <v>24.77</v>
       </c>
       <c r="P187" s="7" t="n">
-        <v>751</v>
+        <v>826</v>
       </c>
       <c r="Q187" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R187" s="16" t="n">
-        <v>2.06</v>
+        <v>5.02</v>
       </c>
       <c r="T187" s="5" t="n"/>
     </row>
     <row r="188" ht="13" customHeight="1">
       <c r="B188" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Anna Bogunovic Jakobsen</t>
         </is>
       </c>
       <c r="D188" s="7" t="n">
         <v>1993</v>
       </c>
       <c r="E188" s="15" t="n">
-        <v>7.73</v>
+        <v>57.71</v>
       </c>
       <c r="F188" s="7" t="n">
-        <v>821</v>
+        <v>756</v>
       </c>
       <c r="G188" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H188" s="16" t="n">
-        <v>29.01</v>
+        <v>24.06</v>
       </c>
       <c r="J188" s="5" t="n"/>
       <c r="L188" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M188" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="N188" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O188" s="17" t="inlineStr">
-        <is>
-          <t>2,13,64</t>
-        </is>
+        <v>1993</v>
+      </c>
+      <c r="O188" s="15" t="n">
+        <v>7.73</v>
       </c>
       <c r="P188" s="7" t="n">
-        <v>748</v>
+        <v>821</v>
       </c>
       <c r="Q188" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R188" s="16" t="n">
-        <v>21.05</v>
+        <v>29.01</v>
       </c>
       <c r="T188" s="5" t="n"/>
     </row>
     <row r="189" ht="13" customHeight="1">
       <c r="B189" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>Ida Andrea Breigan</t>
+          <t>Oda Rosland Gjerstad</t>
         </is>
       </c>
       <c r="D189" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E189" s="15" t="n">
-        <v>56.3</v>
+        <v>2007</v>
+      </c>
+      <c r="E189" s="17" t="inlineStr">
+        <is>
+          <t>4,36,69</t>
+        </is>
       </c>
       <c r="F189" s="7" t="n">
-        <v>807</v>
+        <v>745</v>
       </c>
       <c r="G189" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H189" s="16" t="n">
-        <v>13.07</v>
+        <v>2.06</v>
       </c>
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M189" s="7" t="inlineStr">
         <is>
-          <t>Nora Jakobsen</t>
+          <t>Ida Andrea Breigan</t>
         </is>
       </c>
       <c r="N189" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O189" s="17" t="inlineStr">
-        <is>
-          <t>2,15,74</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O189" s="15" t="n">
+        <v>56.3</v>
       </c>
       <c r="P189" s="7" t="n">
-        <v>721</v>
+        <v>807</v>
       </c>
       <c r="Q189" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R189" s="16" t="n">
-        <v>8.06</v>
+        <v>13.07</v>
       </c>
       <c r="T189" s="5" t="n"/>
     </row>
     <row r="190" ht="13" customHeight="1">
       <c r="B190" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Dina Rosenvinge Aasen</t>
+          <t>Line Myrestøl Johansson</t>
         </is>
       </c>
       <c r="D190" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E190" s="15" t="n">
-        <v>25.42</v>
+        <v>1998</v>
+      </c>
+      <c r="E190" s="17" t="inlineStr">
+        <is>
+          <t>4,38,03</t>
+        </is>
       </c>
       <c r="F190" s="7" t="n">
-        <v>772</v>
+        <v>737</v>
       </c>
       <c r="G190" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H190" s="16" t="n">
-        <v>29.05</v>
+        <v>24.06</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Vilde Våge Henriksen</t>
+          <t>Dina Rosenvinge Aasen</t>
         </is>
       </c>
       <c r="N190" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O190" s="17" t="inlineStr">
-        <is>
-          <t>10,12,29</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O190" s="15" t="n">
+        <v>25.42</v>
       </c>
       <c r="P190" s="7" t="n">
-        <v>708</v>
+        <v>772</v>
       </c>
       <c r="Q190" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R190" s="16" t="n">
-        <v>9.050000000000001</v>
+        <v>29.05</v>
       </c>
       <c r="T190" s="5" t="n"/>
     </row>
     <row r="191" ht="13" customHeight="1">
       <c r="B191" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Mille Matilde Røsæg</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D191" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E191" s="15" t="n">
-        <v>12.51</v>
+        <v>8.01</v>
       </c>
       <c r="F191" s="7" t="n">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="G191" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H191" s="16" t="n">
-        <v>9.07</v>
+        <v>15.01</v>
       </c>
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Hedda Opsøen</t>
+          <t>Mille Matilde Røsæg</t>
         </is>
       </c>
       <c r="N191" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O191" s="17" t="inlineStr">
-        <is>
-          <t>2,18,08</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="O191" s="15" t="n">
+        <v>12.51</v>
       </c>
       <c r="P191" s="7" t="n">
-        <v>691</v>
+        <v>757</v>
       </c>
       <c r="Q191" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R191" s="16" t="n">
-        <v>8.06</v>
+        <v>9.07</v>
       </c>
       <c r="T191" s="5" t="n"/>
     </row>
     <row r="192" ht="13" customHeight="1">
       <c r="B192" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>Mille Matilde Røsæg</t>
+          <t>Freya Mjølsnes</t>
         </is>
       </c>
       <c r="D192" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E192" s="15" t="n">
-        <v>7.96</v>
+        <v>2003</v>
+      </c>
+      <c r="E192" s="17" t="inlineStr">
+        <is>
+          <t>4,40,19</t>
+        </is>
       </c>
       <c r="F192" s="7" t="n">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="G192" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H192" s="16" t="n">
-        <v>29.01</v>
+        <v>24.06</v>
       </c>
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M192" s="7" t="inlineStr">
         <is>
-          <t>Hedda Opsøen</t>
+          <t>Mille Matilde Røsæg</t>
         </is>
       </c>
       <c r="N192" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O192" s="17" t="inlineStr">
-        <is>
-          <t>4,51,56</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="O192" s="15" t="n">
+        <v>7.96</v>
       </c>
       <c r="P192" s="7" t="n">
-        <v>657</v>
+        <v>746</v>
       </c>
       <c r="Q192" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R192" s="16" t="n">
-        <v>5.07</v>
+        <v>29.01</v>
       </c>
       <c r="T192" s="5" t="n"/>
     </row>
     <row r="193" ht="13" customHeight="1">
       <c r="B193" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Anna Bogunovic Jakobsen</t>
         </is>
       </c>
       <c r="D193" s="7" t="n">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="E193" s="15" t="n">
-        <v>5.54</v>
+        <v>26.09</v>
       </c>
       <c r="F193" s="7" t="n">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="G193" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H193" s="16" t="n">
-        <v>22.05</v>
+        <v>31.07</v>
       </c>
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M193" s="7" t="inlineStr">
         <is>
-          <t>Maria Døske</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N193" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O193" s="15" t="n">
-        <v>34.66</v>
+        <v>5.54</v>
       </c>
       <c r="P193" s="7" t="n">
-        <v>651</v>
+        <v>737</v>
       </c>
       <c r="Q193" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="R193" s="16" t="n">
-        <v>27.05</v>
+        <v>22.05</v>
       </c>
       <c r="T193" s="5" t="n"/>
     </row>
     <row r="194" ht="13" customHeight="1">
       <c r="B194" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>Emma Skibstad Bekkevik</t>
+          <t>Astrid Cecilie Berntsen</t>
         </is>
       </c>
       <c r="D194" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E194" s="17" t="inlineStr">
         <is>
-          <t>1,04,92</t>
+          <t>2,16,58</t>
         </is>
       </c>
       <c r="F194" s="7" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>10.06</v>
+        <v>17.06</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M194" s="7" t="inlineStr">
         <is>
-          <t>Emilie Høyland Schou</t>
+          <t>Emma Skibstad Bekkevik</t>
         </is>
       </c>
       <c r="N194" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O194" s="15" t="n">
-        <v>13.28</v>
+        <v>2004</v>
+      </c>
+      <c r="O194" s="17" t="inlineStr">
+        <is>
+          <t>1,04,92</t>
+        </is>
       </c>
       <c r="P194" s="7" t="n">
-        <v>624</v>
+        <v>701</v>
       </c>
       <c r="Q194" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R194" s="16" t="n">
-        <v>19.06</v>
+        <v>10.06</v>
       </c>
       <c r="T194" s="5" t="n"/>
     </row>
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Emma Skibstad Bekkevik</t>
+          <t>Line Myrestøl Johansson</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E195" s="15" t="n">
-        <v>59.65</v>
+        <v>1998</v>
+      </c>
+      <c r="E195" s="17" t="inlineStr">
+        <is>
+          <t>2,16,62</t>
+        </is>
       </c>
       <c r="F195" s="7" t="n">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>29.01</v>
+        <v>25.06</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Jorunn Elisabeth Bakkevig Bjordal</t>
+          <t>Emma Skibstad Bekkevik</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O195" s="15" t="n">
-        <v>8.390000000000001</v>
+        <v>59.65</v>
       </c>
       <c r="P195" s="7" t="n">
-        <v>622</v>
+        <v>690</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>23.02</v>
+        <v>29.01</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Emma Skibstad Bekkevik</t>
+          <t>Anna Theodora Helgesen</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E196" s="15" t="n">
-        <v>26.58</v>
+        <v>4.86</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>681</v>
+        <v>588</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
@@ -38969,269 +38989,267 @@
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>13.02</v>
+        <v>12.02</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M196" s="7" t="inlineStr">
         <is>
-          <t>Maria Døske</t>
+          <t>Emma Skibstad Bekkevik</t>
         </is>
       </c>
       <c r="N196" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O196" s="15" t="n">
-        <v>10.31</v>
+        <v>26.58</v>
       </c>
       <c r="P196" s="7" t="n">
-        <v>614</v>
+        <v>681</v>
       </c>
       <c r="Q196" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R196" s="16" t="n">
-        <v>18.06</v>
+        <v>13.02</v>
       </c>
       <c r="T196" s="5" t="n"/>
     </row>
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Westberg</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>662</v>
+        <v>565</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>7.04</v>
+        <v>30.01</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Emma Apeland Rinde</t>
+          <t>Ingrid Westberg</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O197" s="17" t="inlineStr">
-        <is>
-          <t>5,01,18</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O197" s="15" t="n">
+        <v>1.3</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>19.01</v>
+        <v>7.04</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
     <row r="198" ht="13" customHeight="1">
       <c r="B198" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Luna Andrine Stang</t>
+          <t>Lucille Chevalier</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>1.38</v>
+        <v>4.53</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>17.06</v>
+        <v>22.05</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Irene Storstein</t>
+          <t>Luna Andrine Stang</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>9.93</v>
+        <v>1.38</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>27.05</v>
+        <v>17.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Hedvig Bossum Brimsholm</t>
+          <t>Lucille Chevalier</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>1.15</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>7.04</v>
+        <v>15.05</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Irene Storstein</t>
+          <t>Hedvig Bossum Brimsholm</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>2.35</v>
+        <v>1.15</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>29.01</v>
+        <v>7.04</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
     <row r="200" ht="13" customHeight="1">
       <c r="B200" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Tuva Kristine Ansteensen</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>4.28</v>
+        <v>2.28</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>29.05</v>
+        <v>29.01</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Thea Dahl</t>
+          <t>Tuva Kristine Ansteensen</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>8.67</v>
+        <v>4.28</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>12.02</v>
+        <v>29.05</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -39268,7 +39286,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>10574</v>
+        <v>10120</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -39285,7 +39303,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>9797</v>
+        <v>10574</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -39300,7 +39318,7 @@
         </is>
       </c>
       <c r="C204" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E204" s="19" t="inlineStr">
         <is>
@@ -39308,7 +39326,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21228</v>
+        <v>21403</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -39317,7 +39335,7 @@
         </is>
       </c>
       <c r="M204" s="20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O204" s="19" t="inlineStr">
         <is>
@@ -39325,7 +39343,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>20785</v>
+        <v>21228</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -39340,7 +39358,7 @@
         </is>
       </c>
       <c r="C206" s="20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="19" t="inlineStr">
@@ -39349,7 +39367,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -39421,7 +39439,7 @@
       </c>
       <c r="C211" s="7" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="J211" s="5" t="n"/>
@@ -39561,25 +39579,25 @@
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Anna Kolstø Jensen</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="E217" s="15" t="n">
-        <v>7.99</v>
+        <v>8.02</v>
       </c>
       <c r="F217" s="7" t="n">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>15.01</v>
+        <v>12.02</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
@@ -39619,17 +39637,17 @@
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Anna Kolstø Jensen</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E218" s="15" t="n">
-        <v>12.36</v>
+        <v>12.61</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>785</v>
+        <v>739</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
@@ -39677,25 +39695,25 @@
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Elisabeth Slettum</t>
+          <t>Anna Kolstø Jensen</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>1986</v>
+        <v>2004</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>23.32</v>
+        <v>26.43</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>958</v>
+        <v>692</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>16.06</v>
+        <v>17.06</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
@@ -39735,25 +39753,27 @@
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Nora Jakobsen</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E220" s="15" t="n">
-        <v>54.17</v>
+        <v>2007</v>
+      </c>
+      <c r="E220" s="17" t="inlineStr">
+        <is>
+          <t>1,01,79</t>
+        </is>
       </c>
       <c r="F220" s="7" t="n">
-        <v>887</v>
+        <v>624</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>25.06</v>
+        <v>15.05</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
@@ -39795,19 +39815,19 @@
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Sara Busic</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="E221" s="17" t="inlineStr">
         <is>
-          <t>2,12,41</t>
+          <t>2,11,52</t>
         </is>
       </c>
       <c r="F221" s="7" t="n">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
@@ -39855,19 +39875,19 @@
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Sara Busic</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="E222" s="17" t="inlineStr">
         <is>
-          <t>4,19,82</t>
+          <t>4,20,10</t>
         </is>
       </c>
       <c r="F222" s="7" t="n">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
@@ -39917,27 +39937,27 @@
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Oda Rosland Gjerstad</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E223" s="17" t="inlineStr">
         <is>
-          <t>10,12,81</t>
+          <t>9,21,51</t>
         </is>
       </c>
       <c r="F223" s="7" t="n">
-        <v>707</v>
+        <v>861</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>9.050000000000001</v>
+        <v>21.05</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
@@ -39974,30 +39994,32 @@
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Kristine Lande Dommersnes</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
         <v>1999</v>
       </c>
-      <c r="E224" s="15" t="n">
-        <v>8.720000000000001</v>
+      <c r="E224" s="17" t="inlineStr">
+        <is>
+          <t>16,21,74</t>
+        </is>
       </c>
       <c r="F224" s="7" t="n">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>15.01</v>
+        <v>8.06</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
@@ -40032,30 +40054,32 @@
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Elisabeth Slettum</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E225" s="15" t="n">
-        <v>55.77</v>
+        <v>2000</v>
+      </c>
+      <c r="E225" s="17" t="inlineStr">
+        <is>
+          <t>10,18,52</t>
+        </is>
       </c>
       <c r="F225" s="7" t="n">
-        <v>989</v>
+        <v>854</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>30.06</v>
+        <v>25.06</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
@@ -40090,30 +40114,32 @@
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Anna Theodora Helgesen</t>
+          <t>Irene Storstein</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E226" s="15" t="n">
-        <v>1.52</v>
+        <v>2003</v>
+      </c>
+      <c r="E226" s="17" t="inlineStr">
+        <is>
+          <t>1,12,82</t>
+        </is>
       </c>
       <c r="F226" s="7" t="n">
-        <v>626</v>
+        <v>543</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>19.06</v>
+        <v>21.05</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
@@ -40148,30 +40174,30 @@
     <row r="227" ht="13" customHeight="1">
       <c r="B227" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Lilly Sunde Johansen</t>
+          <t>Line Hjortland</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>332</v>
+        <v>547</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>26.02</v>
+        <v>13.03</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
@@ -40206,30 +40232,30 @@
     <row r="228" ht="13" customHeight="1">
       <c r="B228" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Kaja Kleppe Salemonsen</t>
         </is>
       </c>
       <c r="D228" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E228" s="15" t="n">
-        <v>4.94</v>
+        <v>11.93</v>
       </c>
       <c r="F228" s="7" t="n">
-        <v>605</v>
+        <v>759</v>
       </c>
       <c r="G228" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Aberdeen/SD/USA</t>
         </is>
       </c>
       <c r="H228" s="16" t="n">
-        <v>15.01</v>
+        <v>14.05</v>
       </c>
       <c r="J228" s="5" t="n"/>
       <c r="L228" s="14" t="inlineStr">
@@ -40264,30 +40290,30 @@
     <row r="229" ht="13" customHeight="1">
       <c r="B229" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C229" s="7" t="inlineStr">
         <is>
-          <t>Anna Theodora Helgesen</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="D229" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E229" s="15" t="n">
-        <v>10.44</v>
+        <v>11.58</v>
       </c>
       <c r="F229" s="7" t="n">
-        <v>604</v>
+        <v>691</v>
       </c>
       <c r="G229" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H229" s="16" t="n">
-        <v>18.06</v>
+        <v>5.02</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="14" t="inlineStr">
@@ -40322,30 +40348,30 @@
     <row r="230" ht="13" customHeight="1">
       <c r="B230" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C230" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="D230" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="E230" s="15" t="n">
-        <v>2.6</v>
+        <v>39.96</v>
       </c>
       <c r="F230" s="7" t="n">
-        <v>689</v>
+        <v>724</v>
       </c>
       <c r="G230" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Byrkjelo</t>
         </is>
       </c>
       <c r="H230" s="16" t="n">
-        <v>6.02</v>
+        <v>20.05</v>
       </c>
       <c r="J230" s="5" t="n"/>
       <c r="L230" s="14" t="inlineStr">
@@ -40378,13 +40404,33 @@
       <c r="T230" s="5" t="n"/>
     </row>
     <row r="231" ht="13" customHeight="1">
-      <c r="B231" s="14" t="n"/>
-      <c r="C231" s="7" t="n"/>
-      <c r="D231" s="7" t="n"/>
-      <c r="E231" s="7" t="n"/>
-      <c r="F231" s="7" t="n"/>
-      <c r="G231" s="7" t="n"/>
-      <c r="H231" s="21" t="n"/>
+      <c r="B231" s="14" t="inlineStr">
+        <is>
+          <t>Slegge</t>
+        </is>
+      </c>
+      <c r="C231" s="7" t="inlineStr">
+        <is>
+          <t>Thea Dahl</t>
+        </is>
+      </c>
+      <c r="D231" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E231" s="15" t="n">
+        <v>43.86</v>
+      </c>
+      <c r="F231" s="7" t="n">
+        <v>734</v>
+      </c>
+      <c r="G231" s="7" t="inlineStr">
+        <is>
+          <t>Lillehammer</t>
+        </is>
+      </c>
+      <c r="H231" s="16" t="n">
+        <v>17.06</v>
+      </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="14" t="inlineStr">
         <is>
@@ -40440,7 +40486,7 @@
         </is>
       </c>
       <c r="C233" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E233" s="19" t="inlineStr">
         <is>
@@ -40448,7 +40494,7 @@
         </is>
       </c>
       <c r="F233" s="20" t="n">
-        <v>10386</v>
+        <v>10988</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -40568,24 +40614,24 @@
     <row r="238" ht="13" customHeight="1">
       <c r="B238" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="D238" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E238" s="17" t="inlineStr">
         <is>
-          <t>1,00,82</t>
+          <t>4,23,67</t>
         </is>
       </c>
       <c r="F238" s="7" t="n">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="G238" s="7" t="inlineStr">
         <is>
@@ -40628,30 +40674,32 @@
     <row r="239" ht="13" customHeight="1">
       <c r="B239" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Nora Jakobsen</t>
         </is>
       </c>
       <c r="D239" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E239" s="15" t="n">
-        <v>25.36</v>
+        <v>2007</v>
+      </c>
+      <c r="E239" s="17" t="inlineStr">
+        <is>
+          <t>4,35,87</t>
+        </is>
       </c>
       <c r="F239" s="7" t="n">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="G239" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H239" s="16" t="n">
-        <v>15.05</v>
+        <v>2.06</v>
       </c>
       <c r="J239" s="5" t="n"/>
       <c r="L239" s="14" t="inlineStr">
@@ -40686,30 +40734,32 @@
     <row r="240" ht="13" customHeight="1">
       <c r="B240" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>Anna Bogunovic Jakobsen</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="D240" s="7" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E240" s="15" t="n">
-        <v>57.71</v>
+        <v>2000</v>
+      </c>
+      <c r="E240" s="17" t="inlineStr">
+        <is>
+          <t>2,13,64</t>
+        </is>
       </c>
       <c r="F240" s="7" t="n">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G240" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H240" s="16" t="n">
-        <v>24.06</v>
+        <v>21.05</v>
       </c>
       <c r="J240" s="5" t="n"/>
       <c r="L240" s="14" t="inlineStr">
@@ -40744,12 +40794,12 @@
     <row r="241" ht="13" customHeight="1">
       <c r="B241" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>Oda Rosland Gjerstad</t>
+          <t>Nora Jakobsen</t>
         </is>
       </c>
       <c r="D241" s="7" t="n">
@@ -40757,19 +40807,19 @@
       </c>
       <c r="E241" s="17" t="inlineStr">
         <is>
-          <t>4,36,69</t>
+          <t>2,15,74</t>
         </is>
       </c>
       <c r="F241" s="7" t="n">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="G241" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H241" s="16" t="n">
-        <v>2.06</v>
+        <v>8.06</v>
       </c>
       <c r="J241" s="5" t="n"/>
       <c r="L241" s="14" t="inlineStr">
@@ -40804,32 +40854,32 @@
     <row r="242" ht="13" customHeight="1">
       <c r="B242" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C242" s="7" t="inlineStr">
         <is>
-          <t>Line Myrestøl Johansson</t>
+          <t>Vilde Våge Henriksen</t>
         </is>
       </c>
       <c r="D242" s="7" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E242" s="17" t="inlineStr">
         <is>
-          <t>4,38,03</t>
+          <t>10,12,29</t>
         </is>
       </c>
       <c r="F242" s="7" t="n">
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="G242" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H242" s="16" t="n">
-        <v>24.06</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="J242" s="5" t="n"/>
       <c r="L242" s="14" t="inlineStr">
@@ -40864,30 +40914,32 @@
     <row r="243" ht="13" customHeight="1">
       <c r="B243" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Hedda Opsøen</t>
         </is>
       </c>
       <c r="D243" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E243" s="15" t="n">
-        <v>8.01</v>
+        <v>2005</v>
+      </c>
+      <c r="E243" s="17" t="inlineStr">
+        <is>
+          <t>2,18,08</t>
+        </is>
       </c>
       <c r="F243" s="7" t="n">
-        <v>731</v>
+        <v>691</v>
       </c>
       <c r="G243" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H243" s="16" t="n">
-        <v>15.01</v>
+        <v>8.06</v>
       </c>
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
@@ -40927,27 +40979,27 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Freya Mjølsnes</t>
+          <t>Hedda Opsøen</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E244" s="17" t="inlineStr">
         <is>
-          <t>4,40,19</t>
+          <t>4,51,56</t>
         </is>
       </c>
       <c r="F244" s="7" t="n">
-        <v>724</v>
+        <v>657</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>24.06</v>
+        <v>5.07</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -40982,32 +41034,30 @@
     <row r="245" ht="13" customHeight="1">
       <c r="B245" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Astrid Cecilie Berntsen</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E245" s="17" t="inlineStr">
-        <is>
-          <t>2,16,58</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E245" s="15" t="n">
+        <v>34.66</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>710</v>
+        <v>651</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>17.06</v>
+        <v>27.05</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -41042,32 +41092,30 @@
     <row r="246" ht="13" customHeight="1">
       <c r="B246" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Line Myrestøl Johansson</t>
+          <t>Emilie Høyland Schou</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E246" s="17" t="inlineStr">
-        <is>
-          <t>2,16,62</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E246" s="15" t="n">
+        <v>13.28</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>709</v>
+        <v>624</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>25.06</v>
+        <v>19.06</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -41102,30 +41150,30 @@
     <row r="247" ht="13" customHeight="1">
       <c r="B247" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Jorunn Elisabeth Bakkevig Bjordal</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E247" s="15" t="n">
-        <v>12.82</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>702</v>
+        <v>622</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>16.01</v>
+        <v>23.02</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -41160,30 +41208,30 @@
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Anna Theodora Helgesen</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E248" s="15" t="n">
-        <v>4.86</v>
+        <v>10.31</v>
       </c>
       <c r="F248" s="7" t="n">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>12.02</v>
+        <v>18.06</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -41218,30 +41266,32 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Emma Apeland Rinde</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E249" s="15" t="n">
-        <v>1.45</v>
+        <v>2008</v>
+      </c>
+      <c r="E249" s="17" t="inlineStr">
+        <is>
+          <t>5,01,18</t>
+        </is>
       </c>
       <c r="F249" s="7" t="n">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>30.01</v>
+        <v>19.01</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -41276,30 +41326,30 @@
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Lucille Chevalier</t>
+          <t>Irene Storstein</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E250" s="15" t="n">
-        <v>4.53</v>
+        <v>9.93</v>
       </c>
       <c r="F250" s="7" t="n">
-        <v>515</v>
+        <v>551</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>22.05</v>
+        <v>27.05</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -41334,30 +41384,30 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Lucille Chevalier</t>
+          <t>Irene Storstein</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>9.529999999999999</v>
+        <v>2.35</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>15.05</v>
+        <v>29.01</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -41392,30 +41442,30 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Thea Dahl</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>2.28</v>
+        <v>8.67</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>29.01</v>
+        <v>12.02</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -41480,7 +41530,7 @@
         </is>
       </c>
       <c r="F254" s="20" t="n">
-        <v>10066</v>
+        <v>9797</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="19" t="inlineStr">
@@ -41512,7 +41562,7 @@
         </is>
       </c>
       <c r="C256" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E256" s="19" t="inlineStr">
         <is>
@@ -41520,7 +41570,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>20452</v>
+        <v>20785</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -44229,7 +44279,7 @@
         <v>8.92</v>
       </c>
       <c r="P325" s="7" t="n">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q325" s="7" t="inlineStr">
         <is>
@@ -44711,7 +44761,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>8170</v>
+        <v>8169</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -45711,7 +45761,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>14625</v>
+        <v>14624</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -45851,7 +45901,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18398</v>
+        <v>18396</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -45935,7 +45985,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>15810</v>
+        <v>15812</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -46828,7 +46878,7 @@
         <v>8.5</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
@@ -47253,7 +47303,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>11629</v>
+        <v>11628</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -47388,7 +47438,7 @@
         <v>8.539999999999999</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
@@ -48039,7 +48089,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>6769</v>
+        <v>6768</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -48079,7 +48129,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18398</v>
+        <v>18396</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -49594,7 +49644,7 @@
         <v>9.82</v>
       </c>
       <c r="P80" s="7" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
@@ -49652,7 +49702,7 @@
         <v>9.84</v>
       </c>
       <c r="P81" s="7" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
@@ -50004,7 +50054,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>7476</v>
+        <v>7478</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -50044,7 +50094,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>15810</v>
+        <v>15812</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>27668</v>
+        <v>27670</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -1455,19 +1455,19 @@
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>3,37,39</t>
+          <t>3,37,27</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
-          <t>Ostrava/CZE</t>
+          <t>Berlin/GER</t>
         </is>
       </c>
       <c r="H13" s="16" t="n">
-        <v>3.02</v>
+        <v>4.09</v>
       </c>
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>14400</v>
+        <v>14402</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>27668</v>
+        <v>27670</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -6385,11 +6385,11 @@
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Simen Gimnes</t>
+          <t>Sigmund Le Fjeld</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E125" s="15" t="n">
         <v>13.86</v>
@@ -6399,11 +6399,11 @@
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>4.03</v>
+        <v>11.06</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -7309,11 +7309,11 @@
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Sigmund Le Fjeld</t>
+          <t>Simen Gimnes</t>
         </is>
       </c>
       <c r="D144" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E144" s="15" t="n">
         <v>13.86</v>
@@ -7323,11 +7323,11 @@
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>11.06</v>
+        <v>4.03</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
@@ -7381,11 +7381,11 @@
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>5.03</v>
+        <v>12.02</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
@@ -11350,30 +11350,30 @@
     <row r="241" ht="13" customHeight="1">
       <c r="B241" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>Henrik Duncan</t>
+          <t>Henrik Flåtnes</t>
         </is>
       </c>
       <c r="D241" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E241" s="15" t="n">
-        <v>11.09</v>
+        <v>7.1</v>
       </c>
       <c r="F241" s="7" t="n">
         <v>819</v>
       </c>
       <c r="G241" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H241" s="16" t="n">
-        <v>12.06</v>
+        <v>21.01</v>
       </c>
       <c r="J241" s="5" t="n"/>
       <c r="L241" s="14" t="inlineStr">
@@ -11410,30 +11410,30 @@
     <row r="242" ht="13" customHeight="1">
       <c r="B242" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C242" s="7" t="inlineStr">
         <is>
-          <t>Henrik Flåtnes</t>
+          <t>Henrik Duncan</t>
         </is>
       </c>
       <c r="D242" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E242" s="15" t="n">
-        <v>7.1</v>
+        <v>11.09</v>
       </c>
       <c r="F242" s="7" t="n">
         <v>819</v>
       </c>
       <c r="G242" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H242" s="16" t="n">
-        <v>21.01</v>
+        <v>12.06</v>
       </c>
       <c r="J242" s="5" t="n"/>
       <c r="L242" s="14" t="inlineStr">
@@ -16517,7 +16517,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>17992</v>
+        <v>18048</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -16569,11 +16569,11 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(25/13)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>16048</v>
+        <v>16094</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15797</v>
+        <v>15831</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -16681,11 +16681,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(23/8)</t>
+          <t>(23/9)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14705</v>
+        <v>14728</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -19849,30 +19849,32 @@
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Olav Gissinger</t>
+          <t>Trygve Tegnander</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O75" s="15" t="n">
-        <v>8.92</v>
+        <v>2001</v>
+      </c>
+      <c r="O75" s="17" t="inlineStr">
+        <is>
+          <t>1,57,27</t>
+        </is>
       </c>
       <c r="P75" s="7" t="n">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>6.02</v>
+        <v>20.08</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -19907,30 +19909,30 @@
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M76" s="7" t="inlineStr">
         <is>
-          <t>Martin Haugen Skårild</t>
+          <t>Olav Gissinger</t>
         </is>
       </c>
       <c r="N76" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="O76" s="15" t="n">
-        <v>7.35</v>
+        <v>8.92</v>
       </c>
       <c r="P76" s="7" t="n">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>12.02</v>
+        <v>6.02</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
@@ -19967,7 +19969,7 @@
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M77" s="7" t="inlineStr">
@@ -19979,18 +19981,18 @@
         <v>2004</v>
       </c>
       <c r="O77" s="15" t="n">
-        <v>11.52</v>
+        <v>7.35</v>
       </c>
       <c r="P77" s="7" t="n">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="Q77" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R77" s="16" t="n">
-        <v>5.07</v>
+        <v>12.02</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -20032,25 +20034,25 @@
       </c>
       <c r="M78" s="7" t="inlineStr">
         <is>
-          <t>Sander Frøseth Fenes</t>
+          <t>Martin Haugen Skårild</t>
         </is>
       </c>
       <c r="N78" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O78" s="15" t="n">
-        <v>11.56</v>
+        <v>11.52</v>
       </c>
       <c r="P78" s="7" t="n">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="Q78" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R78" s="16" t="n">
-        <v>19.06</v>
+        <v>5.07</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -20087,30 +20089,30 @@
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Ole Sivert Røyrhus</t>
+          <t>Sander Frøseth Fenes</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="O79" s="15" t="n">
-        <v>51.72</v>
+        <v>11.56</v>
       </c>
       <c r="P79" s="7" t="n">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>12.08</v>
+        <v>19.06</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
@@ -20147,30 +20149,30 @@
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Emil Vestre</t>
+          <t>Ole Sivert Røyrhus</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O80" s="15" t="n">
-        <v>11.63</v>
+        <v>51.72</v>
       </c>
       <c r="P80" s="7" t="n">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>19.06</v>
+        <v>12.08</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -20265,30 +20267,30 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Martin Haugen Skårild</t>
+          <t>Emil Vestre</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>52.01</v>
+        <v>11.63</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>4.06</v>
+        <v>19.06</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -20516,7 +20518,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>8115</v>
+        <v>8171</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -20556,7 +20558,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>17992</v>
+        <v>18048</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -21362,11 +21364,11 @@
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Stian André Lie Austrheim</t>
+          <t>Theodor Aase</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O112" s="15" t="n">
         <v>1.75</v>
@@ -22170,25 +22172,25 @@
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Theodor Aase</t>
+          <t>Sverre S. Tellmann</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O129" s="15" t="n">
-        <v>11.99</v>
+        <v>11.77</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>613</v>
+        <v>659</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Frakkagjerd</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>14.05</v>
+        <v>31.08</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -22228,11 +22230,11 @@
       </c>
       <c r="M130" s="7" t="inlineStr">
         <is>
-          <t>Theodor Aase</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="N130" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O130" s="15" t="n">
         <v>1.75</v>
@@ -22474,7 +22476,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7110</v>
+        <v>7156</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -22514,7 +22516,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>16048</v>
+        <v>16094</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -22538,7 +22540,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -22815,18 +22817,18 @@
         <v>2008</v>
       </c>
       <c r="E151" s="15" t="n">
-        <v>24.77</v>
+        <v>24.39</v>
       </c>
       <c r="F151" s="7" t="n">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="G151" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H151" s="16" t="n">
-        <v>16.05</v>
+        <v>21.08</v>
       </c>
       <c r="J151" s="5" t="n"/>
       <c r="L151" s="14" t="inlineStr">
@@ -23242,11 +23244,11 @@
       </c>
       <c r="G158" s="7" t="inlineStr">
         <is>
-          <t>Clermont-Ferrand/FRA</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H158" s="16" t="n">
-        <v>19.02</v>
+        <v>12.02</v>
       </c>
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
@@ -23543,7 +23545,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>9139</v>
+        <v>9173</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -24441,7 +24443,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15797</v>
+        <v>15831</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24956,27 +24958,27 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Haakon Alexander Kollerud Johansen</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>4,42,31</t>
+          <t>4,50,7</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>22.05</v>
+        <v>21.08</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -25462,7 +25464,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7267</v>
+        <v>7219</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25831,30 +25833,30 @@
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Siver Olavsbråten Ebbestad</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>3.54</v>
+        <v>11.91</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Seinäjoki/FIN</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>18.06</v>
+        <v>11.06</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -25891,30 +25893,30 @@
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Siver Olavsbråten Ebbestad</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>11.96</v>
+        <v>3.54</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>16.05</v>
+        <v>18.06</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
@@ -25954,25 +25956,25 @@
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>11.99</v>
+        <v>11.96</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>12.08</v>
+        <v>16.05</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -26009,30 +26011,30 @@
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>7.65</v>
+        <v>11.99</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>13.03</v>
+        <v>12.08</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
@@ -26072,17 +26074,17 @@
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>7.8</v>
+        <v>7.65</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>558</v>
+        <v>607</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
@@ -26200,11 +26202,11 @@
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>7.08</v>
+        <v>11.06</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26258,7 +26260,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>7438</v>
+        <v>7509</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26298,7 +26300,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14705</v>
+        <v>14728</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26322,7 +26324,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -29756,11 +29758,11 @@
       </c>
       <c r="G316" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H316" s="16" t="n">
-        <v>13.08</v>
+        <v>13.07</v>
       </c>
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
@@ -30272,7 +30274,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>26091</v>
+        <v>26212</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30375,25 +30377,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>21951</v>
+        <v>21953</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -30403,7 +30405,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -30412,16 +30414,16 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>21824</v>
+        <v>21951</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -30431,7 +30433,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -30440,16 +30442,16 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21754</v>
+        <v>21824</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -30552,7 +30554,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>17701</v>
+        <v>17732</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -30576,11 +30578,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(29/18)</t>
+          <t>(30/19)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>16437</v>
+        <v>17020</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -31055,25 +31057,25 @@
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Astri Ayo Lakeri Ertzgaard</t>
+          <t>Amalie Hammild Iuel</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="E12" s="15" t="n">
-        <v>52.74</v>
+        <v>51.99</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>944</v>
+        <v>975</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>Sollentuna/SWE</t>
+          <t>Berlin/GER</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
-        <v>12.06</v>
+        <v>4.09</v>
       </c>
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
@@ -31123,19 +31125,19 @@
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>2,00,90</t>
+          <t>2,00,23</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>967</v>
+        <v>982</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Padova/ITA</t>
         </is>
       </c>
       <c r="H13" s="16" t="n">
-        <v>16.06</v>
+        <v>4.09</v>
       </c>
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
@@ -31794,7 +31796,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>13730</v>
+        <v>13776</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -31919,25 +31921,25 @@
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Kaitesi Ertzgaard</t>
+          <t>Astri Ayo Lakeri Ertzgaard</t>
         </is>
       </c>
       <c r="D30" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E30" s="15" t="n">
-        <v>53.17</v>
+        <v>52.74</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>927</v>
+        <v>944</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Sollentuna/SWE</t>
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>16.07</v>
+        <v>12.06</v>
       </c>
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
@@ -31972,32 +31974,30 @@
     <row r="31" ht="13" customHeight="1">
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Jervell Våg</t>
+          <t>Kaitesi Ertzgaard</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E31" s="17" t="inlineStr">
-        <is>
-          <t>9,13,55</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="E31" s="15" t="n">
+        <v>53.17</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>889</v>
+        <v>927</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>København/DEN</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>16.06</v>
+        <v>16.07</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
@@ -32032,32 +32032,32 @@
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Malin Edland</t>
+          <t>Sigrid Jervell Våg</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="E32" s="17" t="inlineStr">
         <is>
-          <t>4,17,05</t>
+          <t>9,13,55</t>
         </is>
       </c>
       <c r="F32" s="7" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>København/DEN</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>2.06</v>
+        <v>16.06</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -32092,32 +32092,32 @@
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Maria Sagnes Wågan</t>
+          <t>Malin Edland</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="E33" s="17" t="inlineStr">
         <is>
-          <t>16,03,31</t>
+          <t>4,17,05</t>
         </is>
       </c>
       <c r="F33" s="7" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>24.06</v>
+        <v>2.06</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -32152,32 +32152,32 @@
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Malin Nyfors</t>
+          <t>Maria Sagnes Wågan</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="E34" s="17" t="inlineStr">
         <is>
-          <t>2,05,66</t>
+          <t>16,03,31</t>
         </is>
       </c>
       <c r="F34" s="7" t="n">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>21.05</v>
+        <v>24.06</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -32214,32 +32214,32 @@
     <row r="35" ht="13" customHeight="1">
       <c r="B35" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
         <is>
-          <t>Maria Sagnes Wågan</t>
+          <t>Malin Nyfors</t>
         </is>
       </c>
       <c r="D35" s="7" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>9,18,39</t>
+          <t>2,05,66</t>
         </is>
       </c>
       <c r="F35" s="7" t="n">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
-          <t>København/DEN</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H35" s="16" t="n">
-        <v>16.06</v>
+        <v>21.05</v>
       </c>
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
@@ -32274,12 +32274,12 @@
     <row r="36" ht="13" customHeight="1">
       <c r="B36" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Jervell Våg</t>
+          <t>Maria Sagnes Wågan</t>
         </is>
       </c>
       <c r="D36" s="7" t="n">
@@ -32287,19 +32287,19 @@
       </c>
       <c r="E36" s="17" t="inlineStr">
         <is>
-          <t>4,19,12</t>
+          <t>9,18,39</t>
         </is>
       </c>
       <c r="F36" s="7" t="n">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>København/DEN</t>
         </is>
       </c>
       <c r="H36" s="16" t="n">
-        <v>2.06</v>
+        <v>16.06</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
@@ -32334,30 +32334,32 @@
     <row r="37" ht="13" customHeight="1">
       <c r="B37" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>Amalie Hammild Iuel</t>
+          <t>Sigrid Jervell Våg</t>
         </is>
       </c>
       <c r="D37" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E37" s="15" t="n">
-        <v>54.64</v>
+        <v>1992</v>
+      </c>
+      <c r="E37" s="17" t="inlineStr">
+        <is>
+          <t>4,19,12</t>
+        </is>
       </c>
       <c r="F37" s="7" t="n">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H37" s="16" t="n">
-        <v>24.06</v>
+        <v>2.06</v>
       </c>
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
@@ -32834,7 +32836,7 @@
         </is>
       </c>
       <c r="F46" s="20" t="n">
-        <v>12361</v>
+        <v>12436</v>
       </c>
       <c r="J46" s="5" t="n"/>
       <c r="L46" s="19" t="inlineStr">
@@ -32874,7 +32876,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>26091</v>
+        <v>26212</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -35187,7 +35189,7 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="F106" s="8" t="n">
@@ -35201,7 +35203,7 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
       <c r="P106" s="8" t="n">
@@ -35217,7 +35219,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="J107" s="5" t="n"/>
@@ -35228,7 +35230,7 @@
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="T107" s="5" t="n"/>
@@ -35357,25 +35359,25 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Nora Aune</t>
+          <t>Tonje Nedberg</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>7.74</v>
+        <v>7.99</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>818</v>
+        <v>737</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>12.02</v>
+        <v>15.01</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -35385,25 +35387,25 @@
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Solveig Bustgård Gran</t>
+          <t>Nora Aune</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>5.03</v>
+        <v>12.02</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
@@ -35415,25 +35417,25 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Nora Aune</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>12.2</v>
+        <v>12.29</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>16.06</v>
+        <v>12.08</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -35443,25 +35445,25 @@
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Solveig Bustgård Gran</t>
+          <t>Nora Aune</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>12.24</v>
+        <v>12.2</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>24.06</v>
+        <v>16.06</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -35473,25 +35475,25 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Nora Aune</t>
+          <t>Elisabeth Slettum</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>2004</v>
+        <v>1986</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>24.71</v>
+        <v>23.32</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>831</v>
+        <v>958</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>6.03</v>
+        <v>16.06</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -35501,17 +35503,17 @@
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Solveig Bustgård Gran</t>
+          <t>Nora Aune</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>25.01</v>
+        <v>24.71</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>806</v>
+        <v>831</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
@@ -35531,25 +35533,25 @@
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Elisabeth Slettum</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="E116" s="15" t="n">
-        <v>55.69</v>
+        <v>53.15</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>829</v>
+        <v>928</v>
       </c>
       <c r="G116" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Berlin/GER</t>
         </is>
       </c>
       <c r="H116" s="16" t="n">
-        <v>25.06</v>
+        <v>4.09</v>
       </c>
       <c r="J116" s="5" t="n"/>
       <c r="L116" s="14" t="inlineStr">
@@ -35559,25 +35561,25 @@
       </c>
       <c r="M116" s="7" t="inlineStr">
         <is>
-          <t>Solveig Bustgård Gran</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="N116" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O116" s="15" t="n">
-        <v>56.11</v>
+        <v>55.69</v>
       </c>
       <c r="P116" s="7" t="n">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="Q116" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R116" s="16" t="n">
-        <v>16.07</v>
+        <v>25.06</v>
       </c>
       <c r="T116" s="5" t="n"/>
     </row>
@@ -35589,27 +35591,27 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Synnøve Antonsen Torp</t>
+          <t>Sara Busic</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E117" s="17" t="inlineStr">
         <is>
-          <t>2,13,93</t>
+          <t>2,08,24</t>
         </is>
       </c>
       <c r="F117" s="7" t="n">
-        <v>745</v>
+        <v>829</v>
       </c>
       <c r="G117" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>11.06</v>
+        <v>5.08</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="inlineStr">
@@ -35619,27 +35621,27 @@
       </c>
       <c r="M117" s="7" t="inlineStr">
         <is>
-          <t>Aurora Langbakk</t>
+          <t>Synnøve Antonsen Torp</t>
         </is>
       </c>
       <c r="N117" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="O117" s="17" t="inlineStr">
         <is>
-          <t>2,16,33</t>
+          <t>2,13,93</t>
         </is>
       </c>
       <c r="P117" s="7" t="n">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="Q117" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R117" s="16" t="n">
-        <v>27.08</v>
+        <v>11.06</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -35651,19 +35653,19 @@
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Synnøve Antonsen Torp</t>
+          <t>Sara Busic</t>
         </is>
       </c>
       <c r="D118" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E118" s="17" t="inlineStr">
         <is>
-          <t>4,33,65</t>
+          <t>4,19,82</t>
         </is>
       </c>
       <c r="F118" s="7" t="n">
-        <v>765</v>
+        <v>865</v>
       </c>
       <c r="G118" s="7" t="inlineStr">
         <is>
@@ -35681,27 +35683,27 @@
       </c>
       <c r="M118" s="7" t="inlineStr">
         <is>
-          <t>Aurora Langbakk</t>
+          <t>Synnøve Antonsen Torp</t>
         </is>
       </c>
       <c r="N118" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="O118" s="17" t="inlineStr">
         <is>
-          <t>4,50,32</t>
+          <t>4,33,65</t>
         </is>
       </c>
       <c r="P118" s="7" t="n">
-        <v>664</v>
+        <v>765</v>
       </c>
       <c r="Q118" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R118" s="16" t="n">
-        <v>26.08</v>
+        <v>25.06</v>
       </c>
       <c r="T118" s="5" t="n"/>
     </row>
@@ -35713,27 +35715,27 @@
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>Synnøve Antonsen Torp</t>
+          <t>Sara Busic</t>
         </is>
       </c>
       <c r="D119" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E119" s="17" t="inlineStr">
         <is>
-          <t>10,25,62</t>
+          <t>9,24,30</t>
         </is>
       </c>
       <c r="F119" s="7" t="n">
-        <v>674</v>
+        <v>851</v>
       </c>
       <c r="G119" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H119" s="16" t="n">
-        <v>3.05</v>
+        <v>30.07</v>
       </c>
       <c r="J119" s="5" t="n"/>
       <c r="L119" s="14" t="inlineStr">
@@ -35743,19 +35745,19 @@
       </c>
       <c r="M119" s="7" t="inlineStr">
         <is>
-          <t>Cathrine Grønbech</t>
+          <t>Synnøve Antonsen Torp</t>
         </is>
       </c>
       <c r="N119" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="O119" s="17" t="inlineStr">
         <is>
-          <t>10,59,78</t>
+          <t>10,25,62</t>
         </is>
       </c>
       <c r="P119" s="7" t="n">
-        <v>591</v>
+        <v>674</v>
       </c>
       <c r="Q119" s="7" t="inlineStr">
         <is>
@@ -35763,7 +35765,7 @@
         </is>
       </c>
       <c r="R119" s="16" t="n">
-        <v>12.08</v>
+        <v>3.05</v>
       </c>
       <c r="T119" s="5" t="n"/>
     </row>
@@ -35775,85 +35777,83 @@
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>Kristina Reppe</t>
+          <t>Tonje Nedberg</t>
         </is>
       </c>
       <c r="D120" s="7" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E120" s="15" t="n">
-        <v>8.6</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F120" s="7" t="n">
-        <v>862</v>
+        <v>836</v>
       </c>
       <c r="G120" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H120" s="16" t="n">
-        <v>4.03</v>
+        <v>15.01</v>
       </c>
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M120" s="7" t="inlineStr">
         <is>
-          <t>Josefina Biernacki</t>
+          <t>Kristina Reppe</t>
         </is>
       </c>
       <c r="N120" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="O120" s="15" t="n">
-        <v>13.74</v>
+        <v>8.6</v>
       </c>
       <c r="P120" s="7" t="n">
-        <v>902</v>
+        <v>862</v>
       </c>
       <c r="Q120" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R120" s="16" t="n">
-        <v>17.07</v>
+        <v>4.03</v>
       </c>
       <c r="T120" s="5" t="n"/>
     </row>
     <row r="121" ht="13" customHeight="1">
       <c r="B121" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>Nora Bakke</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D121" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E121" s="17" t="inlineStr">
-        <is>
-          <t>1,06,43</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E121" s="15" t="n">
+        <v>14.88</v>
       </c>
       <c r="F121" s="7" t="n">
-        <v>664</v>
+        <v>778</v>
       </c>
       <c r="G121" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H121" s="16" t="n">
-        <v>4.06</v>
+        <v>28.08</v>
       </c>
       <c r="J121" s="5" t="n"/>
       <c r="L121" s="14" t="inlineStr">
@@ -35863,375 +35863,375 @@
       </c>
       <c r="M121" s="7" t="inlineStr">
         <is>
-          <t>Elizabeth Pettersen Turk</t>
+          <t>Nora Bakke</t>
         </is>
       </c>
       <c r="N121" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="O121" s="17" t="inlineStr">
         <is>
-          <t>1,08,31</t>
+          <t>1,06,43</t>
         </is>
       </c>
       <c r="P121" s="7" t="n">
-        <v>622</v>
+        <v>664</v>
       </c>
       <c r="Q121" s="7" t="inlineStr">
         <is>
-          <t>Sagunto/ESP</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R121" s="16" t="n">
-        <v>11.06</v>
+        <v>4.06</v>
       </c>
       <c r="T121" s="5" t="n"/>
     </row>
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Elisabeth Slettum</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="E122" s="15" t="n">
-        <v>1.63</v>
+        <v>55.77</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>716</v>
+        <v>989</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>13.08</v>
+        <v>30.06</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Lene Onsrud Retzius</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="O122" s="15" t="n">
-        <v>4.7</v>
+        <v>1.63</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>1067</v>
+        <v>716</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Genève/SUI</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>11.06</v>
+        <v>13.08</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Agnes Elisabeth Morud</t>
+          <t>Anna Theodora Helgesen</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>806</v>
+        <v>651</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>13.08</v>
+        <v>25.08</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Agnes Elisabeth Morud</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>5.14</v>
+        <v>3.6</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>649</v>
+        <v>806</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>28.05</v>
+        <v>13.08</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Mia Guldteig Lien</t>
+          <t>Lilly Sunde Johansen</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>6.2</v>
+        <v>1.7</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>887</v>
+        <v>332</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>6.02</v>
+        <v>26.02</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Solveig Bustgård Gran</t>
+          <t>Mia Guldteig Lien</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>11.73</v>
+        <v>6.2</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>738</v>
+        <v>887</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>28.08</v>
+        <v>6.02</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>11.6</v>
+        <v>4.94</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>724</v>
+        <v>605</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>28.08</v>
+        <v>15.01</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Lene Onsrud Retzius</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>2.56</v>
+        <v>11.6</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>666</v>
+        <v>724</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>6.02</v>
+        <v>28.08</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Anna Theodora Helgesen</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>2.56</v>
+        <v>10.44</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>666</v>
+        <v>604</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>27.01</v>
+        <v>18.06</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Arianne Duarte Morais</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>13.08</v>
+        <v>2.56</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>767</v>
+        <v>666</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Tempe/AZ/USA</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>9.039999999999999</v>
+        <v>27.01</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Maia Kristine Hepsø</t>
+          <t>Tonje Nedberg</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>26.5</v>
+        <v>2.6</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>522</v>
+        <v>689</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>12.06</v>
+        <v>6.02</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Arianne Duarte Morais</t>
+          <t>Maia Kristine Hepsø</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>51.04</v>
+        <v>26.5</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>871</v>
+        <v>522</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Fayetteville/AR/USA</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>26.05</v>
+        <v>12.06</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
@@ -36268,7 +36268,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11324</v>
+        <v>11450</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -36285,7 +36285,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>11499</v>
+        <v>11324</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -36388,50 +36388,50 @@
     <row r="134" ht="13" customHeight="1">
       <c r="B134" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="D134" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E134" s="15" t="n">
-        <v>24.9</v>
+        <v>54.17</v>
       </c>
       <c r="F134" s="7" t="n">
-        <v>815</v>
+        <v>887</v>
       </c>
       <c r="G134" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H134" s="16" t="n">
-        <v>6.03</v>
+        <v>25.06</v>
       </c>
       <c r="J134" s="5" t="n"/>
       <c r="L134" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M134" s="7" t="inlineStr">
         <is>
-          <t>Thea Aase Pedersen</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="N134" s="7" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="O134" s="15" t="n">
-        <v>7.76</v>
+        <v>24.9</v>
       </c>
       <c r="P134" s="7" t="n">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="Q134" s="7" t="inlineStr">
         <is>
@@ -36439,37 +36439,37 @@
         </is>
       </c>
       <c r="R134" s="16" t="n">
-        <v>5.03</v>
+        <v>6.03</v>
       </c>
       <c r="T134" s="5" t="n"/>
     </row>
     <row r="135" ht="13" customHeight="1">
       <c r="B135" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>Mia Guldteig Lien</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="D135" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="E135" s="15" t="n">
-        <v>25.16</v>
+        <v>59.62</v>
       </c>
       <c r="F135" s="7" t="n">
-        <v>793</v>
+        <v>855</v>
       </c>
       <c r="G135" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Cali/COL</t>
         </is>
       </c>
       <c r="H135" s="16" t="n">
-        <v>23.01</v>
+        <v>3.08</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
@@ -36479,25 +36479,25 @@
       </c>
       <c r="M135" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Mia Guldteig Lien</t>
         </is>
       </c>
       <c r="N135" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O135" s="15" t="n">
-        <v>25.39</v>
+        <v>25.16</v>
       </c>
       <c r="P135" s="7" t="n">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>5.08</v>
+        <v>23.01</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -36509,219 +36509,223 @@
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Agnes Elisabeth Morud</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="D136" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E136" s="15" t="n">
-        <v>25.26</v>
+        <v>24.81</v>
       </c>
       <c r="F136" s="7" t="n">
-        <v>785</v>
+        <v>823</v>
       </c>
       <c r="G136" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H136" s="16" t="n">
-        <v>5.08</v>
+        <v>14.08</v>
       </c>
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M136" s="7" t="inlineStr">
         <is>
-          <t>Angelica Okparaebo</t>
+          <t>Agnes Elisabeth Morud</t>
         </is>
       </c>
       <c r="N136" s="7" t="n">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="O136" s="15" t="n">
-        <v>12.45</v>
+        <v>25.26</v>
       </c>
       <c r="P136" s="7" t="n">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="Q136" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R136" s="16" t="n">
-        <v>19.06</v>
+        <v>5.08</v>
       </c>
       <c r="T136" s="5" t="n"/>
     </row>
     <row r="137" ht="13" customHeight="1">
       <c r="B137" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Ida Beate Østhus</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="D137" s="7" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E137" s="15" t="n">
-        <v>3.4</v>
+        <v>2006</v>
+      </c>
+      <c r="E137" s="17" t="inlineStr">
+        <is>
+          <t>2,09,11</t>
+        </is>
       </c>
       <c r="F137" s="7" t="n">
-        <v>761</v>
+        <v>815</v>
       </c>
       <c r="G137" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H137" s="16" t="n">
-        <v>16.06</v>
+        <v>5.08</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M137" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Ida Beate Østhus</t>
         </is>
       </c>
       <c r="N137" s="7" t="n">
-        <v>2007</v>
+        <v>1987</v>
       </c>
       <c r="O137" s="15" t="n">
-        <v>12.61</v>
+        <v>3.4</v>
       </c>
       <c r="P137" s="7" t="n">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>30.06</v>
+        <v>16.06</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
     <row r="138" ht="13" customHeight="1">
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>Ella Njaastad Skjesol</t>
+          <t>Astrid Cecilie Berntsen</t>
         </is>
       </c>
       <c r="D138" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E138" s="15" t="n">
-        <v>57.86</v>
+        <v>2007</v>
+      </c>
+      <c r="E138" s="17" t="inlineStr">
+        <is>
+          <t>2,12,90</t>
+        </is>
       </c>
       <c r="F138" s="7" t="n">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="G138" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H138" s="16" t="n">
-        <v>24.06</v>
+        <v>28.08</v>
       </c>
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Ella Njaastad Skjesol</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O138" s="15" t="n">
-        <v>25.85</v>
+        <v>57.86</v>
       </c>
       <c r="P138" s="7" t="n">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R138" s="16" t="n">
-        <v>14.08</v>
+        <v>24.06</v>
       </c>
       <c r="T138" s="5" t="n"/>
     </row>
     <row r="139" ht="13" customHeight="1">
       <c r="B139" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Ella Njaastad Skjesol</t>
+          <t>Anna Bogunovic Larsen</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E139" s="15" t="n">
-        <v>25.77</v>
+        <v>57.71</v>
       </c>
       <c r="F139" s="7" t="n">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>30.06</v>
+        <v>24.06</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Ella Njaastad Skjesol</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O139" s="15" t="n">
-        <v>12.73</v>
+        <v>25.77</v>
       </c>
       <c r="P139" s="7" t="n">
-        <v>718</v>
+        <v>744</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
@@ -36736,22 +36740,24 @@
     <row r="140" ht="13" customHeight="1">
       <c r="B140" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Agnes Elisabeth Morud</t>
+          <t>Oda Rosland Gjerstad</t>
         </is>
       </c>
       <c r="D140" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E140" s="15" t="n">
-        <v>12.59</v>
+        <v>2007</v>
+      </c>
+      <c r="E140" s="17" t="inlineStr">
+        <is>
+          <t>4,36,69</t>
+        </is>
       </c>
       <c r="F140" s="7" t="n">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
@@ -36759,151 +36765,155 @@
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>7.08</v>
+        <v>2.06</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Angelica Okparaebo</t>
+          <t>Agnes Elisabeth Morud</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="O140" s="15" t="n">
-        <v>8.08</v>
+        <v>12.59</v>
       </c>
       <c r="P140" s="7" t="n">
-        <v>710</v>
+        <v>743</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>29.01</v>
+        <v>7.08</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
     <row r="141" ht="13" customHeight="1">
       <c r="B141" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Sanna Johnsen Møkkelgård</t>
+          <t>Line Myrestøl Johansson</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E141" s="15" t="n">
-        <v>25.81</v>
+        <v>1998</v>
+      </c>
+      <c r="E141" s="17" t="inlineStr">
+        <is>
+          <t>4,38,03</t>
+        </is>
       </c>
       <c r="F141" s="7" t="n">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>30.06</v>
+        <v>24.06</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Sanna Johnsen Møkkelgård</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O141" s="15" t="n">
-        <v>59.38</v>
+        <v>25.81</v>
       </c>
       <c r="P141" s="7" t="n">
-        <v>699</v>
+        <v>741</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>12.06</v>
+        <v>30.06</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Sanna Johnsen Møkkelgård</t>
+          <t>Oda Rosland Gjerstad</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E142" s="15" t="n">
-        <v>12.68</v>
+        <v>2007</v>
+      </c>
+      <c r="E142" s="17" t="inlineStr">
+        <is>
+          <t>10,01,64</t>
+        </is>
       </c>
       <c r="F142" s="7" t="n">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>4.06</v>
+        <v>28.08</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M142" s="7" t="inlineStr">
         <is>
-          <t>Elizabeth Pettersen Turk</t>
+          <t>Sanna Johnsen Møkkelgård</t>
         </is>
       </c>
       <c r="N142" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="O142" s="15" t="n">
-        <v>11.68</v>
+        <v>12.68</v>
       </c>
       <c r="P142" s="7" t="n">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
-          <t>Nesodden</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R142" s="16" t="n">
-        <v>25.08</v>
+        <v>4.06</v>
       </c>
       <c r="T142" s="5" t="n"/>
     </row>
@@ -36915,111 +36925,111 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Agnes Elisabeth Morud</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E143" s="15" t="n">
-        <v>8.029999999999999</v>
+        <v>8.01</v>
       </c>
       <c r="F143" s="7" t="n">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>5.03</v>
+        <v>15.01</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Nora Proctor</t>
+          <t>Agnes Elisabeth Morud</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O143" s="15" t="n">
-        <v>12.88</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="P143" s="7" t="n">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>12.06</v>
+        <v>5.03</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
     <row r="144" ht="13" customHeight="1">
       <c r="B144" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Ella Njaastad Skjesol</t>
+          <t>Anna Theodora Helgesen</t>
         </is>
       </c>
       <c r="D144" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E144" s="15" t="n">
-        <v>12.75</v>
+        <v>4.86</v>
       </c>
       <c r="F144" s="7" t="n">
-        <v>714</v>
+        <v>588</v>
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>30.06</v>
+        <v>12.02</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Ella Njaastad Skjesol</t>
         </is>
       </c>
       <c r="N144" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O144" s="15" t="n">
-        <v>8.220000000000001</v>
+        <v>12.75</v>
       </c>
       <c r="P144" s="7" t="n">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>29.01</v>
+        <v>30.06</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
@@ -37031,83 +37041,83 @@
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Hedvig Johanne Olsson Volden</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D145" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>13.02</v>
+        <v>30.01</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M145" s="7" t="inlineStr">
         <is>
-          <t>Julie Margrete Gaustad</t>
+          <t>Hedvig Johanne Olsson Volden</t>
         </is>
       </c>
       <c r="N145" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="O145" s="15" t="n">
-        <v>10.9</v>
+        <v>1.5</v>
       </c>
       <c r="P145" s="7" t="n">
-        <v>651</v>
+        <v>609</v>
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="R145" s="16" t="n">
-        <v>26.06</v>
+        <v>20.03</v>
       </c>
       <c r="T145" s="5" t="n"/>
     </row>
     <row r="146" ht="13" customHeight="1">
       <c r="B146" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Lotta Elfenbein</t>
+          <t>Lucille Chevalier</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E146" s="15" t="n">
-        <v>10.3</v>
+        <v>4.53</v>
       </c>
       <c r="F146" s="7" t="n">
-        <v>589</v>
+        <v>515</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>13.02</v>
+        <v>22.05</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
@@ -37117,141 +37127,141 @@
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Lotta Elfenbein</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>10.18</v>
+        <v>10.3</v>
       </c>
       <c r="P146" s="7" t="n">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>4.03</v>
+        <v>13.02</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
     <row r="147" ht="13" customHeight="1">
       <c r="B147" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Elise Eltervaag</t>
+          <t>Lucille Chevalier</t>
         </is>
       </c>
       <c r="D147" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>4.77</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>568</v>
+        <v>509</v>
       </c>
       <c r="G147" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H147" s="16" t="n">
-        <v>20.03</v>
+        <v>15.05</v>
       </c>
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M147" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Falck</t>
+          <t>Elise Eltervaag</t>
         </is>
       </c>
       <c r="N147" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="O147" s="15" t="n">
-        <v>1.45</v>
+        <v>4.77</v>
       </c>
       <c r="P147" s="7" t="n">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Q147" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="R147" s="16" t="n">
-        <v>28.05</v>
+        <v>20.03</v>
       </c>
       <c r="T147" s="5" t="n"/>
     </row>
     <row r="148" ht="13" customHeight="1">
       <c r="B148" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>Hedvig Johanne Olsson Volden</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D148" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E148" s="15" t="n">
-        <v>4.74</v>
+        <v>2.28</v>
       </c>
       <c r="F148" s="7" t="n">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="G148" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H148" s="16" t="n">
-        <v>20.03</v>
+        <v>29.01</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Angelica Okparaebo</t>
+          <t>Hedvig Johanne Olsson Volden</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>2.33</v>
+        <v>4.74</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>6.02</v>
+        <v>20.03</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -37288,7 +37298,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>10627</v>
+        <v>10503</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -37305,7 +37315,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>10325</v>
+        <v>10627</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -37328,7 +37338,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>21951</v>
+        <v>21953</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -37345,7 +37355,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>21824</v>
+        <v>21951</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -37360,7 +37370,7 @@
         </is>
       </c>
       <c r="C154" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="19" t="inlineStr">
@@ -37411,7 +37421,7 @@
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="F158" s="8" t="n">
@@ -37441,7 +37451,7 @@
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="J159" s="5" t="n"/>
@@ -37581,25 +37591,25 @@
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Solveig Bustgård Gran</t>
         </is>
       </c>
       <c r="D165" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E165" s="15" t="n">
-        <v>7.99</v>
+        <v>7.73</v>
       </c>
       <c r="F165" s="7" t="n">
-        <v>737</v>
+        <v>821</v>
       </c>
       <c r="G165" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H165" s="16" t="n">
-        <v>15.01</v>
+        <v>5.03</v>
       </c>
       <c r="J165" s="5" t="n"/>
       <c r="L165" s="14" t="inlineStr">
@@ -37639,25 +37649,25 @@
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Solveig Bustgård Gran</t>
         </is>
       </c>
       <c r="D166" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E166" s="15" t="n">
-        <v>12.29</v>
+        <v>12.24</v>
       </c>
       <c r="F166" s="7" t="n">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="G166" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H166" s="16" t="n">
-        <v>12.08</v>
+        <v>24.06</v>
       </c>
       <c r="J166" s="5" t="n"/>
       <c r="L166" s="14" t="inlineStr">
@@ -37697,25 +37707,25 @@
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>Elisabeth Slettum</t>
+          <t>Solveig Bustgård Gran</t>
         </is>
       </c>
       <c r="D167" s="7" t="n">
-        <v>1986</v>
+        <v>2002</v>
       </c>
       <c r="E167" s="15" t="n">
-        <v>23.32</v>
+        <v>25.01</v>
       </c>
       <c r="F167" s="7" t="n">
-        <v>958</v>
+        <v>806</v>
       </c>
       <c r="G167" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H167" s="16" t="n">
-        <v>16.06</v>
+        <v>6.03</v>
       </c>
       <c r="J167" s="5" t="n"/>
       <c r="L167" s="14" t="inlineStr">
@@ -37755,25 +37765,25 @@
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Solveig Bustgård Gran</t>
         </is>
       </c>
       <c r="D168" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E168" s="15" t="n">
-        <v>54.17</v>
+        <v>56.11</v>
       </c>
       <c r="F168" s="7" t="n">
-        <v>887</v>
+        <v>814</v>
       </c>
       <c r="G168" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H168" s="16" t="n">
-        <v>25.06</v>
+        <v>16.07</v>
       </c>
       <c r="J168" s="5" t="n"/>
       <c r="L168" s="14" t="inlineStr">
@@ -37813,27 +37823,27 @@
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Sara Busic</t>
+          <t>Aurora Langbakk</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E169" s="17" t="inlineStr">
         <is>
-          <t>2,08,24</t>
+          <t>2,16,33</t>
         </is>
       </c>
       <c r="F169" s="7" t="n">
-        <v>829</v>
+        <v>713</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>5.08</v>
+        <v>27.08</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -37875,27 +37885,27 @@
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Sara Busic</t>
+          <t>Aurora Langbakk</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E170" s="17" t="inlineStr">
         <is>
-          <t>4,19,82</t>
+          <t>4,50,32</t>
         </is>
       </c>
       <c r="F170" s="7" t="n">
-        <v>865</v>
+        <v>664</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>25.06</v>
+        <v>26.08</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -37937,27 +37947,27 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Sara Busic</t>
+          <t>Cathrine Grønbech</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E171" s="17" t="inlineStr">
         <is>
-          <t>9,24,30</t>
+          <t>10,59,78</t>
         </is>
       </c>
       <c r="F171" s="7" t="n">
-        <v>851</v>
+        <v>591</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>30.07</v>
+        <v>12.08</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -37994,30 +38004,30 @@
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Josefina Biernacki</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E172" s="15" t="n">
-        <v>8.720000000000001</v>
+        <v>13.74</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>836</v>
+        <v>902</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>15.01</v>
+        <v>17.07</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -38052,30 +38062,32 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Elizabeth Pettersen Turk</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E173" s="15" t="n">
-        <v>14.88</v>
+        <v>2001</v>
+      </c>
+      <c r="E173" s="17" t="inlineStr">
+        <is>
+          <t>1,08,31</t>
+        </is>
       </c>
       <c r="F173" s="7" t="n">
-        <v>778</v>
+        <v>622</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sagunto/ESP</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>28.08</v>
+        <v>11.06</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -38110,30 +38122,30 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Elisabeth Slettum</t>
+          <t>Lene Onsrud Retzius</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>55.77</v>
+        <v>4.7</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>989</v>
+        <v>1067</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Genève/SUI</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>30.06</v>
+        <v>11.06</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -38168,30 +38180,30 @@
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Anna Theodora Helgesen</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>1.55</v>
+        <v>5.14</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>25.08</v>
+        <v>28.05</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -38226,30 +38238,30 @@
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Lilly Sunde Johansen</t>
+          <t>Solveig Bustgård Gran</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>1.7</v>
+        <v>11.73</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>332</v>
+        <v>738</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>26.02</v>
+        <v>28.08</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -38284,30 +38296,30 @@
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Lene Onsrud Retzius</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>4.94</v>
+        <v>2.56</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>605</v>
+        <v>666</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>15.01</v>
+        <v>6.02</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
@@ -38342,30 +38354,30 @@
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Anna Theodora Helgesen</t>
+          <t>Arianne Duarte Morais</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>10.44</v>
+        <v>13.08</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>604</v>
+        <v>767</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Tempe/AZ/USA</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>18.06</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -38400,30 +38412,30 @@
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Arianne Duarte Morais</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
         <v>1999</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>2.6</v>
+        <v>51.04</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>689</v>
+        <v>871</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Fayetteville/AR/USA</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>6.02</v>
+        <v>26.05</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
@@ -38488,7 +38500,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11409</v>
+        <v>11499</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -38608,30 +38620,30 @@
     <row r="186" ht="13" customHeight="1">
       <c r="B186" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Thea Aase Pedersen</t>
         </is>
       </c>
       <c r="D186" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E186" s="15" t="n">
-        <v>59.62</v>
+        <v>7.76</v>
       </c>
       <c r="F186" s="7" t="n">
-        <v>855</v>
+        <v>811</v>
       </c>
       <c r="G186" s="7" t="inlineStr">
         <is>
-          <t>Cali/COL</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H186" s="16" t="n">
-        <v>3.08</v>
+        <v>5.03</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="14" t="inlineStr">
@@ -38671,25 +38683,25 @@
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Lilje Lopes Patey</t>
         </is>
       </c>
       <c r="D187" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E187" s="15" t="n">
-        <v>24.81</v>
+        <v>25.39</v>
       </c>
       <c r="F187" s="7" t="n">
-        <v>823</v>
+        <v>775</v>
       </c>
       <c r="G187" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H187" s="16" t="n">
-        <v>14.08</v>
+        <v>5.08</v>
       </c>
       <c r="J187" s="5" t="n"/>
       <c r="L187" s="14" t="inlineStr">
@@ -38724,32 +38736,30 @@
     <row r="188" ht="13" customHeight="1">
       <c r="B188" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Angelica Okparaebo</t>
         </is>
       </c>
       <c r="D188" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E188" s="17" t="inlineStr">
-        <is>
-          <t>2,09,11</t>
-        </is>
+        <v>1997</v>
+      </c>
+      <c r="E188" s="15" t="n">
+        <v>12.45</v>
       </c>
       <c r="F188" s="7" t="n">
-        <v>815</v>
+        <v>768</v>
       </c>
       <c r="G188" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H188" s="16" t="n">
-        <v>5.08</v>
+        <v>19.06</v>
       </c>
       <c r="J188" s="5" t="n"/>
       <c r="L188" s="14" t="inlineStr">
@@ -38784,32 +38794,30 @@
     <row r="189" ht="13" customHeight="1">
       <c r="B189" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>Astrid Cecilie Berntsen</t>
+          <t>Lilje Lopes Patey</t>
         </is>
       </c>
       <c r="D189" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E189" s="17" t="inlineStr">
-        <is>
-          <t>2,12,90</t>
-        </is>
+      <c r="E189" s="15" t="n">
+        <v>12.61</v>
       </c>
       <c r="F189" s="7" t="n">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="G189" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H189" s="16" t="n">
-        <v>28.08</v>
+        <v>30.06</v>
       </c>
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
@@ -38844,30 +38852,30 @@
     <row r="190" ht="13" customHeight="1">
       <c r="B190" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Anna Bogunovic Larsen</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D190" s="7" t="n">
-        <v>1993</v>
+        <v>2005</v>
       </c>
       <c r="E190" s="15" t="n">
-        <v>57.71</v>
+        <v>25.85</v>
       </c>
       <c r="F190" s="7" t="n">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="G190" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H190" s="16" t="n">
-        <v>24.06</v>
+        <v>14.08</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="14" t="inlineStr">
@@ -38902,32 +38910,30 @@
     <row r="191" ht="13" customHeight="1">
       <c r="B191" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Oda Rosland Gjerstad</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D191" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E191" s="17" t="inlineStr">
-        <is>
-          <t>4,36,69</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E191" s="15" t="n">
+        <v>12.73</v>
       </c>
       <c r="F191" s="7" t="n">
-        <v>745</v>
+        <v>718</v>
       </c>
       <c r="G191" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H191" s="16" t="n">
-        <v>2.06</v>
+        <v>30.06</v>
       </c>
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
@@ -38962,32 +38968,30 @@
     <row r="192" ht="13" customHeight="1">
       <c r="B192" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>Line Myrestøl Johansson</t>
+          <t>Angelica Okparaebo</t>
         </is>
       </c>
       <c r="D192" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E192" s="17" t="inlineStr">
-        <is>
-          <t>4,38,03</t>
-        </is>
+        <v>1997</v>
+      </c>
+      <c r="E192" s="15" t="n">
+        <v>8.08</v>
       </c>
       <c r="F192" s="7" t="n">
-        <v>737</v>
+        <v>710</v>
       </c>
       <c r="G192" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H192" s="16" t="n">
-        <v>24.06</v>
+        <v>29.01</v>
       </c>
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
@@ -39022,32 +39026,30 @@
     <row r="193" ht="13" customHeight="1">
       <c r="B193" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>Oda Rosland Gjerstad</t>
+          <t>Lilje Lopes Patey</t>
         </is>
       </c>
       <c r="D193" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E193" s="17" t="inlineStr">
-        <is>
-          <t>10,01,64</t>
-        </is>
+      <c r="E193" s="15" t="n">
+        <v>59.38</v>
       </c>
       <c r="F193" s="7" t="n">
-        <v>737</v>
+        <v>699</v>
       </c>
       <c r="G193" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H193" s="16" t="n">
-        <v>28.08</v>
+        <v>12.06</v>
       </c>
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
@@ -39071,41 +39073,41 @@
       </c>
       <c r="Q193" s="7" t="inlineStr">
         <is>
-          <t>Jerusalem/ISR</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="R193" s="16" t="n">
-        <v>5.07</v>
+        <v>22.05</v>
       </c>
       <c r="T193" s="5" t="n"/>
     </row>
     <row r="194" ht="13" customHeight="1">
       <c r="B194" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Elizabeth Pettersen Turk</t>
         </is>
       </c>
       <c r="D194" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E194" s="15" t="n">
-        <v>8.01</v>
+        <v>11.68</v>
       </c>
       <c r="F194" s="7" t="n">
-        <v>731</v>
+        <v>696</v>
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nesodden</t>
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>15.01</v>
+        <v>25.08</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
@@ -39142,32 +39144,30 @@
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Sarah Al-Saiddi</t>
+          <t>Nora Proctor</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E195" s="17" t="inlineStr">
-        <is>
-          <t>1,03,88</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E195" s="15" t="n">
+        <v>12.88</v>
       </c>
       <c r="F195" s="7" t="n">
-        <v>729</v>
+        <v>691</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>27.08</v>
+        <v>12.06</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
@@ -39202,22 +39202,22 @@
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Anna Theodora Helgesen</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E196" s="15" t="n">
-        <v>4.86</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>588</v>
+        <v>669</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>12.02</v>
+        <v>29.01</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
@@ -39260,30 +39260,30 @@
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Julie Margrete Gaustad</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>1.45</v>
+        <v>10.9</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>565</v>
+        <v>651</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>30.01</v>
+        <v>26.06</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -39318,30 +39318,30 @@
     <row r="198" ht="13" customHeight="1">
       <c r="B198" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Lucille Chevalier</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>4.53</v>
+        <v>10.18</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>22.05</v>
+        <v>4.03</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -39376,30 +39376,30 @@
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Lucille Chevalier</t>
+          <t>Mathilde Falck</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>9.529999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>15.05</v>
+        <v>28.05</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -39439,25 +39439,25 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Angelica Okparaebo</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>29.01</v>
+        <v>6.02</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -39522,7 +39522,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>10345</v>
+        <v>10325</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -39562,7 +39562,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21754</v>
+        <v>21824</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -42203,25 +42203,25 @@
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Cassandra Ødegård Nilsen</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>28.85</v>
+        <v>26.69</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>522</v>
+        <v>673</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>3.09</v>
+        <v>19.06</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -42569,25 +42569,25 @@
       </c>
       <c r="M277" s="7" t="inlineStr">
         <is>
-          <t>Cassandra Ødegård Nilsen</t>
+          <t>Dahlia Miriam Øksne</t>
         </is>
       </c>
       <c r="N277" s="7" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="O277" s="15" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P277" s="7" t="n">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="Q277" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R277" s="16" t="n">
-        <v>23.01</v>
+        <v>21.08</v>
       </c>
       <c r="T277" s="5" t="n"/>
     </row>
@@ -42743,17 +42743,17 @@
       </c>
       <c r="M280" s="7" t="inlineStr">
         <is>
-          <t>Sofie Mielenz</t>
+          <t>Meike Hesselink</t>
         </is>
       </c>
       <c r="N280" s="7" t="n">
-        <v>2003</v>
+        <v>1977</v>
       </c>
       <c r="O280" s="15" t="n">
-        <v>6.93</v>
+        <v>7.66</v>
       </c>
       <c r="P280" s="7" t="n">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="Q280" s="7" t="inlineStr">
         <is>
@@ -42761,7 +42761,7 @@
         </is>
       </c>
       <c r="R280" s="16" t="n">
-        <v>7.04</v>
+        <v>5.09</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
@@ -42796,30 +42796,30 @@
       <c r="J281" s="5" t="n"/>
       <c r="L281" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M281" s="7" t="inlineStr">
         <is>
-          <t>Tiril Lappegård</t>
+          <t>Meike Hesselink</t>
         </is>
       </c>
       <c r="N281" s="7" t="n">
-        <v>2003</v>
+        <v>1977</v>
       </c>
       <c r="O281" s="15" t="n">
-        <v>54.54</v>
+        <v>25.92</v>
       </c>
       <c r="P281" s="7" t="n">
-        <v>863</v>
+        <v>511</v>
       </c>
       <c r="Q281" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R281" s="16" t="n">
-        <v>27.04</v>
+        <v>5.09</v>
       </c>
       <c r="T281" s="5" t="n"/>
     </row>
@@ -42854,30 +42854,30 @@
       <c r="J282" s="5" t="n"/>
       <c r="L282" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M282" s="7" t="inlineStr">
         <is>
-          <t>Sonia Elisabeth Fearnley</t>
+          <t>Tiril Lappegård</t>
         </is>
       </c>
       <c r="N282" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="O282" s="15" t="n">
-        <v>40.44</v>
+        <v>54.54</v>
       </c>
       <c r="P282" s="7" t="n">
-        <v>708</v>
+        <v>863</v>
       </c>
       <c r="Q282" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R282" s="16" t="n">
-        <v>27.08</v>
+        <v>27.04</v>
       </c>
       <c r="T282" s="5" t="n"/>
     </row>
@@ -42910,13 +42910,33 @@
         <v>25.06</v>
       </c>
       <c r="J283" s="5" t="n"/>
-      <c r="L283" s="14" t="n"/>
-      <c r="M283" s="7" t="n"/>
-      <c r="N283" s="7" t="n"/>
-      <c r="O283" s="7" t="n"/>
-      <c r="P283" s="7" t="n"/>
-      <c r="Q283" s="7" t="n"/>
-      <c r="R283" s="21" t="n"/>
+      <c r="L283" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="M283" s="7" t="inlineStr">
+        <is>
+          <t>Sonia Elisabeth Fearnley</t>
+        </is>
+      </c>
+      <c r="N283" s="7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="O283" s="15" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="P283" s="7" t="n">
+        <v>708</v>
+      </c>
+      <c r="Q283" s="7" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="R283" s="16" t="n">
+        <v>27.08</v>
+      </c>
       <c r="T283" s="5" t="n"/>
     </row>
     <row r="284" ht="13" customHeight="1">
@@ -42961,7 +42981,7 @@
         </is>
       </c>
       <c r="M285" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O285" s="19" t="inlineStr">
         <is>
@@ -42969,7 +42989,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>8846</v>
+        <v>9546</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -43252,30 +43272,30 @@
     <row r="293" ht="13" customHeight="1">
       <c r="B293" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="D293" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E293" s="15" t="n">
-        <v>8.460000000000001</v>
+        <v>27.65</v>
       </c>
       <c r="F293" s="7" t="n">
         <v>603</v>
       </c>
       <c r="G293" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H293" s="16" t="n">
-        <v>5.03</v>
+        <v>19.06</v>
       </c>
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
@@ -43312,30 +43332,30 @@
     <row r="294" ht="13" customHeight="1">
       <c r="B294" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="D294" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E294" s="15" t="n">
-        <v>27.65</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="F294" s="7" t="n">
         <v>603</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>19.06</v>
+        <v>5.03</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
@@ -43458,24 +43478,22 @@
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
         <v>2009</v>
       </c>
-      <c r="O296" s="17" t="inlineStr">
-        <is>
-          <t>5,20,74</t>
-        </is>
+      <c r="O296" s="15" t="n">
+        <v>28.85</v>
       </c>
       <c r="P296" s="7" t="n">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
@@ -43483,7 +43501,7 @@
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>4.09</v>
+        <v>3.09</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -43518,32 +43536,32 @@
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Mathea Andersen</t>
+          <t>Erle Haukåen Stødle</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="O297" s="17" t="inlineStr">
         <is>
-          <t>11,41,01</t>
+          <t>5,20,74</t>
         </is>
       </c>
       <c r="P297" s="7" t="n">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>6.06</v>
+        <v>4.09</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
@@ -43578,24 +43596,24 @@
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Vilde Martinsen</t>
+          <t>Mathea Andersen</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O298" s="17" t="inlineStr">
         <is>
-          <t>1,06,80</t>
+          <t>11,41,01</t>
         </is>
       </c>
       <c r="P298" s="7" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
@@ -43603,7 +43621,7 @@
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>20.08</v>
+        <v>6.06</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -43638,22 +43656,24 @@
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M299" s="7" t="inlineStr">
         <is>
-          <t>Dahlia Miriam Øksne</t>
+          <t>Vilde Martinsen</t>
         </is>
       </c>
       <c r="N299" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O299" s="15" t="n">
-        <v>1.37</v>
+        <v>2003</v>
+      </c>
+      <c r="O299" s="17" t="inlineStr">
+        <is>
+          <t>1,06,80</t>
+        </is>
       </c>
       <c r="P299" s="7" t="n">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="Q299" s="7" t="inlineStr">
         <is>
@@ -43661,7 +43681,7 @@
         </is>
       </c>
       <c r="R299" s="16" t="n">
-        <v>21.08</v>
+        <v>20.08</v>
       </c>
       <c r="T299" s="5" t="n"/>
     </row>
@@ -43698,32 +43718,30 @@
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M300" s="7" t="inlineStr">
         <is>
-          <t>Erle Haukåen Stødle</t>
+          <t>Alma Owrehagen</t>
         </is>
       </c>
       <c r="N300" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O300" s="17" t="inlineStr">
-        <is>
-          <t>2,37,77</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O300" s="15" t="n">
+        <v>1.35</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R300" s="16" t="n">
-        <v>21.08</v>
+        <v>12.03</v>
       </c>
       <c r="T300" s="5" t="n"/>
     </row>
@@ -43735,25 +43753,25 @@
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>Oda Hytten Skyvang</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="D301" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E301" s="15" t="n">
-        <v>4.38</v>
+        <v>4.47</v>
       </c>
       <c r="F301" s="7" t="n">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="G301" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="H301" s="16" t="n">
-        <v>13.03</v>
+        <v>28.08</v>
       </c>
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="inlineStr">
@@ -43763,141 +43781,141 @@
       </c>
       <c r="M301" s="7" t="inlineStr">
         <is>
-          <t>Alma Owrehagen</t>
+          <t>Anna Kjønø</t>
         </is>
       </c>
       <c r="N301" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O301" s="15" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P301" s="7" t="n">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="Q301" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R301" s="16" t="n">
-        <v>12.03</v>
+        <v>23.01</v>
       </c>
       <c r="T301" s="5" t="n"/>
     </row>
     <row r="302" ht="13" customHeight="1">
       <c r="B302" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
         <is>
-          <t>Anniken Rosvoll</t>
+          <t>Oda Hytten Skyvang</t>
         </is>
       </c>
       <c r="D302" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E302" s="15" t="n">
-        <v>9.19</v>
+        <v>4.38</v>
       </c>
       <c r="F302" s="7" t="n">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G302" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H302" s="16" t="n">
-        <v>4.03</v>
+        <v>13.03</v>
       </c>
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M302" s="7" t="inlineStr">
         <is>
-          <t>Anna Kjønø</t>
+          <t>Tuva Helene Rugsveen</t>
         </is>
       </c>
       <c r="N302" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O302" s="15" t="n">
-        <v>1.3</v>
+        <v>2.14</v>
       </c>
       <c r="P302" s="7" t="n">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="Q302" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R302" s="16" t="n">
-        <v>23.01</v>
+        <v>3.03</v>
       </c>
       <c r="T302" s="5" t="n"/>
     </row>
     <row r="303" ht="13" customHeight="1">
       <c r="B303" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C303" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Anniken Rosvoll</t>
         </is>
       </c>
       <c r="D303" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E303" s="15" t="n">
-        <v>4.34</v>
+        <v>9.19</v>
       </c>
       <c r="F303" s="7" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G303" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H303" s="16" t="n">
-        <v>13.03</v>
+        <v>4.03</v>
       </c>
       <c r="J303" s="5" t="n"/>
       <c r="L303" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M303" s="7" t="inlineStr">
         <is>
-          <t>Tuva Helene Rugsveen</t>
+          <t>Sigrid Jacobsen Hunstad</t>
         </is>
       </c>
       <c r="N303" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O303" s="15" t="n">
-        <v>2.14</v>
+        <v>1.25</v>
       </c>
       <c r="P303" s="7" t="n">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="Q303" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R303" s="16" t="n">
-        <v>3.03</v>
+        <v>14.05</v>
       </c>
       <c r="T303" s="5" t="n"/>
     </row>
@@ -43932,30 +43950,30 @@
       <c r="J304" s="5" t="n"/>
       <c r="L304" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M304" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Jacobsen Hunstad</t>
+          <t>Sofie Mielenz</t>
         </is>
       </c>
       <c r="N304" s="7" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="O304" s="15" t="n">
-        <v>1.25</v>
+        <v>6.93</v>
       </c>
       <c r="P304" s="7" t="n">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="Q304" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R304" s="16" t="n">
-        <v>12.06</v>
+        <v>7.04</v>
       </c>
       <c r="T304" s="5" t="n"/>
     </row>
@@ -43992,7 +44010,7 @@
         </is>
       </c>
       <c r="F306" s="20" t="n">
-        <v>8400</v>
+        <v>8431</v>
       </c>
       <c r="J306" s="5" t="n"/>
       <c r="L306" s="19" t="inlineStr">
@@ -44009,7 +44027,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>7591</v>
+        <v>7474</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -44032,7 +44050,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>17701</v>
+        <v>17732</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -44041,7 +44059,7 @@
         </is>
       </c>
       <c r="M308" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O308" s="19" t="inlineStr">
         <is>
@@ -44049,7 +44067,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>16437</v>
+        <v>17020</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -44073,7 +44091,7 @@
         </is>
       </c>
       <c r="M310" s="20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
@@ -46393,7 +46411,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>14988</v>
+        <v>15016</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -53977,30 +53995,32 @@
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Anouk de Haas</t>
+          <t>Vienna Skinnes</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E177" s="15" t="n">
-        <v>4.5</v>
+        <v>2010</v>
+      </c>
+      <c r="E177" s="17" t="inlineStr">
+        <is>
+          <t>5,19,33</t>
+        </is>
       </c>
       <c r="F177" s="7" t="n">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>6.03</v>
+        <v>21.08</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
@@ -54035,30 +54055,30 @@
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Lindland Turner</t>
+          <t>Anouk de Haas</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>29.19</v>
+        <v>4.5</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>5.08</v>
+        <v>6.03</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -54095,30 +54115,30 @@
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Ida Kristine Sola Steen</t>
+          <t>Charlotte Lindland Turner</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>1.15</v>
+        <v>29.19</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>22.03</v>
+        <v>5.08</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
@@ -54155,30 +54175,30 @@
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Wilma Christine Thorrud</t>
+          <t>Ida Kristine Sola Steen</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E180" s="15" t="n">
-        <v>2.22</v>
+        <v>1.15</v>
       </c>
       <c r="F180" s="7" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>3.09</v>
+        <v>22.03</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
@@ -54243,7 +54263,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>6462</v>
+        <v>6490</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -54283,7 +54303,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>14988</v>
+        <v>15016</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -59593,30 +59613,32 @@
     <row r="317" ht="13" customHeight="1">
       <c r="B317" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>Carina Brunsæl</t>
+          <t>Margrethe Lauritzen</t>
         </is>
       </c>
       <c r="D317" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E317" s="15" t="n">
-        <v>8.6</v>
+        <v>2000</v>
+      </c>
+      <c r="E317" s="17" t="inlineStr">
+        <is>
+          <t>1,03,80</t>
+        </is>
       </c>
       <c r="F317" s="7" t="n">
         <v>568</v>
       </c>
       <c r="G317" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H317" s="16" t="n">
-        <v>5.03</v>
+        <v>13.07</v>
       </c>
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">
@@ -59686,11 +59708,11 @@
       </c>
       <c r="M318" s="7" t="inlineStr">
         <is>
-          <t>Olea Kristin Løberg Fladeby</t>
+          <t>Maya Elita Settemsdal Lilleaas</t>
         </is>
       </c>
       <c r="N318" s="7" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="O318" s="15" t="n">
         <v>1.3</v>
@@ -59704,7 +59726,7 @@
         </is>
       </c>
       <c r="R318" s="16" t="n">
-        <v>12.06</v>
+        <v>11.06</v>
       </c>
       <c r="T318" s="5" t="n"/>
     </row>
@@ -59744,11 +59766,11 @@
       </c>
       <c r="M319" s="7" t="inlineStr">
         <is>
-          <t>Maya Elita Settemsdal Lilleaas</t>
+          <t>Olea Kristin Løberg Fladeby</t>
         </is>
       </c>
       <c r="N319" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="O319" s="15" t="n">
         <v>1.3</v>
@@ -59762,7 +59784,7 @@
         </is>
       </c>
       <c r="R319" s="16" t="n">
-        <v>11.06</v>
+        <v>12.06</v>
       </c>
       <c r="T319" s="5" t="n"/>
     </row>
@@ -59802,11 +59824,11 @@
       </c>
       <c r="M320" s="7" t="inlineStr">
         <is>
-          <t>Synnøve Kjosavik</t>
+          <t>Anna Strøm Juliussen</t>
         </is>
       </c>
       <c r="N320" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O320" s="15" t="n">
         <v>1.25</v>
@@ -59816,11 +59838,11 @@
       </c>
       <c r="Q320" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="R320" s="16" t="n">
-        <v>11.06</v>
+        <v>4.05</v>
       </c>
       <c r="T320" s="5" t="n"/>
     </row>
@@ -59860,11 +59882,11 @@
       </c>
       <c r="M321" s="7" t="inlineStr">
         <is>
-          <t>Anna Strøm Juliussen</t>
+          <t>Synnøve Kjosavik</t>
         </is>
       </c>
       <c r="N321" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O321" s="15" t="n">
         <v>1.25</v>
@@ -59874,11 +59896,11 @@
       </c>
       <c r="Q321" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R321" s="16" t="n">
-        <v>4.05</v>
+        <v>11.06</v>
       </c>
       <c r="T321" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>23030</v>
+        <v>23189</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -5084,30 +5084,30 @@
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Robert Sheath</t>
+          <t>Andreas Langhelle</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>7.4</v>
+        <v>51.79</v>
       </c>
       <c r="P92" s="7" t="n">
         <v>697</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>5.03</v>
+        <v>26.08</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -5142,30 +5142,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Robert Sheath</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>51.79</v>
+        <v>7.4</v>
       </c>
       <c r="P93" s="7" t="n">
         <v>697</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>26.08</v>
+        <v>5.03</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -5769,11 +5769,11 @@
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>7.08</v>
+        <v>13.07</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -5947,11 +5947,11 @@
       </c>
       <c r="Q117" s="7" t="inlineStr">
         <is>
-          <t>Paris/FRA</t>
+          <t>Turku/FIN</t>
         </is>
       </c>
       <c r="R117" s="16" t="n">
-        <v>18.06</v>
+        <v>14.06</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -6055,11 +6055,11 @@
       </c>
       <c r="M119" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="N119" s="7" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="O119" s="17" t="inlineStr">
         <is>
@@ -6071,11 +6071,11 @@
       </c>
       <c r="Q119" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R119" s="16" t="n">
-        <v>5.08</v>
+        <v>26.02</v>
       </c>
       <c r="T119" s="5" t="n"/>
     </row>
@@ -6737,11 +6737,11 @@
       </c>
       <c r="M134" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="N134" s="7" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="O134" s="17" t="inlineStr">
         <is>
@@ -6753,11 +6753,11 @@
       </c>
       <c r="Q134" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R134" s="16" t="n">
-        <v>26.02</v>
+        <v>5.08</v>
       </c>
       <c r="T134" s="5" t="n"/>
     </row>
@@ -9664,30 +9664,30 @@
     <row r="198" ht="13" customHeight="1">
       <c r="B198" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Dag Storm</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>6.06</v>
+        <v>53.79</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>620</v>
+        <v>677</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>13.08</v>
+        <v>17.09</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -9722,7 +9722,7 @@
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
@@ -9734,18 +9734,18 @@
         <v>2007</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>12.25</v>
+        <v>6.06</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>587</v>
+        <v>620</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>9.09</v>
+        <v>13.08</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -9785,17 +9785,17 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>11.63</v>
+        <v>12.25</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>11740</v>
+        <v>11899</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -9908,7 +9908,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>23030</v>
+        <v>23189</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -10801,11 +10801,11 @@
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>19.03</v>
+        <v>14.03</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -16481,7 +16481,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>20099</v>
+        <v>20104</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -16561,11 +16561,11 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16628</v>
+        <v>17002</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -16612,25 +16612,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>Moss IL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15870</v>
+        <v>15988</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -16640,25 +16640,25 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Moss IL</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15610</v>
+        <v>15890</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -16701,11 +16701,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(23/9)</t>
+          <t>(23/8)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14728</v>
+        <v>14750</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -16752,25 +16752,25 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Dimna IL</t>
+          <t>IL Fri</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(23/12)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>13493</v>
+        <v>13541</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>(12/1d)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -16780,25 +16780,25 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IL Fri</t>
+          <t>Dimna IL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(23/12)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>13355</v>
+        <v>13493</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(12/1d)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -17334,19 +17334,19 @@
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>1,58,19</t>
+          <t>1,57,94</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>11.05</v>
+        <v>10.09</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>10426</v>
+        <v>10431</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -18168,11 +18168,11 @@
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Teodor Heldal</t>
+          <t>Vetle Raa Ellingsen</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="O31" s="15" t="n">
         <v>2</v>
@@ -18182,11 +18182,11 @@
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>17.07</v>
+        <v>6.02</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -18228,11 +18228,11 @@
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Vetle Raa Ellingsen</t>
+          <t>Teodor Heldal</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="O32" s="15" t="n">
         <v>2</v>
@@ -18242,11 +18242,11 @@
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>6.02</v>
+        <v>17.07</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -18692,7 +18692,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>20099</v>
+        <v>20104</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -20879,18 +20879,18 @@
         <v>2000</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>11.98</v>
+        <v>11.73</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>615</v>
+        <v>668</v>
       </c>
       <c r="G104" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H104" s="16" t="n">
-        <v>29.05</v>
+        <v>14.09</v>
       </c>
       <c r="J104" s="5" t="n"/>
       <c r="L104" s="14" t="inlineStr">
@@ -21054,19 +21054,19 @@
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>1,56,84</t>
+          <t>1,55,65</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>13.08</v>
+        <v>10.09</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
@@ -21613,7 +21613,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9585</v>
+        <v>9665</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -21915,30 +21915,30 @@
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>7.7</v>
+        <v>23.66</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>590</v>
+        <v>681</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>23.05</v>
+        <v>11.09</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -21973,32 +21973,32 @@
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Noah Raknes</t>
+          <t>Dagfinn Gjerstad</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E126" s="17" t="inlineStr">
         <is>
-          <t>9,32,19</t>
+          <t>15,59,59</t>
         </is>
       </c>
       <c r="F126" s="7" t="n">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>19.06</v>
+        <v>14.09</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
@@ -22033,32 +22033,30 @@
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Vegard Trefall</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E127" s="17" t="inlineStr">
-        <is>
-          <t>4,26,38+</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E127" s="15" t="n">
+        <v>7.7</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>1.08</v>
+        <v>23.05</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -22100,27 +22098,27 @@
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Magnus Gjerstad</t>
+          <t>Noah Raknes</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E128" s="17" t="inlineStr">
         <is>
-          <t>9,41,89</t>
+          <t>9,32,19</t>
         </is>
       </c>
       <c r="F128" s="7" t="n">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>6.07</v>
+        <v>19.06</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
@@ -22157,24 +22155,22 @@
     <row r="129" ht="13" customHeight="1">
       <c r="B129" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Daniel Bruvik</t>
+          <t>Magnus Reigstad</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E129" s="17" t="inlineStr">
-        <is>
-          <t>35,54,07</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E129" s="15" t="n">
+        <v>11.96</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
@@ -22182,7 +22178,7 @@
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>14.07</v>
+        <v>14.09</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
@@ -22217,30 +22213,32 @@
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Magnus Reigstad</t>
+          <t>Vegard Trefall</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E130" s="15" t="n">
-        <v>2.72</v>
+        <v>2006</v>
+      </c>
+      <c r="E130" s="17" t="inlineStr">
+        <is>
+          <t>4,26,38+</t>
+        </is>
       </c>
       <c r="F130" s="7" t="n">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>17.01</v>
+        <v>1.08</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
@@ -22275,7 +22273,7 @@
     <row r="131" ht="13" customHeight="1">
       <c r="B131" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
@@ -22287,10 +22285,10 @@
         <v>2003</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>1.65</v>
+        <v>2.72</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
@@ -22298,7 +22296,7 @@
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>23.05</v>
+        <v>17.01</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
@@ -22479,7 +22477,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7043</v>
+        <v>7337</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -22519,7 +22517,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16628</v>
+        <v>17002</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -22551,7 +22549,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -22602,7 +22600,7 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Østfold</t>
         </is>
       </c>
       <c r="F143" s="8" t="n">
@@ -22616,7 +22614,7 @@
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="P143" s="8" t="n">
@@ -22632,7 +22630,7 @@
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>Moss IL</t>
         </is>
       </c>
       <c r="J144" s="5" t="n"/>
@@ -22643,7 +22641,7 @@
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Moss IL</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="T144" s="5" t="n"/>
@@ -22767,206 +22765,206 @@
     <row r="150" ht="13" customHeight="1">
       <c r="B150" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Oliver Tollefsen</t>
         </is>
       </c>
       <c r="D150" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E150" s="15" t="n">
-        <v>11.99</v>
+        <v>7.16</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>613</v>
+        <v>793</v>
       </c>
       <c r="G150" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H150" s="16" t="n">
-        <v>19.06</v>
+        <v>5.03</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M150" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tollefsen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N150" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O150" s="15" t="n">
-        <v>7.16</v>
+        <v>11.99</v>
       </c>
       <c r="P150" s="7" t="n">
-        <v>793</v>
+        <v>613</v>
       </c>
       <c r="Q150" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R150" s="16" t="n">
-        <v>5.03</v>
+        <v>19.06</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
     <row r="151" ht="13" customHeight="1">
       <c r="B151" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Oliver Tollefsen</t>
         </is>
       </c>
       <c r="D151" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E151" s="15" t="n">
-        <v>24.39</v>
+        <v>10.97</v>
       </c>
       <c r="F151" s="7" t="n">
-        <v>610</v>
+        <v>849</v>
       </c>
       <c r="G151" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H151" s="16" t="n">
-        <v>21.08</v>
+        <v>12.08</v>
       </c>
       <c r="J151" s="5" t="n"/>
       <c r="L151" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M151" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tollefsen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N151" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O151" s="15" t="n">
-        <v>10.97</v>
+        <v>24.39</v>
       </c>
       <c r="P151" s="7" t="n">
-        <v>849</v>
+        <v>610</v>
       </c>
       <c r="Q151" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R151" s="16" t="n">
-        <v>12.08</v>
+        <v>21.08</v>
       </c>
       <c r="T151" s="5" t="n"/>
     </row>
     <row r="152" ht="13" customHeight="1">
       <c r="B152" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>Stig Ketil Andersen</t>
+          <t>Oliver Tollefsen</t>
         </is>
       </c>
       <c r="D152" s="7" t="n">
-        <v>1980</v>
+        <v>2004</v>
       </c>
       <c r="E152" s="15" t="n">
-        <v>55.81</v>
+        <v>22</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>538</v>
+        <v>860</v>
       </c>
       <c r="G152" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H152" s="16" t="n">
-        <v>21.08</v>
+        <v>6.03</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M152" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tollefsen</t>
+          <t>Stig Ketil Andersen</t>
         </is>
       </c>
       <c r="N152" s="7" t="n">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="O152" s="15" t="n">
-        <v>22</v>
+        <v>55.81</v>
       </c>
       <c r="P152" s="7" t="n">
-        <v>860</v>
+        <v>538</v>
       </c>
       <c r="Q152" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R152" s="16" t="n">
-        <v>6.03</v>
+        <v>21.08</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
     <row r="153" ht="13" customHeight="1">
       <c r="B153" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Nahom Tesfalem Tewelde</t>
+          <t>Ottar Andreas Grønvold</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="E153" s="17" t="inlineStr">
         <is>
-          <t>1,57,72</t>
+          <t>17,09,75</t>
         </is>
       </c>
       <c r="F153" s="7" t="n">
-        <v>733</v>
+        <v>518</v>
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>19.06</v>
+        <v>7.04</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -22976,19 +22974,19 @@
       </c>
       <c r="M153" s="7" t="inlineStr">
         <is>
-          <t>Filip Nåvik</t>
+          <t>Nahom Tesfalem Tewelde</t>
         </is>
       </c>
       <c r="N153" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O153" s="17" t="inlineStr">
         <is>
-          <t>2,28,57</t>
+          <t>1,57,72</t>
         </is>
       </c>
       <c r="P153" s="7" t="n">
-        <v>310</v>
+        <v>733</v>
       </c>
       <c r="Q153" s="7" t="inlineStr">
         <is>
@@ -23003,114 +23001,112 @@
     <row r="154" ht="13" customHeight="1">
       <c r="B154" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>Nahom Tesfalem Tewelde</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="D154" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E154" s="17" t="inlineStr">
-        <is>
-          <t>3,58,76</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E154" s="15" t="n">
+        <v>1.76</v>
       </c>
       <c r="F154" s="7" t="n">
-        <v>773</v>
+        <v>616</v>
       </c>
       <c r="G154" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H154" s="16" t="n">
-        <v>2.06</v>
+        <v>13.08</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M154" s="7" t="inlineStr">
         <is>
-          <t>Ottar Andreas Grønvold</t>
+          <t>Nahom Tesfalem Tewelde</t>
         </is>
       </c>
       <c r="N154" s="7" t="n">
-        <v>1982</v>
+        <v>2006</v>
       </c>
       <c r="O154" s="17" t="inlineStr">
         <is>
-          <t>17,09,75</t>
+          <t>3,58,76</t>
         </is>
       </c>
       <c r="P154" s="7" t="n">
-        <v>518</v>
+        <v>773</v>
       </c>
       <c r="Q154" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R154" s="16" t="n">
-        <v>7.04</v>
+        <v>2.06</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
     <row r="155" ht="13" customHeight="1">
       <c r="B155" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>Nahom Tesfalem Tewelde</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="D155" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E155" s="17" t="inlineStr">
-        <is>
-          <t>8,35,27</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="E155" s="15" t="n">
+        <v>3.8</v>
       </c>
       <c r="F155" s="7" t="n">
-        <v>790</v>
+        <v>679</v>
       </c>
       <c r="G155" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H155" s="16" t="n">
-        <v>14.08</v>
+        <v>17.09</v>
       </c>
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M155" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Nahom Tesfalem Tewelde</t>
         </is>
       </c>
       <c r="N155" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O155" s="15" t="n">
-        <v>1.76</v>
+        <v>2006</v>
+      </c>
+      <c r="O155" s="17" t="inlineStr">
+        <is>
+          <t>8,35,27</t>
+        </is>
       </c>
       <c r="P155" s="7" t="n">
-        <v>616</v>
+        <v>790</v>
       </c>
       <c r="Q155" s="7" t="inlineStr">
         <is>
@@ -23118,175 +23114,175 @@
         </is>
       </c>
       <c r="R155" s="16" t="n">
-        <v>13.08</v>
+        <v>14.08</v>
       </c>
       <c r="T155" s="5" t="n"/>
     </row>
     <row r="156" ht="13" customHeight="1">
       <c r="B156" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>Nahom Tesfalem Tewelde</t>
+          <t>Marcus Stålby</t>
         </is>
       </c>
       <c r="D156" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E156" s="17" t="inlineStr">
-        <is>
-          <t>14,54,81</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E156" s="15" t="n">
+        <v>5.99</v>
       </c>
       <c r="F156" s="7" t="n">
-        <v>784</v>
+        <v>604</v>
       </c>
       <c r="G156" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H156" s="16" t="n">
-        <v>28.08</v>
+        <v>17.09</v>
       </c>
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M156" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Nahom Tesfalem Tewelde</t>
         </is>
       </c>
       <c r="N156" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O156" s="15" t="n">
-        <v>3.4</v>
+        <v>2006</v>
+      </c>
+      <c r="O156" s="17" t="inlineStr">
+        <is>
+          <t>14,54,81</t>
+        </is>
       </c>
       <c r="P156" s="7" t="n">
-        <v>593</v>
+        <v>784</v>
       </c>
       <c r="Q156" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R156" s="16" t="n">
-        <v>12.08</v>
+        <v>28.08</v>
       </c>
       <c r="T156" s="5" t="n"/>
     </row>
     <row r="157" ht="13" customHeight="1">
       <c r="B157" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="D157" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E157" s="15" t="n">
-        <v>1.75</v>
+        <v>13.09</v>
       </c>
       <c r="F157" s="7" t="n">
-        <v>607</v>
+        <v>679</v>
       </c>
       <c r="G157" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H157" s="16" t="n">
-        <v>15.05</v>
+        <v>27.08</v>
       </c>
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M157" s="7" t="inlineStr">
         <is>
-          <t>Jacob Egeberg Holm</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N157" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O157" s="15" t="n">
-        <v>5.56</v>
+        <v>1.75</v>
       </c>
       <c r="P157" s="7" t="n">
-        <v>505</v>
+        <v>607</v>
       </c>
       <c r="Q157" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R157" s="16" t="n">
-        <v>13.08</v>
+        <v>15.05</v>
       </c>
       <c r="T157" s="5" t="n"/>
     </row>
     <row r="158" ht="13" customHeight="1">
       <c r="B158" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Sander Oppen</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="D158" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E158" s="15" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="F158" s="7" t="n">
-        <v>870</v>
+        <v>672</v>
       </c>
       <c r="G158" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H158" s="16" t="n">
-        <v>12.02</v>
+        <v>14.09</v>
       </c>
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Sander Oppen</t>
         </is>
       </c>
       <c r="N158" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O158" s="15" t="n">
-        <v>13.09</v>
+        <v>4.8</v>
       </c>
       <c r="P158" s="7" t="n">
-        <v>679</v>
+        <v>870</v>
       </c>
       <c r="Q158" s="7" t="inlineStr">
         <is>
@@ -23294,239 +23290,239 @@
         </is>
       </c>
       <c r="R158" s="16" t="n">
-        <v>27.08</v>
+        <v>12.02</v>
       </c>
       <c r="T158" s="5" t="n"/>
     </row>
     <row r="159" ht="13" customHeight="1">
       <c r="B159" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="D159" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E159" s="15" t="n">
-        <v>5.95</v>
+        <v>3.02</v>
       </c>
       <c r="F159" s="7" t="n">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="G159" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H159" s="16" t="n">
-        <v>28.05</v>
+        <v>6.02</v>
       </c>
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M159" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N159" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="O159" s="15" t="n">
-        <v>1.5</v>
+        <v>5.95</v>
       </c>
       <c r="P159" s="7" t="n">
-        <v>672</v>
+        <v>595</v>
       </c>
       <c r="Q159" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R159" s="16" t="n">
-        <v>14.09</v>
+        <v>28.05</v>
       </c>
       <c r="T159" s="5" t="n"/>
     </row>
     <row r="160" ht="13" customHeight="1">
       <c r="B160" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="D160" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E160" s="15" t="n">
-        <v>11.95</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F160" s="7" t="n">
-        <v>554</v>
+        <v>369</v>
       </c>
       <c r="G160" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H160" s="16" t="n">
-        <v>11.06</v>
+        <v>14.09</v>
       </c>
       <c r="J160" s="5" t="n"/>
       <c r="L160" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M160" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N160" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="O160" s="15" t="n">
-        <v>3.02</v>
+        <v>11.95</v>
       </c>
       <c r="P160" s="7" t="n">
-        <v>683</v>
+        <v>554</v>
       </c>
       <c r="Q160" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R160" s="16" t="n">
-        <v>6.02</v>
+        <v>11.06</v>
       </c>
       <c r="T160" s="5" t="n"/>
     </row>
     <row r="161" ht="13" customHeight="1">
       <c r="B161" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>Magnus Løkra</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="D161" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E161" s="15" t="n">
-        <v>2.96</v>
+        <v>32.31</v>
       </c>
       <c r="F161" s="7" t="n">
-        <v>650</v>
+        <v>531</v>
       </c>
       <c r="G161" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H161" s="16" t="n">
-        <v>22.03</v>
+        <v>3.08</v>
       </c>
       <c r="J161" s="5" t="n"/>
       <c r="L161" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M161" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Magnus Løkra</t>
         </is>
       </c>
       <c r="N161" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="O161" s="15" t="n">
-        <v>32.31</v>
+        <v>2.96</v>
       </c>
       <c r="P161" s="7" t="n">
-        <v>531</v>
+        <v>650</v>
       </c>
       <c r="Q161" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R161" s="16" t="n">
-        <v>3.08</v>
+        <v>22.03</v>
       </c>
       <c r="T161" s="5" t="n"/>
     </row>
     <row r="162" ht="13" customHeight="1">
       <c r="B162" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
         <is>
-          <t>Ola Stunes Isene</t>
+          <t>Nathaniel Laukhammer Trobe</t>
         </is>
       </c>
       <c r="D162" s="7" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="E162" s="15" t="n">
-        <v>63.25</v>
+        <v>40.69</v>
       </c>
       <c r="F162" s="7" t="n">
-        <v>1056</v>
+        <v>496</v>
       </c>
       <c r="G162" s="7" t="inlineStr">
         <is>
-          <t>Brandbu</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H162" s="16" t="n">
-        <v>10.08</v>
+        <v>17.09</v>
       </c>
       <c r="J162" s="5" t="n"/>
       <c r="L162" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M162" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Ola Stunes Isene</t>
         </is>
       </c>
       <c r="N162" s="7" t="n">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="O162" s="15" t="n">
-        <v>42.72</v>
+        <v>63.25</v>
       </c>
       <c r="P162" s="7" t="n">
-        <v>526</v>
+        <v>1056</v>
       </c>
       <c r="Q162" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="R162" s="16" t="n">
-        <v>3.08</v>
+        <v>10.08</v>
       </c>
       <c r="T162" s="5" t="n"/>
     </row>
@@ -23563,7 +23559,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>9173</v>
+        <v>8349</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -23580,7 +23576,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8135</v>
+        <v>9173</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -23683,708 +23679,708 @@
     <row r="169" ht="13" customHeight="1">
       <c r="B169" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Bjørnstad</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E169" s="17" t="inlineStr">
-        <is>
-          <t>1,58,16</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E169" s="15" t="n">
+        <v>23.04</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>27.08</v>
+        <v>9.07</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Benjamin Bjørnstad</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O169" s="15" t="n">
-        <v>23.04</v>
+        <v>2003</v>
+      </c>
+      <c r="O169" s="17" t="inlineStr">
+        <is>
+          <t>1,58,16</t>
+        </is>
       </c>
       <c r="P169" s="7" t="n">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>9.07</v>
+        <v>27.08</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
     <row r="170" ht="13" customHeight="1">
       <c r="B170" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Bjørnstad</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E170" s="17" t="inlineStr">
-        <is>
-          <t>4,14,36</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E170" s="15" t="n">
+        <v>11.45</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>636</v>
+        <v>732</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>2.06</v>
+        <v>20.08</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M170" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Benjamin Bjørnstad</t>
         </is>
       </c>
       <c r="N170" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O170" s="15" t="n">
-        <v>11.45</v>
+        <v>2003</v>
+      </c>
+      <c r="O170" s="17" t="inlineStr">
+        <is>
+          <t>4,14,36</t>
+        </is>
       </c>
       <c r="P170" s="7" t="n">
-        <v>732</v>
+        <v>636</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R170" s="16" t="n">
-        <v>20.08</v>
+        <v>2.06</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
     <row r="171" ht="13" customHeight="1">
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E171" s="17" t="inlineStr">
-        <is>
-          <t>16,16,76</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E171" s="15" t="n">
+        <v>11.53</v>
       </c>
       <c r="F171" s="7" t="n">
-        <v>613</v>
+        <v>713</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>21.05</v>
+        <v>31.08</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O171" s="15" t="n">
-        <v>11.53</v>
+        <v>2004</v>
+      </c>
+      <c r="O171" s="17" t="inlineStr">
+        <is>
+          <t>16,16,76</t>
+        </is>
       </c>
       <c r="P171" s="7" t="n">
-        <v>713</v>
+        <v>613</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>31.08</v>
+        <v>21.05</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E172" s="15" t="n">
-        <v>1.69</v>
+        <v>7.38</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>550</v>
+        <v>705</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Hønefoss</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>28.08</v>
+        <v>12.02</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O172" s="15" t="n">
-        <v>7.38</v>
+        <v>1.69</v>
       </c>
       <c r="P172" s="7" t="n">
-        <v>705</v>
+        <v>550</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Hønefoss</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>12.02</v>
+        <v>28.08</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E173" s="15" t="n">
-        <v>12.31</v>
+        <v>23.5</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>548</v>
+        <v>697</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>7.08</v>
+        <v>15.05</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O173" s="15" t="n">
-        <v>23.5</v>
+        <v>12.31</v>
       </c>
       <c r="P173" s="7" t="n">
-        <v>697</v>
+        <v>548</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>15.05</v>
+        <v>7.08</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Stig Ketil Andersen</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>1980</v>
-      </c>
-      <c r="E174" s="17" t="inlineStr">
-        <is>
-          <t>2,08,55</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E174" s="15" t="n">
+        <v>7.59</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>544</v>
+        <v>628</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>9.07</v>
+        <v>29.01</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Stig Ketil Andersen</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O174" s="15" t="n">
-        <v>7.59</v>
+        <v>1980</v>
+      </c>
+      <c r="O174" s="17" t="inlineStr">
+        <is>
+          <t>2,08,55</t>
+        </is>
       </c>
       <c r="P174" s="7" t="n">
-        <v>628</v>
+        <v>544</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>29.01</v>
+        <v>9.07</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E175" s="17" t="inlineStr">
-        <is>
-          <t>9,44,94</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E175" s="15" t="n">
+        <v>3.5</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>535</v>
+        <v>615</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>7.05</v>
+        <v>11.09</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O175" s="15" t="n">
-        <v>11.99</v>
+        <v>2004</v>
+      </c>
+      <c r="O175" s="17" t="inlineStr">
+        <is>
+          <t>9,44,94</t>
+        </is>
       </c>
       <c r="P175" s="7" t="n">
-        <v>613</v>
+        <v>535</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>19.06</v>
+        <v>7.05</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>7.91</v>
+        <v>11.99</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>523</v>
+        <v>613</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>5.03</v>
+        <v>19.06</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Eirik-André Kristiansen</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>12.05</v>
+        <v>7.91</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>600</v>
+        <v>523</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>19.06</v>
+        <v>5.03</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Eirik-André Kristiansen</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E177" s="17" t="inlineStr">
-        <is>
-          <t>2,10,19</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E177" s="15" t="n">
+        <v>12.05</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>521</v>
+        <v>600</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>16.05</v>
+        <v>19.06</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O177" s="15" t="n">
-        <v>11.99</v>
+        <v>2004</v>
+      </c>
+      <c r="O177" s="17" t="inlineStr">
+        <is>
+          <t>2,10,19</t>
+        </is>
       </c>
       <c r="P177" s="7" t="n">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>4.03</v>
+        <v>16.05</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>1964</v>
+        <v>2007</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>2.71</v>
+        <v>11.99</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>22.03</v>
+        <v>4.03</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>3.08</v>
+        <v>11.09</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>1964</v>
+        <v>2007</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>1.35</v>
+        <v>5.66</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>26.03</v>
+        <v>10.09</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Frode Holt</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2007</v>
+        <v>1964</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>5.54</v>
+        <v>2.71</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>14.05</v>
+        <v>22.03</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>Jacob Egeberg Holm</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>1964</v>
+        <v>2007</v>
       </c>
       <c r="E180" s="15" t="n">
-        <v>1.63</v>
+        <v>5.56</v>
       </c>
       <c r="F180" s="7" t="n">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Braga/POR</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>26.02</v>
+        <v>13.08</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Nathaniel Laukhammer Trobe</t>
+          <t>Frode Holt</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
-        <v>2005</v>
+        <v>1964</v>
       </c>
       <c r="O180" s="15" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="P180" s="7" t="n">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>17.06</v>
+        <v>26.03</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
@@ -24421,7 +24417,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>6697</v>
+        <v>7639</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24438,7 +24434,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>7475</v>
+        <v>6717</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -24461,7 +24457,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15870</v>
+        <v>15988</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24478,7 +24474,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15610</v>
+        <v>15890</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24493,7 +24489,7 @@
         </is>
       </c>
       <c r="C186" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="19" t="inlineStr">
@@ -24502,7 +24498,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -24976,27 +24972,27 @@
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Haakon Alexander Kollerud Johansen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>4,50,7</t>
+          <t>4,42,31</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>21.08</v>
+        <v>22.05</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -25482,7 +25478,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7219</v>
+        <v>7267</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25851,30 +25847,30 @@
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Siver Olavsbråten Ebbestad</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>11.91</v>
+        <v>3.54</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Seinäjoki/FIN</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>11.06</v>
+        <v>18.06</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -25911,30 +25907,30 @@
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Siver Olavsbråten Ebbestad</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>3.54</v>
+        <v>11.96</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>18.06</v>
+        <v>16.05</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
@@ -25974,25 +25970,25 @@
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>11.96</v>
+        <v>11.99</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>16.05</v>
+        <v>12.08</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -26029,30 +26025,30 @@
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>11.99</v>
+        <v>7.65</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>12.08</v>
+        <v>13.03</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
@@ -26087,30 +26083,30 @@
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>7.65</v>
+        <v>54.01</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>13.03</v>
+        <v>11.09</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -26240,11 +26236,11 @@
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>11.06</v>
+        <v>22.05</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26298,7 +26294,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>7509</v>
+        <v>7483</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26338,7 +26334,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14728</v>
+        <v>14750</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26362,7 +26358,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -26418,7 +26414,7 @@
       </c>
       <c r="M237" s="7" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P237" s="8" t="n">
@@ -26445,7 +26441,7 @@
       </c>
       <c r="M238" s="7" t="inlineStr">
         <is>
-          <t>Dimna IL</t>
+          <t>IL Fri</t>
         </is>
       </c>
       <c r="T238" s="5" t="n"/>
@@ -26602,25 +26598,25 @@
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Jonas André Ose</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>7.01</v>
+        <v>7.63</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>859</v>
+        <v>614</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>19.03</v>
+        <v>6.07</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
@@ -26660,25 +26656,25 @@
       </c>
       <c r="M245" s="7" t="inlineStr">
         <is>
-          <t>Jonas André Ose</t>
+          <t>Martin Roe</t>
         </is>
       </c>
       <c r="N245" s="7" t="n">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="O245" s="15" t="n">
-        <v>11.16</v>
+        <v>10.94</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>801</v>
+        <v>857</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>München/GER</t>
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>18.06</v>
+        <v>15.08</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
@@ -26718,25 +26714,25 @@
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Sondre Johannes Espelid</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
-        <v>2003</v>
+        <v>1976</v>
       </c>
       <c r="O246" s="15" t="n">
-        <v>23.55</v>
+        <v>25.33</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>692</v>
+        <v>528</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>10.09</v>
+        <v>11.09</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -26776,25 +26772,25 @@
       </c>
       <c r="M247" s="7" t="inlineStr">
         <is>
-          <t>Toralv Opsal</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="N247" s="7" t="n">
-        <v>1998</v>
+        <v>1976</v>
       </c>
       <c r="O247" s="15" t="n">
-        <v>49.39</v>
+        <v>54.54</v>
       </c>
       <c r="P247" s="7" t="n">
-        <v>816</v>
+        <v>583</v>
       </c>
       <c r="Q247" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Tampere/FIN</t>
         </is>
       </c>
       <c r="R247" s="16" t="n">
-        <v>5.02</v>
+        <v>6.07</v>
       </c>
       <c r="T247" s="5" t="n"/>
     </row>
@@ -26831,32 +26827,32 @@
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M248" s="7" t="inlineStr">
         <is>
-          <t>Olger Breivik Pedersen</t>
+          <t>Christer Sælen</t>
         </is>
       </c>
       <c r="N248" s="7" t="n">
-        <v>1989</v>
+        <v>1981</v>
       </c>
       <c r="O248" s="17" t="inlineStr">
         <is>
-          <t>9,32,65</t>
+          <t>4,55,91</t>
         </is>
       </c>
       <c r="P248" s="7" t="n">
-        <v>573</v>
+        <v>373</v>
       </c>
       <c r="Q248" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R248" s="16" t="n">
-        <v>6.06</v>
+        <v>15.08</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
@@ -26893,32 +26889,32 @@
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M249" s="7" t="inlineStr">
         <is>
-          <t>Olger Breivik Pedersen</t>
+          <t>Sander Kjøsnes Lie</t>
         </is>
       </c>
       <c r="N249" s="7" t="n">
-        <v>1989</v>
+        <v>1999</v>
       </c>
       <c r="O249" s="17" t="inlineStr">
         <is>
-          <t>15,57,81</t>
+          <t>9,11,02</t>
         </is>
       </c>
       <c r="P249" s="7" t="n">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R249" s="16" t="n">
-        <v>30.06</v>
+        <v>18.05</v>
       </c>
       <c r="T249" s="5" t="n"/>
     </row>
@@ -26955,30 +26951,32 @@
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M250" s="7" t="inlineStr">
         <is>
-          <t>Jakob Slåtten</t>
+          <t>Andreas Vågen</t>
         </is>
       </c>
       <c r="N250" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O250" s="15" t="n">
-        <v>9.050000000000001</v>
+        <v>2000</v>
+      </c>
+      <c r="O250" s="17" t="inlineStr">
+        <is>
+          <t>15,44,58</t>
+        </is>
       </c>
       <c r="P250" s="7" t="n">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>6.02</v>
+        <v>1.08</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
@@ -27015,30 +27013,30 @@
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M251" s="7" t="inlineStr">
         <is>
-          <t>Karsten Warholm</t>
+          <t>Martin Roe</t>
         </is>
       </c>
       <c r="N251" s="7" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="O251" s="15" t="n">
-        <v>47.12</v>
+        <v>4.68</v>
       </c>
       <c r="P251" s="7" t="n">
-        <v>1173</v>
+        <v>848</v>
       </c>
       <c r="Q251" s="7" t="inlineStr">
         <is>
-          <t>München/GER</t>
+          <t>Bergen/Hø</t>
         </is>
       </c>
       <c r="R251" s="16" t="n">
-        <v>19.08</v>
+        <v>7.08</v>
       </c>
       <c r="T251" s="5" t="n"/>
     </row>
@@ -27075,30 +27073,30 @@
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Eystein Tandberg Gyllensten</t>
+          <t>Martin Roe</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>2008</v>
+        <v>1992</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>1.36</v>
+        <v>7.21</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>181</v>
+        <v>871</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
-          <t>Måndalen</t>
+          <t>München/GER</t>
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>4.09</v>
+        <v>15.08</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
@@ -27133,30 +27131,30 @@
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M253" s="7" t="inlineStr">
         <is>
-          <t>Toralv Opsal</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="N253" s="7" t="n">
-        <v>1998</v>
+        <v>1968</v>
       </c>
       <c r="O253" s="15" t="n">
-        <v>4.8</v>
+        <v>11.3</v>
       </c>
       <c r="P253" s="7" t="n">
-        <v>870</v>
+        <v>546</v>
       </c>
       <c r="Q253" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R253" s="16" t="n">
-        <v>12.02</v>
+        <v>26.04</v>
       </c>
       <c r="T253" s="5" t="n"/>
     </row>
@@ -27191,30 +27189,30 @@
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M254" s="7" t="inlineStr">
         <is>
-          <t>Håvard Dimmen</t>
+          <t>Martin Roe</t>
         </is>
       </c>
       <c r="N254" s="7" t="n">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="O254" s="15" t="n">
-        <v>5.05</v>
+        <v>47.46</v>
       </c>
       <c r="P254" s="7" t="n">
-        <v>383</v>
+        <v>816</v>
       </c>
       <c r="Q254" s="7" t="inlineStr">
         <is>
-          <t>Ørsta</t>
+          <t>München/GER</t>
         </is>
       </c>
       <c r="R254" s="16" t="n">
-        <v>22.05</v>
+        <v>16.08</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -27249,30 +27247,30 @@
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M255" s="7" t="inlineStr">
         <is>
-          <t>Vidar Hansen</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="N255" s="7" t="n">
-        <v>1979</v>
+        <v>1968</v>
       </c>
       <c r="O255" s="15" t="n">
-        <v>8.949999999999999</v>
+        <v>33.04</v>
       </c>
       <c r="P255" s="7" t="n">
-        <v>369</v>
+        <v>510</v>
       </c>
       <c r="Q255" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R255" s="16" t="n">
-        <v>20.03</v>
+        <v>26.03</v>
       </c>
       <c r="T255" s="5" t="n"/>
     </row>
@@ -27305,13 +27303,33 @@
         <v>12.02</v>
       </c>
       <c r="J256" s="5" t="n"/>
-      <c r="L256" s="14" t="n"/>
-      <c r="M256" s="7" t="n"/>
-      <c r="N256" s="7" t="n"/>
-      <c r="O256" s="7" t="n"/>
-      <c r="P256" s="7" t="n"/>
-      <c r="Q256" s="7" t="n"/>
-      <c r="R256" s="21" t="n"/>
+      <c r="L256" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="M256" s="7" t="inlineStr">
+        <is>
+          <t>Martin Roe</t>
+        </is>
+      </c>
+      <c r="N256" s="7" t="n">
+        <v>1992</v>
+      </c>
+      <c r="O256" s="15" t="n">
+        <v>63.26</v>
+      </c>
+      <c r="P256" s="7" t="n">
+        <v>803</v>
+      </c>
+      <c r="Q256" s="7" t="inlineStr">
+        <is>
+          <t>München/GER</t>
+        </is>
+      </c>
+      <c r="R256" s="16" t="n">
+        <v>16.08</v>
+      </c>
       <c r="T256" s="5" t="n"/>
     </row>
     <row r="257" ht="13" customHeight="1">
@@ -27356,7 +27374,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O258" s="19" t="inlineStr">
         <is>
@@ -27364,7 +27382,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>8067</v>
+        <v>8672</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -27495,30 +27513,32 @@
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>Sondre Johannes Espelid</t>
+          <t>Sander Kjøsnes Lie</t>
         </is>
       </c>
       <c r="N263" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O263" s="15" t="n">
-        <v>11.68</v>
+        <v>1999</v>
+      </c>
+      <c r="O263" s="17" t="inlineStr">
+        <is>
+          <t>16,27,03</t>
+        </is>
       </c>
       <c r="P263" s="7" t="n">
-        <v>679</v>
+        <v>593</v>
       </c>
       <c r="Q263" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R263" s="16" t="n">
-        <v>26.08</v>
+        <v>1.08</v>
       </c>
       <c r="T263" s="5" t="n"/>
     </row>
@@ -27555,30 +27575,30 @@
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Gabriel Overvåg</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
-        <v>2004</v>
+        <v>1968</v>
       </c>
       <c r="O264" s="15" t="n">
-        <v>11.8</v>
+        <v>28.92</v>
       </c>
       <c r="P264" s="7" t="n">
-        <v>653</v>
+        <v>452</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>7.08</v>
+        <v>21.06</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
@@ -27620,25 +27640,25 @@
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Jakob Slåtten</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
-        <v>2005</v>
+        <v>1976</v>
       </c>
       <c r="O265" s="15" t="n">
-        <v>11.83</v>
+        <v>12.83</v>
       </c>
       <c r="P265" s="7" t="n">
-        <v>646</v>
+        <v>450</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>26.08</v>
+        <v>24.08</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
@@ -27675,30 +27695,32 @@
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Jakob Slåtten</t>
+          <t>Christer Sælen</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O266" s="15" t="n">
-        <v>7.63</v>
+        <v>1981</v>
+      </c>
+      <c r="O266" s="17" t="inlineStr">
+        <is>
+          <t>18,24,97</t>
+        </is>
       </c>
       <c r="P266" s="7" t="n">
-        <v>614</v>
+        <v>400</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>5.03</v>
+        <v>15.08</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
@@ -27735,32 +27757,30 @@
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Jakob Slåtten</t>
+          <t>Oddvin Årdalsbakke</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O267" s="17" t="inlineStr">
-        <is>
-          <t>1,00,40</t>
-        </is>
+        <v>1962</v>
+      </c>
+      <c r="O267" s="15" t="n">
+        <v>1.27</v>
       </c>
       <c r="P267" s="7" t="n">
-        <v>612</v>
+        <v>398</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>27.08</v>
+        <v>14.03</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -27795,30 +27815,32 @@
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Sondre Johannes Espelid</t>
+          <t>Nils Tore Sæterdal</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O268" s="15" t="n">
-        <v>7.65</v>
+        <v>1967</v>
+      </c>
+      <c r="O268" s="17" t="inlineStr">
+        <is>
+          <t>10,40,22</t>
+        </is>
       </c>
       <c r="P268" s="7" t="n">
-        <v>607</v>
+        <v>381</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Ørsta</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>22.05</v>
+        <v>22.08</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
@@ -27855,30 +27877,30 @@
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Gabriel Overvåg</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>2004</v>
+        <v>1968</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>24.71</v>
+        <v>2.51</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>581</v>
+        <v>375</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>13.07</v>
+        <v>19.03</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -27913,30 +27935,30 @@
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Skoge</t>
+          <t>Oddvin Årdalsbakke</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>2009</v>
+        <v>1962</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>7.74</v>
+        <v>2.51</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>577</v>
+        <v>375</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Måndalen</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>4.09</v>
+        <v>14.03</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -27971,30 +27993,32 @@
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Eystein Tandberg Gyllensten</t>
+          <t>Espen Irgens Haugen</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O271" s="15" t="n">
-        <v>4.6</v>
+        <v>1985</v>
+      </c>
+      <c r="O271" s="17" t="inlineStr">
+        <is>
+          <t>10,43,35</t>
+        </is>
       </c>
       <c r="P271" s="7" t="n">
-        <v>273</v>
+        <v>374</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Ørsta</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>28.08</v>
+        <v>22.08</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -28029,30 +28053,32 @@
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Eystein Tandberg Gyllensten</t>
+          <t>Nils Tore Sæterdal</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O272" s="15" t="n">
-        <v>1.92</v>
+        <v>1967</v>
+      </c>
+      <c r="O272" s="17" t="inlineStr">
+        <is>
+          <t>4,56,18</t>
+        </is>
       </c>
       <c r="P272" s="7" t="n">
-        <v>165</v>
+        <v>372</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Måndalen</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>3.09</v>
+        <v>15.08</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -28087,30 +28113,32 @@
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Oliver Kvalsund Sellereite</t>
+          <t>Christer Sælen</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O273" s="15" t="n">
-        <v>1.25</v>
+        <v>1981</v>
+      </c>
+      <c r="O273" s="17" t="inlineStr">
+        <is>
+          <t>2,24,12</t>
+        </is>
       </c>
       <c r="P273" s="7" t="n">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>15.05</v>
+        <v>6.07</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -28143,13 +28171,35 @@
         <v>4.06</v>
       </c>
       <c r="J274" s="5" t="n"/>
-      <c r="L274" s="14" t="n"/>
-      <c r="M274" s="7" t="n"/>
-      <c r="N274" s="7" t="n"/>
-      <c r="O274" s="7" t="n"/>
-      <c r="P274" s="7" t="n"/>
-      <c r="Q274" s="7" t="n"/>
-      <c r="R274" s="21" t="n"/>
+      <c r="L274" s="14" t="inlineStr">
+        <is>
+          <t>3000m</t>
+        </is>
+      </c>
+      <c r="M274" s="7" t="inlineStr">
+        <is>
+          <t>Lars Olav Brattabø</t>
+        </is>
+      </c>
+      <c r="N274" s="7" t="n">
+        <v>1973</v>
+      </c>
+      <c r="O274" s="17" t="inlineStr">
+        <is>
+          <t>10,55,67</t>
+        </is>
+      </c>
+      <c r="P274" s="7" t="n">
+        <v>344</v>
+      </c>
+      <c r="Q274" s="7" t="inlineStr">
+        <is>
+          <t>Osterøy</t>
+        </is>
+      </c>
+      <c r="R274" s="16" t="n">
+        <v>2.06</v>
+      </c>
       <c r="T274" s="5" t="n"/>
     </row>
     <row r="275" ht="13" customHeight="1">
@@ -28194,7 +28244,7 @@
         </is>
       </c>
       <c r="M276" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O276" s="19" t="inlineStr">
         <is>
@@ -28202,7 +28252,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>5426</v>
+        <v>4869</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -28234,7 +28284,7 @@
         </is>
       </c>
       <c r="M278" s="20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O278" s="19" t="inlineStr">
         <is>
@@ -28242,7 +28292,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>13493</v>
+        <v>13541</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -28266,7 +28316,7 @@
         </is>
       </c>
       <c r="M280" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
@@ -28308,7 +28358,7 @@
       </c>
       <c r="C284" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
       <c r="F284" s="8" t="n">
@@ -28338,7 +28388,7 @@
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>IL Fri</t>
+          <t>Dimna IL</t>
         </is>
       </c>
       <c r="J285" s="5" t="n"/>
@@ -28478,25 +28528,25 @@
       </c>
       <c r="C291" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Jonas André Ose</t>
         </is>
       </c>
       <c r="D291" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E291" s="15" t="n">
-        <v>7.63</v>
+        <v>7.01</v>
       </c>
       <c r="F291" s="7" t="n">
-        <v>614</v>
+        <v>859</v>
       </c>
       <c r="G291" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H291" s="16" t="n">
-        <v>6.07</v>
+        <v>19.03</v>
       </c>
       <c r="J291" s="5" t="n"/>
       <c r="L291" s="14" t="inlineStr">
@@ -28536,25 +28586,25 @@
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>Martin Roe</t>
+          <t>Jonas André Ose</t>
         </is>
       </c>
       <c r="D292" s="7" t="n">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="E292" s="15" t="n">
-        <v>10.94</v>
+        <v>11.16</v>
       </c>
       <c r="F292" s="7" t="n">
-        <v>857</v>
+        <v>801</v>
       </c>
       <c r="G292" s="7" t="inlineStr">
         <is>
-          <t>München/GER</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H292" s="16" t="n">
-        <v>15.08</v>
+        <v>18.06</v>
       </c>
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="14" t="inlineStr">
@@ -28589,30 +28639,30 @@
     <row r="293" ht="13" customHeight="1">
       <c r="B293" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>Morten Solheim</t>
+          <t>Sondre Johannes Espelid</t>
         </is>
       </c>
       <c r="D293" s="7" t="n">
-        <v>1976</v>
+        <v>2003</v>
       </c>
       <c r="E293" s="15" t="n">
-        <v>54.54</v>
+        <v>23.55</v>
       </c>
       <c r="F293" s="7" t="n">
-        <v>583</v>
+        <v>692</v>
       </c>
       <c r="G293" s="7" t="inlineStr">
         <is>
-          <t>Tampere/FIN</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H293" s="16" t="n">
-        <v>6.07</v>
+        <v>10.09</v>
       </c>
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
@@ -28647,32 +28697,30 @@
     <row r="294" ht="13" customHeight="1">
       <c r="B294" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>Christer Sælen</t>
+          <t>Toralv Opsal</t>
         </is>
       </c>
       <c r="D294" s="7" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E294" s="17" t="inlineStr">
-        <is>
-          <t>4,55,91</t>
-        </is>
+        <v>1998</v>
+      </c>
+      <c r="E294" s="15" t="n">
+        <v>49.39</v>
       </c>
       <c r="F294" s="7" t="n">
-        <v>373</v>
+        <v>816</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>15.08</v>
+        <v>5.02</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
@@ -28712,27 +28760,27 @@
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>Sander Kjøsnes Lie</t>
+          <t>Olger Breivik Pedersen</t>
         </is>
       </c>
       <c r="D295" s="7" t="n">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="E295" s="17" t="inlineStr">
         <is>
-          <t>9,11,02</t>
+          <t>9,32,65</t>
         </is>
       </c>
       <c r="F295" s="7" t="n">
-        <v>647</v>
+        <v>573</v>
       </c>
       <c r="G295" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H295" s="16" t="n">
-        <v>18.05</v>
+        <v>6.06</v>
       </c>
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
@@ -28774,27 +28822,27 @@
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>Andreas Vågen</t>
+          <t>Olger Breivik Pedersen</t>
         </is>
       </c>
       <c r="D296" s="7" t="n">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E296" s="17" t="inlineStr">
         <is>
-          <t>15,44,58</t>
+          <t>15,57,81</t>
         </is>
       </c>
       <c r="F296" s="7" t="n">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="G296" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H296" s="16" t="n">
-        <v>1.08</v>
+        <v>30.06</v>
       </c>
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
@@ -28831,30 +28879,30 @@
     <row r="297" ht="13" customHeight="1">
       <c r="B297" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>Martin Roe</t>
+          <t>Jakob Slåtten</t>
         </is>
       </c>
       <c r="D297" s="7" t="n">
-        <v>1992</v>
+        <v>2005</v>
       </c>
       <c r="E297" s="15" t="n">
-        <v>4.68</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F297" s="7" t="n">
-        <v>848</v>
+        <v>701</v>
       </c>
       <c r="G297" s="7" t="inlineStr">
         <is>
-          <t>Bergen/Hø</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H297" s="16" t="n">
-        <v>7.08</v>
+        <v>6.02</v>
       </c>
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
@@ -28891,22 +28939,22 @@
     <row r="298" ht="13" customHeight="1">
       <c r="B298" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>Martin Roe</t>
+          <t>Karsten Warholm</t>
         </is>
       </c>
       <c r="D298" s="7" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E298" s="15" t="n">
-        <v>7.21</v>
+        <v>47.12</v>
       </c>
       <c r="F298" s="7" t="n">
-        <v>871</v>
+        <v>1173</v>
       </c>
       <c r="G298" s="7" t="inlineStr">
         <is>
@@ -28914,7 +28962,7 @@
         </is>
       </c>
       <c r="H298" s="16" t="n">
-        <v>15.08</v>
+        <v>19.08</v>
       </c>
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
@@ -28951,30 +28999,30 @@
     <row r="299" ht="13" customHeight="1">
       <c r="B299" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>Oddvin Årdalsbakke</t>
+          <t>Sebastian Eystein Tandberg Gyllensten</t>
         </is>
       </c>
       <c r="D299" s="7" t="n">
-        <v>1962</v>
+        <v>2008</v>
       </c>
       <c r="E299" s="15" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="F299" s="7" t="n">
-        <v>398</v>
+        <v>181</v>
       </c>
       <c r="G299" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Måndalen</t>
         </is>
       </c>
       <c r="H299" s="16" t="n">
-        <v>14.03</v>
+        <v>4.09</v>
       </c>
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
@@ -29011,30 +29059,30 @@
     <row r="300" ht="13" customHeight="1">
       <c r="B300" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Toralv Opsal</t>
         </is>
       </c>
       <c r="D300" s="7" t="n">
-        <v>1968</v>
+        <v>1998</v>
       </c>
       <c r="E300" s="15" t="n">
-        <v>11.3</v>
+        <v>4.8</v>
       </c>
       <c r="F300" s="7" t="n">
-        <v>546</v>
+        <v>870</v>
       </c>
       <c r="G300" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H300" s="16" t="n">
-        <v>26.04</v>
+        <v>12.02</v>
       </c>
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
@@ -29069,30 +29117,30 @@
     <row r="301" ht="13" customHeight="1">
       <c r="B301" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>Martin Roe</t>
+          <t>Håvard Dimmen</t>
         </is>
       </c>
       <c r="D301" s="7" t="n">
-        <v>1992</v>
+        <v>2005</v>
       </c>
       <c r="E301" s="15" t="n">
-        <v>47.46</v>
+        <v>5.05</v>
       </c>
       <c r="F301" s="7" t="n">
-        <v>816</v>
+        <v>383</v>
       </c>
       <c r="G301" s="7" t="inlineStr">
         <is>
-          <t>München/GER</t>
+          <t>Ørsta</t>
         </is>
       </c>
       <c r="H301" s="16" t="n">
-        <v>16.08</v>
+        <v>22.05</v>
       </c>
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="inlineStr">
@@ -29127,30 +29175,30 @@
     <row r="302" ht="13" customHeight="1">
       <c r="B302" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Vidar Hansen</t>
         </is>
       </c>
       <c r="D302" s="7" t="n">
-        <v>1968</v>
+        <v>1979</v>
       </c>
       <c r="E302" s="15" t="n">
-        <v>33.1</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F302" s="7" t="n">
-        <v>510</v>
+        <v>369</v>
       </c>
       <c r="G302" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H302" s="16" t="n">
-        <v>21.05</v>
+        <v>20.03</v>
       </c>
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="inlineStr">
@@ -29183,33 +29231,13 @@
       <c r="T302" s="5" t="n"/>
     </row>
     <row r="303" ht="13" customHeight="1">
-      <c r="B303" s="14" t="inlineStr">
-        <is>
-          <t>Spyd</t>
-        </is>
-      </c>
-      <c r="C303" s="7" t="inlineStr">
-        <is>
-          <t>Martin Roe</t>
-        </is>
-      </c>
-      <c r="D303" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E303" s="15" t="n">
-        <v>63.26</v>
-      </c>
-      <c r="F303" s="7" t="n">
-        <v>803</v>
-      </c>
-      <c r="G303" s="7" t="inlineStr">
-        <is>
-          <t>München/GER</t>
-        </is>
-      </c>
-      <c r="H303" s="16" t="n">
-        <v>16.08</v>
-      </c>
+      <c r="B303" s="14" t="n"/>
+      <c r="C303" s="7" t="n"/>
+      <c r="D303" s="7" t="n"/>
+      <c r="E303" s="7" t="n"/>
+      <c r="F303" s="7" t="n"/>
+      <c r="G303" s="7" t="n"/>
+      <c r="H303" s="21" t="n"/>
       <c r="J303" s="5" t="n"/>
       <c r="L303" s="14" t="inlineStr">
         <is>
@@ -29265,7 +29293,7 @@
         </is>
       </c>
       <c r="C305" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E305" s="19" t="inlineStr">
         <is>
@@ -29273,7 +29301,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>8542</v>
+        <v>8067</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -29393,32 +29421,30 @@
     <row r="310" ht="13" customHeight="1">
       <c r="B310" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
         <is>
-          <t>Sander Kjøsnes Lie</t>
+          <t>Sondre Johannes Espelid</t>
         </is>
       </c>
       <c r="D310" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E310" s="17" t="inlineStr">
-        <is>
-          <t>16,27,03</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E310" s="15" t="n">
+        <v>11.68</v>
       </c>
       <c r="F310" s="7" t="n">
-        <v>593</v>
+        <v>679</v>
       </c>
       <c r="G310" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H310" s="16" t="n">
-        <v>1.08</v>
+        <v>26.08</v>
       </c>
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="14" t="inlineStr">
@@ -29455,30 +29481,30 @@
     <row r="311" ht="13" customHeight="1">
       <c r="B311" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Gabriel Overvåg</t>
         </is>
       </c>
       <c r="D311" s="7" t="n">
-        <v>1968</v>
+        <v>2004</v>
       </c>
       <c r="E311" s="15" t="n">
-        <v>28.92</v>
+        <v>11.8</v>
       </c>
       <c r="F311" s="7" t="n">
-        <v>452</v>
+        <v>653</v>
       </c>
       <c r="G311" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H311" s="16" t="n">
-        <v>21.06</v>
+        <v>7.08</v>
       </c>
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
@@ -29518,25 +29544,25 @@
       </c>
       <c r="C312" s="7" t="inlineStr">
         <is>
-          <t>Morten Solheim</t>
+          <t>Jakob Slåtten</t>
         </is>
       </c>
       <c r="D312" s="7" t="n">
-        <v>1976</v>
+        <v>2005</v>
       </c>
       <c r="E312" s="15" t="n">
-        <v>12.83</v>
+        <v>11.83</v>
       </c>
       <c r="F312" s="7" t="n">
-        <v>450</v>
+        <v>646</v>
       </c>
       <c r="G312" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H312" s="16" t="n">
-        <v>24.08</v>
+        <v>26.08</v>
       </c>
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
@@ -29571,32 +29597,30 @@
     <row r="313" ht="13" customHeight="1">
       <c r="B313" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
         <is>
-          <t>Christer Sælen</t>
+          <t>Jakob Slåtten</t>
         </is>
       </c>
       <c r="D313" s="7" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E313" s="17" t="inlineStr">
-        <is>
-          <t>18,24,97</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E313" s="15" t="n">
+        <v>7.63</v>
       </c>
       <c r="F313" s="7" t="n">
-        <v>400</v>
+        <v>614</v>
       </c>
       <c r="G313" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H313" s="16" t="n">
-        <v>15.08</v>
+        <v>5.03</v>
       </c>
       <c r="J313" s="5" t="n"/>
       <c r="L313" s="14" t="inlineStr">
@@ -29631,32 +29655,32 @@
     <row r="314" ht="13" customHeight="1">
       <c r="B314" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
         <is>
-          <t>Nils Tore Sæterdal</t>
+          <t>Jakob Slåtten</t>
         </is>
       </c>
       <c r="D314" s="7" t="n">
-        <v>1967</v>
+        <v>2005</v>
       </c>
       <c r="E314" s="17" t="inlineStr">
         <is>
-          <t>10,40,22</t>
+          <t>1,00,40</t>
         </is>
       </c>
       <c r="F314" s="7" t="n">
-        <v>381</v>
+        <v>612</v>
       </c>
       <c r="G314" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H314" s="16" t="n">
-        <v>22.08</v>
+        <v>27.08</v>
       </c>
       <c r="J314" s="5" t="n"/>
       <c r="L314" s="14" t="inlineStr">
@@ -29691,30 +29715,30 @@
     <row r="315" ht="13" customHeight="1">
       <c r="B315" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Sondre Johannes Espelid</t>
         </is>
       </c>
       <c r="D315" s="7" t="n">
-        <v>1968</v>
+        <v>2003</v>
       </c>
       <c r="E315" s="15" t="n">
-        <v>2.51</v>
+        <v>7.65</v>
       </c>
       <c r="F315" s="7" t="n">
-        <v>375</v>
+        <v>607</v>
       </c>
       <c r="G315" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ørsta</t>
         </is>
       </c>
       <c r="H315" s="16" t="n">
-        <v>19.03</v>
+        <v>22.05</v>
       </c>
       <c r="J315" s="5" t="n"/>
       <c r="L315" s="14" t="inlineStr">
@@ -29749,30 +29773,30 @@
     <row r="316" ht="13" customHeight="1">
       <c r="B316" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
         <is>
-          <t>Oddvin Årdalsbakke</t>
+          <t>Gabriel Overvåg</t>
         </is>
       </c>
       <c r="D316" s="7" t="n">
-        <v>1962</v>
+        <v>2004</v>
       </c>
       <c r="E316" s="15" t="n">
-        <v>2.51</v>
+        <v>24.71</v>
       </c>
       <c r="F316" s="7" t="n">
-        <v>375</v>
+        <v>581</v>
       </c>
       <c r="G316" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H316" s="16" t="n">
-        <v>14.03</v>
+        <v>13.07</v>
       </c>
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
@@ -29807,32 +29831,30 @@
     <row r="317" ht="13" customHeight="1">
       <c r="B317" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>Espen Irgens Haugen</t>
+          <t>Kristoffer Skoge</t>
         </is>
       </c>
       <c r="D317" s="7" t="n">
-        <v>1985</v>
-      </c>
-      <c r="E317" s="17" t="inlineStr">
-        <is>
-          <t>10,43,35</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E317" s="15" t="n">
+        <v>7.74</v>
       </c>
       <c r="F317" s="7" t="n">
-        <v>374</v>
+        <v>577</v>
       </c>
       <c r="G317" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Måndalen</t>
         </is>
       </c>
       <c r="H317" s="16" t="n">
-        <v>22.08</v>
+        <v>4.09</v>
       </c>
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">
@@ -29867,32 +29889,30 @@
     <row r="318" ht="13" customHeight="1">
       <c r="B318" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>Nils Tore Sæterdal</t>
+          <t>Sebastian Eystein Tandberg Gyllensten</t>
         </is>
       </c>
       <c r="D318" s="7" t="n">
-        <v>1967</v>
-      </c>
-      <c r="E318" s="17" t="inlineStr">
-        <is>
-          <t>4,56,18</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E318" s="15" t="n">
+        <v>4.6</v>
       </c>
       <c r="F318" s="7" t="n">
-        <v>372</v>
+        <v>273</v>
       </c>
       <c r="G318" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Ørsta</t>
         </is>
       </c>
       <c r="H318" s="16" t="n">
-        <v>15.08</v>
+        <v>28.08</v>
       </c>
       <c r="J318" s="5" t="n"/>
       <c r="L318" s="14" t="inlineStr">
@@ -29927,32 +29947,30 @@
     <row r="319" ht="13" customHeight="1">
       <c r="B319" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>Christer Sælen</t>
+          <t>Sebastian Eystein Tandberg Gyllensten</t>
         </is>
       </c>
       <c r="D319" s="7" t="n">
-        <v>1981</v>
-      </c>
-      <c r="E319" s="17" t="inlineStr">
-        <is>
-          <t>2,24,12</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E319" s="15" t="n">
+        <v>1.92</v>
       </c>
       <c r="F319" s="7" t="n">
-        <v>355</v>
+        <v>165</v>
       </c>
       <c r="G319" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Måndalen</t>
         </is>
       </c>
       <c r="H319" s="16" t="n">
-        <v>6.07</v>
+        <v>3.09</v>
       </c>
       <c r="J319" s="5" t="n"/>
       <c r="L319" s="14" t="inlineStr">
@@ -29987,32 +30005,30 @@
     <row r="320" ht="13" customHeight="1">
       <c r="B320" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C320" s="7" t="inlineStr">
         <is>
-          <t>Lars Olav Brattabø</t>
+          <t>Oliver Kvalsund Sellereite</t>
         </is>
       </c>
       <c r="D320" s="7" t="n">
-        <v>1973</v>
-      </c>
-      <c r="E320" s="17" t="inlineStr">
-        <is>
-          <t>10,55,67</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E320" s="15" t="n">
+        <v>1.25</v>
       </c>
       <c r="F320" s="7" t="n">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="G320" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H320" s="16" t="n">
-        <v>2.06</v>
+        <v>15.05</v>
       </c>
       <c r="J320" s="5" t="n"/>
       <c r="L320" s="14" t="inlineStr">
@@ -30045,33 +30061,13 @@
       <c r="T320" s="5" t="n"/>
     </row>
     <row r="321" ht="13" customHeight="1">
-      <c r="B321" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="C321" s="7" t="inlineStr">
-        <is>
-          <t>Lars Magnus Birketveit</t>
-        </is>
-      </c>
-      <c r="D321" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E321" s="15" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="F321" s="7" t="n">
-        <v>342</v>
-      </c>
-      <c r="G321" s="7" t="inlineStr">
-        <is>
-          <t>Arna</t>
-        </is>
-      </c>
-      <c r="H321" s="16" t="n">
-        <v>14.03</v>
-      </c>
+      <c r="B321" s="14" t="n"/>
+      <c r="C321" s="7" t="n"/>
+      <c r="D321" s="7" t="n"/>
+      <c r="E321" s="7" t="n"/>
+      <c r="F321" s="7" t="n"/>
+      <c r="G321" s="7" t="n"/>
+      <c r="H321" s="21" t="n"/>
       <c r="J321" s="5" t="n"/>
       <c r="L321" s="14" t="inlineStr">
         <is>
@@ -30127,7 +30123,7 @@
         </is>
       </c>
       <c r="C323" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E323" s="19" t="inlineStr">
         <is>
@@ -30135,7 +30131,7 @@
         </is>
       </c>
       <c r="F323" s="20" t="n">
-        <v>4813</v>
+        <v>5426</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="19" t="inlineStr">
@@ -30167,7 +30163,7 @@
         </is>
       </c>
       <c r="C325" s="20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E325" s="19" t="inlineStr">
         <is>
@@ -30175,7 +30171,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>13355</v>
+        <v>13493</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -30207,7 +30203,7 @@
         </is>
       </c>
       <c r="C327" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="19" t="inlineStr">
@@ -30416,7 +30412,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23231</v>
+        <v>23266</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -33457,19 +33453,19 @@
       </c>
       <c r="O65" s="17" t="inlineStr">
         <is>
-          <t>2,13,57</t>
+          <t>2,12,97</t>
         </is>
       </c>
       <c r="P65" s="7" t="n">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>13.08</v>
+        <v>10.09</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -34111,7 +34107,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12540</v>
+        <v>12549</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -34592,7 +34588,7 @@
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M88" s="7" t="inlineStr">
@@ -34604,18 +34600,18 @@
         <v>2007</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>26.47</v>
+        <v>12.87</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>14.08</v>
+        <v>10.09</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -34657,14 +34653,14 @@
       </c>
       <c r="M89" s="7" t="inlineStr">
         <is>
-          <t>Serine Brakstad</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>26.48</v>
+        <v>26.47</v>
       </c>
       <c r="P89" s="7" t="n">
         <v>689</v>
@@ -34712,7 +34708,7 @@
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M90" s="7" t="inlineStr">
@@ -34724,10 +34720,10 @@
         <v>2006</v>
       </c>
       <c r="O90" s="15" t="n">
-        <v>12.9</v>
+        <v>26.48</v>
       </c>
       <c r="P90" s="7" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
@@ -34735,7 +34731,7 @@
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>12.08</v>
+        <v>14.08</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -34772,30 +34768,30 @@
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Martine Lundberg Espetvedt</t>
+          <t>Serine Brakstad</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>26.58</v>
+        <v>12.9</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>6.03</v>
+        <v>12.08</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
@@ -34830,30 +34826,30 @@
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Martine Lundberg Espetvedt</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>13.02</v>
+        <v>26.58</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>12.08</v>
+        <v>6.03</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -35141,7 +35137,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>10691</v>
+        <v>10717</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -35181,7 +35177,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23231</v>
+        <v>23266</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -39131,11 +39127,11 @@
       </c>
       <c r="Q193" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Jerusalem/ISR</t>
         </is>
       </c>
       <c r="R193" s="16" t="n">
-        <v>22.05</v>
+        <v>5.07</v>
       </c>
       <c r="T193" s="5" t="n"/>
     </row>
@@ -40531,25 +40527,25 @@
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>Maria Døske</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="D228" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E228" s="15" t="n">
-        <v>11.59</v>
+        <v>11.58</v>
       </c>
       <c r="F228" s="7" t="n">
         <v>691</v>
       </c>
       <c r="G228" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H228" s="16" t="n">
-        <v>26.08</v>
+        <v>5.02</v>
       </c>
       <c r="J228" s="5" t="n"/>
       <c r="L228" s="14" t="inlineStr">
@@ -41213,25 +41209,25 @@
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="D243" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E243" s="15" t="n">
-        <v>11.58</v>
+        <v>11.59</v>
       </c>
       <c r="F243" s="7" t="n">
         <v>691</v>
       </c>
       <c r="G243" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H243" s="16" t="n">
-        <v>5.02</v>
+        <v>26.08</v>
       </c>
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
@@ -44703,11 +44699,11 @@
       </c>
       <c r="Q326" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R326" s="16" t="n">
-        <v>14.05</v>
+        <v>11.09</v>
       </c>
       <c r="T326" s="5" t="n"/>
     </row>
@@ -45641,11 +45637,11 @@
       </c>
       <c r="Q348" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R348" s="16" t="n">
-        <v>27.05</v>
+        <v>19.02</v>
       </c>
       <c r="T348" s="5" t="n"/>
     </row>
@@ -45738,30 +45734,30 @@
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M350" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Mathilde Handeland</t>
         </is>
       </c>
       <c r="N350" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O350" s="15" t="n">
-        <v>1.41</v>
+        <v>4.59</v>
       </c>
       <c r="P350" s="7" t="n">
         <v>528</v>
       </c>
       <c r="Q350" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R350" s="16" t="n">
-        <v>4.09</v>
+        <v>21.08</v>
       </c>
       <c r="T350" s="5" t="n"/>
     </row>
@@ -45796,30 +45792,30 @@
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M351" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Handeland</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N351" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O351" s="15" t="n">
-        <v>4.59</v>
+        <v>1.41</v>
       </c>
       <c r="P351" s="7" t="n">
         <v>528</v>
       </c>
       <c r="Q351" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Byrkjelo</t>
         </is>
       </c>
       <c r="R351" s="16" t="n">
-        <v>21.08</v>
+        <v>4.09</v>
       </c>
       <c r="T351" s="5" t="n"/>
     </row>
@@ -46406,25 +46402,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IL Tyrving 2. lag</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>15956</v>
+        <v>16023</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(13/1d)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -46434,25 +46430,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>IL Tyrving 2. lag</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(24/9)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>15660</v>
+        <v>15956</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(13/1d)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -46495,11 +46491,11 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15016</v>
+        <v>15034</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -46527,7 +46523,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>14884</v>
+        <v>14893</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -46551,11 +46547,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14678</v>
+        <v>14829</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -46611,7 +46607,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>13828</v>
+        <v>13945</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -50600,7 +50596,7 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F96" s="8" t="n">
@@ -50614,7 +50610,7 @@
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="P96" s="8" t="n">
@@ -50630,7 +50626,7 @@
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>IL Tyrving 2. lag</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="J97" s="5" t="n"/>
@@ -50641,7 +50637,7 @@
       </c>
       <c r="M97" s="7" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>IL Tyrving 2. lag</t>
         </is>
       </c>
       <c r="T97" s="5" t="n"/>
@@ -50770,25 +50766,25 @@
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Camilla Dahl Kristiansen</t>
+          <t>Emma Dahl Sørbo</t>
         </is>
       </c>
       <c r="D103" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E103" s="15" t="n">
-        <v>8.279999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>652</v>
+        <v>791</v>
       </c>
       <c r="G103" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H103" s="16" t="n">
-        <v>12.02</v>
+        <v>5.03</v>
       </c>
       <c r="J103" s="5" t="n"/>
       <c r="L103" s="14" t="inlineStr">
@@ -50798,25 +50794,25 @@
       </c>
       <c r="M103" s="7" t="inlineStr">
         <is>
-          <t>Emma Dahl Sørbo</t>
+          <t>Camilla Dahl Kristiansen</t>
         </is>
       </c>
       <c r="N103" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O103" s="15" t="n">
-        <v>7.82</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="P103" s="7" t="n">
-        <v>791</v>
+        <v>652</v>
       </c>
       <c r="Q103" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R103" s="16" t="n">
-        <v>5.03</v>
+        <v>12.02</v>
       </c>
       <c r="T103" s="5" t="n"/>
     </row>
@@ -50828,25 +50824,25 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Camilla Dahl Kristiansen</t>
+          <t>Ingrid Sortland</t>
         </is>
       </c>
       <c r="D104" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>13</v>
+        <v>12.58</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>671</v>
+        <v>745</v>
       </c>
       <c r="G104" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H104" s="16" t="n">
-        <v>15.05</v>
+        <v>14.05</v>
       </c>
       <c r="J104" s="5" t="n"/>
       <c r="L104" s="14" t="inlineStr">
@@ -50856,25 +50852,25 @@
       </c>
       <c r="M104" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Sortland</t>
+          <t>Camilla Dahl Kristiansen</t>
         </is>
       </c>
       <c r="N104" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="O104" s="15" t="n">
-        <v>12.58</v>
+        <v>13</v>
       </c>
       <c r="P104" s="7" t="n">
-        <v>745</v>
+        <v>671</v>
       </c>
       <c r="Q104" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R104" s="16" t="n">
-        <v>14.05</v>
+        <v>15.05</v>
       </c>
       <c r="T104" s="5" t="n"/>
     </row>
@@ -50886,25 +50882,25 @@
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Camilla Dahl Kristiansen</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="D105" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>26.06</v>
+        <v>26.39</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="G105" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H105" s="16" t="n">
-        <v>13.02</v>
+        <v>21.08</v>
       </c>
       <c r="J105" s="5" t="n"/>
       <c r="L105" s="14" t="inlineStr">
@@ -50914,231 +50910,233 @@
       </c>
       <c r="M105" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Camilla Dahl Kristiansen</t>
         </is>
       </c>
       <c r="N105" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O105" s="15" t="n">
-        <v>26.39</v>
+        <v>26.06</v>
       </c>
       <c r="P105" s="7" t="n">
-        <v>695</v>
+        <v>721</v>
       </c>
       <c r="Q105" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R105" s="16" t="n">
-        <v>21.08</v>
+        <v>13.02</v>
       </c>
       <c r="T105" s="5" t="n"/>
     </row>
     <row r="106" ht="13" customHeight="1">
       <c r="B106" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Camilla Dahl Kristiansen</t>
+          <t>Eli Anne Dvergsdal</t>
         </is>
       </c>
       <c r="D106" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E106" s="15" t="n">
-        <v>58.65</v>
+        <v>1991</v>
+      </c>
+      <c r="E106" s="17" t="inlineStr">
+        <is>
+          <t>4,34,10</t>
+        </is>
       </c>
       <c r="F106" s="7" t="n">
-        <v>724</v>
+        <v>762</v>
       </c>
       <c r="G106" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H106" s="16" t="n">
-        <v>28.05</v>
+        <v>5.02</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Eli Anne Dvergsdal</t>
+          <t>Camilla Dahl Kristiansen</t>
         </is>
       </c>
       <c r="N106" s="7" t="n">
-        <v>1991</v>
-      </c>
-      <c r="O106" s="17" t="inlineStr">
-        <is>
-          <t>4,34,10</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O106" s="15" t="n">
+        <v>58.65</v>
       </c>
       <c r="P106" s="7" t="n">
-        <v>762</v>
+        <v>724</v>
       </c>
       <c r="Q106" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R106" s="16" t="n">
-        <v>5.02</v>
+        <v>28.05</v>
       </c>
       <c r="T106" s="5" t="n"/>
     </row>
     <row r="107" ht="13" customHeight="1">
       <c r="B107" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Mia Mathilda Andersen</t>
+          <t>Eli Anne Dvergsdal</t>
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>2,26,27</t>
+          <t>9,39,09</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>596</v>
+        <v>803</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>21.08</v>
+        <v>11.05</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>Eli Anne Dvergsdal</t>
+          <t>Mia Mathilda Andersen</t>
         </is>
       </c>
       <c r="N107" s="7" t="n">
-        <v>1991</v>
+        <v>2009</v>
       </c>
       <c r="O107" s="17" t="inlineStr">
         <is>
-          <t>9,39,09</t>
+          <t>2,26,27</t>
         </is>
       </c>
       <c r="P107" s="7" t="n">
-        <v>803</v>
+        <v>596</v>
       </c>
       <c r="Q107" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R107" s="16" t="n">
-        <v>11.05</v>
+        <v>21.08</v>
       </c>
       <c r="T107" s="5" t="n"/>
     </row>
     <row r="108" ht="13" customHeight="1">
       <c r="B108" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Ragnhild Lindhjem-Godal</t>
+          <t>Eli Anne Dvergsdal</t>
         </is>
       </c>
       <c r="D108" s="7" t="n">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="E108" s="17" t="inlineStr">
         <is>
-          <t>5,05,06</t>
+          <t>34,03,01mx</t>
         </is>
       </c>
       <c r="F108" s="7" t="n">
-        <v>586</v>
+        <v>871</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>20.08</v>
+        <v>14.04</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M108" s="7" t="inlineStr">
         <is>
-          <t>Eli Anne Dvergsdal</t>
+          <t>Ragnhild Lindhjem-Godal</t>
         </is>
       </c>
       <c r="N108" s="7" t="n">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="O108" s="17" t="inlineStr">
         <is>
-          <t>34,03,01mx</t>
+          <t>5,05,06</t>
         </is>
       </c>
       <c r="P108" s="7" t="n">
-        <v>871</v>
+        <v>586</v>
       </c>
       <c r="Q108" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R108" s="16" t="n">
-        <v>14.04</v>
+        <v>20.08</v>
       </c>
       <c r="T108" s="5" t="n"/>
     </row>
     <row r="109" ht="13" customHeight="1">
       <c r="B109" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Ida Leir</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="D109" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E109" s="15" t="n">
-        <v>9.4</v>
+      <c r="E109" s="17" t="inlineStr">
+        <is>
+          <t>1,08,89</t>
+        </is>
       </c>
       <c r="F109" s="7" t="n">
-        <v>703</v>
+        <v>610</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
@@ -51146,29 +51144,27 @@
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>13.02</v>
+        <v>27.08</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M109" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Ida Leir</t>
         </is>
       </c>
       <c r="N109" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="O109" s="17" t="inlineStr">
-        <is>
-          <t>1,08,89</t>
-        </is>
+      <c r="O109" s="15" t="n">
+        <v>9.4</v>
       </c>
       <c r="P109" s="7" t="n">
-        <v>610</v>
+        <v>703</v>
       </c>
       <c r="Q109" s="7" t="inlineStr">
         <is>
@@ -51176,338 +51172,358 @@
         </is>
       </c>
       <c r="R109" s="16" t="n">
-        <v>27.08</v>
+        <v>13.02</v>
       </c>
       <c r="T109" s="5" t="n"/>
     </row>
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Ida Leir</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E110" s="15" t="n">
-        <v>16.04</v>
+        <v>1.55</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>28.08</v>
+        <v>19.08</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M110" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Ida Leir</t>
         </is>
       </c>
       <c r="N110" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O110" s="15" t="n">
-        <v>1.55</v>
+        <v>16.04</v>
       </c>
       <c r="P110" s="7" t="n">
-        <v>651</v>
+        <v>672</v>
       </c>
       <c r="Q110" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R110" s="16" t="n">
-        <v>19.08</v>
+        <v>28.08</v>
       </c>
       <c r="T110" s="5" t="n"/>
     </row>
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Ida Leir</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E111" s="17" t="inlineStr">
-        <is>
-          <t>1,07,09</t>
-        </is>
+      <c r="E111" s="15" t="n">
+        <v>2.12</v>
       </c>
       <c r="F111" s="7" t="n">
-        <v>648</v>
+        <v>462</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Ås</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>1.05</v>
+        <v>9.09</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M111" s="7" t="inlineStr">
         <is>
-          <t>Emma Dahl Sørbo</t>
+          <t>Ida Leir</t>
         </is>
       </c>
       <c r="N111" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="O111" s="15" t="n">
-        <v>5.47</v>
+      <c r="O111" s="17" t="inlineStr">
+        <is>
+          <t>1,07,09</t>
+        </is>
       </c>
       <c r="P111" s="7" t="n">
-        <v>721</v>
+        <v>648</v>
       </c>
       <c r="Q111" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ås</t>
         </is>
       </c>
       <c r="R111" s="16" t="n">
-        <v>29.01</v>
+        <v>1.05</v>
       </c>
       <c r="T111" s="5" t="n"/>
     </row>
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Emmy Margrethe Rismark</t>
+          <t>Emma Dahl Sørbo</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>1.5</v>
+        <v>5.47</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>609</v>
+        <v>721</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>12.02</v>
+        <v>29.01</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Emmy Margrethe Rismark</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>11.18</v>
+        <v>1.5</v>
       </c>
       <c r="P112" s="7" t="n">
-        <v>680</v>
+        <v>609</v>
       </c>
       <c r="Q112" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R112" s="16" t="n">
-        <v>12.08</v>
+        <v>12.02</v>
       </c>
       <c r="T112" s="5" t="n"/>
     </row>
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Ida Leir</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>5.08</v>
+        <v>11.18</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>636</v>
+        <v>680</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>9.07</v>
+        <v>12.08</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Ida Wolff-Hansen</t>
+          <t>Ida Leir</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>1.05</v>
+        <v>5.08</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>357</v>
+        <v>636</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>19.03</v>
+        <v>9.07</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
     <row r="114" ht="13" customHeight="1">
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Henriette Collett-Østensen</t>
+          <t>Ida Wolff-Hansen</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>10.61</v>
+        <v>1.05</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>621</v>
+        <v>357</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>12.06</v>
+        <v>19.03</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Elise Wolff-Hansen</t>
+          <t>Henriette Collett-Østensen</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>2.27</v>
+        <v>10.61</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>474</v>
+        <v>621</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>19.03</v>
+        <v>12.06</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
     <row r="115" ht="13" customHeight="1">
       <c r="B115" s="14" t="inlineStr">
         <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C115" s="7" t="inlineStr">
+        <is>
+          <t>Elise Wolff-Hansen</t>
+        </is>
+      </c>
+      <c r="D115" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E115" s="15" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F115" s="7" t="n">
+        <v>474</v>
+      </c>
+      <c r="G115" s="7" t="inlineStr">
+        <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="H115" s="16" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="J115" s="5" t="n"/>
+      <c r="L115" s="14" t="inlineStr">
+        <is>
           <t>Diskos</t>
         </is>
       </c>
-      <c r="C115" s="7" t="inlineStr">
+      <c r="M115" s="7" t="inlineStr">
         <is>
           <t>Ida Yessica Nesse</t>
         </is>
       </c>
-      <c r="D115" s="7" t="n">
+      <c r="N115" s="7" t="n">
         <v>1992</v>
       </c>
-      <c r="E115" s="15" t="n">
+      <c r="O115" s="15" t="n">
         <v>31.44</v>
       </c>
-      <c r="F115" s="7" t="n">
+      <c r="P115" s="7" t="n">
         <v>604</v>
       </c>
-      <c r="G115" s="7" t="inlineStr">
+      <c r="Q115" s="7" t="inlineStr">
         <is>
           <t>Ås</t>
         </is>
       </c>
-      <c r="H115" s="16" t="n">
+      <c r="R115" s="16" t="n">
         <v>14.09</v>
       </c>
-      <c r="J115" s="5" t="n"/>
-      <c r="L115" s="14" t="n"/>
-      <c r="M115" s="7" t="n"/>
-      <c r="N115" s="7" t="n"/>
-      <c r="O115" s="7" t="n"/>
-      <c r="P115" s="7" t="n"/>
-      <c r="Q115" s="7" t="n"/>
-      <c r="R115" s="21" t="n"/>
       <c r="T115" s="5" t="n"/>
     </row>
     <row r="116" ht="13" customHeight="1">
@@ -51543,7 +51559,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>8443</v>
+        <v>8622</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -51552,7 +51568,7 @@
         </is>
       </c>
       <c r="M117" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O117" s="19" t="inlineStr">
         <is>
@@ -51560,7 +51576,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>8160</v>
+        <v>8443</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -51663,494 +51679,494 @@
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Mille Baastad Berg</t>
+          <t>Ingrid Sortland</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="E122" s="15" t="n">
-        <v>26.59</v>
+        <v>7.89</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>680</v>
+        <v>769</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>19.06</v>
+        <v>30.01</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Sortland</t>
+          <t>Mille Baastad Berg</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="O122" s="15" t="n">
-        <v>7.89</v>
+        <v>26.59</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>30.01</v>
+        <v>19.06</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Ida Leir</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>26.7</v>
+        <v>12.81</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>672</v>
+        <v>703</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>13.02</v>
+        <v>12.08</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Ida Leir</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>12.81</v>
+        <v>26.7</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>12.08</v>
+        <v>13.02</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Mille Baastad Berg</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>13.04</v>
+        <v>8.19</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>30.06</v>
+        <v>5.03</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Mille Baastad Berg</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>8.19</v>
+        <v>13.04</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>5.03</v>
+        <v>30.06</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Hannah Emilie Bergh</t>
+          <t>Lilli Margaret Gulbrandsen</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>27.09</v>
+        <v>13.15</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>19.06</v>
+        <v>29.05</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Lilli Margaret Gulbrandsen</t>
+          <t>Hannah Emilie Bergh</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>13.15</v>
+        <v>27.09</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>29.05</v>
+        <v>19.06</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Hannah Emilie Bergh</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>13.23</v>
+        <v>5.11</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>12.06</v>
+        <v>19.03</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Hannah Emilie Bergh</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>5.11</v>
+        <v>13.23</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>19.03</v>
+        <v>12.06</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Emmy Margrethe Rismark</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>9.82</v>
+        <v>27.48</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>13.02</v>
+        <v>27.05</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Emmy Margrethe Rismark</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>5.05</v>
+        <v>9.82</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>6.02</v>
+        <v>13.02</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Hannah Emilie Bergh</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E128" s="15" t="n">
-        <v>9.84</v>
+        <v>13.39</v>
       </c>
       <c r="F128" s="7" t="n">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>4.03</v>
+        <v>20.08</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M128" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Hannah Emilie Bergh</t>
         </is>
       </c>
       <c r="N128" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O128" s="15" t="n">
-        <v>27.48</v>
+        <v>9.84</v>
       </c>
       <c r="P128" s="7" t="n">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>27.05</v>
+        <v>4.03</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
     <row r="129" ht="13" customHeight="1">
       <c r="B129" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Clara Luise Löser</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E129" s="15" t="n">
-        <v>8.390000000000001</v>
+        <v>4.79</v>
       </c>
       <c r="F129" s="7" t="n">
-        <v>622</v>
+        <v>573</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>5.06</v>
+        <v>28.05</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Clara Luise Löser</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O129" s="15" t="n">
-        <v>13.39</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>20.08</v>
+        <v>5.06</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
     <row r="130" ht="13" customHeight="1">
       <c r="B130" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Eline Folvik</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>4.91</v>
+        <v>8.59</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>10.06</v>
+        <v>19.03</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
@@ -52160,199 +52176,199 @@
       </c>
       <c r="M130" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Eline Folvik</t>
         </is>
       </c>
       <c r="N130" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O130" s="15" t="n">
-        <v>4.79</v>
+        <v>4.91</v>
       </c>
       <c r="P130" s="7" t="n">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="Q130" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R130" s="16" t="n">
-        <v>28.05</v>
+        <v>10.06</v>
       </c>
       <c r="T130" s="5" t="n"/>
     </row>
     <row r="131" ht="13" customHeight="1">
       <c r="B131" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>32.7</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Sharjah/UAE</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>16.03</v>
+        <v>28.05</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M131" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="N131" s="7" t="n">
-        <v>2007</v>
+        <v>1992</v>
       </c>
       <c r="O131" s="15" t="n">
-        <v>8.59</v>
+        <v>32.7</v>
       </c>
       <c r="P131" s="7" t="n">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="Q131" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Sharjah/UAE</t>
         </is>
       </c>
       <c r="R131" s="16" t="n">
-        <v>19.03</v>
+        <v>16.03</v>
       </c>
       <c r="T131" s="5" t="n"/>
     </row>
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Henriette Collett-Østensen</t>
+          <t>Elise Wolff-Hansen</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>4.86</v>
+        <v>9.76</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>588</v>
+        <v>533</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>12.08</v>
+        <v>15.05</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M132" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Henriette Collett-Østensen</t>
         </is>
       </c>
       <c r="N132" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O132" s="15" t="n">
-        <v>8.720000000000001</v>
+        <v>4.86</v>
       </c>
       <c r="P132" s="7" t="n">
-        <v>538</v>
+        <v>588</v>
       </c>
       <c r="Q132" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R132" s="16" t="n">
-        <v>28.05</v>
+        <v>12.08</v>
       </c>
       <c r="T132" s="5" t="n"/>
     </row>
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Hanna Fiva Øiestad</t>
+          <t>Elise Wolff-Hansen</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>1.45</v>
+        <v>4.6</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>13.02</v>
+        <v>19.03</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M133" s="7" t="inlineStr">
         <is>
-          <t>Elise Wolff-Hansen</t>
+          <t>Hanna Fiva Øiestad</t>
         </is>
       </c>
       <c r="N133" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O133" s="15" t="n">
-        <v>9.76</v>
+        <v>1.45</v>
       </c>
       <c r="P133" s="7" t="n">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>15.05</v>
+        <v>13.02</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -52389,7 +52405,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7513</v>
+        <v>7401</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -52406,7 +52422,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7500</v>
+        <v>7513</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -52429,7 +52445,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>15956</v>
+        <v>16023</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -52438,7 +52454,7 @@
         </is>
       </c>
       <c r="M137" s="20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O137" s="19" t="inlineStr">
         <is>
@@ -52446,7 +52462,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>15660</v>
+        <v>15956</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -52461,7 +52477,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -52470,7 +52486,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -54165,30 +54181,30 @@
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Anouk de Haas</t>
+          <t>Wilma Christine Thorrud</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>6.03</v>
+        <v>10.09</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -54225,30 +54241,30 @@
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Lindland Turner</t>
+          <t>Anouk de Haas</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>29.19</v>
+        <v>4.5</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>5.08</v>
+        <v>6.03</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -54283,30 +54299,30 @@
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Ida Kristine Sola Steen</t>
+          <t>Charlotte Lindland Turner</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O180" s="15" t="n">
-        <v>1.15</v>
+        <v>29.19</v>
       </c>
       <c r="P180" s="7" t="n">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>22.03</v>
+        <v>5.08</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
@@ -54360,7 +54376,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>6490</v>
+        <v>6508</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -54400,7 +54416,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15016</v>
+        <v>15034</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -54424,7 +54440,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -54877,18 +54893,18 @@
         <v>2009</v>
       </c>
       <c r="E201" s="15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="F201" s="7" t="n">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>4.09</v>
+        <v>11.09</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
@@ -55308,17 +55324,17 @@
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Iyna Tunkara</t>
+          <t>Mathilde Sofie Klokseth</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>7.07</v>
+        <v>8.15</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>348</v>
+        <v>443</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
@@ -55326,7 +55342,7 @@
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>31.08</v>
+        <v>17.09</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
@@ -55421,7 +55437,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>8015</v>
+        <v>8024</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -55438,7 +55454,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8011</v>
+        <v>8106</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -55929,18 +55945,18 @@
         <v>2009</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>8.81</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>18.06</v>
+        <v>10.09</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -56154,11 +56170,11 @@
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Olivia Skovli Hermansen</t>
+          <t>Gabi-Mathilde Bertheussen</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O226" s="15" t="n">
         <v>1.35</v>
@@ -56168,11 +56184,11 @@
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>19.06</v>
+        <v>17.09</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -56212,25 +56228,25 @@
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Gabi Mathilde Bertheussen</t>
+          <t>Olivia Skovli Hermansen</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>31.08</v>
+        <v>19.06</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -56284,7 +56300,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6667</v>
+        <v>6723</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -56307,7 +56323,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>14884</v>
+        <v>14893</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -56324,7 +56340,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14678</v>
+        <v>14829</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -56348,7 +56364,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -57065,30 +57081,30 @@
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Emilia Totland Osa</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>9.76</v>
+        <v>1.44</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>15.05</v>
+        <v>11.09</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
@@ -57354,7 +57370,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>8095</v>
+        <v>8118</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -57543,30 +57559,30 @@
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Christine-Sofie Lerøen-Pedersen</t>
+          <t>Emilia Totland Osa</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O264" s="15" t="n">
-        <v>28.79</v>
+        <v>9.76</v>
       </c>
       <c r="P264" s="7" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>13.08</v>
+        <v>15.05</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
@@ -57601,32 +57617,30 @@
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>5000m kapp.</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Amanda Totland Osa</t>
+          <t>Christine-Sofie Lerøen-Pedersen</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O265" s="17" t="inlineStr">
-        <is>
-          <t>28,20,89</t>
-        </is>
+      <c r="O265" s="15" t="n">
+        <v>28.79</v>
       </c>
       <c r="P265" s="7" t="n">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>21.05</v>
+        <v>13.08</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
@@ -57661,30 +57675,32 @@
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>5000m kapp.</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Siri Gamst Glittenberg</t>
+          <t>Amanda Totland Osa</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O266" s="15" t="n">
-        <v>1.17</v>
+        <v>2006</v>
+      </c>
+      <c r="O266" s="17" t="inlineStr">
+        <is>
+          <t>28,20,89</t>
+        </is>
       </c>
       <c r="P266" s="7" t="n">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>29.03</v>
+        <v>21.05</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
@@ -57719,32 +57735,30 @@
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>3000m kapp.</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Amanda Totland Osa</t>
+          <t>Siri Gamst Glittenberg</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O267" s="17" t="inlineStr">
-        <is>
-          <t>16,23,20</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="O267" s="15" t="n">
+        <v>1.17</v>
       </c>
       <c r="P267" s="7" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>26.08</v>
+        <v>29.03</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -57779,30 +57793,32 @@
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m kapp.</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Amanda Totland Osa</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O268" s="15" t="n">
-        <v>29.62</v>
+        <v>2006</v>
+      </c>
+      <c r="O268" s="17" t="inlineStr">
+        <is>
+          <t>16,23,20</t>
+        </is>
       </c>
       <c r="P268" s="7" t="n">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>27.05</v>
+        <v>26.08</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
@@ -57837,7 +57853,7 @@
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
@@ -57849,18 +57865,18 @@
         <v>2009</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>9.02</v>
+        <v>29.62</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>6.06</v>
+        <v>27.05</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -57902,17 +57918,17 @@
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Henriette Mæhlum</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>9.09</v>
+        <v>9.02</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
@@ -57955,30 +57971,30 @@
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Henriette Mæhlum</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>2.24</v>
+        <v>9.09</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>29.03</v>
+        <v>21.05</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -58013,7 +58029,7 @@
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M272" s="7" t="inlineStr">
@@ -58025,18 +58041,18 @@
         <v>2009</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>1.32</v>
+        <v>2.24</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>14.05</v>
+        <v>29.03</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -58206,7 +58222,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>5733</v>
+        <v>5827</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58246,7 +58262,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>13828</v>
+        <v>13945</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -628,11 +628,11 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>25328</v>
+        <v>25358</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -735,25 +735,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(30/17)</t>
+          <t>(30/21)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>23222</v>
+        <v>23189</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -763,25 +763,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Ullensaker/Kisa IL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(30/21)</t>
+          <t>(30/16)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>23189</v>
+        <v>23136</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>22338</v>
+        <v>22489</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -964,11 +964,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(23/14)</t>
+          <t>(25/14)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>10720</v>
+        <v>12075</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -1547,19 +1547,19 @@
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>3,29,05</t>
+          <t>3,29,02</t>
         </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Lausanne/SUI</t>
+          <t>Zürich/SUI</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>26.08</v>
+        <v>8.09</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -2080,10 +2080,10 @@
         <v>2004</v>
       </c>
       <c r="O23" s="15" t="n">
-        <v>51.81</v>
+        <v>53.6</v>
       </c>
       <c r="P23" s="7" t="n">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="Q23" s="7" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="R23" s="16" t="n">
-        <v>25.08</v>
+        <v>10.09</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="P25" s="20" t="n">
-        <v>12922</v>
+        <v>12947</v>
       </c>
       <c r="T25" s="5" t="n"/>
     </row>
@@ -3108,30 +3108,30 @@
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M44" s="7" t="inlineStr">
         <is>
-          <t>Sondre Aasmo</t>
+          <t>Ove Lindekleiv</t>
         </is>
       </c>
       <c r="N44" s="7" t="n">
-        <v>2004</v>
+        <v>1976</v>
       </c>
       <c r="O44" s="15" t="n">
-        <v>1.7</v>
+        <v>11.56</v>
       </c>
       <c r="P44" s="7" t="n">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="Q44" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R44" s="16" t="n">
-        <v>22.01</v>
+        <v>11.09</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="P46" s="20" t="n">
-        <v>12406</v>
+        <v>12411</v>
       </c>
       <c r="T46" s="5" t="n"/>
     </row>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>25328</v>
+        <v>25358</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>
@@ -3249,7 +3249,7 @@
         </is>
       </c>
       <c r="M50" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T50" s="5" t="n"/>
     </row>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="P106" s="8" t="n">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="T107" s="5" t="n"/>
@@ -5697,25 +5697,25 @@
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Emil Nordal</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>7.57</v>
+        <v>6.87</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>635</v>
+        <v>924</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>29.01</v>
+        <v>20.02</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
@@ -5755,25 +5755,25 @@
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Martin Aarbogh Brustad</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>12.3</v>
+        <v>10.62</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>550</v>
+        <v>943</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>13.07</v>
+        <v>26.08</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -5813,25 +5813,25 @@
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Emil Nordal</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>23.17</v>
+        <v>21.49</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>731</v>
+        <v>922</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>6.03</v>
+        <v>3.07</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -5871,25 +5871,25 @@
       </c>
       <c r="M116" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kramer</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N116" s="7" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="O116" s="15" t="n">
-        <v>48.42</v>
+        <v>48.67</v>
       </c>
       <c r="P116" s="7" t="n">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="Q116" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R116" s="16" t="n">
-        <v>5.02</v>
+        <v>27.08</v>
       </c>
       <c r="T116" s="5" t="n"/>
     </row>
@@ -5931,27 +5931,27 @@
       </c>
       <c r="M117" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kramer</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N117" s="7" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="O117" s="17" t="inlineStr">
         <is>
-          <t>1,44,75</t>
+          <t>1,53,24</t>
         </is>
       </c>
       <c r="P117" s="7" t="n">
-        <v>1073</v>
+        <v>835</v>
       </c>
       <c r="Q117" s="7" t="inlineStr">
         <is>
-          <t>Turku/FIN</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R117" s="16" t="n">
-        <v>14.06</v>
+        <v>7.06</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -5993,27 +5993,27 @@
       </c>
       <c r="M118" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kramer</t>
+          <t>Roderick Duodu</t>
         </is>
       </c>
       <c r="N118" s="7" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="O118" s="17" t="inlineStr">
         <is>
-          <t>3,38,57</t>
+          <t>3,54,80</t>
         </is>
       </c>
       <c r="P118" s="7" t="n">
-        <v>1005</v>
+        <v>813</v>
       </c>
       <c r="Q118" s="7" t="inlineStr">
         <is>
-          <t>Sollentuna/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R118" s="16" t="n">
-        <v>12.06</v>
+        <v>23.07</v>
       </c>
       <c r="T118" s="5" t="n"/>
     </row>
@@ -6055,27 +6055,27 @@
       </c>
       <c r="M119" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Simen Seeberg-Rommetveit</t>
         </is>
       </c>
       <c r="N119" s="7" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="O119" s="17" t="inlineStr">
         <is>
-          <t>7,51,15</t>
+          <t>8,32,52</t>
         </is>
       </c>
       <c r="P119" s="7" t="n">
-        <v>999</v>
+        <v>802</v>
       </c>
       <c r="Q119" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R119" s="16" t="n">
-        <v>26.02</v>
+        <v>3.05</v>
       </c>
       <c r="T119" s="5" t="n"/>
     </row>
@@ -6117,27 +6117,27 @@
       </c>
       <c r="M120" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Endre Wigaard</t>
         </is>
       </c>
       <c r="N120" s="7" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="O120" s="17" t="inlineStr">
         <is>
-          <t>13,28,66</t>
+          <t>15,28,49</t>
         </is>
       </c>
       <c r="P120" s="7" t="n">
-        <v>1014</v>
+        <v>710</v>
       </c>
       <c r="Q120" s="7" t="inlineStr">
         <is>
-          <t>Heusden-Zolder/BEL</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R120" s="16" t="n">
-        <v>2.07</v>
+        <v>24.06</v>
       </c>
       <c r="T120" s="5" t="n"/>
     </row>
@@ -6172,32 +6172,32 @@
       <c r="J121" s="5" t="n"/>
       <c r="L121" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M121" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Ruud Skjeseth</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="N121" s="7" t="n">
-        <v>1996</v>
+        <v>2007</v>
       </c>
       <c r="O121" s="17" t="inlineStr">
         <is>
-          <t>28,17,01</t>
+          <t>1,02,09</t>
         </is>
       </c>
       <c r="P121" s="7" t="n">
-        <v>997</v>
+        <v>572</v>
       </c>
       <c r="Q121" s="7" t="inlineStr">
         <is>
-          <t>London/GBR</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R121" s="16" t="n">
-        <v>14.05</v>
+        <v>21.08</v>
       </c>
       <c r="T121" s="5" t="n"/>
     </row>
@@ -6232,32 +6232,30 @@
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O122" s="17" t="inlineStr">
-        <is>
-          <t>8,21,69</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O122" s="15" t="n">
+        <v>1.75</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>1026</v>
+        <v>607</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Turku/FIN</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>14.06</v>
+        <v>10.09</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
@@ -6292,30 +6290,30 @@
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Michael Reklev</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>1.89</v>
+        <v>6.09</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>730</v>
+        <v>627</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>13.08</v>
+        <v>20.08</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
@@ -6350,30 +6348,30 @@
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Michael Reklev</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>6.15</v>
+        <v>12.33</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>12.02</v>
+        <v>9.09</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
@@ -6408,30 +6406,30 @@
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Stein Tore Klungland</t>
+          <t>Benjamin Kwadjo Owusu</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>1958</v>
+        <v>2004</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>10.99</v>
+        <v>2.64</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Tampere/FIN</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>10.07</v>
+        <v>12.02</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
@@ -6466,30 +6464,30 @@
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Johan Tovari</t>
+          <t>Eirik Halfdansen-Aspen</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>2.53</v>
+        <v>44.33</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>390</v>
+        <v>762</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>12.02</v>
+        <v>30.06</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
@@ -6524,30 +6522,30 @@
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Terje Aastorp</t>
+          <t>Kasper Sagen</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>1956</v>
+        <v>1999</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>27.68</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>422</v>
+        <v>857</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Leiria/POR</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>7.08</v>
+        <v>13.03</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
@@ -6601,7 +6599,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>11526</v>
+        <v>11290</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -6732,32 +6730,30 @@
       <c r="J134" s="5" t="n"/>
       <c r="L134" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M134" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N134" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O134" s="17" t="inlineStr">
-        <is>
-          <t>7,51,15</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O134" s="15" t="n">
+        <v>10.65</v>
       </c>
       <c r="P134" s="7" t="n">
-        <v>999</v>
+        <v>935</v>
       </c>
       <c r="Q134" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R134" s="16" t="n">
-        <v>5.08</v>
+        <v>16.06</v>
       </c>
       <c r="T134" s="5" t="n"/>
     </row>
@@ -6792,32 +6788,30 @@
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M135" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sandvik</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N135" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O135" s="17" t="inlineStr">
-        <is>
-          <t>8,28,08</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O135" s="15" t="n">
+        <v>6.93</v>
       </c>
       <c r="P135" s="7" t="n">
-        <v>995</v>
+        <v>895</v>
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>8.06</v>
+        <v>20.02</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -6852,32 +6846,30 @@
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M136" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="N136" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O136" s="17" t="inlineStr">
-        <is>
-          <t>3,40,23</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O136" s="15" t="n">
+        <v>10.83</v>
       </c>
       <c r="P136" s="7" t="n">
-        <v>983</v>
+        <v>886</v>
       </c>
       <c r="Q136" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R136" s="16" t="n">
-        <v>2.06</v>
+        <v>12.08</v>
       </c>
       <c r="T136" s="5" t="n"/>
     </row>
@@ -6912,32 +6904,30 @@
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M137" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N137" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O137" s="17" t="inlineStr">
-        <is>
-          <t>28,35,79</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O137" s="15" t="n">
+        <v>21.95</v>
       </c>
       <c r="P137" s="7" t="n">
-        <v>971</v>
+        <v>866</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>13.04</v>
+        <v>27.08</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -6972,32 +6962,30 @@
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sandvik</t>
+          <t>Tor-Junor Kringstad Vedde</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O138" s="17" t="inlineStr">
-        <is>
-          <t>3,43,08</t>
-        </is>
+        <v>1997</v>
+      </c>
+      <c r="O138" s="15" t="n">
+        <v>48.7</v>
       </c>
       <c r="P138" s="7" t="n">
-        <v>946</v>
+        <v>852</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R138" s="16" t="n">
-        <v>2.06</v>
+        <v>28.05</v>
       </c>
       <c r="T138" s="5" t="n"/>
     </row>
@@ -7032,32 +7020,32 @@
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Awet Nftalem Kibrab</t>
+          <t>Simen Seeberg-Rommetveit</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="O139" s="17" t="inlineStr">
         <is>
-          <t>13,52,46</t>
+          <t>1,53,54</t>
         </is>
       </c>
       <c r="P139" s="7" t="n">
-        <v>941</v>
+        <v>827</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>13.07</v>
+        <v>26.06</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -7092,32 +7080,30 @@
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Awet Nftalem Kibrab</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O140" s="17" t="inlineStr">
-        <is>
-          <t>8,05,27</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="O140" s="15" t="n">
+        <v>49.29</v>
       </c>
       <c r="P140" s="7" t="n">
-        <v>929</v>
+        <v>821</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>8.06</v>
+        <v>27.08</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
@@ -7152,32 +7138,30 @@
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Andreas Fjeld Halvorsen</t>
+          <t>Jonathan Holen</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O141" s="17" t="inlineStr">
-        <is>
-          <t>3,44,49</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O141" s="15" t="n">
+        <v>11.1</v>
       </c>
       <c r="P141" s="7" t="n">
-        <v>928</v>
+        <v>816</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>25.06</v>
+        <v>18.06</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
@@ -7212,12 +7196,12 @@
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M142" s="7" t="inlineStr">
         <is>
-          <t>Andreas Fjeld Halvorsen</t>
+          <t>Halvard Grape Fladby</t>
         </is>
       </c>
       <c r="N142" s="7" t="n">
@@ -7225,19 +7209,19 @@
       </c>
       <c r="O142" s="17" t="inlineStr">
         <is>
-          <t>8,06,67</t>
+          <t>3,55,04</t>
         </is>
       </c>
       <c r="P142" s="7" t="n">
-        <v>922</v>
+        <v>810</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R142" s="16" t="n">
-        <v>5.08</v>
+        <v>27.08</v>
       </c>
       <c r="T142" s="5" t="n"/>
     </row>
@@ -7272,32 +7256,30 @@
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Senay Amlesom Fissehatsion</t>
+          <t>Thomas Graftås</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O143" s="17" t="inlineStr">
-        <is>
-          <t>14,03,28</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O143" s="15" t="n">
+        <v>11.14</v>
       </c>
       <c r="P143" s="7" t="n">
-        <v>911</v>
+        <v>806</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>30.06</v>
+        <v>19.06</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
@@ -7332,30 +7314,30 @@
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Even Ragnhildsløkken</t>
+          <t>Ruben Martinsen</t>
         </is>
       </c>
       <c r="N144" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="O144" s="15" t="n">
-        <v>1.65</v>
+        <v>61.26</v>
       </c>
       <c r="P144" s="7" t="n">
-        <v>511</v>
+        <v>776</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>7.08</v>
+        <v>28.08</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
@@ -7390,30 +7372,30 @@
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M145" s="7" t="inlineStr">
         <is>
-          <t>Even Jakob Ragnhildsløkken</t>
+          <t>Dag Wergeland</t>
         </is>
       </c>
       <c r="N145" s="7" t="n">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="O145" s="15" t="n">
-        <v>1.6</v>
+        <v>57.45</v>
       </c>
       <c r="P145" s="7" t="n">
-        <v>461</v>
+        <v>725</v>
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R145" s="16" t="n">
-        <v>10.09</v>
+        <v>3.09</v>
       </c>
       <c r="T145" s="5" t="n"/>
     </row>
@@ -7448,30 +7430,30 @@
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Even Ragnhildsløkken</t>
+          <t>Dag Storm</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>5.19</v>
+        <v>53.79</v>
       </c>
       <c r="P146" s="7" t="n">
-        <v>417</v>
+        <v>677</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>3.09</v>
+        <v>17.09</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
@@ -7511,25 +7493,25 @@
       </c>
       <c r="M147" s="7" t="inlineStr">
         <is>
-          <t>Vetle Haugjord Rølsåsen</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N147" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O147" s="15" t="n">
-        <v>5.1</v>
+        <v>6.06</v>
       </c>
       <c r="P147" s="7" t="n">
-        <v>396</v>
+        <v>620</v>
       </c>
       <c r="Q147" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R147" s="16" t="n">
-        <v>23.01</v>
+        <v>13.08</v>
       </c>
       <c r="T147" s="5" t="n"/>
     </row>
@@ -7564,30 +7546,30 @@
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Stein Tore Klungland</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>1958</v>
+        <v>2007</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>5.06</v>
+        <v>12.25</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>386</v>
+        <v>587</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>26.03</v>
+        <v>9.09</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -7641,7 +7623,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11696</v>
+        <v>11899</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7681,7 +7663,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>23222</v>
+        <v>23189</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -7705,7 +7687,7 @@
         </is>
       </c>
       <c r="M154" s="20" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -7747,7 +7729,7 @@
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="F158" s="8" t="n">
@@ -7777,7 +7759,7 @@
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Ullensaker/Kisa IL</t>
         </is>
       </c>
       <c r="J159" s="5" t="n"/>
@@ -7917,25 +7899,25 @@
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Emil Nordal</t>
         </is>
       </c>
       <c r="D165" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E165" s="15" t="n">
-        <v>6.87</v>
+        <v>7.57</v>
       </c>
       <c r="F165" s="7" t="n">
-        <v>924</v>
+        <v>635</v>
       </c>
       <c r="G165" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H165" s="16" t="n">
-        <v>20.02</v>
+        <v>29.01</v>
       </c>
       <c r="J165" s="5" t="n"/>
       <c r="L165" s="14" t="inlineStr">
@@ -7975,25 +7957,25 @@
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Martin Aarbogh Brustad</t>
         </is>
       </c>
       <c r="D166" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E166" s="15" t="n">
-        <v>10.62</v>
+        <v>12.3</v>
       </c>
       <c r="F166" s="7" t="n">
-        <v>943</v>
+        <v>550</v>
       </c>
       <c r="G166" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H166" s="16" t="n">
-        <v>26.08</v>
+        <v>13.07</v>
       </c>
       <c r="J166" s="5" t="n"/>
       <c r="L166" s="14" t="inlineStr">
@@ -8033,25 +8015,25 @@
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Emil Nordal</t>
         </is>
       </c>
       <c r="D167" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E167" s="15" t="n">
-        <v>21.49</v>
+        <v>23.17</v>
       </c>
       <c r="F167" s="7" t="n">
-        <v>922</v>
+        <v>731</v>
       </c>
       <c r="G167" s="7" t="inlineStr">
         <is>
-          <t>La Chaux-de-Fonds/SUI</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H167" s="16" t="n">
-        <v>3.07</v>
+        <v>6.03</v>
       </c>
       <c r="J167" s="5" t="n"/>
       <c r="L167" s="14" t="inlineStr">
@@ -8091,25 +8073,25 @@
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="D168" s="7" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E168" s="15" t="n">
-        <v>48.67</v>
+        <v>48.42</v>
       </c>
       <c r="F168" s="7" t="n">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="G168" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H168" s="16" t="n">
-        <v>27.08</v>
+        <v>5.02</v>
       </c>
       <c r="J168" s="5" t="n"/>
       <c r="L168" s="14" t="inlineStr">
@@ -8149,27 +8131,27 @@
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E169" s="17" t="inlineStr">
         <is>
-          <t>1,53,24</t>
+          <t>1,44,75</t>
         </is>
       </c>
       <c r="F169" s="7" t="n">
-        <v>835</v>
+        <v>1073</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Paris/FRA</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>7.06</v>
+        <v>18.06</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -8211,27 +8193,27 @@
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Roderick Duodu</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E170" s="17" t="inlineStr">
         <is>
-          <t>3,54,80</t>
+          <t>3,38,57</t>
         </is>
       </c>
       <c r="F170" s="7" t="n">
-        <v>813</v>
+        <v>1005</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sollentuna/SWE</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>23.07</v>
+        <v>12.06</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -8273,27 +8255,27 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Simen Seeberg-Rommetveit</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="E171" s="17" t="inlineStr">
         <is>
-          <t>8,32,52</t>
+          <t>7,51,15</t>
         </is>
       </c>
       <c r="F171" s="7" t="n">
-        <v>802</v>
+        <v>999</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>3.05</v>
+        <v>5.08</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -8335,27 +8317,27 @@
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Endre Wigaard</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="E172" s="17" t="inlineStr">
         <is>
-          <t>15,28,49</t>
+          <t>13,28,66</t>
         </is>
       </c>
       <c r="F172" s="7" t="n">
-        <v>710</v>
+        <v>1014</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Heusden-Zolder/BEL</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>24.06</v>
+        <v>2.07</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -8392,32 +8374,32 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Sigurd Ruud Skjeseth</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E173" s="17" t="inlineStr">
         <is>
-          <t>1,02,09</t>
+          <t>28,17,01</t>
         </is>
       </c>
       <c r="F173" s="7" t="n">
-        <v>572</v>
+        <v>997</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>London/GBR</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>21.08</v>
+        <v>14.05</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -8454,30 +8436,32 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E174" s="15" t="n">
-        <v>1.75</v>
+        <v>1996</v>
+      </c>
+      <c r="E174" s="17" t="inlineStr">
+        <is>
+          <t>8,21,69</t>
+        </is>
       </c>
       <c r="F174" s="7" t="n">
-        <v>607</v>
+        <v>1026</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Turku/FIN</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>10.09</v>
+        <v>14.06</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -8514,30 +8498,30 @@
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Michael Reklev</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>6.09</v>
+        <v>1.89</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>627</v>
+        <v>730</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>20.08</v>
+        <v>13.08</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -8547,17 +8531,17 @@
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Casper Lye Clausen</t>
+          <t>Philip Kauffmann</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>5.48</v>
+        <v>5.62</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
@@ -8565,37 +8549,37 @@
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>24.02</v>
+        <v>10.09</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Michael Reklev</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>12.33</v>
+        <v>6.15</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>596</v>
+        <v>640</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>9.09</v>
+        <v>12.02</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -8630,30 +8614,30 @@
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Kwadjo Owusu</t>
+          <t>Stein Tore Klungland</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2004</v>
+        <v>1958</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>2.64</v>
+        <v>10.99</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tampere/FIN</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>12.02</v>
+        <v>10.07</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
@@ -8688,30 +8672,30 @@
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Johan Tovari</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>44.33</v>
+        <v>2.53</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>762</v>
+        <v>390</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>30.06</v>
+        <v>12.02</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -8746,30 +8730,30 @@
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Kasper Sagen</t>
+          <t>Terje Aastorp</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>1999</v>
+        <v>1956</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>66.98999999999999</v>
+        <v>27.68</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>857</v>
+        <v>422</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Leiria/POR</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>13.03</v>
+        <v>7.08</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
@@ -8834,7 +8818,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11290</v>
+        <v>11526</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -8851,7 +8835,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11942</v>
+        <v>11975</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -8954,30 +8938,32 @@
     <row r="186" ht="13" customHeight="1">
       <c r="B186" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="D186" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E186" s="15" t="n">
-        <v>10.65</v>
+        <v>1992</v>
+      </c>
+      <c r="E186" s="17" t="inlineStr">
+        <is>
+          <t>7,51,15</t>
+        </is>
       </c>
       <c r="F186" s="7" t="n">
-        <v>935</v>
+        <v>999</v>
       </c>
       <c r="G186" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H186" s="16" t="n">
-        <v>16.06</v>
+        <v>26.02</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="14" t="inlineStr">
@@ -9014,30 +9000,32 @@
     <row r="187" ht="13" customHeight="1">
       <c r="B187" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="D187" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E187" s="15" t="n">
-        <v>6.93</v>
+        <v>1998</v>
+      </c>
+      <c r="E187" s="17" t="inlineStr">
+        <is>
+          <t>8,28,08</t>
+        </is>
       </c>
       <c r="F187" s="7" t="n">
-        <v>895</v>
+        <v>995</v>
       </c>
       <c r="G187" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H187" s="16" t="n">
-        <v>20.02</v>
+        <v>8.06</v>
       </c>
       <c r="J187" s="5" t="n"/>
       <c r="L187" s="14" t="inlineStr">
@@ -9072,30 +9060,32 @@
     <row r="188" ht="13" customHeight="1">
       <c r="B188" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="D188" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E188" s="15" t="n">
-        <v>10.83</v>
+        <v>1996</v>
+      </c>
+      <c r="E188" s="17" t="inlineStr">
+        <is>
+          <t>3,40,23</t>
+        </is>
       </c>
       <c r="F188" s="7" t="n">
-        <v>886</v>
+        <v>983</v>
       </c>
       <c r="G188" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H188" s="16" t="n">
-        <v>12.08</v>
+        <v>2.06</v>
       </c>
       <c r="J188" s="5" t="n"/>
       <c r="L188" s="14" t="inlineStr">
@@ -9132,30 +9122,32 @@
     <row r="189" ht="13" customHeight="1">
       <c r="B189" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="D189" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E189" s="15" t="n">
-        <v>21.95</v>
+        <v>1992</v>
+      </c>
+      <c r="E189" s="17" t="inlineStr">
+        <is>
+          <t>28,35,79</t>
+        </is>
       </c>
       <c r="F189" s="7" t="n">
-        <v>866</v>
+        <v>971</v>
       </c>
       <c r="G189" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H189" s="16" t="n">
-        <v>27.08</v>
+        <v>13.04</v>
       </c>
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
@@ -9190,30 +9182,32 @@
     <row r="190" ht="13" customHeight="1">
       <c r="B190" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Tor-Junor Kringstad Vedde</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="D190" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E190" s="15" t="n">
-        <v>48.7</v>
+        <v>1998</v>
+      </c>
+      <c r="E190" s="17" t="inlineStr">
+        <is>
+          <t>3,43,08</t>
+        </is>
       </c>
       <c r="F190" s="7" t="n">
-        <v>852</v>
+        <v>946</v>
       </c>
       <c r="G190" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H190" s="16" t="n">
-        <v>28.05</v>
+        <v>2.06</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="14" t="inlineStr">
@@ -9248,32 +9242,32 @@
     <row r="191" ht="13" customHeight="1">
       <c r="B191" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Simen Seeberg-Rommetveit</t>
+          <t>Awet Nftalem Kibrab</t>
         </is>
       </c>
       <c r="D191" s="7" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="E191" s="17" t="inlineStr">
         <is>
-          <t>1,53,54</t>
+          <t>13,52,46</t>
         </is>
       </c>
       <c r="F191" s="7" t="n">
-        <v>827</v>
+        <v>941</v>
       </c>
       <c r="G191" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H191" s="16" t="n">
-        <v>26.06</v>
+        <v>13.07</v>
       </c>
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
@@ -9310,30 +9304,32 @@
     <row r="192" ht="13" customHeight="1">
       <c r="B192" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Awet Nftalem Kibrab</t>
         </is>
       </c>
       <c r="D192" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E192" s="15" t="n">
-        <v>49.29</v>
+        <v>1995</v>
+      </c>
+      <c r="E192" s="17" t="inlineStr">
+        <is>
+          <t>8,05,27</t>
+        </is>
       </c>
       <c r="F192" s="7" t="n">
-        <v>821</v>
+        <v>929</v>
       </c>
       <c r="G192" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H192" s="16" t="n">
-        <v>27.08</v>
+        <v>8.06</v>
       </c>
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
@@ -9370,30 +9366,32 @@
     <row r="193" ht="13" customHeight="1">
       <c r="B193" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Holen</t>
+          <t>Andreas Fjeld Halvorsen</t>
         </is>
       </c>
       <c r="D193" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E193" s="15" t="n">
-        <v>11.1</v>
+        <v>2005</v>
+      </c>
+      <c r="E193" s="17" t="inlineStr">
+        <is>
+          <t>3,44,49</t>
+        </is>
       </c>
       <c r="F193" s="7" t="n">
-        <v>816</v>
+        <v>928</v>
       </c>
       <c r="G193" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H193" s="16" t="n">
-        <v>18.06</v>
+        <v>25.06</v>
       </c>
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
@@ -9428,12 +9426,12 @@
     <row r="194" ht="13" customHeight="1">
       <c r="B194" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>Halvard Grape Fladby</t>
+          <t>Andreas Fjeld Halvorsen</t>
         </is>
       </c>
       <c r="D194" s="7" t="n">
@@ -9441,39 +9439,39 @@
       </c>
       <c r="E194" s="17" t="inlineStr">
         <is>
-          <t>3,55,04</t>
+          <t>8,06,67</t>
         </is>
       </c>
       <c r="F194" s="7" t="n">
-        <v>810</v>
+        <v>922</v>
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>27.08</v>
+        <v>5.08</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M194" s="7" t="inlineStr">
         <is>
-          <t>Daniel Nikolai Pedersen</t>
+          <t>Erik Steinsland</t>
         </is>
       </c>
       <c r="N194" s="7" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="O194" s="15" t="n">
-        <v>22.93</v>
+        <v>7.23</v>
       </c>
       <c r="P194" s="7" t="n">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="Q194" s="7" t="inlineStr">
         <is>
@@ -9481,97 +9479,97 @@
         </is>
       </c>
       <c r="R194" s="16" t="n">
-        <v>31.07</v>
+        <v>10.09</v>
       </c>
       <c r="T194" s="5" t="n"/>
     </row>
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Thomas Graftås</t>
+          <t>Senay Amlesom Fissehatsion</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E195" s="15" t="n">
-        <v>11.14</v>
+        <v>1995</v>
+      </c>
+      <c r="E195" s="17" t="inlineStr">
+        <is>
+          <t>14,03,28</t>
+        </is>
       </c>
       <c r="F195" s="7" t="n">
-        <v>806</v>
+        <v>911</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>19.06</v>
+        <v>30.06</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Nikolai Gundersen</t>
+          <t>Daniel Nikolai Pedersen</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O195" s="17" t="inlineStr">
-        <is>
-          <t>4,06,01</t>
-        </is>
+        <v>1998</v>
+      </c>
+      <c r="O195" s="15" t="n">
+        <v>22.93</v>
       </c>
       <c r="P195" s="7" t="n">
-        <v>705</v>
+        <v>756</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>4.03</v>
+        <v>31.07</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Ruben Martinsen</t>
+          <t>Even Ragnhildsløkken</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="E196" s="15" t="n">
-        <v>61.26</v>
+        <v>1.65</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>776</v>
+        <v>511</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>28.08</v>
+        <v>7.08</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
@@ -9606,26 +9604,26 @@
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Dag Wergeland</t>
+          <t>Even Ragnhildsløkken</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>1989</v>
+        <v>2008</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>57.45</v>
+        <v>5.19</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
@@ -9639,17 +9637,17 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Philip Kauffmann</t>
+          <t>Casper Lye Clausen</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>5.23</v>
+        <v>5.48</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
@@ -9657,37 +9655,37 @@
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>15.01</v>
+        <v>24.02</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
     <row r="198" ht="13" customHeight="1">
       <c r="B198" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Dag Storm</t>
+          <t>Vetle Haugjord Rølsåsen</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>1989</v>
+        <v>2004</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>53.79</v>
+        <v>5.1</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>677</v>
+        <v>396</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>17.09</v>
+        <v>23.01</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -9727,25 +9725,25 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Stein Tore Klungland</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2007</v>
+        <v>1958</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>6.06</v>
+        <v>5.06</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>620</v>
+        <v>386</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>13.08</v>
+        <v>26.03</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -9785,25 +9783,25 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Even Ragnhildsløkken</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>12.25</v>
+        <v>10.38</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>587</v>
+        <v>375</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>9.09</v>
+        <v>4.09</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -9868,7 +9866,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>11899</v>
+        <v>11610</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -9885,7 +9883,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>10396</v>
+        <v>10514</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -9908,7 +9906,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>23189</v>
+        <v>23136</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -9925,7 +9923,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>22338</v>
+        <v>22489</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -9940,7 +9938,7 @@
         </is>
       </c>
       <c r="C206" s="20" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="19" t="inlineStr">
@@ -13746,30 +13744,30 @@
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Andreas Haara Bakketun</t>
+          <t>Sondre Faugstad Amundsen</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="O296" s="15" t="n">
-        <v>6.87</v>
+        <v>10.69</v>
       </c>
       <c r="P296" s="7" t="n">
         <v>924</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>5.03</v>
+        <v>16.06</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -13806,30 +13804,30 @@
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Sondre Faugstad Amundsen</t>
+          <t>Andreas Haara Bakketun</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="O297" s="15" t="n">
-        <v>10.69</v>
+        <v>6.87</v>
       </c>
       <c r="P297" s="7" t="n">
         <v>924</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>16.06</v>
+        <v>5.03</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
@@ -14464,18 +14462,18 @@
         <v>2011</v>
       </c>
       <c r="O321" s="15" t="n">
-        <v>9.17</v>
+        <v>9.1</v>
       </c>
       <c r="P321" s="7" t="n">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="Q321" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R321" s="16" t="n">
-        <v>7.08</v>
+        <v>17.09</v>
       </c>
       <c r="T321" s="5" t="n"/>
     </row>
@@ -14573,19 +14571,19 @@
       </c>
       <c r="M323" s="7" t="inlineStr">
         <is>
-          <t>Martin Tjelle</t>
+          <t>Didrik Røssum Jensen</t>
         </is>
       </c>
       <c r="N323" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O323" s="17" t="inlineStr">
         <is>
-          <t>2,09,54</t>
+          <t>1,57,87</t>
         </is>
       </c>
       <c r="P323" s="7" t="n">
-        <v>530</v>
+        <v>730</v>
       </c>
       <c r="Q323" s="7" t="inlineStr">
         <is>
@@ -14593,7 +14591,7 @@
         </is>
       </c>
       <c r="R323" s="16" t="n">
-        <v>16.05</v>
+        <v>17.09</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -14941,17 +14939,17 @@
       </c>
       <c r="M329" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Mengshoel Gausemel</t>
+          <t>Torbjørn Moldestad</t>
         </is>
       </c>
       <c r="N329" s="7" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="O329" s="15" t="n">
-        <v>3.98</v>
+        <v>5.37</v>
       </c>
       <c r="P329" s="7" t="n">
-        <v>114</v>
+        <v>460</v>
       </c>
       <c r="Q329" s="7" t="inlineStr">
         <is>
@@ -14959,7 +14957,7 @@
         </is>
       </c>
       <c r="R329" s="16" t="n">
-        <v>20.08</v>
+        <v>17.09</v>
       </c>
       <c r="T329" s="5" t="n"/>
     </row>
@@ -15052,13 +15050,33 @@
         <v>19.06</v>
       </c>
       <c r="J331" s="5" t="n"/>
-      <c r="L331" s="14" t="n"/>
-      <c r="M331" s="7" t="n"/>
-      <c r="N331" s="7" t="n"/>
-      <c r="O331" s="7" t="n"/>
-      <c r="P331" s="7" t="n"/>
-      <c r="Q331" s="7" t="n"/>
-      <c r="R331" s="21" t="n"/>
+      <c r="L331" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="M331" s="7" t="inlineStr">
+        <is>
+          <t>Torbjørn Moldestad</t>
+        </is>
+      </c>
+      <c r="N331" s="7" t="n">
+        <v>1997</v>
+      </c>
+      <c r="O331" s="15" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="P331" s="7" t="n">
+        <v>580</v>
+      </c>
+      <c r="Q331" s="7" t="inlineStr">
+        <is>
+          <t>Nittedal</t>
+        </is>
+      </c>
+      <c r="R331" s="16" t="n">
+        <v>17.09</v>
+      </c>
       <c r="T331" s="5" t="n"/>
     </row>
     <row r="332" ht="13" customHeight="1">
@@ -15255,7 +15273,7 @@
         </is>
       </c>
       <c r="M337" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O337" s="19" t="inlineStr">
         <is>
@@ -15263,7 +15281,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>4610</v>
+        <v>5752</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -15824,24 +15842,24 @@
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M349" s="7" t="inlineStr">
         <is>
-          <t>Anders Daviknes-Andreassen</t>
+          <t>Martin Tjelle</t>
         </is>
       </c>
       <c r="N349" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O349" s="17" t="inlineStr">
         <is>
-          <t>9,52,42</t>
+          <t>2,07,65</t>
         </is>
       </c>
       <c r="P349" s="7" t="n">
-        <v>512</v>
+        <v>557</v>
       </c>
       <c r="Q349" s="7" t="inlineStr">
         <is>
@@ -15849,7 +15867,7 @@
         </is>
       </c>
       <c r="R349" s="16" t="n">
-        <v>21.08</v>
+        <v>17.09</v>
       </c>
       <c r="T349" s="5" t="n"/>
     </row>
@@ -15889,19 +15907,19 @@
       </c>
       <c r="M350" s="7" t="inlineStr">
         <is>
-          <t>Ola Skaar</t>
+          <t>Anders Daviknes-Andreassen</t>
         </is>
       </c>
       <c r="N350" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O350" s="17" t="inlineStr">
         <is>
-          <t>10,10,40</t>
+          <t>9,52,42</t>
         </is>
       </c>
       <c r="P350" s="7" t="n">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="Q350" s="7" t="inlineStr">
         <is>
@@ -15909,7 +15927,7 @@
         </is>
       </c>
       <c r="R350" s="16" t="n">
-        <v>6.06</v>
+        <v>21.08</v>
       </c>
       <c r="T350" s="5" t="n"/>
     </row>
@@ -15944,24 +15962,24 @@
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M351" s="7" t="inlineStr">
         <is>
-          <t>Victor Åsrud Toussaint</t>
+          <t>Ola Skaar</t>
         </is>
       </c>
       <c r="N351" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O351" s="17" t="inlineStr">
         <is>
-          <t>2,15,09</t>
+          <t>10,10,40</t>
         </is>
       </c>
       <c r="P351" s="7" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q351" s="7" t="inlineStr">
         <is>
@@ -15969,7 +15987,7 @@
         </is>
       </c>
       <c r="R351" s="16" t="n">
-        <v>16.05</v>
+        <v>6.06</v>
       </c>
       <c r="T351" s="5" t="n"/>
     </row>
@@ -16009,17 +16027,17 @@
       </c>
       <c r="M352" s="7" t="inlineStr">
         <is>
-          <t>Martin Tjelle</t>
+          <t>Sigurd Mengshoel Gausemel</t>
         </is>
       </c>
       <c r="N352" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O352" s="15" t="n">
-        <v>3.91</v>
+        <v>3.98</v>
       </c>
       <c r="P352" s="7" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="Q352" s="7" t="inlineStr">
         <is>
@@ -16027,7 +16045,7 @@
         </is>
       </c>
       <c r="R352" s="16" t="n">
-        <v>7.05</v>
+        <v>20.08</v>
       </c>
       <c r="T352" s="5" t="n"/>
     </row>
@@ -16062,22 +16080,22 @@
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M353" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Mengshoel Gausemel</t>
+          <t>Martin Tjelle</t>
         </is>
       </c>
       <c r="N353" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O353" s="15" t="n">
-        <v>2.21</v>
+        <v>3.91</v>
       </c>
       <c r="P353" s="7" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q353" s="7" t="inlineStr">
         <is>
@@ -16085,7 +16103,7 @@
         </is>
       </c>
       <c r="R353" s="16" t="n">
-        <v>3.03</v>
+        <v>7.05</v>
       </c>
       <c r="T353" s="5" t="n"/>
     </row>
@@ -16120,22 +16138,22 @@
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M354" s="7" t="inlineStr">
         <is>
-          <t>Steinar Livgard</t>
+          <t>Sigurd Mengshoel Gausemel</t>
         </is>
       </c>
       <c r="N354" s="7" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="O354" s="15" t="n">
-        <v>1.27</v>
+        <v>2.21</v>
       </c>
       <c r="P354" s="7" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="Q354" s="7" t="inlineStr">
         <is>
@@ -16143,7 +16161,7 @@
         </is>
       </c>
       <c r="R354" s="16" t="n">
-        <v>21.08</v>
+        <v>3.03</v>
       </c>
       <c r="T354" s="5" t="n"/>
     </row>
@@ -16176,13 +16194,33 @@
         <v>19.01</v>
       </c>
       <c r="J355" s="5" t="n"/>
-      <c r="L355" s="14" t="n"/>
-      <c r="M355" s="7" t="n"/>
-      <c r="N355" s="7" t="n"/>
-      <c r="O355" s="7" t="n"/>
-      <c r="P355" s="7" t="n"/>
-      <c r="Q355" s="7" t="n"/>
-      <c r="R355" s="21" t="n"/>
+      <c r="L355" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M355" s="7" t="inlineStr">
+        <is>
+          <t>Steinar Livgard</t>
+        </is>
+      </c>
+      <c r="N355" s="7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O355" s="15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P355" s="7" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q355" s="7" t="inlineStr">
+        <is>
+          <t>Nittedal</t>
+        </is>
+      </c>
+      <c r="R355" s="16" t="n">
+        <v>21.08</v>
+      </c>
       <c r="T355" s="5" t="n"/>
     </row>
     <row r="356" ht="13" customHeight="1">
@@ -16265,7 +16303,7 @@
         </is>
       </c>
       <c r="M358" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O358" s="19" t="inlineStr">
         <is>
@@ -16273,7 +16311,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>6110</v>
+        <v>6323</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -16305,7 +16343,7 @@
         </is>
       </c>
       <c r="M360" s="20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O360" s="19" t="inlineStr">
         <is>
@@ -16313,7 +16351,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>10720</v>
+        <v>12075</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -16477,11 +16515,11 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/17)</t>
+          <t>(25/18)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>20104</v>
+        <v>20170</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -16509,7 +16547,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>18277</v>
+        <v>18288</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -16589,11 +16627,11 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(25/14)</t>
+          <t>(25/13)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>16251</v>
+        <v>16286</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -16673,11 +16711,11 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(23/13)</t>
+          <t>(24/14)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15536</v>
+        <v>15831</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -16696,25 +16734,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(23/8)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14750</v>
+        <v>15394</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(3/3d)</t>
+          <t>(2/3d)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -16724,25 +16762,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(23/8)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>14650</v>
+        <v>14750</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(2/3d)</t>
+          <t>(3/3d)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -17383,32 +17421,30 @@
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>110m hekk</t>
         </is>
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Aleksander Hauge Øyen</t>
+          <t>Julian René Bastesen</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O14" s="17" t="inlineStr">
-        <is>
-          <t>4,15,34</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O14" s="15" t="n">
+        <v>15.21</v>
       </c>
       <c r="P14" s="7" t="n">
-        <v>629</v>
+        <v>791</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Valencia/ESP</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>22.06</v>
+        <v>18.06</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -17443,30 +17479,30 @@
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
         <is>
-          <t>110m hekk</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Julian René Bastesen</t>
+          <t>Andreas Dixon</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="O15" s="15" t="n">
-        <v>15.21</v>
+        <v>53.65</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>791</v>
+        <v>829</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Valencia/ESP</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>18.06</v>
+        <v>24.06</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -17503,30 +17539,30 @@
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Andreas Dixon</t>
+          <t>Erlend Bolstad Raa</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="O16" s="15" t="n">
-        <v>53.65</v>
+        <v>2.1</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>829</v>
+        <v>903</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Lund/SWE</t>
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>24.06</v>
+        <v>13.07</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
@@ -17563,30 +17599,30 @@
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bolstad Raa</t>
+          <t>Pål Haugen Lillefosse</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="O17" s="15" t="n">
-        <v>2.1</v>
+        <v>5.86</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>903</v>
+        <v>1105</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Lund/SWE</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>13.07</v>
+        <v>25.06</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -17621,30 +17657,30 @@
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M18" s="7" t="inlineStr">
         <is>
-          <t>Pål Haugen Lillefosse</t>
+          <t>Carl Erik Landsvik</t>
         </is>
       </c>
       <c r="N18" s="7" t="n">
         <v>2001</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>5.86</v>
+        <v>6.89</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>1105</v>
+        <v>803</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>25.06</v>
+        <v>22.01</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -17679,30 +17715,30 @@
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Carl Erik Landsvik</t>
+          <t>Sondre Vie Ytrearne</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
         <v>2001</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>6.89</v>
+        <v>14.97</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>803</v>
+        <v>876</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>22.01</v>
+        <v>25.06</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
@@ -17737,30 +17773,30 @@
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
         <is>
-          <t>Sondre Vie Ytrearne</t>
+          <t>Teodor Heldal</t>
         </is>
       </c>
       <c r="N20" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>14.97</v>
+        <v>1.58</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>876</v>
+        <v>760</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>25.06</v>
+        <v>5.02</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -17775,30 +17811,30 @@
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M21" s="7" t="inlineStr">
         <is>
-          <t>Teodor Heldal</t>
+          <t>Niklas Liland</t>
         </is>
       </c>
       <c r="N21" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>1.58</v>
+        <v>45.72</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>760</v>
+        <v>695</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>5.02</v>
+        <v>19.09</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -17852,7 +17888,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>10431</v>
+        <v>10497</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -18168,11 +18204,11 @@
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Vetle Raa Ellingsen</t>
+          <t>Teodor Heldal</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="O31" s="15" t="n">
         <v>2</v>
@@ -18182,11 +18218,11 @@
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>6.02</v>
+        <v>17.07</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -18228,11 +18264,11 @@
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Teodor Heldal</t>
+          <t>Vetle Raa Ellingsen</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="O32" s="15" t="n">
         <v>2</v>
@@ -18242,11 +18278,11 @@
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>17.07</v>
+        <v>6.02</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -18283,19 +18319,19 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Oscar Stuhr</t>
+          <t>Tobias Heldal</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>14.19</v>
+        <v>1.97</v>
       </c>
       <c r="P33" s="7" t="n">
         <v>796</v>
@@ -18306,7 +18342,7 @@
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>27.08</v>
+        <v>28.08</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -18343,19 +18379,19 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Tobias Heldal</t>
+          <t>Oscar Stuhr</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>1.97</v>
+        <v>14.19</v>
       </c>
       <c r="P34" s="7" t="n">
         <v>796</v>
@@ -18366,7 +18402,7 @@
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>28.08</v>
+        <v>27.08</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -18692,7 +18728,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>20104</v>
+        <v>20170</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -18716,7 +18752,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -19529,18 +19565,18 @@
         <v>1999</v>
       </c>
       <c r="E66" s="15" t="n">
-        <v>5.82</v>
+        <v>5.86</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>1094</v>
+        <v>1105</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Fayetteville/AR/USA</t>
+          <t>Zürich/SUI</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>12.02</v>
+        <v>8.09</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -19721,7 +19757,7 @@
         </is>
       </c>
       <c r="F70" s="20" t="n">
-        <v>10748</v>
+        <v>10759</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="19" t="inlineStr">
@@ -20561,7 +20597,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>18277</v>
+        <v>18288</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -22183,30 +22219,30 @@
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Sverre S. Tellmann</t>
+          <t>Theodor Aase</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O129" s="15" t="n">
-        <v>11.77</v>
+        <v>7.41</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Frakkagjerd</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>31.08</v>
+        <v>10.09</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -22494,7 +22530,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7313</v>
+        <v>7348</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -22534,7 +22570,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>16251</v>
+        <v>16286</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -22558,7 +22594,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -24554,7 +24590,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Troms</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -24581,7 +24617,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -24738,25 +24774,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Simon Kaarbø</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.14</v>
+        <v>8.06</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>802</v>
+        <v>477</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>5.03</v>
+        <v>24.05</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -24796,17 +24832,17 @@
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>10.94</v>
+        <v>11.87</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>857</v>
+        <v>638</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
@@ -24854,25 +24890,25 @@
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>22.45</v>
+        <v>22.74</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>809</v>
+        <v>777</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>28.08</v>
+        <v>11.09</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -24912,25 +24948,25 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>52.91</v>
+        <v>48.92</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>648</v>
+        <v>841</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>21.05</v>
+        <v>27.08</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -24967,32 +25003,32 @@
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>4,42,31</t>
+          <t>1,55,51</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>449</v>
+        <v>782</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>22.05</v>
+        <v>14.08</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -25029,30 +25065,32 @@
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Stian Markussen Eilertsen</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O202" s="15" t="n">
-        <v>1.83</v>
+        <v>1986</v>
+      </c>
+      <c r="O202" s="17" t="inlineStr">
+        <is>
+          <t>9,00,52</t>
+        </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>13.08</v>
+        <v>18.05</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -25089,30 +25127,32 @@
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Stian Markussen Eilertsen</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O203" s="15" t="n">
-        <v>4.3</v>
+        <v>1986</v>
+      </c>
+      <c r="O203" s="17" t="inlineStr">
+        <is>
+          <t>15,44,16</t>
+        </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>777</v>
+        <v>677</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>23.01</v>
+        <v>24.05</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
@@ -25149,30 +25189,32 @@
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Erik Fossen Nilsen</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O204" s="15" t="n">
-        <v>6.47</v>
+        <v>1987</v>
+      </c>
+      <c r="O204" s="17" t="inlineStr">
+        <is>
+          <t>33,36,42</t>
+        </is>
       </c>
       <c r="P204" s="7" t="n">
-        <v>712</v>
+        <v>648</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>21.05</v>
+        <v>26.06</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -25209,30 +25251,32 @@
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Kristian Sheath</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O205" s="15" t="n">
-        <v>10.65</v>
+        <v>2005</v>
+      </c>
+      <c r="O205" s="17" t="inlineStr">
+        <is>
+          <t>1,02,75</t>
+        </is>
       </c>
       <c r="P205" s="7" t="n">
-        <v>407</v>
+        <v>557</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>4.03</v>
+        <v>3.09</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
@@ -25267,30 +25311,30 @@
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Mathias Johansen</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>22.03</v>
+        <v>10.09</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -25325,30 +25369,30 @@
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>3.03</v>
+        <v>5.93</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>688</v>
+        <v>590</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>22.03</v>
+        <v>11.09</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
@@ -25381,13 +25425,33 @@
         <v>3.07</v>
       </c>
       <c r="J208" s="5" t="n"/>
-      <c r="L208" s="14" t="n"/>
-      <c r="M208" s="7" t="n"/>
-      <c r="N208" s="7" t="n"/>
-      <c r="O208" s="7" t="n"/>
-      <c r="P208" s="7" t="n"/>
-      <c r="Q208" s="7" t="n"/>
-      <c r="R208" s="21" t="n"/>
+      <c r="L208" s="14" t="inlineStr">
+        <is>
+          <t>Tresteg</t>
+        </is>
+      </c>
+      <c r="M208" s="7" t="inlineStr">
+        <is>
+          <t>Tobias Johansen</t>
+        </is>
+      </c>
+      <c r="N208" s="7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="O208" s="15" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="P208" s="7" t="n">
+        <v>613</v>
+      </c>
+      <c r="Q208" s="7" t="inlineStr">
+        <is>
+          <t>Harstad</t>
+        </is>
+      </c>
+      <c r="R208" s="16" t="n">
+        <v>10.09</v>
+      </c>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
@@ -25419,13 +25483,33 @@
         <v>7.08</v>
       </c>
       <c r="J209" s="5" t="n"/>
-      <c r="L209" s="14" t="n"/>
-      <c r="M209" s="7" t="n"/>
-      <c r="N209" s="7" t="n"/>
-      <c r="O209" s="7" t="n"/>
-      <c r="P209" s="7" t="n"/>
-      <c r="Q209" s="7" t="n"/>
-      <c r="R209" s="21" t="n"/>
+      <c r="L209" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="M209" s="7" t="inlineStr">
+        <is>
+          <t>Oskar Stattin</t>
+        </is>
+      </c>
+      <c r="N209" s="7" t="n">
+        <v>2006</v>
+      </c>
+      <c r="O209" s="15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="P209" s="7" t="n">
+        <v>515</v>
+      </c>
+      <c r="Q209" s="7" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="R209" s="16" t="n">
+        <v>12.02</v>
+      </c>
       <c r="T209" s="5" t="n"/>
     </row>
     <row r="210" ht="13" customHeight="1">
@@ -25470,7 +25554,7 @@
         </is>
       </c>
       <c r="M211" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O211" s="19" t="inlineStr">
         <is>
@@ -25478,7 +25562,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7267</v>
+        <v>8230</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25616,25 +25700,25 @@
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O216" s="15" t="n">
-        <v>23.01</v>
+        <v>23.6</v>
       </c>
       <c r="P216" s="7" t="n">
-        <v>747</v>
+        <v>687</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>13.02</v>
+        <v>6.03</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
@@ -25669,30 +25753,32 @@
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Erik Fossen Nilsen</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O217" s="15" t="n">
-        <v>7.33</v>
+        <v>1987</v>
+      </c>
+      <c r="O217" s="17" t="inlineStr">
+        <is>
+          <t>15,48,92</t>
+        </is>
       </c>
       <c r="P217" s="7" t="n">
-        <v>725</v>
+        <v>668</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>12.02</v>
+        <v>30.06</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
@@ -25729,30 +25815,32 @@
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Per-Christian Myrnes Pedersen</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O218" s="15" t="n">
-        <v>23.37</v>
+        <v>1986</v>
+      </c>
+      <c r="O218" s="17" t="inlineStr">
+        <is>
+          <t>15,52,67</t>
+        </is>
       </c>
       <c r="P218" s="7" t="n">
-        <v>710</v>
+        <v>660</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>14.08</v>
+        <v>13.07</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
@@ -25787,30 +25875,32 @@
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Per-Christian Myrnes Pedersen</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O219" s="15" t="n">
-        <v>11.64</v>
+        <v>1986</v>
+      </c>
+      <c r="O219" s="17" t="inlineStr">
+        <is>
+          <t>9,08,98</t>
+        </is>
       </c>
       <c r="P219" s="7" t="n">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>12.08</v>
+        <v>11.09</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -25847,30 +25937,30 @@
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Siver Olavsbråten Ebbestad</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>3.54</v>
+        <v>53.36</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>18.06</v>
+        <v>10.09</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -25907,30 +25997,32 @@
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Erik Fossen Nilsen</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O221" s="15" t="n">
-        <v>11.96</v>
+        <v>1987</v>
+      </c>
+      <c r="O221" s="17" t="inlineStr">
+        <is>
+          <t>9,17,89</t>
+        </is>
       </c>
       <c r="P221" s="7" t="n">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>16.05</v>
+        <v>11.06</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
@@ -25965,30 +26057,30 @@
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>11.99</v>
+        <v>53.72</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>12.08</v>
+        <v>7.06</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -26025,30 +26117,30 @@
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>7.65</v>
+        <v>24.42</v>
       </c>
       <c r="P223" s="7" t="n">
         <v>607</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>13.03</v>
+        <v>11.09</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
@@ -26083,60 +26175,60 @@
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>54.01</v>
+        <v>5.87</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>11.09</v>
+        <v>24.05</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Nyx Simion</t>
+          <t>Andreas Wiesener Haga</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>3.73</v>
+        <v>1.45</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Oslo/NIH</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>29.05</v>
+        <v>17.09</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
@@ -26146,63 +26238,83 @@
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Kristian Sheath</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>5.7</v>
+        <v>5.64</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>16.05</v>
+        <v>11.09</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
-      <c r="B226" s="14" t="n"/>
-      <c r="C226" s="7" t="n"/>
-      <c r="D226" s="7" t="n"/>
-      <c r="E226" s="7" t="n"/>
-      <c r="F226" s="7" t="n"/>
-      <c r="G226" s="7" t="n"/>
-      <c r="H226" s="21" t="n"/>
+      <c r="B226" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="C226" s="7" t="inlineStr">
+        <is>
+          <t>Nyx Simion</t>
+        </is>
+      </c>
+      <c r="D226" s="7" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E226" s="15" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="F226" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="G226" s="7" t="inlineStr">
+        <is>
+          <t>Oslo/Bi</t>
+        </is>
+      </c>
+      <c r="H226" s="16" t="n">
+        <v>29.05</v>
+      </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>1.65</v>
+        <v>11.56</v>
       </c>
       <c r="P226" s="7" t="n">
         <v>511</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>7.05</v>
+        <v>4.03</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -26217,30 +26329,30 @@
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Leif-Andreas Borgersen</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>500</v>
+        <v>408</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>22.05</v>
+        <v>4.06</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26269,7 +26381,7 @@
         </is>
       </c>
       <c r="C229" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E229" s="19" t="inlineStr">
         <is>
@@ -26277,7 +26389,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>6213</v>
+        <v>6508</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26294,7 +26406,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>7483</v>
+        <v>7164</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26309,7 +26421,7 @@
         </is>
       </c>
       <c r="C231" s="20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E231" s="19" t="inlineStr">
         <is>
@@ -26317,7 +26429,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15536</v>
+        <v>15831</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26326,7 +26438,7 @@
         </is>
       </c>
       <c r="M231" s="20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O231" s="19" t="inlineStr">
         <is>
@@ -26334,7 +26446,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14750</v>
+        <v>15394</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26349,7 +26461,7 @@
         </is>
       </c>
       <c r="C233" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -26358,7 +26470,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -26400,7 +26512,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -26430,7 +26542,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -26570,25 +26682,25 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Simon Kaarbø</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>8.06</v>
+        <v>7.14</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>477</v>
+        <v>802</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>24.05</v>
+        <v>5.03</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -26628,17 +26740,17 @@
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>11.87</v>
+        <v>10.94</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>638</v>
+        <v>857</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
@@ -26686,25 +26798,25 @@
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>23.05</v>
+        <v>22.45</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>743</v>
+        <v>809</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>19.06</v>
+        <v>28.08</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -26744,25 +26856,25 @@
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E247" s="15" t="n">
-        <v>48.92</v>
+        <v>52.91</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>841</v>
+        <v>648</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>27.08</v>
+        <v>21.05</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -26797,32 +26909,32 @@
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E248" s="17" t="inlineStr">
         <is>
-          <t>1,55,51</t>
+          <t>4,42,31</t>
         </is>
       </c>
       <c r="F248" s="7" t="n">
-        <v>782</v>
+        <v>449</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>14.08</v>
+        <v>22.05</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -26859,32 +26971,30 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E249" s="17" t="inlineStr">
-        <is>
-          <t>9,00,52</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E249" s="15" t="n">
+        <v>1.83</v>
       </c>
       <c r="F249" s="7" t="n">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>18.05</v>
+        <v>13.08</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -26921,32 +27031,30 @@
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E250" s="17" t="inlineStr">
-        <is>
-          <t>15,44,16</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E250" s="15" t="n">
+        <v>4.3</v>
       </c>
       <c r="F250" s="7" t="n">
-        <v>677</v>
+        <v>777</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>24.05</v>
+        <v>23.01</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -26983,32 +27091,30 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Erik Fossen Nilsen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E251" s="17" t="inlineStr">
-        <is>
-          <t>33,36,42</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E251" s="15" t="n">
+        <v>6.47</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>648</v>
+        <v>712</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>26.06</v>
+        <v>21.05</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -27043,32 +27149,30 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Kristian Sheath</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E252" s="17" t="inlineStr">
-        <is>
-          <t>1,02,75</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E252" s="15" t="n">
+        <v>10.65</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>557</v>
+        <v>407</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>3.09</v>
+        <v>4.03</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -27103,30 +27207,30 @@
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Måndalen</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>4.09</v>
+        <v>22.03</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
@@ -27161,30 +27265,30 @@
     <row r="254" ht="13" customHeight="1">
       <c r="B254" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>5.87</v>
+        <v>3.03</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>577</v>
+        <v>688</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H254" s="16" t="n">
-        <v>24.05</v>
+        <v>22.03</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
@@ -27217,33 +27321,13 @@
       <c r="T254" s="5" t="n"/>
     </row>
     <row r="255" ht="13" customHeight="1">
-      <c r="B255" s="14" t="inlineStr">
-        <is>
-          <t>Tresteg</t>
-        </is>
-      </c>
-      <c r="C255" s="7" t="inlineStr">
-        <is>
-          <t>Oskar Stattin</t>
-        </is>
-      </c>
-      <c r="D255" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E255" s="15" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="F255" s="7" t="n">
-        <v>511</v>
-      </c>
-      <c r="G255" s="7" t="inlineStr">
-        <is>
-          <t>Steinkjer</t>
-        </is>
-      </c>
-      <c r="H255" s="16" t="n">
-        <v>4.03</v>
-      </c>
+      <c r="B255" s="14" t="n"/>
+      <c r="C255" s="7" t="n"/>
+      <c r="D255" s="7" t="n"/>
+      <c r="E255" s="7" t="n"/>
+      <c r="F255" s="7" t="n"/>
+      <c r="G255" s="7" t="n"/>
+      <c r="H255" s="21" t="n"/>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
         <is>
@@ -27275,33 +27359,13 @@
       <c r="T255" s="5" t="n"/>
     </row>
     <row r="256" ht="13" customHeight="1">
-      <c r="B256" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="C256" s="7" t="inlineStr">
-        <is>
-          <t>Oskar Stattin</t>
-        </is>
-      </c>
-      <c r="D256" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E256" s="15" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="F256" s="7" t="n">
-        <v>515</v>
-      </c>
-      <c r="G256" s="7" t="inlineStr">
-        <is>
-          <t>Bærum</t>
-        </is>
-      </c>
-      <c r="H256" s="16" t="n">
-        <v>12.02</v>
-      </c>
+      <c r="B256" s="14" t="n"/>
+      <c r="C256" s="7" t="n"/>
+      <c r="D256" s="7" t="n"/>
+      <c r="E256" s="7" t="n"/>
+      <c r="F256" s="7" t="n"/>
+      <c r="G256" s="7" t="n"/>
+      <c r="H256" s="21" t="n"/>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="14" t="inlineStr">
         <is>
@@ -27357,7 +27421,7 @@
         </is>
       </c>
       <c r="C258" s="20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E258" s="19" t="inlineStr">
         <is>
@@ -27365,7 +27429,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>8071</v>
+        <v>7267</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -27490,25 +27554,25 @@
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E263" s="15" t="n">
-        <v>23.6</v>
+        <v>23.01</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>687</v>
+        <v>747</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>6.03</v>
+        <v>13.02</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
@@ -27545,32 +27609,30 @@
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Erik Fossen Nilsen</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E264" s="17" t="inlineStr">
-        <is>
-          <t>15,48,92</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E264" s="15" t="n">
+        <v>7.33</v>
       </c>
       <c r="F264" s="7" t="n">
-        <v>668</v>
+        <v>725</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>30.06</v>
+        <v>12.02</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
@@ -27605,32 +27667,30 @@
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Per-Christian Myrnes Pedersen</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E265" s="17" t="inlineStr">
-        <is>
-          <t>15,52,67</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E265" s="15" t="n">
+        <v>23.37</v>
       </c>
       <c r="F265" s="7" t="n">
-        <v>660</v>
+        <v>710</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>13.07</v>
+        <v>14.08</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
@@ -27665,32 +27725,30 @@
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Per-Christian Myrnes Pedersen</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E266" s="17" t="inlineStr">
-        <is>
-          <t>9,10,35</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E266" s="15" t="n">
+        <v>11.64</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>11.06</v>
+        <v>12.08</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
@@ -27727,32 +27785,30 @@
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Erik Fossen Nilsen</t>
+          <t>Siver Olavsbråten Ebbestad</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E267" s="17" t="inlineStr">
-        <is>
-          <t>9,17,89</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E267" s="15" t="n">
+        <v>3.54</v>
       </c>
       <c r="F267" s="7" t="n">
         <v>623</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>11.06</v>
+        <v>18.06</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
@@ -27787,30 +27843,30 @@
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E268" s="15" t="n">
-        <v>53.72</v>
+        <v>11.96</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>7.06</v>
+        <v>16.05</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
@@ -27847,32 +27903,30 @@
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E269" s="17" t="inlineStr">
-        <is>
-          <t>2,04,45</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E269" s="15" t="n">
+        <v>11.99</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>12.06</v>
+        <v>12.08</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
@@ -27882,11 +27936,11 @@
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Oddvin Årdalsbakke</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="O269" s="15" t="n">
         <v>2.51</v>
@@ -27896,41 +27950,41 @@
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>19.03</v>
+        <v>14.03</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E270" s="15" t="n">
-        <v>54.08</v>
+        <v>7.65</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>4.03</v>
+        <v>13.03</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
@@ -27940,11 +27994,11 @@
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Oddvin Årdalsbakke</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>1962</v>
+        <v>1968</v>
       </c>
       <c r="O270" s="15" t="n">
         <v>2.51</v>
@@ -27954,41 +28008,41 @@
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>14.03</v>
+        <v>19.03</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Leif-Andreas Borgersen</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>1.55</v>
+        <v>54.01</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>408</v>
+        <v>603</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>4.06</v>
+        <v>11.09</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
@@ -28025,30 +28079,30 @@
     <row r="272" ht="13" customHeight="1">
       <c r="B272" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Karl-Henrik Borgersen</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>10.22</v>
+        <v>5.7</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>356</v>
+        <v>537</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>30.08</v>
+        <v>16.05</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -28090,25 +28144,25 @@
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Viktor Stattin</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>353</v>
+        <v>511</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>4.06</v>
+        <v>7.05</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
@@ -28145,30 +28199,30 @@
     <row r="274" ht="13" customHeight="1">
       <c r="B274" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Karl-Henrik Borgersen</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>353</v>
+        <v>500</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>4.06</v>
+        <v>22.05</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
@@ -28235,7 +28289,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>6579</v>
+        <v>7483</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -28267,7 +28321,7 @@
         </is>
       </c>
       <c r="C278" s="20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E278" s="19" t="inlineStr">
         <is>
@@ -28275,7 +28329,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>14650</v>
+        <v>14750</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -28307,7 +28361,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -30440,7 +30494,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>21953</v>
+        <v>22063</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -30636,7 +30690,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>17373</v>
+        <v>17390</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -31461,11 +31515,11 @@
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>6.02</v>
+        <v>19.02</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -32777,11 +32831,11 @@
       </c>
       <c r="M43" s="7" t="inlineStr">
         <is>
-          <t>Eline Soma</t>
+          <t>Andrea Igeltjørn Lyngholm</t>
         </is>
       </c>
       <c r="N43" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O43" s="15" t="n">
         <v>1.55</v>
@@ -32795,7 +32849,7 @@
         </is>
       </c>
       <c r="R43" s="16" t="n">
-        <v>25.08</v>
+        <v>27.02</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -32835,11 +32889,11 @@
       </c>
       <c r="M44" s="7" t="inlineStr">
         <is>
-          <t>Andrea Igeltjørn Lyngholm</t>
+          <t>Eline Soma</t>
         </is>
       </c>
       <c r="N44" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O44" s="15" t="n">
         <v>1.55</v>
@@ -32853,7 +32907,7 @@
         </is>
       </c>
       <c r="R44" s="16" t="n">
-        <v>27.02</v>
+        <v>11.09</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -35413,17 +35467,17 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>7.99</v>
+        <v>7.97</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
@@ -35431,7 +35485,7 @@
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>15.01</v>
+        <v>10.09</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -36060,22 +36114,22 @@
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Lilly Sunde Johansen</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>1.7</v>
+        <v>4.94</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>332</v>
+        <v>605</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
@@ -36083,7 +36137,7 @@
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>26.02</v>
+        <v>15.01</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
@@ -36118,30 +36172,30 @@
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Anna Theodora Helgesen</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>4.94</v>
+        <v>10.44</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>15.01</v>
+        <v>18.06</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -36176,30 +36230,30 @@
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Anna Theodora Helgesen</t>
+          <t>Tonje Nedberg</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>10.44</v>
+        <v>2.6</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>604</v>
+        <v>689</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>18.06</v>
+        <v>6.02</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
@@ -36234,30 +36288,30 @@
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Pia Omdahl Tresselt</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>2.6</v>
+        <v>21.9</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>689</v>
+        <v>430</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>6.02</v>
+        <v>11.09</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -36322,7 +36376,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11450</v>
+        <v>11554</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -36979,17 +37033,17 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Tonje Nedberg</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E143" s="15" t="n">
-        <v>8.01</v>
+        <v>7.99</v>
       </c>
       <c r="F143" s="7" t="n">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
@@ -37352,7 +37406,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>10503</v>
+        <v>10509</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -37392,7 +37446,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>21953</v>
+        <v>22063</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -39449,11 +39503,11 @@
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>28.05</v>
+        <v>11.09</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -42208,10 +42262,10 @@
         <v>2009</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>13.78</v>
+        <v>13.71</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
@@ -42219,7 +42273,7 @@
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>16.05</v>
+        <v>17.09</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -42327,7 +42381,7 @@
       </c>
       <c r="O272" s="17" t="inlineStr">
         <is>
-          <t>1,00,03</t>
+          <t>1,00,04</t>
         </is>
       </c>
       <c r="P272" s="7" t="n">
@@ -42335,11 +42389,11 @@
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>28.05</v>
+        <v>9.09</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -42806,18 +42860,18 @@
         <v>2003</v>
       </c>
       <c r="O280" s="15" t="n">
-        <v>9.57</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="P280" s="7" t="n">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="Q280" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R280" s="16" t="n">
-        <v>7.09</v>
+        <v>10.09</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
@@ -43045,7 +43099,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>9708</v>
+        <v>9725</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -43909,11 +43963,11 @@
       </c>
       <c r="Q302" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R302" s="16" t="n">
-        <v>12.03</v>
+        <v>23.01</v>
       </c>
       <c r="T302" s="5" t="n"/>
     </row>
@@ -44123,7 +44177,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>17373</v>
+        <v>17390</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -46379,11 +46433,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/13)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>16162</v>
+        <v>16488</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -46467,7 +46521,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15169</v>
+        <v>15188</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -46579,7 +46633,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>14505</v>
+        <v>14511</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -46603,11 +46657,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>13945</v>
+        <v>14086</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -49130,27 +49184,27 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Marie Kristine Malmgren</t>
+          <t>Eva Pasini Friestad</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="O61" s="17" t="inlineStr">
         <is>
-          <t>4,53,08</t>
+          <t>4,39,53</t>
         </is>
       </c>
       <c r="P61" s="7" t="n">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>6.08</v>
+        <v>18.09</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -49618,7 +49672,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>8512</v>
+        <v>8592</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -49751,32 +49805,32 @@
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Eva Pasini Friestad</t>
+          <t>Trine Mjåland</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="O75" s="17" t="inlineStr">
         <is>
-          <t>2,17,84</t>
+          <t>4,39,75</t>
         </is>
       </c>
       <c r="P75" s="7" t="n">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>27.08</v>
+        <v>18.09</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -49813,22 +49867,24 @@
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M76" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Marie Kristine Malmberg</t>
         </is>
       </c>
       <c r="N76" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O76" s="15" t="n">
-        <v>5.22</v>
+        <v>0</v>
+      </c>
+      <c r="O76" s="17" t="inlineStr">
+        <is>
+          <t>4,40,68</t>
+        </is>
       </c>
       <c r="P76" s="7" t="n">
-        <v>666</v>
+        <v>721</v>
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
@@ -49836,7 +49892,7 @@
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>20.07</v>
+        <v>18.09</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
@@ -49873,7 +49929,7 @@
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M77" s="7" t="inlineStr">
@@ -49886,11 +49942,11 @@
       </c>
       <c r="O77" s="17" t="inlineStr">
         <is>
-          <t>10,35,26</t>
+          <t>2,17,84</t>
         </is>
       </c>
       <c r="P77" s="7" t="n">
-        <v>649</v>
+        <v>694</v>
       </c>
       <c r="Q77" s="7" t="inlineStr">
         <is>
@@ -49898,7 +49954,7 @@
         </is>
       </c>
       <c r="R77" s="16" t="n">
-        <v>28.08</v>
+        <v>27.08</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -49935,24 +49991,22 @@
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M78" s="7" t="inlineStr">
         <is>
-          <t>Linnea Holsen Meier</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="N78" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O78" s="17" t="inlineStr">
-        <is>
-          <t>2,21,80</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O78" s="15" t="n">
+        <v>5.22</v>
       </c>
       <c r="P78" s="7" t="n">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="Q78" s="7" t="inlineStr">
         <is>
@@ -49960,7 +50014,7 @@
         </is>
       </c>
       <c r="R78" s="16" t="n">
-        <v>7.05</v>
+        <v>20.07</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -49997,32 +50051,32 @@
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Marie Kristine Malmgren</t>
+          <t>Eva Pasini Friestad</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="O79" s="17" t="inlineStr">
         <is>
-          <t>2,22,24</t>
+          <t>10,35,26</t>
         </is>
       </c>
       <c r="P79" s="7" t="n">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>17.02</v>
+        <v>28.08</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
@@ -50057,30 +50111,32 @@
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Tina Helen Bergem</t>
+          <t>Marie Kristine Malmgren</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="O80" s="15" t="n">
-        <v>8.34</v>
+        <v>1995</v>
+      </c>
+      <c r="O80" s="17" t="inlineStr">
+        <is>
+          <t>4,53,08</t>
+        </is>
       </c>
       <c r="P80" s="7" t="n">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>29.01</v>
+        <v>6.08</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -50117,30 +50173,32 @@
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Linnea Holsen Meier</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O81" s="15" t="n">
-        <v>5.07</v>
+        <v>1998</v>
+      </c>
+      <c r="O81" s="17" t="inlineStr">
+        <is>
+          <t>2,21,80</t>
+        </is>
       </c>
       <c r="P81" s="7" t="n">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R81" s="16" t="n">
-        <v>15.05</v>
+        <v>7.05</v>
       </c>
       <c r="T81" s="5" t="n"/>
     </row>
@@ -50177,32 +50235,32 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Eva Pasini Friestad</t>
+          <t>Marie Kristine Malmgren</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="O82" s="17" t="inlineStr">
         <is>
-          <t>4,57,29</t>
+          <t>2,22,24</t>
         </is>
       </c>
       <c r="P82" s="7" t="n">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>18.08</v>
+        <v>17.02</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -50237,30 +50295,30 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Tina Helen Bergem</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2007</v>
+        <v>1994</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>5.01</v>
+        <v>8.34</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>13.03</v>
+        <v>29.01</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -50295,30 +50353,30 @@
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Angelina Min</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>10.56</v>
+        <v>5.07</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>13.02</v>
+        <v>15.05</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -50353,32 +50411,30 @@
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Linn Andrea Lindevik</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O85" s="17" t="inlineStr">
-        <is>
-          <t>4,59,98</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O85" s="15" t="n">
+        <v>5.01</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>18.08</v>
+        <v>13.03</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -50413,22 +50469,22 @@
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Angelina Min</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>8.43</v>
+        <v>10.56</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
@@ -50436,7 +50492,7 @@
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>12.02</v>
+        <v>13.02</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -50490,7 +50546,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>7650</v>
+        <v>7896</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -50530,7 +50586,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>16162</v>
+        <v>16488</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -50554,7 +50610,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -52364,11 +52420,11 @@
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>13.02</v>
+        <v>28.05</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -54033,30 +54089,32 @@
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Signe Kristine Kjerulf Grenersen</t>
+          <t>Astrid Elida Vaeng Bernhardsen</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E176" s="15" t="n">
-        <v>1.45</v>
+      <c r="E176" s="17" t="inlineStr">
+        <is>
+          <t>5,09,09</t>
+        </is>
       </c>
       <c r="F176" s="7" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>29.05</v>
+        <v>10.09</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -54091,30 +54149,30 @@
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Signe Kristine Kjerulf Grenersen</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>13.65</v>
+        <v>1.45</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>12.08</v>
+        <v>29.05</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
@@ -54151,24 +54209,22 @@
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Erle Sagerup-Nordkild</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E178" s="17" t="inlineStr">
-        <is>
-          <t>11,18,70</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E178" s="15" t="n">
+        <v>13.65</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
@@ -54176,7 +54232,7 @@
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>14.08</v>
+        <v>12.08</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -54216,27 +54272,27 @@
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Mia Gjermundsdotter Urset</t>
+          <t>Erle Sagerup-Nordkild</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E179" s="17" t="inlineStr">
         <is>
-          <t>11,19,41</t>
+          <t>11,18,70</t>
         </is>
       </c>
       <c r="F179" s="7" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>29.06</v>
+        <v>14.08</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
@@ -54359,7 +54415,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>6970</v>
+        <v>6989</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -54399,7 +54455,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15169</v>
+        <v>15188</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -56604,25 +56660,25 @@
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Emilia Totland Osa</t>
+          <t>Christine-Sofie Lerøen-Pedersen</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>8.92</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>21.05</v>
+        <v>21.09</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
@@ -56758,19 +56814,19 @@
       </c>
       <c r="E247" s="17" t="inlineStr">
         <is>
-          <t>1,01,42</t>
+          <t>1,01,21</t>
         </is>
       </c>
       <c r="F247" s="7" t="n">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Gainesville/FL/USA</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>11.05</v>
+        <v>17.09</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -57081,30 +57137,30 @@
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Emilia Totland Osa</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>1.44</v>
+        <v>10.08</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>11.09</v>
+        <v>21.09</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
@@ -57353,7 +57409,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>8306</v>
+        <v>8312</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -57370,7 +57426,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>8118</v>
+        <v>8136</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -57559,30 +57615,30 @@
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Emilia Totland Osa</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O264" s="15" t="n">
-        <v>9.76</v>
+        <v>1.44</v>
       </c>
       <c r="P264" s="7" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>15.05</v>
+        <v>11.09</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
@@ -57853,30 +57909,30 @@
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Emilia Totland Osa</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>29.62</v>
+        <v>8.92</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>27.05</v>
+        <v>21.05</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -57913,7 +57969,7 @@
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
@@ -57925,18 +57981,18 @@
         <v>2009</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>9.02</v>
+        <v>29.62</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>21.05</v>
+        <v>27.05</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -57976,17 +58032,17 @@
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Henriette Mæhlum</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>9.09</v>
+        <v>9.02</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
@@ -58029,30 +58085,30 @@
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Henriette Mæhlum</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>2.24</v>
+        <v>9.09</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>29.03</v>
+        <v>21.05</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -58087,30 +58143,30 @@
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Henriette Mæhlum</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O273" s="15" t="n">
-        <v>30.48</v>
+        <v>2.24</v>
       </c>
       <c r="P273" s="7" t="n">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>15.05</v>
+        <v>29.03</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -58145,30 +58201,30 @@
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Isabella Thue Refsdal</t>
+          <t>Henriette Mæhlum</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O274" s="15" t="n">
-        <v>9.380000000000001</v>
+        <v>30.48</v>
       </c>
       <c r="P274" s="7" t="n">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>22.06</v>
+        <v>15.05</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -58222,7 +58278,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>5827</v>
+        <v>5950</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58245,7 +58301,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>14505</v>
+        <v>14511</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -58262,7 +58318,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>13945</v>
+        <v>14086</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -58286,7 +58342,7 @@
         </is>
       </c>
       <c r="M280" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -679,25 +679,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IL Tyrving</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(30/18)</t>
+          <t>(30/20)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23295</v>
+        <v>23311</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -707,25 +707,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL Tyrving</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(29/17)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>23289</v>
+        <v>23295</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -735,25 +735,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(29/17)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>23136</v>
+        <v>23289</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -763,25 +763,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Ullensaker/Kisa IL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(30/21)</t>
+          <t>(30/16)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>23030</v>
+        <v>23136</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2022,18 +2022,18 @@
         <v>2002</v>
       </c>
       <c r="O22" s="15" t="n">
-        <v>53.94</v>
+        <v>53.92</v>
       </c>
       <c r="P22" s="7" t="n">
         <v>803</v>
       </c>
       <c r="Q22" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R22" s="16" t="n">
-        <v>30.06</v>
+        <v>10.09</v>
       </c>
       <c r="T22" s="5" t="n"/>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="M54" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="P54" s="8" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>IL Tyrving</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="T55" s="5" t="n"/>
@@ -3489,25 +3489,25 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Peter Svoren</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="O61" s="15" t="n">
-        <v>7.15</v>
+        <v>6.87</v>
       </c>
       <c r="P61" s="7" t="n">
-        <v>797</v>
+        <v>924</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>12.02</v>
+        <v>20.02</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -3547,25 +3547,25 @@
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Einar Johannes Rye</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>10.85</v>
+        <v>10.62</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>881</v>
+        <v>943</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>19.06</v>
+        <v>26.08</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -3605,25 +3605,25 @@
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Peter Svoren</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>22.16</v>
+        <v>21.49</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>842</v>
+        <v>922</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>13.02</v>
+        <v>3.07</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -3663,25 +3663,25 @@
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Kristian Drabløs</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>49.8</v>
+        <v>48.67</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>794</v>
+        <v>854</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>28.05</v>
+        <v>27.08</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -3723,27 +3723,27 @@
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Lewis Kjemhus</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="O65" s="17" t="inlineStr">
         <is>
-          <t>1,59,84</t>
+          <t>1,53,24</t>
         </is>
       </c>
       <c r="P65" s="7" t="n">
-        <v>690</v>
+        <v>835</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>27.08</v>
+        <v>7.06</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Brage Buseth Hammerstad</t>
+          <t>Roderick Duodu</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
@@ -3793,19 +3793,19 @@
       </c>
       <c r="O66" s="17" t="inlineStr">
         <is>
-          <t>4,10,47</t>
+          <t>3,54,80</t>
         </is>
       </c>
       <c r="P66" s="7" t="n">
-        <v>667</v>
+        <v>813</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>2.06</v>
+        <v>23.07</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -3847,27 +3847,27 @@
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Brage Buseth Hammerstad</t>
+          <t>Simen Seeberg-Rommetveit</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="O67" s="17" t="inlineStr">
         <is>
-          <t>8,55,05</t>
+          <t>8,32,52</t>
         </is>
       </c>
       <c r="P67" s="7" t="n">
-        <v>707</v>
+        <v>802</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>10.06</v>
+        <v>3.05</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -3907,27 +3907,27 @@
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Trond Steinar Gjønnes</t>
+          <t>Endre Wigaard</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="O68" s="17" t="inlineStr">
         <is>
-          <t>15,46,83</t>
+          <t>15,28,49</t>
         </is>
       </c>
       <c r="P68" s="7" t="n">
-        <v>672</v>
+        <v>710</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>30.06</v>
+        <v>24.06</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -3962,30 +3962,32 @@
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Clementsen</t>
+          <t>Endre Wigaard</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O69" s="15" t="n">
-        <v>55.32</v>
+        <v>1996</v>
+      </c>
+      <c r="O69" s="17" t="inlineStr">
+        <is>
+          <t>31,50,80</t>
+        </is>
       </c>
       <c r="P69" s="7" t="n">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Castelló/ESP</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>17.09</v>
+        <v>24.09</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
@@ -4020,30 +4022,32 @@
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Torgrim Frøystein</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O70" s="15" t="n">
-        <v>1.88</v>
+        <v>2007</v>
+      </c>
+      <c r="O70" s="17" t="inlineStr">
+        <is>
+          <t>1,02,09</t>
+        </is>
       </c>
       <c r="P70" s="7" t="n">
-        <v>722</v>
+        <v>572</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>4.06</v>
+        <v>21.08</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -4078,30 +4082,30 @@
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Johannes Strømhaug</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>5.02</v>
+        <v>1.75</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>912</v>
+        <v>607</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>New Haven/CT/USA</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>8.050000000000001</v>
+        <v>10.09</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
@@ -4141,25 +4145,25 @@
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Simen Gimnes</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>6.68</v>
+        <v>6.09</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>758</v>
+        <v>627</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>26.08</v>
+        <v>20.08</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
@@ -4199,25 +4203,25 @@
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Simen Gimnes</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O73" s="15" t="n">
-        <v>13.86</v>
+        <v>12.33</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>761</v>
+        <v>596</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>4.03</v>
+        <v>9.09</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
@@ -4252,30 +4256,30 @@
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Sondre Alexander Høyland</t>
+          <t>Eirik Halfdansen-Aspen</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>2.98</v>
+        <v>44.33</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>661</v>
+        <v>762</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>12.02</v>
+        <v>30.06</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
@@ -4315,25 +4319,25 @@
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Sondre Alexander Høyland</t>
+          <t>Kasper Sagen</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>72.09</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>932</v>
+        <v>857</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Leiria/POR</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>26.06</v>
+        <v>13.03</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -4387,7 +4391,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>11560</v>
+        <v>11571</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -4523,25 +4527,25 @@
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Patrick Monga Bifuko</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>10.94</v>
+        <v>10.65</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>857</v>
+        <v>935</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>24.06</v>
+        <v>16.06</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -4576,30 +4580,30 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Einar Johannes Rye</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>22.17</v>
+        <v>6.93</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>841</v>
+        <v>895</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>10.06</v>
+        <v>20.02</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -4636,30 +4640,30 @@
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Kristian Drabløs</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>22.25</v>
+        <v>10.83</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>832</v>
+        <v>886</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>13.02</v>
+        <v>12.08</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -4694,22 +4698,22 @@
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Christian Wright</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>11.05</v>
+        <v>21.95</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
@@ -4717,7 +4721,7 @@
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>26.08</v>
+        <v>27.08</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -4752,30 +4756,30 @@
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Clementsen</t>
+          <t>Tor-Junor Kringstad Vedde</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>22.4</v>
+        <v>48.7</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>814</v>
+        <v>852</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>13.02</v>
+        <v>28.05</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -4812,22 +4816,24 @@
       <c r="J87" s="5" t="n"/>
       <c r="L87" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M87" s="7" t="inlineStr">
         <is>
-          <t>Patrick Monga Bifuko</t>
+          <t>Simen Seeberg-Rommetveit</t>
         </is>
       </c>
       <c r="N87" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O87" s="15" t="n">
-        <v>22.4</v>
+        <v>2000</v>
+      </c>
+      <c r="O87" s="17" t="inlineStr">
+        <is>
+          <t>1,53,54</t>
+        </is>
       </c>
       <c r="P87" s="7" t="n">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="Q87" s="7" t="inlineStr">
         <is>
@@ -4835,7 +4841,7 @@
         </is>
       </c>
       <c r="R87" s="16" t="n">
-        <v>25.06</v>
+        <v>26.06</v>
       </c>
       <c r="T87" s="5" t="n"/>
     </row>
@@ -4870,30 +4876,30 @@
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M88" s="7" t="inlineStr">
         <is>
-          <t>Even Pettersen</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>22.46</v>
+        <v>49.29</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>25.06</v>
+        <v>27.08</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -4935,25 +4941,25 @@
       </c>
       <c r="M89" s="7" t="inlineStr">
         <is>
-          <t>Markus Le Fjeld</t>
+          <t>Jonathan Holen</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>11.14</v>
+        <v>11.1</v>
       </c>
       <c r="P89" s="7" t="n">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>26.08</v>
+        <v>18.06</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
@@ -4988,30 +4994,32 @@
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Kim Kamanzi</t>
+          <t>Halvard Grape Fladby</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O90" s="15" t="n">
-        <v>22.53</v>
+        <v>2005</v>
+      </c>
+      <c r="O90" s="17" t="inlineStr">
+        <is>
+          <t>3,55,04</t>
+        </is>
       </c>
       <c r="P90" s="7" t="n">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>10.06</v>
+        <v>27.08</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -5046,30 +5054,30 @@
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Clementsen</t>
+          <t>Thomas Graftås</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>49.85</v>
+        <v>11.14</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>12.06</v>
+        <v>19.06</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
@@ -5104,30 +5112,30 @@
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Sigmund Le Fjeld</t>
+          <t>Ruben Martinsen</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>13.86</v>
+        <v>61.26</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>11.06</v>
+        <v>28.08</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -5162,30 +5170,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Hertwig-Ødegaard</t>
+          <t>Dag Storm Wergeland</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>4.2</v>
+        <v>57.45</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>759</v>
+        <v>725</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>5.03</v>
+        <v>3.09</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -5225,25 +5233,25 @@
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Hertwig-Ødegaard</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>6.39</v>
+        <v>6.06</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>694</v>
+        <v>620</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>26.08</v>
+        <v>13.08</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -5278,30 +5286,30 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Markus Le Fjeld</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>6.32</v>
+        <v>12.25</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>678</v>
+        <v>587</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Västerås/SWE</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>31.07</v>
+        <v>9.09</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -5336,30 +5344,30 @@
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Sondre Alexander Høyland</t>
+          <t>Ariand Shegani</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>12.75</v>
+        <v>11.63</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>650</v>
+        <v>518</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>12.02</v>
+        <v>9.09</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -5413,7 +5421,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11735</v>
+        <v>11740</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5453,7 +5461,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23295</v>
+        <v>23311</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5477,7 +5485,7 @@
         </is>
       </c>
       <c r="M102" s="20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T102" s="5" t="n"/>
     </row>
@@ -5519,7 +5527,7 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="F106" s="8" t="n">
@@ -5533,7 +5541,7 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P106" s="8" t="n">
@@ -5549,7 +5557,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL Tyrving</t>
         </is>
       </c>
       <c r="J107" s="5" t="n"/>
@@ -5560,7 +5568,7 @@
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="T107" s="5" t="n"/>
@@ -5689,25 +5697,25 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Peter Svoren</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>6.75</v>
+        <v>7.15</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>984</v>
+        <v>797</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>5.02</v>
+        <v>12.02</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -5717,25 +5725,25 @@
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Emil Nordal</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>7.57</v>
+        <v>6.75</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>635</v>
+        <v>984</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>29.01</v>
+        <v>5.02</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
@@ -5747,17 +5755,17 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Einar Johannes Rye</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>10.51</v>
+        <v>10.85</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>974</v>
+        <v>881</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
@@ -5775,25 +5783,25 @@
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Martin Aarbogh Brustad</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>12.3</v>
+        <v>10.51</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>550</v>
+        <v>974</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>13.07</v>
+        <v>19.06</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -5805,25 +5813,25 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Peter Svoren</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>21.64</v>
+        <v>22.16</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>903</v>
+        <v>842</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>5.08</v>
+        <v>13.02</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -5833,25 +5841,25 @@
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Emil Nordal</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>23.17</v>
+        <v>21.64</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>731</v>
+        <v>903</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>6.03</v>
+        <v>5.08</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -5863,25 +5871,25 @@
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Muhammed Dodou Jatta</t>
+          <t>Kristian Drabløs</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E116" s="15" t="n">
-        <v>50.14</v>
+        <v>49.8</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="G116" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H116" s="16" t="n">
-        <v>12.02</v>
+        <v>28.05</v>
       </c>
       <c r="J116" s="5" t="n"/>
       <c r="L116" s="14" t="inlineStr">
@@ -5891,25 +5899,25 @@
       </c>
       <c r="M116" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kramer</t>
+          <t>Muhammed Dodou Jatta</t>
         </is>
       </c>
       <c r="N116" s="7" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="O116" s="15" t="n">
-        <v>48.42</v>
+        <v>50.14</v>
       </c>
       <c r="P116" s="7" t="n">
-        <v>868</v>
+        <v>777</v>
       </c>
       <c r="Q116" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R116" s="16" t="n">
-        <v>5.02</v>
+        <v>12.02</v>
       </c>
       <c r="T116" s="5" t="n"/>
     </row>
@@ -5921,27 +5929,27 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Seumas Duncan Mackay</t>
+          <t>Lewis Kjemhus</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E117" s="17" t="inlineStr">
         <is>
-          <t>1,49,74</t>
+          <t>1,59,84</t>
         </is>
       </c>
       <c r="F117" s="7" t="n">
-        <v>924</v>
+        <v>690</v>
       </c>
       <c r="G117" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>30.06</v>
+        <v>27.08</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="inlineStr">
@@ -5951,27 +5959,27 @@
       </c>
       <c r="M117" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kramer</t>
+          <t>Seumas Duncan Mackay</t>
         </is>
       </c>
       <c r="N117" s="7" t="n">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="O117" s="17" t="inlineStr">
         <is>
-          <t>1,44,75</t>
+          <t>1,49,74</t>
         </is>
       </c>
       <c r="P117" s="7" t="n">
-        <v>1073</v>
+        <v>924</v>
       </c>
       <c r="Q117" s="7" t="inlineStr">
         <is>
-          <t>Paris/FRA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R117" s="16" t="n">
-        <v>18.06</v>
+        <v>30.06</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -5983,27 +5991,27 @@
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Phillip Morken</t>
+          <t>Brage Buseth Hammerstad</t>
         </is>
       </c>
       <c r="D118" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E118" s="17" t="inlineStr">
         <is>
-          <t>4,04,77</t>
+          <t>4,10,47</t>
         </is>
       </c>
       <c r="F118" s="7" t="n">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="G118" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H118" s="16" t="n">
-        <v>4.03</v>
+        <v>2.06</v>
       </c>
       <c r="J118" s="5" t="n"/>
       <c r="L118" s="14" t="inlineStr">
@@ -6013,27 +6021,27 @@
       </c>
       <c r="M118" s="7" t="inlineStr">
         <is>
-          <t>Andreas Kramer</t>
+          <t>Phillip Morken</t>
         </is>
       </c>
       <c r="N118" s="7" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="O118" s="17" t="inlineStr">
         <is>
-          <t>3,38,57</t>
+          <t>4,04,77</t>
         </is>
       </c>
       <c r="P118" s="7" t="n">
-        <v>1005</v>
+        <v>716</v>
       </c>
       <c r="Q118" s="7" t="inlineStr">
         <is>
-          <t>Sollentuna/SWE</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R118" s="16" t="n">
-        <v>12.06</v>
+        <v>4.03</v>
       </c>
       <c r="T118" s="5" t="n"/>
     </row>
@@ -6045,27 +6053,27 @@
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>Leander Warncke-Wang</t>
+          <t>Brage Buseth Hammerstad</t>
         </is>
       </c>
       <c r="D119" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E119" s="17" t="inlineStr">
         <is>
-          <t>9,22,3</t>
+          <t>8,55,05</t>
         </is>
       </c>
       <c r="F119" s="7" t="n">
-        <v>608</v>
+        <v>707</v>
       </c>
       <c r="G119" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H119" s="16" t="n">
-        <v>4.08</v>
+        <v>10.06</v>
       </c>
       <c r="J119" s="5" t="n"/>
       <c r="L119" s="14" t="inlineStr">
@@ -6075,478 +6083,474 @@
       </c>
       <c r="M119" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Leander Warncke-Wang</t>
         </is>
       </c>
       <c r="N119" s="7" t="n">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="O119" s="17" t="inlineStr">
         <is>
-          <t>7,51,15</t>
+          <t>9,22,3</t>
         </is>
       </c>
       <c r="P119" s="7" t="n">
-        <v>999</v>
+        <v>608</v>
       </c>
       <c r="Q119" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R119" s="16" t="n">
-        <v>5.08</v>
+        <v>4.08</v>
       </c>
       <c r="T119" s="5" t="n"/>
     </row>
     <row r="120" ht="13" customHeight="1">
       <c r="B120" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>Thomas Krohn-Hansen</t>
+          <t>Trond Steinar Gjønnes</t>
         </is>
       </c>
       <c r="D120" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E120" s="15" t="n">
-        <v>1.45</v>
+        <v>1994</v>
+      </c>
+      <c r="E120" s="17" t="inlineStr">
+        <is>
+          <t>15,46,83</t>
+        </is>
       </c>
       <c r="F120" s="7" t="n">
-        <v>295</v>
+        <v>672</v>
       </c>
       <c r="G120" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H120" s="16" t="n">
-        <v>13.02</v>
+        <v>30.06</v>
       </c>
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M120" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Thomas Krohn-Hansen</t>
         </is>
       </c>
       <c r="N120" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O120" s="17" t="inlineStr">
-        <is>
-          <t>13,28,66</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O120" s="15" t="n">
+        <v>1.45</v>
       </c>
       <c r="P120" s="7" t="n">
-        <v>1014</v>
+        <v>295</v>
       </c>
       <c r="Q120" s="7" t="inlineStr">
         <is>
-          <t>Heusden-Zolder/BEL</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R120" s="16" t="n">
-        <v>2.07</v>
+        <v>13.02</v>
       </c>
       <c r="T120" s="5" t="n"/>
     </row>
     <row r="121" ht="13" customHeight="1">
       <c r="B121" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Sigurd Clementsen</t>
         </is>
       </c>
       <c r="D121" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E121" s="15" t="n">
-        <v>6.92</v>
+        <v>55.32</v>
       </c>
       <c r="F121" s="7" t="n">
-        <v>810</v>
+        <v>764</v>
       </c>
       <c r="G121" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Castelló/ESP</t>
         </is>
       </c>
       <c r="H121" s="16" t="n">
-        <v>26.08</v>
+        <v>17.09</v>
       </c>
       <c r="J121" s="5" t="n"/>
       <c r="L121" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M121" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Ruud Skjeseth</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="N121" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O121" s="17" t="inlineStr">
-        <is>
-          <t>28,17,01</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O121" s="15" t="n">
+        <v>6.92</v>
       </c>
       <c r="P121" s="7" t="n">
-        <v>997</v>
+        <v>810</v>
       </c>
       <c r="Q121" s="7" t="inlineStr">
         <is>
-          <t>London/GBR</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R121" s="16" t="n">
-        <v>14.05</v>
+        <v>26.08</v>
       </c>
       <c r="T121" s="5" t="n"/>
     </row>
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Torgrim Frøystein</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E122" s="15" t="n">
-        <v>15.47</v>
+        <v>1.88</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>925</v>
+        <v>722</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>17.07</v>
+        <v>4.06</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O122" s="17" t="inlineStr">
-        <is>
-          <t>8,21,69</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O122" s="15" t="n">
+        <v>15.47</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>1026</v>
+        <v>925</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Turku/FIN</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>14.06</v>
+        <v>17.07</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Anders Vik</t>
+          <t>Johannes Strømhaug</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>3.04</v>
+        <v>5.02</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>694</v>
+        <v>912</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Sandane</t>
+          <t>New Haven/CT/USA</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>25.01</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Michael Reklev</t>
+          <t>Anders Vik</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>1.89</v>
+        <v>3.04</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>730</v>
+        <v>694</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Sandane</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>13.08</v>
+        <v>25.01</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Marcus Thomsen</t>
+          <t>Simen Gimnes</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>20.89</v>
+        <v>6.68</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>1106</v>
+        <v>758</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Kladno/CZE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>14.06</v>
+        <v>26.08</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Michael Reklev</t>
+          <t>Marcus Thomsen</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>6.15</v>
+        <v>20.89</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>640</v>
+        <v>1106</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kladno/CZE</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>12.02</v>
+        <v>14.06</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Simen Gimnes</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>64.28</v>
+        <v>13.86</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>1070</v>
+        <v>761</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>22.05</v>
+        <v>4.03</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Stein Tore Klungland</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>1958</v>
+        <v>1995</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>10.99</v>
+        <v>64.28</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>446</v>
+        <v>1070</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Tampere/FIN</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>10.07</v>
+        <v>22.05</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Jon Nerdal</t>
+          <t>Sondre Alexander Høyland</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>67.75</v>
+        <v>2.98</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>973</v>
+        <v>661</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Baton Rouge/LA/USA</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>9.039999999999999</v>
+        <v>12.02</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Johan Tovari</t>
+          <t>Jon Nerdal</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>2.53</v>
+        <v>67.75</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>390</v>
+        <v>973</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Baton Rouge/LA/USA</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>12.02</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
-      <c r="B127" s="14" t="n"/>
-      <c r="C127" s="7" t="n"/>
-      <c r="D127" s="7" t="n"/>
-      <c r="E127" s="7" t="n"/>
-      <c r="F127" s="7" t="n"/>
-      <c r="G127" s="7" t="n"/>
-      <c r="H127" s="21" t="n"/>
+      <c r="B127" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C127" s="7" t="inlineStr">
+        <is>
+          <t>Sondre Alexander Høyland</t>
+        </is>
+      </c>
+      <c r="D127" s="7" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E127" s="15" t="n">
+        <v>72.09</v>
+      </c>
+      <c r="F127" s="7" t="n">
+        <v>932</v>
+      </c>
+      <c r="G127" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H127" s="16" t="n">
+        <v>26.06</v>
+      </c>
       <c r="J127" s="5" t="n"/>
-      <c r="L127" s="14" t="inlineStr">
-        <is>
-          <t>Diskos</t>
-        </is>
-      </c>
-      <c r="M127" s="7" t="inlineStr">
-        <is>
-          <t>Terje Aastorp</t>
-        </is>
-      </c>
-      <c r="N127" s="7" t="n">
-        <v>1956</v>
-      </c>
-      <c r="O127" s="15" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="P127" s="7" t="n">
-        <v>422</v>
-      </c>
-      <c r="Q127" s="7" t="inlineStr">
-        <is>
-          <t>Jessheim</t>
-        </is>
-      </c>
-      <c r="R127" s="16" t="n">
-        <v>7.08</v>
-      </c>
+      <c r="L127" s="14" t="n"/>
+      <c r="M127" s="7" t="n"/>
+      <c r="N127" s="7" t="n"/>
+      <c r="O127" s="7" t="n"/>
+      <c r="P127" s="7" t="n"/>
+      <c r="Q127" s="7" t="n"/>
+      <c r="R127" s="21" t="n"/>
       <c r="T127" s="5" t="n"/>
     </row>
     <row r="128" ht="13" customHeight="1">
@@ -6574,7 +6578,7 @@
         </is>
       </c>
       <c r="C129" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E129" s="19" t="inlineStr">
         <is>
@@ -6582,7 +6586,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11759</v>
+        <v>11560</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -6591,7 +6595,7 @@
         </is>
       </c>
       <c r="M129" s="20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O129" s="19" t="inlineStr">
         <is>
@@ -6599,7 +6603,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>11526</v>
+        <v>11759</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -6702,264 +6706,256 @@
     <row r="134" ht="13" customHeight="1">
       <c r="B134" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Patrick Monga Bifuko</t>
         </is>
       </c>
       <c r="D134" s="7" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E134" s="15" t="n">
-        <v>17.6</v>
+        <v>10.94</v>
       </c>
       <c r="F134" s="7" t="n">
-        <v>944</v>
+        <v>857</v>
       </c>
       <c r="G134" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H134" s="16" t="n">
-        <v>19.02</v>
+        <v>24.06</v>
       </c>
       <c r="J134" s="5" t="n"/>
       <c r="L134" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M134" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="N134" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O134" s="17" t="inlineStr">
-        <is>
-          <t>7,51,15</t>
-        </is>
+        <v>1995</v>
+      </c>
+      <c r="O134" s="15" t="n">
+        <v>17.6</v>
       </c>
       <c r="P134" s="7" t="n">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="Q134" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R134" s="16" t="n">
-        <v>26.02</v>
+        <v>19.02</v>
       </c>
       <c r="T134" s="5" t="n"/>
     </row>
     <row r="135" ht="13" customHeight="1">
       <c r="B135" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>Phillip Morken</t>
+          <t>Einar Johannes Rye</t>
         </is>
       </c>
       <c r="D135" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E135" s="17" t="inlineStr">
-        <is>
-          <t>1,52,17</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E135" s="15" t="n">
+        <v>22.17</v>
       </c>
       <c r="F135" s="7" t="n">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="G135" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H135" s="16" t="n">
-        <v>28.08</v>
+        <v>10.06</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M135" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sandvik</t>
+          <t>Phillip Morken</t>
         </is>
       </c>
       <c r="N135" s="7" t="n">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="O135" s="17" t="inlineStr">
         <is>
-          <t>8,28,08</t>
+          <t>1,52,17</t>
         </is>
       </c>
       <c r="P135" s="7" t="n">
-        <v>995</v>
+        <v>861</v>
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>8.06</v>
+        <v>28.08</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
     <row r="136" ht="13" customHeight="1">
       <c r="B136" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Kristian Drabløs</t>
         </is>
       </c>
       <c r="D136" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="E136" s="15" t="n">
-        <v>10.95</v>
+        <v>22.25</v>
       </c>
       <c r="F136" s="7" t="n">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="G136" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H136" s="16" t="n">
-        <v>24.06</v>
+        <v>13.02</v>
       </c>
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M136" s="7" t="inlineStr">
         <is>
-          <t>Jacob Boutera</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N136" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O136" s="17" t="inlineStr">
-        <is>
-          <t>3,40,23</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O136" s="15" t="n">
+        <v>10.95</v>
       </c>
       <c r="P136" s="7" t="n">
-        <v>983</v>
+        <v>854</v>
       </c>
       <c r="Q136" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R136" s="16" t="n">
-        <v>2.06</v>
+        <v>24.06</v>
       </c>
       <c r="T136" s="5" t="n"/>
     </row>
     <row r="137" ht="13" customHeight="1">
       <c r="B137" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Anders Vik</t>
+          <t>Christian Wright</t>
         </is>
       </c>
       <c r="D137" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E137" s="15" t="n">
-        <v>49.73</v>
+        <v>11.05</v>
       </c>
       <c r="F137" s="7" t="n">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="G137" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H137" s="16" t="n">
-        <v>22.07</v>
+        <v>26.08</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M137" s="7" t="inlineStr">
         <is>
-          <t>Per Svela</t>
+          <t>Anders Vik</t>
         </is>
       </c>
       <c r="N137" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O137" s="17" t="inlineStr">
-        <is>
-          <t>28,35,79</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O137" s="15" t="n">
+        <v>49.73</v>
       </c>
       <c r="P137" s="7" t="n">
-        <v>971</v>
+        <v>853</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>13.04</v>
+        <v>22.07</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
     <row r="138" ht="13" customHeight="1">
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Sigurd Clementsen</t>
         </is>
       </c>
       <c r="D138" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E138" s="15" t="n">
-        <v>7.03</v>
+        <v>22.4</v>
       </c>
       <c r="F138" s="7" t="n">
-        <v>850</v>
+        <v>814</v>
       </c>
       <c r="G138" s="7" t="inlineStr">
         <is>
@@ -6967,37 +6963,35 @@
         </is>
       </c>
       <c r="H138" s="16" t="n">
-        <v>12.02</v>
+        <v>13.02</v>
       </c>
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sandvik</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O138" s="17" t="inlineStr">
-        <is>
-          <t>3,43,08</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O138" s="15" t="n">
+        <v>7.03</v>
       </c>
       <c r="P138" s="7" t="n">
-        <v>946</v>
+        <v>850</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R138" s="16" t="n">
-        <v>2.06</v>
+        <v>12.02</v>
       </c>
       <c r="T138" s="5" t="n"/>
     </row>
@@ -7009,47 +7003,45 @@
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Patrick Monga Bifuko</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="E139" s="15" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="F139" s="7" t="n">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>30.06</v>
+        <v>25.06</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Awet Nftalem Kibrab</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O139" s="17" t="inlineStr">
-        <is>
-          <t>13,52,46</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O139" s="15" t="n">
+        <v>22.2</v>
       </c>
       <c r="P139" s="7" t="n">
-        <v>941</v>
+        <v>837</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
@@ -7057,7 +7049,7 @@
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>13.07</v>
+        <v>30.06</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -7069,315 +7061,307 @@
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Fredrik H. Gullachsen</t>
+          <t>Even Pettersen</t>
         </is>
       </c>
       <c r="D140" s="7" t="n">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="E140" s="15" t="n">
-        <v>22.8</v>
+        <v>22.46</v>
       </c>
       <c r="F140" s="7" t="n">
-        <v>770</v>
+        <v>808</v>
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>19.02</v>
+        <v>25.06</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Awet Nftalem Kibrab</t>
+          <t>Fredrik H. Gullachsen</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O140" s="17" t="inlineStr">
-        <is>
-          <t>8,05,27</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O140" s="15" t="n">
+        <v>22.8</v>
       </c>
       <c r="P140" s="7" t="n">
-        <v>929</v>
+        <v>770</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>8.06</v>
+        <v>19.02</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
     <row r="141" ht="13" customHeight="1">
       <c r="B141" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Seumas Duncan Mackay</t>
+          <t>Markus Le Fjeld</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E141" s="15" t="n">
-        <v>50.52</v>
+        <v>11.14</v>
       </c>
       <c r="F141" s="7" t="n">
-        <v>758</v>
+        <v>806</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>19.06</v>
+        <v>26.08</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Andreas Fjeld Halvorsen</t>
+          <t>Seumas Duncan Mackay</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O141" s="17" t="inlineStr">
-        <is>
-          <t>3,44,49</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O141" s="15" t="n">
+        <v>50.52</v>
       </c>
       <c r="P141" s="7" t="n">
-        <v>928</v>
+        <v>758</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>25.06</v>
+        <v>19.06</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Simon Fjeldstad</t>
+          <t>Kim Kamanzi</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E142" s="15" t="n">
-        <v>7.31</v>
+        <v>22.53</v>
       </c>
       <c r="F142" s="7" t="n">
-        <v>732</v>
+        <v>800</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>5.03</v>
+        <v>10.06</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M142" s="7" t="inlineStr">
         <is>
-          <t>Andreas Fjeld Halvorsen</t>
+          <t>Simon Fjeldstad</t>
         </is>
       </c>
       <c r="N142" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O142" s="17" t="inlineStr">
-        <is>
-          <t>8,06,67</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O142" s="15" t="n">
+        <v>7.31</v>
       </c>
       <c r="P142" s="7" t="n">
-        <v>922</v>
+        <v>732</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R142" s="16" t="n">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
       <c r="T142" s="5" t="n"/>
     </row>
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Sigurd Clementsen</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E143" s="15" t="n">
-        <v>6.47</v>
+        <v>49.85</v>
       </c>
       <c r="F143" s="7" t="n">
-        <v>712</v>
+        <v>792</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>24.06</v>
+        <v>12.06</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Senay Amlesom Fissehatsion</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O143" s="17" t="inlineStr">
-        <is>
-          <t>14,03,28</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O143" s="15" t="n">
+        <v>6.47</v>
       </c>
       <c r="P143" s="7" t="n">
-        <v>911</v>
+        <v>712</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>30.06</v>
+        <v>24.06</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
     <row r="144" ht="13" customHeight="1">
       <c r="B144" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Sigmund Le Fjeld</t>
         </is>
       </c>
       <c r="D144" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E144" s="15" t="n">
-        <v>51.79</v>
+        <v>13.86</v>
       </c>
       <c r="F144" s="7" t="n">
-        <v>697</v>
+        <v>761</v>
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>26.08</v>
+        <v>11.06</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Even Ragnhildsløkken</t>
+          <t>Andreas Langhelle</t>
         </is>
       </c>
       <c r="N144" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O144" s="15" t="n">
-        <v>1.65</v>
+        <v>51.79</v>
       </c>
       <c r="P144" s="7" t="n">
-        <v>511</v>
+        <v>697</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>7.08</v>
+        <v>26.08</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
     <row r="145" ht="13" customHeight="1">
       <c r="B145" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Robert Sheath</t>
+          <t>Jonathan Hertwig-Ødegaard</t>
         </is>
       </c>
       <c r="D145" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>7.4</v>
+        <v>4.2</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>697</v>
+        <v>759</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
@@ -7390,204 +7374,204 @@
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M145" s="7" t="inlineStr">
         <is>
-          <t>Even Ragnhildsløkken</t>
+          <t>Robert Sheath</t>
         </is>
       </c>
       <c r="N145" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="O145" s="15" t="n">
-        <v>5.19</v>
+        <v>7.4</v>
       </c>
       <c r="P145" s="7" t="n">
-        <v>417</v>
+        <v>697</v>
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R145" s="16" t="n">
-        <v>3.09</v>
+        <v>5.03</v>
       </c>
       <c r="T145" s="5" t="n"/>
     </row>
     <row r="146" ht="13" customHeight="1">
       <c r="B146" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Jonathan Hertwig-Ødegaard</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E146" s="15" t="n">
-        <v>23.53</v>
+        <v>6.39</v>
       </c>
       <c r="F146" s="7" t="n">
         <v>694</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>27.05</v>
+        <v>26.08</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Vetle Haugjord Rølsåsen</t>
+          <t>Andreas Langhelle</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>5.1</v>
+        <v>23.53</v>
       </c>
       <c r="P146" s="7" t="n">
-        <v>396</v>
+        <v>694</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>23.01</v>
+        <v>27.05</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
     <row r="147" ht="13" customHeight="1">
       <c r="B147" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Markus Le Fjeld</t>
         </is>
       </c>
       <c r="D147" s="7" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>2.99</v>
+        <v>6.32</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="G147" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Västerås/SWE</t>
         </is>
       </c>
       <c r="H147" s="16" t="n">
-        <v>21.01</v>
+        <v>31.07</v>
       </c>
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M147" s="7" t="inlineStr">
         <is>
-          <t>Stein Tore Klungland</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N147" s="7" t="n">
-        <v>1958</v>
+        <v>1999</v>
       </c>
       <c r="O147" s="15" t="n">
-        <v>5.06</v>
+        <v>2.99</v>
       </c>
       <c r="P147" s="7" t="n">
-        <v>386</v>
+        <v>666</v>
       </c>
       <c r="Q147" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R147" s="16" t="n">
-        <v>26.03</v>
+        <v>21.01</v>
       </c>
       <c r="T147" s="5" t="n"/>
     </row>
     <row r="148" ht="13" customHeight="1">
       <c r="B148" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Bergheim</t>
+          <t>Sondre Alexander Høyland</t>
         </is>
       </c>
       <c r="D148" s="7" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E148" s="15" t="n">
-        <v>2.88</v>
+        <v>12.75</v>
       </c>
       <c r="F148" s="7" t="n">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="G148" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H148" s="16" t="n">
-        <v>21.01</v>
+        <v>12.02</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Even Ragnhildsløkken</t>
+          <t>Sebastian Bergheim</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>10.38</v>
+        <v>2.88</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>375</v>
+        <v>605</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>4.09</v>
+        <v>21.01</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -7624,7 +7608,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>11530</v>
+        <v>11735</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -7641,7 +7625,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11610</v>
+        <v>11530</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7656,7 +7640,7 @@
         </is>
       </c>
       <c r="C152" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E152" s="19" t="inlineStr">
         <is>
@@ -7664,7 +7648,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>23289</v>
+        <v>23295</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -7673,7 +7657,7 @@
         </is>
       </c>
       <c r="M152" s="20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O152" s="19" t="inlineStr">
         <is>
@@ -7681,7 +7665,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>23136</v>
+        <v>23289</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -7696,7 +7680,7 @@
         </is>
       </c>
       <c r="C154" s="20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="19" t="inlineStr">
@@ -7705,7 +7689,7 @@
         </is>
       </c>
       <c r="M154" s="20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -7747,7 +7731,7 @@
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="F158" s="8" t="n">
@@ -7777,7 +7761,7 @@
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Ullensaker/Kisa IL</t>
         </is>
       </c>
       <c r="J159" s="5" t="n"/>
@@ -7917,25 +7901,25 @@
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Emil Nordal</t>
         </is>
       </c>
       <c r="D165" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E165" s="15" t="n">
-        <v>6.87</v>
+        <v>7.57</v>
       </c>
       <c r="F165" s="7" t="n">
-        <v>924</v>
+        <v>635</v>
       </c>
       <c r="G165" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H165" s="16" t="n">
-        <v>20.02</v>
+        <v>29.01</v>
       </c>
       <c r="J165" s="5" t="n"/>
       <c r="L165" s="14" t="inlineStr">
@@ -7975,25 +7959,25 @@
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Martin Aarbogh Brustad</t>
         </is>
       </c>
       <c r="D166" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E166" s="15" t="n">
-        <v>10.62</v>
+        <v>12.3</v>
       </c>
       <c r="F166" s="7" t="n">
-        <v>943</v>
+        <v>550</v>
       </c>
       <c r="G166" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H166" s="16" t="n">
-        <v>26.08</v>
+        <v>13.07</v>
       </c>
       <c r="J166" s="5" t="n"/>
       <c r="L166" s="14" t="inlineStr">
@@ -8033,25 +8017,25 @@
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Emil Nordal</t>
         </is>
       </c>
       <c r="D167" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E167" s="15" t="n">
-        <v>21.49</v>
+        <v>23.17</v>
       </c>
       <c r="F167" s="7" t="n">
-        <v>922</v>
+        <v>731</v>
       </c>
       <c r="G167" s="7" t="inlineStr">
         <is>
-          <t>La Chaux-de-Fonds/SUI</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H167" s="16" t="n">
-        <v>3.07</v>
+        <v>6.03</v>
       </c>
       <c r="J167" s="5" t="n"/>
       <c r="L167" s="14" t="inlineStr">
@@ -8091,25 +8075,25 @@
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="D168" s="7" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E168" s="15" t="n">
-        <v>48.67</v>
+        <v>48.42</v>
       </c>
       <c r="F168" s="7" t="n">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="G168" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H168" s="16" t="n">
-        <v>27.08</v>
+        <v>5.02</v>
       </c>
       <c r="J168" s="5" t="n"/>
       <c r="L168" s="14" t="inlineStr">
@@ -8149,27 +8133,27 @@
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="E169" s="17" t="inlineStr">
         <is>
-          <t>1,53,24</t>
+          <t>1,44,75</t>
         </is>
       </c>
       <c r="F169" s="7" t="n">
-        <v>835</v>
+        <v>1073</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Turku/FIN</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>7.06</v>
+        <v>14.06</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -8211,27 +8195,27 @@
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Roderick Duodu</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E170" s="17" t="inlineStr">
         <is>
-          <t>3,54,80</t>
+          <t>3,38,57</t>
         </is>
       </c>
       <c r="F170" s="7" t="n">
-        <v>813</v>
+        <v>1005</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sollentuna/SWE</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>23.07</v>
+        <v>12.06</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -8273,27 +8257,27 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Simen Seeberg-Rommetveit</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="E171" s="17" t="inlineStr">
         <is>
-          <t>8,32,52</t>
+          <t>7,51,15</t>
         </is>
       </c>
       <c r="F171" s="7" t="n">
-        <v>802</v>
+        <v>999</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>3.05</v>
+        <v>26.02</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -8335,27 +8319,27 @@
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Endre Wigaard</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="E172" s="17" t="inlineStr">
         <is>
-          <t>15,28,49</t>
+          <t>13,28,66</t>
         </is>
       </c>
       <c r="F172" s="7" t="n">
-        <v>710</v>
+        <v>1014</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Heusden-Zolder/BEL</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>24.06</v>
+        <v>2.07</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -8392,32 +8376,32 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Sigurd Ruud Skjeseth</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E173" s="17" t="inlineStr">
         <is>
-          <t>1,02,09</t>
+          <t>28,17,01</t>
         </is>
       </c>
       <c r="F173" s="7" t="n">
-        <v>572</v>
+        <v>997</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>London/GBR</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>21.08</v>
+        <v>14.05</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -8454,30 +8438,32 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E174" s="15" t="n">
-        <v>1.75</v>
+        <v>1996</v>
+      </c>
+      <c r="E174" s="17" t="inlineStr">
+        <is>
+          <t>8,21,69</t>
+        </is>
       </c>
       <c r="F174" s="7" t="n">
-        <v>607</v>
+        <v>1026</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Turku/FIN</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>10.09</v>
+        <v>14.06</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -8514,30 +8500,30 @@
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Michael Reklev</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>6.09</v>
+        <v>1.89</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>627</v>
+        <v>730</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>20.08</v>
+        <v>13.08</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -8572,30 +8558,30 @@
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Michael Reklev</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>12.33</v>
+        <v>6.15</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>596</v>
+        <v>640</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>9.09</v>
+        <v>12.02</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -8630,30 +8616,30 @@
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Kwadjo Owusu</t>
+          <t>Stein Tore Klungland</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2004</v>
+        <v>1958</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>2.64</v>
+        <v>10.99</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tampere/FIN</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>12.02</v>
+        <v>10.07</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
@@ -8688,30 +8674,30 @@
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Johan Tovari</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>44.33</v>
+        <v>2.53</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>762</v>
+        <v>390</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>30.06</v>
+        <v>12.02</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -8746,30 +8732,30 @@
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Kasper Sagen</t>
+          <t>Terje Aastorp</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>1999</v>
+        <v>1956</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>66.98999999999999</v>
+        <v>27.68</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>857</v>
+        <v>422</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Leiria/POR</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>13.03</v>
+        <v>7.08</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
@@ -8834,7 +8820,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11290</v>
+        <v>11526</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -8954,30 +8940,32 @@
     <row r="186" ht="13" customHeight="1">
       <c r="B186" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="D186" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E186" s="15" t="n">
-        <v>10.65</v>
+        <v>1996</v>
+      </c>
+      <c r="E186" s="17" t="inlineStr">
+        <is>
+          <t>7,51,15</t>
+        </is>
       </c>
       <c r="F186" s="7" t="n">
-        <v>935</v>
+        <v>999</v>
       </c>
       <c r="G186" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H186" s="16" t="n">
-        <v>16.06</v>
+        <v>5.08</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="14" t="inlineStr">
@@ -9014,30 +9002,32 @@
     <row r="187" ht="13" customHeight="1">
       <c r="B187" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="D187" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E187" s="15" t="n">
-        <v>6.93</v>
+        <v>1998</v>
+      </c>
+      <c r="E187" s="17" t="inlineStr">
+        <is>
+          <t>8,28,08</t>
+        </is>
       </c>
       <c r="F187" s="7" t="n">
-        <v>895</v>
+        <v>995</v>
       </c>
       <c r="G187" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H187" s="16" t="n">
-        <v>20.02</v>
+        <v>8.06</v>
       </c>
       <c r="J187" s="5" t="n"/>
       <c r="L187" s="14" t="inlineStr">
@@ -9072,30 +9062,32 @@
     <row r="188" ht="13" customHeight="1">
       <c r="B188" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Jacob Boutera</t>
         </is>
       </c>
       <c r="D188" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E188" s="15" t="n">
-        <v>10.83</v>
+        <v>1996</v>
+      </c>
+      <c r="E188" s="17" t="inlineStr">
+        <is>
+          <t>3,40,23</t>
+        </is>
       </c>
       <c r="F188" s="7" t="n">
-        <v>886</v>
+        <v>983</v>
       </c>
       <c r="G188" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H188" s="16" t="n">
-        <v>12.08</v>
+        <v>2.06</v>
       </c>
       <c r="J188" s="5" t="n"/>
       <c r="L188" s="14" t="inlineStr">
@@ -9132,30 +9124,32 @@
     <row r="189" ht="13" customHeight="1">
       <c r="B189" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Per Svela</t>
         </is>
       </c>
       <c r="D189" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E189" s="15" t="n">
-        <v>21.95</v>
+        <v>1992</v>
+      </c>
+      <c r="E189" s="17" t="inlineStr">
+        <is>
+          <t>28,35,79</t>
+        </is>
       </c>
       <c r="F189" s="7" t="n">
-        <v>866</v>
+        <v>971</v>
       </c>
       <c r="G189" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H189" s="16" t="n">
-        <v>27.08</v>
+        <v>13.04</v>
       </c>
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
@@ -9190,30 +9184,32 @@
     <row r="190" ht="13" customHeight="1">
       <c r="B190" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Tor-Junor Kringstad Vedde</t>
+          <t>Fredrik Sandvik</t>
         </is>
       </c>
       <c r="D190" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E190" s="15" t="n">
-        <v>48.7</v>
+        <v>1998</v>
+      </c>
+      <c r="E190" s="17" t="inlineStr">
+        <is>
+          <t>3,43,08</t>
+        </is>
       </c>
       <c r="F190" s="7" t="n">
-        <v>852</v>
+        <v>946</v>
       </c>
       <c r="G190" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H190" s="16" t="n">
-        <v>28.05</v>
+        <v>2.06</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="14" t="inlineStr">
@@ -9248,32 +9244,32 @@
     <row r="191" ht="13" customHeight="1">
       <c r="B191" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Simen Seeberg-Rommetveit</t>
+          <t>Awet Nftalem Kibrab</t>
         </is>
       </c>
       <c r="D191" s="7" t="n">
-        <v>2000</v>
+        <v>1995</v>
       </c>
       <c r="E191" s="17" t="inlineStr">
         <is>
-          <t>1,53,54</t>
+          <t>13,52,46</t>
         </is>
       </c>
       <c r="F191" s="7" t="n">
-        <v>827</v>
+        <v>941</v>
       </c>
       <c r="G191" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H191" s="16" t="n">
-        <v>26.06</v>
+        <v>13.07</v>
       </c>
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
@@ -9310,30 +9306,32 @@
     <row r="192" ht="13" customHeight="1">
       <c r="B192" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Awet Nftalem Kibrab</t>
         </is>
       </c>
       <c r="D192" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E192" s="15" t="n">
-        <v>49.29</v>
+        <v>1995</v>
+      </c>
+      <c r="E192" s="17" t="inlineStr">
+        <is>
+          <t>8,05,27</t>
+        </is>
       </c>
       <c r="F192" s="7" t="n">
-        <v>821</v>
+        <v>929</v>
       </c>
       <c r="G192" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H192" s="16" t="n">
-        <v>27.08</v>
+        <v>8.06</v>
       </c>
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
@@ -9370,30 +9368,32 @@
     <row r="193" ht="13" customHeight="1">
       <c r="B193" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Holen</t>
+          <t>Andreas Fjeld Halvorsen</t>
         </is>
       </c>
       <c r="D193" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E193" s="15" t="n">
-        <v>11.1</v>
+        <v>2005</v>
+      </c>
+      <c r="E193" s="17" t="inlineStr">
+        <is>
+          <t>3,44,49</t>
+        </is>
       </c>
       <c r="F193" s="7" t="n">
-        <v>816</v>
+        <v>928</v>
       </c>
       <c r="G193" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H193" s="16" t="n">
-        <v>18.06</v>
+        <v>25.06</v>
       </c>
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
@@ -9428,12 +9428,12 @@
     <row r="194" ht="13" customHeight="1">
       <c r="B194" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>Halvard Grape Fladby</t>
+          <t>Andreas Fjeld Halvorsen</t>
         </is>
       </c>
       <c r="D194" s="7" t="n">
@@ -9441,19 +9441,19 @@
       </c>
       <c r="E194" s="17" t="inlineStr">
         <is>
-          <t>3,55,04</t>
+          <t>8,06,67</t>
         </is>
       </c>
       <c r="F194" s="7" t="n">
-        <v>810</v>
+        <v>922</v>
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>27.08</v>
+        <v>5.08</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
@@ -9488,30 +9488,32 @@
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Thomas Graftås</t>
+          <t>Senay Amlesom Fissehatsion</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E195" s="15" t="n">
-        <v>11.14</v>
+        <v>1995</v>
+      </c>
+      <c r="E195" s="17" t="inlineStr">
+        <is>
+          <t>14,03,28</t>
+        </is>
       </c>
       <c r="F195" s="7" t="n">
-        <v>806</v>
+        <v>911</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>19.06</v>
+        <v>30.06</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
@@ -9546,30 +9548,30 @@
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Ruben Martinsen</t>
+          <t>Even Ragnhildsløkken</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="E196" s="15" t="n">
-        <v>61.26</v>
+        <v>1.65</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>776</v>
+        <v>511</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>28.08</v>
+        <v>7.08</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
@@ -9604,26 +9606,26 @@
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Dag Storm Wergeland</t>
+          <t>Even Ragnhildsløkken</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>1989</v>
+        <v>2008</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>57.45</v>
+        <v>5.19</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
@@ -9667,25 +9669,25 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Vetle Haugjord Rølsåsen</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>6.06</v>
+        <v>5.1</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>620</v>
+        <v>396</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>13.08</v>
+        <v>23.01</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -9720,30 +9722,30 @@
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Stein Tore Klungland</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2007</v>
+        <v>1958</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>12.25</v>
+        <v>5.06</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>587</v>
+        <v>386</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>9.09</v>
+        <v>26.03</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -9783,25 +9785,25 @@
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Even Ragnhildsløkken</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>11.63</v>
+        <v>10.38</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>518</v>
+        <v>375</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>9.09</v>
+        <v>4.09</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -9866,7 +9868,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>11740</v>
+        <v>11610</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -9906,7 +9908,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>23030</v>
+        <v>23136</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -9938,7 +9940,7 @@
         </is>
       </c>
       <c r="C206" s="20" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="19" t="inlineStr">
@@ -16739,11 +16741,11 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/13)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16286</v>
+        <v>16408</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -16771,7 +16773,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>16124</v>
+        <v>16157</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -16879,11 +16881,11 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(23/8)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14750</v>
+        <v>15250</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -16911,7 +16913,7 @@
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>14221</v>
+        <v>14254</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -21421,32 +21423,32 @@
     <row r="109" ht="13" customHeight="1">
       <c r="B109" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="D109" s="7" t="n">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="E109" s="17" t="inlineStr">
         <is>
-          <t>15,00,98</t>
+          <t>9,06,42</t>
         </is>
       </c>
       <c r="F109" s="7" t="n">
-        <v>770</v>
+        <v>664</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>24.06</v>
+        <v>27.08</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
@@ -21483,7 +21485,7 @@
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
@@ -21496,11 +21498,11 @@
       </c>
       <c r="E110" s="17" t="inlineStr">
         <is>
-          <t>31,33,99</t>
+          <t>15,00,98</t>
         </is>
       </c>
       <c r="F110" s="7" t="n">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
@@ -21508,7 +21510,7 @@
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>26.06</v>
+        <v>24.06</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
@@ -21545,32 +21547,32 @@
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>5000m kapp.</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Andreas Døske</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E111" s="17" t="inlineStr">
         <is>
-          <t>23,39,29</t>
+          <t>31,33,99</t>
         </is>
       </c>
       <c r="F111" s="7" t="n">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>17.07</v>
+        <v>26.06</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
@@ -21612,11 +21614,11 @@
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Theodor Aase</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E112" s="15" t="n">
         <v>1.75</v>
@@ -21869,7 +21871,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>8938</v>
+        <v>9060</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -22195,30 +22197,32 @@
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Sindre Olsvik</t>
+          <t>Iver Matias Linge Glomnes</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O125" s="15" t="n">
-        <v>11.39</v>
+        <v>1996</v>
+      </c>
+      <c r="O125" s="17" t="inlineStr">
+        <is>
+          <t>15,11,24</t>
+        </is>
       </c>
       <c r="P125" s="7" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>19.06</v>
+        <v>24.09</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
@@ -22253,32 +22257,30 @@
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Iver Matias Linge Glomnes</t>
+          <t>Sindre Olsvik</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O126" s="17" t="inlineStr">
-        <is>
-          <t>8,47,23</t>
-        </is>
+        <v>1998</v>
+      </c>
+      <c r="O126" s="15" t="n">
+        <v>11.39</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>28.05</v>
+        <v>19.06</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
@@ -22315,30 +22317,32 @@
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Håkon Skaftun</t>
+          <t>Iver Matias Linge Glomnes</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O127" s="15" t="n">
-        <v>23.13</v>
+        <v>1996</v>
+      </c>
+      <c r="O127" s="17" t="inlineStr">
+        <is>
+          <t>8,47,23</t>
+        </is>
       </c>
       <c r="P127" s="7" t="n">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>7.06</v>
+        <v>28.05</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
@@ -22375,32 +22379,30 @@
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M128" s="7" t="inlineStr">
         <is>
-          <t>Jonas Riseth</t>
+          <t>Håkon Skaftun</t>
         </is>
       </c>
       <c r="N128" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="O128" s="17" t="inlineStr">
-        <is>
-          <t>4,03,73</t>
-        </is>
+        <v>1997</v>
+      </c>
+      <c r="O128" s="15" t="n">
+        <v>23.13</v>
       </c>
       <c r="P128" s="7" t="n">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>2.06</v>
+        <v>7.06</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -22435,7 +22437,7 @@
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M129" s="7" t="inlineStr">
@@ -22448,19 +22450,19 @@
       </c>
       <c r="O129" s="17" t="inlineStr">
         <is>
-          <t>8,53,36</t>
+          <t>4,03,73</t>
         </is>
       </c>
       <c r="P129" s="7" t="n">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>28.05</v>
+        <v>2.06</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -22472,11 +22474,11 @@
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Stian André Lie Austrheim</t>
+          <t>Theodor Aase</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E130" s="15" t="n">
         <v>1.75</v>
@@ -22726,7 +22728,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>6676</v>
+        <v>6709</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -22749,7 +22751,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16286</v>
+        <v>16408</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -22766,7 +22768,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>16124</v>
+        <v>16157</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -24970,25 +24972,25 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.14</v>
+        <v>7.33</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>802</v>
+        <v>725</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>5.03</v>
+        <v>12.02</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -25201,32 +25203,32 @@
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>4,42,31</t>
+          <t>2,26,47</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>449</v>
+        <v>331</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>22.05</v>
+        <v>24.09</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
@@ -25263,30 +25265,32 @@
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Haakon Alexander Kollerud Johansen</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O202" s="15" t="n">
-        <v>1.83</v>
+        <v>2008</v>
+      </c>
+      <c r="O202" s="17" t="inlineStr">
+        <is>
+          <t>4,50,7</t>
+        </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>678</v>
+        <v>401</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>13.08</v>
+        <v>21.08</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -25323,7 +25327,7 @@
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M203" s="7" t="inlineStr">
@@ -25335,18 +25339,18 @@
         <v>2005</v>
       </c>
       <c r="O203" s="15" t="n">
-        <v>4.3</v>
+        <v>1.83</v>
       </c>
       <c r="P203" s="7" t="n">
-        <v>777</v>
+        <v>678</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>23.01</v>
+        <v>13.08</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
@@ -25383,7 +25387,7 @@
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M204" s="7" t="inlineStr">
@@ -25395,18 +25399,18 @@
         <v>2005</v>
       </c>
       <c r="O204" s="15" t="n">
-        <v>6.47</v>
+        <v>4.3</v>
       </c>
       <c r="P204" s="7" t="n">
-        <v>712</v>
+        <v>777</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>21.05</v>
+        <v>23.01</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -25443,30 +25447,30 @@
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O205" s="15" t="n">
-        <v>10.65</v>
+        <v>6.47</v>
       </c>
       <c r="P205" s="7" t="n">
-        <v>407</v>
+        <v>712</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>4.03</v>
+        <v>21.05</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
@@ -25501,30 +25505,30 @@
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>1.3</v>
+        <v>10.65</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>22.03</v>
+        <v>4.03</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -25559,7 +25563,7 @@
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
@@ -25571,10 +25575,10 @@
         <v>2004</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>3.03</v>
+        <v>1.3</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>688</v>
+        <v>440</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
@@ -25615,13 +25619,33 @@
         <v>10.09</v>
       </c>
       <c r="J208" s="5" t="n"/>
-      <c r="L208" s="14" t="n"/>
-      <c r="M208" s="7" t="n"/>
-      <c r="N208" s="7" t="n"/>
-      <c r="O208" s="7" t="n"/>
-      <c r="P208" s="7" t="n"/>
-      <c r="Q208" s="7" t="n"/>
-      <c r="R208" s="21" t="n"/>
+      <c r="L208" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="M208" s="7" t="inlineStr">
+        <is>
+          <t>Sondre Witzøe</t>
+        </is>
+      </c>
+      <c r="N208" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="O208" s="15" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="P208" s="7" t="n">
+        <v>688</v>
+      </c>
+      <c r="Q208" s="7" t="inlineStr">
+        <is>
+          <t>Drammen</t>
+        </is>
+      </c>
+      <c r="R208" s="16" t="n">
+        <v>22.03</v>
+      </c>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
@@ -25653,13 +25677,33 @@
         <v>12.02</v>
       </c>
       <c r="J209" s="5" t="n"/>
-      <c r="L209" s="14" t="n"/>
-      <c r="M209" s="7" t="n"/>
-      <c r="N209" s="7" t="n"/>
-      <c r="O209" s="7" t="n"/>
-      <c r="P209" s="7" t="n"/>
-      <c r="Q209" s="7" t="n"/>
-      <c r="R209" s="21" t="n"/>
+      <c r="L209" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="M209" s="7" t="inlineStr">
+        <is>
+          <t>Sondre Witzøe</t>
+        </is>
+      </c>
+      <c r="N209" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="O209" s="15" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="P209" s="7" t="n">
+        <v>390</v>
+      </c>
+      <c r="Q209" s="7" t="inlineStr">
+        <is>
+          <t>Sande</t>
+        </is>
+      </c>
+      <c r="R209" s="16" t="n">
+        <v>24.09</v>
+      </c>
       <c r="T209" s="5" t="n"/>
     </row>
     <row r="210" ht="13" customHeight="1">
@@ -25704,7 +25748,7 @@
         </is>
       </c>
       <c r="M211" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O211" s="19" t="inlineStr">
         <is>
@@ -25712,7 +25756,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7267</v>
+        <v>7863</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25903,30 +25947,30 @@
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O217" s="15" t="n">
-        <v>7.33</v>
+        <v>23.37</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>12.02</v>
+        <v>14.08</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
@@ -25963,7 +26007,7 @@
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
@@ -25975,10 +26019,10 @@
         <v>2007</v>
       </c>
       <c r="O218" s="15" t="n">
-        <v>23.37</v>
+        <v>11.64</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
@@ -25986,7 +26030,7 @@
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>14.08</v>
+        <v>12.08</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
@@ -26028,25 +26072,25 @@
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O219" s="15" t="n">
-        <v>11.64</v>
+        <v>11.91</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>688</v>
+        <v>629</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Seinäjoki/FIN</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>12.08</v>
+        <v>11.06</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -26568,7 +26612,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>7483</v>
+        <v>7387</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26600,7 +26644,7 @@
         </is>
       </c>
       <c r="M231" s="20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O231" s="19" t="inlineStr">
         <is>
@@ -26608,7 +26652,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14750</v>
+        <v>15250</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -26632,7 +26676,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -27272,19 +27316,19 @@
       </c>
       <c r="E251" s="17" t="inlineStr">
         <is>
-          <t>29,46,18</t>
+          <t>29,18,68</t>
         </is>
       </c>
       <c r="F251" s="7" t="n">
-        <v>882</v>
+        <v>915</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>7.05</v>
+        <v>24.09</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -27621,7 +27665,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>8095</v>
+        <v>8128</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -28477,7 +28521,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>14221</v>
+        <v>14254</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -31663,11 +31707,11 @@
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>19.02</v>
+        <v>6.02</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -32979,11 +33023,11 @@
       </c>
       <c r="M43" s="7" t="inlineStr">
         <is>
-          <t>Eline Soma</t>
+          <t>Andrea Igeltjørn Lyngholm</t>
         </is>
       </c>
       <c r="N43" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O43" s="15" t="n">
         <v>1.55</v>
@@ -32997,7 +33041,7 @@
         </is>
       </c>
       <c r="R43" s="16" t="n">
-        <v>11.09</v>
+        <v>27.02</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -33037,11 +33081,11 @@
       </c>
       <c r="M44" s="7" t="inlineStr">
         <is>
-          <t>Andrea Igeltjørn Lyngholm</t>
+          <t>Eline Soma</t>
         </is>
       </c>
       <c r="N44" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O44" s="15" t="n">
         <v>1.55</v>
@@ -33055,7 +33099,7 @@
         </is>
       </c>
       <c r="R44" s="16" t="n">
-        <v>27.02</v>
+        <v>25.08</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -40729,25 +40773,25 @@
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="D228" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E228" s="15" t="n">
-        <v>11.58</v>
+        <v>11.59</v>
       </c>
       <c r="F228" s="7" t="n">
         <v>691</v>
       </c>
       <c r="G228" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H228" s="16" t="n">
-        <v>5.02</v>
+        <v>26.08</v>
       </c>
       <c r="J228" s="5" t="n"/>
       <c r="L228" s="14" t="inlineStr">
@@ -41411,25 +41455,25 @@
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>Maria Døske</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="D243" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E243" s="15" t="n">
-        <v>11.59</v>
+        <v>11.58</v>
       </c>
       <c r="F243" s="7" t="n">
         <v>691</v>
       </c>
       <c r="G243" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H243" s="16" t="n">
-        <v>26.08</v>
+        <v>5.02</v>
       </c>
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
@@ -46757,7 +46801,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15034</v>
+        <v>15157</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -46869,7 +46913,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14086</v>
+        <v>14189</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -52985,30 +53029,30 @@
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M150" s="7" t="inlineStr">
         <is>
-          <t>Anouk de Haas</t>
+          <t>Ida Kristine Sola Steen</t>
         </is>
       </c>
       <c r="N150" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O150" s="15" t="n">
-        <v>8.5</v>
+        <v>13.33</v>
       </c>
       <c r="P150" s="7" t="n">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="Q150" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R150" s="16" t="n">
-        <v>12.02</v>
+        <v>12.08</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -53043,7 +53087,7 @@
       <c r="J151" s="5" t="n"/>
       <c r="L151" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M151" s="7" t="inlineStr">
@@ -53055,18 +53099,18 @@
         <v>2007</v>
       </c>
       <c r="O151" s="15" t="n">
-        <v>13.33</v>
+        <v>26.81</v>
       </c>
       <c r="P151" s="7" t="n">
-        <v>615</v>
+        <v>664</v>
       </c>
       <c r="Q151" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R151" s="16" t="n">
-        <v>12.08</v>
+        <v>11.06</v>
       </c>
       <c r="T151" s="5" t="n"/>
     </row>
@@ -53101,22 +53145,24 @@
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M152" s="7" t="inlineStr">
         <is>
-          <t>Ida Kristine Sola Steen</t>
+          <t>Tuva Kylland</t>
         </is>
       </c>
       <c r="N152" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O152" s="15" t="n">
-        <v>26.81</v>
+        <v>2006</v>
+      </c>
+      <c r="O152" s="17" t="inlineStr">
+        <is>
+          <t>2,23,74</t>
+        </is>
       </c>
       <c r="P152" s="7" t="n">
-        <v>664</v>
+        <v>624</v>
       </c>
       <c r="Q152" s="7" t="inlineStr">
         <is>
@@ -53161,7 +53207,7 @@
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M153" s="7" t="inlineStr">
@@ -53174,19 +53220,19 @@
       </c>
       <c r="O153" s="17" t="inlineStr">
         <is>
-          <t>2,23,74</t>
+          <t>4,58,33</t>
         </is>
       </c>
       <c r="P153" s="7" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="Q153" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R153" s="16" t="n">
-        <v>11.06</v>
+        <v>21.05</v>
       </c>
       <c r="T153" s="5" t="n"/>
     </row>
@@ -53223,32 +53269,32 @@
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M154" s="7" t="inlineStr">
         <is>
-          <t>Tuva Kylland</t>
+          <t>Maren Karlsen Bekkestad</t>
         </is>
       </c>
       <c r="N154" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O154" s="17" t="inlineStr">
         <is>
-          <t>4,58,33</t>
+          <t>10,49,32</t>
         </is>
       </c>
       <c r="P154" s="7" t="n">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="Q154" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R154" s="16" t="n">
-        <v>21.05</v>
+        <v>12.08</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -53285,7 +53331,7 @@
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M155" s="7" t="inlineStr">
@@ -53298,19 +53344,19 @@
       </c>
       <c r="O155" s="17" t="inlineStr">
         <is>
-          <t>10,49,32</t>
+          <t>18,47,59</t>
         </is>
       </c>
       <c r="P155" s="7" t="n">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="Q155" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R155" s="16" t="n">
-        <v>12.08</v>
+        <v>24.09</v>
       </c>
       <c r="T155" s="5" t="n"/>
     </row>
@@ -53780,7 +53826,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8526</v>
+        <v>8556</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -53911,32 +53957,30 @@
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>Elena Garcia Reppesgård</t>
+          <t>Anouk de Haas</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O169" s="17" t="inlineStr">
-        <is>
-          <t>1,03,21</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O169" s="15" t="n">
+        <v>8.5</v>
       </c>
       <c r="P169" s="7" t="n">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>18.06</v>
+        <v>12.02</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
@@ -53978,19 +54022,19 @@
       </c>
       <c r="M170" s="7" t="inlineStr">
         <is>
-          <t>Tuva Kylland</t>
+          <t>Elena Garcia Reppesgård</t>
         </is>
       </c>
       <c r="N170" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O170" s="17" t="inlineStr">
         <is>
-          <t>1,03,26</t>
+          <t>1,03,21</t>
         </is>
       </c>
       <c r="P170" s="7" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
@@ -54033,30 +54077,32 @@
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Vilde Marie Nebell</t>
+          <t>Tuva Kylland</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O171" s="15" t="n">
-        <v>29.93</v>
+        <v>2006</v>
+      </c>
+      <c r="O171" s="17" t="inlineStr">
+        <is>
+          <t>1,03,26</t>
+        </is>
       </c>
       <c r="P171" s="7" t="n">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>28.08</v>
+        <v>18.06</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
@@ -54091,32 +54137,30 @@
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Hannah Bergh</t>
+          <t>Vilde Marie Nebell</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O172" s="17" t="inlineStr">
-        <is>
-          <t>5,07,53</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O172" s="15" t="n">
+        <v>29.93</v>
       </c>
       <c r="P172" s="7" t="n">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>4.09</v>
+        <v>28.08</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
@@ -54151,30 +54195,32 @@
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Elena Garcia Reppesgård</t>
+          <t>Hannah Bergh</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O173" s="15" t="n">
-        <v>28.11</v>
+        <v>2009</v>
+      </c>
+      <c r="O173" s="17" t="inlineStr">
+        <is>
+          <t>5,07,53</t>
+        </is>
       </c>
       <c r="P173" s="7" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>11.06</v>
+        <v>4.09</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
@@ -54209,7 +54255,7 @@
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
@@ -54221,18 +54267,18 @@
         <v>2007</v>
       </c>
       <c r="O174" s="15" t="n">
-        <v>13.79</v>
+        <v>28.11</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>19.06</v>
+        <v>11.06</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
@@ -54272,17 +54318,17 @@
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Lindland Turner</t>
+          <t>Elena Garcia Reppesgård</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>13.92</v>
+        <v>13.79</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
@@ -54327,30 +54373,30 @@
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Elena Garcia Reppesgård</t>
+          <t>Charlotte Lindland Turner</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>1.4</v>
+        <v>13.92</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>6.03</v>
+        <v>19.06</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -54385,32 +54431,30 @@
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Vienna Skinnes</t>
+          <t>Elena Garcia Reppesgård</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O177" s="17" t="inlineStr">
-        <is>
-          <t>5,19,33</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O177" s="15" t="n">
+        <v>1.4</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>21.08</v>
+        <v>6.03</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
@@ -54445,30 +54489,32 @@
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Wilma Christine Thorrud</t>
+          <t>Vienna Skinnes</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O178" s="15" t="n">
-        <v>2.3</v>
+        <v>2010</v>
+      </c>
+      <c r="O178" s="17" t="inlineStr">
+        <is>
+          <t>5,19,33</t>
+        </is>
       </c>
       <c r="P178" s="7" t="n">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>10.09</v>
+        <v>21.08</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -54505,30 +54551,30 @@
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Anouk de Haas</t>
+          <t>Wilma Christine Thorrud</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>6.03</v>
+        <v>10.09</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -54563,30 +54609,30 @@
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Lindland Turner</t>
+          <t>Anouk de Haas</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O180" s="15" t="n">
-        <v>29.19</v>
+        <v>4.5</v>
       </c>
       <c r="P180" s="7" t="n">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>5.08</v>
+        <v>6.03</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
@@ -54640,7 +54686,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>6508</v>
+        <v>6601</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -54680,7 +54726,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15034</v>
+        <v>15157</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -57881,7 +57927,7 @@
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
@@ -57892,19 +57938,21 @@
       <c r="N265" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O265" s="15" t="n">
-        <v>28.79</v>
+      <c r="O265" s="17" t="inlineStr">
+        <is>
+          <t>1,05,46</t>
+        </is>
       </c>
       <c r="P265" s="7" t="n">
         <v>526</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>13.08</v>
+        <v>21.09</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
@@ -57939,32 +57987,30 @@
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>5000m kapp.</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Amanda Totland Osa</t>
+          <t>Christine-Sofie Lerøen-Pedersen</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O266" s="17" t="inlineStr">
-        <is>
-          <t>28,20,89</t>
-        </is>
+      <c r="O266" s="15" t="n">
+        <v>28.79</v>
       </c>
       <c r="P266" s="7" t="n">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>21.05</v>
+        <v>13.08</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
@@ -57999,30 +58045,32 @@
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>5000m kapp.</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Siri Gamst Glittenberg</t>
+          <t>Amanda Totland Osa</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O267" s="15" t="n">
-        <v>1.17</v>
+        <v>2006</v>
+      </c>
+      <c r="O267" s="17" t="inlineStr">
+        <is>
+          <t>28,20,89</t>
+        </is>
       </c>
       <c r="P267" s="7" t="n">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>29.03</v>
+        <v>21.05</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -58057,32 +58105,30 @@
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>3000m kapp.</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Amanda Totland Osa</t>
+          <t>Siri Gamst Glittenberg</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O268" s="17" t="inlineStr">
-        <is>
-          <t>16,23,20</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="O268" s="15" t="n">
+        <v>1.17</v>
       </c>
       <c r="P268" s="7" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>26.08</v>
+        <v>29.03</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
@@ -58117,30 +58163,32 @@
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m kapp.</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Emilia Totland Osa</t>
+          <t>Amanda Totland Osa</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O269" s="15" t="n">
-        <v>8.92</v>
+        <v>2006</v>
+      </c>
+      <c r="O269" s="17" t="inlineStr">
+        <is>
+          <t>16,23,20</t>
+        </is>
       </c>
       <c r="P269" s="7" t="n">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>21.05</v>
+        <v>26.08</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -58177,30 +58225,30 @@
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Emilia Totland Osa</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>29.62</v>
+        <v>8.92</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>27.05</v>
+        <v>21.05</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -58235,7 +58283,7 @@
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M271" s="7" t="inlineStr">
@@ -58247,18 +58295,18 @@
         <v>2009</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>9.02</v>
+        <v>29.62</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>21.05</v>
+        <v>27.05</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -58298,17 +58346,17 @@
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Henriette Mæhlum</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>9.09</v>
+        <v>9.02</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
@@ -58351,30 +58399,30 @@
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Henriette Mæhlum</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O273" s="15" t="n">
-        <v>2.24</v>
+        <v>9.09</v>
       </c>
       <c r="P273" s="7" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>29.03</v>
+        <v>21.05</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -58409,30 +58457,30 @@
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Henriette Mæhlum</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O274" s="15" t="n">
-        <v>30.48</v>
+        <v>2.24</v>
       </c>
       <c r="P274" s="7" t="n">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>15.05</v>
+        <v>29.03</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -58486,7 +58534,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>5950</v>
+        <v>6053</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58526,7 +58574,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>14086</v>
+        <v>14189</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -880,11 +880,11 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/12)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>20198</v>
+        <v>20360</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18816</v>
+        <v>18878</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -7451,11 +7451,11 @@
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>27.05</v>
+        <v>11.09</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
@@ -7973,11 +7973,11 @@
       </c>
       <c r="G166" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H166" s="16" t="n">
-        <v>13.07</v>
+        <v>7.08</v>
       </c>
       <c r="J166" s="5" t="n"/>
       <c r="L166" s="14" t="inlineStr">
@@ -12923,25 +12923,25 @@
       </c>
       <c r="C278" s="7" t="inlineStr">
         <is>
-          <t>Jan-Olav Gullbrå Hilleren</t>
+          <t>Jesper Jensen</t>
         </is>
       </c>
       <c r="D278" s="7" t="n">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E278" s="15" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="F278" s="7" t="n">
-        <v>246</v>
+        <v>408</v>
       </c>
       <c r="G278" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H278" s="16" t="n">
-        <v>4.09</v>
+        <v>28.09</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="14" t="inlineStr">
@@ -12997,11 +12997,11 @@
       </c>
       <c r="G279" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H279" s="16" t="n">
-        <v>14.03</v>
+        <v>19.03</v>
       </c>
       <c r="J279" s="5" t="n"/>
       <c r="L279" s="14" t="inlineStr">
@@ -13238,7 +13238,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>11255</v>
+        <v>11417</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -14216,7 +14216,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>20198</v>
+        <v>20360</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C310" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="19" t="inlineStr">
@@ -14645,25 +14645,25 @@
       </c>
       <c r="C324" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="D324" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E324" s="15" t="n">
-        <v>56.48</v>
+        <v>54.86</v>
       </c>
       <c r="F324" s="7" t="n">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="G324" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="H324" s="16" t="n">
-        <v>29.05</v>
+        <v>29.09</v>
       </c>
       <c r="J324" s="5" t="n"/>
       <c r="L324" s="14" t="inlineStr">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="H335" s="16" t="n">
-        <v>10.03</v>
+        <v>10.02</v>
       </c>
       <c r="J335" s="5" t="n"/>
       <c r="L335" s="14" t="inlineStr">
@@ -15386,7 +15386,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>9898</v>
+        <v>9954</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -16290,30 +16290,30 @@
     <row r="355" ht="13" customHeight="1">
       <c r="B355" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>Sander Havn Turøy</t>
+          <t>Oscar Sørvik Ånderå</t>
         </is>
       </c>
       <c r="D355" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E355" s="15" t="n">
-        <v>7.95</v>
+        <v>56.48</v>
       </c>
       <c r="F355" s="7" t="n">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G355" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H355" s="16" t="n">
-        <v>19.01</v>
+        <v>29.05</v>
       </c>
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="inlineStr">
@@ -16436,7 +16436,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>8918</v>
+        <v>8924</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16476,7 +16476,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18816</v>
+        <v>18878</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16848,7 +16848,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -16857,16 +16857,16 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15493</v>
+        <v>15724</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(2/3d)</t>
+          <t>(3/3d)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -16876,7 +16876,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -16885,16 +16885,16 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>15250</v>
+        <v>15493</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>(3/3d)</t>
+          <t>(2/3d)</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -16937,11 +16937,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>13541</v>
+        <v>13711</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="F190" s="8" t="n">
@@ -24788,7 +24788,7 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Troms</t>
         </is>
       </c>
       <c r="P190" s="8" t="n">
@@ -24804,7 +24804,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -24815,7 +24815,7 @@
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="T191" s="5" t="n"/>
@@ -24939,138 +24939,138 @@
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>11.87</v>
+        <v>7.14</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>638</v>
+        <v>802</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Sortland</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>20.08</v>
+        <v>5.03</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>7.33</v>
+        <v>11.87</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>725</v>
+        <v>638</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sortland</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>12.02</v>
+        <v>20.08</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
     <row r="198" ht="13" customHeight="1">
       <c r="B198" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>22.64</v>
+        <v>10.94</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>788</v>
+        <v>857</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Sortland</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>21.08</v>
+        <v>12.08</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>10.94</v>
+        <v>22.64</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>857</v>
+        <v>788</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Sortland</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>12.08</v>
+        <v>21.08</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>48.92</v>
+        <v>22.45</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
@@ -25078,27 +25078,27 @@
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>27.08</v>
+        <v>28.08</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>22.45</v>
+        <v>48.92</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>809</v>
+        <v>841</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
@@ -25106,603 +25106,605 @@
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>28.08</v>
+        <v>27.08</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
     <row r="200" ht="13" customHeight="1">
       <c r="B200" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E200" s="17" t="inlineStr">
-        <is>
-          <t>1,55,51</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E200" s="15" t="n">
+        <v>52.91</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>782</v>
+        <v>648</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>14.08</v>
+        <v>21.05</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O200" s="15" t="n">
-        <v>52.91</v>
+        <v>2003</v>
+      </c>
+      <c r="O200" s="17" t="inlineStr">
+        <is>
+          <t>1,55,51</t>
+        </is>
       </c>
       <c r="P200" s="7" t="n">
-        <v>648</v>
+        <v>782</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>21.05</v>
+        <v>14.08</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
     <row r="201" ht="13" customHeight="1">
       <c r="B201" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Per-Christian Myrnes Pedersen</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>1986</v>
+        <v>2006</v>
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>4,25,41</t>
+          <t>2,26,47</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>556</v>
+        <v>331</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>20.09</v>
+        <v>24.09</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Per-Christian Myrnes Pedersen</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="O201" s="17" t="inlineStr">
         <is>
-          <t>2,26,47</t>
+          <t>4,25,41</t>
         </is>
       </c>
       <c r="P201" s="7" t="n">
-        <v>331</v>
+        <v>556</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>24.09</v>
+        <v>20.09</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
     <row r="202" ht="13" customHeight="1">
       <c r="B202" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>1986</v>
+        <v>2005</v>
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>9,00,52</t>
+          <t>4,42,31</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>686</v>
+        <v>449</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>18.05</v>
+        <v>22.05</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M202" s="7" t="inlineStr">
         <is>
-          <t>Haakon Alexander Kollerud Johansen</t>
+          <t>Stian Markussen Eilertsen</t>
         </is>
       </c>
       <c r="N202" s="7" t="n">
-        <v>2008</v>
+        <v>1986</v>
       </c>
       <c r="O202" s="17" t="inlineStr">
         <is>
-          <t>4,50,7</t>
+          <t>9,00,52</t>
         </is>
       </c>
       <c r="P202" s="7" t="n">
-        <v>401</v>
+        <v>686</v>
       </c>
       <c r="Q202" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R202" s="16" t="n">
-        <v>21.08</v>
+        <v>18.05</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
     <row r="203" ht="13" customHeight="1">
       <c r="B203" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
-        <v>1986</v>
+        <v>2006</v>
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>15,44,16</t>
+          <t>11,21,07</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>677</v>
+        <v>287</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>24.05</v>
+        <v>1.1</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M203" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Stian Markussen Eilertsen</t>
         </is>
       </c>
       <c r="N203" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O203" s="15" t="n">
-        <v>1.83</v>
+        <v>1986</v>
+      </c>
+      <c r="O203" s="17" t="inlineStr">
+        <is>
+          <t>15,44,16</t>
+        </is>
       </c>
       <c r="P203" s="7" t="n">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q203" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R203" s="16" t="n">
-        <v>13.08</v>
+        <v>24.05</v>
       </c>
       <c r="T203" s="5" t="n"/>
     </row>
     <row r="204" ht="13" customHeight="1">
       <c r="B204" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Erik Fossen Nilsen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E204" s="17" t="inlineStr">
-        <is>
-          <t>33,36,42</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E204" s="15" t="n">
+        <v>1.83</v>
       </c>
       <c r="F204" s="7" t="n">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>26.06</v>
+        <v>13.08</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Erik Fossen Nilsen</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O204" s="15" t="n">
-        <v>4.3</v>
+        <v>1987</v>
+      </c>
+      <c r="O204" s="17" t="inlineStr">
+        <is>
+          <t>33,36,42</t>
+        </is>
       </c>
       <c r="P204" s="7" t="n">
-        <v>777</v>
+        <v>648</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>23.01</v>
+        <v>26.06</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
     <row r="205" ht="13" customHeight="1">
       <c r="B205" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Kristian Sheath</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="E205" s="17" t="inlineStr">
-        <is>
-          <t>1,02,75</t>
-        </is>
+      <c r="E205" s="15" t="n">
+        <v>4.3</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>557</v>
+        <v>777</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>3.09</v>
+        <v>23.01</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M205" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Kristian Sheath</t>
         </is>
       </c>
       <c r="N205" s="7" t="n">
         <v>2005</v>
       </c>
-      <c r="O205" s="15" t="n">
-        <v>6.47</v>
+      <c r="O205" s="17" t="inlineStr">
+        <is>
+          <t>1,02,75</t>
+        </is>
       </c>
       <c r="P205" s="7" t="n">
-        <v>712</v>
+        <v>557</v>
       </c>
       <c r="Q205" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R205" s="16" t="n">
-        <v>21.05</v>
+        <v>3.09</v>
       </c>
       <c r="T205" s="5" t="n"/>
     </row>
     <row r="206" ht="13" customHeight="1">
       <c r="B206" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Mathias Johansen</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>1.57</v>
+        <v>6.47</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>429</v>
+        <v>712</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>10.09</v>
+        <v>21.05</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Mathias Johansen</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O206" s="15" t="n">
-        <v>10.65</v>
+        <v>1.57</v>
       </c>
       <c r="P206" s="7" t="n">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="Q206" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R206" s="16" t="n">
-        <v>4.03</v>
+        <v>10.09</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
     <row r="207" ht="13" customHeight="1">
       <c r="B207" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>5.93</v>
+        <v>10.65</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>590</v>
+        <v>407</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>11.09</v>
+        <v>4.03</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O207" s="15" t="n">
-        <v>1.3</v>
+        <v>5.93</v>
       </c>
       <c r="P207" s="7" t="n">
-        <v>440</v>
+        <v>590</v>
       </c>
       <c r="Q207" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R207" s="16" t="n">
-        <v>22.03</v>
+        <v>11.09</v>
       </c>
       <c r="T207" s="5" t="n"/>
     </row>
     <row r="208" ht="13" customHeight="1">
       <c r="B208" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>Tobias Johansen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D208" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E208" s="15" t="n">
-        <v>12.48</v>
+        <v>3.03</v>
       </c>
       <c r="F208" s="7" t="n">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="G208" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H208" s="16" t="n">
-        <v>10.09</v>
+        <v>22.03</v>
       </c>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M208" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Tobias Johansen</t>
         </is>
       </c>
       <c r="N208" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="O208" s="15" t="n">
-        <v>3.03</v>
+        <v>12.48</v>
       </c>
       <c r="P208" s="7" t="n">
-        <v>688</v>
+        <v>613</v>
       </c>
       <c r="Q208" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R208" s="16" t="n">
-        <v>22.03</v>
+        <v>10.09</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
     <row r="209" ht="13" customHeight="1">
       <c r="B209" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Fredrik Simensen</t>
         </is>
       </c>
       <c r="D209" s="7" t="n">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="E209" s="15" t="n">
-        <v>2.72</v>
+        <v>37.71</v>
       </c>
       <c r="F209" s="7" t="n">
-        <v>515</v>
+        <v>642</v>
       </c>
       <c r="G209" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H209" s="16" t="n">
-        <v>12.02</v>
+        <v>30.09</v>
       </c>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M209" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N209" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O209" s="15" t="n">
-        <v>33.66</v>
+        <v>2.72</v>
       </c>
       <c r="P209" s="7" t="n">
-        <v>390</v>
+        <v>515</v>
       </c>
       <c r="Q209" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R209" s="16" t="n">
-        <v>24.09</v>
+        <v>12.02</v>
       </c>
       <c r="T209" s="5" t="n"/>
     </row>
@@ -25739,7 +25741,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>8320</v>
+        <v>8087</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -25756,7 +25758,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>7863</v>
+        <v>8320</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -25864,25 +25866,25 @@
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E216" s="15" t="n">
-        <v>23.6</v>
+        <v>23.01</v>
       </c>
       <c r="F216" s="7" t="n">
-        <v>687</v>
+        <v>747</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>6.03</v>
+        <v>13.02</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
@@ -25892,525 +25894,525 @@
       </c>
       <c r="M216" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N216" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O216" s="15" t="n">
-        <v>23.01</v>
+        <v>23.6</v>
       </c>
       <c r="P216" s="7" t="n">
-        <v>747</v>
+        <v>687</v>
       </c>
       <c r="Q216" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R216" s="16" t="n">
-        <v>13.02</v>
+        <v>6.03</v>
       </c>
       <c r="T216" s="5" t="n"/>
     </row>
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Erik Fossen Nilsen</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E217" s="17" t="inlineStr">
-        <is>
-          <t>15,48,92</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E217" s="15" t="n">
+        <v>7.33</v>
       </c>
       <c r="F217" s="7" t="n">
-        <v>668</v>
+        <v>725</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>30.06</v>
+        <v>12.02</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Erik Fossen Nilsen</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O217" s="15" t="n">
-        <v>23.37</v>
+        <v>1987</v>
+      </c>
+      <c r="O217" s="17" t="inlineStr">
+        <is>
+          <t>15,48,92</t>
+        </is>
       </c>
       <c r="P217" s="7" t="n">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>14.08</v>
+        <v>30.06</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Per-Christian Myrnes Pedersen</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E218" s="17" t="inlineStr">
-        <is>
-          <t>15,52,67</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E218" s="15" t="n">
+        <v>23.37</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>660</v>
+        <v>710</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>13.07</v>
+        <v>14.08</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Per-Christian Myrnes Pedersen</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O218" s="15" t="n">
-        <v>11.64</v>
+        <v>1986</v>
+      </c>
+      <c r="O218" s="17" t="inlineStr">
+        <is>
+          <t>15,52,67</t>
+        </is>
       </c>
       <c r="P218" s="7" t="n">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>12.08</v>
+        <v>13.07</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Per-Christian Myrnes Pedersen</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E219" s="17" t="inlineStr">
-        <is>
-          <t>9,08,98</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E219" s="15" t="n">
+        <v>11.64</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>11.09</v>
+        <v>12.08</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Per-Christian Myrnes Pedersen</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O219" s="15" t="n">
-        <v>11.91</v>
+        <v>1986</v>
+      </c>
+      <c r="O219" s="17" t="inlineStr">
+        <is>
+          <t>9,08,98</t>
+        </is>
       </c>
       <c r="P219" s="7" t="n">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Seinäjoki/FIN</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>11.06</v>
+        <v>11.09</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Birk Arvola</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E220" s="15" t="n">
-        <v>53.13</v>
+        <v>6.21</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Sortland</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>20.08</v>
+        <v>12.02</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Siver Olavsbråten Ebbestad</t>
+          <t>Birk Arvola</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>3.54</v>
+        <v>53.13</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sortland</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>18.06</v>
+        <v>20.08</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Erik Fossen Nilsen</t>
+          <t>Siver Olavsbråten Ebbestad</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>1987</v>
-      </c>
-      <c r="E221" s="17" t="inlineStr">
-        <is>
-          <t>9,17,89</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E221" s="15" t="n">
+        <v>3.54</v>
       </c>
       <c r="F221" s="7" t="n">
         <v>623</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>11.06</v>
+        <v>18.06</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Erik Fossen Nilsen</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O221" s="15" t="n">
-        <v>11.96</v>
+        <v>1987</v>
+      </c>
+      <c r="O221" s="17" t="inlineStr">
+        <is>
+          <t>9,17,89</t>
+        </is>
       </c>
       <c r="P221" s="7" t="n">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>16.05</v>
+        <v>11.06</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E222" s="15" t="n">
-        <v>53.72</v>
+        <v>11.96</v>
       </c>
       <c r="F222" s="7" t="n">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>7.06</v>
+        <v>16.05</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>11.99</v>
+        <v>53.72</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>12.08</v>
+        <v>7.06</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E223" s="17" t="inlineStr">
-        <is>
-          <t>2,04,45</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E223" s="15" t="n">
+        <v>11.99</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>12.06</v>
+        <v>12.08</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Stian Markussen Eilertsen</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O223" s="15" t="n">
-        <v>7.65</v>
+        <v>1986</v>
+      </c>
+      <c r="O223" s="17" t="inlineStr">
+        <is>
+          <t>2,04,45</t>
+        </is>
       </c>
       <c r="P223" s="7" t="n">
         <v>607</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>13.03</v>
+        <v>12.06</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>5.87</v>
+        <v>7.65</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>24.05</v>
+        <v>13.03</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>54.01</v>
+        <v>5.87</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>11.09</v>
+        <v>24.05</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Kristian Sheath</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>5.64</v>
+        <v>54.01</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
@@ -26424,83 +26426,83 @@
       </c>
       <c r="M225" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Kristian Sheath</t>
         </is>
       </c>
       <c r="N225" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O225" s="15" t="n">
-        <v>5.7</v>
+        <v>5.64</v>
       </c>
       <c r="P225" s="7" t="n">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="Q225" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R225" s="16" t="n">
-        <v>16.05</v>
+        <v>11.09</v>
       </c>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Oskar Stattin</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>11.56</v>
+        <v>5.7</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>4.03</v>
+        <v>16.05</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M226" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N226" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="O226" s="15" t="n">
-        <v>1.65</v>
+        <v>11.56</v>
       </c>
       <c r="P226" s="7" t="n">
         <v>511</v>
       </c>
       <c r="Q226" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R226" s="16" t="n">
-        <v>7.05</v>
+        <v>4.03</v>
       </c>
       <c r="T226" s="5" t="n"/>
     </row>
@@ -26512,53 +26514,53 @@
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Leif-Andreas Borgersen</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>4.06</v>
+        <v>7.05</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M227" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Leif-Andreas Borgersen</t>
         </is>
       </c>
       <c r="N227" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O227" s="15" t="n">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="P227" s="7" t="n">
-        <v>500</v>
+        <v>408</v>
       </c>
       <c r="Q227" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="R227" s="16" t="n">
-        <v>22.05</v>
+        <v>4.06</v>
       </c>
       <c r="T227" s="5" t="n"/>
     </row>
@@ -26595,7 +26597,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>7173</v>
+        <v>7637</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26612,7 +26614,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>7387</v>
+        <v>7173</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -26635,7 +26637,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15493</v>
+        <v>15724</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26652,7 +26654,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>15250</v>
+        <v>15493</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -27046,11 +27048,11 @@
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>11.09</v>
+        <v>21.09</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -27877,30 +27879,30 @@
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="O264" s="15" t="n">
-        <v>28.92</v>
+        <v>7.94</v>
       </c>
       <c r="P264" s="7" t="n">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>21.06</v>
+        <v>21.09</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
@@ -27937,30 +27939,30 @@
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Morten Solheim</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="O265" s="15" t="n">
-        <v>12.83</v>
+        <v>28.92</v>
       </c>
       <c r="P265" s="7" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>24.08</v>
+        <v>21.06</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
@@ -27997,32 +27999,30 @@
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Christer Sælen</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
-        <v>1981</v>
-      </c>
-      <c r="O266" s="17" t="inlineStr">
-        <is>
-          <t>18,24,97</t>
-        </is>
+        <v>1976</v>
+      </c>
+      <c r="O266" s="15" t="n">
+        <v>12.83</v>
       </c>
       <c r="P266" s="7" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>15.08</v>
+        <v>24.08</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
@@ -28059,22 +28059,24 @@
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Oddvin Årdalsbakke</t>
+          <t>Christer Sælen</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>1962</v>
-      </c>
-      <c r="O267" s="15" t="n">
-        <v>1.27</v>
+        <v>1981</v>
+      </c>
+      <c r="O267" s="17" t="inlineStr">
+        <is>
+          <t>18,24,97</t>
+        </is>
       </c>
       <c r="P267" s="7" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
@@ -28082,7 +28084,7 @@
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>14.03</v>
+        <v>15.08</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -28119,32 +28121,30 @@
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Nils Tore Sæterdal</t>
+          <t>Oddvin Årdalsbakke</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>1967</v>
-      </c>
-      <c r="O268" s="17" t="inlineStr">
-        <is>
-          <t>10,40,22</t>
-        </is>
+        <v>1962</v>
+      </c>
+      <c r="O268" s="15" t="n">
+        <v>1.27</v>
       </c>
       <c r="P268" s="7" t="n">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>22.08</v>
+        <v>14.03</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
@@ -28181,30 +28181,32 @@
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Oddvin Årdalsbakke</t>
+          <t>Nils Tore Sæterdal</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>1962</v>
-      </c>
-      <c r="O269" s="15" t="n">
-        <v>2.51</v>
+        <v>1967</v>
+      </c>
+      <c r="O269" s="17" t="inlineStr">
+        <is>
+          <t>10,40,22</t>
+        </is>
       </c>
       <c r="P269" s="7" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>14.03</v>
+        <v>22.08</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -28299,32 +28301,30 @@
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Espen Irgens Haugen</t>
+          <t>Oddvin Årdalsbakke</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>1985</v>
-      </c>
-      <c r="O271" s="17" t="inlineStr">
-        <is>
-          <t>10,43,35</t>
-        </is>
+        <v>1962</v>
+      </c>
+      <c r="O271" s="15" t="n">
+        <v>2.51</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>22.08</v>
+        <v>14.03</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -28339,32 +28339,32 @@
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Nils Tore Sæterdal</t>
+          <t>Espen Irgens Haugen</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>1967</v>
+        <v>1985</v>
       </c>
       <c r="O272" s="17" t="inlineStr">
         <is>
-          <t>4,56,18</t>
+          <t>10,43,35</t>
         </is>
       </c>
       <c r="P272" s="7" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>15.08</v>
+        <v>22.08</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -28379,24 +28379,24 @@
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Christer Sælen</t>
+          <t>Nils Tore Sæterdal</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>1981</v>
+        <v>1967</v>
       </c>
       <c r="O273" s="17" t="inlineStr">
         <is>
-          <t>2,24,12</t>
+          <t>4,56,18</t>
         </is>
       </c>
       <c r="P273" s="7" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>6.07</v>
+        <v>15.08</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -28419,32 +28419,32 @@
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Lars Olav Brattabø</t>
+          <t>Christer Sælen</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="O274" s="17" t="inlineStr">
         <is>
-          <t>10,55,67</t>
+          <t>2,24,12</t>
         </is>
       </c>
       <c r="P274" s="7" t="n">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>2.06</v>
+        <v>6.07</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -28498,7 +28498,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>4869</v>
+        <v>5039</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -28538,7 +28538,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>13541</v>
+        <v>13711</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -28562,7 +28562,7 @@
         </is>
       </c>
       <c r="M280" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
@@ -30658,7 +30658,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23266</v>
+        <v>23320</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -30850,11 +30850,11 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(28/13)</t>
+          <t>(29/14)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>18409</v>
+        <v>18836</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -33023,11 +33023,11 @@
       </c>
       <c r="M43" s="7" t="inlineStr">
         <is>
-          <t>Andrea Igeltjørn Lyngholm</t>
+          <t>Eline Soma</t>
         </is>
       </c>
       <c r="N43" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O43" s="15" t="n">
         <v>1.55</v>
@@ -33041,7 +33041,7 @@
         </is>
       </c>
       <c r="R43" s="16" t="n">
-        <v>27.02</v>
+        <v>25.08</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -33081,11 +33081,11 @@
       </c>
       <c r="M44" s="7" t="inlineStr">
         <is>
-          <t>Eline Soma</t>
+          <t>Andrea Igeltjørn Lyngholm</t>
         </is>
       </c>
       <c r="N44" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O44" s="15" t="n">
         <v>1.55</v>
@@ -33099,7 +33099,7 @@
         </is>
       </c>
       <c r="R44" s="16" t="n">
-        <v>25.08</v>
+        <v>27.02</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -34542,30 +34542,30 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Martine Hjørnevik</t>
+          <t>Helene Ramslien</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>12.38</v>
+        <v>45.9</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>7.08</v>
+        <v>18.09</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -34600,30 +34600,30 @@
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Helene Ramslien</t>
+          <t>Martine Hjørnevik</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>44.05</v>
+        <v>12.38</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Gloppen</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>11.09</v>
+        <v>7.08</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -35130,32 +35130,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Tunes Lund</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O93" s="17" t="inlineStr">
-        <is>
-          <t>2,19,99</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O93" s="15" t="n">
+        <v>2.58</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>4.06</v>
+        <v>28.09</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -35190,30 +35188,32 @@
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Nathalie Svanevik Hølleland</t>
+          <t>Alexandra Tunes Lund</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O94" s="15" t="n">
-        <v>26.83</v>
+      <c r="O94" s="17" t="inlineStr">
+        <is>
+          <t>2,19,99</t>
+        </is>
       </c>
       <c r="P94" s="7" t="n">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>6.03</v>
+        <v>4.06</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -35248,30 +35248,30 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Stina Leivestad Morvik</t>
+          <t>Nathalie Svanevik Hølleland</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>38.11</v>
+        <v>26.83</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>26.03</v>
+        <v>6.03</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -35311,25 +35311,25 @@
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Ida Ramslien</t>
+          <t>Stina Leivestad Morvik</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>37.56</v>
+        <v>38.17</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>12.07</v>
+        <v>18.09</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -35383,7 +35383,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>10717</v>
+        <v>10771</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -35423,7 +35423,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23266</v>
+        <v>23320</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -39695,11 +39695,11 @@
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>28.05</v>
+        <v>11.09</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -40773,25 +40773,25 @@
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>Maria Døske</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="D228" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E228" s="15" t="n">
-        <v>11.59</v>
+        <v>11.58</v>
       </c>
       <c r="F228" s="7" t="n">
         <v>691</v>
       </c>
       <c r="G228" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H228" s="16" t="n">
-        <v>26.08</v>
+        <v>5.02</v>
       </c>
       <c r="J228" s="5" t="n"/>
       <c r="L228" s="14" t="inlineStr">
@@ -41455,25 +41455,25 @@
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="D243" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E243" s="15" t="n">
-        <v>11.58</v>
+        <v>11.59</v>
       </c>
       <c r="F243" s="7" t="n">
         <v>691</v>
       </c>
       <c r="G243" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H243" s="16" t="n">
-        <v>5.02</v>
+        <v>26.08</v>
       </c>
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
@@ -41746,32 +41746,30 @@
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Nora Jakobsen</t>
+          <t>Emilie Høyland Schou</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E248" s="17" t="inlineStr">
-        <is>
-          <t>1,01,79</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E248" s="15" t="n">
+        <v>13.28</v>
       </c>
       <c r="F248" s="7" t="n">
         <v>624</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>15.05</v>
+        <v>19.06</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -41806,30 +41804,32 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Emilie Høyland Schou</t>
+          <t>Nora Jakobsen</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E249" s="15" t="n">
-        <v>13.28</v>
+        <v>2007</v>
+      </c>
+      <c r="E249" s="17" t="inlineStr">
+        <is>
+          <t>1,01,79</t>
+        </is>
       </c>
       <c r="F249" s="7" t="n">
         <v>624</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>19.06</v>
+        <v>15.05</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -42832,30 +42832,30 @@
     <row r="277" ht="13" customHeight="1">
       <c r="B277" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C277" s="7" t="inlineStr">
         <is>
-          <t>Thale Leirfall Bremset</t>
+          <t>Carmen Nilsson Rismark</t>
         </is>
       </c>
       <c r="D277" s="7" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E277" s="15" t="n">
-        <v>6.13</v>
+        <v>2</v>
       </c>
       <c r="F277" s="7" t="n">
-        <v>871</v>
+        <v>427</v>
       </c>
       <c r="G277" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H277" s="16" t="n">
-        <v>6.02</v>
+        <v>30.09</v>
       </c>
       <c r="J277" s="5" t="n"/>
       <c r="L277" s="14" t="inlineStr">
@@ -42890,30 +42890,30 @@
     <row r="278" ht="13" customHeight="1">
       <c r="B278" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C278" s="7" t="inlineStr">
         <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
+          <t>Thale Leirfall Bremset</t>
         </is>
       </c>
       <c r="D278" s="7" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="E278" s="15" t="n">
-        <v>11.48</v>
+        <v>6.13</v>
       </c>
       <c r="F278" s="7" t="n">
-        <v>685</v>
+        <v>871</v>
       </c>
       <c r="G278" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H278" s="16" t="n">
-        <v>22.09</v>
+        <v>6.02</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="14" t="inlineStr">
@@ -42948,22 +42948,22 @@
     <row r="279" ht="13" customHeight="1">
       <c r="B279" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>Helle M. Aspaas</t>
+          <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
       <c r="D279" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E279" s="15" t="n">
-        <v>39</v>
+        <v>11.48</v>
       </c>
       <c r="F279" s="7" t="n">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="G279" s="7" t="inlineStr">
         <is>
@@ -42971,7 +42971,7 @@
         </is>
       </c>
       <c r="H279" s="16" t="n">
-        <v>26.06</v>
+        <v>22.09</v>
       </c>
       <c r="J279" s="5" t="n"/>
       <c r="L279" s="14" t="inlineStr">
@@ -43006,22 +43006,22 @@
     <row r="280" ht="13" customHeight="1">
       <c r="B280" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
+          <t>Helle M. Aspaas</t>
         </is>
       </c>
       <c r="D280" s="7" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E280" s="15" t="n">
-        <v>36.64</v>
+        <v>39</v>
       </c>
       <c r="F280" s="7" t="n">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="G280" s="7" t="inlineStr">
         <is>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="H280" s="16" t="n">
-        <v>22.09</v>
+        <v>26.06</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="14" t="inlineStr">
@@ -43064,22 +43064,22 @@
     <row r="281" ht="13" customHeight="1">
       <c r="B281" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>Maria Børstad Jensen</t>
+          <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
       <c r="D281" s="7" t="n">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="E281" s="15" t="n">
-        <v>51.64</v>
+        <v>36.64</v>
       </c>
       <c r="F281" s="7" t="n">
-        <v>880</v>
+        <v>638</v>
       </c>
       <c r="G281" s="7" t="inlineStr">
         <is>
@@ -43087,7 +43087,7 @@
         </is>
       </c>
       <c r="H281" s="16" t="n">
-        <v>29.05</v>
+        <v>22.09</v>
       </c>
       <c r="J281" s="5" t="n"/>
       <c r="L281" s="14" t="inlineStr">
@@ -43120,13 +43120,33 @@
       <c r="T281" s="5" t="n"/>
     </row>
     <row r="282" ht="13" customHeight="1">
-      <c r="B282" s="14" t="n"/>
-      <c r="C282" s="7" t="n"/>
-      <c r="D282" s="7" t="n"/>
-      <c r="E282" s="7" t="n"/>
-      <c r="F282" s="7" t="n"/>
-      <c r="G282" s="7" t="n"/>
-      <c r="H282" s="21" t="n"/>
+      <c r="B282" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C282" s="7" t="inlineStr">
+        <is>
+          <t>Maria Børstad Jensen</t>
+        </is>
+      </c>
+      <c r="D282" s="7" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E282" s="15" t="n">
+        <v>51.64</v>
+      </c>
+      <c r="F282" s="7" t="n">
+        <v>880</v>
+      </c>
+      <c r="G282" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H282" s="16" t="n">
+        <v>29.05</v>
+      </c>
       <c r="J282" s="5" t="n"/>
       <c r="L282" s="14" t="inlineStr">
         <is>
@@ -43220,7 +43240,7 @@
         </is>
       </c>
       <c r="C285" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E285" s="19" t="inlineStr">
         <is>
@@ -43228,7 +43248,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>9430</v>
+        <v>9857</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -44282,7 +44302,7 @@
         </is>
       </c>
       <c r="C308" s="20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E308" s="19" t="inlineStr">
         <is>
@@ -44290,7 +44310,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>18409</v>
+        <v>18836</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -44322,7 +44342,7 @@
         </is>
       </c>
       <c r="C310" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="19" t="inlineStr">
@@ -46689,7 +46709,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>16452</v>
+        <v>16497</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -50303,32 +50323,32 @@
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Eva Pasini Friestad</t>
+          <t>Linn Andrea Lindevik</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O79" s="17" t="inlineStr">
         <is>
-          <t>10,35,26</t>
+          <t>4,51,59</t>
         </is>
       </c>
       <c r="P79" s="7" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>28.08</v>
+        <v>10.09</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
@@ -50365,32 +50385,32 @@
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Linnea Holsen Meier</t>
+          <t>Eva Pasini Friestad</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="O80" s="17" t="inlineStr">
         <is>
-          <t>2,21,80</t>
+          <t>10,35,26</t>
         </is>
       </c>
       <c r="P80" s="7" t="n">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>7.05</v>
+        <v>28.08</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -50432,27 +50452,27 @@
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Marie Kristine Malmgren</t>
+          <t>Linnea Holsen Meier</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="O81" s="17" t="inlineStr">
         <is>
-          <t>2,22,24</t>
+          <t>2,21,80</t>
         </is>
       </c>
       <c r="P81" s="7" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R81" s="16" t="n">
-        <v>17.02</v>
+        <v>7.05</v>
       </c>
       <c r="T81" s="5" t="n"/>
     </row>
@@ -50487,30 +50507,32 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Tina Helen Bergem</t>
+          <t>Marie Kristine Malmgren</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="O82" s="15" t="n">
-        <v>8.34</v>
+        <v>1995</v>
+      </c>
+      <c r="O82" s="17" t="inlineStr">
+        <is>
+          <t>2,22,24</t>
+        </is>
       </c>
       <c r="P82" s="7" t="n">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>29.01</v>
+        <v>17.02</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -50522,11 +50544,11 @@
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Kaia Morland</t>
+          <t>Charlotte Celine Thorjussen</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="15" t="n">
         <v>27.52</v>
@@ -50540,35 +50562,35 @@
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>17.02</v>
+        <v>31.05</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Tina Helen Bergem</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>5.07</v>
+        <v>8.34</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>15.05</v>
+        <v>29.01</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -50608,17 +50630,17 @@
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>5.01</v>
+        <v>5.07</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
@@ -50626,7 +50648,7 @@
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>13.03</v>
+        <v>15.05</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -50661,30 +50683,30 @@
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Angelina Min</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>10.56</v>
+        <v>5.01</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>13.02</v>
+        <v>13.03</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -50719,32 +50741,30 @@
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Linn Andrea Lindevik</t>
+          <t>Angelina Min</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
         <v>2004</v>
       </c>
-      <c r="O86" s="17" t="inlineStr">
-        <is>
-          <t>4,59,98</t>
-        </is>
+      <c r="O86" s="15" t="n">
+        <v>10.56</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>18.08</v>
+        <v>13.02</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -50798,7 +50818,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>7860</v>
+        <v>7905</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -50838,7 +50858,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>16452</v>
+        <v>16497</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -60041,32 +60061,30 @@
     <row r="317" ht="13" customHeight="1">
       <c r="B317" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>Margrethe Lauritzen</t>
+          <t>Carina Brunsæl</t>
         </is>
       </c>
       <c r="D317" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E317" s="17" t="inlineStr">
-        <is>
-          <t>1,03,80</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E317" s="15" t="n">
+        <v>8.6</v>
       </c>
       <c r="F317" s="7" t="n">
         <v>568</v>
       </c>
       <c r="G317" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H317" s="16" t="n">
-        <v>13.07</v>
+        <v>5.03</v>
       </c>
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>24463</v>
+        <v>24486</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -707,25 +707,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IL Tyrving</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(30/18)</t>
+          <t>(29/17)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>23295</v>
+        <v>23298</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -735,25 +735,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL Tyrving</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(29/17)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>23289</v>
+        <v>23295</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -4054,30 +4054,30 @@
     <row r="71" ht="13" customHeight="1">
       <c r="B71" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Oscar Ellingsen</t>
+          <t>Gjert Høie Sjursen</t>
         </is>
       </c>
       <c r="D71" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E71" s="15" t="n">
-        <v>1.87</v>
+        <v>4.1</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H71" s="16" t="n">
-        <v>12.08</v>
+        <v>23.01</v>
       </c>
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
@@ -4112,7 +4112,7 @@
     <row r="72" ht="13" customHeight="1">
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
@@ -4124,18 +4124,18 @@
         <v>2000</v>
       </c>
       <c r="E72" s="15" t="n">
-        <v>4.1</v>
+        <v>7.07</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>740</v>
+        <v>842</v>
       </c>
       <c r="G72" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H72" s="16" t="n">
-        <v>23.01</v>
+        <v>29.01</v>
       </c>
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
@@ -4170,30 +4170,30 @@
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Gjert Høie Sjursen</t>
+          <t>Ilunga Josue Kongolo</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>7.07</v>
+        <v>3.16</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>842</v>
+        <v>760</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>29.01</v>
+        <v>6.02</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
@@ -4228,30 +4228,30 @@
     <row r="74" ht="13" customHeight="1">
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>Ilunga Josue Kongolo</t>
+          <t>Gjert Høie Sjursen</t>
         </is>
       </c>
       <c r="D74" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>3.16</v>
+        <v>41.97</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="H74" s="16" t="n">
-        <v>6.02</v>
+        <v>18.09</v>
       </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12649</v>
+        <v>12656</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -5026,30 +5026,30 @@
     <row r="91" ht="13" customHeight="1">
       <c r="B91" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>Ilunga Josue Kongolo</t>
+          <t>Herman Ellingsen</t>
         </is>
       </c>
       <c r="D91" s="7" t="n">
         <v>2002</v>
       </c>
       <c r="E91" s="15" t="n">
-        <v>22.51</v>
+        <v>7.14</v>
       </c>
       <c r="F91" s="7" t="n">
         <v>802</v>
       </c>
       <c r="G91" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H91" s="16" t="n">
-        <v>11.05</v>
+        <v>30.01</v>
       </c>
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
@@ -5084,30 +5084,30 @@
     <row r="92" ht="13" customHeight="1">
       <c r="B92" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C92" s="7" t="inlineStr">
         <is>
-          <t>Gjert Høie Sjursen</t>
+          <t>Oscar Ellingsen</t>
         </is>
       </c>
       <c r="D92" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E92" s="15" t="n">
-        <v>40.67</v>
+        <v>1.87</v>
       </c>
       <c r="F92" s="7" t="n">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="G92" s="7" t="inlineStr">
         <is>
-          <t>Seinäjoki/FIN</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H92" s="16" t="n">
-        <v>12.06</v>
+        <v>12.08</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>11814</v>
+        <v>11830</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -5444,7 +5444,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>24463</v>
+        <v>24486</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F106" s="8" t="n">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="P106" s="8" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>IL Tyrving</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="J107" s="5" t="n"/>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL Tyrving</t>
         </is>
       </c>
       <c r="T107" s="5" t="n"/>
@@ -5697,25 +5697,25 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Peter Svoren</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>7.15</v>
+        <v>6.75</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>797</v>
+        <v>984</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>12.02</v>
+        <v>5.02</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -5725,25 +5725,25 @@
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Peter Svoren</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>6.75</v>
+        <v>7.15</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>984</v>
+        <v>797</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>5.02</v>
+        <v>12.02</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
@@ -5755,17 +5755,17 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Einar Johannes Rye</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>10.85</v>
+        <v>10.51</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>881</v>
+        <v>974</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
@@ -5783,17 +5783,17 @@
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Einar Johannes Rye</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>10.51</v>
+        <v>10.85</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>974</v>
+        <v>881</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
@@ -5813,25 +5813,25 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Peter Svoren</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>22.16</v>
+        <v>21.64</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>842</v>
+        <v>903</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>13.02</v>
+        <v>5.08</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -5841,25 +5841,25 @@
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Peter Svoren</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>21.64</v>
+        <v>22.16</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>903</v>
+        <v>842</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>5.08</v>
+        <v>13.02</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -5871,25 +5871,25 @@
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Kristian Drabløs</t>
+          <t>Muhammed Dodou Jatta</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="E116" s="15" t="n">
-        <v>49.8</v>
+        <v>50.14</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="G116" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H116" s="16" t="n">
-        <v>28.05</v>
+        <v>12.02</v>
       </c>
       <c r="J116" s="5" t="n"/>
       <c r="L116" s="14" t="inlineStr">
@@ -5899,25 +5899,25 @@
       </c>
       <c r="M116" s="7" t="inlineStr">
         <is>
-          <t>Muhammed Dodou Jatta</t>
+          <t>Kristian Drabløs</t>
         </is>
       </c>
       <c r="N116" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="O116" s="15" t="n">
-        <v>50.14</v>
+        <v>49.8</v>
       </c>
       <c r="P116" s="7" t="n">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="Q116" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R116" s="16" t="n">
-        <v>12.02</v>
+        <v>28.05</v>
       </c>
       <c r="T116" s="5" t="n"/>
     </row>
@@ -5929,27 +5929,27 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Lewis Kjemhus</t>
+          <t>Seumas Duncan Mackay</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E117" s="17" t="inlineStr">
         <is>
-          <t>1,59,84</t>
+          <t>1,49,74</t>
         </is>
       </c>
       <c r="F117" s="7" t="n">
-        <v>690</v>
+        <v>924</v>
       </c>
       <c r="G117" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>27.08</v>
+        <v>30.06</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="inlineStr">
@@ -5959,27 +5959,27 @@
       </c>
       <c r="M117" s="7" t="inlineStr">
         <is>
-          <t>Seumas Duncan Mackay</t>
+          <t>Lewis Kjemhus</t>
         </is>
       </c>
       <c r="N117" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="O117" s="17" t="inlineStr">
         <is>
-          <t>1,49,74</t>
+          <t>1,59,84</t>
         </is>
       </c>
       <c r="P117" s="7" t="n">
-        <v>924</v>
+        <v>690</v>
       </c>
       <c r="Q117" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R117" s="16" t="n">
-        <v>30.06</v>
+        <v>27.08</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -5991,27 +5991,27 @@
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Brage Buseth Hammerstad</t>
+          <t>Phillip Morken</t>
         </is>
       </c>
       <c r="D118" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E118" s="17" t="inlineStr">
         <is>
-          <t>4,10,47</t>
+          <t>4,03,86</t>
         </is>
       </c>
       <c r="F118" s="7" t="n">
-        <v>667</v>
+        <v>725</v>
       </c>
       <c r="G118" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="H118" s="16" t="n">
-        <v>2.06</v>
+        <v>18.09</v>
       </c>
       <c r="J118" s="5" t="n"/>
       <c r="L118" s="14" t="inlineStr">
@@ -6021,27 +6021,27 @@
       </c>
       <c r="M118" s="7" t="inlineStr">
         <is>
-          <t>Phillip Morken</t>
+          <t>Brage Buseth Hammerstad</t>
         </is>
       </c>
       <c r="N118" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="O118" s="17" t="inlineStr">
         <is>
-          <t>4,04,77</t>
+          <t>4,10,47</t>
         </is>
       </c>
       <c r="P118" s="7" t="n">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="Q118" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R118" s="16" t="n">
-        <v>4.03</v>
+        <v>2.06</v>
       </c>
       <c r="T118" s="5" t="n"/>
     </row>
@@ -6053,27 +6053,27 @@
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>Brage Buseth Hammerstad</t>
+          <t>Leander Warncke-Wang</t>
         </is>
       </c>
       <c r="D119" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E119" s="17" t="inlineStr">
         <is>
-          <t>8,55,05</t>
+          <t>9,22,3</t>
         </is>
       </c>
       <c r="F119" s="7" t="n">
-        <v>707</v>
+        <v>608</v>
       </c>
       <c r="G119" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H119" s="16" t="n">
-        <v>10.06</v>
+        <v>4.08</v>
       </c>
       <c r="J119" s="5" t="n"/>
       <c r="L119" s="14" t="inlineStr">
@@ -6083,474 +6083,474 @@
       </c>
       <c r="M119" s="7" t="inlineStr">
         <is>
-          <t>Leander Warncke-Wang</t>
+          <t>Brage Buseth Hammerstad</t>
         </is>
       </c>
       <c r="N119" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O119" s="17" t="inlineStr">
         <is>
-          <t>9,22,3</t>
+          <t>8,55,05</t>
         </is>
       </c>
       <c r="P119" s="7" t="n">
-        <v>608</v>
+        <v>707</v>
       </c>
       <c r="Q119" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R119" s="16" t="n">
-        <v>4.08</v>
+        <v>10.06</v>
       </c>
       <c r="T119" s="5" t="n"/>
     </row>
     <row r="120" ht="13" customHeight="1">
       <c r="B120" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>Trond Steinar Gjønnes</t>
+          <t>Thomas Krohn-Hansen</t>
         </is>
       </c>
       <c r="D120" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E120" s="17" t="inlineStr">
-        <is>
-          <t>15,46,83</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E120" s="15" t="n">
+        <v>1.45</v>
       </c>
       <c r="F120" s="7" t="n">
-        <v>672</v>
+        <v>295</v>
       </c>
       <c r="G120" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H120" s="16" t="n">
-        <v>30.06</v>
+        <v>13.02</v>
       </c>
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M120" s="7" t="inlineStr">
         <is>
-          <t>Thomas Krohn-Hansen</t>
+          <t>Trond Steinar Gjønnes</t>
         </is>
       </c>
       <c r="N120" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O120" s="15" t="n">
-        <v>1.45</v>
+        <v>1994</v>
+      </c>
+      <c r="O120" s="17" t="inlineStr">
+        <is>
+          <t>15,46,83</t>
+        </is>
       </c>
       <c r="P120" s="7" t="n">
-        <v>295</v>
+        <v>672</v>
       </c>
       <c r="Q120" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R120" s="16" t="n">
-        <v>13.02</v>
+        <v>30.06</v>
       </c>
       <c r="T120" s="5" t="n"/>
     </row>
     <row r="121" ht="13" customHeight="1">
       <c r="B121" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Clementsen</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="D121" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E121" s="15" t="n">
-        <v>55.32</v>
+        <v>6.92</v>
       </c>
       <c r="F121" s="7" t="n">
-        <v>764</v>
+        <v>810</v>
       </c>
       <c r="G121" s="7" t="inlineStr">
         <is>
-          <t>Castelló/ESP</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H121" s="16" t="n">
-        <v>17.09</v>
+        <v>26.08</v>
       </c>
       <c r="J121" s="5" t="n"/>
       <c r="L121" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M121" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Sigurd Clementsen</t>
         </is>
       </c>
       <c r="N121" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O121" s="15" t="n">
-        <v>6.92</v>
+        <v>55.32</v>
       </c>
       <c r="P121" s="7" t="n">
-        <v>810</v>
+        <v>764</v>
       </c>
       <c r="Q121" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Castelló/ESP</t>
         </is>
       </c>
       <c r="R121" s="16" t="n">
-        <v>26.08</v>
+        <v>17.09</v>
       </c>
       <c r="T121" s="5" t="n"/>
     </row>
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Torgrim Frøystein</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E122" s="15" t="n">
-        <v>1.88</v>
+        <v>15.47</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>722</v>
+        <v>925</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>4.06</v>
+        <v>17.07</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Torgrim Frøystein</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="O122" s="15" t="n">
-        <v>15.47</v>
+        <v>1.88</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>925</v>
+        <v>722</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>17.07</v>
+        <v>4.06</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Johannes Strømhaug</t>
+          <t>Anders Vik</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>5.02</v>
+        <v>3.04</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>912</v>
+        <v>694</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>New Haven/CT/USA</t>
+          <t>Sandane</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>8.050000000000001</v>
+        <v>25.01</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Anders Vik</t>
+          <t>Johannes Strømhaug</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>3.04</v>
+        <v>5.02</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>694</v>
+        <v>912</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Sandane</t>
+          <t>New Haven/CT/USA</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>25.01</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Simen Gimnes</t>
+          <t>Marcus Thomsen</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>6.68</v>
+        <v>20.89</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>758</v>
+        <v>1106</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Kladno/CZE</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>26.08</v>
+        <v>14.06</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Marcus Thomsen</t>
+          <t>Simen Gimnes</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>20.89</v>
+        <v>6.68</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>1106</v>
+        <v>758</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Kladno/CZE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>14.06</v>
+        <v>26.08</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Simen Gimnes</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>13.86</v>
+        <v>64.28</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>761</v>
+        <v>1070</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>4.03</v>
+        <v>22.05</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Simen Gimnes</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>64.28</v>
+        <v>13.86</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>1070</v>
+        <v>761</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>22.05</v>
+        <v>4.03</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Sondre Alexander Høyland</t>
+          <t>Jon Nerdal</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>2.98</v>
+        <v>67.75</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>661</v>
+        <v>973</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Baton Rouge/LA/USA</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>12.02</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Jon Nerdal</t>
+          <t>Sondre Alexander Høyland</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>67.75</v>
+        <v>2.98</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>973</v>
+        <v>661</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Baton Rouge/LA/USA</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>9.039999999999999</v>
+        <v>12.02</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
-      <c r="B127" s="14" t="inlineStr">
+      <c r="B127" s="14" t="n"/>
+      <c r="C127" s="7" t="n"/>
+      <c r="D127" s="7" t="n"/>
+      <c r="E127" s="7" t="n"/>
+      <c r="F127" s="7" t="n"/>
+      <c r="G127" s="7" t="n"/>
+      <c r="H127" s="21" t="n"/>
+      <c r="J127" s="5" t="n"/>
+      <c r="L127" s="14" t="inlineStr">
         <is>
           <t>Spyd</t>
         </is>
       </c>
-      <c r="C127" s="7" t="inlineStr">
+      <c r="M127" s="7" t="inlineStr">
         <is>
           <t>Sondre Alexander Høyland</t>
         </is>
       </c>
-      <c r="D127" s="7" t="n">
+      <c r="N127" s="7" t="n">
         <v>1998</v>
       </c>
-      <c r="E127" s="15" t="n">
+      <c r="O127" s="15" t="n">
         <v>72.09</v>
       </c>
-      <c r="F127" s="7" t="n">
+      <c r="P127" s="7" t="n">
         <v>932</v>
       </c>
-      <c r="G127" s="7" t="inlineStr">
+      <c r="Q127" s="7" t="inlineStr">
         <is>
           <t>Stjørdal</t>
         </is>
       </c>
-      <c r="H127" s="16" t="n">
+      <c r="R127" s="16" t="n">
         <v>26.06</v>
       </c>
-      <c r="J127" s="5" t="n"/>
-      <c r="L127" s="14" t="n"/>
-      <c r="M127" s="7" t="n"/>
-      <c r="N127" s="7" t="n"/>
-      <c r="O127" s="7" t="n"/>
-      <c r="P127" s="7" t="n"/>
-      <c r="Q127" s="7" t="n"/>
-      <c r="R127" s="21" t="n"/>
       <c r="T127" s="5" t="n"/>
     </row>
     <row r="128" ht="13" customHeight="1">
@@ -6578,7 +6578,7 @@
         </is>
       </c>
       <c r="C129" s="20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E129" s="19" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11560</v>
+        <v>11768</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="M129" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O129" s="19" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>11759</v>
+        <v>11560</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -6706,256 +6706,256 @@
     <row r="134" ht="13" customHeight="1">
       <c r="B134" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>Patrick Monga Bifuko</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="D134" s="7" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E134" s="15" t="n">
-        <v>10.94</v>
+        <v>17.6</v>
       </c>
       <c r="F134" s="7" t="n">
-        <v>857</v>
+        <v>944</v>
       </c>
       <c r="G134" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H134" s="16" t="n">
-        <v>24.06</v>
+        <v>19.02</v>
       </c>
       <c r="J134" s="5" t="n"/>
       <c r="L134" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M134" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Patrick Monga Bifuko</t>
         </is>
       </c>
       <c r="N134" s="7" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="O134" s="15" t="n">
-        <v>17.6</v>
+        <v>10.94</v>
       </c>
       <c r="P134" s="7" t="n">
-        <v>944</v>
+        <v>857</v>
       </c>
       <c r="Q134" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R134" s="16" t="n">
-        <v>19.02</v>
+        <v>24.06</v>
       </c>
       <c r="T134" s="5" t="n"/>
     </row>
     <row r="135" ht="13" customHeight="1">
       <c r="B135" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>Einar Johannes Rye</t>
+          <t>Phillip Morken</t>
         </is>
       </c>
       <c r="D135" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E135" s="15" t="n">
-        <v>22.17</v>
+        <v>2004</v>
+      </c>
+      <c r="E135" s="17" t="inlineStr">
+        <is>
+          <t>1,52,17</t>
+        </is>
       </c>
       <c r="F135" s="7" t="n">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="G135" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H135" s="16" t="n">
-        <v>10.06</v>
+        <v>28.08</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M135" s="7" t="inlineStr">
         <is>
-          <t>Phillip Morken</t>
+          <t>Einar Johannes Rye</t>
         </is>
       </c>
       <c r="N135" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O135" s="17" t="inlineStr">
-        <is>
-          <t>1,52,17</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O135" s="15" t="n">
+        <v>22.17</v>
       </c>
       <c r="P135" s="7" t="n">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>28.08</v>
+        <v>10.06</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
     <row r="136" ht="13" customHeight="1">
       <c r="B136" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Kristian Drabløs</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D136" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E136" s="15" t="n">
-        <v>22.25</v>
+        <v>10.95</v>
       </c>
       <c r="F136" s="7" t="n">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="G136" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H136" s="16" t="n">
-        <v>13.02</v>
+        <v>24.06</v>
       </c>
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M136" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Kristian Drabløs</t>
         </is>
       </c>
       <c r="N136" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="O136" s="15" t="n">
-        <v>10.95</v>
+        <v>22.25</v>
       </c>
       <c r="P136" s="7" t="n">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="Q136" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R136" s="16" t="n">
-        <v>24.06</v>
+        <v>13.02</v>
       </c>
       <c r="T136" s="5" t="n"/>
     </row>
     <row r="137" ht="13" customHeight="1">
       <c r="B137" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Christian Wright</t>
+          <t>Anders Vik</t>
         </is>
       </c>
       <c r="D137" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E137" s="15" t="n">
-        <v>11.05</v>
+        <v>49.73</v>
       </c>
       <c r="F137" s="7" t="n">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="G137" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H137" s="16" t="n">
-        <v>26.08</v>
+        <v>22.07</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M137" s="7" t="inlineStr">
         <is>
-          <t>Anders Vik</t>
+          <t>Christian Wright</t>
         </is>
       </c>
       <c r="N137" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O137" s="15" t="n">
-        <v>49.73</v>
+        <v>11.05</v>
       </c>
       <c r="P137" s="7" t="n">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>22.07</v>
+        <v>26.08</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
     <row r="138" ht="13" customHeight="1">
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Clementsen</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D138" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E138" s="15" t="n">
-        <v>22.4</v>
+        <v>7.03</v>
       </c>
       <c r="F138" s="7" t="n">
-        <v>814</v>
+        <v>850</v>
       </c>
       <c r="G138" s="7" t="inlineStr">
         <is>
@@ -6963,27 +6963,27 @@
         </is>
       </c>
       <c r="H138" s="16" t="n">
-        <v>13.02</v>
+        <v>12.02</v>
       </c>
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Sigurd Clementsen</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="O138" s="15" t="n">
-        <v>7.03</v>
+        <v>22.4</v>
       </c>
       <c r="P138" s="7" t="n">
-        <v>850</v>
+        <v>814</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         </is>
       </c>
       <c r="R138" s="16" t="n">
-        <v>12.02</v>
+        <v>13.02</v>
       </c>
       <c r="T138" s="5" t="n"/>
     </row>
@@ -7003,25 +7003,25 @@
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Patrick Monga Bifuko</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="E139" s="15" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="F139" s="7" t="n">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>25.06</v>
+        <v>30.06</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
@@ -7031,25 +7031,25 @@
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Patrick Monga Bifuko</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="O139" s="15" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="P139" s="7" t="n">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>30.06</v>
+        <v>25.06</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -7061,25 +7061,25 @@
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Even Pettersen</t>
+          <t>Fredrik H. Gullachsen</t>
         </is>
       </c>
       <c r="D140" s="7" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="E140" s="15" t="n">
-        <v>22.46</v>
+        <v>22.8</v>
       </c>
       <c r="F140" s="7" t="n">
-        <v>808</v>
+        <v>770</v>
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>25.06</v>
+        <v>19.02</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
@@ -7089,279 +7089,279 @@
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Fredrik H. Gullachsen</t>
+          <t>Even Pettersen</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="O140" s="15" t="n">
-        <v>22.8</v>
+        <v>22.46</v>
       </c>
       <c r="P140" s="7" t="n">
-        <v>770</v>
+        <v>808</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>19.02</v>
+        <v>25.06</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
     <row r="141" ht="13" customHeight="1">
       <c r="B141" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Markus Le Fjeld</t>
+          <t>Seumas Duncan Mackay</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E141" s="15" t="n">
-        <v>11.14</v>
+        <v>50.52</v>
       </c>
       <c r="F141" s="7" t="n">
-        <v>806</v>
+        <v>758</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>26.08</v>
+        <v>19.06</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Seumas Duncan Mackay</t>
+          <t>Markus Le Fjeld</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="O141" s="15" t="n">
-        <v>50.52</v>
+        <v>11.14</v>
       </c>
       <c r="P141" s="7" t="n">
-        <v>758</v>
+        <v>806</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>19.06</v>
+        <v>26.08</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Kim Kamanzi</t>
+          <t>Simon Fjeldstad</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E142" s="15" t="n">
-        <v>22.53</v>
+        <v>7.31</v>
       </c>
       <c r="F142" s="7" t="n">
-        <v>800</v>
+        <v>732</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>10.06</v>
+        <v>5.03</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M142" s="7" t="inlineStr">
         <is>
-          <t>Simon Fjeldstad</t>
+          <t>Kim Kamanzi</t>
         </is>
       </c>
       <c r="N142" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="O142" s="15" t="n">
-        <v>7.31</v>
+        <v>22.53</v>
       </c>
       <c r="P142" s="7" t="n">
-        <v>732</v>
+        <v>800</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R142" s="16" t="n">
-        <v>5.03</v>
+        <v>10.06</v>
       </c>
       <c r="T142" s="5" t="n"/>
     </row>
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Clementsen</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E143" s="15" t="n">
-        <v>49.85</v>
+        <v>6.47</v>
       </c>
       <c r="F143" s="7" t="n">
-        <v>792</v>
+        <v>712</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>12.06</v>
+        <v>24.06</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Sigurd Clementsen</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="O143" s="15" t="n">
-        <v>6.47</v>
+        <v>49.85</v>
       </c>
       <c r="P143" s="7" t="n">
-        <v>712</v>
+        <v>792</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>24.06</v>
+        <v>12.06</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
     <row r="144" ht="13" customHeight="1">
       <c r="B144" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Sigmund Le Fjeld</t>
+          <t>Andreas Langhelle</t>
         </is>
       </c>
       <c r="D144" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E144" s="15" t="n">
-        <v>13.86</v>
+        <v>51.79</v>
       </c>
       <c r="F144" s="7" t="n">
-        <v>761</v>
+        <v>697</v>
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>11.06</v>
+        <v>26.08</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Sigmund Le Fjeld</t>
         </is>
       </c>
       <c r="N144" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O144" s="15" t="n">
-        <v>51.79</v>
+        <v>13.86</v>
       </c>
       <c r="P144" s="7" t="n">
-        <v>697</v>
+        <v>761</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>26.08</v>
+        <v>11.06</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
     <row r="145" ht="13" customHeight="1">
       <c r="B145" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Hertwig-Ødegaard</t>
+          <t>Robert Sheath</t>
         </is>
       </c>
       <c r="D145" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>759</v>
+        <v>697</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
@@ -7374,22 +7374,22 @@
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M145" s="7" t="inlineStr">
         <is>
-          <t>Robert Sheath</t>
+          <t>Jonathan Hertwig-Ødegaard</t>
         </is>
       </c>
       <c r="N145" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O145" s="15" t="n">
-        <v>7.4</v>
+        <v>4.2</v>
       </c>
       <c r="P145" s="7" t="n">
-        <v>697</v>
+        <v>759</v>
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
@@ -7404,174 +7404,174 @@
     <row r="146" ht="13" customHeight="1">
       <c r="B146" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Hertwig-Ødegaard</t>
+          <t>Andreas Langhelle</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E146" s="15" t="n">
-        <v>6.39</v>
+        <v>23.53</v>
       </c>
       <c r="F146" s="7" t="n">
         <v>694</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>26.08</v>
+        <v>11.09</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Jonathan Hertwig-Ødegaard</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>23.53</v>
+        <v>6.39</v>
       </c>
       <c r="P146" s="7" t="n">
         <v>694</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>11.09</v>
+        <v>26.08</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
     <row r="147" ht="13" customHeight="1">
       <c r="B147" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Markus Le Fjeld</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D147" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>6.32</v>
+        <v>2.99</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G147" s="7" t="inlineStr">
         <is>
-          <t>Västerås/SWE</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H147" s="16" t="n">
-        <v>31.07</v>
+        <v>21.01</v>
       </c>
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M147" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Markus Le Fjeld</t>
         </is>
       </c>
       <c r="N147" s="7" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="O147" s="15" t="n">
-        <v>2.99</v>
+        <v>6.32</v>
       </c>
       <c r="P147" s="7" t="n">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="Q147" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Västerås/SWE</t>
         </is>
       </c>
       <c r="R147" s="16" t="n">
-        <v>21.01</v>
+        <v>31.07</v>
       </c>
       <c r="T147" s="5" t="n"/>
     </row>
     <row r="148" ht="13" customHeight="1">
       <c r="B148" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>Sondre Alexander Høyland</t>
+          <t>Sebastian Bergheim</t>
         </is>
       </c>
       <c r="D148" s="7" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E148" s="15" t="n">
-        <v>12.75</v>
+        <v>2.88</v>
       </c>
       <c r="F148" s="7" t="n">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G148" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H148" s="16" t="n">
-        <v>12.02</v>
+        <v>21.01</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Bergheim</t>
+          <t>Sondre Alexander Høyland</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>2.88</v>
+        <v>12.75</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>21.01</v>
+        <v>12.02</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>11735</v>
+        <v>11530</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -7625,7 +7625,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11530</v>
+        <v>11735</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7640,7 +7640,7 @@
         </is>
       </c>
       <c r="C152" s="20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E152" s="19" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>23295</v>
+        <v>23298</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="M152" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O152" s="19" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>23289</v>
+        <v>23295</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -7680,7 +7680,7 @@
         </is>
       </c>
       <c r="C154" s="20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="19" t="inlineStr">
@@ -7689,7 +7689,7 @@
         </is>
       </c>
       <c r="M154" s="20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -13746,30 +13746,30 @@
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Sondre Faugstad Amundsen</t>
+          <t>Andreas Haara Bakketun</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="O296" s="15" t="n">
-        <v>10.69</v>
+        <v>6.87</v>
       </c>
       <c r="P296" s="7" t="n">
         <v>924</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>16.06</v>
+        <v>5.03</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -13806,30 +13806,30 @@
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Andreas Haara Bakketun</t>
+          <t>Sondre Faugstad Amundsen</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="O297" s="15" t="n">
-        <v>6.87</v>
+        <v>10.69</v>
       </c>
       <c r="P297" s="7" t="n">
         <v>924</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>5.03</v>
+        <v>16.06</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
@@ -13956,30 +13956,30 @@
     <row r="300" ht="13" customHeight="1">
       <c r="B300" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Erlend Bergfjord Næss</t>
         </is>
       </c>
       <c r="D300" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E300" s="15" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="F300" s="7" t="n">
         <v>526</v>
       </c>
       <c r="G300" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H300" s="16" t="n">
-        <v>14.03</v>
+        <v>29.03</v>
       </c>
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="n"/>
@@ -13994,30 +13994,30 @@
     <row r="301" ht="13" customHeight="1">
       <c r="B301" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bergfjord Næss</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D301" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E301" s="15" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="F301" s="7" t="n">
         <v>526</v>
       </c>
       <c r="G301" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="H301" s="16" t="n">
-        <v>29.03</v>
+        <v>14.03</v>
       </c>
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="n"/>
@@ -16629,11 +16629,11 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>(25/18)</t>
+          <t>(25/17)</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>20170</v>
+        <v>20211</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -17237,30 +17237,30 @@
     <row r="9" ht="13" customHeight="1">
       <c r="B9" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>Vegard Rinde</t>
+          <t>Oliver Solsvik</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>7.56</v>
+        <v>11.03</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>639</v>
+        <v>834</v>
       </c>
       <c r="G9" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H9" s="16" t="n">
-        <v>28.05</v>
+        <v>26.08</v>
       </c>
       <c r="J9" s="5" t="n"/>
       <c r="L9" s="14" t="inlineStr">
@@ -17295,7 +17295,7 @@
     <row r="10" ht="13" customHeight="1">
       <c r="B10" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
@@ -17307,18 +17307,18 @@
         <v>2004</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>11.03</v>
+        <v>22.77</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>834</v>
+        <v>773</v>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H10" s="16" t="n">
-        <v>26.08</v>
+        <v>21.08</v>
       </c>
       <c r="J10" s="5" t="n"/>
       <c r="L10" s="14" t="inlineStr">
@@ -17353,22 +17353,22 @@
     <row r="11" ht="13" customHeight="1">
       <c r="B11" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Oliver Solsvik</t>
+          <t>Andreas Dixon</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>22.77</v>
+        <v>50.48</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         </is>
       </c>
       <c r="H11" s="16" t="n">
-        <v>21.08</v>
+        <v>20.08</v>
       </c>
       <c r="J11" s="5" t="n"/>
       <c r="L11" s="14" t="inlineStr">
@@ -17411,30 +17411,32 @@
     <row r="12" ht="13" customHeight="1">
       <c r="B12" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>Andreas Dixon</t>
+          <t>Aleksander Hauge Øyen</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E12" s="15" t="n">
-        <v>50.48</v>
+        <v>2006</v>
+      </c>
+      <c r="E12" s="17" t="inlineStr">
+        <is>
+          <t>1,57,94</t>
+        </is>
       </c>
       <c r="F12" s="7" t="n">
-        <v>760</v>
+        <v>729</v>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H12" s="16" t="n">
-        <v>20.08</v>
+        <v>10.09</v>
       </c>
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
@@ -17471,7 +17473,7 @@
     <row r="13" ht="13" customHeight="1">
       <c r="B13" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
@@ -17484,19 +17486,19 @@
       </c>
       <c r="E13" s="17" t="inlineStr">
         <is>
-          <t>1,57,94</t>
+          <t>4,08,97</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="G13" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="H13" s="16" t="n">
-        <v>10.09</v>
+        <v>18.09</v>
       </c>
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
@@ -18033,7 +18035,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>10497</v>
+        <v>10538</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -18871,7 +18873,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>20170</v>
+        <v>20211</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -18903,7 +18905,7 @@
         </is>
       </c>
       <c r="C45" s="20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J45" s="5" t="n"/>
       <c r="L45" s="19" t="inlineStr">
@@ -21614,11 +21616,11 @@
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Stian André Lie Austrheim</t>
+          <t>Theodor Aase</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E112" s="15" t="n">
         <v>1.75</v>
@@ -22474,11 +22476,11 @@
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Theodor Aase</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E130" s="15" t="n">
         <v>1.75</v>
@@ -30938,7 +30940,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>15148</v>
+        <v>15185</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -40773,25 +40775,25 @@
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>Hanna Haugsvær</t>
+          <t>Maria Døske</t>
         </is>
       </c>
       <c r="D228" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E228" s="15" t="n">
-        <v>11.58</v>
+        <v>11.59</v>
       </c>
       <c r="F228" s="7" t="n">
         <v>691</v>
       </c>
       <c r="G228" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H228" s="16" t="n">
-        <v>5.02</v>
+        <v>26.08</v>
       </c>
       <c r="J228" s="5" t="n"/>
       <c r="L228" s="14" t="inlineStr">
@@ -41455,25 +41457,25 @@
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>Maria Døske</t>
+          <t>Hanna Haugsvær</t>
         </is>
       </c>
       <c r="D243" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E243" s="15" t="n">
-        <v>11.59</v>
+        <v>11.58</v>
       </c>
       <c r="F243" s="7" t="n">
         <v>691</v>
       </c>
       <c r="G243" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H243" s="16" t="n">
-        <v>26.08</v>
+        <v>5.02</v>
       </c>
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
@@ -41746,30 +41748,32 @@
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Emilie Høyland Schou</t>
+          <t>Nora Jakobsen</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E248" s="15" t="n">
-        <v>13.28</v>
+        <v>2007</v>
+      </c>
+      <c r="E248" s="17" t="inlineStr">
+        <is>
+          <t>1,01,79</t>
+        </is>
       </c>
       <c r="F248" s="7" t="n">
         <v>624</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>19.06</v>
+        <v>15.05</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -41804,32 +41808,30 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Nora Jakobsen</t>
+          <t>Emilie Høyland Schou</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E249" s="17" t="inlineStr">
-        <is>
-          <t>1,01,79</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E249" s="15" t="n">
+        <v>13.28</v>
       </c>
       <c r="F249" s="7" t="n">
         <v>624</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>15.05</v>
+        <v>19.06</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -44891,25 +44893,25 @@
       </c>
       <c r="M326" s="7" t="inlineStr">
         <is>
-          <t>Abelone Heldal</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N326" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O326" s="15" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P326" s="7" t="n">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="Q326" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="R326" s="16" t="n">
-        <v>11.09</v>
+        <v>18.09</v>
       </c>
       <c r="T326" s="5" t="n"/>
     </row>
@@ -45409,7 +45411,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>6489</v>
+        <v>6517</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -45917,11 +45919,11 @@
       </c>
       <c r="Q348" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R348" s="16" t="n">
-        <v>19.02</v>
+        <v>27.05</v>
       </c>
       <c r="T348" s="5" t="n"/>
     </row>
@@ -45958,30 +45960,30 @@
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M349" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Abelone Heldal</t>
         </is>
       </c>
       <c r="N349" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O349" s="15" t="n">
-        <v>9.76</v>
+        <v>1.42</v>
       </c>
       <c r="P349" s="7" t="n">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Q349" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R349" s="16" t="n">
-        <v>19.02</v>
+        <v>14.05</v>
       </c>
       <c r="T349" s="5" t="n"/>
     </row>
@@ -46018,30 +46020,30 @@
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M350" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Handeland</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N350" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O350" s="15" t="n">
-        <v>4.59</v>
+        <v>9.76</v>
       </c>
       <c r="P350" s="7" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="Q350" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R350" s="16" t="n">
-        <v>21.08</v>
+        <v>19.02</v>
       </c>
       <c r="T350" s="5" t="n"/>
     </row>
@@ -46078,30 +46080,30 @@
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M351" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Mathilde Handeland</t>
         </is>
       </c>
       <c r="N351" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O351" s="15" t="n">
-        <v>1.41</v>
+        <v>4.59</v>
       </c>
       <c r="P351" s="7" t="n">
         <v>528</v>
       </c>
       <c r="Q351" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R351" s="16" t="n">
-        <v>4.09</v>
+        <v>21.08</v>
       </c>
       <c r="T351" s="5" t="n"/>
     </row>
@@ -46445,7 +46447,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>8659</v>
+        <v>8668</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -46485,7 +46487,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>15148</v>
+        <v>15185</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -46700,25 +46702,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>16497</v>
+        <v>16585</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(13/1d)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -46728,25 +46730,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16023</v>
+        <v>16497</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(13/1d)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -48972,7 +48974,7 @@
       </c>
       <c r="M49" s="7" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P49" s="8" t="n">
@@ -48999,7 +49001,7 @@
       </c>
       <c r="M50" s="7" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="T50" s="5" t="n"/>
@@ -49156,25 +49158,25 @@
       </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Emma Dahl Sørbo</t>
         </is>
       </c>
       <c r="N56" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>8.25</v>
+        <v>7.82</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>660</v>
+        <v>791</v>
       </c>
       <c r="Q56" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R56" s="16" t="n">
-        <v>12.02</v>
+        <v>5.03</v>
       </c>
       <c r="T56" s="5" t="n"/>
     </row>
@@ -49214,25 +49216,25 @@
       </c>
       <c r="M57" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Ingrid Sortland</t>
         </is>
       </c>
       <c r="N57" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="O57" s="15" t="n">
-        <v>13.29</v>
+        <v>12.58</v>
       </c>
       <c r="P57" s="7" t="n">
-        <v>622</v>
+        <v>745</v>
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>26.08</v>
+        <v>14.05</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
@@ -49272,25 +49274,25 @@
       </c>
       <c r="M58" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N58" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="O58" s="15" t="n">
-        <v>26.59</v>
+        <v>26.39</v>
       </c>
       <c r="P58" s="7" t="n">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="Q58" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R58" s="16" t="n">
-        <v>27.08</v>
+        <v>21.08</v>
       </c>
       <c r="T58" s="5" t="n"/>
     </row>
@@ -49327,32 +49329,32 @@
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M59" s="7" t="inlineStr">
         <is>
-          <t>Linn Andrea Lindevik</t>
+          <t>Eli Anne Dvergsdal</t>
         </is>
       </c>
       <c r="N59" s="7" t="n">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="O59" s="17" t="inlineStr">
         <is>
-          <t>1,02,55</t>
+          <t>4,34,10</t>
         </is>
       </c>
       <c r="P59" s="7" t="n">
-        <v>601</v>
+        <v>762</v>
       </c>
       <c r="Q59" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R59" s="16" t="n">
-        <v>12.06</v>
+        <v>5.02</v>
       </c>
       <c r="T59" s="5" t="n"/>
     </row>
@@ -49389,32 +49391,32 @@
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M60" s="7" t="inlineStr">
         <is>
-          <t>Linn Andrea Lindevik</t>
+          <t>Eli Anne Dvergsdal</t>
         </is>
       </c>
       <c r="N60" s="7" t="n">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="O60" s="17" t="inlineStr">
         <is>
-          <t>2,17,05</t>
+          <t>9,39,09</t>
         </is>
       </c>
       <c r="P60" s="7" t="n">
-        <v>704</v>
+        <v>803</v>
       </c>
       <c r="Q60" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R60" s="16" t="n">
-        <v>11.06</v>
+        <v>11.05</v>
       </c>
       <c r="T60" s="5" t="n"/>
     </row>
@@ -49451,32 +49453,32 @@
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Eva Pasini Friestad</t>
+          <t>Eli Anne Dvergsdal</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="O61" s="17" t="inlineStr">
         <is>
-          <t>4,39,53</t>
+          <t>34,03,01mx</t>
         </is>
       </c>
       <c r="P61" s="7" t="n">
-        <v>728</v>
+        <v>871</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>18.09</v>
+        <v>14.04</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -49513,32 +49515,32 @@
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Marie Kristine Malmgren</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="O62" s="17" t="inlineStr">
         <is>
-          <t>10,18,78</t>
+          <t>1,08,89</t>
         </is>
       </c>
       <c r="P62" s="7" t="n">
-        <v>691</v>
+        <v>610</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>30.06</v>
+        <v>27.08</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -49575,30 +49577,30 @@
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Angelina Min</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>10.17</v>
+        <v>1.55</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>4.03</v>
+        <v>19.08</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -49635,30 +49637,30 @@
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Nathalie Ommundsen Johnsen</t>
+          <t>Emma Dahl Sørbo</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>16.35</v>
+        <v>5.47</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>29.05</v>
+        <v>29.01</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -49693,30 +49695,30 @@
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Nathalie Ommundsen Johnsen</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>5.28</v>
+        <v>11.18</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>11.06</v>
+        <v>12.08</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -49751,30 +49753,30 @@
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Elise Wolff-Hansen</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O66" s="15" t="n">
-        <v>10.67</v>
+        <v>2.27</v>
       </c>
       <c r="P66" s="7" t="n">
-        <v>627</v>
+        <v>474</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>12.08</v>
+        <v>19.03</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -49809,30 +49811,30 @@
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Nathalie Ommundsen Johnsen</t>
+          <t>Brita Mehl Lode</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="O67" s="15" t="n">
-        <v>1.3</v>
+        <v>10.77</v>
       </c>
       <c r="P67" s="7" t="n">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>5.02</v>
+        <v>18.09</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -49872,25 +49874,25 @@
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Lana Weinberg</t>
+          <t>Brita Mehl Lode</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>40.95</v>
+        <v>35.26</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>716</v>
+        <v>628</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>27.08</v>
+        <v>17.09</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -49944,7 +49946,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>8592</v>
+        <v>9075</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -50077,32 +50079,30 @@
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Trine Mjåland</t>
+          <t>Ingrid Sortland</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>1990</v>
-      </c>
-      <c r="O75" s="17" t="inlineStr">
-        <is>
-          <t>4,39,75</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O75" s="15" t="n">
+        <v>7.89</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>726</v>
+        <v>769</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>18.09</v>
+        <v>30.01</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -50139,32 +50139,30 @@
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M76" s="7" t="inlineStr">
         <is>
-          <t>Marie Kristine Malmgren</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N76" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O76" s="17" t="inlineStr">
-        <is>
-          <t>4,40,68</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O76" s="15" t="n">
+        <v>12.81</v>
       </c>
       <c r="P76" s="7" t="n">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>18.09</v>
+        <v>12.08</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
@@ -50201,32 +50199,30 @@
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M77" s="7" t="inlineStr">
         <is>
-          <t>Eva Pasini Friestad</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N77" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O77" s="17" t="inlineStr">
-        <is>
-          <t>2,17,84</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O77" s="15" t="n">
+        <v>8.19</v>
       </c>
       <c r="P77" s="7" t="n">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="Q77" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R77" s="16" t="n">
-        <v>27.08</v>
+        <v>5.03</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -50263,30 +50259,30 @@
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M78" s="7" t="inlineStr">
         <is>
-          <t>Camilla Kristiane Mendes Uldal</t>
+          <t>Lilli Margaret Gulbrandsen</t>
         </is>
       </c>
       <c r="N78" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O78" s="15" t="n">
-        <v>5.22</v>
+        <v>13.15</v>
       </c>
       <c r="P78" s="7" t="n">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="Q78" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R78" s="16" t="n">
-        <v>20.07</v>
+        <v>29.05</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -50323,32 +50319,30 @@
       <c r="J79" s="5" t="n"/>
       <c r="L79" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M79" s="7" t="inlineStr">
         <is>
-          <t>Linn Andrea Lindevik</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="N79" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O79" s="17" t="inlineStr">
-        <is>
-          <t>4,51,59</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O79" s="15" t="n">
+        <v>5.11</v>
       </c>
       <c r="P79" s="7" t="n">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="Q79" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R79" s="16" t="n">
-        <v>10.09</v>
+        <v>19.03</v>
       </c>
       <c r="T79" s="5" t="n"/>
     </row>
@@ -50385,32 +50379,30 @@
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M80" s="7" t="inlineStr">
         <is>
-          <t>Eva Pasini Friestad</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N80" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O80" s="17" t="inlineStr">
-        <is>
-          <t>10,35,26</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O80" s="15" t="n">
+        <v>5.05</v>
       </c>
       <c r="P80" s="7" t="n">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="Q80" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R80" s="16" t="n">
-        <v>28.08</v>
+        <v>6.02</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -50447,32 +50439,30 @@
       <c r="J81" s="5" t="n"/>
       <c r="L81" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M81" s="7" t="inlineStr">
         <is>
-          <t>Linnea Holsen Meier</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="N81" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O81" s="17" t="inlineStr">
-        <is>
-          <t>2,21,80</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O81" s="15" t="n">
+        <v>27.48</v>
       </c>
       <c r="P81" s="7" t="n">
-        <v>646</v>
+        <v>615</v>
       </c>
       <c r="Q81" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R81" s="16" t="n">
-        <v>7.05</v>
+        <v>27.05</v>
       </c>
       <c r="T81" s="5" t="n"/>
     </row>
@@ -50507,32 +50497,30 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Marie Kristine Malmgren</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="O82" s="17" t="inlineStr">
-        <is>
-          <t>2,22,24</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O82" s="15" t="n">
+        <v>13.39</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>17.02</v>
+        <v>20.08</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -50567,30 +50555,30 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Tina Helen Bergem</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>1994</v>
+        <v>2008</v>
       </c>
       <c r="O83" s="15" t="n">
-        <v>8.34</v>
+        <v>4.79</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>636</v>
+        <v>573</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>29.01</v>
+        <v>28.05</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -50625,30 +50613,30 @@
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>5.07</v>
+        <v>8.59</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>633</v>
+        <v>570</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>15.05</v>
+        <v>19.03</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -50683,30 +50671,30 @@
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Marie Mollestad</t>
+          <t>Elise Wolff-Hansen</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>5.01</v>
+        <v>9.85</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>13.03</v>
+        <v>18.09</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -50741,30 +50729,30 @@
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Angelina Min</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>10.56</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>616</v>
+        <v>538</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>13.02</v>
+        <v>28.05</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -50818,7 +50806,7 @@
         </is>
       </c>
       <c r="P88" s="20" t="n">
-        <v>7905</v>
+        <v>7510</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -50858,7 +50846,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>16497</v>
+        <v>16585</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -50882,7 +50870,7 @@
         </is>
       </c>
       <c r="M92" s="20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -50924,7 +50912,7 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
       <c r="F96" s="8" t="n">
@@ -50954,7 +50942,7 @@
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>Kristiansands IF Friidrett</t>
         </is>
       </c>
       <c r="J97" s="5" t="n"/>
@@ -51094,25 +51082,25 @@
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Emma Dahl Sørbo</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="D103" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E103" s="15" t="n">
-        <v>7.82</v>
+        <v>8.25</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>791</v>
+        <v>660</v>
       </c>
       <c r="G103" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H103" s="16" t="n">
-        <v>5.03</v>
+        <v>12.02</v>
       </c>
       <c r="J103" s="5" t="n"/>
       <c r="L103" s="14" t="inlineStr">
@@ -51152,25 +51140,25 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Sortland</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="D104" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="E104" s="15" t="n">
-        <v>12.58</v>
+        <v>13.29</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>745</v>
+        <v>622</v>
       </c>
       <c r="G104" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H104" s="16" t="n">
-        <v>14.05</v>
+        <v>26.08</v>
       </c>
       <c r="J104" s="5" t="n"/>
       <c r="L104" s="14" t="inlineStr">
@@ -51210,25 +51198,25 @@
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="D105" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>26.39</v>
+        <v>26.59</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="G105" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H105" s="16" t="n">
-        <v>21.08</v>
+        <v>27.08</v>
       </c>
       <c r="J105" s="5" t="n"/>
       <c r="L105" s="14" t="inlineStr">
@@ -51263,32 +51251,32 @@
     <row r="106" ht="13" customHeight="1">
       <c r="B106" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Eli Anne Dvergsdal</t>
+          <t>Linn Andrea Lindevik</t>
         </is>
       </c>
       <c r="D106" s="7" t="n">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="E106" s="17" t="inlineStr">
         <is>
-          <t>4,34,10</t>
+          <t>1,02,55</t>
         </is>
       </c>
       <c r="F106" s="7" t="n">
-        <v>762</v>
+        <v>601</v>
       </c>
       <c r="G106" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H106" s="16" t="n">
-        <v>5.02</v>
+        <v>12.06</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="14" t="inlineStr">
@@ -51323,32 +51311,32 @@
     <row r="107" ht="13" customHeight="1">
       <c r="B107" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Eli Anne Dvergsdal</t>
+          <t>Linn Andrea Lindevik</t>
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>9,39,09</t>
+          <t>2,17,05</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>803</v>
+        <v>704</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
@@ -51385,32 +51373,32 @@
     <row r="108" ht="13" customHeight="1">
       <c r="B108" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Eli Anne Dvergsdal</t>
+          <t>Eva Pasini Friestad</t>
         </is>
       </c>
       <c r="D108" s="7" t="n">
-        <v>1991</v>
+        <v>2005</v>
       </c>
       <c r="E108" s="17" t="inlineStr">
         <is>
-          <t>34,03,01mx</t>
+          <t>4,39,53</t>
         </is>
       </c>
       <c r="F108" s="7" t="n">
-        <v>871</v>
+        <v>728</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>14.04</v>
+        <v>18.09</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
@@ -51447,32 +51435,32 @@
     <row r="109" ht="13" customHeight="1">
       <c r="B109" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Marie Kristine Malmgren</t>
         </is>
       </c>
       <c r="D109" s="7" t="n">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="E109" s="17" t="inlineStr">
         <is>
-          <t>1,08,89</t>
+          <t>10,18,78</t>
         </is>
       </c>
       <c r="F109" s="7" t="n">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>27.08</v>
+        <v>30.06</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
@@ -51507,30 +51495,30 @@
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Angelina Min</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E110" s="15" t="n">
-        <v>1.55</v>
+        <v>10.17</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>651</v>
+        <v>575</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>19.08</v>
+        <v>4.03</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
@@ -51565,30 +51553,30 @@
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Nathalie Ommundsen Johnsen</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E111" s="15" t="n">
-        <v>2.12</v>
+        <v>16.35</v>
       </c>
       <c r="F111" s="7" t="n">
-        <v>462</v>
+        <v>647</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>9.09</v>
+        <v>29.05</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
@@ -51630,25 +51618,25 @@
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Emma Dahl Sørbo</t>
+          <t>Nathalie Ommundsen Johnsen</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>5.47</v>
+        <v>5.28</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>721</v>
+        <v>679</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>29.01</v>
+        <v>11.06</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
@@ -51688,17 +51676,17 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>11.18</v>
+        <v>10.67</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>680</v>
+        <v>627</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
@@ -51746,25 +51734,25 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Ida Wolff-Hansen</t>
+          <t>Nathalie Ommundsen Johnsen</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>357</v>
+        <v>662</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>19.03</v>
+        <v>5.02</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -51799,30 +51787,30 @@
     <row r="115" ht="13" customHeight="1">
       <c r="B115" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Elise Wolff-Hansen</t>
+          <t>Lana Weinberg</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>2.27</v>
+        <v>40.95</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>474</v>
+        <v>716</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>19.03</v>
+        <v>27.08</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -51887,7 +51875,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>8622</v>
+        <v>8592</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -52007,30 +51995,32 @@
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Sortland</t>
+          <t>Trine Mjåland</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E122" s="15" t="n">
-        <v>7.89</v>
+        <v>1990</v>
+      </c>
+      <c r="E122" s="17" t="inlineStr">
+        <is>
+          <t>4,39,75</t>
+        </is>
       </c>
       <c r="F122" s="7" t="n">
-        <v>769</v>
+        <v>726</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>30.01</v>
+        <v>18.09</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
@@ -52065,30 +52055,32 @@
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Marie Kristine Malmgren</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E123" s="15" t="n">
-        <v>12.81</v>
+        <v>1995</v>
+      </c>
+      <c r="E123" s="17" t="inlineStr">
+        <is>
+          <t>4,40,68</t>
+        </is>
       </c>
       <c r="F123" s="7" t="n">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>12.08</v>
+        <v>18.09</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
@@ -52123,30 +52115,32 @@
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Eva Pasini Friestad</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E124" s="15" t="n">
-        <v>8.19</v>
+        <v>2005</v>
+      </c>
+      <c r="E124" s="17" t="inlineStr">
+        <is>
+          <t>2,17,84</t>
+        </is>
       </c>
       <c r="F124" s="7" t="n">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>5.03</v>
+        <v>27.08</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
@@ -52181,30 +52175,30 @@
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Lilli Margaret Gulbrandsen</t>
+          <t>Camilla Kristiane Mendes Uldal</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>13.15</v>
+        <v>5.22</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>645</v>
+        <v>666</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>29.05</v>
+        <v>20.07</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -52239,30 +52233,32 @@
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Linn Andrea Lindevik</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E126" s="15" t="n">
-        <v>5.11</v>
+        <v>2004</v>
+      </c>
+      <c r="E126" s="17" t="inlineStr">
+        <is>
+          <t>4,51,59</t>
+        </is>
       </c>
       <c r="F126" s="7" t="n">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>19.03</v>
+        <v>10.09</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
@@ -52297,30 +52293,32 @@
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Eva Pasini Friestad</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E127" s="15" t="n">
-        <v>27.48</v>
+        <v>2005</v>
+      </c>
+      <c r="E127" s="17" t="inlineStr">
+        <is>
+          <t>10,35,26</t>
+        </is>
       </c>
       <c r="F127" s="7" t="n">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>27.05</v>
+        <v>28.08</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -52355,30 +52353,32 @@
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Linnea Holsen Meier</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E128" s="15" t="n">
-        <v>13.39</v>
+        <v>1998</v>
+      </c>
+      <c r="E128" s="17" t="inlineStr">
+        <is>
+          <t>2,21,80</t>
+        </is>
       </c>
       <c r="F128" s="7" t="n">
-        <v>605</v>
+        <v>646</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>20.08</v>
+        <v>7.05</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
@@ -52413,30 +52413,32 @@
     <row r="129" ht="13" customHeight="1">
       <c r="B129" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Marie Kristine Malmgren</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E129" s="15" t="n">
-        <v>4.79</v>
+        <v>1995</v>
+      </c>
+      <c r="E129" s="17" t="inlineStr">
+        <is>
+          <t>2,22,24</t>
+        </is>
       </c>
       <c r="F129" s="7" t="n">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>28.05</v>
+        <v>17.02</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
@@ -52476,25 +52478,25 @@
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Tina Helen Bergem</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2007</v>
+        <v>1994</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>8.59</v>
+        <v>8.34</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>19.03</v>
+        <v>29.01</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
@@ -52529,30 +52531,30 @@
     <row r="131" ht="13" customHeight="1">
       <c r="B131" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>8.720000000000001</v>
+        <v>5.07</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>538</v>
+        <v>633</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>28.05</v>
+        <v>15.05</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
@@ -52587,30 +52589,30 @@
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Elise Wolff-Hansen</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>9.76</v>
+        <v>5.01</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>533</v>
+        <v>620</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>15.05</v>
+        <v>13.03</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
@@ -52645,30 +52647,30 @@
     <row r="133" ht="13" customHeight="1">
       <c r="B133" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>Elise Wolff-Hansen</t>
+          <t>Angelina Min</t>
         </is>
       </c>
       <c r="D133" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E133" s="15" t="n">
-        <v>4.6</v>
+        <v>10.56</v>
       </c>
       <c r="F133" s="7" t="n">
-        <v>530</v>
+        <v>616</v>
       </c>
       <c r="G133" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H133" s="16" t="n">
-        <v>19.03</v>
+        <v>13.02</v>
       </c>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
@@ -52733,7 +52735,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7401</v>
+        <v>7905</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -52773,7 +52775,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16023</v>
+        <v>16497</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -52805,7 +52807,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>24486</v>
+        <v>24512</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -679,25 +679,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(30/20)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23311</v>
+        <v>23895</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -707,25 +707,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(29/17)</t>
+          <t>(30/20)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>23298</v>
+        <v>23311</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>21580</v>
+        <v>21591</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -908,11 +908,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(22/12)</t>
+          <t>(23/12)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>19059</v>
+        <v>19115</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="M54" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="P54" s="8" t="n">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="T55" s="5" t="n"/>
@@ -3461,11 +3461,11 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Ilunga Josue Kongolo</t>
+          <t>Amund Høie Sjursen</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="E61" s="15" t="n">
         <v>7.02</v>
@@ -3475,11 +3475,11 @@
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>5.03</v>
+        <v>5.02</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -3489,25 +3489,25 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="O61" s="15" t="n">
-        <v>6.87</v>
+        <v>6.75</v>
       </c>
       <c r="P61" s="7" t="n">
-        <v>924</v>
+        <v>984</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>20.02</v>
+        <v>5.02</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -3547,25 +3547,25 @@
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>10.62</v>
+        <v>10.51</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>943</v>
+        <v>974</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>26.08</v>
+        <v>19.06</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -3605,25 +3605,25 @@
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>21.49</v>
+        <v>21.64</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>La Chaux-de-Fonds/SUI</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>3.07</v>
+        <v>5.08</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Muhammed Dodou Jatta</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>48.67</v>
+        <v>50.14</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>854</v>
+        <v>777</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>27.08</v>
+        <v>12.02</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -3723,27 +3723,27 @@
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Seumas Duncan Mackay</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="O65" s="17" t="inlineStr">
         <is>
-          <t>1,53,24</t>
+          <t>1,48,51</t>
         </is>
       </c>
       <c r="P65" s="7" t="n">
-        <v>835</v>
+        <v>958</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Stretford/GBR</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>7.06</v>
+        <v>23.08</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -3785,27 +3785,27 @@
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Roderick Duodu</t>
+          <t>Phillip Morken</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O66" s="17" t="inlineStr">
         <is>
-          <t>3,54,80</t>
+          <t>4,03,86</t>
         </is>
       </c>
       <c r="P66" s="7" t="n">
-        <v>813</v>
+        <v>725</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>23.07</v>
+        <v>18.09</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -3847,27 +3847,27 @@
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Simen Seeberg-Rommetveit</t>
+          <t>Leander Warncke-Wang</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O67" s="17" t="inlineStr">
         <is>
-          <t>8,32,52</t>
+          <t>9,22,3</t>
         </is>
       </c>
       <c r="P67" s="7" t="n">
-        <v>802</v>
+        <v>608</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>3.05</v>
+        <v>4.08</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Endre Wigaard</t>
+          <t>Are Flekke</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
@@ -3915,19 +3915,19 @@
       </c>
       <c r="O68" s="17" t="inlineStr">
         <is>
-          <t>15,28,49</t>
+          <t>21,20,2</t>
         </is>
       </c>
       <c r="P68" s="7" t="n">
-        <v>710</v>
+        <v>189</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ostereidet</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>24.06</v>
+        <v>2.1</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -3962,32 +3962,30 @@
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Endre Wigaard</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O69" s="17" t="inlineStr">
-        <is>
-          <t>31,50,80</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O69" s="15" t="n">
+        <v>1.81</v>
       </c>
       <c r="P69" s="7" t="n">
-        <v>747</v>
+        <v>661</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>24.09</v>
+        <v>25.09</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
@@ -4022,32 +4020,30 @@
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O70" s="17" t="inlineStr">
-        <is>
-          <t>1,02,09</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O70" s="15" t="n">
+        <v>6.92</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>572</v>
+        <v>810</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>21.08</v>
+        <v>26.08</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -4082,30 +4078,30 @@
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>1.75</v>
+        <v>15.47</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>607</v>
+        <v>925</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>10.09</v>
+        <v>17.07</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
@@ -4140,30 +4136,30 @@
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Anders Vik</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>6.09</v>
+        <v>3.04</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>627</v>
+        <v>694</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Sandane</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>20.08</v>
+        <v>25.01</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
@@ -4198,30 +4194,30 @@
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Marcus Thomsen</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="O73" s="15" t="n">
-        <v>12.33</v>
+        <v>20.89</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>596</v>
+        <v>1106</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Kladno/CZE</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>9.09</v>
+        <v>14.06</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
@@ -4261,25 +4257,25 @@
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>44.33</v>
+        <v>64.28</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>762</v>
+        <v>1070</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>30.06</v>
+        <v>22.05</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
@@ -4298,46 +4294,46 @@
         <v>1995</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>50.01</v>
+        <v>51.98</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>14.06</v>
+        <v>25.09</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Kasper Sagen</t>
+          <t>Jon Nerdal</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>66.98999999999999</v>
+        <v>67.75</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>857</v>
+        <v>973</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Leiria/POR</t>
+          <t>Baton Rouge/LA/USA</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>13.03</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -4374,7 +4370,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12656</v>
+        <v>12682</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -4391,7 +4387,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>11571</v>
+        <v>12357</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -4522,30 +4518,30 @@
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>10.65</v>
+        <v>17.6</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>16.06</v>
+        <v>19.02</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -4580,30 +4576,32 @@
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Phillip Morken</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O83" s="15" t="n">
-        <v>6.93</v>
+        <v>2004</v>
+      </c>
+      <c r="O83" s="17" t="inlineStr">
+        <is>
+          <t>1,52,17</t>
+        </is>
       </c>
       <c r="P83" s="7" t="n">
-        <v>895</v>
+        <v>861</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>20.02</v>
+        <v>28.08</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
@@ -4645,25 +4643,25 @@
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O84" s="15" t="n">
-        <v>10.83</v>
+        <v>10.95</v>
       </c>
       <c r="P84" s="7" t="n">
-        <v>886</v>
+        <v>854</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>12.08</v>
+        <v>24.06</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
@@ -4698,30 +4696,30 @@
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Anders Vik</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>21.95</v>
+        <v>49.73</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>27.08</v>
+        <v>22.07</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -4733,11 +4731,11 @@
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Amund Høie Sjursen</t>
+          <t>Ilunga Josue Kongolo</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="E86" s="15" t="n">
         <v>7.02</v>
@@ -4747,39 +4745,39 @@
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>5.02</v>
+        <v>5.03</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Tor-Junor Kringstad Vedde</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>48.7</v>
+        <v>7.03</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>28.05</v>
+        <v>12.02</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -4816,32 +4814,30 @@
       <c r="J87" s="5" t="n"/>
       <c r="L87" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M87" s="7" t="inlineStr">
         <is>
-          <t>Simen Seeberg-Rommetveit</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N87" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O87" s="17" t="inlineStr">
-        <is>
-          <t>1,53,54</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O87" s="15" t="n">
+        <v>22.2</v>
       </c>
       <c r="P87" s="7" t="n">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="Q87" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R87" s="16" t="n">
-        <v>26.06</v>
+        <v>30.06</v>
       </c>
       <c r="T87" s="5" t="n"/>
     </row>
@@ -4876,30 +4872,30 @@
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M88" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Fredrik H. Gullachsen</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>49.29</v>
+        <v>22.8</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>821</v>
+        <v>770</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>27.08</v>
+        <v>19.02</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -4936,30 +4932,30 @@
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M89" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Holen</t>
+          <t>Seumas Duncan Mackay</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
         <v>2001</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>11.1</v>
+        <v>50.52</v>
       </c>
       <c r="P89" s="7" t="n">
-        <v>816</v>
+        <v>758</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>18.06</v>
+        <v>19.06</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
@@ -4994,32 +4990,30 @@
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Halvard Grape Fladby</t>
+          <t>Simon Fjeldstad</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O90" s="17" t="inlineStr">
-        <is>
-          <t>3,55,04</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O90" s="15" t="n">
+        <v>7.31</v>
       </c>
       <c r="P90" s="7" t="n">
-        <v>810</v>
+        <v>732</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>27.08</v>
+        <v>5.03</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -5054,30 +5048,30 @@
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Thomas Graftås</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>11.14</v>
+        <v>6.47</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>806</v>
+        <v>712</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>19.06</v>
+        <v>24.06</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
@@ -5112,30 +5106,30 @@
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Ruben Martinsen</t>
+          <t>Jakob H. Holmelid</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>61.26</v>
+        <v>23.45</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>776</v>
+        <v>702</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>28.08</v>
+        <v>24.09</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -5170,30 +5164,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Dag Storm Wergeland</t>
+          <t>Robert Sheath</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>1989</v>
+        <v>2002</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>57.45</v>
+        <v>7.4</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>3.09</v>
+        <v>5.03</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -5228,30 +5222,30 @@
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Andreas Langhelle</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>6.06</v>
+        <v>51.79</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>620</v>
+        <v>697</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>13.08</v>
+        <v>26.08</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -5286,30 +5280,30 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>12.25</v>
+        <v>2.99</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>9.09</v>
+        <v>21.01</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -5344,30 +5338,30 @@
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Sebastian Bergheim</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>11.63</v>
+        <v>2.88</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>518</v>
+        <v>605</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>9.09</v>
+        <v>21.01</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -5421,7 +5415,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11740</v>
+        <v>11538</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5444,7 +5438,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>24486</v>
+        <v>24512</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5461,7 +5455,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23311</v>
+        <v>23895</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5485,7 +5479,7 @@
         </is>
       </c>
       <c r="M102" s="20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T102" s="5" t="n"/>
     </row>
@@ -5527,7 +5521,7 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="F106" s="8" t="n">
@@ -5557,7 +5551,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="J107" s="5" t="n"/>
@@ -5697,25 +5691,25 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>6.75</v>
+        <v>6.87</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>984</v>
+        <v>924</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>5.02</v>
+        <v>20.02</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -5755,25 +5749,25 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>10.51</v>
+        <v>10.62</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>974</v>
+        <v>943</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>19.06</v>
+        <v>26.08</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -5813,25 +5807,25 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>21.64</v>
+        <v>21.49</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>903</v>
+        <v>922</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>5.08</v>
+        <v>3.07</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -5871,17 +5865,17 @@
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Muhammed Dodou Jatta</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E116" s="15" t="n">
-        <v>50.14</v>
+        <v>48.67</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>777</v>
+        <v>854</v>
       </c>
       <c r="G116" s="7" t="inlineStr">
         <is>
@@ -5889,7 +5883,7 @@
         </is>
       </c>
       <c r="H116" s="16" t="n">
-        <v>12.02</v>
+        <v>27.08</v>
       </c>
       <c r="J116" s="5" t="n"/>
       <c r="L116" s="14" t="inlineStr">
@@ -5929,27 +5923,27 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Seumas Duncan Mackay</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E117" s="17" t="inlineStr">
         <is>
-          <t>1,49,74</t>
+          <t>1,53,24</t>
         </is>
       </c>
       <c r="F117" s="7" t="n">
-        <v>924</v>
+        <v>835</v>
       </c>
       <c r="G117" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>30.06</v>
+        <v>7.06</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="inlineStr">
@@ -5991,27 +5985,27 @@
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Phillip Morken</t>
+          <t>Roderick Duodu</t>
         </is>
       </c>
       <c r="D118" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E118" s="17" t="inlineStr">
         <is>
-          <t>4,03,86</t>
+          <t>3,54,80</t>
         </is>
       </c>
       <c r="F118" s="7" t="n">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="G118" s="7" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H118" s="16" t="n">
-        <v>18.09</v>
+        <v>23.07</v>
       </c>
       <c r="J118" s="5" t="n"/>
       <c r="L118" s="14" t="inlineStr">
@@ -6053,27 +6047,27 @@
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>Leander Warncke-Wang</t>
+          <t>Simen Seeberg-Rommetveit</t>
         </is>
       </c>
       <c r="D119" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="E119" s="17" t="inlineStr">
         <is>
-          <t>9,22,3</t>
+          <t>8,32,52</t>
         </is>
       </c>
       <c r="F119" s="7" t="n">
-        <v>608</v>
+        <v>802</v>
       </c>
       <c r="G119" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H119" s="16" t="n">
-        <v>4.08</v>
+        <v>3.05</v>
       </c>
       <c r="J119" s="5" t="n"/>
       <c r="L119" s="14" t="inlineStr">
@@ -6110,30 +6104,32 @@
     <row r="120" ht="13" customHeight="1">
       <c r="B120" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>Thomas Krohn-Hansen</t>
+          <t>Endre Wigaard</t>
         </is>
       </c>
       <c r="D120" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E120" s="15" t="n">
-        <v>1.45</v>
+        <v>1996</v>
+      </c>
+      <c r="E120" s="17" t="inlineStr">
+        <is>
+          <t>15,28,49</t>
+        </is>
       </c>
       <c r="F120" s="7" t="n">
-        <v>295</v>
+        <v>710</v>
       </c>
       <c r="G120" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H120" s="16" t="n">
-        <v>13.02</v>
+        <v>24.06</v>
       </c>
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="14" t="inlineStr">
@@ -6170,30 +6166,32 @@
     <row r="121" ht="13" customHeight="1">
       <c r="B121" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Endre Wigaard</t>
         </is>
       </c>
       <c r="D121" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E121" s="15" t="n">
-        <v>6.92</v>
+        <v>1996</v>
+      </c>
+      <c r="E121" s="17" t="inlineStr">
+        <is>
+          <t>31,50,80</t>
+        </is>
       </c>
       <c r="F121" s="7" t="n">
-        <v>810</v>
+        <v>747</v>
       </c>
       <c r="G121" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H121" s="16" t="n">
-        <v>26.08</v>
+        <v>24.09</v>
       </c>
       <c r="J121" s="5" t="n"/>
       <c r="L121" s="14" t="inlineStr">
@@ -6228,30 +6226,32 @@
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E122" s="15" t="n">
-        <v>15.47</v>
+        <v>2007</v>
+      </c>
+      <c r="E122" s="17" t="inlineStr">
+        <is>
+          <t>1,02,09</t>
+        </is>
       </c>
       <c r="F122" s="7" t="n">
-        <v>925</v>
+        <v>572</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>17.07</v>
+        <v>21.08</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
@@ -6286,30 +6286,30 @@
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Anders Vik</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>3.04</v>
+        <v>1.75</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>694</v>
+        <v>607</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Sandane</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>25.01</v>
+        <v>10.09</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
@@ -6344,30 +6344,30 @@
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Marcus Thomsen</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>20.89</v>
+        <v>6.09</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>1106</v>
+        <v>627</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Kladno/CZE</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>14.06</v>
+        <v>20.08</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
@@ -6402,30 +6402,30 @@
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>64.28</v>
+        <v>12.33</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>1070</v>
+        <v>596</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>22.05</v>
+        <v>9.09</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -6460,30 +6460,30 @@
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Jon Nerdal</t>
+          <t>Eirik Halfdansen-Aspen</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>67.75</v>
+        <v>44.33</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>973</v>
+        <v>762</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Baton Rouge/LA/USA</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>9.039999999999999</v>
+        <v>30.06</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
@@ -6516,13 +6516,33 @@
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
-      <c r="B127" s="14" t="n"/>
-      <c r="C127" s="7" t="n"/>
-      <c r="D127" s="7" t="n"/>
-      <c r="E127" s="7" t="n"/>
-      <c r="F127" s="7" t="n"/>
-      <c r="G127" s="7" t="n"/>
-      <c r="H127" s="21" t="n"/>
+      <c r="B127" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C127" s="7" t="inlineStr">
+        <is>
+          <t>Kasper Sagen</t>
+        </is>
+      </c>
+      <c r="D127" s="7" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E127" s="15" t="n">
+        <v>66.98999999999999</v>
+      </c>
+      <c r="F127" s="7" t="n">
+        <v>857</v>
+      </c>
+      <c r="G127" s="7" t="inlineStr">
+        <is>
+          <t>Leiria/POR</t>
+        </is>
+      </c>
+      <c r="H127" s="16" t="n">
+        <v>13.03</v>
+      </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
@@ -6578,7 +6598,7 @@
         </is>
       </c>
       <c r="C129" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E129" s="19" t="inlineStr">
         <is>
@@ -6586,7 +6606,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11768</v>
+        <v>11571</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -6706,30 +6726,30 @@
     <row r="134" ht="13" customHeight="1">
       <c r="B134" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="D134" s="7" t="n">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E134" s="15" t="n">
-        <v>17.6</v>
+        <v>10.65</v>
       </c>
       <c r="F134" s="7" t="n">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="G134" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H134" s="16" t="n">
-        <v>19.02</v>
+        <v>16.06</v>
       </c>
       <c r="J134" s="5" t="n"/>
       <c r="L134" s="14" t="inlineStr">
@@ -6764,32 +6784,30 @@
     <row r="135" ht="13" customHeight="1">
       <c r="B135" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>Phillip Morken</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D135" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E135" s="17" t="inlineStr">
-        <is>
-          <t>1,52,17</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="E135" s="15" t="n">
+        <v>6.93</v>
       </c>
       <c r="F135" s="7" t="n">
-        <v>861</v>
+        <v>895</v>
       </c>
       <c r="G135" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H135" s="16" t="n">
-        <v>28.08</v>
+        <v>20.02</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
@@ -6829,25 +6847,25 @@
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="D136" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E136" s="15" t="n">
-        <v>10.95</v>
+        <v>10.83</v>
       </c>
       <c r="F136" s="7" t="n">
-        <v>854</v>
+        <v>886</v>
       </c>
       <c r="G136" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H136" s="16" t="n">
-        <v>24.06</v>
+        <v>12.08</v>
       </c>
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
@@ -6882,30 +6900,30 @@
     <row r="137" ht="13" customHeight="1">
       <c r="B137" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Anders Vik</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D137" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="E137" s="15" t="n">
-        <v>49.73</v>
+        <v>21.95</v>
       </c>
       <c r="F137" s="7" t="n">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="G137" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H137" s="16" t="n">
-        <v>22.07</v>
+        <v>27.08</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
@@ -6940,30 +6958,30 @@
     <row r="138" ht="13" customHeight="1">
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Tor-Junor Kringstad Vedde</t>
         </is>
       </c>
       <c r="D138" s="7" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="E138" s="15" t="n">
-        <v>7.03</v>
+        <v>48.7</v>
       </c>
       <c r="F138" s="7" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G138" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H138" s="16" t="n">
-        <v>12.02</v>
+        <v>28.05</v>
       </c>
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
@@ -6998,30 +7016,32 @@
     <row r="139" ht="13" customHeight="1">
       <c r="B139" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Simen Seeberg-Rommetveit</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E139" s="15" t="n">
-        <v>22.2</v>
+        <v>2000</v>
+      </c>
+      <c r="E139" s="17" t="inlineStr">
+        <is>
+          <t>1,53,54</t>
+        </is>
       </c>
       <c r="F139" s="7" t="n">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>30.06</v>
+        <v>26.06</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
@@ -7056,30 +7076,30 @@
     <row r="140" ht="13" customHeight="1">
       <c r="B140" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Fredrik H. Gullachsen</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="D140" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E140" s="15" t="n">
-        <v>22.8</v>
+        <v>49.29</v>
       </c>
       <c r="F140" s="7" t="n">
-        <v>770</v>
+        <v>821</v>
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>19.02</v>
+        <v>27.08</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
@@ -7114,30 +7134,30 @@
     <row r="141" ht="13" customHeight="1">
       <c r="B141" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Seumas Duncan Mackay</t>
+          <t>Jonathan Holen</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
         <v>2001</v>
       </c>
       <c r="E141" s="15" t="n">
-        <v>50.52</v>
+        <v>11.1</v>
       </c>
       <c r="F141" s="7" t="n">
-        <v>758</v>
+        <v>816</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>19.06</v>
+        <v>18.06</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
@@ -7172,30 +7192,32 @@
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Simon Fjeldstad</t>
+          <t>Halvard Grape Fladby</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E142" s="15" t="n">
-        <v>7.31</v>
+        <v>2005</v>
+      </c>
+      <c r="E142" s="17" t="inlineStr">
+        <is>
+          <t>3,55,04</t>
+        </is>
       </c>
       <c r="F142" s="7" t="n">
-        <v>732</v>
+        <v>810</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>5.03</v>
+        <v>27.08</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
@@ -7230,30 +7252,30 @@
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Thomas Graftås</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="E143" s="15" t="n">
-        <v>6.47</v>
+        <v>11.14</v>
       </c>
       <c r="F143" s="7" t="n">
-        <v>712</v>
+        <v>806</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>24.06</v>
+        <v>19.06</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
@@ -7288,22 +7310,22 @@
     <row r="144" ht="13" customHeight="1">
       <c r="B144" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Ruben Martinsen</t>
         </is>
       </c>
       <c r="D144" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E144" s="15" t="n">
-        <v>51.79</v>
+        <v>61.26</v>
       </c>
       <c r="F144" s="7" t="n">
-        <v>697</v>
+        <v>776</v>
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
@@ -7311,7 +7333,7 @@
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>26.08</v>
+        <v>28.08</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
@@ -7346,30 +7368,30 @@
     <row r="145" ht="13" customHeight="1">
       <c r="B145" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Robert Sheath</t>
+          <t>Dag Storm Wergeland</t>
         </is>
       </c>
       <c r="D145" s="7" t="n">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>7.4</v>
+        <v>57.45</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>5.03</v>
+        <v>3.09</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
@@ -7404,30 +7426,30 @@
     <row r="146" ht="13" customHeight="1">
       <c r="B146" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E146" s="15" t="n">
-        <v>23.53</v>
+        <v>6.06</v>
       </c>
       <c r="F146" s="7" t="n">
-        <v>694</v>
+        <v>620</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>11.09</v>
+        <v>13.08</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
@@ -7462,30 +7484,30 @@
     <row r="147" ht="13" customHeight="1">
       <c r="B147" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="D147" s="7" t="n">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>2.99</v>
+        <v>12.25</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>666</v>
+        <v>587</v>
       </c>
       <c r="G147" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H147" s="16" t="n">
-        <v>21.01</v>
+        <v>9.09</v>
       </c>
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
@@ -7520,30 +7542,30 @@
     <row r="148" ht="13" customHeight="1">
       <c r="B148" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Bergheim</t>
+          <t>Ariand Shegani</t>
         </is>
       </c>
       <c r="D148" s="7" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E148" s="15" t="n">
-        <v>2.88</v>
+        <v>11.63</v>
       </c>
       <c r="F148" s="7" t="n">
-        <v>605</v>
+        <v>518</v>
       </c>
       <c r="G148" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H148" s="16" t="n">
-        <v>21.01</v>
+        <v>9.09</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
@@ -7608,7 +7630,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>11530</v>
+        <v>11740</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -7640,7 +7662,7 @@
         </is>
       </c>
       <c r="C152" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E152" s="19" t="inlineStr">
         <is>
@@ -7648,7 +7670,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>23298</v>
+        <v>23311</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -7680,7 +7702,7 @@
         </is>
       </c>
       <c r="C154" s="20" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="19" t="inlineStr">
@@ -10903,7 +10925,7 @@
       </c>
       <c r="M229" s="7" t="inlineStr">
         <is>
-          <t>Sondre Evensen</t>
+          <t>Henrik Duncan</t>
         </is>
       </c>
       <c r="N229" s="7" t="n">
@@ -10917,11 +10939,11 @@
       </c>
       <c r="Q229" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R229" s="16" t="n">
-        <v>6.02</v>
+        <v>1.1</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -11685,25 +11707,25 @@
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Henrik Duncan</t>
+          <t>Sondre Evensen</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="O246" s="15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>2.08</v>
+        <v>6.02</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -12105,7 +12127,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>10837</v>
+        <v>10848</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -12145,7 +12167,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>21580</v>
+        <v>21591</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -12997,11 +13019,11 @@
       </c>
       <c r="G279" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="H279" s="16" t="n">
-        <v>19.03</v>
+        <v>14.03</v>
       </c>
       <c r="J279" s="5" t="n"/>
       <c r="L279" s="14" t="inlineStr">
@@ -13025,11 +13047,11 @@
       </c>
       <c r="Q279" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="R279" s="16" t="n">
-        <v>27.03</v>
+        <v>16.09</v>
       </c>
       <c r="T279" s="5" t="n"/>
     </row>
@@ -13120,13 +13142,33 @@
         <v>28.08</v>
       </c>
       <c r="J281" s="5" t="n"/>
-      <c r="L281" s="14" t="n"/>
-      <c r="M281" s="7" t="n"/>
-      <c r="N281" s="7" t="n"/>
-      <c r="O281" s="7" t="n"/>
-      <c r="P281" s="7" t="n"/>
-      <c r="Q281" s="7" t="n"/>
-      <c r="R281" s="21" t="n"/>
+      <c r="L281" s="14" t="inlineStr">
+        <is>
+          <t>Tresteg</t>
+        </is>
+      </c>
+      <c r="M281" s="7" t="inlineStr">
+        <is>
+          <t>Frank Atle Kvinge</t>
+        </is>
+      </c>
+      <c r="N281" s="7" t="n">
+        <v>1954</v>
+      </c>
+      <c r="O281" s="15" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="P281" s="7" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q281" s="7" t="inlineStr">
+        <is>
+          <t>Os</t>
+        </is>
+      </c>
+      <c r="R281" s="16" t="n">
+        <v>2.1</v>
+      </c>
       <c r="T281" s="5" t="n"/>
     </row>
     <row r="282" ht="13" customHeight="1">
@@ -13247,7 +13289,7 @@
         </is>
       </c>
       <c r="M285" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O285" s="19" t="inlineStr">
         <is>
@@ -13255,7 +13297,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>9707</v>
+        <v>9763</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -14225,7 +14267,7 @@
         </is>
       </c>
       <c r="M308" s="20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O308" s="19" t="inlineStr">
         <is>
@@ -14233,7 +14275,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>19059</v>
+        <v>19115</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -16633,7 +16675,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>20211</v>
+        <v>20224</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -16792,25 +16834,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Moss IL</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15988</v>
+        <v>16125</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(3/3d)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -16820,25 +16862,25 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>Moss IL</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15890</v>
+        <v>15988</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -16848,20 +16890,20 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15724</v>
+        <v>15890</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(3/3d)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -16937,11 +16979,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>13711</v>
+        <v>13809</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -16993,11 +17035,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/13)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>12574</v>
+        <v>12605</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -17959,10 +18001,10 @@
         <v>2004</v>
       </c>
       <c r="E21" s="15" t="n">
-        <v>45.72</v>
+        <v>46.68</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="G21" s="7" t="inlineStr">
         <is>
@@ -17970,7 +18012,7 @@
         </is>
       </c>
       <c r="H21" s="16" t="n">
-        <v>19.09</v>
+        <v>25.09</v>
       </c>
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
@@ -18035,7 +18077,7 @@
         </is>
       </c>
       <c r="F23" s="20" t="n">
-        <v>10538</v>
+        <v>10551</v>
       </c>
       <c r="J23" s="5" t="n"/>
       <c r="L23" s="19" t="inlineStr">
@@ -18336,11 +18378,11 @@
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Teodor Heldal</t>
+          <t>Vetle Raa Ellingsen</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E31" s="15" t="n">
         <v>2</v>
@@ -18350,11 +18392,11 @@
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>17.07</v>
+        <v>6.02</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
@@ -18396,11 +18438,11 @@
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Vetle Raa Ellingsen</t>
+          <t>Teodor Heldal</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E32" s="15" t="n">
         <v>2</v>
@@ -18410,11 +18452,11 @@
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>6.02</v>
+        <v>17.07</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -18873,7 +18915,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>20211</v>
+        <v>20224</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -20459,7 +20501,7 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
@@ -20471,18 +20513,18 @@
         <v>2005</v>
       </c>
       <c r="E82" s="15" t="n">
-        <v>11.63</v>
+        <v>23.57</v>
       </c>
       <c r="F82" s="7" t="n">
         <v>690</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>19.06</v>
+        <v>13.08</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -20654,11 +20696,11 @@
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>29.05</v>
+        <v>4.06</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -20682,11 +20724,11 @@
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>13.08</v>
+        <v>6.08</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -22836,7 +22878,7 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Buskerud</t>
         </is>
       </c>
       <c r="F143" s="8" t="n">
@@ -22850,7 +22892,7 @@
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Østfold</t>
         </is>
       </c>
       <c r="P143" s="8" t="n">
@@ -22866,7 +22908,7 @@
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Moss IL</t>
+          <t>IL Sandvin</t>
         </is>
       </c>
       <c r="J144" s="5" t="n"/>
@@ -22877,7 +22919,7 @@
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>IF Sturla</t>
+          <t>Moss IL</t>
         </is>
       </c>
       <c r="T144" s="5" t="n"/>
@@ -23006,17 +23048,17 @@
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tollefsen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D150" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E150" s="15" t="n">
-        <v>7.16</v>
+        <v>7.14</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="G150" s="7" t="inlineStr">
         <is>
@@ -23029,30 +23071,30 @@
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M150" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Oliver Tollefsen</t>
         </is>
       </c>
       <c r="N150" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O150" s="15" t="n">
-        <v>11.99</v>
+        <v>7.16</v>
       </c>
       <c r="P150" s="7" t="n">
-        <v>613</v>
+        <v>793</v>
       </c>
       <c r="Q150" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R150" s="16" t="n">
-        <v>19.06</v>
+        <v>5.03</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -23064,17 +23106,17 @@
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tollefsen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D151" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E151" s="15" t="n">
-        <v>10.97</v>
+        <v>10.94</v>
       </c>
       <c r="F151" s="7" t="n">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="G151" s="7" t="inlineStr">
         <is>
@@ -23087,30 +23129,30 @@
       <c r="J151" s="5" t="n"/>
       <c r="L151" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M151" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Oliver Tollefsen</t>
         </is>
       </c>
       <c r="N151" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O151" s="15" t="n">
-        <v>24.39</v>
+        <v>10.97</v>
       </c>
       <c r="P151" s="7" t="n">
-        <v>610</v>
+        <v>849</v>
       </c>
       <c r="Q151" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R151" s="16" t="n">
-        <v>21.08</v>
+        <v>12.08</v>
       </c>
       <c r="T151" s="5" t="n"/>
     </row>
@@ -23122,317 +23164,313 @@
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tollefsen</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D152" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E152" s="15" t="n">
-        <v>22</v>
+        <v>22.45</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>860</v>
+        <v>809</v>
       </c>
       <c r="G152" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H152" s="16" t="n">
-        <v>6.03</v>
+        <v>28.08</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M152" s="7" t="inlineStr">
         <is>
-          <t>Stig Ketil Andersen</t>
+          <t>Oliver Tollefsen</t>
         </is>
       </c>
       <c r="N152" s="7" t="n">
-        <v>1980</v>
+        <v>2004</v>
       </c>
       <c r="O152" s="15" t="n">
-        <v>55.81</v>
+        <v>22</v>
       </c>
       <c r="P152" s="7" t="n">
-        <v>538</v>
+        <v>860</v>
       </c>
       <c r="Q152" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R152" s="16" t="n">
-        <v>21.08</v>
+        <v>6.03</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
     <row r="153" ht="13" customHeight="1">
       <c r="B153" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Ottar Andreas Grønvold</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>1982</v>
-      </c>
-      <c r="E153" s="17" t="inlineStr">
-        <is>
-          <t>17,09,75</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E153" s="15" t="n">
+        <v>52.91</v>
       </c>
       <c r="F153" s="7" t="n">
-        <v>518</v>
+        <v>648</v>
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>7.04</v>
+        <v>21.05</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M153" s="7" t="inlineStr">
         <is>
-          <t>Nahom Tesfalem Tewelde</t>
+          <t>Ottar Andreas Grønvold</t>
         </is>
       </c>
       <c r="N153" s="7" t="n">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="O153" s="17" t="inlineStr">
         <is>
-          <t>1,57,72</t>
+          <t>17,09,75</t>
         </is>
       </c>
       <c r="P153" s="7" t="n">
-        <v>733</v>
+        <v>518</v>
       </c>
       <c r="Q153" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R153" s="16" t="n">
-        <v>19.06</v>
+        <v>7.04</v>
       </c>
       <c r="T153" s="5" t="n"/>
     </row>
     <row r="154" ht="13" customHeight="1">
       <c r="B154" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="D154" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E154" s="15" t="n">
-        <v>1.76</v>
+        <v>2006</v>
+      </c>
+      <c r="E154" s="17" t="inlineStr">
+        <is>
+          <t>2,26,47</t>
+        </is>
       </c>
       <c r="F154" s="7" t="n">
-        <v>616</v>
+        <v>331</v>
       </c>
       <c r="G154" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H154" s="16" t="n">
-        <v>13.08</v>
+        <v>24.09</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M154" s="7" t="inlineStr">
         <is>
-          <t>Nahom Tesfalem Tewelde</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="N154" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O154" s="17" t="inlineStr">
-        <is>
-          <t>3,58,76</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O154" s="15" t="n">
+        <v>1.76</v>
       </c>
       <c r="P154" s="7" t="n">
-        <v>773</v>
+        <v>616</v>
       </c>
       <c r="Q154" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R154" s="16" t="n">
-        <v>2.06</v>
+        <v>13.08</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
     <row r="155" ht="13" customHeight="1">
       <c r="B155" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D155" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E155" s="15" t="n">
-        <v>3.8</v>
+        <v>2005</v>
+      </c>
+      <c r="E155" s="17" t="inlineStr">
+        <is>
+          <t>4,42,31</t>
+        </is>
       </c>
       <c r="F155" s="7" t="n">
-        <v>679</v>
+        <v>449</v>
       </c>
       <c r="G155" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H155" s="16" t="n">
-        <v>17.09</v>
+        <v>22.05</v>
       </c>
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M155" s="7" t="inlineStr">
         <is>
-          <t>Nahom Tesfalem Tewelde</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="N155" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O155" s="17" t="inlineStr">
-        <is>
-          <t>8,35,27</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="O155" s="15" t="n">
+        <v>3.8</v>
       </c>
       <c r="P155" s="7" t="n">
-        <v>790</v>
+        <v>679</v>
       </c>
       <c r="Q155" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R155" s="16" t="n">
-        <v>14.08</v>
+        <v>17.09</v>
       </c>
       <c r="T155" s="5" t="n"/>
     </row>
     <row r="156" ht="13" customHeight="1">
       <c r="B156" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>Marcus Stålby</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D156" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E156" s="15" t="n">
-        <v>5.99</v>
+        <v>1.83</v>
       </c>
       <c r="F156" s="7" t="n">
-        <v>604</v>
+        <v>678</v>
       </c>
       <c r="G156" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H156" s="16" t="n">
-        <v>17.09</v>
+        <v>13.08</v>
       </c>
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M156" s="7" t="inlineStr">
         <is>
-          <t>Nahom Tesfalem Tewelde</t>
+          <t>Marcus Stålby</t>
         </is>
       </c>
       <c r="N156" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O156" s="17" t="inlineStr">
-        <is>
-          <t>14,54,81</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O156" s="15" t="n">
+        <v>5.99</v>
       </c>
       <c r="P156" s="7" t="n">
-        <v>784</v>
+        <v>604</v>
       </c>
       <c r="Q156" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R156" s="16" t="n">
-        <v>28.08</v>
+        <v>17.09</v>
       </c>
       <c r="T156" s="5" t="n"/>
     </row>
     <row r="157" ht="13" customHeight="1">
       <c r="B157" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D157" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E157" s="15" t="n">
-        <v>13.09</v>
+        <v>4.3</v>
       </c>
       <c r="F157" s="7" t="n">
-        <v>679</v>
+        <v>777</v>
       </c>
       <c r="G157" s="7" t="inlineStr">
         <is>
@@ -23440,325 +23478,325 @@
         </is>
       </c>
       <c r="H157" s="16" t="n">
-        <v>27.08</v>
+        <v>23.01</v>
       </c>
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M157" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="N157" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O157" s="15" t="n">
-        <v>1.75</v>
+        <v>13.09</v>
       </c>
       <c r="P157" s="7" t="n">
-        <v>607</v>
+        <v>679</v>
       </c>
       <c r="Q157" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R157" s="16" t="n">
-        <v>15.05</v>
+        <v>27.08</v>
       </c>
       <c r="T157" s="5" t="n"/>
     </row>
     <row r="158" ht="13" customHeight="1">
       <c r="B158" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Simen Johan Teigstad</t>
         </is>
       </c>
       <c r="D158" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="E158" s="15" t="n">
-        <v>1.5</v>
+        <v>6.47</v>
       </c>
       <c r="F158" s="7" t="n">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="G158" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H158" s="16" t="n">
-        <v>14.09</v>
+        <v>21.05</v>
       </c>
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Sander Oppen</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="N158" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="O158" s="15" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="P158" s="7" t="n">
-        <v>870</v>
+        <v>672</v>
       </c>
       <c r="Q158" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R158" s="16" t="n">
-        <v>12.02</v>
+        <v>14.09</v>
       </c>
       <c r="T158" s="5" t="n"/>
     </row>
     <row r="159" ht="13" customHeight="1">
       <c r="B159" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Tobias Kalmo Thorbjørnsen</t>
         </is>
       </c>
       <c r="D159" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="E159" s="15" t="n">
-        <v>3.02</v>
+        <v>10.65</v>
       </c>
       <c r="F159" s="7" t="n">
-        <v>683</v>
+        <v>407</v>
       </c>
       <c r="G159" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H159" s="16" t="n">
-        <v>6.02</v>
+        <v>4.03</v>
       </c>
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M159" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="N159" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="O159" s="15" t="n">
-        <v>5.95</v>
+        <v>3.02</v>
       </c>
       <c r="P159" s="7" t="n">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="Q159" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R159" s="16" t="n">
-        <v>28.05</v>
+        <v>6.02</v>
       </c>
       <c r="T159" s="5" t="n"/>
     </row>
     <row r="160" ht="13" customHeight="1">
       <c r="B160" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D160" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="E160" s="15" t="n">
-        <v>8.949999999999999</v>
+        <v>3.03</v>
       </c>
       <c r="F160" s="7" t="n">
-        <v>369</v>
+        <v>688</v>
       </c>
       <c r="G160" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H160" s="16" t="n">
-        <v>14.09</v>
+        <v>22.03</v>
       </c>
       <c r="J160" s="5" t="n"/>
       <c r="L160" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M160" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="N160" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="O160" s="15" t="n">
-        <v>11.95</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="P160" s="7" t="n">
-        <v>554</v>
+        <v>369</v>
       </c>
       <c r="Q160" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R160" s="16" t="n">
-        <v>11.06</v>
+        <v>14.09</v>
       </c>
       <c r="T160" s="5" t="n"/>
     </row>
     <row r="161" ht="13" customHeight="1">
       <c r="B161" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Fredrik Simensen</t>
         </is>
       </c>
       <c r="D161" s="7" t="n">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="E161" s="15" t="n">
-        <v>32.31</v>
+        <v>13.31</v>
       </c>
       <c r="F161" s="7" t="n">
-        <v>531</v>
+        <v>688</v>
       </c>
       <c r="G161" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H161" s="16" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="J161" s="5" t="n"/>
       <c r="L161" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M161" s="7" t="inlineStr">
         <is>
-          <t>Magnus Løkra</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="N161" s="7" t="n">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="O161" s="15" t="n">
-        <v>2.96</v>
+        <v>32.31</v>
       </c>
       <c r="P161" s="7" t="n">
-        <v>650</v>
+        <v>531</v>
       </c>
       <c r="Q161" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R161" s="16" t="n">
-        <v>22.03</v>
+        <v>3.08</v>
       </c>
       <c r="T161" s="5" t="n"/>
     </row>
     <row r="162" ht="13" customHeight="1">
       <c r="B162" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
         <is>
-          <t>Nathaniel Laukhammer Trobe</t>
+          <t>Fredrik Simensen</t>
         </is>
       </c>
       <c r="D162" s="7" t="n">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="E162" s="15" t="n">
-        <v>40.69</v>
+        <v>37.71</v>
       </c>
       <c r="F162" s="7" t="n">
-        <v>496</v>
+        <v>642</v>
       </c>
       <c r="G162" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H162" s="16" t="n">
-        <v>17.09</v>
+        <v>30.09</v>
       </c>
       <c r="J162" s="5" t="n"/>
       <c r="L162" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M162" s="7" t="inlineStr">
         <is>
-          <t>Ola Stunes Isene</t>
+          <t>Nathaniel Laukhammer Trobe</t>
         </is>
       </c>
       <c r="N162" s="7" t="n">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="O162" s="15" t="n">
-        <v>63.25</v>
+        <v>40.69</v>
       </c>
       <c r="P162" s="7" t="n">
-        <v>1056</v>
+        <v>496</v>
       </c>
       <c r="Q162" s="7" t="inlineStr">
         <is>
-          <t>Brandbu</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R162" s="16" t="n">
-        <v>10.08</v>
+        <v>17.09</v>
       </c>
       <c r="T162" s="5" t="n"/>
     </row>
@@ -23795,7 +23833,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>8349</v>
+        <v>8488</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -23812,7 +23850,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>9173</v>
+        <v>8349</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -23920,411 +23958,401 @@
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E169" s="15" t="n">
-        <v>23.04</v>
+        <v>23.01</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>9.07</v>
+        <v>13.02</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Bjørnstad</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O169" s="17" t="inlineStr">
-        <is>
-          <t>1,58,16</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O169" s="15" t="n">
+        <v>23.04</v>
       </c>
       <c r="P169" s="7" t="n">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>27.08</v>
+        <v>9.07</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
     <row r="170" ht="13" customHeight="1">
       <c r="B170" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="E170" s="15" t="n">
-        <v>11.45</v>
+        <v>7.33</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>20.08</v>
+        <v>12.02</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M170" s="7" t="inlineStr">
         <is>
-          <t>Benjamin Bjørnstad</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="N170" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O170" s="17" t="inlineStr">
-        <is>
-          <t>4,14,36</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O170" s="15" t="n">
+        <v>11.45</v>
       </c>
       <c r="P170" s="7" t="n">
-        <v>636</v>
+        <v>732</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="R170" s="16" t="n">
-        <v>2.06</v>
+        <v>20.08</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
     <row r="171" ht="13" customHeight="1">
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E171" s="15" t="n">
-        <v>11.53</v>
+        <v>23.37</v>
       </c>
       <c r="F171" s="7" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>31.08</v>
+        <v>14.08</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O171" s="17" t="inlineStr">
-        <is>
-          <t>16,16,76</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O171" s="15" t="n">
+        <v>11.53</v>
       </c>
       <c r="P171" s="7" t="n">
-        <v>613</v>
+        <v>713</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>21.05</v>
+        <v>31.08</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E172" s="15" t="n">
-        <v>7.38</v>
+        <v>11.64</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>12.02</v>
+        <v>12.08</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O172" s="15" t="n">
-        <v>1.69</v>
+        <v>7.38</v>
       </c>
       <c r="P172" s="7" t="n">
-        <v>550</v>
+        <v>705</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Hønefoss</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>28.08</v>
+        <v>12.02</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Sondre Witzøe</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E173" s="15" t="n">
-        <v>23.5</v>
+        <v>6.21</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>697</v>
+        <v>654</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>15.05</v>
+        <v>12.02</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O173" s="15" t="n">
-        <v>12.31</v>
+        <v>23.5</v>
       </c>
       <c r="P173" s="7" t="n">
-        <v>548</v>
+        <v>697</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>7.08</v>
+        <v>15.05</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Siver Olavsbråten Ebbestad</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>7.59</v>
+        <v>3.54</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>29.01</v>
+        <v>18.06</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Stig Ketil Andersen</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>1980</v>
-      </c>
-      <c r="O174" s="17" t="inlineStr">
-        <is>
-          <t>2,08,55</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O174" s="15" t="n">
+        <v>7.59</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>544</v>
+        <v>628</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>9.07</v>
+        <v>29.01</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>3.5</v>
+        <v>11.96</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>11.09</v>
+        <v>16.05</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O175" s="17" t="inlineStr">
-        <is>
-          <t>9,44,94</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O175" s="15" t="n">
+        <v>3.5</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>535</v>
+        <v>615</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>7.05</v>
+        <v>11.09</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
@@ -24336,11 +24364,11 @@
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Alexander Tomala</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E176" s="15" t="n">
         <v>11.99</v>
@@ -24350,157 +24378,155 @@
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>19.06</v>
+        <v>12.08</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>7.91</v>
+        <v>11.99</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>523</v>
+        <v>613</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>5.03</v>
+        <v>19.06</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Eirik-André Kristiansen</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>12.05</v>
+        <v>7.65</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>19.06</v>
+        <v>13.03</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Eirik-André Kristiansen</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O177" s="17" t="inlineStr">
-        <is>
-          <t>2,10,19</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O177" s="15" t="n">
+        <v>12.05</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>521</v>
+        <v>600</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>16.05</v>
+        <v>19.06</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Oliver Tomala</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>11.99</v>
+        <v>54.01</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>559</v>
+        <v>603</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>4.03</v>
+        <v>11.09</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>1.65</v>
+        <v>11.99</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>11.09</v>
+        <v>4.03</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -24512,111 +24538,111 @@
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Sander Skarre Lindseth</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Sande</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>10.09</v>
+        <v>16.05</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>1964</v>
+        <v>2007</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>2.71</v>
+        <v>5.66</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>22.03</v>
+        <v>10.09</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Jacob Egeberg Holm</t>
+          <t>Lucas Bricot</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E180" s="15" t="n">
-        <v>5.56</v>
+        <v>1.65</v>
       </c>
       <c r="F180" s="7" t="n">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>13.08</v>
+        <v>7.05</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>Jacob Egeberg Holm</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
-        <v>1964</v>
+        <v>2007</v>
       </c>
       <c r="O180" s="15" t="n">
-        <v>1.35</v>
+        <v>5.56</v>
       </c>
       <c r="P180" s="7" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>26.03</v>
+        <v>13.08</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
@@ -24653,7 +24679,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>7639</v>
+        <v>7637</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24670,7 +24696,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>6717</v>
+        <v>7639</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -24693,7 +24719,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15988</v>
+        <v>16125</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24710,7 +24736,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15890</v>
+        <v>15988</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24725,7 +24751,7 @@
         </is>
       </c>
       <c r="C186" s="20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="19" t="inlineStr">
@@ -24734,7 +24760,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -24806,7 +24832,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>IL Sandvin</t>
+          <t>IF Sturla</t>
         </is>
       </c>
       <c r="J191" s="5" t="n"/>
@@ -24941,30 +24967,30 @@
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>7.14</v>
+        <v>11.99</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>802</v>
+        <v>613</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>5.03</v>
+        <v>19.06</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -24999,30 +25025,30 @@
     <row r="198" ht="13" customHeight="1">
       <c r="B198" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>10.94</v>
+        <v>24.39</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>857</v>
+        <v>610</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>12.08</v>
+        <v>21.08</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -25057,30 +25083,30 @@
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Stig Ketil Andersen</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>22.45</v>
+        <v>55.81</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>809</v>
+        <v>538</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>28.08</v>
+        <v>21.08</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -25115,30 +25141,32 @@
     <row r="200" ht="13" customHeight="1">
       <c r="B200" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Nahom Tesfalem Tewelde</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E200" s="15" t="n">
-        <v>52.91</v>
+        <v>2006</v>
+      </c>
+      <c r="E200" s="17" t="inlineStr">
+        <is>
+          <t>1,57,72</t>
+        </is>
       </c>
       <c r="F200" s="7" t="n">
-        <v>648</v>
+        <v>733</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>21.05</v>
+        <v>19.06</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -25175,12 +25203,12 @@
     <row r="201" ht="13" customHeight="1">
       <c r="B201" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Nahom Tesfalem Tewelde</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
@@ -25188,19 +25216,19 @@
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>2,26,47</t>
+          <t>3,58,76</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>331</v>
+        <v>773</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>24.09</v>
+        <v>2.06</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
@@ -25237,32 +25265,32 @@
     <row r="202" ht="13" customHeight="1">
       <c r="B202" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Nahom Tesfalem Tewelde</t>
         </is>
       </c>
       <c r="D202" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>4,42,31</t>
+          <t>8,35,27</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>449</v>
+        <v>790</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>22.05</v>
+        <v>14.08</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
@@ -25299,12 +25327,12 @@
     <row r="203" ht="13" customHeight="1">
       <c r="B203" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Nahom Tesfalem Tewelde</t>
         </is>
       </c>
       <c r="D203" s="7" t="n">
@@ -25312,19 +25340,19 @@
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>11,21,07</t>
+          <t>14,54,81</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>287</v>
+        <v>784</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>1.1</v>
+        <v>28.08</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
@@ -25366,25 +25394,25 @@
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E204" s="15" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="F204" s="7" t="n">
-        <v>678</v>
+        <v>607</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>13.08</v>
+        <v>15.05</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
@@ -25426,17 +25454,17 @@
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Sander Oppen</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E205" s="15" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>777</v>
+        <v>870</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
@@ -25444,7 +25472,7 @@
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>23.01</v>
+        <v>12.02</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
@@ -25486,25 +25514,25 @@
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Simen Johan Teigstad</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>6.47</v>
+        <v>5.95</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>712</v>
+        <v>595</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>21.05</v>
+        <v>28.05</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
@@ -25544,25 +25572,25 @@
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>Tobias Kalmo Thorbjørnsen</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D207" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>10.65</v>
+        <v>11.95</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>407</v>
+        <v>554</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>4.03</v>
+        <v>11.06</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
@@ -25602,17 +25630,17 @@
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Magnus Løkra</t>
         </is>
       </c>
       <c r="D208" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E208" s="15" t="n">
-        <v>3.03</v>
+        <v>2.96</v>
       </c>
       <c r="F208" s="7" t="n">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="G208" s="7" t="inlineStr">
         <is>
@@ -25660,25 +25688,25 @@
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Simensen</t>
+          <t>Ola Stunes Isene</t>
         </is>
       </c>
       <c r="D209" s="7" t="n">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="E209" s="15" t="n">
-        <v>37.71</v>
+        <v>63.25</v>
       </c>
       <c r="F209" s="7" t="n">
-        <v>642</v>
+        <v>1056</v>
       </c>
       <c r="G209" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="H209" s="16" t="n">
-        <v>30.09</v>
+        <v>10.08</v>
       </c>
       <c r="J209" s="5" t="n"/>
       <c r="L209" s="14" t="inlineStr">
@@ -25743,7 +25771,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>8087</v>
+        <v>9173</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -25863,22 +25891,24 @@
     <row r="216" ht="13" customHeight="1">
       <c r="B216" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Benjamin Bjørnstad</t>
         </is>
       </c>
       <c r="D216" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E216" s="15" t="n">
-        <v>23.01</v>
+        <v>2003</v>
+      </c>
+      <c r="E216" s="17" t="inlineStr">
+        <is>
+          <t>1,58,16</t>
+        </is>
       </c>
       <c r="F216" s="7" t="n">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="G216" s="7" t="inlineStr">
         <is>
@@ -25886,7 +25916,7 @@
         </is>
       </c>
       <c r="H216" s="16" t="n">
-        <v>13.02</v>
+        <v>27.08</v>
       </c>
       <c r="J216" s="5" t="n"/>
       <c r="L216" s="14" t="inlineStr">
@@ -25921,30 +25951,32 @@
     <row r="217" ht="13" customHeight="1">
       <c r="B217" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Benjamin Bjørnstad</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E217" s="15" t="n">
-        <v>7.33</v>
+        <v>2003</v>
+      </c>
+      <c r="E217" s="17" t="inlineStr">
+        <is>
+          <t>4,14,36</t>
+        </is>
       </c>
       <c r="F217" s="7" t="n">
-        <v>725</v>
+        <v>636</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>12.02</v>
+        <v>2.06</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
@@ -25981,30 +26013,32 @@
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E218" s="15" t="n">
-        <v>23.37</v>
+        <v>2004</v>
+      </c>
+      <c r="E218" s="17" t="inlineStr">
+        <is>
+          <t>16,16,76</t>
+        </is>
       </c>
       <c r="F218" s="7" t="n">
-        <v>710</v>
+        <v>613</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>14.08</v>
+        <v>21.05</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
@@ -26041,30 +26075,30 @@
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>11.64</v>
+        <v>1.69</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hønefoss</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>12.08</v>
+        <v>28.08</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
@@ -26101,30 +26135,30 @@
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Sondre Witzøe</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E220" s="15" t="n">
-        <v>6.21</v>
+        <v>12.31</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>654</v>
+        <v>548</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>12.02</v>
+        <v>7.08</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
@@ -26159,30 +26193,32 @@
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Siver Olavsbråten Ebbestad</t>
+          <t>Stig Ketil Andersen</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E221" s="15" t="n">
-        <v>3.54</v>
+        <v>1980</v>
+      </c>
+      <c r="E221" s="17" t="inlineStr">
+        <is>
+          <t>2,08,55</t>
+        </is>
       </c>
       <c r="F221" s="7" t="n">
-        <v>623</v>
+        <v>544</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>18.06</v>
+        <v>9.07</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
@@ -26219,30 +26255,32 @@
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E222" s="15" t="n">
-        <v>11.96</v>
+        <v>2004</v>
+      </c>
+      <c r="E222" s="17" t="inlineStr">
+        <is>
+          <t>9,44,94</t>
+        </is>
       </c>
       <c r="F222" s="7" t="n">
-        <v>619</v>
+        <v>535</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>16.05</v>
+        <v>7.05</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
@@ -26277,30 +26315,30 @@
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Alexander Tomala</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E223" s="15" t="n">
-        <v>11.99</v>
+        <v>7.91</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>613</v>
+        <v>523</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>12.08</v>
+        <v>5.03</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
@@ -26337,30 +26375,32 @@
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E224" s="15" t="n">
-        <v>7.65</v>
+        <v>2004</v>
+      </c>
+      <c r="E224" s="17" t="inlineStr">
+        <is>
+          <t>2,10,19</t>
+        </is>
       </c>
       <c r="F224" s="7" t="n">
-        <v>607</v>
+        <v>521</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>13.03</v>
+        <v>16.05</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
@@ -26395,22 +26435,22 @@
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tomala</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E225" s="15" t="n">
-        <v>54.01</v>
+        <v>1.65</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>603</v>
+        <v>511</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
@@ -26453,30 +26493,30 @@
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Sander Skarre Lindseth</t>
+          <t>Frode Holt</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>2006</v>
+        <v>1964</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>5.7</v>
+        <v>2.71</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Sande</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>16.05</v>
+        <v>22.03</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
@@ -26511,30 +26551,30 @@
     <row r="227" ht="13" customHeight="1">
       <c r="B227" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Lucas Bricot</t>
+          <t>Frode Holt</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2008</v>
+        <v>1964</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>7.05</v>
+        <v>26.03</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
@@ -26599,7 +26639,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>7637</v>
+        <v>6717</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26639,7 +26679,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15724</v>
+        <v>15890</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26671,7 +26711,7 @@
         </is>
       </c>
       <c r="C233" s="20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -27583,7 +27623,7 @@
         <v>1968</v>
       </c>
       <c r="O255" s="15" t="n">
-        <v>33.04</v>
+        <v>33.1</v>
       </c>
       <c r="P255" s="7" t="n">
         <v>510</v>
@@ -27594,7 +27634,7 @@
         </is>
       </c>
       <c r="R255" s="16" t="n">
-        <v>26.03</v>
+        <v>21.05</v>
       </c>
       <c r="T255" s="5" t="n"/>
     </row>
@@ -27941,30 +27981,32 @@
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Jonny Andersen</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
-        <v>1968</v>
-      </c>
-      <c r="O265" s="15" t="n">
-        <v>28.92</v>
+        <v>1975</v>
+      </c>
+      <c r="O265" s="17" t="inlineStr">
+        <is>
+          <t>17,49,85</t>
+        </is>
       </c>
       <c r="P265" s="7" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>21.06</v>
+        <v>16.09</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
@@ -28001,30 +28043,30 @@
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Morten Solheim</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="O266" s="15" t="n">
-        <v>12.83</v>
+        <v>28.92</v>
       </c>
       <c r="P266" s="7" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>24.08</v>
+        <v>21.06</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
@@ -28061,32 +28103,30 @@
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Christer Sælen</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>1981</v>
-      </c>
-      <c r="O267" s="17" t="inlineStr">
-        <is>
-          <t>18,24,97</t>
-        </is>
+        <v>1976</v>
+      </c>
+      <c r="O267" s="15" t="n">
+        <v>12.83</v>
       </c>
       <c r="P267" s="7" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>15.08</v>
+        <v>24.08</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -28123,22 +28163,24 @@
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Oddvin Årdalsbakke</t>
+          <t>Christer Sælen</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>1962</v>
-      </c>
-      <c r="O268" s="15" t="n">
-        <v>1.27</v>
+        <v>1981</v>
+      </c>
+      <c r="O268" s="17" t="inlineStr">
+        <is>
+          <t>18,24,97</t>
+        </is>
       </c>
       <c r="P268" s="7" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
@@ -28146,7 +28188,7 @@
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>14.03</v>
+        <v>15.08</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
@@ -28183,32 +28225,30 @@
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Nils Tore Sæterdal</t>
+          <t>Oddvin Årdalsbakke</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>1967</v>
-      </c>
-      <c r="O269" s="17" t="inlineStr">
-        <is>
-          <t>10,40,22</t>
-        </is>
+        <v>1962</v>
+      </c>
+      <c r="O269" s="15" t="n">
+        <v>1.27</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>22.08</v>
+        <v>14.03</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -28245,30 +28285,32 @@
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Nils Tore Sæterdal</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>1968</v>
-      </c>
-      <c r="O270" s="15" t="n">
-        <v>2.51</v>
+        <v>1967</v>
+      </c>
+      <c r="O270" s="17" t="inlineStr">
+        <is>
+          <t>10,40,22</t>
+        </is>
       </c>
       <c r="P270" s="7" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>19.03</v>
+        <v>22.08</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -28308,11 +28350,11 @@
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Oddvin Årdalsbakke</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>1962</v>
+        <v>1968</v>
       </c>
       <c r="O271" s="15" t="n">
         <v>2.51</v>
@@ -28322,11 +28364,11 @@
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>14.03</v>
+        <v>19.03</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -28341,32 +28383,30 @@
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Espen Irgens Haugen</t>
+          <t>Oddvin Årdalsbakke</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>1985</v>
-      </c>
-      <c r="O272" s="17" t="inlineStr">
-        <is>
-          <t>10,43,35</t>
-        </is>
+        <v>1962</v>
+      </c>
+      <c r="O272" s="15" t="n">
+        <v>2.51</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>22.08</v>
+        <v>14.03</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -28381,32 +28421,32 @@
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Nils Tore Sæterdal</t>
+          <t>Espen Irgens Haugen</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>1967</v>
+        <v>1985</v>
       </c>
       <c r="O273" s="17" t="inlineStr">
         <is>
-          <t>4,56,18</t>
+          <t>10,43,35</t>
         </is>
       </c>
       <c r="P273" s="7" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>15.08</v>
+        <v>22.08</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -28421,24 +28461,24 @@
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Christer Sælen</t>
+          <t>Nils Tore Sæterdal</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>1981</v>
+        <v>1967</v>
       </c>
       <c r="O274" s="17" t="inlineStr">
         <is>
-          <t>2,24,12</t>
+          <t>4,56,18</t>
         </is>
       </c>
       <c r="P274" s="7" t="n">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
@@ -28446,7 +28486,7 @@
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>6.07</v>
+        <v>15.08</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -28500,7 +28540,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>5039</v>
+        <v>5137</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -28540,7 +28580,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>13711</v>
+        <v>13809</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -28564,7 +28604,7 @@
         </is>
       </c>
       <c r="M280" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
@@ -30049,30 +30089,32 @@
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M316" s="7" t="inlineStr">
         <is>
-          <t>Brage Bergfald</t>
+          <t>Arne Olav Sunde</t>
         </is>
       </c>
       <c r="N316" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O316" s="15" t="n">
-        <v>12.92</v>
+        <v>1966</v>
+      </c>
+      <c r="O316" s="17" t="inlineStr">
+        <is>
+          <t>10,18,08</t>
+        </is>
       </c>
       <c r="P316" s="7" t="n">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q316" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="R316" s="16" t="n">
-        <v>12.06</v>
+        <v>11.1</v>
       </c>
       <c r="T316" s="5" t="n"/>
     </row>
@@ -30107,22 +30149,24 @@
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M317" s="7" t="inlineStr">
         <is>
-          <t>Oscar A Bergstrøm</t>
+          <t>Ole Kristian Sørland</t>
         </is>
       </c>
       <c r="N317" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O317" s="15" t="n">
-        <v>13.05</v>
+        <v>1968</v>
+      </c>
+      <c r="O317" s="17" t="inlineStr">
+        <is>
+          <t>10,18,54</t>
+        </is>
       </c>
       <c r="P317" s="7" t="n">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="Q317" s="7" t="inlineStr">
         <is>
@@ -30130,7 +30174,7 @@
         </is>
       </c>
       <c r="R317" s="16" t="n">
-        <v>24.09</v>
+        <v>11.1</v>
       </c>
       <c r="T317" s="5" t="n"/>
     </row>
@@ -30396,7 +30440,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>5148</v>
+        <v>5179</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -30436,7 +30480,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>12574</v>
+        <v>12605</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30460,7 +30504,7 @@
         </is>
       </c>
       <c r="M327" s="20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>
@@ -30660,7 +30704,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23320</v>
+        <v>23334</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -30716,7 +30760,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>21951</v>
+        <v>21990</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -30852,11 +30896,11 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(29/14)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>18836</v>
+        <v>19376</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
@@ -30880,11 +30924,11 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(30/10)</t>
+          <t>(30/9)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>18035</v>
+        <v>18432</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -30940,7 +30984,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>15185</v>
+        <v>15211</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -33025,11 +33069,11 @@
       </c>
       <c r="M43" s="7" t="inlineStr">
         <is>
-          <t>Eline Soma</t>
+          <t>Andrea Igeltjørn Lyngholm</t>
         </is>
       </c>
       <c r="N43" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O43" s="15" t="n">
         <v>1.55</v>
@@ -33043,7 +33087,7 @@
         </is>
       </c>
       <c r="R43" s="16" t="n">
-        <v>25.08</v>
+        <v>27.02</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -33083,11 +33127,11 @@
       </c>
       <c r="M44" s="7" t="inlineStr">
         <is>
-          <t>Andrea Igeltjørn Lyngholm</t>
+          <t>Eline Soma</t>
         </is>
       </c>
       <c r="N44" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O44" s="15" t="n">
         <v>1.55</v>
@@ -33101,7 +33145,7 @@
         </is>
       </c>
       <c r="R44" s="16" t="n">
-        <v>27.02</v>
+        <v>25.08</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -35190,32 +35234,30 @@
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Tunes Lund</t>
+          <t>Stina Leivestad Morvik</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O94" s="17" t="inlineStr">
-        <is>
-          <t>2,19,99</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O94" s="15" t="n">
+        <v>39.21</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>4.06</v>
+        <v>25.09</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -35250,30 +35292,32 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Nathalie Svanevik Hølleland</t>
+          <t>Alexandra Tunes Lund</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O95" s="15" t="n">
-        <v>26.83</v>
+      <c r="O95" s="17" t="inlineStr">
+        <is>
+          <t>2,19,99</t>
+        </is>
       </c>
       <c r="P95" s="7" t="n">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>6.03</v>
+        <v>4.06</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -35308,30 +35352,30 @@
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Stina Leivestad Morvik</t>
+          <t>Nathalie Svanevik Hølleland</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>38.17</v>
+        <v>26.83</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>18.09</v>
+        <v>6.03</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -35385,7 +35429,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>10771</v>
+        <v>10785</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -35425,7 +35469,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23320</v>
+        <v>23334</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -36464,18 +36508,18 @@
         <v>2007</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>27.01</v>
+        <v>29.09</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
@@ -36587,7 +36631,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>11324</v>
+        <v>11358</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -37385,11 +37429,11 @@
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="R145" s="16" t="n">
-        <v>13.02</v>
+        <v>20.03</v>
       </c>
       <c r="T145" s="5" t="n"/>
     </row>
@@ -37540,30 +37584,30 @@
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Lotta Elfenbein</t>
+          <t>Mia Guldteig Lien</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>4.74</v>
+        <v>2.4</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>19.02</v>
+        <v>29.09</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -37617,7 +37661,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>10627</v>
+        <v>10632</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -37657,7 +37701,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>21951</v>
+        <v>21990</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -42545,11 +42589,11 @@
       </c>
       <c r="E272" s="17" t="inlineStr">
         <is>
-          <t>5,26,7</t>
+          <t>5,22,80</t>
         </is>
       </c>
       <c r="F272" s="7" t="n">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
@@ -42557,7 +42601,7 @@
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>8.06</v>
+        <v>31.08</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
@@ -42804,30 +42848,32 @@
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M276" s="7" t="inlineStr">
         <is>
-          <t>Siri Torgersen Bigseth</t>
+          <t>Anna Knapstad Dehli</t>
         </is>
       </c>
       <c r="N276" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O276" s="15" t="n">
-        <v>1.92</v>
+        <v>2007</v>
+      </c>
+      <c r="O276" s="17" t="inlineStr">
+        <is>
+          <t>41,53,80</t>
+        </is>
       </c>
       <c r="P276" s="7" t="n">
-        <v>404</v>
+        <v>549</v>
       </c>
       <c r="Q276" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Tvedestrand</t>
         </is>
       </c>
       <c r="R276" s="16" t="n">
-        <v>3.09</v>
+        <v>14.09</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -42846,10 +42892,10 @@
         <v>2007</v>
       </c>
       <c r="E277" s="15" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="F277" s="7" t="n">
-        <v>427</v>
+        <v>510</v>
       </c>
       <c r="G277" s="7" t="inlineStr">
         <is>
@@ -42857,7 +42903,7 @@
         </is>
       </c>
       <c r="H277" s="16" t="n">
-        <v>30.09</v>
+        <v>31.08</v>
       </c>
       <c r="J277" s="5" t="n"/>
       <c r="L277" s="14" t="inlineStr">
@@ -42950,22 +42996,22 @@
     <row r="279" ht="13" customHeight="1">
       <c r="B279" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
+          <t>Carmen Nilsson Rismark</t>
         </is>
       </c>
       <c r="D279" s="7" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="E279" s="15" t="n">
-        <v>11.48</v>
+        <v>2.16</v>
       </c>
       <c r="F279" s="7" t="n">
-        <v>685</v>
+        <v>387</v>
       </c>
       <c r="G279" s="7" t="inlineStr">
         <is>
@@ -42973,7 +43019,7 @@
         </is>
       </c>
       <c r="H279" s="16" t="n">
-        <v>22.09</v>
+        <v>31.08</v>
       </c>
       <c r="J279" s="5" t="n"/>
       <c r="L279" s="14" t="inlineStr">
@@ -42983,47 +43029,47 @@
       </c>
       <c r="M279" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Claudia Maria Hastie Foss</t>
         </is>
       </c>
       <c r="N279" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O279" s="15" t="n">
-        <v>2.28</v>
+        <v>2.67</v>
       </c>
       <c r="P279" s="7" t="n">
-        <v>481</v>
+        <v>731</v>
       </c>
       <c r="Q279" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R279" s="16" t="n">
-        <v>12.02</v>
+        <v>1.1</v>
       </c>
       <c r="T279" s="5" t="n"/>
     </row>
     <row r="280" ht="13" customHeight="1">
       <c r="B280" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>Helle M. Aspaas</t>
+          <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
       <c r="D280" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E280" s="15" t="n">
-        <v>39</v>
+        <v>11.48</v>
       </c>
       <c r="F280" s="7" t="n">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="G280" s="7" t="inlineStr">
         <is>
@@ -43031,7 +43077,7 @@
         </is>
       </c>
       <c r="H280" s="16" t="n">
-        <v>26.06</v>
+        <v>22.09</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="14" t="inlineStr">
@@ -43066,22 +43112,22 @@
     <row r="281" ht="13" customHeight="1">
       <c r="B281" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>Mali Ingeborg Vollan Marstad</t>
+          <t>Helle M. Aspaas</t>
         </is>
       </c>
       <c r="D281" s="7" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="E281" s="15" t="n">
-        <v>36.64</v>
+        <v>39</v>
       </c>
       <c r="F281" s="7" t="n">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="G281" s="7" t="inlineStr">
         <is>
@@ -43089,7 +43135,7 @@
         </is>
       </c>
       <c r="H281" s="16" t="n">
-        <v>22.09</v>
+        <v>26.06</v>
       </c>
       <c r="J281" s="5" t="n"/>
       <c r="L281" s="14" t="inlineStr">
@@ -43124,22 +43170,22 @@
     <row r="282" ht="13" customHeight="1">
       <c r="B282" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
         <is>
-          <t>Maria Børstad Jensen</t>
+          <t>Mali Ingeborg Vollan Marstad</t>
         </is>
       </c>
       <c r="D282" s="7" t="n">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="E282" s="15" t="n">
-        <v>51.64</v>
+        <v>37.11</v>
       </c>
       <c r="F282" s="7" t="n">
-        <v>880</v>
+        <v>644</v>
       </c>
       <c r="G282" s="7" t="inlineStr">
         <is>
@@ -43147,7 +43193,7 @@
         </is>
       </c>
       <c r="H282" s="16" t="n">
-        <v>29.05</v>
+        <v>13.09</v>
       </c>
       <c r="J282" s="5" t="n"/>
       <c r="L282" s="14" t="inlineStr">
@@ -43180,13 +43226,33 @@
       <c r="T282" s="5" t="n"/>
     </row>
     <row r="283" ht="13" customHeight="1">
-      <c r="B283" s="14" t="n"/>
-      <c r="C283" s="7" t="n"/>
-      <c r="D283" s="7" t="n"/>
-      <c r="E283" s="7" t="n"/>
-      <c r="F283" s="7" t="n"/>
-      <c r="G283" s="7" t="n"/>
-      <c r="H283" s="21" t="n"/>
+      <c r="B283" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C283" s="7" t="inlineStr">
+        <is>
+          <t>Maria Børstad Jensen</t>
+        </is>
+      </c>
+      <c r="D283" s="7" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E283" s="15" t="n">
+        <v>51.64</v>
+      </c>
+      <c r="F283" s="7" t="n">
+        <v>880</v>
+      </c>
+      <c r="G283" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H283" s="16" t="n">
+        <v>29.05</v>
+      </c>
       <c r="J283" s="5" t="n"/>
       <c r="L283" s="14" t="inlineStr">
         <is>
@@ -43242,7 +43308,7 @@
         </is>
       </c>
       <c r="C285" s="20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E285" s="19" t="inlineStr">
         <is>
@@ -43250,7 +43316,7 @@
         </is>
       </c>
       <c r="F285" s="20" t="n">
-        <v>9857</v>
+        <v>10351</v>
       </c>
       <c r="J285" s="5" t="n"/>
       <c r="L285" s="19" t="inlineStr">
@@ -43267,7 +43333,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>9418</v>
+        <v>9813</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -43572,30 +43638,30 @@
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M293" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N293" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O293" s="15" t="n">
-        <v>8.460000000000001</v>
+        <v>27.65</v>
       </c>
       <c r="P293" s="7" t="n">
         <v>603</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>5.03</v>
+        <v>19.06</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
@@ -43630,30 +43696,30 @@
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M294" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="N294" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O294" s="15" t="n">
-        <v>27.65</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="P294" s="7" t="n">
         <v>603</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>19.06</v>
+        <v>5.03</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
@@ -43980,30 +44046,30 @@
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M300" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Louise Selseth</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="N300" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>4.77</v>
+        <v>13.61</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="R300" s="16" t="n">
-        <v>13.03</v>
+        <v>11.09</v>
       </c>
       <c r="T300" s="5" t="n"/>
     </row>
@@ -44038,7 +44104,7 @@
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M301" s="7" t="inlineStr">
@@ -44050,7 +44116,7 @@
         <v>2007</v>
       </c>
       <c r="O301" s="15" t="n">
-        <v>8.6</v>
+        <v>4.77</v>
       </c>
       <c r="P301" s="7" t="n">
         <v>568</v>
@@ -44068,7 +44134,7 @@
     <row r="302" ht="13" customHeight="1">
       <c r="B302" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
@@ -44080,10 +44146,10 @@
         <v>2008</v>
       </c>
       <c r="E302" s="15" t="n">
-        <v>1.25</v>
+        <v>3.92</v>
       </c>
       <c r="F302" s="7" t="n">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G302" s="7" t="inlineStr">
         <is>
@@ -44091,7 +44157,7 @@
         </is>
       </c>
       <c r="H302" s="16" t="n">
-        <v>28.05</v>
+        <v>13.09</v>
       </c>
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="inlineStr">
@@ -44126,22 +44192,22 @@
     <row r="303" ht="13" customHeight="1">
       <c r="B303" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C303" s="7" t="inlineStr">
         <is>
-          <t>Nora Kaspara Lindset</t>
+          <t>Linnea Styrvoll</t>
         </is>
       </c>
       <c r="D303" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E303" s="15" t="n">
-        <v>9.68</v>
+        <v>1.25</v>
       </c>
       <c r="F303" s="7" t="n">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="G303" s="7" t="inlineStr">
         <is>
@@ -44149,7 +44215,7 @@
         </is>
       </c>
       <c r="H303" s="16" t="n">
-        <v>29.05</v>
+        <v>28.05</v>
       </c>
       <c r="J303" s="5" t="n"/>
       <c r="L303" s="14" t="inlineStr">
@@ -44184,22 +44250,22 @@
     <row r="304" ht="13" customHeight="1">
       <c r="B304" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C304" s="7" t="inlineStr">
         <is>
-          <t>Linnea Styrvoll</t>
+          <t>Nora Kaspara Lindset</t>
         </is>
       </c>
       <c r="D304" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E304" s="15" t="n">
-        <v>3.75</v>
+        <v>9.68</v>
       </c>
       <c r="F304" s="7" t="n">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G304" s="7" t="inlineStr">
         <is>
@@ -44272,7 +44338,7 @@
         </is>
       </c>
       <c r="F306" s="20" t="n">
-        <v>8979</v>
+        <v>9025</v>
       </c>
       <c r="J306" s="5" t="n"/>
       <c r="L306" s="19" t="inlineStr">
@@ -44289,7 +44355,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>8617</v>
+        <v>8619</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -44304,7 +44370,7 @@
         </is>
       </c>
       <c r="C308" s="20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E308" s="19" t="inlineStr">
         <is>
@@ -44312,7 +44378,7 @@
         </is>
       </c>
       <c r="F308" s="20" t="n">
-        <v>18836</v>
+        <v>19376</v>
       </c>
       <c r="J308" s="5" t="n"/>
       <c r="L308" s="19" t="inlineStr">
@@ -44329,7 +44395,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>18035</v>
+        <v>18432</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -44353,7 +44419,7 @@
         </is>
       </c>
       <c r="M310" s="20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
@@ -44716,10 +44782,10 @@
         <v>2008</v>
       </c>
       <c r="O323" s="15" t="n">
-        <v>29.59</v>
+        <v>29.56</v>
       </c>
       <c r="P323" s="7" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q323" s="7" t="inlineStr">
         <is>
@@ -44727,7 +44793,7 @@
         </is>
       </c>
       <c r="R323" s="16" t="n">
-        <v>27.05</v>
+        <v>25.09</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -45411,7 +45477,7 @@
         </is>
       </c>
       <c r="P337" s="20" t="n">
-        <v>6517</v>
+        <v>6519</v>
       </c>
       <c r="T337" s="5" t="n"/>
     </row>
@@ -45960,22 +46026,22 @@
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M349" s="7" t="inlineStr">
         <is>
-          <t>Abelone Heldal</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N349" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O349" s="15" t="n">
-        <v>1.42</v>
+        <v>9.85</v>
       </c>
       <c r="P349" s="7" t="n">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="Q349" s="7" t="inlineStr">
         <is>
@@ -45983,7 +46049,7 @@
         </is>
       </c>
       <c r="R349" s="16" t="n">
-        <v>14.05</v>
+        <v>24.09</v>
       </c>
       <c r="T349" s="5" t="n"/>
     </row>
@@ -46020,22 +46086,22 @@
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M350" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Abelone Heldal</t>
         </is>
       </c>
       <c r="N350" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O350" s="15" t="n">
-        <v>9.76</v>
+        <v>1.42</v>
       </c>
       <c r="P350" s="7" t="n">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Q350" s="7" t="inlineStr">
         <is>
@@ -46043,7 +46109,7 @@
         </is>
       </c>
       <c r="R350" s="16" t="n">
-        <v>19.02</v>
+        <v>11.09</v>
       </c>
       <c r="T350" s="5" t="n"/>
     </row>
@@ -46080,22 +46146,22 @@
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M351" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Handeland</t>
+          <t>Anna Qvale Sundstrøm</t>
         </is>
       </c>
       <c r="N351" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O351" s="15" t="n">
-        <v>4.59</v>
+        <v>2.4</v>
       </c>
       <c r="P351" s="7" t="n">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="Q351" s="7" t="inlineStr">
         <is>
@@ -46103,7 +46169,7 @@
         </is>
       </c>
       <c r="R351" s="16" t="n">
-        <v>21.08</v>
+        <v>24.09</v>
       </c>
       <c r="T351" s="5" t="n"/>
     </row>
@@ -46143,17 +46209,17 @@
       </c>
       <c r="M352" s="7" t="inlineStr">
         <is>
-          <t>Anna Qvale Sundstrøm</t>
+          <t>Mathilde Handeland</t>
         </is>
       </c>
       <c r="N352" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O352" s="15" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="P352" s="7" t="n">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="Q352" s="7" t="inlineStr">
         <is>
@@ -46161,7 +46227,7 @@
         </is>
       </c>
       <c r="R352" s="16" t="n">
-        <v>14.05</v>
+        <v>21.08</v>
       </c>
       <c r="T352" s="5" t="n"/>
     </row>
@@ -46447,7 +46513,7 @@
         </is>
       </c>
       <c r="P358" s="20" t="n">
-        <v>8668</v>
+        <v>8692</v>
       </c>
       <c r="T358" s="5" t="n"/>
     </row>
@@ -46487,7 +46553,7 @@
         </is>
       </c>
       <c r="P360" s="20" t="n">
-        <v>15185</v>
+        <v>15211</v>
       </c>
       <c r="T360" s="5" t="n"/>
     </row>
@@ -46651,11 +46717,11 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>18163</v>
+        <v>18201</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -46935,7 +47001,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14189</v>
+        <v>14339</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -47259,7 +47325,7 @@
       <c r="J9" s="5" t="n"/>
       <c r="L9" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M9" s="7" t="inlineStr">
@@ -47271,18 +47337,18 @@
         <v>2006</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>27.33</v>
+        <v>8.44</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>19.06</v>
+        <v>22.01</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -47317,32 +47383,30 @@
       <c r="J10" s="5" t="n"/>
       <c r="L10" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Caroline Foss Høistad</t>
+          <t>Linnéa Elisabeth Sjöström Johnsen</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O10" s="17" t="inlineStr">
-        <is>
-          <t>1,00,51</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O10" s="15" t="n">
+        <v>13.41</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>663</v>
+        <v>602</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>6.08</v>
+        <v>18.06</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -47377,32 +47441,30 @@
       <c r="J11" s="5" t="n"/>
       <c r="L11" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Amalie M. Sæten</t>
+          <t>Elén Linchausen Skar</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
-        <v>1997</v>
-      </c>
-      <c r="O11" s="17" t="inlineStr">
-        <is>
-          <t>2,06,01</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O11" s="15" t="n">
+        <v>27.33</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>866</v>
+        <v>626</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>21.08</v>
+        <v>19.06</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -47437,32 +47499,32 @@
       <c r="J12" s="5" t="n"/>
       <c r="L12" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Amalie M. Sæten</t>
+          <t>Caroline Foss Høistad</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="O12" s="17" t="inlineStr">
         <is>
-          <t>4,09,80</t>
+          <t>1,00,51</t>
         </is>
       </c>
       <c r="P12" s="7" t="n">
-        <v>951</v>
+        <v>663</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>Sollentuna/SWE</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>12.06</v>
+        <v>6.08</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -47499,7 +47561,7 @@
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M13" s="7" t="inlineStr">
@@ -47512,19 +47574,19 @@
       </c>
       <c r="O13" s="17" t="inlineStr">
         <is>
-          <t>8,57,18</t>
+          <t>2,06,01</t>
         </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>952</v>
+        <v>866</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>21.05</v>
+        <v>21.08</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -47561,7 +47623,7 @@
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M14" s="7" t="inlineStr">
@@ -47574,19 +47636,19 @@
       </c>
       <c r="O14" s="17" t="inlineStr">
         <is>
-          <t>16,02,16</t>
+          <t>4,09,80</t>
         </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>888</v>
+        <v>951</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Sollentuna/SWE</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>24.06</v>
+        <v>12.06</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -47621,30 +47683,32 @@
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Hanna Rimstad</t>
+          <t>Amalie M. Sæten</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O15" s="15" t="n">
-        <v>1.58</v>
+        <v>1997</v>
+      </c>
+      <c r="O15" s="17" t="inlineStr">
+        <is>
+          <t>8,57,18</t>
+        </is>
       </c>
       <c r="P15" s="7" t="n">
-        <v>675</v>
+        <v>952</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>18.06</v>
+        <v>21.05</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -47679,22 +47743,24 @@
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Birgitte Kjuus</t>
+          <t>Amalie M. Sæten</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O16" s="15" t="n">
-        <v>3.7</v>
+        <v>1997</v>
+      </c>
+      <c r="O16" s="17" t="inlineStr">
+        <is>
+          <t>16,02,16</t>
+        </is>
       </c>
       <c r="P16" s="7" t="n">
-        <v>829</v>
+        <v>888</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
@@ -47737,30 +47803,30 @@
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Frida Rimstad</t>
+          <t>Birgitte Kjuus</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="O17" s="15" t="n">
-        <v>5.59</v>
+        <v>3.7</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>749</v>
+        <v>829</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>27.08</v>
+        <v>24.06</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -47795,7 +47861,7 @@
       <c r="J18" s="5" t="n"/>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M18" s="7" t="inlineStr">
@@ -47807,18 +47873,18 @@
         <v>2007</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>11.44</v>
+        <v>5.59</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="Q18" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R18" s="16" t="n">
-        <v>12.08</v>
+        <v>27.08</v>
       </c>
       <c r="T18" s="5" t="n"/>
     </row>
@@ -47853,30 +47919,30 @@
       <c r="J19" s="5" t="n"/>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M19" s="7" t="inlineStr">
         <is>
-          <t>Hanna Emilie Hjeltnes</t>
+          <t>Frida Rimstad</t>
         </is>
       </c>
       <c r="N19" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O19" s="15" t="n">
-        <v>13.34</v>
+        <v>11.44</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>779</v>
+        <v>707</v>
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Uppsala/SWE</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>13.02</v>
+        <v>12.08</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>
@@ -47911,7 +47977,7 @@
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M20" s="7" t="inlineStr">
@@ -47923,18 +47989,18 @@
         <v>2004</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>45.12</v>
+        <v>13.34</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="Q20" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Uppsala/SWE</t>
         </is>
       </c>
       <c r="R20" s="16" t="n">
-        <v>19.06</v>
+        <v>13.02</v>
       </c>
       <c r="T20" s="5" t="n"/>
     </row>
@@ -47969,7 +48035,7 @@
       <c r="J21" s="5" t="n"/>
       <c r="L21" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M21" s="7" t="inlineStr">
@@ -47981,18 +48047,18 @@
         <v>2004</v>
       </c>
       <c r="O21" s="15" t="n">
-        <v>35.06</v>
+        <v>45.12</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>625</v>
+        <v>795</v>
       </c>
       <c r="Q21" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R21" s="16" t="n">
-        <v>13.08</v>
+        <v>19.06</v>
       </c>
       <c r="T21" s="5" t="n"/>
     </row>
@@ -48046,7 +48112,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>10105</v>
+        <v>10016</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -48490,17 +48556,17 @@
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Frida Rimstad</t>
+          <t>Hanna Rimstad</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
@@ -48508,7 +48574,7 @@
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>19.06</v>
+        <v>18.06</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -48548,25 +48614,25 @@
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Mari Steen Myrvang</t>
+          <t>Frida Rimstad</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O34" s="15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>7.08</v>
+        <v>19.06</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -48603,32 +48669,30 @@
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Elén Linchausen Skar</t>
+          <t>Mari Steen Myrvang</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O35" s="17" t="inlineStr">
-        <is>
-          <t>1,01,94</t>
-        </is>
+      <c r="O35" s="15" t="n">
+        <v>1.55</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>12.06</v>
+        <v>7.08</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -48663,30 +48727,30 @@
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Linnéa Elisabeth Sjöström Johnsen</t>
+          <t>Hanna Emilie Hjeltnes</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O36" s="15" t="n">
-        <v>27.44</v>
+        <v>35.06</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>19.06</v>
+        <v>13.08</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -48701,7 +48765,7 @@
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
@@ -48712,19 +48776,21 @@
       <c r="N37" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O37" s="15" t="n">
-        <v>8.44</v>
+      <c r="O37" s="17" t="inlineStr">
+        <is>
+          <t>1,01,94</t>
+        </is>
       </c>
       <c r="P37" s="7" t="n">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>22.01</v>
+        <v>12.06</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -48739,30 +48805,30 @@
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Hanna Emilie Hjeltnes</t>
+          <t>Linnéa Elisabeth Sjöström Johnsen</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>32.19</v>
+        <v>27.44</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>572</v>
+        <v>618</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>9.09</v>
+        <v>19.06</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -48777,30 +48843,30 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Linnea Bratteng</t>
+          <t>Linnéa Elisabeth Sjöström Johnsen</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>1.45</v>
+        <v>8.58</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>28.05</v>
+        <v>5.03</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -48854,7 +48920,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>8058</v>
+        <v>8185</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -48894,7 +48960,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>18163</v>
+        <v>18201</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -48918,7 +48984,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -52694,11 +52760,11 @@
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>28.05</v>
+        <v>19.06</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -56300,11 +56366,11 @@
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Adda Hjalmarsdottir</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="E223" s="15" t="n">
         <v>13.89</v>
@@ -56314,11 +56380,11 @@
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>26.02</v>
+        <v>29.05</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
@@ -56358,11 +56424,11 @@
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Adda Hjalmarsdottir</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="E224" s="15" t="n">
         <v>13.89</v>
@@ -56372,11 +56438,11 @@
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>29.05</v>
+        <v>26.02</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
@@ -56994,17 +57060,17 @@
       </c>
       <c r="M245" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Christine-Sofie Lerøen-Pedersen</t>
         </is>
       </c>
       <c r="N245" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="O245" s="15" t="n">
-        <v>14.69</v>
+        <v>13.97</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>412</v>
+        <v>515</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
@@ -57012,7 +57078,7 @@
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>14.05</v>
+        <v>25.09</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
@@ -57702,7 +57768,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>8136</v>
+        <v>8239</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -57949,12 +58015,12 @@
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m kapp.</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Christine-Sofie Lerøen-Pedersen</t>
+          <t>Amanda Totland Osa</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
@@ -57962,19 +58028,19 @@
       </c>
       <c r="O265" s="17" t="inlineStr">
         <is>
-          <t>1,05,46</t>
+          <t>15,55,01</t>
         </is>
       </c>
       <c r="P265" s="7" t="n">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>21.09</v>
+        <v>24.09</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
@@ -58009,7 +58075,7 @@
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
@@ -58020,19 +58086,21 @@
       <c r="N266" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O266" s="15" t="n">
-        <v>28.79</v>
+      <c r="O266" s="17" t="inlineStr">
+        <is>
+          <t>1,05,46</t>
+        </is>
       </c>
       <c r="P266" s="7" t="n">
         <v>526</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>13.08</v>
+        <v>28.09</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
@@ -58067,32 +58135,30 @@
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>5000m kapp.</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Amanda Totland Osa</t>
+          <t>Christine-Sofie Lerøen-Pedersen</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O267" s="17" t="inlineStr">
-        <is>
-          <t>28,20,89</t>
-        </is>
+      <c r="O267" s="15" t="n">
+        <v>28.79</v>
       </c>
       <c r="P267" s="7" t="n">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>21.05</v>
+        <v>13.08</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -58127,30 +58193,32 @@
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>5000m kapp.</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Siri Gamst Glittenberg</t>
+          <t>Amanda Totland Osa</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O268" s="15" t="n">
-        <v>1.17</v>
+        <v>2006</v>
+      </c>
+      <c r="O268" s="17" t="inlineStr">
+        <is>
+          <t>28,20,89</t>
+        </is>
       </c>
       <c r="P268" s="7" t="n">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>29.03</v>
+        <v>21.05</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
@@ -58185,32 +58253,30 @@
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>3000m kapp.</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Amanda Totland Osa</t>
+          <t>Siri Gamst Glittenberg</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O269" s="17" t="inlineStr">
-        <is>
-          <t>16,23,20</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="O269" s="15" t="n">
+        <v>1.17</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>26.08</v>
+        <v>29.03</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -58433,18 +58499,18 @@
         <v>2008</v>
       </c>
       <c r="O273" s="15" t="n">
-        <v>9.09</v>
+        <v>9.06</v>
       </c>
       <c r="P273" s="7" t="n">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>21.05</v>
+        <v>24.09</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -58556,7 +58622,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>6053</v>
+        <v>6100</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58596,7 +58662,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>14189</v>
+        <v>14339</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -60063,30 +60129,32 @@
     <row r="317" ht="13" customHeight="1">
       <c r="B317" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>Carina Brunsæl</t>
+          <t>Margrethe Lauritzen</t>
         </is>
       </c>
       <c r="D317" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E317" s="15" t="n">
-        <v>8.6</v>
+        <v>2000</v>
+      </c>
+      <c r="E317" s="17" t="inlineStr">
+        <is>
+          <t>1,03,80</t>
+        </is>
       </c>
       <c r="F317" s="7" t="n">
         <v>568</v>
       </c>
       <c r="G317" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H317" s="16" t="n">
-        <v>5.03</v>
+        <v>13.07</v>
       </c>
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -2844,20 +2844,20 @@
     <row r="40" ht="13" customHeight="1">
       <c r="B40" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Luca Thompson</t>
         </is>
       </c>
       <c r="D40" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E40" s="17" t="inlineStr">
         <is>
-          <t>3,49,59</t>
+          <t>1,51,84</t>
         </is>
       </c>
       <c r="F40" s="7" t="n">
@@ -2865,11 +2865,11 @@
       </c>
       <c r="G40" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Weinheim/GER</t>
         </is>
       </c>
       <c r="H40" s="16" t="n">
-        <v>2.06</v>
+        <v>28.05</v>
       </c>
       <c r="J40" s="5" t="n"/>
       <c r="L40" s="14" t="inlineStr">
@@ -2904,20 +2904,20 @@
     <row r="41" ht="13" customHeight="1">
       <c r="B41" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>Luca Thompson</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="D41" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E41" s="17" t="inlineStr">
         <is>
-          <t>1,51,84</t>
+          <t>3,49,59</t>
         </is>
       </c>
       <c r="F41" s="7" t="n">
@@ -2925,11 +2925,11 @@
       </c>
       <c r="G41" s="7" t="inlineStr">
         <is>
-          <t>Weinheim/GER</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H41" s="16" t="n">
-        <v>28.05</v>
+        <v>2.06</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="14" t="inlineStr">
@@ -13186,18 +13186,18 @@
         <v>2002</v>
       </c>
       <c r="E282" s="15" t="n">
-        <v>46.27</v>
+        <v>46.29</v>
       </c>
       <c r="F282" s="7" t="n">
         <v>796</v>
       </c>
       <c r="G282" s="7" t="inlineStr">
         <is>
-          <t>Heggedal</t>
+          <t>Røyken</t>
         </is>
       </c>
       <c r="H282" s="16" t="n">
-        <v>9.08</v>
+        <v>15.1</v>
       </c>
       <c r="J282" s="5" t="n"/>
       <c r="L282" s="14" t="n"/>
@@ -13998,30 +13998,30 @@
     <row r="300" ht="13" customHeight="1">
       <c r="B300" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bergfjord Næss</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D300" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E300" s="15" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="F300" s="7" t="n">
         <v>526</v>
       </c>
       <c r="G300" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="H300" s="16" t="n">
-        <v>29.03</v>
+        <v>14.03</v>
       </c>
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="n"/>
@@ -14036,30 +14036,30 @@
     <row r="301" ht="13" customHeight="1">
       <c r="B301" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Erlend Bergfjord Næss</t>
         </is>
       </c>
       <c r="D301" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E301" s="15" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="F301" s="7" t="n">
         <v>526</v>
       </c>
       <c r="G301" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H301" s="16" t="n">
-        <v>14.03</v>
+        <v>29.03</v>
       </c>
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="n"/>
@@ -45985,11 +45985,11 @@
       </c>
       <c r="Q348" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R348" s="16" t="n">
-        <v>27.05</v>
+        <v>19.02</v>
       </c>
       <c r="T348" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -16867,7 +16867,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -18493,19 +18493,19 @@
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Tobias Heldal</t>
+          <t>Oscar Stuhr</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E33" s="15" t="n">
-        <v>1.97</v>
+        <v>14.19</v>
       </c>
       <c r="F33" s="7" t="n">
         <v>796</v>
@@ -18516,7 +18516,7 @@
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>28.08</v>
+        <v>27.08</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -18553,19 +18553,19 @@
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Oscar Stuhr</t>
+          <t>Tobias Heldal</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>14.19</v>
+        <v>1.97</v>
       </c>
       <c r="F34" s="7" t="n">
         <v>796</v>
@@ -18576,7 +18576,7 @@
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>27.08</v>
+        <v>28.08</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -23430,7 +23430,7 @@
       </c>
       <c r="M156" s="7" t="inlineStr">
         <is>
-          <t>Marcus Stålby</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="N156" s="7" t="n">
@@ -24760,7 +24760,7 @@
         </is>
       </c>
       <c r="M186" s="20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -25408,11 +25408,11 @@
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>15.05</v>
+        <v>29.05</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
@@ -37204,20 +37204,20 @@
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Oda Rosland Gjerstad</t>
+          <t>Line Myrestøl Johansson</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="E142" s="17" t="inlineStr">
         <is>
-          <t>10,01,64</t>
+          <t>4,38,03</t>
         </is>
       </c>
       <c r="F142" s="7" t="n">
@@ -37225,11 +37225,11 @@
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>28.08</v>
+        <v>24.06</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
@@ -37264,20 +37264,20 @@
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Line Myrestøl Johansson</t>
+          <t>Oda Rosland Gjerstad</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="E143" s="17" t="inlineStr">
         <is>
-          <t>4,38,03</t>
+          <t>10,01,64</t>
         </is>
       </c>
       <c r="F143" s="7" t="n">
@@ -37285,11 +37285,11 @@
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>24.06</v>
+        <v>28.08</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
@@ -46941,7 +46941,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -55606,7 +55606,7 @@
       </c>
       <c r="M206" s="7" t="inlineStr">
         <is>
-          <t>Gabi Mathilde Bertheussen</t>
+          <t>Gabi-Mathilde Bertheussen</t>
         </is>
       </c>
       <c r="N206" s="7" t="n">
@@ -55664,7 +55664,7 @@
       </c>
       <c r="M207" s="7" t="inlineStr">
         <is>
-          <t>Gabi Mathilde Bertheussen</t>
+          <t>Gabi-Mathilde Bertheussen</t>
         </is>
       </c>
       <c r="N207" s="7" t="n">
@@ -56762,7 +56762,7 @@
         </is>
       </c>
       <c r="M233" s="20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -1855,11 +1855,11 @@
       </c>
       <c r="Q19" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Seinäjoki/FIN</t>
         </is>
       </c>
       <c r="R19" s="16" t="n">
-        <v>22.05</v>
+        <v>12.06</v>
       </c>
       <c r="T19" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -707,25 +707,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>IL Tyrving</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(30/20)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>23311</v>
+        <v>23356</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -735,25 +735,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>IL Tyrving</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(30/18)</t>
+          <t>(30/19)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>23295</v>
+        <v>23325</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -2844,20 +2844,20 @@
     <row r="40" ht="13" customHeight="1">
       <c r="B40" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>Luca Thompson</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="D40" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E40" s="17" t="inlineStr">
         <is>
-          <t>1,51,84</t>
+          <t>3,49,59</t>
         </is>
       </c>
       <c r="F40" s="7" t="n">
@@ -2865,11 +2865,11 @@
       </c>
       <c r="G40" s="7" t="inlineStr">
         <is>
-          <t>Weinheim/GER</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H40" s="16" t="n">
-        <v>28.05</v>
+        <v>2.06</v>
       </c>
       <c r="J40" s="5" t="n"/>
       <c r="L40" s="14" t="inlineStr">
@@ -2904,20 +2904,20 @@
     <row r="41" ht="13" customHeight="1">
       <c r="B41" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Luca Thompson</t>
         </is>
       </c>
       <c r="D41" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E41" s="17" t="inlineStr">
         <is>
-          <t>3,49,59</t>
+          <t>1,51,84</t>
         </is>
       </c>
       <c r="F41" s="7" t="n">
@@ -2925,11 +2925,11 @@
       </c>
       <c r="G41" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Weinheim/GER</t>
         </is>
       </c>
       <c r="H41" s="16" t="n">
-        <v>2.06</v>
+        <v>28.05</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="14" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="F106" s="8" t="n">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="P106" s="8" t="n">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>IL Tyrving</t>
         </is>
       </c>
       <c r="J107" s="5" t="n"/>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>IL Tyrving</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="T107" s="5" t="n"/>
@@ -5691,25 +5691,25 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Peter Svoren</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>6.87</v>
+        <v>7.15</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>924</v>
+        <v>797</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>20.02</v>
+        <v>12.02</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Peter Svoren</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>7.15</v>
+        <v>6.87</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>797</v>
+        <v>924</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>12.02</v>
+        <v>20.02</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
@@ -5749,25 +5749,25 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Einar Johannes Rye</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>10.62</v>
+        <v>10.85</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>943</v>
+        <v>881</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>26.08</v>
+        <v>19.06</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -5777,25 +5777,25 @@
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Einar Johannes Rye</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>10.85</v>
+        <v>10.62</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>881</v>
+        <v>943</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>19.06</v>
+        <v>26.08</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -5807,25 +5807,25 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Peter Svoren</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>21.49</v>
+        <v>22.16</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>922</v>
+        <v>842</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>La Chaux-de-Fonds/SUI</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>3.07</v>
+        <v>13.02</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -5835,25 +5835,25 @@
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Peter Svoren</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>22.16</v>
+        <v>21.49</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>842</v>
+        <v>922</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>13.02</v>
+        <v>3.07</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -5865,25 +5865,25 @@
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Kristian Drabløs</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E116" s="15" t="n">
-        <v>48.67</v>
+        <v>49.8</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>854</v>
+        <v>794</v>
       </c>
       <c r="G116" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H116" s="16" t="n">
-        <v>27.08</v>
+        <v>28.05</v>
       </c>
       <c r="J116" s="5" t="n"/>
       <c r="L116" s="14" t="inlineStr">
@@ -5893,25 +5893,25 @@
       </c>
       <c r="M116" s="7" t="inlineStr">
         <is>
-          <t>Kristian Drabløs</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N116" s="7" t="n">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="O116" s="15" t="n">
-        <v>49.8</v>
+        <v>48.67</v>
       </c>
       <c r="P116" s="7" t="n">
-        <v>794</v>
+        <v>854</v>
       </c>
       <c r="Q116" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R116" s="16" t="n">
-        <v>28.05</v>
+        <v>27.08</v>
       </c>
       <c r="T116" s="5" t="n"/>
     </row>
@@ -5923,27 +5923,27 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Lewis Kjemhus</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E117" s="17" t="inlineStr">
         <is>
-          <t>1,53,24</t>
+          <t>1,59,84</t>
         </is>
       </c>
       <c r="F117" s="7" t="n">
-        <v>835</v>
+        <v>690</v>
       </c>
       <c r="G117" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>7.06</v>
+        <v>27.08</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="inlineStr">
@@ -5953,27 +5953,27 @@
       </c>
       <c r="M117" s="7" t="inlineStr">
         <is>
-          <t>Lewis Kjemhus</t>
+          <t>Leon Samuel Douglas Mjaaland</t>
         </is>
       </c>
       <c r="N117" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="O117" s="17" t="inlineStr">
         <is>
-          <t>1,59,84</t>
+          <t>1,53,24</t>
         </is>
       </c>
       <c r="P117" s="7" t="n">
-        <v>690</v>
+        <v>835</v>
       </c>
       <c r="Q117" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R117" s="16" t="n">
-        <v>27.08</v>
+        <v>7.06</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Roderick Duodu</t>
+          <t>Brage Buseth Hammerstad</t>
         </is>
       </c>
       <c r="D118" s="7" t="n">
@@ -5993,19 +5993,19 @@
       </c>
       <c r="E118" s="17" t="inlineStr">
         <is>
-          <t>3,54,80</t>
+          <t>4,10,47</t>
         </is>
       </c>
       <c r="F118" s="7" t="n">
-        <v>813</v>
+        <v>667</v>
       </c>
       <c r="G118" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H118" s="16" t="n">
-        <v>23.07</v>
+        <v>2.06</v>
       </c>
       <c r="J118" s="5" t="n"/>
       <c r="L118" s="14" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="M118" s="7" t="inlineStr">
         <is>
-          <t>Brage Buseth Hammerstad</t>
+          <t>Roderick Duodu</t>
         </is>
       </c>
       <c r="N118" s="7" t="n">
@@ -6023,19 +6023,19 @@
       </c>
       <c r="O118" s="17" t="inlineStr">
         <is>
-          <t>4,10,47</t>
+          <t>3,54,80</t>
         </is>
       </c>
       <c r="P118" s="7" t="n">
-        <v>667</v>
+        <v>813</v>
       </c>
       <c r="Q118" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R118" s="16" t="n">
-        <v>2.06</v>
+        <v>23.07</v>
       </c>
       <c r="T118" s="5" t="n"/>
     </row>
@@ -6047,27 +6047,27 @@
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>Simen Seeberg-Rommetveit</t>
+          <t>Brage Buseth Hammerstad</t>
         </is>
       </c>
       <c r="D119" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E119" s="17" t="inlineStr">
         <is>
-          <t>8,32,52</t>
+          <t>8,55,05</t>
         </is>
       </c>
       <c r="F119" s="7" t="n">
-        <v>802</v>
+        <v>707</v>
       </c>
       <c r="G119" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H119" s="16" t="n">
-        <v>3.05</v>
+        <v>10.06</v>
       </c>
       <c r="J119" s="5" t="n"/>
       <c r="L119" s="14" t="inlineStr">
@@ -6077,27 +6077,27 @@
       </c>
       <c r="M119" s="7" t="inlineStr">
         <is>
-          <t>Brage Buseth Hammerstad</t>
+          <t>Simen Seeberg-Rommetveit</t>
         </is>
       </c>
       <c r="N119" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="O119" s="17" t="inlineStr">
         <is>
-          <t>8,55,05</t>
+          <t>8,32,52</t>
         </is>
       </c>
       <c r="P119" s="7" t="n">
-        <v>707</v>
+        <v>802</v>
       </c>
       <c r="Q119" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R119" s="16" t="n">
-        <v>10.06</v>
+        <v>3.05</v>
       </c>
       <c r="T119" s="5" t="n"/>
     </row>
@@ -6109,27 +6109,27 @@
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>Endre Wigaard</t>
+          <t>Trond Steinar Gjønnes</t>
         </is>
       </c>
       <c r="D120" s="7" t="n">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E120" s="17" t="inlineStr">
         <is>
-          <t>15,28,49</t>
+          <t>15,46,83</t>
         </is>
       </c>
       <c r="F120" s="7" t="n">
-        <v>710</v>
+        <v>672</v>
       </c>
       <c r="G120" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H120" s="16" t="n">
-        <v>24.06</v>
+        <v>30.06</v>
       </c>
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="14" t="inlineStr">
@@ -6139,205 +6139,205 @@
       </c>
       <c r="M120" s="7" t="inlineStr">
         <is>
-          <t>Trond Steinar Gjønnes</t>
+          <t>Endre Wigaard</t>
         </is>
       </c>
       <c r="N120" s="7" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="O120" s="17" t="inlineStr">
         <is>
-          <t>15,46,83</t>
+          <t>15,28,49</t>
         </is>
       </c>
       <c r="P120" s="7" t="n">
-        <v>672</v>
+        <v>710</v>
       </c>
       <c r="Q120" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R120" s="16" t="n">
-        <v>30.06</v>
+        <v>24.06</v>
       </c>
       <c r="T120" s="5" t="n"/>
     </row>
     <row r="121" ht="13" customHeight="1">
       <c r="B121" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>Endre Wigaard</t>
+          <t>Sigurd Clementsen</t>
         </is>
       </c>
       <c r="D121" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E121" s="17" t="inlineStr">
-        <is>
-          <t>31,50,80</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E121" s="15" t="n">
+        <v>55.32</v>
       </c>
       <c r="F121" s="7" t="n">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="G121" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Castelló/ESP</t>
         </is>
       </c>
       <c r="H121" s="16" t="n">
-        <v>24.09</v>
+        <v>17.09</v>
       </c>
       <c r="J121" s="5" t="n"/>
       <c r="L121" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M121" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Clementsen</t>
+          <t>Endre Wigaard</t>
         </is>
       </c>
       <c r="N121" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O121" s="15" t="n">
-        <v>55.32</v>
+        <v>1996</v>
+      </c>
+      <c r="O121" s="17" t="inlineStr">
+        <is>
+          <t>31,50,80</t>
+        </is>
       </c>
       <c r="P121" s="7" t="n">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="Q121" s="7" t="inlineStr">
         <is>
-          <t>Castelló/ESP</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R121" s="16" t="n">
-        <v>17.09</v>
+        <v>24.09</v>
       </c>
       <c r="T121" s="5" t="n"/>
     </row>
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Jonas Mæland Rosholt</t>
+          <t>Torgrim Frøystein</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E122" s="17" t="inlineStr">
-        <is>
-          <t>1,02,09</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E122" s="15" t="n">
+        <v>1.88</v>
       </c>
       <c r="F122" s="7" t="n">
-        <v>572</v>
+        <v>722</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>21.08</v>
+        <v>4.06</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Torgrim Frøystein</t>
+          <t>Jonas Mæland Rosholt</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O122" s="15" t="n">
-        <v>1.88</v>
+        <v>2007</v>
+      </c>
+      <c r="O122" s="17" t="inlineStr">
+        <is>
+          <t>1,02,09</t>
+        </is>
       </c>
       <c r="P122" s="7" t="n">
-        <v>722</v>
+        <v>572</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>4.06</v>
+        <v>21.08</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Johannes Strømhaug</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>1.75</v>
+        <v>5.02</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>607</v>
+        <v>912</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>New Haven/CT/USA</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>10.09</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Johannes Strømhaug</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>5.02</v>
+        <v>1.75</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>912</v>
+        <v>607</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>New Haven/CT/USA</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>8.050000000000001</v>
+        <v>10.09</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
@@ -6349,25 +6349,25 @@
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Simen Gimnes</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>6.09</v>
+        <v>6.68</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>627</v>
+        <v>758</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>20.08</v>
+        <v>26.08</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
@@ -6377,25 +6377,25 @@
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Simen Gimnes</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>6.68</v>
+        <v>6.09</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>758</v>
+        <v>627</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>26.08</v>
+        <v>20.08</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
@@ -6407,25 +6407,25 @@
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Simen Gimnes</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>12.33</v>
+        <v>13.86</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>596</v>
+        <v>761</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>9.09</v>
+        <v>4.03</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -6435,83 +6435,83 @@
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Sigmund Le Fjeld</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>13.86</v>
+        <v>12.33</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>761</v>
+        <v>596</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>11.06</v>
+        <v>9.09</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Markus Le Fjeld</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>44.33</v>
+        <v>3.07</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>762</v>
+        <v>711</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ås</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>30.06</v>
+        <v>6.11</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Sondre Alexander Høyland</t>
+          <t>Eirik Halfdansen-Aspen</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>2.98</v>
+        <v>44.33</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>661</v>
+        <v>762</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>12.02</v>
+        <v>30.06</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
@@ -6523,25 +6523,25 @@
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Kasper Sagen</t>
+          <t>Sondre Alexander Høyland</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>66.98999999999999</v>
+        <v>72.09</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>857</v>
+        <v>932</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Leiria/POR</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>13.03</v>
+        <v>26.06</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -6551,25 +6551,25 @@
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Sondre Alexander Høyland</t>
+          <t>Kasper Sagen</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>72.09</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>932</v>
+        <v>857</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Leiria/POR</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>26.06</v>
+        <v>13.03</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11571</v>
+        <v>11610</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -6623,7 +6623,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>11560</v>
+        <v>11571</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -6731,25 +6731,25 @@
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Patrick Monga Bifuko</t>
         </is>
       </c>
       <c r="D134" s="7" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="E134" s="15" t="n">
-        <v>10.65</v>
+        <v>10.94</v>
       </c>
       <c r="F134" s="7" t="n">
-        <v>935</v>
+        <v>857</v>
       </c>
       <c r="G134" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H134" s="16" t="n">
-        <v>16.06</v>
+        <v>24.06</v>
       </c>
       <c r="J134" s="5" t="n"/>
       <c r="L134" s="14" t="inlineStr">
@@ -6759,163 +6759,163 @@
       </c>
       <c r="M134" s="7" t="inlineStr">
         <is>
-          <t>Patrick Monga Bifuko</t>
+          <t>Edem Schaanning Agbo</t>
         </is>
       </c>
       <c r="N134" s="7" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="O134" s="15" t="n">
-        <v>10.94</v>
+        <v>10.65</v>
       </c>
       <c r="P134" s="7" t="n">
-        <v>857</v>
+        <v>935</v>
       </c>
       <c r="Q134" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R134" s="16" t="n">
-        <v>24.06</v>
+        <v>16.06</v>
       </c>
       <c r="T134" s="5" t="n"/>
     </row>
     <row r="135" ht="13" customHeight="1">
       <c r="B135" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Einar Johannes Rye</t>
         </is>
       </c>
       <c r="D135" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E135" s="15" t="n">
-        <v>6.93</v>
+        <v>22.17</v>
       </c>
       <c r="F135" s="7" t="n">
-        <v>895</v>
+        <v>841</v>
       </c>
       <c r="G135" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H135" s="16" t="n">
-        <v>20.02</v>
+        <v>10.06</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M135" s="7" t="inlineStr">
         <is>
-          <t>Einar Johannes Rye</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N135" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="O135" s="15" t="n">
-        <v>22.17</v>
+        <v>6.93</v>
       </c>
       <c r="P135" s="7" t="n">
-        <v>841</v>
+        <v>895</v>
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>10.06</v>
+        <v>20.02</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
     <row r="136" ht="13" customHeight="1">
       <c r="B136" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Sander Werge Nilsen</t>
+          <t>Kristian Drabløs</t>
         </is>
       </c>
       <c r="D136" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="E136" s="15" t="n">
-        <v>10.83</v>
+        <v>22.25</v>
       </c>
       <c r="F136" s="7" t="n">
-        <v>886</v>
+        <v>832</v>
       </c>
       <c r="G136" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H136" s="16" t="n">
-        <v>12.08</v>
+        <v>13.02</v>
       </c>
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M136" s="7" t="inlineStr">
         <is>
-          <t>Kristian Drabløs</t>
+          <t>Sander Werge Nilsen</t>
         </is>
       </c>
       <c r="N136" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="O136" s="15" t="n">
-        <v>22.25</v>
+        <v>10.83</v>
       </c>
       <c r="P136" s="7" t="n">
-        <v>832</v>
+        <v>886</v>
       </c>
       <c r="Q136" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R136" s="16" t="n">
-        <v>13.02</v>
+        <v>12.08</v>
       </c>
       <c r="T136" s="5" t="n"/>
     </row>
     <row r="137" ht="13" customHeight="1">
       <c r="B137" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Christian Wright</t>
         </is>
       </c>
       <c r="D137" s="7" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E137" s="15" t="n">
-        <v>21.95</v>
+        <v>11.05</v>
       </c>
       <c r="F137" s="7" t="n">
-        <v>866</v>
+        <v>829</v>
       </c>
       <c r="G137" s="7" t="inlineStr">
         <is>
@@ -6923,27 +6923,27 @@
         </is>
       </c>
       <c r="H137" s="16" t="n">
-        <v>27.08</v>
+        <v>26.08</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M137" s="7" t="inlineStr">
         <is>
-          <t>Christian Wright</t>
+          <t>Per Tinius Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N137" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="O137" s="15" t="n">
-        <v>11.05</v>
+        <v>21.95</v>
       </c>
       <c r="P137" s="7" t="n">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
@@ -6951,89 +6951,87 @@
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>26.08</v>
+        <v>27.08</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
     <row r="138" ht="13" customHeight="1">
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>Tor-Junor Kringstad Vedde</t>
+          <t>Sigurd Clementsen</t>
         </is>
       </c>
       <c r="D138" s="7" t="n">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="E138" s="15" t="n">
-        <v>48.7</v>
+        <v>22.4</v>
       </c>
       <c r="F138" s="7" t="n">
-        <v>852</v>
+        <v>814</v>
       </c>
       <c r="G138" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H138" s="16" t="n">
-        <v>28.05</v>
+        <v>13.02</v>
       </c>
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Clementsen</t>
+          <t>Tor-Junor Kringstad Vedde</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="O138" s="15" t="n">
-        <v>22.4</v>
+        <v>48.7</v>
       </c>
       <c r="P138" s="7" t="n">
-        <v>814</v>
+        <v>852</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R138" s="16" t="n">
-        <v>13.02</v>
+        <v>28.05</v>
       </c>
       <c r="T138" s="5" t="n"/>
     </row>
     <row r="139" ht="13" customHeight="1">
       <c r="B139" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Simen Seeberg-Rommetveit</t>
+          <t>Patrick Monga Bifuko</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E139" s="17" t="inlineStr">
-        <is>
-          <t>1,53,54</t>
-        </is>
+        <v>1996</v>
+      </c>
+      <c r="E139" s="15" t="n">
+        <v>22.4</v>
       </c>
       <c r="F139" s="7" t="n">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
@@ -7041,27 +7039,29 @@
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>26.06</v>
+        <v>25.06</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Patrick Monga Bifuko</t>
+          <t>Simen Seeberg-Rommetveit</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O139" s="15" t="n">
-        <v>22.4</v>
+        <v>2000</v>
+      </c>
+      <c r="O139" s="17" t="inlineStr">
+        <is>
+          <t>1,53,54</t>
+        </is>
       </c>
       <c r="P139" s="7" t="n">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
@@ -7069,65 +7069,65 @@
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>25.06</v>
+        <v>26.06</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
     <row r="140" ht="13" customHeight="1">
       <c r="B140" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Theodore Einar Fremstad-Waldron</t>
+          <t>Even Pettersen</t>
         </is>
       </c>
       <c r="D140" s="7" t="n">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="E140" s="15" t="n">
-        <v>49.29</v>
+        <v>22.46</v>
       </c>
       <c r="F140" s="7" t="n">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>27.08</v>
+        <v>25.06</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Even Pettersen</t>
+          <t>Theodore Einar Fremstad-Waldron</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="O140" s="15" t="n">
-        <v>22.46</v>
+        <v>49.29</v>
       </c>
       <c r="P140" s="7" t="n">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>25.06</v>
+        <v>27.08</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
@@ -7139,25 +7139,25 @@
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Holen</t>
+          <t>Markus Le Fjeld</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E141" s="15" t="n">
-        <v>11.1</v>
+        <v>11.14</v>
       </c>
       <c r="F141" s="7" t="n">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>18.06</v>
+        <v>26.08</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
@@ -7167,259 +7167,259 @@
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Markus Le Fjeld</t>
+          <t>Jonathan Holen</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="O141" s="15" t="n">
-        <v>11.14</v>
+        <v>11.1</v>
       </c>
       <c r="P141" s="7" t="n">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>26.08</v>
+        <v>18.06</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Halvard Grape Fladby</t>
+          <t>Kim Kamanzi</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E142" s="17" t="inlineStr">
-        <is>
-          <t>3,55,04</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E142" s="15" t="n">
+        <v>22.53</v>
       </c>
       <c r="F142" s="7" t="n">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>27.08</v>
+        <v>10.06</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M142" s="7" t="inlineStr">
         <is>
-          <t>Kim Kamanzi</t>
+          <t>Halvard Grape Fladby</t>
         </is>
       </c>
       <c r="N142" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O142" s="15" t="n">
-        <v>22.53</v>
+        <v>2005</v>
+      </c>
+      <c r="O142" s="17" t="inlineStr">
+        <is>
+          <t>3,55,04</t>
+        </is>
       </c>
       <c r="P142" s="7" t="n">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R142" s="16" t="n">
-        <v>10.06</v>
+        <v>27.08</v>
       </c>
       <c r="T142" s="5" t="n"/>
     </row>
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Thomas Graftås</t>
+          <t>Sigurd Clementsen</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E143" s="15" t="n">
-        <v>11.14</v>
+        <v>49.85</v>
       </c>
       <c r="F143" s="7" t="n">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>19.06</v>
+        <v>12.06</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Sigurd Clementsen</t>
+          <t>Thomas Graftås</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="O143" s="15" t="n">
-        <v>49.85</v>
+        <v>11.14</v>
       </c>
       <c r="P143" s="7" t="n">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>12.06</v>
+        <v>19.06</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
     <row r="144" ht="13" customHeight="1">
       <c r="B144" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Ruben Martinsen</t>
+          <t>Sigmund Le Fjeld</t>
         </is>
       </c>
       <c r="D144" s="7" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E144" s="15" t="n">
-        <v>61.26</v>
+        <v>13.86</v>
       </c>
       <c r="F144" s="7" t="n">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>28.08</v>
+        <v>11.06</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Simen Gimnes</t>
+          <t>Ruben Martinsen</t>
         </is>
       </c>
       <c r="N144" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="O144" s="15" t="n">
-        <v>13.86</v>
+        <v>61.26</v>
       </c>
       <c r="P144" s="7" t="n">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>4.03</v>
+        <v>28.08</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
     <row r="145" ht="13" customHeight="1">
       <c r="B145" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Dag Storm Wergeland</t>
+          <t>Jonathan Hertwig-Ødegaard</t>
         </is>
       </c>
       <c r="D145" s="7" t="n">
-        <v>1989</v>
+        <v>2005</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>57.45</v>
+        <v>4.2</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>725</v>
+        <v>759</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>3.09</v>
+        <v>5.03</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M145" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Hertwig-Ødegaard</t>
+          <t>Dag Storm Wergeland</t>
         </is>
       </c>
       <c r="N145" s="7" t="n">
-        <v>2005</v>
+        <v>1989</v>
       </c>
       <c r="O145" s="15" t="n">
-        <v>4.2</v>
+        <v>57.45</v>
       </c>
       <c r="P145" s="7" t="n">
-        <v>759</v>
+        <v>725</v>
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R145" s="16" t="n">
-        <v>12.02</v>
+        <v>3.09</v>
       </c>
       <c r="T145" s="5" t="n"/>
     </row>
@@ -7431,25 +7431,25 @@
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Jonathan Hertwig-Ødegaard</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E146" s="15" t="n">
-        <v>6.06</v>
+        <v>6.39</v>
       </c>
       <c r="F146" s="7" t="n">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>13.08</v>
+        <v>26.08</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
@@ -7459,141 +7459,141 @@
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Hertwig-Ødegaard</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>6.39</v>
+        <v>6.06</v>
       </c>
       <c r="P146" s="7" t="n">
-        <v>694</v>
+        <v>620</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>26.08</v>
+        <v>13.08</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
     <row r="147" ht="13" customHeight="1">
       <c r="B147" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Markus Le Fjeld</t>
         </is>
       </c>
       <c r="D147" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>12.25</v>
+        <v>6.32</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>587</v>
+        <v>678</v>
       </c>
       <c r="G147" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Västerås/SWE</t>
         </is>
       </c>
       <c r="H147" s="16" t="n">
-        <v>9.09</v>
+        <v>31.07</v>
       </c>
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M147" s="7" t="inlineStr">
         <is>
-          <t>Markus Le Fjeld</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N147" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O147" s="15" t="n">
-        <v>6.32</v>
+        <v>12.25</v>
       </c>
       <c r="P147" s="7" t="n">
-        <v>678</v>
+        <v>587</v>
       </c>
       <c r="Q147" s="7" t="inlineStr">
         <is>
-          <t>Västerås/SWE</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R147" s="16" t="n">
-        <v>31.07</v>
+        <v>9.09</v>
       </c>
       <c r="T147" s="5" t="n"/>
     </row>
     <row r="148" ht="13" customHeight="1">
       <c r="B148" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>Ariand Shegani</t>
+          <t>Sondre Alexander Høyland</t>
         </is>
       </c>
       <c r="D148" s="7" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="E148" s="15" t="n">
-        <v>11.63</v>
+        <v>2.98</v>
       </c>
       <c r="F148" s="7" t="n">
-        <v>518</v>
+        <v>661</v>
       </c>
       <c r="G148" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H148" s="16" t="n">
-        <v>9.09</v>
+        <v>12.02</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Sondre Alexander Høyland</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>12.75</v>
+        <v>2.75</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>650</v>
+        <v>532</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ås</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>12.02</v>
+        <v>6.11</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>11740</v>
+        <v>11746</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11735</v>
+        <v>11754</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7670,7 +7670,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>23311</v>
+        <v>23356</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>23295</v>
+        <v>23325</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="C154" s="20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="19" t="inlineStr">
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="M154" s="20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -16796,25 +16796,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IK Tjalve 2. lag</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(24/14)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16408</v>
+        <v>16720</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(11/1d)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -16824,25 +16824,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Moss IL</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>16174</v>
+        <v>16408</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -16852,25 +16852,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IK Tjalve 2. lag</t>
+          <t>Moss IL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(24/14)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>16157</v>
+        <v>16174</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(11/1d)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -20964,7 +20964,7 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="F96" s="8" t="n">
@@ -20978,7 +20978,7 @@
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="P96" s="8" t="n">
@@ -20994,7 +20994,7 @@
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>Haugesund IL</t>
+          <t>IK Tjalve 2. lag</t>
         </is>
       </c>
       <c r="J97" s="5" t="n"/>
@@ -21005,7 +21005,7 @@
       </c>
       <c r="M97" s="7" t="inlineStr">
         <is>
-          <t>Moss IL</t>
+          <t>Haugesund IL</t>
         </is>
       </c>
       <c r="T97" s="5" t="n"/>
@@ -21134,25 +21134,25 @@
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>Neo Dobson</t>
+          <t>Albin Lydersen Botez</t>
         </is>
       </c>
       <c r="D103" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E103" s="15" t="n">
-        <v>7.04</v>
+        <v>7.27</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>845</v>
+        <v>748</v>
       </c>
       <c r="G103" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H103" s="16" t="n">
-        <v>26.02</v>
+        <v>7.05</v>
       </c>
       <c r="J103" s="5" t="n"/>
       <c r="L103" s="14" t="inlineStr">
@@ -21162,25 +21162,25 @@
       </c>
       <c r="M103" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tollefsen</t>
+          <t>Neo Dobson</t>
         </is>
       </c>
       <c r="N103" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O103" s="15" t="n">
-        <v>7.16</v>
+        <v>7.04</v>
       </c>
       <c r="P103" s="7" t="n">
-        <v>793</v>
+        <v>845</v>
       </c>
       <c r="Q103" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R103" s="16" t="n">
-        <v>5.03</v>
+        <v>26.02</v>
       </c>
       <c r="T103" s="5" t="n"/>
     </row>
@@ -21192,11 +21192,11 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Neo Dobson</t>
+          <t>Sander Steen Myrvang</t>
         </is>
       </c>
       <c r="D104" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E104" s="15" t="n">
         <v>10.96</v>
@@ -21220,25 +21220,25 @@
       </c>
       <c r="M104" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tollefsen</t>
+          <t>Neo Dobson</t>
         </is>
       </c>
       <c r="N104" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O104" s="15" t="n">
-        <v>10.97</v>
+        <v>10.96</v>
       </c>
       <c r="P104" s="7" t="n">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="Q104" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R104" s="16" t="n">
-        <v>12.08</v>
+        <v>19.06</v>
       </c>
       <c r="T104" s="5" t="n"/>
     </row>
@@ -21250,25 +21250,25 @@
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Sander Steen Myrvang</t>
         </is>
       </c>
       <c r="D105" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E105" s="15" t="n">
-        <v>23.34</v>
+        <v>22.5</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>713</v>
+        <v>803</v>
       </c>
       <c r="G105" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H105" s="16" t="n">
-        <v>27.05</v>
+        <v>25.06</v>
       </c>
       <c r="J105" s="5" t="n"/>
       <c r="L105" s="14" t="inlineStr">
@@ -21278,25 +21278,25 @@
       </c>
       <c r="M105" s="7" t="inlineStr">
         <is>
-          <t>Oliver Tollefsen</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N105" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="O105" s="15" t="n">
-        <v>22</v>
+        <v>23.34</v>
       </c>
       <c r="P105" s="7" t="n">
-        <v>860</v>
+        <v>713</v>
       </c>
       <c r="Q105" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R105" s="16" t="n">
-        <v>6.03</v>
+        <v>27.05</v>
       </c>
       <c r="T105" s="5" t="n"/>
     </row>
@@ -21308,55 +21308,53 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Alexander Laksfoss</t>
+          <t>Albin Lydersen Botez</t>
         </is>
       </c>
       <c r="D106" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E106" s="15" t="n">
-        <v>53.88</v>
+        <v>52.01</v>
       </c>
       <c r="F106" s="7" t="n">
-        <v>608</v>
+        <v>687</v>
       </c>
       <c r="G106" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H106" s="16" t="n">
-        <v>27.07</v>
+        <v>18.06</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Ottar Andreas Grønvold</t>
+          <t>Alexander Laksfoss</t>
         </is>
       </c>
       <c r="N106" s="7" t="n">
-        <v>1982</v>
-      </c>
-      <c r="O106" s="17" t="inlineStr">
-        <is>
-          <t>17,09,75</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O106" s="15" t="n">
+        <v>53.88</v>
       </c>
       <c r="P106" s="7" t="n">
-        <v>518</v>
+        <v>608</v>
       </c>
       <c r="Q106" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R106" s="16" t="n">
-        <v>7.04</v>
+        <v>27.07</v>
       </c>
       <c r="T106" s="5" t="n"/>
     </row>
@@ -21368,55 +21366,57 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Simon Østreng Veland</t>
+          <t>Lars Wold Møller</t>
         </is>
       </c>
       <c r="D107" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E107" s="17" t="inlineStr">
         <is>
-          <t>1,55,75</t>
+          <t>2,00,71</t>
         </is>
       </c>
       <c r="F107" s="7" t="n">
-        <v>776</v>
+        <v>674</v>
       </c>
       <c r="G107" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H107" s="16" t="n">
-        <v>29.01</v>
+        <v>27.08</v>
       </c>
       <c r="J107" s="5" t="n"/>
       <c r="L107" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Simon Østreng Veland</t>
         </is>
       </c>
       <c r="N107" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O107" s="15" t="n">
-        <v>1.76</v>
+        <v>2000</v>
+      </c>
+      <c r="O107" s="17" t="inlineStr">
+        <is>
+          <t>1,55,75</t>
+        </is>
       </c>
       <c r="P107" s="7" t="n">
-        <v>616</v>
+        <v>776</v>
       </c>
       <c r="Q107" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R107" s="16" t="n">
-        <v>13.08</v>
+        <v>29.01</v>
       </c>
       <c r="T107" s="5" t="n"/>
     </row>
@@ -21428,55 +21428,57 @@
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>Simon Østreng Veland</t>
+          <t>Mikkel Blikstad Thomassen</t>
         </is>
       </c>
       <c r="D108" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E108" s="17" t="inlineStr">
         <is>
-          <t>3,57,09</t>
+          <t>3,51,76</t>
         </is>
       </c>
       <c r="F108" s="7" t="n">
-        <v>789</v>
+        <v>845</v>
       </c>
       <c r="G108" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H108" s="16" t="n">
-        <v>24.06</v>
+        <v>23.07</v>
       </c>
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M108" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Simon Østreng Veland</t>
         </is>
       </c>
       <c r="N108" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O108" s="15" t="n">
-        <v>3.8</v>
+        <v>2000</v>
+      </c>
+      <c r="O108" s="17" t="inlineStr">
+        <is>
+          <t>3,57,09</t>
+        </is>
       </c>
       <c r="P108" s="7" t="n">
-        <v>679</v>
+        <v>789</v>
       </c>
       <c r="Q108" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R108" s="16" t="n">
-        <v>17.09</v>
+        <v>24.06</v>
       </c>
       <c r="T108" s="5" t="n"/>
     </row>
@@ -21488,55 +21490,57 @@
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Mikkel Blikstad Thomassen</t>
         </is>
       </c>
       <c r="D109" s="7" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="E109" s="17" t="inlineStr">
         <is>
-          <t>9,06,42</t>
+          <t>8,30,88</t>
         </is>
       </c>
       <c r="F109" s="7" t="n">
-        <v>664</v>
+        <v>809</v>
       </c>
       <c r="G109" s="7" t="inlineStr">
         <is>
-          <t>Ålgård</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H109" s="16" t="n">
-        <v>27.08</v>
+        <v>5.08</v>
       </c>
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M109" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N109" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O109" s="15" t="n">
-        <v>5.99</v>
+        <v>1995</v>
+      </c>
+      <c r="O109" s="17" t="inlineStr">
+        <is>
+          <t>9,06,42</t>
+        </is>
       </c>
       <c r="P109" s="7" t="n">
-        <v>604</v>
+        <v>664</v>
       </c>
       <c r="Q109" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Ålgård</t>
         </is>
       </c>
       <c r="R109" s="16" t="n">
-        <v>17.09</v>
+        <v>27.08</v>
       </c>
       <c r="T109" s="5" t="n"/>
     </row>
@@ -21548,79 +21552,81 @@
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Mikkel Blikstad Thomassen</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E110" s="17" t="inlineStr">
         <is>
-          <t>15,00,98</t>
+          <t>14,53,24</t>
         </is>
       </c>
       <c r="F110" s="7" t="n">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>24.06</v>
+        <v>30.06</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M110" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N110" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O110" s="15" t="n">
-        <v>13.09</v>
+        <v>1999</v>
+      </c>
+      <c r="O110" s="17" t="inlineStr">
+        <is>
+          <t>15,00,98</t>
+        </is>
       </c>
       <c r="P110" s="7" t="n">
-        <v>679</v>
+        <v>770</v>
       </c>
       <c r="Q110" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R110" s="16" t="n">
-        <v>27.08</v>
+        <v>24.06</v>
       </c>
       <c r="T110" s="5" t="n"/>
     </row>
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Jonas Riseth</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="E111" s="17" t="inlineStr">
         <is>
-          <t>31,33,99</t>
+          <t>9,34,66</t>
         </is>
       </c>
       <c r="F111" s="7" t="n">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
@@ -21628,267 +21634,269 @@
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>26.06</v>
+        <v>25.06</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M111" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N111" s="7" t="n">
         <v>1999</v>
       </c>
-      <c r="O111" s="15" t="n">
-        <v>1.5</v>
+      <c r="O111" s="17" t="inlineStr">
+        <is>
+          <t>31,33,99</t>
+        </is>
       </c>
       <c r="P111" s="7" t="n">
-        <v>672</v>
+        <v>764</v>
       </c>
       <c r="Q111" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R111" s="16" t="n">
-        <v>14.09</v>
+        <v>26.06</v>
       </c>
       <c r="T111" s="5" t="n"/>
     </row>
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Theodor Aase</t>
+          <t>Lucas F. T. Gjesdal</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>1.75</v>
+        <v>4.1</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>607</v>
+        <v>740</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>14.05</v>
+        <v>27.08</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Theodor Aase</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>3.02</v>
+        <v>1.75</v>
       </c>
       <c r="P112" s="7" t="n">
-        <v>683</v>
+        <v>607</v>
       </c>
       <c r="Q112" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R112" s="16" t="n">
-        <v>6.02</v>
+        <v>14.05</v>
       </c>
       <c r="T112" s="5" t="n"/>
     </row>
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Stian André Lie Austrheim</t>
+          <t>Per Ellef Ryen Aalerud</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>5.71</v>
+        <v>2.89</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Ås</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>29.01</v>
+        <v>6.11</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Geir Moen</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>1969</v>
+        <v>2004</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>11.02</v>
+        <v>5.71</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>15.1</v>
+        <v>29.01</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
     <row r="114" ht="13" customHeight="1">
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Stian André Lie Austrheim</t>
+          <t>Rune Vegard Godtland</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2004</v>
+        <v>1982</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>13.03</v>
+        <v>35.15</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>672</v>
+        <v>591</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Tampere/FIN</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>27.07</v>
+        <v>3.07</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>32.31</v>
+        <v>13.03</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>531</v>
+        <v>672</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>3.08</v>
+        <v>27.07</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
     <row r="115" ht="13" customHeight="1">
       <c r="B115" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Bjørn Gunnar Husby</t>
+          <t>Eric Christopher Becklund</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>1975</v>
+        <v>2005</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>2.63</v>
+        <v>60.44</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>460</v>
+        <v>765</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>29.01</v>
+        <v>7.08</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Atcha M. Prommetta</t>
+          <t>Bjørn Gunnar Husby</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>1999</v>
+        <v>1975</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>42.72</v>
+        <v>2.63</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>3.08</v>
+        <v>29.01</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -21925,7 +21933,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>9060</v>
+        <v>9651</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -21942,7 +21950,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>8535</v>
+        <v>9060</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -22045,470 +22053,478 @@
     <row r="122" ht="13" customHeight="1">
       <c r="B122" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Alexander Laksfoss</t>
+          <t>Jonas Riseth</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E122" s="15" t="n">
-        <v>11.24</v>
+        <v>1994</v>
+      </c>
+      <c r="E122" s="17" t="inlineStr">
+        <is>
+          <t>14,55,88</t>
+        </is>
       </c>
       <c r="F122" s="7" t="n">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>19.06</v>
+        <v>21.05</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Alexander Laksfoss</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O122" s="15" t="n">
-        <v>23.04</v>
+        <v>11.24</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>744</v>
+        <v>782</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>9.07</v>
+        <v>19.06</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Tedros Gebretensai Haile</t>
+          <t>Albin Lydersen Botez</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E123" s="17" t="inlineStr">
-        <is>
-          <t>3,58,37</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E123" s="15" t="n">
+        <v>11.3</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>5.06</v>
+        <v>7.08</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Tedros Gebretensai Haile</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O123" s="15" t="n">
-        <v>11.45</v>
+        <v>1999</v>
+      </c>
+      <c r="O123" s="17" t="inlineStr">
+        <is>
+          <t>3,58,37</t>
+        </is>
       </c>
       <c r="P123" s="7" t="n">
-        <v>732</v>
+        <v>777</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Sarpsborg</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>20.08</v>
+        <v>5.06</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Alexander Laksfoss</t>
+          <t>Albin Lydersen Botez</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>7.21</v>
+        <v>22.87</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>29.01</v>
+        <v>7.06</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Alexander Laksfoss</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>11.53</v>
+        <v>7.21</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>713</v>
+        <v>773</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>31.08</v>
+        <v>29.01</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Iver Matias Linge Glomnes</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E125" s="15" t="n">
-        <v>11.43</v>
+        <v>1996</v>
+      </c>
+      <c r="E125" s="17" t="inlineStr">
+        <is>
+          <t>15,11,24</t>
+        </is>
       </c>
       <c r="F125" s="7" t="n">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>21.05</v>
+        <v>24.09</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Marcus Devantés Gardner Stålby</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>7.38</v>
+        <v>11.43</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>12.02</v>
+        <v>21.05</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Stefan Skrede</t>
+          <t>Sindre Olsvik</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>7.31</v>
+        <v>11.39</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>29.01</v>
+        <v>19.06</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Stefan Skrede</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>23.5</v>
+        <v>7.31</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>697</v>
+        <v>732</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>15.05</v>
+        <v>29.01</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Iver Matias Linge Glomnes</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="E127" s="17" t="inlineStr">
         <is>
-          <t>4,03,96</t>
+          <t>8,47,23</t>
         </is>
       </c>
       <c r="F127" s="7" t="n">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>10.08</v>
+        <v>28.05</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O127" s="15" t="n">
-        <v>7.59</v>
+        <v>1995</v>
+      </c>
+      <c r="O127" s="17" t="inlineStr">
+        <is>
+          <t>4,03,96</t>
+        </is>
       </c>
       <c r="P127" s="7" t="n">
-        <v>628</v>
+        <v>724</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>29.01</v>
+        <v>10.08</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
     <row r="128" ht="13" customHeight="1">
       <c r="B128" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Nordhus</t>
+          <t>Håkon Skaftun</t>
         </is>
       </c>
       <c r="D128" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E128" s="17" t="inlineStr">
-        <is>
-          <t>1,59,0</t>
-        </is>
+        <v>1997</v>
+      </c>
+      <c r="E128" s="15" t="n">
+        <v>23.13</v>
       </c>
       <c r="F128" s="7" t="n">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="G128" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H128" s="16" t="n">
-        <v>21.05</v>
+        <v>7.06</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M128" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Kristoffer Nordhus</t>
         </is>
       </c>
       <c r="N128" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O128" s="15" t="n">
-        <v>3.5</v>
+        <v>1995</v>
+      </c>
+      <c r="O128" s="17" t="inlineStr">
+        <is>
+          <t>1,59,0</t>
+        </is>
       </c>
       <c r="P128" s="7" t="n">
-        <v>615</v>
+        <v>707</v>
       </c>
       <c r="Q128" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R128" s="16" t="n">
-        <v>11.09</v>
+        <v>21.05</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
     <row r="129" ht="13" customHeight="1">
       <c r="B129" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Theodor Aase</t>
+          <t>Jonas Riseth</t>
         </is>
       </c>
       <c r="D129" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E129" s="15" t="n">
-        <v>7.41</v>
+        <v>1994</v>
+      </c>
+      <c r="E129" s="17" t="inlineStr">
+        <is>
+          <t>4,03,73</t>
+        </is>
       </c>
       <c r="F129" s="7" t="n">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="G129" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H129" s="16" t="n">
-        <v>10.09</v>
+        <v>2.06</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Theodor Aase</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O129" s="15" t="n">
-        <v>11.99</v>
+        <v>7.41</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>19.06</v>
+        <v>10.09</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -22520,53 +22536,53 @@
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Stian André Lie Austrheim</t>
+          <t>Lucas F. T. Gjesdal</t>
         </is>
       </c>
       <c r="D130" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E130" s="15" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="F130" s="7" t="n">
-        <v>607</v>
+        <v>408</v>
       </c>
       <c r="G130" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H130" s="16" t="n">
-        <v>14.05</v>
+        <v>10.09</v>
       </c>
       <c r="J130" s="5" t="n"/>
       <c r="L130" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M130" s="7" t="inlineStr">
         <is>
-          <t>Eirik-André Kristiansen</t>
+          <t>Stian André Lie Austrheim</t>
         </is>
       </c>
       <c r="N130" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O130" s="15" t="n">
-        <v>12.05</v>
+        <v>1.75</v>
       </c>
       <c r="P130" s="7" t="n">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="Q130" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R130" s="16" t="n">
-        <v>19.06</v>
+        <v>14.05</v>
       </c>
       <c r="T130" s="5" t="n"/>
     </row>
@@ -22578,83 +22594,83 @@
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Ramstad Støylen</t>
+          <t>Aksel Gulowsen</t>
         </is>
       </c>
       <c r="D131" s="7" t="n">
-        <v>1993</v>
+        <v>2007</v>
       </c>
       <c r="E131" s="15" t="n">
-        <v>4.95</v>
+        <v>4.96</v>
       </c>
       <c r="F131" s="7" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G131" s="7" t="inlineStr">
         <is>
-          <t>Bollnäs/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H131" s="16" t="n">
-        <v>20.08</v>
+        <v>28.05</v>
       </c>
       <c r="J131" s="5" t="n"/>
       <c r="L131" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M131" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Bjørnar Ramstad Støylen</t>
         </is>
       </c>
       <c r="N131" s="7" t="n">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="O131" s="15" t="n">
-        <v>11.99</v>
+        <v>4.95</v>
       </c>
       <c r="P131" s="7" t="n">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="Q131" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bollnäs/SWE</t>
         </is>
       </c>
       <c r="R131" s="16" t="n">
-        <v>4.03</v>
+        <v>20.08</v>
       </c>
       <c r="T131" s="5" t="n"/>
     </row>
     <row r="132" ht="13" customHeight="1">
       <c r="B132" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Eirik Svelland Hustoft</t>
+          <t>Andreas Wiesener Haga</t>
         </is>
       </c>
       <c r="D132" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="E132" s="15" t="n">
-        <v>4.53</v>
+        <v>1.45</v>
       </c>
       <c r="F132" s="7" t="n">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="G132" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Oslo/NIH</t>
         </is>
       </c>
       <c r="H132" s="16" t="n">
-        <v>21.05</v>
+        <v>17.09</v>
       </c>
       <c r="J132" s="5" t="n"/>
       <c r="L132" s="14" t="inlineStr">
@@ -22664,56 +22680,36 @@
       </c>
       <c r="M132" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Eirik Svelland Hustoft</t>
         </is>
       </c>
       <c r="N132" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O132" s="15" t="n">
-        <v>5.66</v>
+        <v>4.53</v>
       </c>
       <c r="P132" s="7" t="n">
-        <v>528</v>
+        <v>255</v>
       </c>
       <c r="Q132" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R132" s="16" t="n">
-        <v>10.09</v>
+        <v>21.05</v>
       </c>
       <c r="T132" s="5" t="n"/>
     </row>
     <row r="133" ht="13" customHeight="1">
-      <c r="B133" s="14" t="inlineStr">
-        <is>
-          <t>Lengde</t>
-        </is>
-      </c>
-      <c r="C133" s="7" t="inlineStr">
-        <is>
-          <t>Nikolai Østrem Enersen</t>
-        </is>
-      </c>
-      <c r="D133" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E133" s="15" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F133" s="7" t="n">
-        <v>202</v>
-      </c>
-      <c r="G133" s="7" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="H133" s="16" t="n">
-        <v>21.05</v>
-      </c>
+      <c r="B133" s="14" t="n"/>
+      <c r="C133" s="7" t="n"/>
+      <c r="D133" s="7" t="n"/>
+      <c r="E133" s="7" t="n"/>
+      <c r="F133" s="7" t="n"/>
+      <c r="G133" s="7" t="n"/>
+      <c r="H133" s="21" t="n"/>
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
         <is>
@@ -22722,25 +22718,25 @@
       </c>
       <c r="M133" s="7" t="inlineStr">
         <is>
-          <t>Jacob Egeberg Holm</t>
+          <t>Nikolai Østrem Enersen</t>
         </is>
       </c>
       <c r="N133" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O133" s="15" t="n">
-        <v>5.56</v>
+        <v>4.32</v>
       </c>
       <c r="P133" s="7" t="n">
-        <v>505</v>
+        <v>202</v>
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>13.08</v>
+        <v>21.05</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -22769,7 +22765,7 @@
         </is>
       </c>
       <c r="C135" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E135" s="19" t="inlineStr">
         <is>
@@ -22777,7 +22773,7 @@
         </is>
       </c>
       <c r="F135" s="20" t="n">
-        <v>7348</v>
+        <v>7069</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="19" t="inlineStr">
@@ -22794,7 +22790,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7639</v>
+        <v>7348</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -22809,7 +22805,7 @@
         </is>
       </c>
       <c r="C137" s="20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E137" s="19" t="inlineStr">
         <is>
@@ -22817,7 +22813,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16408</v>
+        <v>16720</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">
@@ -22834,7 +22830,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>16174</v>
+        <v>16408</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -22849,7 +22845,7 @@
         </is>
       </c>
       <c r="C139" s="20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="19" t="inlineStr">
@@ -22858,7 +22854,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -22900,7 +22896,7 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Østfold</t>
         </is>
       </c>
       <c r="F143" s="8" t="n">
@@ -22930,7 +22926,7 @@
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>IK Tjalve 2. lag</t>
+          <t>Moss IL</t>
         </is>
       </c>
       <c r="J144" s="5" t="n"/>
@@ -23070,25 +23066,25 @@
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>Albin Lydersen Botez</t>
+          <t>Oliver Tollefsen</t>
         </is>
       </c>
       <c r="D150" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E150" s="15" t="n">
-        <v>7.27</v>
+        <v>7.16</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>748</v>
+        <v>793</v>
       </c>
       <c r="G150" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H150" s="16" t="n">
-        <v>7.05</v>
+        <v>5.03</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="14" t="inlineStr">
@@ -23128,25 +23124,25 @@
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>Sander Steen Myrvang</t>
+          <t>Oliver Tollefsen</t>
         </is>
       </c>
       <c r="D151" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E151" s="15" t="n">
-        <v>10.96</v>
+        <v>10.97</v>
       </c>
       <c r="F151" s="7" t="n">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G151" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H151" s="16" t="n">
-        <v>19.06</v>
+        <v>12.08</v>
       </c>
       <c r="J151" s="5" t="n"/>
       <c r="L151" s="14" t="inlineStr">
@@ -23186,25 +23182,25 @@
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>Sander Steen Myrvang</t>
+          <t>Oliver Tollefsen</t>
         </is>
       </c>
       <c r="D152" s="7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E152" s="15" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="F152" s="7" t="n">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="G152" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H152" s="16" t="n">
-        <v>25.06</v>
+        <v>6.03</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="14" t="inlineStr">
@@ -23239,30 +23235,32 @@
     <row r="153" ht="13" customHeight="1">
       <c r="B153" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Albin Lydersen Botez</t>
+          <t>Ottar Andreas Grønvold</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E153" s="15" t="n">
-        <v>52.01</v>
+        <v>1982</v>
+      </c>
+      <c r="E153" s="17" t="inlineStr">
+        <is>
+          <t>17,09,75</t>
+        </is>
       </c>
       <c r="F153" s="7" t="n">
-        <v>687</v>
+        <v>518</v>
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>18.06</v>
+        <v>7.04</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -23297,32 +23295,30 @@
     <row r="154" ht="13" customHeight="1">
       <c r="B154" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>Lars Wold Møller</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="D154" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E154" s="17" t="inlineStr">
-        <is>
-          <t>2,00,71</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E154" s="15" t="n">
+        <v>1.76</v>
       </c>
       <c r="F154" s="7" t="n">
-        <v>674</v>
+        <v>616</v>
       </c>
       <c r="G154" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H154" s="16" t="n">
-        <v>27.08</v>
+        <v>13.08</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="14" t="inlineStr">
@@ -23359,32 +23355,30 @@
     <row r="155" ht="13" customHeight="1">
       <c r="B155" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>Mikkel Blikstad Thomassen</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="D155" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E155" s="17" t="inlineStr">
-        <is>
-          <t>3,51,76</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="E155" s="15" t="n">
+        <v>3.8</v>
       </c>
       <c r="F155" s="7" t="n">
-        <v>845</v>
+        <v>679</v>
       </c>
       <c r="G155" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H155" s="16" t="n">
-        <v>23.07</v>
+        <v>17.09</v>
       </c>
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
@@ -23421,32 +23415,30 @@
     <row r="156" ht="13" customHeight="1">
       <c r="B156" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>Mikkel Blikstad Thomassen</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="D156" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E156" s="17" t="inlineStr">
-        <is>
-          <t>8,30,88</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E156" s="15" t="n">
+        <v>5.99</v>
       </c>
       <c r="F156" s="7" t="n">
-        <v>809</v>
+        <v>604</v>
       </c>
       <c r="G156" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H156" s="16" t="n">
-        <v>5.08</v>
+        <v>17.09</v>
       </c>
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
@@ -23481,32 +23473,30 @@
     <row r="157" ht="13" customHeight="1">
       <c r="B157" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>Mikkel Blikstad Thomassen</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="D157" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E157" s="17" t="inlineStr">
-        <is>
-          <t>14,53,24</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E157" s="15" t="n">
+        <v>13.09</v>
       </c>
       <c r="F157" s="7" t="n">
-        <v>787</v>
+        <v>679</v>
       </c>
       <c r="G157" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H157" s="16" t="n">
-        <v>30.06</v>
+        <v>27.08</v>
       </c>
       <c r="J157" s="5" t="n"/>
       <c r="L157" s="14" t="inlineStr">
@@ -23541,32 +23531,30 @@
     <row r="158" ht="13" customHeight="1">
       <c r="B158" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Jonas Riseth</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="D158" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E158" s="17" t="inlineStr">
-        <is>
-          <t>9,34,66</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="E158" s="15" t="n">
+        <v>1.5</v>
       </c>
       <c r="F158" s="7" t="n">
-        <v>739</v>
+        <v>672</v>
       </c>
       <c r="G158" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H158" s="16" t="n">
-        <v>25.06</v>
+        <v>14.09</v>
       </c>
       <c r="J158" s="5" t="n"/>
       <c r="L158" s="14" t="inlineStr">
@@ -23601,30 +23589,30 @@
     <row r="159" ht="13" customHeight="1">
       <c r="B159" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Lucas F. T. Gjesdal</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="D159" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E159" s="15" t="n">
-        <v>1.55</v>
+        <v>3.02</v>
       </c>
       <c r="F159" s="7" t="n">
-        <v>408</v>
+        <v>683</v>
       </c>
       <c r="G159" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H159" s="16" t="n">
-        <v>10.09</v>
+        <v>6.02</v>
       </c>
       <c r="J159" s="5" t="n"/>
       <c r="L159" s="14" t="inlineStr">
@@ -23659,30 +23647,30 @@
     <row r="160" ht="13" customHeight="1">
       <c r="B160" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>Lucas F. T. Gjesdal</t>
+          <t>Geir Moen</t>
         </is>
       </c>
       <c r="D160" s="7" t="n">
-        <v>2005</v>
+        <v>1969</v>
       </c>
       <c r="E160" s="15" t="n">
-        <v>4.1</v>
+        <v>11.02</v>
       </c>
       <c r="F160" s="7" t="n">
-        <v>740</v>
+        <v>525</v>
       </c>
       <c r="G160" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H160" s="16" t="n">
-        <v>27.08</v>
+        <v>15.1</v>
       </c>
       <c r="J160" s="5" t="n"/>
       <c r="L160" s="14" t="inlineStr">
@@ -23722,25 +23710,25 @@
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>Rune Vegard Godtland</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="D161" s="7" t="n">
-        <v>1982</v>
+        <v>1999</v>
       </c>
       <c r="E161" s="15" t="n">
-        <v>35.15</v>
+        <v>32.31</v>
       </c>
       <c r="F161" s="7" t="n">
-        <v>591</v>
+        <v>531</v>
       </c>
       <c r="G161" s="7" t="inlineStr">
         <is>
-          <t>Tampere/FIN</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H161" s="16" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="J161" s="5" t="n"/>
       <c r="L161" s="14" t="inlineStr">
@@ -23780,25 +23768,25 @@
       </c>
       <c r="C162" s="7" t="inlineStr">
         <is>
-          <t>Eric Christopher Becklund</t>
+          <t>Atcha M. Prommetta</t>
         </is>
       </c>
       <c r="D162" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E162" s="15" t="n">
-        <v>60.44</v>
+        <v>42.72</v>
       </c>
       <c r="F162" s="7" t="n">
-        <v>765</v>
+        <v>526</v>
       </c>
       <c r="G162" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H162" s="16" t="n">
-        <v>7.08</v>
+        <v>3.08</v>
       </c>
       <c r="J162" s="5" t="n"/>
       <c r="L162" s="14" t="inlineStr">
@@ -23863,7 +23851,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>9448</v>
+        <v>8535</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -23983,32 +23971,30 @@
     <row r="169" ht="13" customHeight="1">
       <c r="B169" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Jonas Riseth</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E169" s="17" t="inlineStr">
-        <is>
-          <t>14,55,88</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E169" s="15" t="n">
+        <v>23.04</v>
       </c>
       <c r="F169" s="7" t="n">
-        <v>781</v>
+        <v>744</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>21.05</v>
+        <v>9.07</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -24048,25 +24034,25 @@
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Albin Lydersen Botez</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E170" s="15" t="n">
-        <v>11.3</v>
+        <v>11.45</v>
       </c>
       <c r="F170" s="7" t="n">
-        <v>767</v>
+        <v>732</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Sarpsborg</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>7.08</v>
+        <v>20.08</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -24101,30 +24087,30 @@
     <row r="171" ht="13" customHeight="1">
       <c r="B171" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Albin Lydersen Botez</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E171" s="15" t="n">
-        <v>22.87</v>
+        <v>11.53</v>
       </c>
       <c r="F171" s="7" t="n">
-        <v>763</v>
+        <v>713</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>7.06</v>
+        <v>31.08</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -24159,32 +24145,30 @@
     <row r="172" ht="13" customHeight="1">
       <c r="B172" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Iver Matias Linge Glomnes</t>
+          <t>Marcus Devantés Gardner Stålby</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E172" s="17" t="inlineStr">
-        <is>
-          <t>15,11,24</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E172" s="15" t="n">
+        <v>7.38</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>747</v>
+        <v>705</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>24.09</v>
+        <v>12.02</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
@@ -24219,30 +24203,30 @@
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Sindre Olsvik</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E173" s="15" t="n">
-        <v>11.39</v>
+        <v>23.5</v>
       </c>
       <c r="F173" s="7" t="n">
-        <v>746</v>
+        <v>697</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>19.06</v>
+        <v>15.05</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
@@ -24277,32 +24261,30 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Iver Matias Linge Glomnes</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E174" s="17" t="inlineStr">
-        <is>
-          <t>8,47,23</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E174" s="15" t="n">
+        <v>7.59</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>739</v>
+        <v>628</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>28.05</v>
+        <v>29.01</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -24337,30 +24319,30 @@
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Håkon Skaftun</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>23.13</v>
+        <v>3.5</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>735</v>
+        <v>615</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>7.06</v>
+        <v>11.09</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -24395,32 +24377,30 @@
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Jonas Riseth</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E176" s="17" t="inlineStr">
-        <is>
-          <t>4,03,73</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E176" s="15" t="n">
+        <v>11.99</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>726</v>
+        <v>613</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>2.06</v>
+        <v>19.06</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -24455,30 +24435,30 @@
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Aksel Gulowsen</t>
+          <t>Eirik-André Kristiansen</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>4.96</v>
+        <v>12.05</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>362</v>
+        <v>600</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>28.05</v>
+        <v>19.06</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
@@ -24513,30 +24493,30 @@
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Andreas Wiesener Haga</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>1.45</v>
+        <v>11.99</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>295</v>
+        <v>559</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Oslo/NIH</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>17.09</v>
+        <v>4.03</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -24576,25 +24556,25 @@
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Nyx Simion</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>3.73</v>
+        <v>5.66</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>48</v>
+        <v>528</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>29.05</v>
+        <v>10.09</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
@@ -24627,13 +24607,33 @@
       <c r="T179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
-      <c r="B180" s="14" t="n"/>
-      <c r="C180" s="7" t="n"/>
-      <c r="D180" s="7" t="n"/>
-      <c r="E180" s="7" t="n"/>
-      <c r="F180" s="7" t="n"/>
-      <c r="G180" s="7" t="n"/>
-      <c r="H180" s="21" t="n"/>
+      <c r="B180" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="C180" s="7" t="inlineStr">
+        <is>
+          <t>Jacob Egeberg Holm</t>
+        </is>
+      </c>
+      <c r="D180" s="7" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E180" s="15" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="F180" s="7" t="n">
+        <v>505</v>
+      </c>
+      <c r="G180" s="7" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="H180" s="16" t="n">
+        <v>13.08</v>
+      </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         </is>
       </c>
       <c r="C182" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E182" s="19" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>6709</v>
+        <v>7639</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24729,7 +24729,7 @@
         </is>
       </c>
       <c r="C184" s="20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E184" s="19" t="inlineStr">
         <is>
@@ -24737,7 +24737,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>16157</v>
+        <v>16174</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24769,7 +24769,7 @@
         </is>
       </c>
       <c r="C186" s="20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="19" t="inlineStr">
@@ -52778,11 +52778,11 @@
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>28.05</v>
+        <v>19.06</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -903,20 +903,20 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>IL Gular</t>
+          <t>Stord IL</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(23/12)</t>
+          <t>(30/16)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>19115</v>
+        <v>19774</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>(1/2d)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -931,20 +931,20 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Stord IL</t>
+          <t>IL Gular</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(23/12)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>18878</v>
+        <v>19115</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>(9)</t>
+          <t>(1/2d)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -5164,30 +5164,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Robert Sheath</t>
+          <t>Andreas Langhelle</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>7.4</v>
+        <v>51.79</v>
       </c>
       <c r="P93" s="7" t="n">
         <v>697</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>5.03</v>
+        <v>26.08</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -5222,30 +5222,30 @@
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Robert Sheath</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>51.79</v>
+        <v>7.4</v>
       </c>
       <c r="P94" s="7" t="n">
         <v>697</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>26.08</v>
+        <v>5.03</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>IL Gular</t>
+          <t>Stord IL</t>
         </is>
       </c>
       <c r="T263" s="5" t="n"/>
@@ -12449,25 +12449,25 @@
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>6.69</v>
+        <v>7.72</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>1015</v>
+        <v>584</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>5.02</v>
+        <v>28.05</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -12507,25 +12507,25 @@
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Even Meinseth</t>
+          <t>Steffen Tjensvoll Hollund</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>10.29</v>
+        <v>11.99</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>1038</v>
+        <v>613</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Sollentuna/SWE</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>12.06</v>
+        <v>3.09</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -12565,25 +12565,25 @@
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Andreas Haara Bakketun</t>
+          <t>Julian Skimmeland Aasheim</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>21.13</v>
+        <v>23.66</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>968</v>
+        <v>681</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>La Chaux-de-Fonds/SUI</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>3.07</v>
+        <v>27.05</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -12623,25 +12623,25 @@
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Andreas Haara Bakketun</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>47.21</v>
+        <v>54.86</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>937</v>
+        <v>572</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bømlo</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>25.06</v>
+        <v>29.09</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -12683,27 +12683,27 @@
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Robin Wathne Nedrehagen</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="O273" s="17" t="inlineStr">
         <is>
-          <t>1,53,73</t>
+          <t>1,57,68</t>
         </is>
       </c>
       <c r="P273" s="7" t="n">
-        <v>823</v>
+        <v>734</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>7.06</v>
+        <v>27.08</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -12745,27 +12745,27 @@
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Sandnes Lillefosse</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>1992</v>
+        <v>2006</v>
       </c>
       <c r="O274" s="17" t="inlineStr">
         <is>
-          <t>3,43,17</t>
+          <t>4,05,01</t>
         </is>
       </c>
       <c r="P274" s="7" t="n">
-        <v>945</v>
+        <v>714</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>25.06</v>
+        <v>27.08</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -12807,27 +12807,27 @@
       </c>
       <c r="M275" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Sandnes Lillefosse</t>
+          <t>Vegard Havn</t>
         </is>
       </c>
       <c r="N275" s="7" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="O275" s="17" t="inlineStr">
         <is>
-          <t>7,57,83</t>
+          <t>8,52,35</t>
         </is>
       </c>
       <c r="P275" s="7" t="n">
-        <v>966</v>
+        <v>718</v>
       </c>
       <c r="Q275" s="7" t="inlineStr">
         <is>
-          <t>Uppsala/SWE</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R275" s="16" t="n">
-        <v>13.02</v>
+        <v>19.06</v>
       </c>
       <c r="T275" s="5" t="n"/>
     </row>
@@ -12869,27 +12869,27 @@
       </c>
       <c r="M276" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Sandnes Lillefosse</t>
+          <t>Lars Lunde</t>
         </is>
       </c>
       <c r="N276" s="7" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="O276" s="17" t="inlineStr">
         <is>
-          <t>13,44,20</t>
+          <t>14,47,8</t>
         </is>
       </c>
       <c r="P276" s="7" t="n">
-        <v>965</v>
+        <v>800</v>
       </c>
       <c r="Q276" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R276" s="16" t="n">
-        <v>23.07</v>
+        <v>22.1</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -12931,27 +12931,27 @@
       </c>
       <c r="M277" s="7" t="inlineStr">
         <is>
-          <t>Bjørnar Sandnes Lillefosse</t>
+          <t>Johannes Thomsen</t>
         </is>
       </c>
       <c r="N277" s="7" t="n">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="O277" s="17" t="inlineStr">
         <is>
-          <t>28,11,29</t>
+          <t>31,59,24</t>
         </is>
       </c>
       <c r="P277" s="7" t="n">
-        <v>1006</v>
+        <v>739</v>
       </c>
       <c r="Q277" s="7" t="inlineStr">
         <is>
-          <t>Leiden/NED</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R277" s="16" t="n">
-        <v>11.06</v>
+        <v>11.05</v>
       </c>
       <c r="T277" s="5" t="n"/>
     </row>
@@ -12991,27 +12991,27 @@
       </c>
       <c r="M278" s="7" t="inlineStr">
         <is>
-          <t>Daniel Jacobsen</t>
+          <t>Tom Erling Kårbø</t>
         </is>
       </c>
       <c r="N278" s="7" t="n">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="O278" s="17" t="inlineStr">
         <is>
-          <t>9,19,21</t>
+          <t>8,26,12</t>
         </is>
       </c>
       <c r="P278" s="7" t="n">
-        <v>793</v>
+        <v>1004</v>
       </c>
       <c r="Q278" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Eugene/OR/USA</t>
         </is>
       </c>
       <c r="R278" s="16" t="n">
-        <v>25.06</v>
+        <v>15.07</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -13051,25 +13051,25 @@
       </c>
       <c r="M279" s="7" t="inlineStr">
         <is>
-          <t>Frank Atle Kvinge</t>
+          <t>Marius Torbjørnsen</t>
         </is>
       </c>
       <c r="N279" s="7" t="n">
-        <v>1954</v>
+        <v>2003</v>
       </c>
       <c r="O279" s="15" t="n">
-        <v>1.25</v>
+        <v>1.84</v>
       </c>
       <c r="P279" s="7" t="n">
-        <v>19</v>
+        <v>687</v>
       </c>
       <c r="Q279" s="7" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R279" s="16" t="n">
-        <v>1.1</v>
+        <v>19.06</v>
       </c>
       <c r="T279" s="5" t="n"/>
     </row>
@@ -13109,25 +13109,25 @@
       </c>
       <c r="M280" s="7" t="inlineStr">
         <is>
-          <t>Frank Atle Kvinge</t>
+          <t>Per Gregersen</t>
         </is>
       </c>
       <c r="N280" s="7" t="n">
-        <v>1954</v>
+        <v>1970</v>
       </c>
       <c r="O280" s="15" t="n">
-        <v>2.1</v>
+        <v>3.42</v>
       </c>
       <c r="P280" s="7" t="n">
-        <v>232</v>
+        <v>597</v>
       </c>
       <c r="Q280" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R280" s="16" t="n">
-        <v>19.08</v>
+        <v>15.02</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
@@ -13162,30 +13162,30 @@
       <c r="J281" s="5" t="n"/>
       <c r="L281" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M281" s="7" t="inlineStr">
         <is>
-          <t>Frank Atle Kvinge</t>
+          <t>Marius Torbjørnsen</t>
         </is>
       </c>
       <c r="N281" s="7" t="n">
-        <v>1954</v>
+        <v>2003</v>
       </c>
       <c r="O281" s="15" t="n">
-        <v>7.78</v>
+        <v>6.12</v>
       </c>
       <c r="P281" s="7" t="n">
-        <v>56</v>
+        <v>633</v>
       </c>
       <c r="Q281" s="7" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R281" s="16" t="n">
-        <v>2.1</v>
+        <v>7.08</v>
       </c>
       <c r="T281" s="5" t="n"/>
     </row>
@@ -13218,13 +13218,33 @@
         <v>15.1</v>
       </c>
       <c r="J282" s="5" t="n"/>
-      <c r="L282" s="14" t="n"/>
-      <c r="M282" s="7" t="n"/>
-      <c r="N282" s="7" t="n"/>
-      <c r="O282" s="7" t="n"/>
-      <c r="P282" s="7" t="n"/>
-      <c r="Q282" s="7" t="n"/>
-      <c r="R282" s="21" t="n"/>
+      <c r="L282" s="14" t="inlineStr">
+        <is>
+          <t>Høyde u.t</t>
+        </is>
+      </c>
+      <c r="M282" s="7" t="inlineStr">
+        <is>
+          <t>Oscar Sørvik Ånderå</t>
+        </is>
+      </c>
+      <c r="N282" s="7" t="n">
+        <v>2007</v>
+      </c>
+      <c r="O282" s="15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P282" s="7" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q282" s="7" t="inlineStr">
+        <is>
+          <t>Bømlo</t>
+        </is>
+      </c>
+      <c r="R282" s="16" t="n">
+        <v>7.04</v>
+      </c>
       <c r="T282" s="5" t="n"/>
     </row>
     <row r="283" ht="13" customHeight="1">
@@ -13256,13 +13276,33 @@
         <v>27.08</v>
       </c>
       <c r="J283" s="5" t="n"/>
-      <c r="L283" s="14" t="n"/>
-      <c r="M283" s="7" t="n"/>
-      <c r="N283" s="7" t="n"/>
-      <c r="O283" s="7" t="n"/>
-      <c r="P283" s="7" t="n"/>
-      <c r="Q283" s="7" t="n"/>
-      <c r="R283" s="21" t="n"/>
+      <c r="L283" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="M283" s="7" t="inlineStr">
+        <is>
+          <t>Steffen Tjensvoll Hollund</t>
+        </is>
+      </c>
+      <c r="N283" s="7" t="n">
+        <v>2006</v>
+      </c>
+      <c r="O283" s="15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="P283" s="7" t="n">
+        <v>453</v>
+      </c>
+      <c r="Q283" s="7" t="inlineStr">
+        <is>
+          <t>Bømlo</t>
+        </is>
+      </c>
+      <c r="R283" s="16" t="n">
+        <v>10.02</v>
+      </c>
       <c r="T283" s="5" t="n"/>
     </row>
     <row r="284" ht="13" customHeight="1">
@@ -13307,7 +13347,7 @@
         </is>
       </c>
       <c r="M285" s="20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O285" s="19" t="inlineStr">
         <is>
@@ -13315,7 +13355,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>9763</v>
+        <v>10055</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -13448,30 +13488,32 @@
       <c r="J290" s="5" t="n"/>
       <c r="L290" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M290" s="7" t="inlineStr">
         <is>
-          <t>Jacob Vaula</t>
+          <t>Harald Kårbø</t>
         </is>
       </c>
       <c r="N290" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O290" s="15" t="n">
-        <v>10.46</v>
+        <v>1992</v>
+      </c>
+      <c r="O290" s="17" t="inlineStr">
+        <is>
+          <t>14,47,6</t>
+        </is>
       </c>
       <c r="P290" s="7" t="n">
-        <v>988</v>
+        <v>800</v>
       </c>
       <c r="Q290" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R290" s="16" t="n">
-        <v>16.06</v>
+        <v>22.1</v>
       </c>
       <c r="T290" s="5" t="n"/>
     </row>
@@ -13506,30 +13548,32 @@
       <c r="J291" s="5" t="n"/>
       <c r="L291" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M291" s="7" t="inlineStr">
         <is>
-          <t>Jacob Vaula</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="N291" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O291" s="15" t="n">
-        <v>6.83</v>
+        <v>2000</v>
+      </c>
+      <c r="O291" s="17" t="inlineStr">
+        <is>
+          <t>32,05,5</t>
+        </is>
       </c>
       <c r="P291" s="7" t="n">
-        <v>944</v>
+        <v>733</v>
       </c>
       <c r="Q291" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R291" s="16" t="n">
-        <v>5.03</v>
+        <v>22.1</v>
       </c>
       <c r="T291" s="5" t="n"/>
     </row>
@@ -13564,32 +13608,32 @@
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M292" s="7" t="inlineStr">
         <is>
-          <t>Mats Hauge</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="N292" s="7" t="n">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="O292" s="17" t="inlineStr">
         <is>
-          <t>3,43,51</t>
+          <t>15,23,2</t>
         </is>
       </c>
       <c r="P292" s="7" t="n">
-        <v>940</v>
+        <v>721</v>
       </c>
       <c r="Q292" s="7" t="inlineStr">
         <is>
-          <t>Oordegem/BEL</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R292" s="16" t="n">
-        <v>28.05</v>
+        <v>22.1</v>
       </c>
       <c r="T292" s="5" t="n"/>
     </row>
@@ -13626,32 +13670,32 @@
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M293" s="7" t="inlineStr">
         <is>
-          <t>Eivind Trym Wikshåland</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="N293" s="7" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="O293" s="17" t="inlineStr">
         <is>
-          <t>3,43,95</t>
+          <t>15,33,34</t>
         </is>
       </c>
       <c r="P293" s="7" t="n">
-        <v>935</v>
+        <v>699</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>16.06</v>
+        <v>1.08</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
@@ -13686,32 +13730,32 @@
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M294" s="7" t="inlineStr">
         <is>
-          <t>Marius Øyre Vedvik</t>
+          <t>Vegard Havn</t>
         </is>
       </c>
       <c r="N294" s="7" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="O294" s="17" t="inlineStr">
         <is>
-          <t>8,05,18</t>
+          <t>15,34,7</t>
         </is>
       </c>
       <c r="P294" s="7" t="n">
-        <v>930</v>
+        <v>697</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>8.06</v>
+        <v>22.1</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
@@ -13746,32 +13790,32 @@
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M295" s="7" t="inlineStr">
         <is>
-          <t>Marius Øyre Vedvik</t>
+          <t>Johannes Sandvik Bø</t>
         </is>
       </c>
       <c r="N295" s="7" t="n">
-        <v>1992</v>
+        <v>2006</v>
       </c>
       <c r="O295" s="17" t="inlineStr">
         <is>
-          <t>13,57,57</t>
+          <t>8,58,52</t>
         </is>
       </c>
       <c r="P295" s="7" t="n">
-        <v>927</v>
+        <v>694</v>
       </c>
       <c r="Q295" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R295" s="16" t="n">
-        <v>21.05</v>
+        <v>20.02</v>
       </c>
       <c r="T295" s="5" t="n"/>
     </row>
@@ -13806,30 +13850,32 @@
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Andreas Haara Bakketun</t>
+          <t>Martin Schei</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O296" s="15" t="n">
-        <v>6.87</v>
+        <v>2000</v>
+      </c>
+      <c r="O296" s="17" t="inlineStr">
+        <is>
+          <t>9,00,81</t>
+        </is>
       </c>
       <c r="P296" s="7" t="n">
-        <v>924</v>
+        <v>685</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>5.03</v>
+        <v>20.08</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -13866,30 +13912,32 @@
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
         <is>
-          <t>Sondre Faugstad Amundsen</t>
+          <t>Johannes Thomsen</t>
         </is>
       </c>
       <c r="N297" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O297" s="15" t="n">
-        <v>10.69</v>
+        <v>1983</v>
+      </c>
+      <c r="O297" s="17" t="inlineStr">
+        <is>
+          <t>9,04,07</t>
+        </is>
       </c>
       <c r="P297" s="7" t="n">
-        <v>924</v>
+        <v>673</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>16.06</v>
+        <v>19.06</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
@@ -13926,32 +13974,32 @@
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
         <is>
-          <t>Eivind Trym Wikshåland</t>
+          <t>Jacob Hystad</t>
         </is>
       </c>
       <c r="N298" s="7" t="n">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="O298" s="17" t="inlineStr">
         <is>
-          <t>8,06,58</t>
+          <t>15,48,2</t>
         </is>
       </c>
       <c r="P298" s="7" t="n">
-        <v>923</v>
+        <v>669</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>8.06</v>
+        <v>22.1</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -13986,30 +14034,32 @@
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M299" s="7" t="inlineStr">
         <is>
-          <t>Sondre Lindaas Gjesdal</t>
+          <t>Erlend Kringeland</t>
         </is>
       </c>
       <c r="N299" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O299" s="15" t="n">
-        <v>21.53</v>
+        <v>2003</v>
+      </c>
+      <c r="O299" s="17" t="inlineStr">
+        <is>
+          <t>4,13,12</t>
+        </is>
       </c>
       <c r="P299" s="7" t="n">
-        <v>917</v>
+        <v>646</v>
       </c>
       <c r="Q299" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R299" s="16" t="n">
-        <v>25.06</v>
+        <v>7.08</v>
       </c>
       <c r="T299" s="5" t="n"/>
     </row>
@@ -14042,13 +14092,33 @@
         <v>14.03</v>
       </c>
       <c r="J300" s="5" t="n"/>
-      <c r="L300" s="14" t="n"/>
-      <c r="M300" s="7" t="n"/>
-      <c r="N300" s="7" t="n"/>
-      <c r="O300" s="7" t="n"/>
-      <c r="P300" s="7" t="n"/>
-      <c r="Q300" s="7" t="n"/>
-      <c r="R300" s="21" t="n"/>
+      <c r="L300" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M300" s="7" t="inlineStr">
+        <is>
+          <t>Oscar Sørvik Ånderå</t>
+        </is>
+      </c>
+      <c r="N300" s="7" t="n">
+        <v>2007</v>
+      </c>
+      <c r="O300" s="15" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P300" s="7" t="n">
+        <v>598</v>
+      </c>
+      <c r="Q300" s="7" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="R300" s="16" t="n">
+        <v>13.03</v>
+      </c>
       <c r="T300" s="5" t="n"/>
     </row>
     <row r="301" ht="13" customHeight="1">
@@ -14080,13 +14150,33 @@
         <v>29.03</v>
       </c>
       <c r="J301" s="5" t="n"/>
-      <c r="L301" s="14" t="n"/>
-      <c r="M301" s="7" t="n"/>
-      <c r="N301" s="7" t="n"/>
-      <c r="O301" s="7" t="n"/>
-      <c r="P301" s="7" t="n"/>
-      <c r="Q301" s="7" t="n"/>
-      <c r="R301" s="21" t="n"/>
+      <c r="L301" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="M301" s="7" t="inlineStr">
+        <is>
+          <t>Sander Havn Turøy</t>
+        </is>
+      </c>
+      <c r="N301" s="7" t="n">
+        <v>2006</v>
+      </c>
+      <c r="O301" s="15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P301" s="7" t="n">
+        <v>560</v>
+      </c>
+      <c r="Q301" s="7" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="R301" s="16" t="n">
+        <v>19.01</v>
+      </c>
       <c r="T301" s="5" t="n"/>
     </row>
     <row r="302" ht="13" customHeight="1">
@@ -14118,13 +14208,33 @@
         <v>14.03</v>
       </c>
       <c r="J302" s="5" t="n"/>
-      <c r="L302" s="14" t="n"/>
-      <c r="M302" s="7" t="n"/>
-      <c r="N302" s="7" t="n"/>
-      <c r="O302" s="7" t="n"/>
-      <c r="P302" s="7" t="n"/>
-      <c r="Q302" s="7" t="n"/>
-      <c r="R302" s="21" t="n"/>
+      <c r="L302" s="14" t="inlineStr">
+        <is>
+          <t>Stav</t>
+        </is>
+      </c>
+      <c r="M302" s="7" t="inlineStr">
+        <is>
+          <t>Oddvar Hårde</t>
+        </is>
+      </c>
+      <c r="N302" s="7" t="n">
+        <v>1969</v>
+      </c>
+      <c r="O302" s="15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="P302" s="7" t="n">
+        <v>547</v>
+      </c>
+      <c r="Q302" s="7" t="inlineStr">
+        <is>
+          <t>Sandnes</t>
+        </is>
+      </c>
+      <c r="R302" s="16" t="n">
+        <v>15.02</v>
+      </c>
       <c r="T302" s="5" t="n"/>
     </row>
     <row r="303" ht="13" customHeight="1">
@@ -14156,13 +14266,33 @@
         <v>19.03</v>
       </c>
       <c r="J303" s="5" t="n"/>
-      <c r="L303" s="14" t="n"/>
-      <c r="M303" s="7" t="n"/>
-      <c r="N303" s="7" t="n"/>
-      <c r="O303" s="7" t="n"/>
-      <c r="P303" s="7" t="n"/>
-      <c r="Q303" s="7" t="n"/>
-      <c r="R303" s="21" t="n"/>
+      <c r="L303" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="M303" s="7" t="inlineStr">
+        <is>
+          <t>Steffen Tjensvoll Hollund</t>
+        </is>
+      </c>
+      <c r="N303" s="7" t="n">
+        <v>2006</v>
+      </c>
+      <c r="O303" s="15" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="P303" s="7" t="n">
+        <v>516</v>
+      </c>
+      <c r="Q303" s="7" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="R303" s="16" t="n">
+        <v>3.09</v>
+      </c>
       <c r="T303" s="5" t="n"/>
     </row>
     <row r="304" ht="13" customHeight="1">
@@ -14194,13 +14324,33 @@
         <v>19.03</v>
       </c>
       <c r="J304" s="5" t="n"/>
-      <c r="L304" s="14" t="n"/>
-      <c r="M304" s="7" t="n"/>
-      <c r="N304" s="7" t="n"/>
-      <c r="O304" s="7" t="n"/>
-      <c r="P304" s="7" t="n"/>
-      <c r="Q304" s="7" t="n"/>
-      <c r="R304" s="21" t="n"/>
+      <c r="L304" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="M304" s="7" t="inlineStr">
+        <is>
+          <t>Oscar Sørvik Ånderå</t>
+        </is>
+      </c>
+      <c r="N304" s="7" t="n">
+        <v>2007</v>
+      </c>
+      <c r="O304" s="15" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="P304" s="7" t="n">
+        <v>481</v>
+      </c>
+      <c r="Q304" s="7" t="inlineStr">
+        <is>
+          <t>Haugesund</t>
+        </is>
+      </c>
+      <c r="R304" s="16" t="n">
+        <v>13.03</v>
+      </c>
       <c r="T304" s="5" t="n"/>
     </row>
     <row r="305" ht="13" customHeight="1">
@@ -14245,7 +14395,7 @@
         </is>
       </c>
       <c r="M306" s="20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O306" s="19" t="inlineStr">
         <is>
@@ -14253,7 +14403,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>9352</v>
+        <v>9719</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -14285,7 +14435,7 @@
         </is>
       </c>
       <c r="M308" s="20" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O308" s="19" t="inlineStr">
         <is>
@@ -14293,7 +14443,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>19115</v>
+        <v>19774</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -14317,7 +14467,7 @@
         </is>
       </c>
       <c r="M310" s="20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T310" s="5" t="n"/>
     </row>
@@ -14389,7 +14539,7 @@
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>Stord IL</t>
+          <t>IL Gular</t>
         </is>
       </c>
       <c r="J315" s="5" t="n"/>
@@ -14529,25 +14679,25 @@
       </c>
       <c r="C321" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="D321" s="7" t="n">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="E321" s="15" t="n">
-        <v>7.72</v>
+        <v>6.69</v>
       </c>
       <c r="F321" s="7" t="n">
-        <v>584</v>
+        <v>1015</v>
       </c>
       <c r="G321" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H321" s="16" t="n">
-        <v>28.05</v>
+        <v>5.02</v>
       </c>
       <c r="J321" s="5" t="n"/>
       <c r="L321" s="14" t="inlineStr">
@@ -14587,25 +14737,25 @@
       </c>
       <c r="C322" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Even Meinseth</t>
         </is>
       </c>
       <c r="D322" s="7" t="n">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="E322" s="15" t="n">
-        <v>11.99</v>
+        <v>10.29</v>
       </c>
       <c r="F322" s="7" t="n">
-        <v>613</v>
+        <v>1038</v>
       </c>
       <c r="G322" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Sollentuna/SWE</t>
         </is>
       </c>
       <c r="H322" s="16" t="n">
-        <v>3.09</v>
+        <v>12.06</v>
       </c>
       <c r="J322" s="5" t="n"/>
       <c r="L322" s="14" t="inlineStr">
@@ -14645,25 +14795,25 @@
       </c>
       <c r="C323" s="7" t="inlineStr">
         <is>
-          <t>Julian Skimmeland Aasheim</t>
+          <t>Andreas Haara Bakketun</t>
         </is>
       </c>
       <c r="D323" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E323" s="15" t="n">
-        <v>23.66</v>
+        <v>21.13</v>
       </c>
       <c r="F323" s="7" t="n">
-        <v>681</v>
+        <v>968</v>
       </c>
       <c r="G323" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="H323" s="16" t="n">
-        <v>27.05</v>
+        <v>3.07</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="14" t="inlineStr">
@@ -14705,25 +14855,25 @@
       </c>
       <c r="C324" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Andreas Haara Bakketun</t>
         </is>
       </c>
       <c r="D324" s="7" t="n">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E324" s="15" t="n">
-        <v>54.86</v>
+        <v>47.21</v>
       </c>
       <c r="F324" s="7" t="n">
-        <v>572</v>
+        <v>937</v>
       </c>
       <c r="G324" s="7" t="inlineStr">
         <is>
-          <t>Bømlo</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H324" s="16" t="n">
-        <v>29.09</v>
+        <v>25.06</v>
       </c>
       <c r="J324" s="5" t="n"/>
       <c r="L324" s="14" t="inlineStr">
@@ -14765,27 +14915,27 @@
       </c>
       <c r="C325" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Robin Wathne Nedrehagen</t>
         </is>
       </c>
       <c r="D325" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E325" s="17" t="inlineStr">
         <is>
-          <t>1,57,68</t>
+          <t>1,53,73</t>
         </is>
       </c>
       <c r="F325" s="7" t="n">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="G325" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H325" s="16" t="n">
-        <v>27.08</v>
+        <v>7.06</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="14" t="inlineStr">
@@ -14827,27 +14977,27 @@
       </c>
       <c r="C326" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Bjørnar Sandnes Lillefosse</t>
         </is>
       </c>
       <c r="D326" s="7" t="n">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="E326" s="17" t="inlineStr">
         <is>
-          <t>4,05,01</t>
+          <t>3,43,17</t>
         </is>
       </c>
       <c r="F326" s="7" t="n">
-        <v>714</v>
+        <v>945</v>
       </c>
       <c r="G326" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H326" s="16" t="n">
-        <v>27.08</v>
+        <v>25.06</v>
       </c>
       <c r="J326" s="5" t="n"/>
       <c r="L326" s="14" t="inlineStr">
@@ -14889,27 +15039,27 @@
       </c>
       <c r="C327" s="7" t="inlineStr">
         <is>
-          <t>Vegard Havn</t>
+          <t>Bjørnar Sandnes Lillefosse</t>
         </is>
       </c>
       <c r="D327" s="7" t="n">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="E327" s="17" t="inlineStr">
         <is>
-          <t>8,52,35</t>
+          <t>7,57,83</t>
         </is>
       </c>
       <c r="F327" s="7" t="n">
-        <v>718</v>
+        <v>966</v>
       </c>
       <c r="G327" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Uppsala/SWE</t>
         </is>
       </c>
       <c r="H327" s="16" t="n">
-        <v>19.06</v>
+        <v>13.02</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="14" t="inlineStr">
@@ -14951,27 +15101,27 @@
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Bjørnar Sandnes Lillefosse</t>
         </is>
       </c>
       <c r="D328" s="7" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="E328" s="17" t="inlineStr">
         <is>
-          <t>15,33,34</t>
+          <t>13,44,20</t>
         </is>
       </c>
       <c r="F328" s="7" t="n">
-        <v>699</v>
+        <v>965</v>
       </c>
       <c r="G328" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H328" s="16" t="n">
-        <v>1.08</v>
+        <v>23.07</v>
       </c>
       <c r="J328" s="5" t="n"/>
       <c r="L328" s="14" t="inlineStr">
@@ -15011,27 +15161,27 @@
       </c>
       <c r="C329" s="7" t="inlineStr">
         <is>
-          <t>Johannes Thomsen</t>
+          <t>Bjørnar Sandnes Lillefosse</t>
         </is>
       </c>
       <c r="D329" s="7" t="n">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="E329" s="17" t="inlineStr">
         <is>
-          <t>31,59,24</t>
+          <t>28,11,29</t>
         </is>
       </c>
       <c r="F329" s="7" t="n">
-        <v>739</v>
+        <v>1006</v>
       </c>
       <c r="G329" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leiden/NED</t>
         </is>
       </c>
       <c r="H329" s="16" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="J329" s="5" t="n"/>
       <c r="L329" s="14" t="inlineStr">
@@ -15071,27 +15221,27 @@
       </c>
       <c r="C330" s="7" t="inlineStr">
         <is>
-          <t>Tom Erling Kårbø</t>
+          <t>Daniel Jacobsen</t>
         </is>
       </c>
       <c r="D330" s="7" t="n">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="E330" s="17" t="inlineStr">
         <is>
-          <t>8,26,12</t>
+          <t>9,19,21</t>
         </is>
       </c>
       <c r="F330" s="7" t="n">
-        <v>1004</v>
+        <v>793</v>
       </c>
       <c r="G330" s="7" t="inlineStr">
         <is>
-          <t>Eugene/OR/USA</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H330" s="16" t="n">
-        <v>15.07</v>
+        <v>25.06</v>
       </c>
       <c r="J330" s="5" t="n"/>
       <c r="L330" s="14" t="inlineStr">
@@ -15131,25 +15281,25 @@
       </c>
       <c r="C331" s="7" t="inlineStr">
         <is>
-          <t>Marius Torbjørnsen</t>
+          <t>Frank Atle Kvinge</t>
         </is>
       </c>
       <c r="D331" s="7" t="n">
-        <v>2003</v>
+        <v>1954</v>
       </c>
       <c r="E331" s="15" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="F331" s="7" t="n">
-        <v>687</v>
+        <v>19</v>
       </c>
       <c r="G331" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="H331" s="16" t="n">
-        <v>19.06</v>
+        <v>1.1</v>
       </c>
       <c r="J331" s="5" t="n"/>
       <c r="L331" s="14" t="inlineStr">
@@ -15189,25 +15339,25 @@
       </c>
       <c r="C332" s="7" t="inlineStr">
         <is>
-          <t>Per Gregersen</t>
+          <t>Frank Atle Kvinge</t>
         </is>
       </c>
       <c r="D332" s="7" t="n">
-        <v>1970</v>
+        <v>1954</v>
       </c>
       <c r="E332" s="15" t="n">
-        <v>3.42</v>
+        <v>2.1</v>
       </c>
       <c r="F332" s="7" t="n">
-        <v>597</v>
+        <v>232</v>
       </c>
       <c r="G332" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H332" s="16" t="n">
-        <v>15.02</v>
+        <v>19.08</v>
       </c>
       <c r="J332" s="5" t="n"/>
       <c r="L332" s="14" t="inlineStr">
@@ -15242,30 +15392,30 @@
     <row r="333" ht="13" customHeight="1">
       <c r="B333" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C333" s="7" t="inlineStr">
         <is>
-          <t>Marius Torbjørnsen</t>
+          <t>Frank Atle Kvinge</t>
         </is>
       </c>
       <c r="D333" s="7" t="n">
-        <v>2003</v>
+        <v>1954</v>
       </c>
       <c r="E333" s="15" t="n">
-        <v>6.12</v>
+        <v>7.78</v>
       </c>
       <c r="F333" s="7" t="n">
-        <v>633</v>
+        <v>56</v>
       </c>
       <c r="G333" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="H333" s="16" t="n">
-        <v>7.08</v>
+        <v>2.1</v>
       </c>
       <c r="J333" s="5" t="n"/>
       <c r="L333" s="14" t="inlineStr">
@@ -15298,33 +15448,13 @@
       <c r="T333" s="5" t="n"/>
     </row>
     <row r="334" ht="13" customHeight="1">
-      <c r="B334" s="14" t="inlineStr">
-        <is>
-          <t>Høyde u.t</t>
-        </is>
-      </c>
-      <c r="C334" s="7" t="inlineStr">
-        <is>
-          <t>Oscar Sørvik Ånderå</t>
-        </is>
-      </c>
-      <c r="D334" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E334" s="15" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="F334" s="7" t="n">
-        <v>526</v>
-      </c>
-      <c r="G334" s="7" t="inlineStr">
-        <is>
-          <t>Bømlo</t>
-        </is>
-      </c>
-      <c r="H334" s="16" t="n">
-        <v>7.04</v>
-      </c>
+      <c r="B334" s="14" t="n"/>
+      <c r="C334" s="7" t="n"/>
+      <c r="D334" s="7" t="n"/>
+      <c r="E334" s="7" t="n"/>
+      <c r="F334" s="7" t="n"/>
+      <c r="G334" s="7" t="n"/>
+      <c r="H334" s="21" t="n"/>
       <c r="J334" s="5" t="n"/>
       <c r="L334" s="14" t="inlineStr">
         <is>
@@ -15356,33 +15486,13 @@
       <c r="T334" s="5" t="n"/>
     </row>
     <row r="335" ht="13" customHeight="1">
-      <c r="B335" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="C335" s="7" t="inlineStr">
-        <is>
-          <t>Steffen Tjensvoll Hollund</t>
-        </is>
-      </c>
-      <c r="D335" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E335" s="15" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F335" s="7" t="n">
-        <v>453</v>
-      </c>
-      <c r="G335" s="7" t="inlineStr">
-        <is>
-          <t>Bømlo</t>
-        </is>
-      </c>
-      <c r="H335" s="16" t="n">
-        <v>10.02</v>
-      </c>
+      <c r="B335" s="14" t="n"/>
+      <c r="C335" s="7" t="n"/>
+      <c r="D335" s="7" t="n"/>
+      <c r="E335" s="7" t="n"/>
+      <c r="F335" s="7" t="n"/>
+      <c r="G335" s="7" t="n"/>
+      <c r="H335" s="21" t="n"/>
       <c r="J335" s="5" t="n"/>
       <c r="L335" s="14" t="inlineStr">
         <is>
@@ -15438,7 +15548,7 @@
         </is>
       </c>
       <c r="C337" s="20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E337" s="19" t="inlineStr">
         <is>
@@ -15446,7 +15556,7 @@
         </is>
       </c>
       <c r="F337" s="20" t="n">
-        <v>9954</v>
+        <v>9763</v>
       </c>
       <c r="J337" s="5" t="n"/>
       <c r="L337" s="19" t="inlineStr">
@@ -15566,32 +15676,30 @@
     <row r="342" ht="13" customHeight="1">
       <c r="B342" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
         <is>
-          <t>Johannes Sandvik Bø</t>
+          <t>Jacob Vaula</t>
         </is>
       </c>
       <c r="D342" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E342" s="17" t="inlineStr">
-        <is>
-          <t>8,58,52</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E342" s="15" t="n">
+        <v>10.46</v>
       </c>
       <c r="F342" s="7" t="n">
-        <v>694</v>
+        <v>988</v>
       </c>
       <c r="G342" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H342" s="16" t="n">
-        <v>20.02</v>
+        <v>16.06</v>
       </c>
       <c r="J342" s="5" t="n"/>
       <c r="L342" s="14" t="inlineStr">
@@ -15628,32 +15736,30 @@
     <row r="343" ht="13" customHeight="1">
       <c r="B343" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
         <is>
-          <t>Martin Schei</t>
+          <t>Jacob Vaula</t>
         </is>
       </c>
       <c r="D343" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E343" s="17" t="inlineStr">
-        <is>
-          <t>9,00,81</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E343" s="15" t="n">
+        <v>6.83</v>
       </c>
       <c r="F343" s="7" t="n">
-        <v>685</v>
+        <v>944</v>
       </c>
       <c r="G343" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H343" s="16" t="n">
-        <v>20.08</v>
+        <v>5.03</v>
       </c>
       <c r="J343" s="5" t="n"/>
       <c r="L343" s="14" t="inlineStr">
@@ -15690,32 +15796,32 @@
     <row r="344" ht="13" customHeight="1">
       <c r="B344" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
         <is>
-          <t>Johannes Thomsen</t>
+          <t>Mats Hauge</t>
         </is>
       </c>
       <c r="D344" s="7" t="n">
-        <v>1983</v>
+        <v>1997</v>
       </c>
       <c r="E344" s="17" t="inlineStr">
         <is>
-          <t>9,04,07</t>
+          <t>3,43,51</t>
         </is>
       </c>
       <c r="F344" s="7" t="n">
-        <v>673</v>
+        <v>940</v>
       </c>
       <c r="G344" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Oordegem/BEL</t>
         </is>
       </c>
       <c r="H344" s="16" t="n">
-        <v>19.06</v>
+        <v>28.05</v>
       </c>
       <c r="J344" s="5" t="n"/>
       <c r="L344" s="14" t="inlineStr">
@@ -15757,27 +15863,27 @@
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>Erlend Kringeland</t>
+          <t>Eivind Trym Wikshåland</t>
         </is>
       </c>
       <c r="D345" s="7" t="n">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="E345" s="17" t="inlineStr">
         <is>
-          <t>4,13,12</t>
+          <t>3,43,95</t>
         </is>
       </c>
       <c r="F345" s="7" t="n">
-        <v>646</v>
+        <v>935</v>
       </c>
       <c r="G345" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H345" s="16" t="n">
-        <v>7.08</v>
+        <v>16.06</v>
       </c>
       <c r="J345" s="5" t="n"/>
       <c r="L345" s="14" t="inlineStr">
@@ -15814,32 +15920,32 @@
     <row r="346" ht="13" customHeight="1">
       <c r="B346" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Vegard Havn</t>
+          <t>Marius Øyre Vedvik</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="E346" s="17" t="inlineStr">
         <is>
-          <t>4,14,97</t>
+          <t>8,05,18</t>
         </is>
       </c>
       <c r="F346" s="7" t="n">
-        <v>632</v>
+        <v>930</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H346" s="16" t="n">
-        <v>7.08</v>
+        <v>8.06</v>
       </c>
       <c r="J346" s="5" t="n"/>
       <c r="L346" s="14" t="inlineStr">
@@ -15876,30 +15982,32 @@
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>Steffen Tjensvoll Hollund</t>
+          <t>Marius Øyre Vedvik</t>
         </is>
       </c>
       <c r="D347" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E347" s="15" t="n">
-        <v>24.36</v>
+        <v>1992</v>
+      </c>
+      <c r="E347" s="17" t="inlineStr">
+        <is>
+          <t>13,57,57</t>
+        </is>
       </c>
       <c r="F347" s="7" t="n">
-        <v>613</v>
+        <v>927</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>31.07</v>
+        <v>21.05</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -15936,30 +16044,30 @@
     <row r="348" ht="13" customHeight="1">
       <c r="B348" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>Marius Torbjørnsen</t>
+          <t>Andreas Haara Bakketun</t>
         </is>
       </c>
       <c r="D348" s="7" t="n">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>24.38</v>
+        <v>6.87</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>611</v>
+        <v>924</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>5.06</v>
+        <v>5.03</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -15996,30 +16104,30 @@
     <row r="349" ht="13" customHeight="1">
       <c r="B349" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>Oscar Sørvik Ånderå</t>
+          <t>Sondre Faugstad Amundsen</t>
         </is>
       </c>
       <c r="D349" s="7" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="E349" s="15" t="n">
-        <v>1.74</v>
+        <v>10.69</v>
       </c>
       <c r="F349" s="7" t="n">
-        <v>598</v>
+        <v>924</v>
       </c>
       <c r="G349" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H349" s="16" t="n">
-        <v>13.03</v>
+        <v>16.06</v>
       </c>
       <c r="J349" s="5" t="n"/>
       <c r="L349" s="14" t="inlineStr">
@@ -16056,30 +16164,32 @@
     <row r="350" ht="13" customHeight="1">
       <c r="B350" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>Julian Skimmeland Aasheim</t>
+          <t>Eivind Trym Wikshåland</t>
         </is>
       </c>
       <c r="D350" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E350" s="15" t="n">
-        <v>12.11</v>
+        <v>1997</v>
+      </c>
+      <c r="E350" s="17" t="inlineStr">
+        <is>
+          <t>8,06,58</t>
+        </is>
       </c>
       <c r="F350" s="7" t="n">
-        <v>588</v>
+        <v>923</v>
       </c>
       <c r="G350" s="7" t="inlineStr">
         <is>
-          <t>Leirvik</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H350" s="16" t="n">
-        <v>6.08</v>
+        <v>8.06</v>
       </c>
       <c r="J350" s="5" t="n"/>
       <c r="L350" s="14" t="inlineStr">
@@ -16116,30 +16226,30 @@
     <row r="351" ht="13" customHeight="1">
       <c r="B351" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>Marius Torbjørnsen</t>
+          <t>Sondre Lindaas Gjesdal</t>
         </is>
       </c>
       <c r="D351" s="7" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E351" s="15" t="n">
-        <v>7.78</v>
+        <v>21.53</v>
       </c>
       <c r="F351" s="7" t="n">
-        <v>564</v>
+        <v>917</v>
       </c>
       <c r="G351" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H351" s="16" t="n">
-        <v>23.02</v>
+        <v>25.06</v>
       </c>
       <c r="J351" s="5" t="n"/>
       <c r="L351" s="14" t="inlineStr">
@@ -16174,33 +16284,13 @@
       <c r="T351" s="5" t="n"/>
     </row>
     <row r="352" ht="13" customHeight="1">
-      <c r="B352" s="14" t="inlineStr">
-        <is>
-          <t>Høyde</t>
-        </is>
-      </c>
-      <c r="C352" s="7" t="inlineStr">
-        <is>
-          <t>Sander Havn Turøy</t>
-        </is>
-      </c>
-      <c r="D352" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E352" s="15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F352" s="7" t="n">
-        <v>560</v>
-      </c>
-      <c r="G352" s="7" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="H352" s="16" t="n">
-        <v>19.01</v>
-      </c>
+      <c r="B352" s="14" t="n"/>
+      <c r="C352" s="7" t="n"/>
+      <c r="D352" s="7" t="n"/>
+      <c r="E352" s="7" t="n"/>
+      <c r="F352" s="7" t="n"/>
+      <c r="G352" s="7" t="n"/>
+      <c r="H352" s="21" t="n"/>
       <c r="J352" s="5" t="n"/>
       <c r="L352" s="14" t="inlineStr">
         <is>
@@ -16232,33 +16322,13 @@
       <c r="T352" s="5" t="n"/>
     </row>
     <row r="353" ht="13" customHeight="1">
-      <c r="B353" s="14" t="inlineStr">
-        <is>
-          <t>Stav</t>
-        </is>
-      </c>
-      <c r="C353" s="7" t="inlineStr">
-        <is>
-          <t>Oddvar Hårde</t>
-        </is>
-      </c>
-      <c r="D353" s="7" t="n">
-        <v>1969</v>
-      </c>
-      <c r="E353" s="15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F353" s="7" t="n">
-        <v>547</v>
-      </c>
-      <c r="G353" s="7" t="inlineStr">
-        <is>
-          <t>Sandnes</t>
-        </is>
-      </c>
-      <c r="H353" s="16" t="n">
-        <v>15.02</v>
-      </c>
+      <c r="B353" s="14" t="n"/>
+      <c r="C353" s="7" t="n"/>
+      <c r="D353" s="7" t="n"/>
+      <c r="E353" s="7" t="n"/>
+      <c r="F353" s="7" t="n"/>
+      <c r="G353" s="7" t="n"/>
+      <c r="H353" s="21" t="n"/>
       <c r="J353" s="5" t="n"/>
       <c r="L353" s="14" t="inlineStr">
         <is>
@@ -16290,33 +16360,13 @@
       <c r="T353" s="5" t="n"/>
     </row>
     <row r="354" ht="13" customHeight="1">
-      <c r="B354" s="14" t="inlineStr">
-        <is>
-          <t>Lengde</t>
-        </is>
-      </c>
-      <c r="C354" s="7" t="inlineStr">
-        <is>
-          <t>Steffen Tjensvoll Hollund</t>
-        </is>
-      </c>
-      <c r="D354" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E354" s="15" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="F354" s="7" t="n">
-        <v>516</v>
-      </c>
-      <c r="G354" s="7" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="H354" s="16" t="n">
-        <v>3.09</v>
-      </c>
+      <c r="B354" s="14" t="n"/>
+      <c r="C354" s="7" t="n"/>
+      <c r="D354" s="7" t="n"/>
+      <c r="E354" s="7" t="n"/>
+      <c r="F354" s="7" t="n"/>
+      <c r="G354" s="7" t="n"/>
+      <c r="H354" s="21" t="n"/>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
         <is>
@@ -16348,33 +16398,13 @@
       <c r="T354" s="5" t="n"/>
     </row>
     <row r="355" ht="13" customHeight="1">
-      <c r="B355" s="14" t="inlineStr">
-        <is>
-          <t>400m</t>
-        </is>
-      </c>
-      <c r="C355" s="7" t="inlineStr">
-        <is>
-          <t>Oscar Sørvik Ånderå</t>
-        </is>
-      </c>
-      <c r="D355" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E355" s="15" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="F355" s="7" t="n">
-        <v>516</v>
-      </c>
-      <c r="G355" s="7" t="inlineStr">
-        <is>
-          <t>Fana</t>
-        </is>
-      </c>
-      <c r="H355" s="16" t="n">
-        <v>29.05</v>
-      </c>
+      <c r="B355" s="14" t="n"/>
+      <c r="C355" s="7" t="n"/>
+      <c r="D355" s="7" t="n"/>
+      <c r="E355" s="7" t="n"/>
+      <c r="F355" s="7" t="n"/>
+      <c r="G355" s="7" t="n"/>
+      <c r="H355" s="21" t="n"/>
       <c r="J355" s="5" t="n"/>
       <c r="L355" s="14" t="inlineStr">
         <is>
@@ -16406,33 +16436,13 @@
       <c r="T355" s="5" t="n"/>
     </row>
     <row r="356" ht="13" customHeight="1">
-      <c r="B356" s="14" t="inlineStr">
-        <is>
-          <t>Lengde</t>
-        </is>
-      </c>
-      <c r="C356" s="7" t="inlineStr">
-        <is>
-          <t>Oscar Sørvik Ånderå</t>
-        </is>
-      </c>
-      <c r="D356" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E356" s="15" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="F356" s="7" t="n">
-        <v>481</v>
-      </c>
-      <c r="G356" s="7" t="inlineStr">
-        <is>
-          <t>Haugesund</t>
-        </is>
-      </c>
-      <c r="H356" s="16" t="n">
-        <v>13.03</v>
-      </c>
+      <c r="B356" s="14" t="n"/>
+      <c r="C356" s="7" t="n"/>
+      <c r="D356" s="7" t="n"/>
+      <c r="E356" s="7" t="n"/>
+      <c r="F356" s="7" t="n"/>
+      <c r="G356" s="7" t="n"/>
+      <c r="H356" s="21" t="n"/>
       <c r="J356" s="5" t="n"/>
       <c r="L356" s="14" t="inlineStr">
         <is>
@@ -16488,7 +16498,7 @@
         </is>
       </c>
       <c r="C358" s="20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E358" s="19" t="inlineStr">
         <is>
@@ -16496,7 +16506,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>8924</v>
+        <v>9352</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -16528,7 +16538,7 @@
         </is>
       </c>
       <c r="C360" s="20" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E360" s="19" t="inlineStr">
         <is>
@@ -16536,7 +16546,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>18878</v>
+        <v>19115</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -16568,7 +16578,7 @@
         </is>
       </c>
       <c r="C362" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J362" s="5" t="n"/>
       <c r="L362" s="19" t="inlineStr">

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>23325</v>
+        <v>23343</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>22634</v>
+        <v>22645</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -2022,18 +2022,18 @@
         <v>2002</v>
       </c>
       <c r="O22" s="15" t="n">
-        <v>53.92</v>
+        <v>53.94</v>
       </c>
       <c r="P22" s="7" t="n">
         <v>803</v>
       </c>
       <c r="Q22" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R22" s="16" t="n">
-        <v>10.09</v>
+        <v>30.06</v>
       </c>
       <c r="T22" s="5" t="n"/>
     </row>
@@ -2844,20 +2844,20 @@
     <row r="40" ht="13" customHeight="1">
       <c r="B40" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C40" s="7" t="inlineStr">
         <is>
-          <t>Ibrahim Buras</t>
+          <t>Luca Thompson</t>
         </is>
       </c>
       <c r="D40" s="7" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E40" s="17" t="inlineStr">
         <is>
-          <t>3,49,59</t>
+          <t>1,51,84</t>
         </is>
       </c>
       <c r="F40" s="7" t="n">
@@ -2865,11 +2865,11 @@
       </c>
       <c r="G40" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Weinheim/GER</t>
         </is>
       </c>
       <c r="H40" s="16" t="n">
-        <v>2.06</v>
+        <v>28.05</v>
       </c>
       <c r="J40" s="5" t="n"/>
       <c r="L40" s="14" t="inlineStr">
@@ -2904,20 +2904,20 @@
     <row r="41" ht="13" customHeight="1">
       <c r="B41" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>Luca Thompson</t>
+          <t>Ibrahim Buras</t>
         </is>
       </c>
       <c r="D41" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E41" s="17" t="inlineStr">
         <is>
-          <t>1,51,84</t>
+          <t>3,49,59</t>
         </is>
       </c>
       <c r="F41" s="7" t="n">
@@ -2925,11 +2925,11 @@
       </c>
       <c r="G41" s="7" t="inlineStr">
         <is>
-          <t>Weinheim/GER</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H41" s="16" t="n">
-        <v>28.05</v>
+        <v>2.06</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="14" t="inlineStr">
@@ -3503,11 +3503,11 @@
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>5.02</v>
+        <v>29.01</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -6377,25 +6377,25 @@
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Thai Drager</t>
+          <t>Thomas Viksaas Biermann</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>6.09</v>
+        <v>6.14</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>20.08</v>
+        <v>26.11</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
@@ -6623,7 +6623,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>11571</v>
+        <v>11582</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -6947,11 +6947,11 @@
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>27.08</v>
+        <v>5.08</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -7387,11 +7387,11 @@
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>5.03</v>
+        <v>12.02</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
@@ -7459,25 +7459,25 @@
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Thomas Viksaas Biermann</t>
+          <t>Thai Drager</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="P146" s="7" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>13.08</v>
+        <v>20.08</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>11754</v>
+        <v>11761</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>23325</v>
+        <v>23343</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -7995,11 +7995,11 @@
       </c>
       <c r="G166" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H166" s="16" t="n">
-        <v>7.08</v>
+        <v>13.07</v>
       </c>
       <c r="J166" s="5" t="n"/>
       <c r="L166" s="14" t="inlineStr">
@@ -9760,30 +9760,30 @@
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Oddvar Viulsrød</t>
+          <t>Jacob Bergmann Abusdal</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>1964</v>
+        <v>2007</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>12.03</v>
+        <v>5.85</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Braga/POR</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>24.02</v>
+        <v>26.11</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -9818,7 +9818,7 @@
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M200" s="7" t="inlineStr">
@@ -9830,18 +9830,18 @@
         <v>1964</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>5.8</v>
+        <v>12.03</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Tampere/FIN</t>
+          <t>Braga/POR</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>6.07</v>
+        <v>24.02</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>10949</v>
+        <v>10960</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -9935,7 +9935,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>22634</v>
+        <v>22645</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -10271,11 +10271,11 @@
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>26.08</v>
+        <v>12.08</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
@@ -12869,15 +12869,15 @@
       </c>
       <c r="M276" s="7" t="inlineStr">
         <is>
-          <t>Lars Lunde</t>
+          <t>Harald Kårbø</t>
         </is>
       </c>
       <c r="N276" s="7" t="n">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="O276" s="17" t="inlineStr">
         <is>
-          <t>14,47,8</t>
+          <t>14,47,6</t>
         </is>
       </c>
       <c r="P276" s="7" t="n">
@@ -13301,7 +13301,7 @@
         </is>
       </c>
       <c r="R283" s="16" t="n">
-        <v>10.02</v>
+        <v>10.03</v>
       </c>
       <c r="T283" s="5" t="n"/>
     </row>
@@ -13493,15 +13493,15 @@
       </c>
       <c r="M290" s="7" t="inlineStr">
         <is>
-          <t>Harald Kårbø</t>
+          <t>Lars Lunde</t>
         </is>
       </c>
       <c r="N290" s="7" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="O290" s="17" t="inlineStr">
         <is>
-          <t>14,47,6</t>
+          <t>14,47,8</t>
         </is>
       </c>
       <c r="P290" s="7" t="n">
@@ -14066,30 +14066,30 @@
     <row r="300" ht="13" customHeight="1">
       <c r="B300" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>Sander Feness Armond</t>
+          <t>Erlend Bergfjord Næss</t>
         </is>
       </c>
       <c r="D300" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E300" s="15" t="n">
-        <v>2.74</v>
+        <v>1.37</v>
       </c>
       <c r="F300" s="7" t="n">
         <v>526</v>
       </c>
       <c r="G300" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H300" s="16" t="n">
-        <v>14.03</v>
+        <v>29.03</v>
       </c>
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
@@ -14124,30 +14124,30 @@
     <row r="301" ht="13" customHeight="1">
       <c r="B301" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>Erlend Bergfjord Næss</t>
+          <t>Sander Feness Armond</t>
         </is>
       </c>
       <c r="D301" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E301" s="15" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="F301" s="7" t="n">
         <v>526</v>
       </c>
       <c r="G301" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="H301" s="16" t="n">
-        <v>29.03</v>
+        <v>14.03</v>
       </c>
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="inlineStr">
@@ -15295,11 +15295,11 @@
       </c>
       <c r="G331" s="7" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H331" s="16" t="n">
-        <v>1.1</v>
+        <v>27.03</v>
       </c>
       <c r="J331" s="5" t="n"/>
       <c r="L331" s="14" t="inlineStr">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>16174</v>
+        <v>16217</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>16125</v>
+        <v>16155</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>15890</v>
+        <v>16039</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -16974,25 +16974,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Lillehammer IF</t>
+          <t>Dimna IL</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(21/8)</t>
+          <t>(24/13)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>14254</v>
+        <v>14299</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(1/3d)</t>
+          <t>(12/1d)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -17002,25 +17002,25 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>IL Fri</t>
+          <t>Lillehammer IF</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(21/8)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>13824</v>
+        <v>14254</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(1/3d)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -17030,25 +17030,25 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Dimna IL</t>
+          <t>IL Fri</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>(23/12)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>13493</v>
+        <v>13824</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>(12/1d)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -17063,11 +17063,11 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(25/13)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>12605</v>
+        <v>12779</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -18521,19 +18521,19 @@
     <row r="33" ht="13" customHeight="1">
       <c r="B33" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Oscar Stuhr</t>
+          <t>Tobias Heldal</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E33" s="15" t="n">
-        <v>14.19</v>
+        <v>1.97</v>
       </c>
       <c r="F33" s="7" t="n">
         <v>796</v>
@@ -18544,7 +18544,7 @@
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>27.08</v>
+        <v>28.08</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -18581,19 +18581,19 @@
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Tobias Heldal</t>
+          <t>Oscar Stuhr</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>1.97</v>
+        <v>14.19</v>
       </c>
       <c r="F34" s="7" t="n">
         <v>796</v>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>28.08</v>
+        <v>27.08</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -20529,7 +20529,7 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
@@ -20541,18 +20541,18 @@
         <v>2005</v>
       </c>
       <c r="E82" s="15" t="n">
-        <v>23.57</v>
+        <v>11.63</v>
       </c>
       <c r="F82" s="7" t="n">
         <v>690</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>13.08</v>
+        <v>19.06</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
@@ -20724,11 +20724,11 @@
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>4.06</v>
+        <v>29.05</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -23111,18 +23111,18 @@
         <v>2004</v>
       </c>
       <c r="O150" s="15" t="n">
-        <v>7.14</v>
+        <v>7.07</v>
       </c>
       <c r="P150" s="7" t="n">
-        <v>802</v>
+        <v>832</v>
       </c>
       <c r="Q150" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R150" s="16" t="n">
-        <v>5.03</v>
+        <v>26.11</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8488</v>
+        <v>8518</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -24271,22 +24271,22 @@
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Jesper Sandvik Bjerk</t>
+          <t>Melvin Tollefsen</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>7.59</v>
+        <v>3.7</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>628</v>
+        <v>658</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>29.01</v>
+        <v>26.11</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
@@ -24329,30 +24329,30 @@
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Melvin Tollefsen</t>
+          <t>Jesper Sandvik Bjerk</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>3.5</v>
+        <v>7.59</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>11.09</v>
+        <v>29.01</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
@@ -24707,7 +24707,7 @@
         </is>
       </c>
       <c r="F182" s="20" t="n">
-        <v>7639</v>
+        <v>7682</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="19" t="inlineStr">
@@ -24747,7 +24747,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>16174</v>
+        <v>16217</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -24764,7 +24764,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>16125</v>
+        <v>16155</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -24995,7 +24995,7 @@
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
@@ -25007,18 +25007,18 @@
         <v>2008</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>11.99</v>
+        <v>7.58</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>19.06</v>
+        <v>26.11</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
@@ -25042,18 +25042,18 @@
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Sortland</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>20.08</v>
+        <v>12.08</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
     <row r="198" ht="13" customHeight="1">
       <c r="B198" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
@@ -25065,18 +25065,18 @@
         <v>2008</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>24.39</v>
+        <v>11.99</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>21.08</v>
+        <v>19.06</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -25111,30 +25111,30 @@
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Stig Ketil Andersen</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>1980</v>
+        <v>2008</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>55.81</v>
+        <v>24.18</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>538</v>
+        <v>630</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>21.08</v>
+        <v>26.11</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
@@ -25169,32 +25169,30 @@
     <row r="200" ht="13" customHeight="1">
       <c r="B200" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Nahom Tesfalem Tewelde</t>
+          <t>Stig Ketil Andersen</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E200" s="17" t="inlineStr">
-        <is>
-          <t>1,57,72</t>
-        </is>
+        <v>1980</v>
+      </c>
+      <c r="E200" s="15" t="n">
+        <v>55.81</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>733</v>
+        <v>538</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>19.06</v>
+        <v>21.08</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -25231,7 +25229,7 @@
     <row r="201" ht="13" customHeight="1">
       <c r="B201" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C201" s="7" t="inlineStr">
@@ -25244,19 +25242,19 @@
       </c>
       <c r="E201" s="17" t="inlineStr">
         <is>
-          <t>3,58,76</t>
+          <t>1,57,72</t>
         </is>
       </c>
       <c r="F201" s="7" t="n">
-        <v>773</v>
+        <v>733</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>2.06</v>
+        <v>19.06</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
@@ -25293,7 +25291,7 @@
     <row r="202" ht="13" customHeight="1">
       <c r="B202" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
@@ -25306,19 +25304,19 @@
       </c>
       <c r="E202" s="17" t="inlineStr">
         <is>
-          <t>8,35,27</t>
+          <t>3,58,76</t>
         </is>
       </c>
       <c r="F202" s="7" t="n">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="G202" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H202" s="16" t="n">
-        <v>14.08</v>
+        <v>2.06</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="14" t="inlineStr">
@@ -25355,7 +25353,7 @@
     <row r="203" ht="13" customHeight="1">
       <c r="B203" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
@@ -25368,19 +25366,19 @@
       </c>
       <c r="E203" s="17" t="inlineStr">
         <is>
-          <t>14,54,81</t>
+          <t>8,35,27</t>
         </is>
       </c>
       <c r="F203" s="7" t="n">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="G203" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H203" s="16" t="n">
-        <v>28.08</v>
+        <v>14.08</v>
       </c>
       <c r="J203" s="5" t="n"/>
       <c r="L203" s="14" t="inlineStr">
@@ -25417,30 +25415,32 @@
     <row r="204" ht="13" customHeight="1">
       <c r="B204" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Nahom Tesfalem Tewelde</t>
         </is>
       </c>
       <c r="D204" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E204" s="15" t="n">
-        <v>1.75</v>
+      <c r="E204" s="17" t="inlineStr">
+        <is>
+          <t>14,54,81</t>
+        </is>
       </c>
       <c r="F204" s="7" t="n">
-        <v>607</v>
+        <v>784</v>
       </c>
       <c r="G204" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H204" s="16" t="n">
-        <v>15.05</v>
+        <v>28.08</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="14" t="inlineStr">
@@ -25477,30 +25477,30 @@
     <row r="205" ht="13" customHeight="1">
       <c r="B205" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>Sander Oppen</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D205" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E205" s="15" t="n">
-        <v>4.8</v>
+        <v>1.75</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>870</v>
+        <v>607</v>
       </c>
       <c r="G205" s="7" t="inlineStr">
         <is>
-          <t>Clermont-Ferrand/FRA</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H205" s="16" t="n">
-        <v>19.02</v>
+        <v>15.05</v>
       </c>
       <c r="J205" s="5" t="n"/>
       <c r="L205" s="14" t="inlineStr">
@@ -25537,30 +25537,30 @@
     <row r="206" ht="13" customHeight="1">
       <c r="B206" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Sander Oppen</t>
         </is>
       </c>
       <c r="D206" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E206" s="15" t="n">
-        <v>5.95</v>
+        <v>4.8</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>595</v>
+        <v>870</v>
       </c>
       <c r="G206" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H206" s="16" t="n">
-        <v>28.05</v>
+        <v>12.02</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="14" t="inlineStr">
@@ -25595,7 +25595,7 @@
     <row r="207" ht="13" customHeight="1">
       <c r="B207" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
@@ -25607,18 +25607,18 @@
         <v>2006</v>
       </c>
       <c r="E207" s="15" t="n">
-        <v>11.95</v>
+        <v>5.95</v>
       </c>
       <c r="F207" s="7" t="n">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="G207" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H207" s="16" t="n">
-        <v>11.06</v>
+        <v>28.05</v>
       </c>
       <c r="J207" s="5" t="n"/>
       <c r="L207" s="14" t="inlineStr">
@@ -25799,7 +25799,7 @@
         </is>
       </c>
       <c r="F211" s="20" t="n">
-        <v>9173</v>
+        <v>9271</v>
       </c>
       <c r="J211" s="5" t="n"/>
       <c r="L211" s="19" t="inlineStr">
@@ -26103,30 +26103,30 @@
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>1.69</v>
+        <v>11.95</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Hønefoss</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>28.08</v>
+        <v>11.06</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
@@ -26163,30 +26163,30 @@
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E220" s="15" t="n">
-        <v>12.31</v>
+        <v>1.69</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Hønefoss</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>7.08</v>
+        <v>28.08</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
@@ -26221,32 +26221,30 @@
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Stig Ketil Andersen</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>1980</v>
-      </c>
-      <c r="E221" s="17" t="inlineStr">
-        <is>
-          <t>2,08,55</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E221" s="15" t="n">
+        <v>12.31</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>9.07</v>
+        <v>7.08</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
@@ -26283,32 +26281,32 @@
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Stig Ketil Andersen</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="E222" s="17" t="inlineStr">
         <is>
-          <t>9,44,94</t>
+          <t>2,08,55</t>
         </is>
       </c>
       <c r="F222" s="7" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>7.05</v>
+        <v>9.07</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
@@ -26343,92 +26341,90 @@
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E223" s="15" t="n">
-        <v>7.91</v>
+        <v>2004</v>
+      </c>
+      <c r="E223" s="17" t="inlineStr">
+        <is>
+          <t>9,44,94</t>
+        </is>
       </c>
       <c r="F223" s="7" t="n">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>5.03</v>
+        <v>7.05</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Stian Markussen Eilertsen</t>
+          <t>Oskar Stattin</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="O223" s="17" t="inlineStr">
-        <is>
-          <t>2,04,45</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O223" s="15" t="n">
+        <v>24.42</v>
       </c>
       <c r="P223" s="7" t="n">
         <v>607</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>12.06</v>
+        <v>11.09</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E224" s="17" t="inlineStr">
-        <is>
-          <t>2,10,19</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E224" s="15" t="n">
+        <v>7.91</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>16.05</v>
+        <v>5.03</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
@@ -26463,30 +26459,32 @@
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Nicolai Christianssønn Risø</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E225" s="15" t="n">
-        <v>1.65</v>
+        <v>2004</v>
+      </c>
+      <c r="E225" s="17" t="inlineStr">
+        <is>
+          <t>2,10,19</t>
+        </is>
       </c>
       <c r="F225" s="7" t="n">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Geithus</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>11.09</v>
+        <v>16.05</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
@@ -26521,30 +26519,30 @@
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Frode Holt</t>
+          <t>Nicolai Christianssønn Risø</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>1964</v>
+        <v>2008</v>
       </c>
       <c r="E226" s="15" t="n">
-        <v>2.71</v>
+        <v>1.65</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Geithus</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>22.03</v>
+        <v>11.09</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
@@ -26579,7 +26577,7 @@
     <row r="227" ht="13" customHeight="1">
       <c r="B227" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
@@ -26591,18 +26589,18 @@
         <v>1964</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>1.35</v>
+        <v>2.71</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>26.03</v>
+        <v>22.03</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
@@ -26667,7 +26665,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>6717</v>
+        <v>6768</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26707,7 +26705,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>15890</v>
+        <v>16039</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26790,7 +26788,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -26804,7 +26802,7 @@
       </c>
       <c r="M237" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Innlandet</t>
         </is>
       </c>
       <c r="P237" s="8" t="n">
@@ -26820,7 +26818,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer IF</t>
+          <t>Dimna IL</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -26831,7 +26829,7 @@
       </c>
       <c r="M238" s="7" t="inlineStr">
         <is>
-          <t>IL Fri</t>
+          <t>Lillehammer IF</t>
         </is>
       </c>
       <c r="T238" s="5" t="n"/>
@@ -26960,25 +26958,25 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Henrik Melbø-Hammershaug</t>
+          <t>Jonas André Ose</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>7.87</v>
+        <v>7.01</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>535</v>
+        <v>859</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>12.03</v>
+        <v>19.03</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -26988,25 +26986,25 @@
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Lars Magnus Birketveit</t>
+          <t>Henrik Melbø-Hammershaug</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>7.63</v>
+        <v>7.87</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>614</v>
+        <v>535</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>6.07</v>
+        <v>12.03</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
@@ -27018,25 +27016,25 @@
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Tormod Hjortnæs Larsen</t>
+          <t>Jonas André Ose</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>1986</v>
+        <v>2002</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>11.23</v>
+        <v>11.16</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>30.08</v>
+        <v>18.06</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -27046,25 +27044,25 @@
       </c>
       <c r="M245" s="7" t="inlineStr">
         <is>
-          <t>Martin Roe</t>
+          <t>Tormod Hjortnæs Larsen</t>
         </is>
       </c>
       <c r="N245" s="7" t="n">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="O245" s="15" t="n">
-        <v>10.94</v>
+        <v>11.23</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>857</v>
+        <v>784</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
-          <t>München/GER</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>15.08</v>
+        <v>30.08</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
@@ -27076,25 +27074,25 @@
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Tormod Hjortnæs Larsen</t>
+          <t>Sondre Johannes Espelid</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>1986</v>
+        <v>2003</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>22.81</v>
+        <v>23.55</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>769</v>
+        <v>692</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>30.08</v>
+        <v>10.09</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -27104,117 +27102,117 @@
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Morten Solheim</t>
+          <t>Tormod Hjortnæs Larsen</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
-        <v>1976</v>
+        <v>1986</v>
       </c>
       <c r="O246" s="15" t="n">
-        <v>25.33</v>
+        <v>22.81</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>528</v>
+        <v>769</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>11.09</v>
+        <v>30.08</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
     <row r="247" ht="13" customHeight="1">
       <c r="B247" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Elmer Mulleri Skalle</t>
+          <t>Toralv Opsal</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E247" s="17" t="inlineStr">
-        <is>
-          <t>1,55,22</t>
-        </is>
+        <v>1998</v>
+      </c>
+      <c r="E247" s="15" t="n">
+        <v>49.39</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>788</v>
+        <v>816</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>7.06</v>
+        <v>5.02</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M247" s="7" t="inlineStr">
         <is>
-          <t>Morten Solheim</t>
+          <t>Elmer Mulleri Skalle</t>
         </is>
       </c>
       <c r="N247" s="7" t="n">
-        <v>1976</v>
-      </c>
-      <c r="O247" s="15" t="n">
-        <v>54.54</v>
+        <v>1992</v>
+      </c>
+      <c r="O247" s="17" t="inlineStr">
+        <is>
+          <t>1,55,22</t>
+        </is>
       </c>
       <c r="P247" s="7" t="n">
-        <v>583</v>
+        <v>788</v>
       </c>
       <c r="Q247" s="7" t="inlineStr">
         <is>
-          <t>Tampere/FIN</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R247" s="16" t="n">
-        <v>6.07</v>
+        <v>7.06</v>
       </c>
       <c r="T247" s="5" t="n"/>
     </row>
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Elmer Mulleri Skalle</t>
+          <t>Olger Breivik Pedersen</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="E248" s="17" t="inlineStr">
         <is>
-          <t>3,47,80</t>
+          <t>9,32,65</t>
         </is>
       </c>
       <c r="F248" s="7" t="n">
-        <v>889</v>
+        <v>573</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>16.06</v>
+        <v>6.06</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -27224,59 +27222,59 @@
       </c>
       <c r="M248" s="7" t="inlineStr">
         <is>
-          <t>Christer Sælen</t>
+          <t>Elmer Mulleri Skalle</t>
         </is>
       </c>
       <c r="N248" s="7" t="n">
-        <v>1981</v>
+        <v>1992</v>
       </c>
       <c r="O248" s="17" t="inlineStr">
         <is>
-          <t>4,55,91</t>
+          <t>3,47,80</t>
         </is>
       </c>
       <c r="P248" s="7" t="n">
-        <v>373</v>
+        <v>889</v>
       </c>
       <c r="Q248" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R248" s="16" t="n">
-        <v>15.08</v>
+        <v>16.06</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Petter Johansen</t>
+          <t>Olger Breivik Pedersen</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="E249" s="17" t="inlineStr">
         <is>
-          <t>8,20,02</t>
+          <t>15,57,81</t>
         </is>
       </c>
       <c r="F249" s="7" t="n">
-        <v>859</v>
+        <v>649</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>12.02</v>
+        <v>30.06</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -27286,59 +27284,57 @@
       </c>
       <c r="M249" s="7" t="inlineStr">
         <is>
-          <t>Sander Kjøsnes Lie</t>
+          <t>Petter Johansen</t>
         </is>
       </c>
       <c r="N249" s="7" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O249" s="17" t="inlineStr">
         <is>
-          <t>9,11,02</t>
+          <t>8,20,02</t>
         </is>
       </c>
       <c r="P249" s="7" t="n">
-        <v>647</v>
+        <v>859</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R249" s="16" t="n">
-        <v>18.05</v>
+        <v>12.02</v>
       </c>
       <c r="T249" s="5" t="n"/>
     </row>
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Elmer Mulleri Skalle</t>
+          <t>Jakob Slåtten</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E250" s="17" t="inlineStr">
-        <is>
-          <t>14,11,72</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E250" s="15" t="n">
+        <v>9.050000000000001</v>
       </c>
       <c r="F250" s="7" t="n">
-        <v>889</v>
+        <v>701</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>21.05</v>
+        <v>6.02</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -27348,205 +27344,205 @@
       </c>
       <c r="M250" s="7" t="inlineStr">
         <is>
-          <t>Andreas Vågen</t>
+          <t>Elmer Mulleri Skalle</t>
         </is>
       </c>
       <c r="N250" s="7" t="n">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="O250" s="17" t="inlineStr">
         <is>
-          <t>15,44,58</t>
+          <t>14,11,72</t>
         </is>
       </c>
       <c r="P250" s="7" t="n">
-        <v>676</v>
+        <v>889</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>1.08</v>
+        <v>21.05</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Petter Johansen</t>
+          <t>Karsten Warholm</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E251" s="17" t="inlineStr">
-        <is>
-          <t>29,18,68</t>
-        </is>
+        <v>1996</v>
+      </c>
+      <c r="E251" s="15" t="n">
+        <v>47.12</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>915</v>
+        <v>1173</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>München/GER</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>24.09</v>
+        <v>19.08</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M251" s="7" t="inlineStr">
         <is>
-          <t>Martin Roe</t>
+          <t>Petter Johansen</t>
         </is>
       </c>
       <c r="N251" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O251" s="15" t="n">
-        <v>4.68</v>
+        <v>1998</v>
+      </c>
+      <c r="O251" s="17" t="inlineStr">
+        <is>
+          <t>29,18,68</t>
+        </is>
       </c>
       <c r="P251" s="7" t="n">
-        <v>848</v>
+        <v>915</v>
       </c>
       <c r="Q251" s="7" t="inlineStr">
         <is>
-          <t>Bergen/Hø</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R251" s="16" t="n">
-        <v>7.08</v>
+        <v>24.09</v>
       </c>
       <c r="T251" s="5" t="n"/>
     </row>
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Petersen Skonnord</t>
+          <t>Peter Aarland</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E252" s="17" t="inlineStr">
-        <is>
-          <t>9,33,98</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E252" s="15" t="n">
+        <v>1.55</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>741</v>
+        <v>408</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>6.08</v>
+        <v>26.11</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Martin Roe</t>
+          <t>Kristoffer Petersen Skonnord</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O252" s="15" t="n">
-        <v>7.21</v>
+        <v>1993</v>
+      </c>
+      <c r="O252" s="17" t="inlineStr">
+        <is>
+          <t>9,33,98</t>
+        </is>
       </c>
       <c r="P252" s="7" t="n">
-        <v>871</v>
+        <v>741</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
-          <t>München/GER</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>15.08</v>
+        <v>6.08</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Ragnar Rokkvi Kristjansson</t>
+          <t>Toralv Opsal</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>96</v>
+        <v>870</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>13.03</v>
+        <v>12.02</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M253" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Ragnar Rokkvi Kristjansson</t>
         </is>
       </c>
       <c r="N253" s="7" t="n">
-        <v>1968</v>
+        <v>2008</v>
       </c>
       <c r="O253" s="15" t="n">
-        <v>11.3</v>
+        <v>1.3</v>
       </c>
       <c r="P253" s="7" t="n">
-        <v>546</v>
+        <v>96</v>
       </c>
       <c r="Q253" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R253" s="16" t="n">
-        <v>26.04</v>
+        <v>13.03</v>
       </c>
       <c r="T253" s="5" t="n"/>
     </row>
@@ -27558,111 +27554,111 @@
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Henrik Melbø-Hammershaug</t>
+          <t>Håvard Dimmen</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>5.14</v>
+        <v>5.05</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Ørsta</t>
         </is>
       </c>
       <c r="H254" s="16" t="n">
-        <v>12.03</v>
+        <v>22.05</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M254" s="7" t="inlineStr">
         <is>
-          <t>Martin Roe</t>
+          <t>Henrik Melbø-Hammershaug</t>
         </is>
       </c>
       <c r="N254" s="7" t="n">
-        <v>1992</v>
+        <v>2007</v>
       </c>
       <c r="O254" s="15" t="n">
-        <v>47.46</v>
+        <v>5.14</v>
       </c>
       <c r="P254" s="7" t="n">
-        <v>816</v>
+        <v>405</v>
       </c>
       <c r="Q254" s="7" t="inlineStr">
         <is>
-          <t>München/GER</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R254" s="16" t="n">
-        <v>16.08</v>
+        <v>12.03</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
     <row r="255" ht="13" customHeight="1">
       <c r="B255" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>Henrik Melbø-Hammershaug</t>
+          <t>Vidar Hansen</t>
         </is>
       </c>
       <c r="D255" s="7" t="n">
-        <v>2007</v>
+        <v>1979</v>
       </c>
       <c r="E255" s="15" t="n">
-        <v>11.1</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F255" s="7" t="n">
-        <v>458</v>
+        <v>369</v>
       </c>
       <c r="G255" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H255" s="16" t="n">
-        <v>30.08</v>
+        <v>20.03</v>
       </c>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M255" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Henrik Melbø-Hammershaug</t>
         </is>
       </c>
       <c r="N255" s="7" t="n">
-        <v>1968</v>
+        <v>2007</v>
       </c>
       <c r="O255" s="15" t="n">
-        <v>33.1</v>
+        <v>11.1</v>
       </c>
       <c r="P255" s="7" t="n">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="Q255" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R255" s="16" t="n">
-        <v>21.05</v>
+        <v>30.08</v>
       </c>
       <c r="T255" s="5" t="n"/>
     </row>
@@ -27675,33 +27671,13 @@
       <c r="G256" s="7" t="n"/>
       <c r="H256" s="21" t="n"/>
       <c r="J256" s="5" t="n"/>
-      <c r="L256" s="14" t="inlineStr">
-        <is>
-          <t>Spyd</t>
-        </is>
-      </c>
-      <c r="M256" s="7" t="inlineStr">
-        <is>
-          <t>Martin Roe</t>
-        </is>
-      </c>
-      <c r="N256" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O256" s="15" t="n">
-        <v>63.26</v>
-      </c>
-      <c r="P256" s="7" t="n">
-        <v>803</v>
-      </c>
-      <c r="Q256" s="7" t="inlineStr">
-        <is>
-          <t>München/GER</t>
-        </is>
-      </c>
-      <c r="R256" s="16" t="n">
-        <v>16.08</v>
-      </c>
+      <c r="L256" s="14" t="n"/>
+      <c r="M256" s="7" t="n"/>
+      <c r="N256" s="7" t="n"/>
+      <c r="O256" s="7" t="n"/>
+      <c r="P256" s="7" t="n"/>
+      <c r="Q256" s="7" t="n"/>
+      <c r="R256" s="21" t="n"/>
       <c r="T256" s="5" t="n"/>
     </row>
     <row r="257" ht="13" customHeight="1">
@@ -27737,7 +27713,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>8128</v>
+        <v>8294</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -27746,7 +27722,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O258" s="19" t="inlineStr">
         <is>
@@ -27754,7 +27730,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>8672</v>
+        <v>8128</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -27857,32 +27833,30 @@
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Petter Johansen</t>
+          <t>Sondre Johannes Espelid</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E263" s="17" t="inlineStr">
-        <is>
-          <t>14,21,97</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E263" s="15" t="n">
+        <v>11.68</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>862</v>
+        <v>679</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>13.07</v>
+        <v>26.08</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
@@ -27892,301 +27866,299 @@
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>Sander Kjøsnes Lie</t>
+          <t>Petter Johansen</t>
         </is>
       </c>
       <c r="N263" s="7" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O263" s="17" t="inlineStr">
         <is>
-          <t>16,27,03</t>
+          <t>14,21,97</t>
         </is>
       </c>
       <c r="P263" s="7" t="n">
-        <v>593</v>
+        <v>862</v>
       </c>
       <c r="Q263" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R263" s="16" t="n">
-        <v>1.08</v>
+        <v>13.07</v>
       </c>
       <c r="T263" s="5" t="n"/>
     </row>
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Elmer Mulleri Skalle</t>
+          <t>Gabriel Overvåg</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E264" s="17" t="inlineStr">
-        <is>
-          <t>8,27,92</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E264" s="15" t="n">
+        <v>11.8</v>
       </c>
       <c r="F264" s="7" t="n">
-        <v>823</v>
+        <v>653</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>12.02</v>
+        <v>7.08</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Morten Solheim</t>
+          <t>Elmer Mulleri Skalle</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
-        <v>1976</v>
-      </c>
-      <c r="O264" s="15" t="n">
-        <v>7.94</v>
+        <v>1992</v>
+      </c>
+      <c r="O264" s="17" t="inlineStr">
+        <is>
+          <t>8,27,92</t>
+        </is>
       </c>
       <c r="P264" s="7" t="n">
-        <v>514</v>
+        <v>823</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>21.09</v>
+        <v>12.02</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Petter Johansen</t>
+          <t>Jakob Slåtten</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E265" s="17" t="inlineStr">
-        <is>
-          <t>3,56,04</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E265" s="15" t="n">
+        <v>11.83</v>
       </c>
       <c r="F265" s="7" t="n">
-        <v>800</v>
+        <v>646</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>2.06</v>
+        <v>26.08</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Petter Johansen</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
-        <v>1968</v>
-      </c>
-      <c r="O265" s="15" t="n">
-        <v>29.52</v>
+        <v>1998</v>
+      </c>
+      <c r="O265" s="17" t="inlineStr">
+        <is>
+          <t>3,56,04</t>
+        </is>
       </c>
       <c r="P265" s="7" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>29.1</v>
+        <v>2.06</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Magnus Halvorsrud Salberg</t>
+          <t>Jakob Slåtten</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E266" s="17" t="inlineStr">
-        <is>
-          <t>31,58,81</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E266" s="15" t="n">
+        <v>7.63</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>739</v>
+        <v>614</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>7.05</v>
+        <v>5.03</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Jonny Andersen</t>
+          <t>Magnus Halvorsrud Salberg</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
-        <v>1975</v>
+        <v>1988</v>
       </c>
       <c r="O266" s="17" t="inlineStr">
         <is>
-          <t>17,49,85</t>
+          <t>31,58,81</t>
         </is>
       </c>
       <c r="P266" s="7" t="n">
-        <v>453</v>
+        <v>739</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>1.1</v>
+        <v>7.05</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Petersen Skonnord</t>
+          <t>Jakob Slåtten</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>1993</v>
+        <v>2005</v>
       </c>
       <c r="E267" s="17" t="inlineStr">
         <is>
-          <t>32,32,50</t>
+          <t>1,00,40</t>
         </is>
       </c>
       <c r="F267" s="7" t="n">
-        <v>707</v>
+        <v>612</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>2.06</v>
+        <v>27.08</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Morten Solheim</t>
+          <t>Kristoffer Petersen Skonnord</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>1976</v>
-      </c>
-      <c r="O267" s="15" t="n">
-        <v>12.83</v>
+        <v>1993</v>
+      </c>
+      <c r="O267" s="17" t="inlineStr">
+        <is>
+          <t>32,32,50</t>
+        </is>
       </c>
       <c r="P267" s="7" t="n">
-        <v>450</v>
+        <v>707</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>24.08</v>
+        <v>2.06</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Magnus Halvorsrud Salberg</t>
+          <t>Sondre Johannes Espelid</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E268" s="17" t="inlineStr">
-        <is>
-          <t>15,34,89</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E268" s="15" t="n">
+        <v>7.65</v>
       </c>
       <c r="F268" s="7" t="n">
-        <v>696</v>
+        <v>607</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ørsta</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>13.07</v>
+        <v>22.05</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
@@ -28196,149 +28168,147 @@
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Christer Sælen</t>
+          <t>Magnus Halvorsrud Salberg</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="O268" s="17" t="inlineStr">
         <is>
-          <t>18,24,97</t>
+          <t>15,34,89</t>
         </is>
       </c>
       <c r="P268" s="7" t="n">
-        <v>400</v>
+        <v>696</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>15.08</v>
+        <v>13.07</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Petersen Skonnord</t>
+          <t>Gabriel Overvåg</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E269" s="17" t="inlineStr">
-        <is>
-          <t>9,00,58</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E269" s="15" t="n">
+        <v>24.44</v>
       </c>
       <c r="F269" s="7" t="n">
-        <v>686</v>
+        <v>606</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>12.02</v>
+        <v>26.11</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Oddvin Årdalsbakke</t>
+          <t>Kristoffer Petersen Skonnord</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>1962</v>
-      </c>
-      <c r="O269" s="15" t="n">
-        <v>1.27</v>
+        <v>1993</v>
+      </c>
+      <c r="O269" s="17" t="inlineStr">
+        <is>
+          <t>9,00,58</t>
+        </is>
       </c>
       <c r="P269" s="7" t="n">
-        <v>398</v>
+        <v>686</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>14.03</v>
+        <v>12.02</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Lauritz Grønvold Menkerud</t>
+          <t>Kristoffer Skoge</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E270" s="17" t="inlineStr">
-        <is>
-          <t>2,00,58</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E270" s="15" t="n">
+        <v>7.74</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>676</v>
+        <v>577</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Måndalen</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>29.05</v>
+        <v>4.09</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Nils Tore Sæterdal</t>
+          <t>Lauritz Grønvold Menkerud</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>1967</v>
+        <v>2007</v>
       </c>
       <c r="O270" s="17" t="inlineStr">
         <is>
-          <t>10,40,22</t>
+          <t>2,00,58</t>
         </is>
       </c>
       <c r="P270" s="7" t="n">
-        <v>381</v>
+        <v>676</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>22.08</v>
+        <v>29.05</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -28350,172 +28320,168 @@
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Ragnar Rokkvi Kristjansson</t>
+          <t>Sebastian Eystein Tandberg Gyllensten</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>4.07</v>
+        <v>4.78</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>137</v>
+        <v>317</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>3.09</v>
+        <v>26.11</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Stein Fossen</t>
+          <t>Ragnar Rokkvi Kristjansson</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>1968</v>
+        <v>2008</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>2.51</v>
+        <v>4.07</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>375</v>
+        <v>137</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Byrkjelo</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>19.03</v>
+        <v>3.09</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
     <row r="272" ht="13" customHeight="1">
-      <c r="B272" s="14" t="n"/>
-      <c r="C272" s="7" t="n"/>
-      <c r="D272" s="7" t="n"/>
-      <c r="E272" s="7" t="n"/>
-      <c r="F272" s="7" t="n"/>
-      <c r="G272" s="7" t="n"/>
-      <c r="H272" s="21" t="n"/>
+      <c r="B272" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="C272" s="7" t="inlineStr">
+        <is>
+          <t>Marley Delvyn-Thomas Leader</t>
+        </is>
+      </c>
+      <c r="D272" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E272" s="15" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F272" s="7" t="n">
+        <v>255</v>
+      </c>
+      <c r="G272" s="7" t="inlineStr">
+        <is>
+          <t>Ulsteinvik</t>
+        </is>
+      </c>
+      <c r="H272" s="16" t="n">
+        <v>26.11</v>
+      </c>
       <c r="J272" s="5" t="n"/>
-      <c r="L272" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="M272" s="7" t="inlineStr">
-        <is>
-          <t>Oddvin Årdalsbakke</t>
-        </is>
-      </c>
-      <c r="N272" s="7" t="n">
-        <v>1962</v>
-      </c>
-      <c r="O272" s="15" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="P272" s="7" t="n">
-        <v>375</v>
-      </c>
-      <c r="Q272" s="7" t="inlineStr">
-        <is>
-          <t>Arna</t>
-        </is>
-      </c>
-      <c r="R272" s="16" t="n">
-        <v>14.03</v>
-      </c>
+      <c r="L272" s="14" t="n"/>
+      <c r="M272" s="7" t="n"/>
+      <c r="N272" s="7" t="n"/>
+      <c r="O272" s="7" t="n"/>
+      <c r="P272" s="7" t="n"/>
+      <c r="Q272" s="7" t="n"/>
+      <c r="R272" s="21" t="n"/>
       <c r="T272" s="5" t="n"/>
     </row>
     <row r="273" ht="13" customHeight="1">
-      <c r="B273" s="14" t="n"/>
-      <c r="C273" s="7" t="n"/>
-      <c r="D273" s="7" t="n"/>
-      <c r="E273" s="7" t="n"/>
-      <c r="F273" s="7" t="n"/>
-      <c r="G273" s="7" t="n"/>
-      <c r="H273" s="21" t="n"/>
+      <c r="B273" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="C273" s="7" t="inlineStr">
+        <is>
+          <t>Peter Aarland</t>
+        </is>
+      </c>
+      <c r="D273" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E273" s="15" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F273" s="7" t="n">
+        <v>243</v>
+      </c>
+      <c r="G273" s="7" t="inlineStr">
+        <is>
+          <t>Ulsteinvik</t>
+        </is>
+      </c>
+      <c r="H273" s="16" t="n">
+        <v>26.11</v>
+      </c>
       <c r="J273" s="5" t="n"/>
-      <c r="L273" s="14" t="inlineStr">
-        <is>
-          <t>3000m</t>
-        </is>
-      </c>
-      <c r="M273" s="7" t="inlineStr">
-        <is>
-          <t>Espen Irgens Haugen</t>
-        </is>
-      </c>
-      <c r="N273" s="7" t="n">
-        <v>1985</v>
-      </c>
-      <c r="O273" s="17" t="inlineStr">
-        <is>
-          <t>10,43,35</t>
-        </is>
-      </c>
-      <c r="P273" s="7" t="n">
-        <v>374</v>
-      </c>
-      <c r="Q273" s="7" t="inlineStr">
-        <is>
-          <t>Osterøy</t>
-        </is>
-      </c>
-      <c r="R273" s="16" t="n">
-        <v>22.08</v>
-      </c>
+      <c r="L273" s="14" t="n"/>
+      <c r="M273" s="7" t="n"/>
+      <c r="N273" s="7" t="n"/>
+      <c r="O273" s="7" t="n"/>
+      <c r="P273" s="7" t="n"/>
+      <c r="Q273" s="7" t="n"/>
+      <c r="R273" s="21" t="n"/>
       <c r="T273" s="5" t="n"/>
     </row>
     <row r="274" ht="13" customHeight="1">
-      <c r="B274" s="14" t="n"/>
-      <c r="C274" s="7" t="n"/>
-      <c r="D274" s="7" t="n"/>
-      <c r="E274" s="7" t="n"/>
-      <c r="F274" s="7" t="n"/>
-      <c r="G274" s="7" t="n"/>
-      <c r="H274" s="21" t="n"/>
+      <c r="B274" s="14" t="inlineStr">
+        <is>
+          <t>Stav</t>
+        </is>
+      </c>
+      <c r="C274" s="7" t="inlineStr">
+        <is>
+          <t>Sebastian Eystein Tandberg Gyllensten</t>
+        </is>
+      </c>
+      <c r="D274" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E274" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F274" s="7" t="n">
+        <v>196</v>
+      </c>
+      <c r="G274" s="7" t="inlineStr">
+        <is>
+          <t>Ulsteinvik</t>
+        </is>
+      </c>
+      <c r="H274" s="16" t="n">
+        <v>26.11</v>
+      </c>
       <c r="J274" s="5" t="n"/>
-      <c r="L274" s="14" t="inlineStr">
-        <is>
-          <t>1500m</t>
-        </is>
-      </c>
-      <c r="M274" s="7" t="inlineStr">
-        <is>
-          <t>Nils Tore Sæterdal</t>
-        </is>
-      </c>
-      <c r="N274" s="7" t="n">
-        <v>1967</v>
-      </c>
-      <c r="O274" s="17" t="inlineStr">
-        <is>
-          <t>4,56,18</t>
-        </is>
-      </c>
-      <c r="P274" s="7" t="n">
-        <v>372</v>
-      </c>
-      <c r="Q274" s="7" t="inlineStr">
-        <is>
-          <t>Arna</t>
-        </is>
-      </c>
-      <c r="R274" s="16" t="n">
-        <v>15.08</v>
-      </c>
+      <c r="L274" s="14" t="n"/>
+      <c r="M274" s="7" t="n"/>
+      <c r="N274" s="7" t="n"/>
+      <c r="O274" s="7" t="n"/>
+      <c r="P274" s="7" t="n"/>
+      <c r="Q274" s="7" t="n"/>
+      <c r="R274" s="21" t="n"/>
       <c r="T274" s="5" t="n"/>
     </row>
     <row r="275" ht="13" customHeight="1">
@@ -28543,7 +28509,7 @@
         </is>
       </c>
       <c r="C276" s="20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E276" s="19" t="inlineStr">
         <is>
@@ -28551,7 +28517,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>6126</v>
+        <v>6005</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -28560,7 +28526,7 @@
         </is>
       </c>
       <c r="M276" s="20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O276" s="19" t="inlineStr">
         <is>
@@ -28568,7 +28534,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>5152</v>
+        <v>6126</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -28583,7 +28549,7 @@
         </is>
       </c>
       <c r="C278" s="20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E278" s="19" t="inlineStr">
         <is>
@@ -28591,7 +28557,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>14254</v>
+        <v>14299</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -28600,7 +28566,7 @@
         </is>
       </c>
       <c r="M278" s="20" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O278" s="19" t="inlineStr">
         <is>
@@ -28608,7 +28574,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>13824</v>
+        <v>14254</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -28623,7 +28589,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -28632,7 +28598,7 @@
         </is>
       </c>
       <c r="M280" s="20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
@@ -28674,7 +28640,7 @@
       </c>
       <c r="C284" s="7" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F284" s="8" t="n">
@@ -28704,7 +28670,7 @@
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>Dimna IL</t>
+          <t>IL Fri</t>
         </is>
       </c>
       <c r="J285" s="5" t="n"/>
@@ -28844,25 +28810,25 @@
       </c>
       <c r="C291" s="7" t="inlineStr">
         <is>
-          <t>Jonas André Ose</t>
+          <t>Lars Magnus Birketveit</t>
         </is>
       </c>
       <c r="D291" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E291" s="15" t="n">
-        <v>7.01</v>
+        <v>7.63</v>
       </c>
       <c r="F291" s="7" t="n">
-        <v>859</v>
+        <v>614</v>
       </c>
       <c r="G291" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H291" s="16" t="n">
-        <v>19.03</v>
+        <v>6.07</v>
       </c>
       <c r="J291" s="5" t="n"/>
       <c r="L291" s="14" t="inlineStr">
@@ -28879,18 +28845,18 @@
         <v>2005</v>
       </c>
       <c r="O291" s="15" t="n">
-        <v>7.33</v>
+        <v>7.25</v>
       </c>
       <c r="P291" s="7" t="n">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="Q291" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R291" s="16" t="n">
-        <v>12.03</v>
+        <v>26.11</v>
       </c>
       <c r="T291" s="5" t="n"/>
     </row>
@@ -28902,25 +28868,25 @@
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>Jonas André Ose</t>
+          <t>Martin Roe</t>
         </is>
       </c>
       <c r="D292" s="7" t="n">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="E292" s="15" t="n">
-        <v>11.16</v>
+        <v>10.94</v>
       </c>
       <c r="F292" s="7" t="n">
-        <v>801</v>
+        <v>857</v>
       </c>
       <c r="G292" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>München/GER</t>
         </is>
       </c>
       <c r="H292" s="16" t="n">
-        <v>18.06</v>
+        <v>15.08</v>
       </c>
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="14" t="inlineStr">
@@ -28960,25 +28926,25 @@
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>Sondre Johannes Espelid</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="D293" s="7" t="n">
-        <v>2003</v>
+        <v>1976</v>
       </c>
       <c r="E293" s="15" t="n">
-        <v>23.55</v>
+        <v>25.33</v>
       </c>
       <c r="F293" s="7" t="n">
-        <v>692</v>
+        <v>528</v>
       </c>
       <c r="G293" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H293" s="16" t="n">
-        <v>10.09</v>
+        <v>11.09</v>
       </c>
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
@@ -29018,25 +28984,25 @@
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>Toralv Opsal</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="D294" s="7" t="n">
-        <v>1998</v>
+        <v>1976</v>
       </c>
       <c r="E294" s="15" t="n">
-        <v>49.39</v>
+        <v>54.54</v>
       </c>
       <c r="F294" s="7" t="n">
-        <v>816</v>
+        <v>583</v>
       </c>
       <c r="G294" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Tampere/FIN</t>
         </is>
       </c>
       <c r="H294" s="16" t="n">
-        <v>5.02</v>
+        <v>6.07</v>
       </c>
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
@@ -29071,32 +29037,32 @@
     <row r="295" ht="13" customHeight="1">
       <c r="B295" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>Olger Breivik Pedersen</t>
+          <t>Christer Sælen</t>
         </is>
       </c>
       <c r="D295" s="7" t="n">
-        <v>1989</v>
+        <v>1981</v>
       </c>
       <c r="E295" s="17" t="inlineStr">
         <is>
-          <t>9,32,65</t>
+          <t>4,55,91</t>
         </is>
       </c>
       <c r="F295" s="7" t="n">
-        <v>573</v>
+        <v>373</v>
       </c>
       <c r="G295" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H295" s="16" t="n">
-        <v>6.06</v>
+        <v>15.08</v>
       </c>
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
@@ -29133,32 +29099,32 @@
     <row r="296" ht="13" customHeight="1">
       <c r="B296" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>Olger Breivik Pedersen</t>
+          <t>Sander Kjøsnes Lie</t>
         </is>
       </c>
       <c r="D296" s="7" t="n">
-        <v>1989</v>
+        <v>1999</v>
       </c>
       <c r="E296" s="17" t="inlineStr">
         <is>
-          <t>15,57,81</t>
+          <t>9,11,02</t>
         </is>
       </c>
       <c r="F296" s="7" t="n">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G296" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H296" s="16" t="n">
-        <v>30.06</v>
+        <v>18.05</v>
       </c>
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
@@ -29195,30 +29161,32 @@
     <row r="297" ht="13" customHeight="1">
       <c r="B297" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>Jakob Slåtten</t>
+          <t>Andreas Vågen</t>
         </is>
       </c>
       <c r="D297" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E297" s="15" t="n">
-        <v>9.050000000000001</v>
+        <v>2000</v>
+      </c>
+      <c r="E297" s="17" t="inlineStr">
+        <is>
+          <t>15,44,58</t>
+        </is>
       </c>
       <c r="F297" s="7" t="n">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="G297" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H297" s="16" t="n">
-        <v>6.02</v>
+        <v>1.08</v>
       </c>
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
@@ -29255,30 +29223,30 @@
     <row r="298" ht="13" customHeight="1">
       <c r="B298" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>Karsten Warholm</t>
+          <t>Martin Roe</t>
         </is>
       </c>
       <c r="D298" s="7" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="E298" s="15" t="n">
-        <v>47.12</v>
+        <v>4.68</v>
       </c>
       <c r="F298" s="7" t="n">
-        <v>1173</v>
+        <v>848</v>
       </c>
       <c r="G298" s="7" t="inlineStr">
         <is>
-          <t>München/GER</t>
+          <t>Bergen/Hø</t>
         </is>
       </c>
       <c r="H298" s="16" t="n">
-        <v>19.08</v>
+        <v>7.08</v>
       </c>
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
@@ -29315,30 +29283,30 @@
     <row r="299" ht="13" customHeight="1">
       <c r="B299" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Eystein Tandberg Gyllensten</t>
+          <t>Martin Roe</t>
         </is>
       </c>
       <c r="D299" s="7" t="n">
-        <v>2008</v>
+        <v>1992</v>
       </c>
       <c r="E299" s="15" t="n">
-        <v>1.36</v>
+        <v>7.21</v>
       </c>
       <c r="F299" s="7" t="n">
-        <v>181</v>
+        <v>871</v>
       </c>
       <c r="G299" s="7" t="inlineStr">
         <is>
-          <t>Måndalen</t>
+          <t>München/GER</t>
         </is>
       </c>
       <c r="H299" s="16" t="n">
-        <v>4.09</v>
+        <v>15.08</v>
       </c>
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
@@ -29375,30 +29343,30 @@
     <row r="300" ht="13" customHeight="1">
       <c r="B300" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>Toralv Opsal</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="D300" s="7" t="n">
-        <v>1998</v>
+        <v>1968</v>
       </c>
       <c r="E300" s="15" t="n">
-        <v>4.8</v>
+        <v>11.3</v>
       </c>
       <c r="F300" s="7" t="n">
-        <v>870</v>
+        <v>546</v>
       </c>
       <c r="G300" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="H300" s="16" t="n">
-        <v>12.02</v>
+        <v>26.04</v>
       </c>
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
@@ -29433,30 +29401,30 @@
     <row r="301" ht="13" customHeight="1">
       <c r="B301" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>Håvard Dimmen</t>
+          <t>Martin Roe</t>
         </is>
       </c>
       <c r="D301" s="7" t="n">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="E301" s="15" t="n">
-        <v>5.05</v>
+        <v>47.46</v>
       </c>
       <c r="F301" s="7" t="n">
-        <v>383</v>
+        <v>816</v>
       </c>
       <c r="G301" s="7" t="inlineStr">
         <is>
-          <t>Ørsta</t>
+          <t>München/GER</t>
         </is>
       </c>
       <c r="H301" s="16" t="n">
-        <v>22.05</v>
+        <v>16.08</v>
       </c>
       <c r="J301" s="5" t="n"/>
       <c r="L301" s="14" t="inlineStr">
@@ -29491,30 +29459,30 @@
     <row r="302" ht="13" customHeight="1">
       <c r="B302" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
         <is>
-          <t>Vidar Hansen</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="D302" s="7" t="n">
-        <v>1979</v>
+        <v>1968</v>
       </c>
       <c r="E302" s="15" t="n">
-        <v>8.949999999999999</v>
+        <v>33.1</v>
       </c>
       <c r="F302" s="7" t="n">
-        <v>369</v>
+        <v>510</v>
       </c>
       <c r="G302" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="H302" s="16" t="n">
-        <v>20.03</v>
+        <v>21.05</v>
       </c>
       <c r="J302" s="5" t="n"/>
       <c r="L302" s="14" t="inlineStr">
@@ -29547,13 +29515,33 @@
       <c r="T302" s="5" t="n"/>
     </row>
     <row r="303" ht="13" customHeight="1">
-      <c r="B303" s="14" t="n"/>
-      <c r="C303" s="7" t="n"/>
-      <c r="D303" s="7" t="n"/>
-      <c r="E303" s="7" t="n"/>
-      <c r="F303" s="7" t="n"/>
-      <c r="G303" s="7" t="n"/>
-      <c r="H303" s="21" t="n"/>
+      <c r="B303" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C303" s="7" t="inlineStr">
+        <is>
+          <t>Martin Roe</t>
+        </is>
+      </c>
+      <c r="D303" s="7" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E303" s="15" t="n">
+        <v>63.26</v>
+      </c>
+      <c r="F303" s="7" t="n">
+        <v>803</v>
+      </c>
+      <c r="G303" s="7" t="inlineStr">
+        <is>
+          <t>München/GER</t>
+        </is>
+      </c>
+      <c r="H303" s="16" t="n">
+        <v>16.08</v>
+      </c>
       <c r="J303" s="5" t="n"/>
       <c r="L303" s="14" t="inlineStr">
         <is>
@@ -29609,7 +29597,7 @@
         </is>
       </c>
       <c r="C305" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E305" s="19" t="inlineStr">
         <is>
@@ -29617,7 +29605,7 @@
         </is>
       </c>
       <c r="F305" s="20" t="n">
-        <v>8067</v>
+        <v>8672</v>
       </c>
       <c r="J305" s="5" t="n"/>
       <c r="L305" s="19" t="inlineStr">
@@ -29634,7 +29622,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>7426</v>
+        <v>7457</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -29737,30 +29725,32 @@
     <row r="310" ht="13" customHeight="1">
       <c r="B310" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
         <is>
-          <t>Sondre Johannes Espelid</t>
+          <t>Sander Kjøsnes Lie</t>
         </is>
       </c>
       <c r="D310" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E310" s="15" t="n">
-        <v>11.68</v>
+        <v>1999</v>
+      </c>
+      <c r="E310" s="17" t="inlineStr">
+        <is>
+          <t>16,27,03</t>
+        </is>
       </c>
       <c r="F310" s="7" t="n">
-        <v>679</v>
+        <v>593</v>
       </c>
       <c r="G310" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H310" s="16" t="n">
-        <v>26.08</v>
+        <v>1.08</v>
       </c>
       <c r="J310" s="5" t="n"/>
       <c r="L310" s="14" t="inlineStr">
@@ -29797,88 +29787,88 @@
     <row r="311" ht="13" customHeight="1">
       <c r="B311" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
         <is>
-          <t>Gabriel Overvåg</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="D311" s="7" t="n">
-        <v>2004</v>
+        <v>1976</v>
       </c>
       <c r="E311" s="15" t="n">
-        <v>11.8</v>
+        <v>7.94</v>
       </c>
       <c r="F311" s="7" t="n">
-        <v>653</v>
+        <v>514</v>
       </c>
       <c r="G311" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H311" s="16" t="n">
-        <v>7.08</v>
+        <v>21.09</v>
       </c>
       <c r="J311" s="5" t="n"/>
       <c r="L311" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M311" s="7" t="inlineStr">
         <is>
-          <t>Oscar A Bergstrøm</t>
+          <t>Jørgen Halmøy</t>
         </is>
       </c>
       <c r="N311" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O311" s="15" t="n">
-        <v>7.92</v>
+        <v>25.25</v>
       </c>
       <c r="P311" s="7" t="n">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="Q311" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R311" s="16" t="n">
-        <v>12.03</v>
+        <v>26.11</v>
       </c>
       <c r="T311" s="5" t="n"/>
     </row>
     <row r="312" ht="13" customHeight="1">
       <c r="B312" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
         <is>
-          <t>Jakob Slåtten</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="D312" s="7" t="n">
-        <v>2005</v>
+        <v>1968</v>
       </c>
       <c r="E312" s="15" t="n">
-        <v>11.83</v>
+        <v>29.52</v>
       </c>
       <c r="F312" s="7" t="n">
-        <v>646</v>
+        <v>467</v>
       </c>
       <c r="G312" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H312" s="16" t="n">
-        <v>26.08</v>
+        <v>29.1</v>
       </c>
       <c r="J312" s="5" t="n"/>
       <c r="L312" s="14" t="inlineStr">
@@ -29888,55 +29878,57 @@
       </c>
       <c r="M312" s="7" t="inlineStr">
         <is>
-          <t>Alexander Restrup</t>
+          <t>Oscar A Bergstrøm</t>
         </is>
       </c>
       <c r="N312" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O312" s="15" t="n">
-        <v>8.1</v>
+        <v>7.92</v>
       </c>
       <c r="P312" s="7" t="n">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="Q312" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R312" s="16" t="n">
-        <v>7.05</v>
+        <v>12.03</v>
       </c>
       <c r="T312" s="5" t="n"/>
     </row>
     <row r="313" ht="13" customHeight="1">
       <c r="B313" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
         <is>
-          <t>Jakob Slåtten</t>
+          <t>Jonny Andersen</t>
         </is>
       </c>
       <c r="D313" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E313" s="15" t="n">
-        <v>7.63</v>
+        <v>1975</v>
+      </c>
+      <c r="E313" s="17" t="inlineStr">
+        <is>
+          <t>17,49,85</t>
+        </is>
       </c>
       <c r="F313" s="7" t="n">
-        <v>614</v>
+        <v>453</v>
       </c>
       <c r="G313" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="H313" s="16" t="n">
-        <v>5.03</v>
+        <v>1.1</v>
       </c>
       <c r="J313" s="5" t="n"/>
       <c r="L313" s="14" t="inlineStr">
@@ -29946,62 +29938,60 @@
       </c>
       <c r="M313" s="7" t="inlineStr">
         <is>
-          <t>Jørgen Halmøy</t>
+          <t>William Christophe Jeremy Peurton</t>
         </is>
       </c>
       <c r="N313" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O313" s="15" t="n">
-        <v>8.109999999999999</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="P313" s="7" t="n">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="Q313" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R313" s="16" t="n">
-        <v>16.09</v>
+        <v>26.11</v>
       </c>
       <c r="T313" s="5" t="n"/>
     </row>
     <row r="314" ht="13" customHeight="1">
       <c r="B314" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
         <is>
-          <t>Jakob Slåtten</t>
+          <t>Morten Solheim</t>
         </is>
       </c>
       <c r="D314" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E314" s="17" t="inlineStr">
-        <is>
-          <t>1,00,40</t>
-        </is>
+        <v>1976</v>
+      </c>
+      <c r="E314" s="15" t="n">
+        <v>12.83</v>
       </c>
       <c r="F314" s="7" t="n">
-        <v>612</v>
+        <v>450</v>
       </c>
       <c r="G314" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H314" s="16" t="n">
-        <v>27.08</v>
+        <v>24.08</v>
       </c>
       <c r="J314" s="5" t="n"/>
       <c r="L314" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M314" s="7" t="inlineStr">
@@ -30013,10 +30003,10 @@
         <v>2007</v>
       </c>
       <c r="O314" s="15" t="n">
-        <v>12.83</v>
+        <v>8.1</v>
       </c>
       <c r="P314" s="7" t="n">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="Q314" s="7" t="inlineStr">
         <is>
@@ -30024,42 +30014,44 @@
         </is>
       </c>
       <c r="R314" s="16" t="n">
-        <v>24.09</v>
+        <v>7.05</v>
       </c>
       <c r="T314" s="5" t="n"/>
     </row>
     <row r="315" ht="13" customHeight="1">
       <c r="B315" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>Sondre Johannes Espelid</t>
+          <t>Christer Sælen</t>
         </is>
       </c>
       <c r="D315" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E315" s="15" t="n">
-        <v>7.65</v>
+        <v>1981</v>
+      </c>
+      <c r="E315" s="17" t="inlineStr">
+        <is>
+          <t>18,24,97</t>
+        </is>
       </c>
       <c r="F315" s="7" t="n">
-        <v>607</v>
+        <v>400</v>
       </c>
       <c r="G315" s="7" t="inlineStr">
         <is>
-          <t>Ørsta</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H315" s="16" t="n">
-        <v>22.05</v>
+        <v>15.08</v>
       </c>
       <c r="J315" s="5" t="n"/>
       <c r="L315" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M315" s="7" t="inlineStr">
@@ -30071,70 +30063,68 @@
         <v>2008</v>
       </c>
       <c r="O315" s="15" t="n">
-        <v>26.45</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="P315" s="7" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="Q315" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="R315" s="16" t="n">
-        <v>10.09</v>
+        <v>16.09</v>
       </c>
       <c r="T315" s="5" t="n"/>
     </row>
     <row r="316" ht="13" customHeight="1">
       <c r="B316" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
         <is>
-          <t>Gabriel Overvåg</t>
+          <t>Oddvin Årdalsbakke</t>
         </is>
       </c>
       <c r="D316" s="7" t="n">
-        <v>2004</v>
+        <v>1962</v>
       </c>
       <c r="E316" s="15" t="n">
-        <v>24.71</v>
+        <v>1.27</v>
       </c>
       <c r="F316" s="7" t="n">
-        <v>581</v>
+        <v>398</v>
       </c>
       <c r="G316" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H316" s="16" t="n">
-        <v>13.07</v>
+        <v>14.03</v>
       </c>
       <c r="J316" s="5" t="n"/>
       <c r="L316" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M316" s="7" t="inlineStr">
         <is>
-          <t>Arne Olav Sunde</t>
+          <t>Alexander Restrup</t>
         </is>
       </c>
       <c r="N316" s="7" t="n">
-        <v>1966</v>
-      </c>
-      <c r="O316" s="17" t="inlineStr">
-        <is>
-          <t>10,18,08</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O316" s="15" t="n">
+        <v>12.83</v>
       </c>
       <c r="P316" s="7" t="n">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="Q316" s="7" t="inlineStr">
         <is>
@@ -30142,97 +30132,97 @@
         </is>
       </c>
       <c r="R316" s="16" t="n">
-        <v>11.1</v>
+        <v>24.09</v>
       </c>
       <c r="T316" s="5" t="n"/>
     </row>
     <row r="317" ht="13" customHeight="1">
       <c r="B317" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>Kristoffer Skoge</t>
+          <t>Nils Tore Sæterdal</t>
         </is>
       </c>
       <c r="D317" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E317" s="15" t="n">
-        <v>7.74</v>
+        <v>1967</v>
+      </c>
+      <c r="E317" s="17" t="inlineStr">
+        <is>
+          <t>10,40,22</t>
+        </is>
       </c>
       <c r="F317" s="7" t="n">
-        <v>577</v>
+        <v>381</v>
       </c>
       <c r="G317" s="7" t="inlineStr">
         <is>
-          <t>Måndalen</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H317" s="16" t="n">
-        <v>4.09</v>
+        <v>22.08</v>
       </c>
       <c r="J317" s="5" t="n"/>
       <c r="L317" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M317" s="7" t="inlineStr">
         <is>
-          <t>Ole Kristian Sørland</t>
+          <t>Brage Bergfald</t>
         </is>
       </c>
       <c r="N317" s="7" t="n">
-        <v>1968</v>
-      </c>
-      <c r="O317" s="17" t="inlineStr">
-        <is>
-          <t>10,18,54</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O317" s="15" t="n">
+        <v>8.17</v>
       </c>
       <c r="P317" s="7" t="n">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q317" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R317" s="16" t="n">
-        <v>11.1</v>
+        <v>26.11</v>
       </c>
       <c r="T317" s="5" t="n"/>
     </row>
     <row r="318" ht="13" customHeight="1">
       <c r="B318" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Eystein Tandberg Gyllensten</t>
+          <t>Stein Fossen</t>
         </is>
       </c>
       <c r="D318" s="7" t="n">
-        <v>2008</v>
+        <v>1968</v>
       </c>
       <c r="E318" s="15" t="n">
-        <v>4.6</v>
+        <v>2.51</v>
       </c>
       <c r="F318" s="7" t="n">
-        <v>273</v>
+        <v>375</v>
       </c>
       <c r="G318" s="7" t="inlineStr">
         <is>
-          <t>Ørsta</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H318" s="16" t="n">
-        <v>28.08</v>
+        <v>19.03</v>
       </c>
       <c r="J318" s="5" t="n"/>
       <c r="L318" s="14" t="inlineStr">
@@ -30267,30 +30257,30 @@
     <row r="319" ht="13" customHeight="1">
       <c r="B319" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Eystein Tandberg Gyllensten</t>
+          <t>Oddvin Årdalsbakke</t>
         </is>
       </c>
       <c r="D319" s="7" t="n">
-        <v>2008</v>
+        <v>1962</v>
       </c>
       <c r="E319" s="15" t="n">
-        <v>1.92</v>
+        <v>2.51</v>
       </c>
       <c r="F319" s="7" t="n">
-        <v>165</v>
+        <v>375</v>
       </c>
       <c r="G319" s="7" t="inlineStr">
         <is>
-          <t>Måndalen</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H319" s="16" t="n">
-        <v>3.09</v>
+        <v>14.03</v>
       </c>
       <c r="J319" s="5" t="n"/>
       <c r="L319" s="14" t="inlineStr">
@@ -30325,30 +30315,32 @@
     <row r="320" ht="13" customHeight="1">
       <c r="B320" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C320" s="7" t="inlineStr">
         <is>
-          <t>Oliver Kvalsund Sellereite</t>
+          <t>Espen Irgens Haugen</t>
         </is>
       </c>
       <c r="D320" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E320" s="15" t="n">
-        <v>1.25</v>
+        <v>1985</v>
+      </c>
+      <c r="E320" s="17" t="inlineStr">
+        <is>
+          <t>10,43,35</t>
+        </is>
       </c>
       <c r="F320" s="7" t="n">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="G320" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H320" s="16" t="n">
-        <v>15.05</v>
+        <v>22.08</v>
       </c>
       <c r="J320" s="5" t="n"/>
       <c r="L320" s="14" t="inlineStr">
@@ -30381,17 +30373,39 @@
       <c r="T320" s="5" t="n"/>
     </row>
     <row r="321" ht="13" customHeight="1">
-      <c r="B321" s="14" t="n"/>
-      <c r="C321" s="7" t="n"/>
-      <c r="D321" s="7" t="n"/>
-      <c r="E321" s="7" t="n"/>
-      <c r="F321" s="7" t="n"/>
-      <c r="G321" s="7" t="n"/>
-      <c r="H321" s="21" t="n"/>
+      <c r="B321" s="14" t="inlineStr">
+        <is>
+          <t>1500m</t>
+        </is>
+      </c>
+      <c r="C321" s="7" t="inlineStr">
+        <is>
+          <t>Nils Tore Sæterdal</t>
+        </is>
+      </c>
+      <c r="D321" s="7" t="n">
+        <v>1967</v>
+      </c>
+      <c r="E321" s="17" t="inlineStr">
+        <is>
+          <t>4,56,18</t>
+        </is>
+      </c>
+      <c r="F321" s="7" t="n">
+        <v>372</v>
+      </c>
+      <c r="G321" s="7" t="inlineStr">
+        <is>
+          <t>Arna</t>
+        </is>
+      </c>
+      <c r="H321" s="16" t="n">
+        <v>15.08</v>
+      </c>
       <c r="J321" s="5" t="n"/>
       <c r="L321" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M321" s="7" t="inlineStr">
@@ -30403,18 +30417,18 @@
         <v>2008</v>
       </c>
       <c r="O321" s="15" t="n">
-        <v>9.73</v>
+        <v>4.71</v>
       </c>
       <c r="P321" s="7" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q321" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R321" s="16" t="n">
-        <v>12.06</v>
+        <v>26.11</v>
       </c>
       <c r="T321" s="5" t="n"/>
     </row>
@@ -30443,7 +30457,7 @@
         </is>
       </c>
       <c r="C323" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E323" s="19" t="inlineStr">
         <is>
@@ -30451,7 +30465,7 @@
         </is>
       </c>
       <c r="F323" s="20" t="n">
-        <v>5426</v>
+        <v>5152</v>
       </c>
       <c r="J323" s="5" t="n"/>
       <c r="L323" s="19" t="inlineStr">
@@ -30468,7 +30482,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>5179</v>
+        <v>5322</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -30483,7 +30497,7 @@
         </is>
       </c>
       <c r="C325" s="20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E325" s="19" t="inlineStr">
         <is>
@@ -30491,7 +30505,7 @@
         </is>
       </c>
       <c r="F325" s="20" t="n">
-        <v>13493</v>
+        <v>13824</v>
       </c>
       <c r="J325" s="5" t="n"/>
       <c r="L325" s="19" t="inlineStr">
@@ -30508,7 +30522,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>12605</v>
+        <v>12779</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30523,7 +30537,7 @@
         </is>
       </c>
       <c r="C327" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J327" s="5" t="n"/>
       <c r="L327" s="19" t="inlineStr">
@@ -30532,7 +30546,7 @@
         </is>
       </c>
       <c r="M327" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T327" s="5" t="n"/>
     </row>
@@ -30816,7 +30830,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21844</v>
+        <v>21928</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -30844,7 +30858,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>21824</v>
+        <v>21836</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -30900,7 +30914,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>20165</v>
+        <v>20179</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -33173,7 +33187,7 @@
         </is>
       </c>
       <c r="R44" s="16" t="n">
-        <v>11.09</v>
+        <v>25.08</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -36369,11 +36383,11 @@
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>13.08</v>
+        <v>16.06</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
@@ -37174,20 +37188,20 @@
     <row r="141" ht="13" customHeight="1">
       <c r="B141" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Line Myrestøl Johansson</t>
+          <t>Oda Rosland Gjerstad</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="E141" s="17" t="inlineStr">
         <is>
-          <t>4,38,03</t>
+          <t>10,01,64</t>
         </is>
       </c>
       <c r="F141" s="7" t="n">
@@ -37195,11 +37209,11 @@
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>24.06</v>
+        <v>28.08</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
@@ -37234,30 +37248,32 @@
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Line Myrestøl Johansson</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="E142" s="15" t="n">
-        <v>7.99</v>
+        <v>1998</v>
+      </c>
+      <c r="E142" s="17" t="inlineStr">
+        <is>
+          <t>4,38,03</t>
+        </is>
       </c>
       <c r="F142" s="7" t="n">
         <v>737</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>15.01</v>
+        <v>24.06</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
@@ -37292,32 +37308,30 @@
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Oda Rosland Gjerstad</t>
+          <t>Tonje Nedberg</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E143" s="17" t="inlineStr">
-        <is>
-          <t>10,01,64</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="E143" s="15" t="n">
+        <v>7.99</v>
       </c>
       <c r="F143" s="7" t="n">
         <v>737</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>28.08</v>
+        <v>15.01</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
@@ -37457,11 +37471,11 @@
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R145" s="16" t="n">
-        <v>20.03</v>
+        <v>13.02</v>
       </c>
       <c r="T145" s="5" t="n"/>
     </row>
@@ -38624,18 +38638,18 @@
         <v>2005</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>629</v>
+        <v>695</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>31.08</v>
+        <v>26.11</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -38874,7 +38888,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11106</v>
+        <v>11172</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -39616,10 +39630,10 @@
         <v>2005</v>
       </c>
       <c r="O196" s="15" t="n">
-        <v>8.220000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="P196" s="7" t="n">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="Q196" s="7" t="inlineStr">
         <is>
@@ -39627,7 +39641,7 @@
         </is>
       </c>
       <c r="R196" s="16" t="n">
-        <v>29.01</v>
+        <v>26.11</v>
       </c>
       <c r="T196" s="5" t="n"/>
     </row>
@@ -39704,18 +39718,18 @@
         <v>2009</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>17.06</v>
+        <v>26.11</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
@@ -39797,11 +39811,11 @@
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>11.09</v>
+        <v>28.05</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -39836,30 +39850,30 @@
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Angelica Okparaebo</t>
+          <t>Mathilde Falck</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>2.33</v>
+        <v>4.56</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>6.02</v>
+        <v>26.11</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -39896,7 +39910,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>10738</v>
+        <v>10756</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -39913,7 +39927,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>10325</v>
+        <v>10337</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -39936,7 +39950,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21844</v>
+        <v>21928</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -39953,7 +39967,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>21824</v>
+        <v>21836</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -41908,22 +41922,22 @@
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M249" s="7" t="inlineStr">
         <is>
-          <t>Sarah Saunes Moldskred</t>
+          <t>Aase Ulstein</t>
         </is>
       </c>
       <c r="N249" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O249" s="15" t="n">
-        <v>4.88</v>
+        <v>2.66</v>
       </c>
       <c r="P249" s="7" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
@@ -41931,7 +41945,7 @@
         </is>
       </c>
       <c r="R249" s="16" t="n">
-        <v>19.03</v>
+        <v>26.11</v>
       </c>
       <c r="T249" s="5" t="n"/>
     </row>
@@ -41966,30 +41980,30 @@
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M250" s="7" t="inlineStr">
         <is>
-          <t>Aase Ulstein</t>
+          <t>Sarah Saunes Moldskred</t>
         </is>
       </c>
       <c r="N250" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O250" s="15" t="n">
-        <v>2.6</v>
+        <v>4.88</v>
       </c>
       <c r="P250" s="7" t="n">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>17.06</v>
+        <v>19.03</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
@@ -42159,7 +42173,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>9628</v>
+        <v>9642</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -42199,7 +42213,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>20165</v>
+        <v>20179</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>
@@ -43666,30 +43680,30 @@
       <c r="J293" s="5" t="n"/>
       <c r="L293" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M293" s="7" t="inlineStr">
         <is>
-          <t>Mathea Wego Karlsen</t>
+          <t>Henriette Kjærås</t>
         </is>
       </c>
       <c r="N293" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="O293" s="15" t="n">
-        <v>27.65</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="P293" s="7" t="n">
         <v>603</v>
       </c>
       <c r="Q293" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R293" s="16" t="n">
-        <v>19.06</v>
+        <v>5.03</v>
       </c>
       <c r="T293" s="5" t="n"/>
     </row>
@@ -43724,30 +43738,30 @@
       <c r="J294" s="5" t="n"/>
       <c r="L294" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M294" s="7" t="inlineStr">
         <is>
-          <t>Henriette Kjærås</t>
+          <t>Mathea Wego Karlsen</t>
         </is>
       </c>
       <c r="N294" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O294" s="15" t="n">
-        <v>8.460000000000001</v>
+        <v>27.65</v>
       </c>
       <c r="P294" s="7" t="n">
         <v>603</v>
       </c>
       <c r="Q294" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R294" s="16" t="n">
-        <v>5.03</v>
+        <v>19.06</v>
       </c>
       <c r="T294" s="5" t="n"/>
     </row>
@@ -44841,7 +44855,7 @@
       </c>
       <c r="E324" s="17" t="inlineStr">
         <is>
-          <t>1,00,04</t>
+          <t>1,00,03</t>
         </is>
       </c>
       <c r="F324" s="7" t="n">
@@ -44849,11 +44863,11 @@
       </c>
       <c r="G324" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H324" s="16" t="n">
-        <v>9.09</v>
+        <v>28.05</v>
       </c>
       <c r="J324" s="5" t="n"/>
       <c r="L324" s="14" t="inlineStr">
@@ -45985,11 +45999,11 @@
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>3.09</v>
+        <v>5.08</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -46013,11 +46027,11 @@
       </c>
       <c r="Q348" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R348" s="16" t="n">
-        <v>27.05</v>
+        <v>19.02</v>
       </c>
       <c r="T348" s="5" t="n"/>
     </row>
@@ -46133,11 +46147,11 @@
       </c>
       <c r="Q350" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R350" s="16" t="n">
-        <v>11.09</v>
+        <v>14.05</v>
       </c>
       <c r="T350" s="5" t="n"/>
     </row>
@@ -46339,11 +46353,11 @@
       </c>
       <c r="G354" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H354" s="16" t="n">
-        <v>12.03</v>
+        <v>23.01</v>
       </c>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
@@ -46717,11 +46731,11 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>(22/12)</t>
+          <t>(23/13)</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>18614</v>
+        <v>19096</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -46857,11 +46871,11 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(25/12)</t>
+          <t>(25/11)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>15959</v>
+        <v>15987</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -46889,7 +46903,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>15528</v>
+        <v>15531</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -48727,30 +48741,30 @@
     <row r="36" ht="13" customHeight="1">
       <c r="B36" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>Anneli Framnes</t>
+          <t>Lotte Koubova Tangen</t>
         </is>
       </c>
       <c r="D36" s="7" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E36" s="15" t="n">
-        <v>1.1</v>
+        <v>4.39</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>173</v>
+        <v>482</v>
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H36" s="16" t="n">
-        <v>11.09</v>
+        <v>26.11</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
@@ -48783,13 +48797,33 @@
       <c r="T36" s="5" t="n"/>
     </row>
     <row r="37" ht="13" customHeight="1">
-      <c r="B37" s="14" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="n"/>
-      <c r="H37" s="21" t="n"/>
+      <c r="B37" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="C37" s="7" t="inlineStr">
+        <is>
+          <t>Anneli Framnes</t>
+        </is>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E37" s="15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>173</v>
+      </c>
+      <c r="G37" s="7" t="inlineStr">
+        <is>
+          <t>Oslo/St</t>
+        </is>
+      </c>
+      <c r="H37" s="16" t="n">
+        <v>11.09</v>
+      </c>
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
@@ -48923,7 +48957,7 @@
         </is>
       </c>
       <c r="C41" s="20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="19" t="inlineStr">
         <is>
@@ -48931,7 +48965,7 @@
         </is>
       </c>
       <c r="F41" s="20" t="n">
-        <v>6945</v>
+        <v>7427</v>
       </c>
       <c r="J41" s="5" t="n"/>
       <c r="L41" s="19" t="inlineStr">
@@ -48963,7 +48997,7 @@
         </is>
       </c>
       <c r="C43" s="20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E43" s="19" t="inlineStr">
         <is>
@@ -48971,7 +49005,7 @@
         </is>
       </c>
       <c r="F43" s="20" t="n">
-        <v>18614</v>
+        <v>19096</v>
       </c>
       <c r="J43" s="5" t="n"/>
       <c r="L43" s="19" t="inlineStr">
@@ -49003,7 +49037,7 @@
         </is>
       </c>
       <c r="C45" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" s="5" t="n"/>
       <c r="L45" s="19" t="inlineStr">
@@ -50312,11 +50346,11 @@
       </c>
       <c r="Q77" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R77" s="16" t="n">
-        <v>5.03</v>
+        <v>30.01</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -52542,25 +52576,25 @@
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Clara Luise Löser</t>
+          <t>Elise Sandvik Tornberg</t>
         </is>
       </c>
       <c r="N129" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="O129" s="15" t="n">
-        <v>8.390000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="P129" s="7" t="n">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="Q129" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R129" s="16" t="n">
-        <v>5.06</v>
+        <v>26.11</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -52716,11 +52750,11 @@
       </c>
       <c r="M132" s="7" t="inlineStr">
         <is>
-          <t>Henriette Collett-Østensen</t>
+          <t>Elise Sandvik Tornberg</t>
         </is>
       </c>
       <c r="N132" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="O132" s="15" t="n">
         <v>4.86</v>
@@ -52730,11 +52764,11 @@
       </c>
       <c r="Q132" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R132" s="16" t="n">
-        <v>12.08</v>
+        <v>26.11</v>
       </c>
       <c r="T132" s="5" t="n"/>
     </row>
@@ -52769,30 +52803,30 @@
       <c r="J133" s="5" t="n"/>
       <c r="L133" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M133" s="7" t="inlineStr">
         <is>
-          <t>Hanna Fiva Øiestad</t>
+          <t>Henriette Collett-Østensen</t>
         </is>
       </c>
       <c r="N133" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O133" s="15" t="n">
-        <v>1.45</v>
+        <v>4.86</v>
       </c>
       <c r="P133" s="7" t="n">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="Q133" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R133" s="16" t="n">
-        <v>19.06</v>
+        <v>12.08</v>
       </c>
       <c r="T133" s="5" t="n"/>
     </row>
@@ -52846,7 +52880,7 @@
         </is>
       </c>
       <c r="P135" s="20" t="n">
-        <v>7513</v>
+        <v>7541</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -52886,7 +52920,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>15959</v>
+        <v>15987</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -52910,7 +52944,7 @@
         </is>
       </c>
       <c r="M139" s="20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -53129,18 +53163,18 @@
         <v>2007</v>
       </c>
       <c r="E150" s="15" t="n">
-        <v>8.130000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F150" s="7" t="n">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="G150" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H150" s="16" t="n">
-        <v>5.03</v>
+        <v>26.11</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="14" t="inlineStr">
@@ -53915,7 +53949,7 @@
         </is>
       </c>
       <c r="F164" s="20" t="n">
-        <v>8805</v>
+        <v>8808</v>
       </c>
       <c r="J164" s="5" t="n"/>
       <c r="L164" s="19" t="inlineStr">
@@ -54807,7 +54841,7 @@
         </is>
       </c>
       <c r="F184" s="20" t="n">
-        <v>15528</v>
+        <v>15531</v>
       </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="19" t="inlineStr">
@@ -58103,7 +58137,7 @@
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
@@ -58114,21 +58148,19 @@
       <c r="N266" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O266" s="17" t="inlineStr">
-        <is>
-          <t>1,05,46</t>
-        </is>
+      <c r="O266" s="15" t="n">
+        <v>28.79</v>
       </c>
       <c r="P266" s="7" t="n">
         <v>526</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>28.09</v>
+        <v>13.08</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
@@ -58163,7 +58195,7 @@
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
@@ -58174,19 +58206,21 @@
       <c r="N267" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O267" s="15" t="n">
-        <v>28.79</v>
+      <c r="O267" s="17" t="inlineStr">
+        <is>
+          <t>1,05,46</t>
+        </is>
       </c>
       <c r="P267" s="7" t="n">
         <v>526</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>13.08</v>
+        <v>28.09</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -60436,11 +60470,11 @@
       </c>
       <c r="Q321" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="R321" s="16" t="n">
-        <v>20.08</v>
+        <v>4.05</v>
       </c>
       <c r="T321" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23895</v>
+        <v>24267</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -3902,32 +3902,30 @@
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Are Flekke</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O68" s="17" t="inlineStr">
-        <is>
-          <t>21,20,2</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="O68" s="15" t="n">
+        <v>1.81</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>189</v>
+        <v>661</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Ostereidet</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>2.1</v>
+        <v>25.09</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
@@ -3962,7 +3960,7 @@
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
@@ -3974,18 +3972,18 @@
         <v>2000</v>
       </c>
       <c r="O69" s="15" t="n">
-        <v>1.81</v>
+        <v>6.92</v>
       </c>
       <c r="P69" s="7" t="n">
-        <v>661</v>
+        <v>810</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>25.09</v>
+        <v>26.08</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
@@ -4020,7 +4018,7 @@
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
@@ -4032,18 +4030,18 @@
         <v>2000</v>
       </c>
       <c r="O70" s="15" t="n">
-        <v>6.92</v>
+        <v>15.47</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>810</v>
+        <v>925</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>26.08</v>
+        <v>17.07</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -4078,30 +4076,30 @@
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Hayden Finne</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>15.47</v>
+        <v>1.4</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>925</v>
+        <v>561</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Bergen/Hø</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>17.07</v>
+        <v>30.11</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
@@ -4387,7 +4385,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12357</v>
+        <v>12729</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -5455,7 +5453,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23895</v>
+        <v>24267</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>22028</v>
+        <v>22061</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -10197,17 +10197,17 @@
       </c>
       <c r="M217" s="7" t="inlineStr">
         <is>
-          <t>Sander Dalbu</t>
+          <t>Sivert Moen</t>
         </is>
       </c>
       <c r="N217" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O217" s="15" t="n">
-        <v>7.39</v>
+        <v>7.36</v>
       </c>
       <c r="P217" s="7" t="n">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="Q217" s="7" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         </is>
       </c>
       <c r="R217" s="16" t="n">
-        <v>22.01</v>
+        <v>3.12</v>
       </c>
       <c r="T217" s="5" t="n"/>
     </row>
@@ -11103,7 +11103,7 @@
         </is>
       </c>
       <c r="P233" s="20" t="n">
-        <v>11675</v>
+        <v>11687</v>
       </c>
       <c r="T233" s="5" t="n"/>
     </row>
@@ -11716,32 +11716,30 @@
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Mathias Vanem Aas</t>
+          <t>Sivert Moen</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
         <v>2004</v>
       </c>
-      <c r="O246" s="17" t="inlineStr">
-        <is>
-          <t>8,44,39</t>
-        </is>
+      <c r="O246" s="15" t="n">
+        <v>22.86</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Sollentuna/SWE</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>29.01</v>
+        <v>3.12</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -11776,30 +11774,32 @@
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M247" s="7" t="inlineStr">
         <is>
-          <t>Sigve Brandtzæg Hårberg</t>
+          <t>Mathias Vanem Aas</t>
         </is>
       </c>
       <c r="N247" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O247" s="15" t="n">
-        <v>50.82</v>
+        <v>2004</v>
+      </c>
+      <c r="O247" s="17" t="inlineStr">
+        <is>
+          <t>8,44,39</t>
+        </is>
       </c>
       <c r="P247" s="7" t="n">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="Q247" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Sollentuna/SWE</t>
         </is>
       </c>
       <c r="R247" s="16" t="n">
-        <v>5.02</v>
+        <v>29.01</v>
       </c>
       <c r="T247" s="5" t="n"/>
     </row>
@@ -12143,7 +12143,7 @@
         </is>
       </c>
       <c r="P254" s="20" t="n">
-        <v>10353</v>
+        <v>10374</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -12183,7 +12183,7 @@
         </is>
       </c>
       <c r="P256" s="20" t="n">
-        <v>22028</v>
+        <v>22061</v>
       </c>
       <c r="T256" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>23356</v>
+        <v>23387</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -7487,25 +7487,25 @@
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Markus Le Fjeld</t>
+          <t>Sigmund Le Fjeld</t>
         </is>
       </c>
       <c r="D147" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>6.32</v>
+        <v>6.38</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="G147" s="7" t="inlineStr">
         <is>
-          <t>Västerås/SWE</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H147" s="16" t="n">
-        <v>31.07</v>
+        <v>3.12</v>
       </c>
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
@@ -7540,30 +7540,30 @@
     <row r="148" ht="13" customHeight="1">
       <c r="B148" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>Sondre Alexander Høyland</t>
+          <t>Markus Le Fjeld</t>
         </is>
       </c>
       <c r="D148" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="E148" s="15" t="n">
-        <v>2.98</v>
+        <v>6.32</v>
       </c>
       <c r="F148" s="7" t="n">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="G148" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Västerås/SWE</t>
         </is>
       </c>
       <c r="H148" s="16" t="n">
-        <v>12.02</v>
+        <v>31.07</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>11746</v>
+        <v>11777</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -7668,7 +7668,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>23356</v>
+        <v>23387</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -30660,7 +30660,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>26236</v>
+        <v>26293</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>24080</v>
+        <v>24089</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -31932,18 +31932,18 @@
         <v>2002</v>
       </c>
       <c r="E20" s="15" t="n">
-        <v>5.56</v>
+        <v>5.81</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>742</v>
+        <v>799</v>
       </c>
       <c r="G20" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>US Air Force Academy/CO/USA</t>
         </is>
       </c>
       <c r="H20" s="16" t="n">
-        <v>6.02</v>
+        <v>2.12</v>
       </c>
       <c r="J20" s="5" t="n"/>
       <c r="L20" s="14" t="inlineStr">
@@ -32182,7 +32182,7 @@
         </is>
       </c>
       <c r="F25" s="20" t="n">
-        <v>13776</v>
+        <v>13833</v>
       </c>
       <c r="J25" s="5" t="n"/>
       <c r="L25" s="19" t="inlineStr">
@@ -32750,32 +32750,30 @@
       <c r="J37" s="5" t="n"/>
       <c r="L37" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M37" s="7" t="inlineStr">
         <is>
-          <t>Vienna Søyland Dahle</t>
+          <t>Nora Haugen</t>
         </is>
       </c>
       <c r="N37" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="O37" s="17" t="inlineStr">
-        <is>
-          <t>4,28,80</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O37" s="15" t="n">
+        <v>25.03</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="Q37" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Staten Island/NY/USA</t>
         </is>
       </c>
       <c r="R37" s="16" t="n">
-        <v>13.07</v>
+        <v>3.12</v>
       </c>
       <c r="T37" s="5" t="n"/>
     </row>
@@ -32812,30 +32810,32 @@
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M38" s="7" t="inlineStr">
         <is>
-          <t>Live Haugstad Hilton</t>
+          <t>Vienna Søyland Dahle</t>
         </is>
       </c>
       <c r="N38" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O38" s="15" t="n">
-        <v>5.8</v>
+        <v>1992</v>
+      </c>
+      <c r="O38" s="17" t="inlineStr">
+        <is>
+          <t>4,28,80</t>
+        </is>
       </c>
       <c r="P38" s="7" t="n">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="Q38" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R38" s="16" t="n">
-        <v>25.06</v>
+        <v>13.07</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -32872,30 +32872,30 @@
       <c r="J39" s="5" t="n"/>
       <c r="L39" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M39" s="7" t="inlineStr">
         <is>
-          <t>Nora Haugen</t>
+          <t>Live Haugstad Hilton</t>
         </is>
       </c>
       <c r="N39" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O39" s="15" t="n">
-        <v>25.14</v>
+        <v>5.8</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q39" s="7" t="inlineStr">
         <is>
-          <t>Ås</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R39" s="16" t="n">
-        <v>5.06</v>
+        <v>25.06</v>
       </c>
       <c r="T39" s="5" t="n"/>
     </row>
@@ -33239,7 +33239,7 @@
         </is>
       </c>
       <c r="P46" s="20" t="n">
-        <v>11801</v>
+        <v>11810</v>
       </c>
       <c r="T46" s="5" t="n"/>
     </row>
@@ -33262,7 +33262,7 @@
         </is>
       </c>
       <c r="F48" s="20" t="n">
-        <v>26236</v>
+        <v>26293</v>
       </c>
       <c r="J48" s="5" t="n"/>
       <c r="L48" s="19" t="inlineStr">
@@ -33279,7 +33279,7 @@
         </is>
       </c>
       <c r="P48" s="20" t="n">
-        <v>24080</v>
+        <v>24089</v>
       </c>
       <c r="T48" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -791,25 +791,25 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>22645</v>
+        <v>22975</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(2/2d)</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -819,25 +819,25 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>Tønsberg Friidrettsklubb</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>22489</v>
+        <v>22645</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>(2/2d)</t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="P158" s="8" t="n">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="M159" s="7" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="T159" s="5" t="n"/>
@@ -7949,25 +7949,25 @@
       </c>
       <c r="M165" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Berntsen</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="N165" s="7" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="O165" s="15" t="n">
-        <v>7.02</v>
+        <v>6.81</v>
       </c>
       <c r="P165" s="7" t="n">
-        <v>854</v>
+        <v>954</v>
       </c>
       <c r="Q165" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R165" s="16" t="n">
-        <v>5.03</v>
+        <v>21.01</v>
       </c>
       <c r="T165" s="5" t="n"/>
     </row>
@@ -8007,25 +8007,25 @@
       </c>
       <c r="M166" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Berntsen</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="N166" s="7" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="O166" s="15" t="n">
-        <v>10.86</v>
+        <v>10.45</v>
       </c>
       <c r="P166" s="7" t="n">
-        <v>878</v>
+        <v>991</v>
       </c>
       <c r="Q166" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R166" s="16" t="n">
-        <v>12.08</v>
+        <v>7.08</v>
       </c>
       <c r="T166" s="5" t="n"/>
     </row>
@@ -8065,25 +8065,25 @@
       </c>
       <c r="M167" s="7" t="inlineStr">
         <is>
-          <t>Henrik Flåtnes</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="N167" s="7" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="O167" s="15" t="n">
-        <v>21.76</v>
+        <v>20.71</v>
       </c>
       <c r="P167" s="7" t="n">
-        <v>889</v>
+        <v>1024</v>
       </c>
       <c r="Q167" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>La Chaux-de-Fonds/SUI</t>
         </is>
       </c>
       <c r="R167" s="16" t="n">
-        <v>21.01</v>
+        <v>3.07</v>
       </c>
       <c r="T167" s="5" t="n"/>
     </row>
@@ -8118,32 +8118,30 @@
       <c r="J168" s="5" t="n"/>
       <c r="L168" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M168" s="7" t="inlineStr">
         <is>
-          <t>Oliver Andersen Vedvik</t>
+          <t>Daniel Nikolai Pedersen</t>
         </is>
       </c>
       <c r="N168" s="7" t="n">
         <v>1998</v>
       </c>
-      <c r="O168" s="17" t="inlineStr">
-        <is>
-          <t>1,52,67</t>
-        </is>
+      <c r="O168" s="15" t="n">
+        <v>51.3</v>
       </c>
       <c r="P168" s="7" t="n">
-        <v>848</v>
+        <v>720</v>
       </c>
       <c r="Q168" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R168" s="16" t="n">
-        <v>30.06</v>
+        <v>20.08</v>
       </c>
       <c r="T168" s="5" t="n"/>
     </row>
@@ -8180,32 +8178,32 @@
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>Oliver Andersen Vedvik</t>
+          <t>Erik Tangen Gundersen</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="O169" s="17" t="inlineStr">
         <is>
-          <t>3,53,11</t>
+          <t>2,03,30</t>
         </is>
       </c>
       <c r="P169" s="7" t="n">
-        <v>830</v>
+        <v>627</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>24.06</v>
+        <v>5.03</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
@@ -8242,32 +8240,32 @@
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M170" s="7" t="inlineStr">
         <is>
-          <t>Oliver Andersen Vedvik</t>
+          <t>Erik Tangen Gundersen</t>
         </is>
       </c>
       <c r="N170" s="7" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="O170" s="17" t="inlineStr">
         <is>
-          <t>14,07,15</t>
+          <t>3,55,88</t>
         </is>
       </c>
       <c r="P170" s="7" t="n">
-        <v>900</v>
+        <v>801</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R170" s="16" t="n">
-        <v>21.05</v>
+        <v>4.03</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -8304,30 +8302,32 @@
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>August Høgvold</t>
+          <t>Zerei Kbrom Mezngi</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O171" s="15" t="n">
-        <v>1.8</v>
+        <v>1986</v>
+      </c>
+      <c r="O171" s="17" t="inlineStr">
+        <is>
+          <t>7,49,21</t>
+        </is>
       </c>
       <c r="P171" s="7" t="n">
-        <v>652</v>
+        <v>1010</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>11.09</v>
+        <v>30.07</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
@@ -8364,30 +8364,32 @@
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Morten Husebø Hestnes</t>
+          <t>Zerei Kbrom Mezngi</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O172" s="15" t="n">
-        <v>3.2</v>
+        <v>1986</v>
+      </c>
+      <c r="O172" s="17" t="inlineStr">
+        <is>
+          <t>14,15,85</t>
+        </is>
       </c>
       <c r="P172" s="7" t="n">
-        <v>547</v>
+        <v>878</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>31.08</v>
+        <v>24.06</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
@@ -8424,30 +8426,32 @@
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Henrik Flåtnes</t>
+          <t>Zerei Kbrom Mezngi</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O173" s="15" t="n">
-        <v>7.89</v>
+        <v>1986</v>
+      </c>
+      <c r="O173" s="17" t="inlineStr">
+        <is>
+          <t>27,46,94</t>
+        </is>
       </c>
       <c r="P173" s="7" t="n">
-        <v>1009</v>
+        <v>1043</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>München/GER</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>14.05</v>
+        <v>21.08</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
@@ -8484,30 +8488,32 @@
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>3000m hinder</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Henrik Flåtnes</t>
+          <t>Nikolai Gundersen</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O174" s="15" t="n">
-        <v>15.67</v>
+        <v>2003</v>
+      </c>
+      <c r="O174" s="17" t="inlineStr">
+        <is>
+          <t>10,05,02</t>
+        </is>
       </c>
       <c r="P174" s="7" t="n">
-        <v>945</v>
+        <v>644</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>5.02</v>
+        <v>1.06</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
@@ -8542,30 +8548,30 @@
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Sondre Evensen</t>
+          <t>Philip Kauffmann</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>3</v>
+        <v>5.62</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>672</v>
+        <v>519</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>6.02</v>
+        <v>10.09</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
@@ -8600,30 +8606,30 @@
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Iver Hytten</t>
+          <t>Mathias Hove Johansen</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>1966</v>
+        <v>1998</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>12.83</v>
+        <v>2.99</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>29.1</v>
+        <v>30.11</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -8658,30 +8664,30 @@
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Iver Hytten</t>
+          <t>Daniel Korhonen</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>1966</v>
+        <v>1976</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>39.72</v>
+        <v>12.78</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>29.1</v>
+        <v>7.09</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
@@ -8716,30 +8722,30 @@
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Øystein Solheim Hytten</t>
+          <t>Daniel Korhonen</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2004</v>
+        <v>1976</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>53</v>
+        <v>41.03</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>791</v>
+        <v>704</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Aremark</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>23.04</v>
+        <v>7.09</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -8774,30 +8780,30 @@
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Øystein Solheim Hytten</t>
+          <t>Daniel Korhonen</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2004</v>
+        <v>1976</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>43.37</v>
+        <v>50.04</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>535</v>
+        <v>753</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>25.09</v>
+        <v>5.07</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -8851,7 +8857,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11685</v>
+        <v>11986</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -8984,30 +8990,32 @@
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M186" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Berntsen</t>
+          <t>Erik Tangen Gundersen</t>
         </is>
       </c>
       <c r="N186" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O186" s="15" t="n">
-        <v>7.38</v>
+        <v>2001</v>
+      </c>
+      <c r="O186" s="17" t="inlineStr">
+        <is>
+          <t>14,18,40</t>
+        </is>
       </c>
       <c r="P186" s="7" t="n">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="Q186" s="7" t="inlineStr">
         <is>
-          <t>Jerusalem/ISR</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R186" s="16" t="n">
-        <v>5.07</v>
+        <v>21.05</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -9049,25 +9057,25 @@
       </c>
       <c r="M187" s="7" t="inlineStr">
         <is>
-          <t>Henrik Flåtnes</t>
+          <t>Simen Tjelta Larsen</t>
         </is>
       </c>
       <c r="N187" s="7" t="n">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="O187" s="15" t="n">
-        <v>10.89</v>
+        <v>10.9</v>
       </c>
       <c r="P187" s="7" t="n">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="Q187" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R187" s="16" t="n">
-        <v>14.05</v>
+        <v>24.06</v>
       </c>
       <c r="T187" s="5" t="n"/>
     </row>
@@ -9104,30 +9112,32 @@
       <c r="J188" s="5" t="n"/>
       <c r="L188" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M188" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Berntsen</t>
+          <t>Erik Tangen Gundersen</t>
         </is>
       </c>
       <c r="N188" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O188" s="15" t="n">
-        <v>21.97</v>
+        <v>2001</v>
+      </c>
+      <c r="O188" s="17" t="inlineStr">
+        <is>
+          <t>8,22,65</t>
+        </is>
       </c>
       <c r="P188" s="7" t="n">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="Q188" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R188" s="16" t="n">
-        <v>14.08</v>
+        <v>11.05</v>
       </c>
       <c r="T188" s="5" t="n"/>
     </row>
@@ -9164,30 +9174,30 @@
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M189" s="7" t="inlineStr">
         <is>
-          <t>Henrik Flåtnes</t>
+          <t>Simen Tjelta Larsen</t>
         </is>
       </c>
       <c r="N189" s="7" t="n">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="O189" s="15" t="n">
-        <v>7.1</v>
+        <v>22.17</v>
       </c>
       <c r="P189" s="7" t="n">
-        <v>819</v>
+        <v>841</v>
       </c>
       <c r="Q189" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R189" s="16" t="n">
-        <v>21.01</v>
+        <v>25.06</v>
       </c>
       <c r="T189" s="5" t="n"/>
     </row>
@@ -9229,25 +9239,25 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Henrik Duncan</t>
+          <t>Erik Steinsland</t>
         </is>
       </c>
       <c r="N190" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="O190" s="15" t="n">
-        <v>11.09</v>
+        <v>11.07</v>
       </c>
       <c r="P190" s="7" t="n">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="Q190" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R190" s="16" t="n">
-        <v>12.06</v>
+        <v>26.08</v>
       </c>
       <c r="T190" s="5" t="n"/>
     </row>
@@ -9284,12 +9294,12 @@
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Håvard Skovly</t>
+          <t>Nikolai Gundersen</t>
         </is>
       </c>
       <c r="N191" s="7" t="n">
@@ -9297,19 +9307,19 @@
       </c>
       <c r="O191" s="17" t="inlineStr">
         <is>
-          <t>1,55,09</t>
+          <t>8,34,33</t>
         </is>
       </c>
       <c r="P191" s="7" t="n">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="Q191" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R191" s="16" t="n">
-        <v>21.05</v>
+        <v>26.02</v>
       </c>
       <c r="T191" s="5" t="n"/>
     </row>
@@ -9346,30 +9356,32 @@
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M192" s="7" t="inlineStr">
         <is>
-          <t>Henrik Duncan</t>
+          <t>Nikolai Gundersen</t>
         </is>
       </c>
       <c r="N192" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="O192" s="15" t="n">
-        <v>22.62</v>
+      <c r="O192" s="17" t="inlineStr">
+        <is>
+          <t>14,53,13</t>
+        </is>
       </c>
       <c r="P192" s="7" t="n">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="Q192" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R192" s="16" t="n">
-        <v>29.05</v>
+        <v>28.08</v>
       </c>
       <c r="T192" s="5" t="n"/>
     </row>
@@ -9406,30 +9418,30 @@
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M193" s="7" t="inlineStr">
         <is>
-          <t>Henrik Duncan</t>
+          <t>Oscar Alm Harestad</t>
         </is>
       </c>
       <c r="N193" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="O193" s="15" t="n">
-        <v>7.24</v>
+        <v>11.25</v>
       </c>
       <c r="P193" s="7" t="n">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="Q193" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R193" s="16" t="n">
-        <v>5.03</v>
+        <v>31.07</v>
       </c>
       <c r="T193" s="5" t="n"/>
     </row>
@@ -9466,30 +9478,30 @@
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M194" s="7" t="inlineStr">
         <is>
-          <t>Henrik Duncan</t>
+          <t>Erik Steinsland</t>
         </is>
       </c>
       <c r="N194" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="O194" s="15" t="n">
-        <v>3</v>
+        <v>7.23</v>
       </c>
       <c r="P194" s="7" t="n">
-        <v>672</v>
+        <v>764</v>
       </c>
       <c r="Q194" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R194" s="16" t="n">
-        <v>1.1</v>
+        <v>10.09</v>
       </c>
       <c r="T194" s="5" t="n"/>
     </row>
@@ -9526,30 +9538,30 @@
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Lucas Øverbakke Løn-Haakanes</t>
+          <t>Daniel Nikolai Pedersen</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="O195" s="15" t="n">
-        <v>11.79</v>
+        <v>22.93</v>
       </c>
       <c r="P195" s="7" t="n">
-        <v>655</v>
+        <v>756</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>12.06</v>
+        <v>31.07</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
@@ -9584,30 +9596,30 @@
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M196" s="7" t="inlineStr">
         <is>
-          <t>Øystein Solheim Hytten</t>
+          <t>Kåre O. Babajide Vedvik</t>
         </is>
       </c>
       <c r="N196" s="7" t="n">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="O196" s="15" t="n">
-        <v>12.59</v>
+        <v>2.96</v>
       </c>
       <c r="P196" s="7" t="n">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="Q196" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R196" s="16" t="n">
-        <v>15.1</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="T196" s="5" t="n"/>
     </row>
@@ -9642,30 +9654,30 @@
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Jacob Bergmann Abusdal</t>
+          <t>Erik Steinsland</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>24.27</v>
+        <v>2.88</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>17.06</v>
+        <v>30.11</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -9700,30 +9712,30 @@
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Lucas Øverbakke Løn-Haakanes</t>
+          <t>Mike Lubsen</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>24.31</v>
+        <v>2.82</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>618</v>
+        <v>572</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>14.08</v>
+        <v>30.11</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -9758,30 +9770,30 @@
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Jacob Bergmann Abusdal</t>
+          <t>Sergejs Kononovs</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>5.85</v>
+        <v>2.77</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>26.11</v>
+        <v>30.11</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -9816,26 +9828,26 @@
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Oddvar Viulsrød</t>
+          <t>Casper Lye Clausen</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>1964</v>
+        <v>2005</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>12.03</v>
+        <v>5.48</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>563</v>
+        <v>486</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Braga/POR</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
@@ -9893,7 +9905,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>10960</v>
+        <v>10989</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -9933,7 +9945,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>22645</v>
+        <v>22975</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -9957,7 +9969,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -9999,7 +10011,7 @@
       </c>
       <c r="C210" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Vestfold</t>
         </is>
       </c>
       <c r="F210" s="8" t="n">
@@ -10029,7 +10041,7 @@
       </c>
       <c r="C211" s="7" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>Tønsberg Friidrettsklubb</t>
         </is>
       </c>
       <c r="J211" s="5" t="n"/>
@@ -10169,25 +10181,25 @@
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Sebastian Berntsen</t>
         </is>
       </c>
       <c r="D217" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E217" s="15" t="n">
-        <v>6.81</v>
+        <v>7.02</v>
       </c>
       <c r="F217" s="7" t="n">
-        <v>954</v>
+        <v>854</v>
       </c>
       <c r="G217" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H217" s="16" t="n">
-        <v>21.01</v>
+        <v>5.03</v>
       </c>
       <c r="J217" s="5" t="n"/>
       <c r="L217" s="14" t="inlineStr">
@@ -10227,25 +10239,25 @@
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Sebastian Berntsen</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E218" s="15" t="n">
-        <v>10.45</v>
+        <v>10.86</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>991</v>
+        <v>878</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>7.08</v>
+        <v>12.08</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
@@ -10285,25 +10297,25 @@
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Henrik Flåtnes</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>20.71</v>
+        <v>21.76</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>1024</v>
+        <v>889</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>La Chaux-de-Fonds/SUI</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>3.07</v>
+        <v>21.01</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
@@ -10338,30 +10350,32 @@
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Daniel Nikolai Pedersen</t>
+          <t>Oliver Andersen Vedvik</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
         <v>1998</v>
       </c>
-      <c r="E220" s="15" t="n">
-        <v>51.3</v>
+      <c r="E220" s="17" t="inlineStr">
+        <is>
+          <t>1,52,67</t>
+        </is>
       </c>
       <c r="F220" s="7" t="n">
-        <v>720</v>
+        <v>848</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>20.08</v>
+        <v>30.06</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
@@ -10396,32 +10410,32 @@
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Erik Tangen Gundersen</t>
+          <t>Oliver Andersen Vedvik</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E221" s="17" t="inlineStr">
         <is>
-          <t>2,03,30</t>
+          <t>3,53,11</t>
         </is>
       </c>
       <c r="F221" s="7" t="n">
-        <v>627</v>
+        <v>830</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>5.03</v>
+        <v>24.06</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
@@ -10458,32 +10472,32 @@
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Erik Tangen Gundersen</t>
+          <t>Oliver Andersen Vedvik</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E222" s="17" t="inlineStr">
         <is>
-          <t>3,55,88</t>
+          <t>14,07,15</t>
         </is>
       </c>
       <c r="F222" s="7" t="n">
-        <v>801</v>
+        <v>900</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>4.03</v>
+        <v>21.05</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
@@ -10520,32 +10534,30 @@
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Zerei Kbrom Mezngi</t>
+          <t>August Høgvold</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E223" s="17" t="inlineStr">
-        <is>
-          <t>7,49,21</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E223" s="15" t="n">
+        <v>1.8</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>1010</v>
+        <v>652</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>30.07</v>
+        <v>11.09</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
@@ -10582,32 +10594,30 @@
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Zerei Kbrom Mezngi</t>
+          <t>Morten Husebø Hestnes</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E224" s="17" t="inlineStr">
-        <is>
-          <t>14,15,85</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E224" s="15" t="n">
+        <v>3.2</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>878</v>
+        <v>547</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>24.06</v>
+        <v>31.08</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
@@ -10644,32 +10654,30 @@
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Zerei Kbrom Mezngi</t>
+          <t>Henrik Flåtnes</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E225" s="17" t="inlineStr">
-        <is>
-          <t>27,46,94</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E225" s="15" t="n">
+        <v>7.89</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>1043</v>
+        <v>1009</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>München/GER</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>21.08</v>
+        <v>14.05</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
@@ -10706,32 +10714,30 @@
     <row r="226" ht="13" customHeight="1">
       <c r="B226" s="14" t="inlineStr">
         <is>
-          <t>3000m hinder</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>Nikolai Gundersen</t>
+          <t>Henrik Flåtnes</t>
         </is>
       </c>
       <c r="D226" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E226" s="17" t="inlineStr">
-        <is>
-          <t>10,05,02</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E226" s="15" t="n">
+        <v>15.67</v>
       </c>
       <c r="F226" s="7" t="n">
-        <v>644</v>
+        <v>945</v>
       </c>
       <c r="G226" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H226" s="16" t="n">
-        <v>1.06</v>
+        <v>5.02</v>
       </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="inlineStr">
@@ -10766,30 +10772,30 @@
     <row r="227" ht="13" customHeight="1">
       <c r="B227" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Philip Kauffmann</t>
+          <t>Sondre Evensen</t>
         </is>
       </c>
       <c r="D227" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E227" s="15" t="n">
-        <v>5.62</v>
+        <v>3</v>
       </c>
       <c r="F227" s="7" t="n">
-        <v>519</v>
+        <v>672</v>
       </c>
       <c r="G227" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H227" s="16" t="n">
-        <v>10.09</v>
+        <v>6.02</v>
       </c>
       <c r="J227" s="5" t="n"/>
       <c r="L227" s="14" t="inlineStr">
@@ -10824,30 +10830,30 @@
     <row r="228" ht="13" customHeight="1">
       <c r="B228" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>Mathias Hove Johansen</t>
+          <t>Iver Hytten</t>
         </is>
       </c>
       <c r="D228" s="7" t="n">
-        <v>1998</v>
+        <v>1966</v>
       </c>
       <c r="E228" s="15" t="n">
-        <v>2.97</v>
+        <v>12.83</v>
       </c>
       <c r="F228" s="7" t="n">
         <v>655</v>
       </c>
       <c r="G228" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H228" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>29.1</v>
       </c>
       <c r="J228" s="5" t="n"/>
       <c r="L228" s="14" t="inlineStr">
@@ -10882,30 +10888,30 @@
     <row r="229" ht="13" customHeight="1">
       <c r="B229" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C229" s="7" t="inlineStr">
         <is>
-          <t>Daniel Korhonen</t>
+          <t>Iver Hytten</t>
         </is>
       </c>
       <c r="D229" s="7" t="n">
-        <v>1976</v>
+        <v>1966</v>
       </c>
       <c r="E229" s="15" t="n">
-        <v>12.78</v>
+        <v>39.72</v>
       </c>
       <c r="F229" s="7" t="n">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="G229" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H229" s="16" t="n">
-        <v>7.09</v>
+        <v>29.1</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="14" t="inlineStr">
@@ -10940,30 +10946,30 @@
     <row r="230" ht="13" customHeight="1">
       <c r="B230" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C230" s="7" t="inlineStr">
         <is>
-          <t>Daniel Korhonen</t>
+          <t>Øystein Solheim Hytten</t>
         </is>
       </c>
       <c r="D230" s="7" t="n">
-        <v>1976</v>
+        <v>2004</v>
       </c>
       <c r="E230" s="15" t="n">
-        <v>41.03</v>
+        <v>53</v>
       </c>
       <c r="F230" s="7" t="n">
-        <v>704</v>
+        <v>791</v>
       </c>
       <c r="G230" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Aremark</t>
         </is>
       </c>
       <c r="H230" s="16" t="n">
-        <v>7.09</v>
+        <v>23.04</v>
       </c>
       <c r="J230" s="5" t="n"/>
       <c r="L230" s="14" t="inlineStr">
@@ -10998,30 +11004,30 @@
     <row r="231" ht="13" customHeight="1">
       <c r="B231" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C231" s="7" t="inlineStr">
         <is>
-          <t>Daniel Korhonen</t>
+          <t>Øystein Solheim Hytten</t>
         </is>
       </c>
       <c r="D231" s="7" t="n">
-        <v>1976</v>
+        <v>2004</v>
       </c>
       <c r="E231" s="15" t="n">
-        <v>50.04</v>
+        <v>43.37</v>
       </c>
       <c r="F231" s="7" t="n">
-        <v>753</v>
+        <v>535</v>
       </c>
       <c r="G231" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="H231" s="16" t="n">
-        <v>5.07</v>
+        <v>25.09</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="14" t="inlineStr">
@@ -11086,7 +11092,7 @@
         </is>
       </c>
       <c r="F233" s="20" t="n">
-        <v>11975</v>
+        <v>11685</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -11206,32 +11212,30 @@
     <row r="238" ht="13" customHeight="1">
       <c r="B238" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Erik Tangen Gundersen</t>
+          <t>Sebastian Berntsen</t>
         </is>
       </c>
       <c r="D238" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E238" s="17" t="inlineStr">
-        <is>
-          <t>14,18,40</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E238" s="15" t="n">
+        <v>7.38</v>
       </c>
       <c r="F238" s="7" t="n">
-        <v>872</v>
+        <v>907</v>
       </c>
       <c r="G238" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Jerusalem/ISR</t>
         </is>
       </c>
       <c r="H238" s="16" t="n">
-        <v>21.05</v>
+        <v>5.07</v>
       </c>
       <c r="J238" s="5" t="n"/>
       <c r="L238" s="14" t="inlineStr">
@@ -11273,25 +11277,25 @@
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>Simen Tjelta Larsen</t>
+          <t>Henrik Flåtnes</t>
         </is>
       </c>
       <c r="D239" s="7" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="E239" s="15" t="n">
-        <v>10.9</v>
+        <v>10.89</v>
       </c>
       <c r="F239" s="7" t="n">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="G239" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H239" s="16" t="n">
-        <v>24.06</v>
+        <v>14.05</v>
       </c>
       <c r="J239" s="5" t="n"/>
       <c r="L239" s="14" t="inlineStr">
@@ -11328,32 +11332,30 @@
     <row r="240" ht="13" customHeight="1">
       <c r="B240" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>Erik Tangen Gundersen</t>
+          <t>Sebastian Berntsen</t>
         </is>
       </c>
       <c r="D240" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="E240" s="17" t="inlineStr">
-        <is>
-          <t>8,22,65</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E240" s="15" t="n">
+        <v>21.97</v>
       </c>
       <c r="F240" s="7" t="n">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="G240" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H240" s="16" t="n">
-        <v>11.05</v>
+        <v>14.08</v>
       </c>
       <c r="J240" s="5" t="n"/>
       <c r="L240" s="14" t="inlineStr">
@@ -11390,30 +11392,30 @@
     <row r="241" ht="13" customHeight="1">
       <c r="B241" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>Simen Tjelta Larsen</t>
+          <t>Henrik Flåtnes</t>
         </is>
       </c>
       <c r="D241" s="7" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="E241" s="15" t="n">
-        <v>22.17</v>
+        <v>7.1</v>
       </c>
       <c r="F241" s="7" t="n">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="G241" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H241" s="16" t="n">
-        <v>25.06</v>
+        <v>21.01</v>
       </c>
       <c r="J241" s="5" t="n"/>
       <c r="L241" s="14" t="inlineStr">
@@ -11455,25 +11457,25 @@
       </c>
       <c r="C242" s="7" t="inlineStr">
         <is>
-          <t>Erik Steinsland</t>
+          <t>Henrik Duncan</t>
         </is>
       </c>
       <c r="D242" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E242" s="15" t="n">
-        <v>11.07</v>
+        <v>11.09</v>
       </c>
       <c r="F242" s="7" t="n">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G242" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H242" s="16" t="n">
-        <v>26.08</v>
+        <v>12.06</v>
       </c>
       <c r="J242" s="5" t="n"/>
       <c r="L242" s="14" t="inlineStr">
@@ -11508,12 +11510,12 @@
     <row r="243" ht="13" customHeight="1">
       <c r="B243" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>Nikolai Gundersen</t>
+          <t>Håvard Skovly</t>
         </is>
       </c>
       <c r="D243" s="7" t="n">
@@ -11521,19 +11523,19 @@
       </c>
       <c r="E243" s="17" t="inlineStr">
         <is>
-          <t>8,34,33</t>
+          <t>1,55,09</t>
         </is>
       </c>
       <c r="F243" s="7" t="n">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G243" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H243" s="16" t="n">
-        <v>26.02</v>
+        <v>21.05</v>
       </c>
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
@@ -11568,32 +11570,30 @@
     <row r="244" ht="13" customHeight="1">
       <c r="B244" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Nikolai Gundersen</t>
+          <t>Henrik Duncan</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="E244" s="17" t="inlineStr">
-        <is>
-          <t>14,53,13</t>
-        </is>
+      <c r="E244" s="15" t="n">
+        <v>22.62</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>28.08</v>
+        <v>29.05</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -11628,30 +11628,30 @@
     <row r="245" ht="13" customHeight="1">
       <c r="B245" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Oscar Alm Harestad</t>
+          <t>Henrik Duncan</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>11.25</v>
+        <v>7.24</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>31.07</v>
+        <v>5.03</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -11688,30 +11688,30 @@
     <row r="246" ht="13" customHeight="1">
       <c r="B246" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Erik Steinsland</t>
+          <t>Henrik Duncan</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E246" s="15" t="n">
-        <v>7.23</v>
+        <v>3</v>
       </c>
       <c r="F246" s="7" t="n">
-        <v>764</v>
+        <v>672</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>10.09</v>
+        <v>1.1</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -11746,30 +11746,30 @@
     <row r="247" ht="13" customHeight="1">
       <c r="B247" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Daniel Nikolai Pedersen</t>
+          <t>Lucas Øverbakke Løn-Haakanes</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="E247" s="15" t="n">
-        <v>22.93</v>
+        <v>11.79</v>
       </c>
       <c r="F247" s="7" t="n">
-        <v>756</v>
+        <v>655</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>31.07</v>
+        <v>12.06</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -11806,30 +11806,30 @@
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Kåre O. Babajide Vedvik</t>
+          <t>Øystein Solheim Hytten</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>1994</v>
+        <v>2004</v>
       </c>
       <c r="E248" s="15" t="n">
-        <v>2.96</v>
+        <v>12.59</v>
       </c>
       <c r="F248" s="7" t="n">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>8.029999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
@@ -11864,30 +11864,30 @@
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Casper Lye Clausen</t>
+          <t>Jacob Bergmann Abusdal</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E249" s="15" t="n">
-        <v>5.48</v>
+        <v>24.27</v>
       </c>
       <c r="F249" s="7" t="n">
-        <v>486</v>
+        <v>622</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>24.02</v>
+        <v>17.06</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
@@ -11922,30 +11922,30 @@
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Andreas Nesse</t>
+          <t>Lucas Øverbakke Løn-Haakanes</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E250" s="15" t="n">
-        <v>35.96</v>
+        <v>24.31</v>
       </c>
       <c r="F250" s="7" t="n">
-        <v>426</v>
+        <v>618</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>19.05</v>
+        <v>14.08</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
@@ -11980,22 +11980,22 @@
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Theodor Volline Nessler</t>
+          <t>Jacob Bergmann Abusdal</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>2.56</v>
+        <v>5.85</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>412</v>
+        <v>572</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>12.02</v>
+        <v>26.11</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -12038,30 +12038,30 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Casper Lye Clausen</t>
+          <t>Oddvar Viulsrød</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2005</v>
+        <v>1964</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>1.55</v>
+        <v>12.03</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>408</v>
+        <v>563</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Braga/POR</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>19.05</v>
+        <v>24.02</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -12126,7 +12126,7 @@
         </is>
       </c>
       <c r="F254" s="20" t="n">
-        <v>10514</v>
+        <v>10960</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="19" t="inlineStr">
@@ -12166,7 +12166,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>22489</v>
+        <v>22645</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -12198,7 +12198,7 @@
         </is>
       </c>
       <c r="C258" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -16725,11 +16725,11 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>(22/15)</t>
+          <t>(22/14)</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>18288</v>
+        <v>18373</v>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
@@ -17338,25 +17338,25 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Simen Nordheim Berg</t>
+          <t>Sondre Guttormsen</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>7.01</v>
+        <v>6.98</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>859</v>
+        <v>872</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Princeton/NJ/USA</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>12.02</v>
+        <v>10.12</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -18120,7 +18120,7 @@
         </is>
       </c>
       <c r="P23" s="20" t="n">
-        <v>10759</v>
+        <v>10772</v>
       </c>
       <c r="T23" s="5" t="n"/>
     </row>
@@ -18309,7 +18309,7 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
@@ -18321,18 +18321,18 @@
         <v>2003</v>
       </c>
       <c r="O29" s="15" t="n">
-        <v>22.15</v>
+        <v>7.01</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>6.03</v>
+        <v>12.02</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -18367,32 +18367,30 @@
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Sjur Prestsæter</t>
+          <t>Simen Nordheim Berg</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>1990</v>
-      </c>
-      <c r="O30" s="17" t="inlineStr">
-        <is>
-          <t>8,25,33</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O30" s="15" t="n">
+        <v>22.15</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R30" s="16" t="n">
-        <v>5.08</v>
+        <v>6.03</v>
       </c>
       <c r="T30" s="5" t="n"/>
     </row>
@@ -18432,27 +18430,27 @@
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Sander Dybwad Mathiesen</t>
+          <t>Sjur Prestsæter</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2003</v>
+        <v>1990</v>
       </c>
       <c r="O31" s="17" t="inlineStr">
         <is>
-          <t>8,27,09</t>
+          <t>8,25,33</t>
         </is>
       </c>
       <c r="P31" s="7" t="n">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>12.08</v>
+        <v>5.08</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -18487,32 +18485,32 @@
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Andreas Myhre Sjurseth</t>
+          <t>Sander Dybwad Mathiesen</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>1985</v>
+        <v>2003</v>
       </c>
       <c r="O32" s="17" t="inlineStr">
         <is>
-          <t>31,00,02</t>
+          <t>8,27,09</t>
         </is>
       </c>
       <c r="P32" s="7" t="n">
-        <v>799</v>
+        <v>827</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>2.06</v>
+        <v>12.08</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -18547,32 +18545,32 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Ulrik Hovig</t>
+          <t>Andreas Myhre Sjurseth</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="O33" s="17" t="inlineStr">
         <is>
-          <t>3,56,88</t>
+          <t>31,00,02</t>
         </is>
       </c>
       <c r="P33" s="7" t="n">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>24.06</v>
+        <v>2.06</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -18612,27 +18610,27 @@
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Theodor Berre Jacobsen</t>
+          <t>Ulrik Hovig</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="O34" s="17" t="inlineStr">
         <is>
-          <t>3,57,03</t>
+          <t>3,56,88</t>
         </is>
       </c>
       <c r="P34" s="7" t="n">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>27.08</v>
+        <v>24.06</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -18667,22 +18665,24 @@
       <c r="J35" s="5" t="n"/>
       <c r="L35" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M35" s="7" t="inlineStr">
         <is>
-          <t>Emiliano Storm Røgeberg-Ortiz</t>
+          <t>Theodor Berre Jacobsen</t>
         </is>
       </c>
       <c r="N35" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O35" s="15" t="n">
-        <v>11.21</v>
+        <v>2001</v>
+      </c>
+      <c r="O35" s="17" t="inlineStr">
+        <is>
+          <t>3,57,03</t>
+        </is>
       </c>
       <c r="P35" s="7" t="n">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="Q35" s="7" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         </is>
       </c>
       <c r="R35" s="16" t="n">
-        <v>26.08</v>
+        <v>27.08</v>
       </c>
       <c r="T35" s="5" t="n"/>
     </row>
@@ -18725,32 +18725,30 @@
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M36" s="7" t="inlineStr">
         <is>
-          <t>Fredrik Sætran</t>
+          <t>Emiliano Storm Røgeberg-Ortiz</t>
         </is>
       </c>
       <c r="N36" s="7" t="n">
-        <v>1993</v>
-      </c>
-      <c r="O36" s="17" t="inlineStr">
-        <is>
-          <t>14,53,64</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O36" s="15" t="n">
+        <v>11.21</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="Q36" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R36" s="16" t="n">
-        <v>13.07</v>
+        <v>26.08</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -18918,7 +18916,7 @@
         </is>
       </c>
       <c r="P41" s="20" t="n">
-        <v>7529</v>
+        <v>7601</v>
       </c>
       <c r="T41" s="5" t="n"/>
     </row>
@@ -18958,7 +18956,7 @@
         </is>
       </c>
       <c r="P43" s="20" t="n">
-        <v>18288</v>
+        <v>18373</v>
       </c>
       <c r="T43" s="5" t="n"/>
     </row>
@@ -18982,7 +18980,7 @@
         </is>
       </c>
       <c r="M45" s="20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T45" s="5" t="n"/>
     </row>
@@ -46929,7 +46927,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>15188</v>
+        <v>15242</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -53182,17 +53180,17 @@
       </c>
       <c r="M150" s="7" t="inlineStr">
         <is>
-          <t>Signe Kristine Kjerulf Grenersen</t>
+          <t>Vega Drangfelt</t>
         </is>
       </c>
       <c r="N150" s="7" t="n">
         <v>2006</v>
       </c>
       <c r="O150" s="15" t="n">
-        <v>8.5</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="P150" s="7" t="n">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="Q150" s="7" t="inlineStr">
         <is>
@@ -53200,7 +53198,7 @@
         </is>
       </c>
       <c r="R150" s="16" t="n">
-        <v>28.03</v>
+        <v>5.12</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -53964,7 +53962,7 @@
         </is>
       </c>
       <c r="P164" s="20" t="n">
-        <v>8199</v>
+        <v>8209</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -54213,30 +54211,30 @@
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Signe Kristine Kjerulf Grenersen</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O171" s="15" t="n">
-        <v>27.82</v>
+        <v>8.5</v>
       </c>
       <c r="P171" s="7" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>13.08</v>
+        <v>28.03</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
@@ -54271,30 +54269,30 @@
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Signe Kristine Kjerulf Grenersen</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O172" s="15" t="n">
-        <v>13.56</v>
+        <v>27.82</v>
       </c>
       <c r="P172" s="7" t="n">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>11.06</v>
+        <v>13.08</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
@@ -54329,7 +54327,7 @@
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
@@ -54341,18 +54339,18 @@
         <v>2006</v>
       </c>
       <c r="O173" s="15" t="n">
-        <v>4.81</v>
+        <v>13.56</v>
       </c>
       <c r="P173" s="7" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>5.06</v>
+        <v>11.06</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
@@ -54387,30 +54385,30 @@
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Ingeborg Marie Kjerulf Grenersen</t>
+          <t>Signe Kristine Kjerulf Grenersen</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O174" s="15" t="n">
-        <v>8.57</v>
+        <v>4.81</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>28.03</v>
+        <v>5.06</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
@@ -54450,25 +54448,25 @@
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Tilde Mosli</t>
+          <t>Ingeborg Marie Kjerulf Grenersen</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>8.6</v>
+        <v>8.57</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>11.06</v>
+        <v>28.03</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
@@ -54503,32 +54501,30 @@
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Astrid Elida Vaeng Bernhardsen</t>
+          <t>Tilde Mosli</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O176" s="17" t="inlineStr">
-        <is>
-          <t>5,09,09</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O176" s="15" t="n">
+        <v>8.6</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Narvik</t>
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>10.09</v>
+        <v>11.06</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
@@ -54563,30 +54559,32 @@
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Signe Kristine Kjerulf Grenersen</t>
+          <t>Astrid Elida Vaeng Bernhardsen</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="O177" s="15" t="n">
-        <v>1.45</v>
+      <c r="O177" s="17" t="inlineStr">
+        <is>
+          <t>5,09,09</t>
+        </is>
       </c>
       <c r="P177" s="7" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>29.05</v>
+        <v>10.09</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
@@ -54621,30 +54619,30 @@
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Os-Trandem</t>
+          <t>Signe Kristine Kjerulf Grenersen</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>13.65</v>
+        <v>1.45</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>12.08</v>
+        <v>29.05</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -54679,24 +54677,22 @@
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Erle Sagerup-Nordkild</t>
+          <t>Ingrid Os-Trandem</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O179" s="17" t="inlineStr">
-        <is>
-          <t>11,18,70</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O179" s="15" t="n">
+        <v>13.65</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
@@ -54704,7 +54700,7 @@
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>14.08</v>
+        <v>12.08</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -54816,7 +54812,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>6989</v>
+        <v>7033</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -54856,7 +54852,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>15188</v>
+        <v>15242</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>23136</v>
+        <v>23277</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -824,11 +824,11 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/12)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>22645</v>
+        <v>22684</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Eirik Halfdansen-Aspen</t>
+          <t>Eirik Halfdansen</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
@@ -9580,18 +9580,18 @@
         <v>2008</v>
       </c>
       <c r="E196" s="15" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>511</v>
+        <v>652</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>7.08</v>
+        <v>3.12</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>11610</v>
+        <v>11751</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>23136</v>
+        <v>23277</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -11985,25 +11985,25 @@
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Jacob Bergmann Abusdal</t>
+          <t>August Høgvold</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>5.85</v>
+        <v>5.98</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>26.11</v>
+        <v>3.12</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -12038,30 +12038,30 @@
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Oddvar Viulsrød</t>
+          <t>Jacob Bergmann Abusdal</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>1964</v>
+        <v>2007</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>12.03</v>
+        <v>5.85</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Braga/POR</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>24.02</v>
+        <v>26.11</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
@@ -12126,7 +12126,7 @@
         </is>
       </c>
       <c r="F254" s="20" t="n">
-        <v>10960</v>
+        <v>10999</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="19" t="inlineStr">
@@ -12166,7 +12166,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>22645</v>
+        <v>22684</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -12198,7 +12198,7 @@
         </is>
       </c>
       <c r="C258" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -16925,7 +16925,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>16039</v>
+        <v>16049</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>12779</v>
+        <v>12785</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -26099,30 +26099,30 @@
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>11.95</v>
+        <v>1.7</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>11.06</v>
+        <v>3.12</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
@@ -26159,30 +26159,30 @@
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E220" s="15" t="n">
-        <v>1.69</v>
+        <v>11.95</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Hønefoss</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>28.08</v>
+        <v>11.06</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
@@ -26661,7 +26661,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>6768</v>
+        <v>6778</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26701,7 +26701,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>16039</v>
+        <v>16049</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -30177,18 +30177,18 @@
         <v>2005</v>
       </c>
       <c r="O317" s="15" t="n">
-        <v>8.17</v>
+        <v>8.15</v>
       </c>
       <c r="P317" s="7" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="Q317" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="R317" s="16" t="n">
-        <v>26.11</v>
+        <v>3.12</v>
       </c>
       <c r="T317" s="5" t="n"/>
     </row>
@@ -30478,7 +30478,7 @@
         </is>
       </c>
       <c r="P323" s="20" t="n">
-        <v>5322</v>
+        <v>5328</v>
       </c>
       <c r="T323" s="5" t="n"/>
     </row>
@@ -30518,7 +30518,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>12779</v>
+        <v>12785</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30994,7 +30994,7 @@
         </is>
       </c>
       <c r="D15" s="3" t="n">
-        <v>17390</v>
+        <v>17494</v>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -45798,32 +45798,30 @@
     <row r="345" ht="13" customHeight="1">
       <c r="B345" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>Oda Skari</t>
+          <t>Sofie Bjerva Johnskareng</t>
         </is>
       </c>
       <c r="D345" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E345" s="17" t="inlineStr">
-        <is>
-          <t>11,10,43</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E345" s="15" t="n">
+        <v>8.539999999999999</v>
       </c>
       <c r="F345" s="7" t="n">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="G345" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H345" s="16" t="n">
-        <v>6.06</v>
+        <v>3.12</v>
       </c>
       <c r="J345" s="5" t="n"/>
       <c r="L345" s="14" t="inlineStr">
@@ -45863,19 +45861,19 @@
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>Tuva Grasbekk Pedersen</t>
+          <t>Oda Skari</t>
         </is>
       </c>
       <c r="D346" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E346" s="17" t="inlineStr">
         <is>
-          <t>11,19,21</t>
+          <t>11,10,43</t>
         </is>
       </c>
       <c r="F346" s="7" t="n">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="G346" s="7" t="inlineStr">
         <is>
@@ -45918,30 +45916,32 @@
     <row r="347" ht="13" customHeight="1">
       <c r="B347" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>Sofie Bjerva Johnskareng</t>
+          <t>Tuva Grasbekk Pedersen</t>
         </is>
       </c>
       <c r="D347" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E347" s="15" t="n">
-        <v>8.699999999999999</v>
+        <v>2006</v>
+      </c>
+      <c r="E347" s="17" t="inlineStr">
+        <is>
+          <t>11,19,21</t>
+        </is>
       </c>
       <c r="F347" s="7" t="n">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="G347" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="H347" s="16" t="n">
-        <v>22.01</v>
+        <v>6.06</v>
       </c>
       <c r="J347" s="5" t="n"/>
       <c r="L347" s="14" t="inlineStr">
@@ -45988,18 +45988,18 @@
         <v>2009</v>
       </c>
       <c r="E348" s="15" t="n">
-        <v>28.85</v>
+        <v>28.67</v>
       </c>
       <c r="F348" s="7" t="n">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="G348" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H348" s="16" t="n">
-        <v>5.08</v>
+        <v>3.12</v>
       </c>
       <c r="J348" s="5" t="n"/>
       <c r="L348" s="14" t="inlineStr">
@@ -46342,10 +46342,10 @@
         <v>2009</v>
       </c>
       <c r="E354" s="15" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="F354" s="7" t="n">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="G354" s="7" t="inlineStr">
         <is>
@@ -46353,7 +46353,7 @@
         </is>
       </c>
       <c r="H354" s="16" t="n">
-        <v>23.01</v>
+        <v>3.12</v>
       </c>
       <c r="J354" s="5" t="n"/>
       <c r="L354" s="14" t="inlineStr">
@@ -46534,7 +46534,7 @@
         </is>
       </c>
       <c r="F358" s="20" t="n">
-        <v>7665</v>
+        <v>7769</v>
       </c>
       <c r="J358" s="5" t="n"/>
       <c r="L358" s="19" t="inlineStr">
@@ -46574,7 +46574,7 @@
         </is>
       </c>
       <c r="F360" s="20" t="n">
-        <v>17390</v>
+        <v>17494</v>
       </c>
       <c r="J360" s="5" t="n"/>
       <c r="L360" s="19" t="inlineStr">
@@ -47039,7 +47039,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14339</v>
+        <v>14399</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -58369,30 +58369,30 @@
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Emilia Totland Osa</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O270" s="15" t="n">
-        <v>8.92</v>
+        <v>2.32</v>
       </c>
       <c r="P270" s="7" t="n">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>21.05</v>
+        <v>13.12</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
@@ -58427,30 +58427,30 @@
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Emilia Totland Osa</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>29.62</v>
+        <v>8.92</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>27.05</v>
+        <v>21.05</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -58485,7 +58485,7 @@
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M272" s="7" t="inlineStr">
@@ -58497,18 +58497,18 @@
         <v>2009</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>9.02</v>
+        <v>29.62</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>21.05</v>
+        <v>27.05</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
@@ -58548,25 +58548,25 @@
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Henriette Mæhlum</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O273" s="15" t="n">
-        <v>9.06</v>
+        <v>9.02</v>
       </c>
       <c r="P273" s="7" t="n">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>24.09</v>
+        <v>21.05</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
@@ -58601,30 +58601,30 @@
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Henriette Mæhlum</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O274" s="15" t="n">
-        <v>2.24</v>
+        <v>9.06</v>
       </c>
       <c r="P274" s="7" t="n">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>29.03</v>
+        <v>24.09</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -58678,7 +58678,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>6100</v>
+        <v>6160</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58718,7 +58718,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>14339</v>
+        <v>14399</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>22684</v>
+        <v>22696</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -10606,18 +10606,18 @@
         <v>2007</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>31.08</v>
+        <v>17.12</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="F233" s="20" t="n">
-        <v>11685</v>
+        <v>11697</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -12166,7 +12166,7 @@
         </is>
       </c>
       <c r="F256" s="20" t="n">
-        <v>22684</v>
+        <v>22696</v>
       </c>
       <c r="J256" s="5" t="n"/>
       <c r="L256" s="19" t="inlineStr">
@@ -16897,7 +16897,7 @@
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>16155</v>
+        <v>16179</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>12785</v>
+        <v>12933</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -24307,18 +24307,18 @@
         <v>2008</v>
       </c>
       <c r="O174" s="15" t="n">
-        <v>3.54</v>
+        <v>3.65</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>18.06</v>
+        <v>17.12</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
@@ -24720,7 +24720,7 @@
         </is>
       </c>
       <c r="P182" s="20" t="n">
-        <v>7637</v>
+        <v>7661</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -24760,7 +24760,7 @@
         </is>
       </c>
       <c r="P184" s="20" t="n">
-        <v>16155</v>
+        <v>16179</v>
       </c>
       <c r="T184" s="5" t="n"/>
     </row>
@@ -29063,32 +29063,32 @@
       <c r="J295" s="5" t="n"/>
       <c r="L295" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M295" s="7" t="inlineStr">
         <is>
-          <t>Audun Uberg-Carlsen</t>
+          <t>Eliot Blachère Børsum</t>
         </is>
       </c>
       <c r="N295" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O295" s="17" t="inlineStr">
         <is>
-          <t>2,56,31</t>
+          <t>5,03,18</t>
         </is>
       </c>
       <c r="P295" s="7" t="n">
-        <v>66</v>
+        <v>335</v>
       </c>
       <c r="Q295" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R295" s="16" t="n">
-        <v>21.08</v>
+        <v>12.06</v>
       </c>
       <c r="T295" s="5" t="n"/>
     </row>
@@ -29125,32 +29125,32 @@
       <c r="J296" s="5" t="n"/>
       <c r="L296" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M296" s="7" t="inlineStr">
         <is>
-          <t>Eliot Blachère Børsum</t>
+          <t>Henrik Husdal</t>
         </is>
       </c>
       <c r="N296" s="7" t="n">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="O296" s="17" t="inlineStr">
         <is>
-          <t>5,03,18</t>
+          <t>8,43,42</t>
         </is>
       </c>
       <c r="P296" s="7" t="n">
-        <v>335</v>
+        <v>755</v>
       </c>
       <c r="Q296" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R296" s="16" t="n">
-        <v>12.06</v>
+        <v>11.05</v>
       </c>
       <c r="T296" s="5" t="n"/>
     </row>
@@ -29187,7 +29187,7 @@
       <c r="J297" s="5" t="n"/>
       <c r="L297" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M297" s="7" t="inlineStr">
@@ -29200,19 +29200,19 @@
       </c>
       <c r="O297" s="17" t="inlineStr">
         <is>
-          <t>8,43,42</t>
+          <t>14,53,07</t>
         </is>
       </c>
       <c r="P297" s="7" t="n">
-        <v>755</v>
+        <v>788</v>
       </c>
       <c r="Q297" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R297" s="16" t="n">
-        <v>11.05</v>
+        <v>30.06</v>
       </c>
       <c r="T297" s="5" t="n"/>
     </row>
@@ -29247,7 +29247,7 @@
       <c r="J298" s="5" t="n"/>
       <c r="L298" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M298" s="7" t="inlineStr">
@@ -29260,19 +29260,19 @@
       </c>
       <c r="O298" s="17" t="inlineStr">
         <is>
-          <t>14,53,07</t>
+          <t>32,21,44</t>
         </is>
       </c>
       <c r="P298" s="7" t="n">
-        <v>788</v>
+        <v>718</v>
       </c>
       <c r="Q298" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R298" s="16" t="n">
-        <v>30.06</v>
+        <v>26.06</v>
       </c>
       <c r="T298" s="5" t="n"/>
     </row>
@@ -29307,32 +29307,30 @@
       <c r="J299" s="5" t="n"/>
       <c r="L299" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M299" s="7" t="inlineStr">
         <is>
-          <t>Henrik Husdal</t>
+          <t>Jørgen Halmøy</t>
         </is>
       </c>
       <c r="N299" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="O299" s="17" t="inlineStr">
-        <is>
-          <t>32,21,44</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O299" s="15" t="n">
+        <v>1.42</v>
       </c>
       <c r="P299" s="7" t="n">
-        <v>718</v>
+        <v>258</v>
       </c>
       <c r="Q299" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="R299" s="16" t="n">
-        <v>26.06</v>
+        <v>17.09</v>
       </c>
       <c r="T299" s="5" t="n"/>
     </row>
@@ -29367,30 +29365,30 @@
       <c r="J300" s="5" t="n"/>
       <c r="L300" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M300" s="7" t="inlineStr">
         <is>
-          <t>Jørgen Halmøy</t>
+          <t>Ola Moksnes</t>
         </is>
       </c>
       <c r="N300" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>1.42</v>
+        <v>2.05</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R300" s="16" t="n">
-        <v>17.09</v>
+        <v>17.12</v>
       </c>
       <c r="T300" s="5" t="n"/>
     </row>
@@ -29618,7 +29616,7 @@
         </is>
       </c>
       <c r="P305" s="20" t="n">
-        <v>7457</v>
+        <v>7605</v>
       </c>
       <c r="T305" s="5" t="n"/>
     </row>
@@ -30518,7 +30516,7 @@
         </is>
       </c>
       <c r="P325" s="20" t="n">
-        <v>12785</v>
+        <v>12933</v>
       </c>
       <c r="T325" s="5" t="n"/>
     </row>
@@ -30742,7 +30740,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23334</v>
+        <v>23369</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -30826,7 +30824,7 @@
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21928</v>
+        <v>21939</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
@@ -34918,7 +34916,7 @@
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M88" s="7" t="inlineStr">
@@ -34930,10 +34928,10 @@
         <v>2007</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>12.87</v>
+        <v>11.35</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
@@ -34941,7 +34939,7 @@
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>10.09</v>
+        <v>16.12</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -34978,7 +34976,7 @@
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M89" s="7" t="inlineStr">
@@ -34990,18 +34988,18 @@
         <v>2007</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>26.47</v>
+        <v>12.87</v>
       </c>
       <c r="P89" s="7" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>14.08</v>
+        <v>10.09</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
@@ -35043,14 +35041,14 @@
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Serine Brakstad</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O90" s="15" t="n">
-        <v>26.48</v>
+        <v>26.47</v>
       </c>
       <c r="P90" s="7" t="n">
         <v>689</v>
@@ -35098,7 +35096,7 @@
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M91" s="7" t="inlineStr">
@@ -35110,10 +35108,10 @@
         <v>2006</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>12.9</v>
+        <v>26.48</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
@@ -35121,7 +35119,7 @@
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>12.08</v>
+        <v>14.08</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
@@ -35156,30 +35154,30 @@
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Martine Lundberg Espetvedt</t>
+          <t>Serine Brakstad</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>26.58</v>
+        <v>12.9</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>6.03</v>
+        <v>12.08</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -35214,30 +35212,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Martine Lundberg Espetvedt</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>2.58</v>
+        <v>26.58</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>28.09</v>
+        <v>6.03</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -35272,30 +35270,30 @@
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Stina Leivestad Morvik</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>39.21</v>
+        <v>2.58</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>25.09</v>
+        <v>28.09</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -35330,32 +35328,30 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Tunes Lund</t>
+          <t>Stina Leivestad Morvik</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O95" s="17" t="inlineStr">
-        <is>
-          <t>2,19,99</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O95" s="15" t="n">
+        <v>39.21</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>4.06</v>
+        <v>25.09</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -35390,30 +35386,32 @@
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Nathalie Svanevik Hølleland</t>
+          <t>Alexandra Tunes Lund</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O96" s="15" t="n">
-        <v>26.83</v>
+      <c r="O96" s="17" t="inlineStr">
+        <is>
+          <t>2,19,99</t>
+        </is>
       </c>
       <c r="P96" s="7" t="n">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>6.03</v>
+        <v>4.06</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -35467,7 +35465,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>10785</v>
+        <v>10820</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -35507,7 +35505,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23334</v>
+        <v>23369</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -38634,10 +38632,10 @@
         <v>2005</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
@@ -38645,7 +38643,7 @@
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>26.11</v>
+        <v>17.12</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
@@ -38884,7 +38882,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11172</v>
+        <v>11183</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -39946,7 +39944,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21928</v>
+        <v>21939</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -46783,11 +46781,11 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(25/9)</t>
+          <t>(25/10)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>16794</v>
+        <v>16911</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -47039,7 +47037,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14399</v>
+        <v>14478</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -50709,30 +50707,30 @@
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Helena Myhren</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E84" s="15" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>564</v>
+        <v>606</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>28.05</v>
+        <v>15.12</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
@@ -50767,7 +50765,7 @@
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
@@ -50779,18 +50777,18 @@
         <v>2006</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>4.57</v>
+        <v>2.52</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>524</v>
+        <v>564</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>6.09</v>
+        <v>28.05</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
@@ -50825,22 +50823,22 @@
     <row r="86" ht="13" customHeight="1">
       <c r="B86" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Alida Haaland</t>
+          <t>Helena Myhren</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
@@ -50848,7 +50846,7 @@
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>16.08</v>
+        <v>15.12</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -50913,7 +50911,7 @@
         </is>
       </c>
       <c r="F88" s="20" t="n">
-        <v>7569</v>
+        <v>7686</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="19" t="inlineStr">
@@ -50953,7 +50951,7 @@
         </is>
       </c>
       <c r="F90" s="20" t="n">
-        <v>16794</v>
+        <v>16911</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="19" t="inlineStr">
@@ -50985,7 +50983,7 @@
         </is>
       </c>
       <c r="C92" s="20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="19" t="inlineStr">
@@ -57353,32 +57351,32 @@
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>3000m kapp.</t>
         </is>
       </c>
       <c r="M249" s="7" t="inlineStr">
         <is>
-          <t>Amanda Totland Osa</t>
+          <t>Siri Gamst Glittenberg</t>
         </is>
       </c>
       <c r="N249" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="O249" s="17" t="inlineStr">
         <is>
-          <t>12,06,91</t>
+          <t>14,09,29</t>
         </is>
       </c>
       <c r="P249" s="7" t="n">
-        <v>450</v>
+        <v>729</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R249" s="16" t="n">
-        <v>15.05</v>
+        <v>11.05</v>
       </c>
       <c r="T249" s="5" t="n"/>
     </row>
@@ -57415,7 +57413,7 @@
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
         <is>
-          <t>3000m kapp.</t>
+          <t>5000m kapp.</t>
         </is>
       </c>
       <c r="M250" s="7" t="inlineStr">
@@ -57428,19 +57426,19 @@
       </c>
       <c r="O250" s="17" t="inlineStr">
         <is>
-          <t>14,09,29</t>
+          <t>24,30,34</t>
         </is>
       </c>
       <c r="P250" s="7" t="n">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>11.05</v>
+        <v>24.06</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
@@ -57475,32 +57473,30 @@
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
         <is>
-          <t>5000m kapp.</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M251" s="7" t="inlineStr">
         <is>
-          <t>Siri Gamst Glittenberg</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="N251" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="O251" s="17" t="inlineStr">
-        <is>
-          <t>24,30,34</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O251" s="15" t="n">
+        <v>1.44</v>
       </c>
       <c r="P251" s="7" t="n">
-        <v>732</v>
+        <v>556</v>
       </c>
       <c r="Q251" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R251" s="16" t="n">
-        <v>24.06</v>
+        <v>11.09</v>
       </c>
       <c r="T251" s="5" t="n"/>
     </row>
@@ -57824,7 +57820,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>8239</v>
+        <v>8345</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -58013,30 +58009,32 @@
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m kapp.</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Amanda Totland Osa</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O264" s="15" t="n">
-        <v>1.44</v>
+        <v>2006</v>
+      </c>
+      <c r="O264" s="17" t="inlineStr">
+        <is>
+          <t>15,55,01</t>
+        </is>
       </c>
       <c r="P264" s="7" t="n">
         <v>556</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>11.09</v>
+        <v>24.09</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
@@ -58071,32 +58069,30 @@
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>3000m kapp.</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Amanda Totland Osa</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O265" s="17" t="inlineStr">
-        <is>
-          <t>15,55,01</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O265" s="15" t="n">
+        <v>1.18</v>
       </c>
       <c r="P265" s="7" t="n">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>24.09</v>
+        <v>16.12</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
@@ -58678,7 +58674,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>6160</v>
+        <v>6133</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58718,7 +58714,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>14399</v>
+        <v>14478</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -46841,7 +46841,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>16497</v>
+        <v>16508</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -51617,30 +51617,30 @@
     <row r="110" ht="13" customHeight="1">
       <c r="B110" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>Angelina Min</t>
+          <t>Nathalie Ommundsen Johnsen</t>
         </is>
       </c>
       <c r="D110" s="7" t="n">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E110" s="15" t="n">
-        <v>10.17</v>
+        <v>16.35</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="G110" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="H110" s="16" t="n">
-        <v>4.03</v>
+        <v>29.05</v>
       </c>
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
@@ -51675,7 +51675,7 @@
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
@@ -51687,18 +51687,18 @@
         <v>1998</v>
       </c>
       <c r="E111" s="15" t="n">
-        <v>16.35</v>
+        <v>5.28</v>
       </c>
       <c r="F111" s="7" t="n">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>29.05</v>
+        <v>11.06</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
@@ -51735,30 +51735,30 @@
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Nathalie Ommundsen Johnsen</t>
+          <t>Tora Ugland Damsgaard</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>5.28</v>
+        <v>10.67</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>11.06</v>
+        <v>12.08</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
@@ -51793,30 +51793,30 @@
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Tora Ugland Damsgaard</t>
+          <t>Nathalie Ommundsen Johnsen</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>10.67</v>
+        <v>1.3</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>627</v>
+        <v>662</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>12.08</v>
+        <v>5.02</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -51851,30 +51851,30 @@
     <row r="114" ht="13" customHeight="1">
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Nathalie Ommundsen Johnsen</t>
+          <t>Marie Mollestad</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>1.3</v>
+        <v>2.43</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>662</v>
+        <v>586</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>5.02</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -51997,7 +51997,7 @@
         </is>
       </c>
       <c r="F117" s="20" t="n">
-        <v>8592</v>
+        <v>8603</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="19" t="inlineStr">
@@ -52897,7 +52897,7 @@
         </is>
       </c>
       <c r="F137" s="20" t="n">
-        <v>16497</v>
+        <v>16508</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="19" t="inlineStr">

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -651,20 +651,20 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/16)</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>24512</v>
+        <v>24694</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -679,20 +679,20 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(30/18)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>24267</v>
+        <v>24512</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>19774</v>
+        <v>19847</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>IL Gneist</t>
+          <t>Norna-Salhus IL</t>
         </is>
       </c>
       <c r="J55" s="5" t="n"/>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL</t>
+          <t>IL Gneist</t>
         </is>
       </c>
       <c r="T55" s="5" t="n"/>
@@ -3461,25 +3461,25 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>Amund Høie Sjursen</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D61" s="7" t="n">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="E61" s="15" t="n">
-        <v>7.02</v>
+        <v>6.75</v>
       </c>
       <c r="F61" s="7" t="n">
-        <v>854</v>
+        <v>984</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>5.02</v>
+        <v>29.01</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
@@ -3489,25 +3489,25 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Amund Høie Sjursen</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="O61" s="15" t="n">
-        <v>6.75</v>
+        <v>7.02</v>
       </c>
       <c r="P61" s="7" t="n">
-        <v>984</v>
+        <v>854</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>29.01</v>
+        <v>5.02</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -3519,25 +3519,25 @@
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>Herman Ellingsen</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D62" s="7" t="n">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="E62" s="15" t="n">
-        <v>10.75</v>
+        <v>10.51</v>
       </c>
       <c r="F62" s="7" t="n">
-        <v>907</v>
+        <v>974</v>
       </c>
       <c r="G62" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H62" s="16" t="n">
-        <v>9.07</v>
+        <v>19.06</v>
       </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
@@ -3547,25 +3547,25 @@
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Herman Ellingsen</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="O62" s="15" t="n">
-        <v>10.51</v>
+        <v>10.75</v>
       </c>
       <c r="P62" s="7" t="n">
-        <v>974</v>
+        <v>907</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>19.06</v>
+        <v>9.07</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -3577,25 +3577,25 @@
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Herman Ellingsen</t>
+          <t>Salum Ageze Kashafali</t>
         </is>
       </c>
       <c r="D63" s="7" t="n">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="E63" s="15" t="n">
-        <v>21.46</v>
+        <v>21.64</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>926</v>
+        <v>903</v>
       </c>
       <c r="G63" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H63" s="16" t="n">
-        <v>11.05</v>
+        <v>5.08</v>
       </c>
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
@@ -3605,25 +3605,25 @@
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Salum Ageze Kashafali</t>
+          <t>Herman Ellingsen</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="O63" s="15" t="n">
-        <v>21.64</v>
+        <v>21.46</v>
       </c>
       <c r="P63" s="7" t="n">
-        <v>903</v>
+        <v>926</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>5.08</v>
+        <v>11.05</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -3635,25 +3635,25 @@
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Thomas Strønstad-Løseth</t>
+          <t>Muhammed Dodou Jatta</t>
         </is>
       </c>
       <c r="D64" s="7" t="n">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="E64" s="15" t="n">
-        <v>48.48</v>
+        <v>50.14</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>865</v>
+        <v>777</v>
       </c>
       <c r="G64" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H64" s="16" t="n">
-        <v>24.06</v>
+        <v>12.02</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
@@ -3663,25 +3663,25 @@
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Muhammed Dodou Jatta</t>
+          <t>Thomas Strønstad-Løseth</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>50.14</v>
+        <v>48.48</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>777</v>
+        <v>865</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>12.02</v>
+        <v>24.06</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -3693,27 +3693,27 @@
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Anders Bjørndal</t>
+          <t>Seumas Duncan Mackay</t>
         </is>
       </c>
       <c r="D65" s="7" t="n">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="E65" s="17" t="inlineStr">
         <is>
-          <t>1,52,24</t>
+          <t>1,48,51</t>
         </is>
       </c>
       <c r="F65" s="7" t="n">
-        <v>859</v>
+        <v>958</v>
       </c>
       <c r="G65" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stretford/GBR</t>
         </is>
       </c>
       <c r="H65" s="16" t="n">
-        <v>30.06</v>
+        <v>23.08</v>
       </c>
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
@@ -3723,27 +3723,27 @@
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Seumas Duncan Mackay</t>
+          <t>Anders Bjørndal</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="O65" s="17" t="inlineStr">
         <is>
-          <t>1,48,51</t>
+          <t>1,52,24</t>
         </is>
       </c>
       <c r="P65" s="7" t="n">
-        <v>958</v>
+        <v>859</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Stretford/GBR</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>23.08</v>
+        <v>30.06</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -3755,27 +3755,27 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Anders Bjørndal</t>
+          <t>Phillip Morken</t>
         </is>
       </c>
       <c r="D66" s="7" t="n">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="E66" s="17" t="inlineStr">
         <is>
-          <t>3,46,45</t>
+          <t>4,03,86</t>
         </is>
       </c>
       <c r="F66" s="7" t="n">
-        <v>905</v>
+        <v>725</v>
       </c>
       <c r="G66" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="H66" s="16" t="n">
-        <v>16.06</v>
+        <v>18.09</v>
       </c>
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
@@ -3785,467 +3785,465 @@
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Phillip Morken</t>
+          <t>Anders Bjørndal</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="O66" s="17" t="inlineStr">
         <is>
-          <t>4,03,86</t>
+          <t>3,46,45</t>
         </is>
       </c>
       <c r="P66" s="7" t="n">
-        <v>725</v>
+        <v>905</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>18.09</v>
+        <v>16.06</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1">
       <c r="B67" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Philip Anders Anthelme Massacand</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="D67" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E67" s="17" t="inlineStr">
-        <is>
-          <t>14,07,75</t>
-        </is>
+        <v>2000</v>
+      </c>
+      <c r="E67" s="15" t="n">
+        <v>1.81</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>899</v>
+        <v>661</v>
       </c>
       <c r="G67" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H67" s="16" t="n">
-        <v>21.05</v>
+        <v>25.09</v>
       </c>
       <c r="J67" s="5" t="n"/>
       <c r="L67" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M67" s="7" t="inlineStr">
         <is>
-          <t>Leander Warncke-Wang</t>
+          <t>Philip Anders Anthelme Massacand</t>
         </is>
       </c>
       <c r="N67" s="7" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="O67" s="17" t="inlineStr">
         <is>
-          <t>9,22,3</t>
+          <t>14,07,75</t>
         </is>
       </c>
       <c r="P67" s="7" t="n">
-        <v>608</v>
+        <v>899</v>
       </c>
       <c r="Q67" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R67" s="16" t="n">
-        <v>4.08</v>
+        <v>21.05</v>
       </c>
       <c r="T67" s="5" t="n"/>
     </row>
     <row r="68" ht="13" customHeight="1">
       <c r="B68" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Gjert Høie Sjursen</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="D68" s="7" t="n">
         <v>2000</v>
       </c>
       <c r="E68" s="15" t="n">
-        <v>8.19</v>
+        <v>6.92</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>893</v>
+        <v>810</v>
       </c>
       <c r="G68" s="7" t="inlineStr">
         <is>
-          <t>Uppsala/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H68" s="16" t="n">
-        <v>13.02</v>
+        <v>26.08</v>
       </c>
       <c r="J68" s="5" t="n"/>
       <c r="L68" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M68" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Gjert Høie Sjursen</t>
         </is>
       </c>
       <c r="N68" s="7" t="n">
         <v>2000</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>1.81</v>
+        <v>8.19</v>
       </c>
       <c r="P68" s="7" t="n">
-        <v>661</v>
+        <v>893</v>
       </c>
       <c r="Q68" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Uppsala/SWE</t>
         </is>
       </c>
       <c r="R68" s="16" t="n">
-        <v>25.09</v>
+        <v>13.02</v>
       </c>
       <c r="T68" s="5" t="n"/>
     </row>
     <row r="69" ht="13" customHeight="1">
       <c r="B69" s="14" t="inlineStr">
         <is>
-          <t>110m hekk</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Herman Ellingsen</t>
+          <t>Viljar Gjerde</t>
         </is>
       </c>
       <c r="D69" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E69" s="15" t="n">
-        <v>14.56</v>
+        <v>15.47</v>
       </c>
       <c r="F69" s="7" t="n">
-        <v>879</v>
+        <v>925</v>
       </c>
       <c r="G69" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H69" s="16" t="n">
-        <v>5.08</v>
+        <v>17.07</v>
       </c>
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>110m hekk</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Herman Ellingsen</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="O69" s="15" t="n">
-        <v>6.92</v>
+        <v>14.56</v>
       </c>
       <c r="P69" s="7" t="n">
-        <v>810</v>
+        <v>879</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>26.08</v>
+        <v>5.08</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1">
       <c r="B70" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Herman Ellingsen</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="D70" s="7" t="n">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="E70" s="15" t="n">
-        <v>53.01</v>
+        <v>1.64</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>855</v>
+        <v>826</v>
       </c>
       <c r="G70" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H70" s="16" t="n">
-        <v>24.06</v>
+        <v>21.12</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Viljar Gjerde</t>
+          <t>Herman Ellingsen</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="O70" s="15" t="n">
-        <v>15.47</v>
+        <v>53.01</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>925</v>
+        <v>855</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>17.07</v>
+        <v>24.06</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
     <row r="71" ht="13" customHeight="1">
       <c r="B71" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Gjert Høie Sjursen</t>
+          <t>Anders Vik</t>
         </is>
       </c>
       <c r="D71" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E71" s="15" t="n">
-        <v>4.1</v>
+        <v>3.04</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>740</v>
+        <v>694</v>
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandane</t>
         </is>
       </c>
       <c r="H71" s="16" t="n">
-        <v>23.01</v>
+        <v>25.01</v>
       </c>
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Hayden Finne</t>
+          <t>Gjert Høie Sjursen</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>561</v>
+        <v>740</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Bergen/Hø</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>30.11</v>
+        <v>23.01</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1">
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Gjert Høie Sjursen</t>
+          <t>Marcus Thomsen</t>
         </is>
       </c>
       <c r="D72" s="7" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E72" s="15" t="n">
-        <v>7.07</v>
+        <v>20.89</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>842</v>
+        <v>1106</v>
       </c>
       <c r="G72" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Kladno/CZE</t>
         </is>
       </c>
       <c r="H72" s="16" t="n">
-        <v>29.01</v>
+        <v>14.06</v>
       </c>
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Anders Vik</t>
+          <t>Gjert Høie Sjursen</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>3.04</v>
+        <v>7.07</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>694</v>
+        <v>842</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Sandane</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>25.01</v>
+        <v>29.01</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Ilunga Josue Kongolo</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>3.16</v>
+        <v>64.28</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>760</v>
+        <v>1070</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>6.02</v>
+        <v>22.05</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Marcus Thomsen</t>
+          <t>Ilunga Josue Kongolo</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="O73" s="15" t="n">
-        <v>20.89</v>
+        <v>3.16</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>1106</v>
+        <v>760</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Kladno/CZE</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>14.06</v>
+        <v>6.02</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
     <row r="74" ht="13" customHeight="1">
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>Gjert Høie Sjursen</t>
+          <t>Jon Nerdal</t>
         </is>
       </c>
       <c r="D74" s="7" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>41.97</v>
+        <v>67.75</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>720</v>
+        <v>973</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
-          <t>Os</t>
+          <t>Baton Rouge/LA/USA</t>
         </is>
       </c>
       <c r="H74" s="16" t="n">
-        <v>18.09</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
@@ -4255,55 +4253,55 @@
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Gjert Høie Sjursen</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>64.28</v>
+        <v>41.97</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>1070</v>
+        <v>720</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>22.05</v>
+        <v>18.09</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Sondre Kolbjørnsen</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
         <v>1995</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>51.98</v>
+        <v>56.5</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>778</v>
+        <v>713</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>25.09</v>
+        <v>28.12</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
@@ -4313,25 +4311,25 @@
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Jon Nerdal</t>
+          <t>Sondre Kolbjørnsen</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>67.75</v>
+        <v>51.98</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>973</v>
+        <v>778</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Baton Rouge/LA/USA</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>9.039999999999999</v>
+        <v>25.09</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -4368,7 +4366,7 @@
         </is>
       </c>
       <c r="F77" s="20" t="n">
-        <v>12682</v>
+        <v>13099</v>
       </c>
       <c r="J77" s="5" t="n"/>
       <c r="L77" s="19" t="inlineStr">
@@ -4385,7 +4383,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12729</v>
+        <v>12682</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -4488,236 +4486,236 @@
     <row r="82" ht="13" customHeight="1">
       <c r="B82" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Amund Høie Sjursen</t>
+          <t>Sven Martin Skagestad</t>
         </is>
       </c>
       <c r="D82" s="7" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E82" s="15" t="n">
-        <v>10.82</v>
+        <v>17.6</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>888</v>
+        <v>944</v>
       </c>
       <c r="G82" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H82" s="16" t="n">
-        <v>20.08</v>
+        <v>19.02</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M82" s="7" t="inlineStr">
         <is>
-          <t>Sven Martin Skagestad</t>
+          <t>Amund Høie Sjursen</t>
         </is>
       </c>
       <c r="N82" s="7" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="O82" s="15" t="n">
-        <v>17.6</v>
+        <v>10.82</v>
       </c>
       <c r="P82" s="7" t="n">
-        <v>944</v>
+        <v>888</v>
       </c>
       <c r="Q82" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R82" s="16" t="n">
-        <v>19.02</v>
+        <v>20.08</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
     <row r="83" ht="13" customHeight="1">
       <c r="B83" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Thomas Strønstad-Løseth</t>
+          <t>Phillip Morken</t>
         </is>
       </c>
       <c r="D83" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E83" s="15" t="n">
-        <v>21.87</v>
+        <v>2004</v>
+      </c>
+      <c r="E83" s="17" t="inlineStr">
+        <is>
+          <t>1,52,17</t>
+        </is>
       </c>
       <c r="F83" s="7" t="n">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="G83" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H83" s="16" t="n">
-        <v>17.06</v>
+        <v>28.08</v>
       </c>
       <c r="J83" s="5" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M83" s="7" t="inlineStr">
         <is>
-          <t>Phillip Morken</t>
+          <t>Thomas Strønstad-Løseth</t>
         </is>
       </c>
       <c r="N83" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O83" s="17" t="inlineStr">
-        <is>
-          <t>1,52,17</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="O83" s="15" t="n">
+        <v>21.87</v>
       </c>
       <c r="P83" s="7" t="n">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="Q83" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R83" s="16" t="n">
-        <v>28.08</v>
+        <v>17.06</v>
       </c>
       <c r="T83" s="5" t="n"/>
     </row>
     <row r="84" ht="13" customHeight="1">
       <c r="B84" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Andreas Iden</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D84" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E84" s="17" t="inlineStr">
-        <is>
-          <t>14,18,64</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="E84" s="15" t="n">
+        <v>10.95</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="G84" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H84" s="16" t="n">
-        <v>21.05</v>
+        <v>24.06</v>
       </c>
       <c r="J84" s="5" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M84" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Andreas Iden</t>
         </is>
       </c>
       <c r="N84" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O84" s="15" t="n">
-        <v>10.95</v>
+        <v>1995</v>
+      </c>
+      <c r="O84" s="17" t="inlineStr">
+        <is>
+          <t>14,18,64</t>
+        </is>
       </c>
       <c r="P84" s="7" t="n">
-        <v>854</v>
+        <v>871</v>
       </c>
       <c r="Q84" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R84" s="16" t="n">
-        <v>24.06</v>
+        <v>21.05</v>
       </c>
       <c r="T84" s="5" t="n"/>
     </row>
     <row r="85" ht="13" customHeight="1">
       <c r="B85" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
         <is>
-          <t>Ilunga Josue Kongolo</t>
+          <t>Anders Vik</t>
         </is>
       </c>
       <c r="D85" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E85" s="15" t="n">
-        <v>10.94</v>
+        <v>49.73</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G85" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H85" s="16" t="n">
-        <v>26.08</v>
+        <v>22.07</v>
       </c>
       <c r="J85" s="5" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M85" s="7" t="inlineStr">
         <is>
-          <t>Anders Vik</t>
+          <t>Ilunga Josue Kongolo</t>
         </is>
       </c>
       <c r="N85" s="7" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="O85" s="15" t="n">
-        <v>49.73</v>
+        <v>10.94</v>
       </c>
       <c r="P85" s="7" t="n">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="Q85" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R85" s="16" t="n">
-        <v>22.07</v>
+        <v>26.08</v>
       </c>
       <c r="T85" s="5" t="n"/>
     </row>
@@ -4729,25 +4727,25 @@
       </c>
       <c r="C86" s="7" t="inlineStr">
         <is>
-          <t>Ilunga Josue Kongolo</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D86" s="7" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="E86" s="15" t="n">
-        <v>7.02</v>
+        <v>7.03</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G86" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H86" s="16" t="n">
-        <v>5.03</v>
+        <v>12.02</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="14" t="inlineStr">
@@ -4757,85 +4755,85 @@
       </c>
       <c r="M86" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Ilunga Josue Kongolo</t>
         </is>
       </c>
       <c r="N86" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="O86" s="15" t="n">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="P86" s="7" t="n">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="Q86" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R86" s="16" t="n">
-        <v>12.02</v>
+        <v>5.03</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
     <row r="87" ht="13" customHeight="1">
       <c r="B87" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>Philip Anders Anthelme Massacand</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D87" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E87" s="17" t="inlineStr">
-        <is>
-          <t>8,22,09</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="E87" s="15" t="n">
+        <v>22.2</v>
       </c>
       <c r="F87" s="7" t="n">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="G87" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H87" s="16" t="n">
-        <v>8.06</v>
+        <v>30.06</v>
       </c>
       <c r="J87" s="5" t="n"/>
       <c r="L87" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M87" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Philip Anders Anthelme Massacand</t>
         </is>
       </c>
       <c r="N87" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O87" s="15" t="n">
-        <v>22.2</v>
+        <v>2002</v>
+      </c>
+      <c r="O87" s="17" t="inlineStr">
+        <is>
+          <t>8,22,09</t>
+        </is>
       </c>
       <c r="P87" s="7" t="n">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="Q87" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R87" s="16" t="n">
-        <v>30.06</v>
+        <v>8.06</v>
       </c>
       <c r="T87" s="5" t="n"/>
     </row>
@@ -4847,25 +4845,25 @@
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>Oscar Alm Harestad</t>
+          <t>Fredrik H. Gullachsen</t>
         </is>
       </c>
       <c r="D88" s="7" t="n">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E88" s="15" t="n">
-        <v>22.26</v>
+        <v>22.8</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>830</v>
+        <v>770</v>
       </c>
       <c r="G88" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H88" s="16" t="n">
-        <v>25.06</v>
+        <v>19.02</v>
       </c>
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
@@ -4875,309 +4873,309 @@
       </c>
       <c r="M88" s="7" t="inlineStr">
         <is>
-          <t>Fredrik H. Gullachsen</t>
+          <t>Oscar Alm Harestad</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>22.8</v>
+        <v>22.26</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>770</v>
+        <v>830</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>19.02</v>
+        <v>25.06</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
     <row r="89" ht="13" customHeight="1">
       <c r="B89" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>Andreas Iden</t>
+          <t>Seumas Duncan Mackay</t>
         </is>
       </c>
       <c r="D89" s="7" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E89" s="17" t="inlineStr">
-        <is>
-          <t>8,27,23</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E89" s="15" t="n">
+        <v>50.52</v>
       </c>
       <c r="F89" s="7" t="n">
-        <v>826</v>
+        <v>758</v>
       </c>
       <c r="G89" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H89" s="16" t="n">
-        <v>11.05</v>
+        <v>19.06</v>
       </c>
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M89" s="7" t="inlineStr">
         <is>
-          <t>Seumas Duncan Mackay</t>
+          <t>Andreas Iden</t>
         </is>
       </c>
       <c r="N89" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O89" s="15" t="n">
-        <v>50.52</v>
+        <v>1995</v>
+      </c>
+      <c r="O89" s="17" t="inlineStr">
+        <is>
+          <t>8,27,23</t>
+        </is>
       </c>
       <c r="P89" s="7" t="n">
-        <v>758</v>
+        <v>826</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>19.06</v>
+        <v>11.05</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
     <row r="90" ht="13" customHeight="1">
       <c r="B90" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>Sindre Strønstad-Løseth</t>
+          <t>Simon Fjeldstad</t>
         </is>
       </c>
       <c r="D90" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E90" s="15" t="n">
-        <v>49.39</v>
+        <v>7.31</v>
       </c>
       <c r="F90" s="7" t="n">
-        <v>816</v>
+        <v>732</v>
       </c>
       <c r="G90" s="7" t="inlineStr">
         <is>
-          <t>Jerusalem/ISR</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H90" s="16" t="n">
-        <v>4.07</v>
+        <v>5.03</v>
       </c>
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M90" s="7" t="inlineStr">
         <is>
-          <t>Simon Fjeldstad</t>
+          <t>Sindre Strønstad-Løseth</t>
         </is>
       </c>
       <c r="N90" s="7" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="O90" s="15" t="n">
-        <v>7.31</v>
+        <v>49.39</v>
       </c>
       <c r="P90" s="7" t="n">
-        <v>732</v>
+        <v>816</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Jerusalem/ISR</t>
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>5.03</v>
+        <v>4.07</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
     <row r="91" ht="13" customHeight="1">
       <c r="B91" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>Herman Ellingsen</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D91" s="7" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="E91" s="15" t="n">
-        <v>7.14</v>
+        <v>6.47</v>
       </c>
       <c r="F91" s="7" t="n">
-        <v>802</v>
+        <v>712</v>
       </c>
       <c r="G91" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H91" s="16" t="n">
-        <v>30.01</v>
+        <v>24.06</v>
       </c>
       <c r="J91" s="5" t="n"/>
       <c r="L91" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Herman Ellingsen</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>6.47</v>
+        <v>7.14</v>
       </c>
       <c r="P91" s="7" t="n">
-        <v>712</v>
+        <v>802</v>
       </c>
       <c r="Q91" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R91" s="16" t="n">
-        <v>24.06</v>
+        <v>30.01</v>
       </c>
       <c r="T91" s="5" t="n"/>
     </row>
     <row r="92" ht="13" customHeight="1">
       <c r="B92" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C92" s="7" t="inlineStr">
         <is>
-          <t>Oscar Ellingsen</t>
+          <t>Jakob H. Holmelid</t>
         </is>
       </c>
       <c r="D92" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E92" s="15" t="n">
-        <v>1.87</v>
+        <v>23.45</v>
       </c>
       <c r="F92" s="7" t="n">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="G92" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H92" s="16" t="n">
-        <v>12.08</v>
+        <v>24.09</v>
       </c>
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
         <is>
-          <t>Jakob H. Holmelid</t>
+          <t>Oscar Ellingsen</t>
         </is>
       </c>
       <c r="N92" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>23.45</v>
+        <v>1.87</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>24.09</v>
+        <v>12.08</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
     <row r="93" ht="13" customHeight="1">
       <c r="B93" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>Thomas Brattaule</t>
+          <t>Theodor With</t>
         </is>
       </c>
       <c r="D93" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E93" s="15" t="n">
-        <v>55.21</v>
+        <v>7.4</v>
       </c>
       <c r="F93" s="7" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G93" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H93" s="16" t="n">
-        <v>28.08</v>
+        <v>21.12</v>
       </c>
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Andreas Langhelle</t>
+          <t>Thomas Brattaule</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>51.79</v>
+        <v>55.21</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
@@ -5185,145 +5183,145 @@
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>26.08</v>
+        <v>28.08</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
     <row r="94" ht="13" customHeight="1">
       <c r="B94" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
         <is>
-          <t>Gjert Høie Sjursen</t>
+          <t>Robert Sheath</t>
         </is>
       </c>
       <c r="D94" s="7" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E94" s="15" t="n">
-        <v>1.84</v>
+        <v>7.4</v>
       </c>
       <c r="F94" s="7" t="n">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="G94" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H94" s="16" t="n">
-        <v>21.05</v>
+        <v>5.03</v>
       </c>
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Robert Sheath</t>
+          <t>Gjert Høie Sjursen</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>7.4</v>
+        <v>1.84</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>5.03</v>
+        <v>21.05</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
     <row r="95" ht="13" customHeight="1">
       <c r="B95" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Sondre Kolbjørnsen</t>
+          <t>Vegard Dragsund Sverd</t>
         </is>
       </c>
       <c r="D95" s="7" t="n">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E95" s="15" t="n">
-        <v>38.08</v>
+        <v>2.99</v>
       </c>
       <c r="F95" s="7" t="n">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="G95" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>21.07</v>
+        <v>21.01</v>
       </c>
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Vegard Dragsund Sverd</t>
+          <t>Sondre Kolbjørnsen</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>2.99</v>
+        <v>38.08</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>21.01</v>
+        <v>21.07</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
     <row r="96" ht="13" customHeight="1">
       <c r="B96" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Oscar Ellingsen</t>
+          <t>Jonathan Varela Byrkjenes</t>
         </is>
       </c>
       <c r="D96" s="7" t="n">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="E96" s="15" t="n">
-        <v>1.45</v>
+        <v>12.93</v>
       </c>
       <c r="F96" s="7" t="n">
-        <v>616</v>
+        <v>662</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
@@ -5331,27 +5329,27 @@
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>19.03</v>
+        <v>31.12</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Sebastian Bergheim</t>
+          <t>Oscar Ellingsen</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="O96" s="15" t="n">
-        <v>2.88</v>
+        <v>1.45</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
@@ -5359,7 +5357,7 @@
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>21.01</v>
+        <v>19.03</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -5396,7 +5394,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>11830</v>
+        <v>11595</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -5413,7 +5411,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>11538</v>
+        <v>11830</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -5436,7 +5434,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>24512</v>
+        <v>24694</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -5453,7 +5451,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>24267</v>
+        <v>24512</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -5468,7 +5466,7 @@
         </is>
       </c>
       <c r="C102" s="20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J102" s="5" t="n"/>
       <c r="L102" s="19" t="inlineStr">
@@ -5477,7 +5475,7 @@
         </is>
       </c>
       <c r="M102" s="20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="T102" s="5" t="n"/>
     </row>
@@ -13230,10 +13228,10 @@
         <v>2007</v>
       </c>
       <c r="O282" s="15" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P282" s="7" t="n">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="Q282" s="7" t="inlineStr">
         <is>
@@ -13241,7 +13239,7 @@
         </is>
       </c>
       <c r="R282" s="16" t="n">
-        <v>7.04</v>
+        <v>17.11</v>
       </c>
       <c r="T282" s="5" t="n"/>
     </row>
@@ -13288,10 +13286,10 @@
         <v>2006</v>
       </c>
       <c r="O283" s="15" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="P283" s="7" t="n">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="Q283" s="7" t="inlineStr">
         <is>
@@ -13299,7 +13297,7 @@
         </is>
       </c>
       <c r="R283" s="16" t="n">
-        <v>10.03</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="T283" s="5" t="n"/>
     </row>
@@ -13353,7 +13351,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>10055</v>
+        <v>10128</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -14441,7 +14439,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>19774</v>
+        <v>19847</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>
@@ -16921,11 +16919,11 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(25/11)</t>
+          <t>(25/12)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>16049</v>
+        <v>16160</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -26037,32 +26035,30 @@
     <row r="218" ht="13" customHeight="1">
       <c r="B218" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Herman Jørgensen Huus</t>
         </is>
       </c>
       <c r="D218" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E218" s="17" t="inlineStr">
-        <is>
-          <t>16,16,76</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E218" s="15" t="n">
+        <v>7.58</v>
       </c>
       <c r="F218" s="7" t="n">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="G218" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Notodden</t>
         </is>
       </c>
       <c r="H218" s="16" t="n">
-        <v>21.05</v>
+        <v>29.12</v>
       </c>
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
@@ -26099,30 +26095,32 @@
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Haakon Heltzer Sørstad</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E219" s="15" t="n">
-        <v>1.7</v>
+        <v>2004</v>
+      </c>
+      <c r="E219" s="17" t="inlineStr">
+        <is>
+          <t>16,16,76</t>
+        </is>
       </c>
       <c r="F219" s="7" t="n">
-        <v>560</v>
+        <v>613</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Hvam</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>3.12</v>
+        <v>21.05</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
@@ -26159,30 +26157,30 @@
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Haakon Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E220" s="15" t="n">
-        <v>11.95</v>
+        <v>1.7</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Hvam</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>11.06</v>
+        <v>3.12</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
@@ -26217,7 +26215,7 @@
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
@@ -26229,18 +26227,18 @@
         <v>2006</v>
       </c>
       <c r="E221" s="15" t="n">
-        <v>12.31</v>
+        <v>11.95</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>7.08</v>
+        <v>11.06</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
@@ -26277,32 +26275,30 @@
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Stig Ketil Andersen</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>1980</v>
-      </c>
-      <c r="E222" s="17" t="inlineStr">
-        <is>
-          <t>2,08,55</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E222" s="15" t="n">
+        <v>12.31</v>
       </c>
       <c r="F222" s="7" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>9.07</v>
+        <v>7.08</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
@@ -26337,32 +26333,32 @@
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Stig Ketil Andersen</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="E223" s="17" t="inlineStr">
         <is>
-          <t>9,44,94</t>
+          <t>2,08,55</t>
         </is>
       </c>
       <c r="F223" s="7" t="n">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>7.05</v>
+        <v>9.07</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
@@ -26397,30 +26393,32 @@
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Vemund Heltzer Sørstad</t>
+          <t>Jonathan Alsaker-Arentz</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E224" s="15" t="n">
-        <v>7.91</v>
+        <v>2004</v>
+      </c>
+      <c r="E224" s="17" t="inlineStr">
+        <is>
+          <t>9,44,94</t>
+        </is>
       </c>
       <c r="F224" s="7" t="n">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>5.03</v>
+        <v>7.05</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
@@ -26455,32 +26453,30 @@
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>Jonathan Alsaker-Arentz</t>
+          <t>Vemund Heltzer Sørstad</t>
         </is>
       </c>
       <c r="D225" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E225" s="17" t="inlineStr">
-        <is>
-          <t>2,10,19</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="E225" s="15" t="n">
+        <v>7.91</v>
       </c>
       <c r="F225" s="7" t="n">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G225" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H225" s="16" t="n">
-        <v>16.05</v>
+        <v>5.03</v>
       </c>
       <c r="J225" s="5" t="n"/>
       <c r="L225" s="14" t="inlineStr">
@@ -26661,7 +26657,7 @@
         </is>
       </c>
       <c r="F229" s="20" t="n">
-        <v>6778</v>
+        <v>6889</v>
       </c>
       <c r="J229" s="5" t="n"/>
       <c r="L229" s="19" t="inlineStr">
@@ -26701,7 +26697,7 @@
         </is>
       </c>
       <c r="F231" s="20" t="n">
-        <v>16049</v>
+        <v>16160</v>
       </c>
       <c r="J231" s="5" t="n"/>
       <c r="L231" s="19" t="inlineStr">
@@ -26733,7 +26729,7 @@
         </is>
       </c>
       <c r="C233" s="20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J233" s="5" t="n"/>
       <c r="L233" s="19" t="inlineStr">
@@ -30736,11 +30732,11 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>23369</v>
+        <v>23591</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -33539,17 +33535,17 @@
       </c>
       <c r="M61" s="7" t="inlineStr">
         <is>
-          <t>Birgitte Langeland Birkeland</t>
+          <t>Christine Bjelland Jensen</t>
         </is>
       </c>
       <c r="N61" s="7" t="n">
-        <v>2007</v>
+        <v>1994</v>
       </c>
       <c r="O61" s="15" t="n">
-        <v>8.119999999999999</v>
+        <v>7.53</v>
       </c>
       <c r="P61" s="7" t="n">
-        <v>698</v>
+        <v>889</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
@@ -33557,7 +33553,7 @@
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>20.02</v>
+        <v>21.12</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -34435,7 +34431,7 @@
         </is>
       </c>
       <c r="P77" s="20" t="n">
-        <v>12549</v>
+        <v>12740</v>
       </c>
       <c r="T77" s="5" t="n"/>
     </row>
@@ -34916,22 +34912,22 @@
       <c r="J88" s="5" t="n"/>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M88" s="7" t="inlineStr">
         <is>
-          <t>Martine Vik</t>
+          <t>Birgitte Langeland Birkeland</t>
         </is>
       </c>
       <c r="N88" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O88" s="15" t="n">
-        <v>11.35</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="P88" s="7" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q88" s="7" t="inlineStr">
         <is>
@@ -34939,7 +34935,7 @@
         </is>
       </c>
       <c r="R88" s="16" t="n">
-        <v>16.12</v>
+        <v>20.02</v>
       </c>
       <c r="T88" s="5" t="n"/>
     </row>
@@ -34976,7 +34972,7 @@
       <c r="J89" s="5" t="n"/>
       <c r="L89" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M89" s="7" t="inlineStr">
@@ -34988,10 +34984,10 @@
         <v>2007</v>
       </c>
       <c r="O89" s="15" t="n">
-        <v>12.87</v>
+        <v>11.35</v>
       </c>
       <c r="P89" s="7" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="Q89" s="7" t="inlineStr">
         <is>
@@ -34999,7 +34995,7 @@
         </is>
       </c>
       <c r="R89" s="16" t="n">
-        <v>10.09</v>
+        <v>16.12</v>
       </c>
       <c r="T89" s="5" t="n"/>
     </row>
@@ -35036,7 +35032,7 @@
       <c r="J90" s="5" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M90" s="7" t="inlineStr">
@@ -35048,18 +35044,18 @@
         <v>2007</v>
       </c>
       <c r="O90" s="15" t="n">
-        <v>26.47</v>
+        <v>12.87</v>
       </c>
       <c r="P90" s="7" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="Q90" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R90" s="16" t="n">
-        <v>14.08</v>
+        <v>10.09</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>
@@ -35101,14 +35097,14 @@
       </c>
       <c r="M91" s="7" t="inlineStr">
         <is>
-          <t>Serine Brakstad</t>
+          <t>Martine Vik</t>
         </is>
       </c>
       <c r="N91" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O91" s="15" t="n">
-        <v>26.48</v>
+        <v>26.47</v>
       </c>
       <c r="P91" s="7" t="n">
         <v>689</v>
@@ -35154,7 +35150,7 @@
       <c r="J92" s="5" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M92" s="7" t="inlineStr">
@@ -35166,10 +35162,10 @@
         <v>2006</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>12.9</v>
+        <v>26.48</v>
       </c>
       <c r="P92" s="7" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Q92" s="7" t="inlineStr">
         <is>
@@ -35177,7 +35173,7 @@
         </is>
       </c>
       <c r="R92" s="16" t="n">
-        <v>12.08</v>
+        <v>14.08</v>
       </c>
       <c r="T92" s="5" t="n"/>
     </row>
@@ -35212,30 +35208,30 @@
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Martine Lundberg Espetvedt</t>
+          <t>Serine Brakstad</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>26.58</v>
+        <v>12.9</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>6.03</v>
+        <v>12.08</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -35270,30 +35266,30 @@
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Julie Dicko Erichsen</t>
+          <t>Martine Lundberg Espetvedt</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>2.58</v>
+        <v>26.58</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>28.09</v>
+        <v>6.03</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -35328,30 +35324,30 @@
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Stina Leivestad Morvik</t>
+          <t>Julie Dicko Erichsen</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>39.21</v>
+        <v>2.58</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>25.09</v>
+        <v>28.09</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -35386,32 +35382,30 @@
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Tunes Lund</t>
+          <t>Stina Leivestad Morvik</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O96" s="17" t="inlineStr">
-        <is>
-          <t>2,19,99</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="O96" s="15" t="n">
+        <v>39.21</v>
       </c>
       <c r="P96" s="7" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>4.06</v>
+        <v>25.09</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
@@ -35465,7 +35459,7 @@
         </is>
       </c>
       <c r="P98" s="20" t="n">
-        <v>10820</v>
+        <v>10851</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
@@ -35505,7 +35499,7 @@
         </is>
       </c>
       <c r="P100" s="20" t="n">
-        <v>23369</v>
+        <v>23591</v>
       </c>
       <c r="T100" s="5" t="n"/>
     </row>
@@ -35529,7 +35523,7 @@
         </is>
       </c>
       <c r="M102" s="20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T102" s="5" t="n"/>
     </row>
@@ -46981,7 +46975,7 @@
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>14893</v>
+        <v>15031</v>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
@@ -47000,25 +46994,25 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Asker Sk. Friidrett</t>
+          <t>Laksevåg TIL</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>(24/11)</t>
+          <t>(25/9)</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>14511</v>
+        <v>14896</v>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>(4/3d)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -47028,25 +47022,25 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Laksevåg TIL</t>
+          <t>Asker Sk. Friidrett</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>(25/10)</t>
+          <t>(24/11)</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>14478</v>
+        <v>14511</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(4/3d)</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -55534,25 +55528,25 @@
       </c>
       <c r="M204" s="7" t="inlineStr">
         <is>
-          <t>Embla Njerve</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N204" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O204" s="15" t="n">
-        <v>10.97</v>
+        <v>11.04</v>
       </c>
       <c r="P204" s="7" t="n">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="Q204" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R204" s="16" t="n">
-        <v>13.02</v>
+        <v>31.12</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -55898,7 +55892,7 @@
         </is>
       </c>
       <c r="P211" s="20" t="n">
-        <v>8024</v>
+        <v>8031</v>
       </c>
       <c r="T211" s="5" t="n"/>
     </row>
@@ -56149,30 +56143,30 @@
       <c r="J218" s="5" t="n"/>
       <c r="L218" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M218" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Embla Njerve</t>
         </is>
       </c>
       <c r="N218" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O218" s="15" t="n">
-        <v>8.51</v>
+        <v>10.97</v>
       </c>
       <c r="P218" s="7" t="n">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="Q218" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R218" s="16" t="n">
-        <v>21.05</v>
+        <v>13.02</v>
       </c>
       <c r="T218" s="5" t="n"/>
     </row>
@@ -56207,30 +56201,30 @@
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Helle Møller-Sivertsen</t>
+          <t>Emma Louise Rolstad</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O219" s="15" t="n">
-        <v>2.62</v>
+        <v>8.51</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>3.09</v>
+        <v>21.05</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -56267,30 +56261,30 @@
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Julianna Henden</t>
+          <t>Helle Møller-Sivertsen</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O220" s="15" t="n">
-        <v>10.12</v>
+        <v>2.62</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Byrkjelo</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>19.02</v>
+        <v>3.09</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -56325,7 +56319,7 @@
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
@@ -56337,10 +56331,10 @@
         <v>2005</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>4.77</v>
+        <v>10.12</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
@@ -56348,7 +56342,7 @@
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>29.01</v>
+        <v>19.02</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
@@ -56383,30 +56377,30 @@
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Adda Hjalmarsdottir</t>
+          <t>Julianna Henden</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O222" s="15" t="n">
-        <v>8.619999999999999</v>
+        <v>4.77</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>26.02</v>
+        <v>29.01</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -56441,7 +56435,7 @@
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
@@ -56453,10 +56447,10 @@
         <v>2000</v>
       </c>
       <c r="O223" s="15" t="n">
-        <v>13.89</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
@@ -56504,11 +56498,11 @@
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Emma Louise Rolstad</t>
+          <t>Adda Hjalmarsdottir</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="O224" s="15" t="n">
         <v>13.89</v>
@@ -56518,11 +56512,11 @@
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>29.05</v>
+        <v>26.02</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -56752,7 +56746,7 @@
         </is>
       </c>
       <c r="P229" s="20" t="n">
-        <v>6869</v>
+        <v>7000</v>
       </c>
       <c r="T229" s="5" t="n"/>
     </row>
@@ -56792,7 +56786,7 @@
         </is>
       </c>
       <c r="P231" s="20" t="n">
-        <v>14893</v>
+        <v>15031</v>
       </c>
       <c r="T231" s="5" t="n"/>
     </row>
@@ -56858,7 +56852,7 @@
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
       <c r="F237" s="8" t="n">
@@ -56872,7 +56866,7 @@
       </c>
       <c r="M237" s="7" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="P237" s="8" t="n">
@@ -56888,7 +56882,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Asker Sk. Friidrett</t>
+          <t>Laksevåg TIL</t>
         </is>
       </c>
       <c r="J238" s="5" t="n"/>
@@ -56899,7 +56893,7 @@
       </c>
       <c r="M238" s="7" t="inlineStr">
         <is>
-          <t>Laksevåg TIL</t>
+          <t>Asker Sk. Friidrett</t>
         </is>
       </c>
       <c r="T238" s="5" t="n"/>
@@ -57023,30 +57017,30 @@
     <row r="244" ht="13" customHeight="1">
       <c r="B244" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Hedda Endsjø</t>
+          <t>Christine-Sofie Lerøen-Pedersen</t>
         </is>
       </c>
       <c r="D244" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E244" s="15" t="n">
-        <v>8.32</v>
+        <v>13.97</v>
       </c>
       <c r="F244" s="7" t="n">
-        <v>641</v>
+        <v>515</v>
       </c>
       <c r="G244" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H244" s="16" t="n">
-        <v>12.02</v>
+        <v>25.09</v>
       </c>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
@@ -57056,55 +57050,55 @@
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Christine-Sofie Lerøen-Pedersen</t>
+          <t>Hedda Endsjø</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>8.890000000000001</v>
+        <v>8.32</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>498</v>
+        <v>641</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>21.09</v>
+        <v>12.02</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
     <row r="245" ht="13" customHeight="1">
       <c r="B245" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>Hedda Endsjø</t>
+          <t>Emilia Totland Osa</t>
         </is>
       </c>
       <c r="D245" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E245" s="15" t="n">
-        <v>13.26</v>
+        <v>28.59</v>
       </c>
       <c r="F245" s="7" t="n">
-        <v>627</v>
+        <v>539</v>
       </c>
       <c r="G245" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H245" s="16" t="n">
-        <v>15.05</v>
+        <v>19.02</v>
       </c>
       <c r="J245" s="5" t="n"/>
       <c r="L245" s="14" t="inlineStr">
@@ -57114,55 +57108,57 @@
       </c>
       <c r="M245" s="7" t="inlineStr">
         <is>
-          <t>Christine-Sofie Lerøen-Pedersen</t>
+          <t>Hedda Endsjø</t>
         </is>
       </c>
       <c r="N245" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O245" s="15" t="n">
-        <v>13.97</v>
+        <v>13.26</v>
       </c>
       <c r="P245" s="7" t="n">
-        <v>515</v>
+        <v>627</v>
       </c>
       <c r="Q245" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R245" s="16" t="n">
-        <v>25.09</v>
+        <v>15.05</v>
       </c>
       <c r="T245" s="5" t="n"/>
     </row>
     <row r="246" ht="13" customHeight="1">
       <c r="B246" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>Susanne Tveit Amundsen</t>
+          <t>Emilia Totland Osa</t>
         </is>
       </c>
       <c r="D246" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E246" s="15" t="n">
-        <v>26.16</v>
+        <v>2008</v>
+      </c>
+      <c r="E246" s="17" t="inlineStr">
+        <is>
+          <t>1,03,34</t>
+        </is>
       </c>
       <c r="F246" s="7" t="n">
-        <v>713</v>
+        <v>580</v>
       </c>
       <c r="G246" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H246" s="16" t="n">
-        <v>6.03</v>
+        <v>20.02</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="14" t="inlineStr">
@@ -57172,57 +57168,57 @@
       </c>
       <c r="M246" s="7" t="inlineStr">
         <is>
-          <t>Emilia Totland Osa</t>
+          <t>Susanne Tveit Amundsen</t>
         </is>
       </c>
       <c r="N246" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O246" s="15" t="n">
-        <v>28.59</v>
+        <v>26.16</v>
       </c>
       <c r="P246" s="7" t="n">
-        <v>539</v>
+        <v>713</v>
       </c>
       <c r="Q246" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R246" s="16" t="n">
-        <v>19.02</v>
+        <v>6.03</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
     <row r="247" ht="13" customHeight="1">
       <c r="B247" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Thea Bakken</t>
+          <t>Emilia Totland Osa</t>
         </is>
       </c>
       <c r="D247" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E247" s="17" t="inlineStr">
         <is>
-          <t>1,01,21</t>
+          <t>5,10,34</t>
         </is>
       </c>
       <c r="F247" s="7" t="n">
-        <v>641</v>
+        <v>559</v>
       </c>
       <c r="G247" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Byrkjelo</t>
         </is>
       </c>
       <c r="H247" s="16" t="n">
-        <v>17.09</v>
+        <v>4.09</v>
       </c>
       <c r="J247" s="5" t="n"/>
       <c r="L247" s="14" t="inlineStr">
@@ -57232,243 +57228,241 @@
       </c>
       <c r="M247" s="7" t="inlineStr">
         <is>
-          <t>Emilia Totland Osa</t>
+          <t>Thea Bakken</t>
         </is>
       </c>
       <c r="N247" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O247" s="17" t="inlineStr">
         <is>
-          <t>1,03,34</t>
+          <t>1,01,21</t>
         </is>
       </c>
       <c r="P247" s="7" t="n">
-        <v>580</v>
+        <v>641</v>
       </c>
       <c r="Q247" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Nittedal</t>
         </is>
       </c>
       <c r="R247" s="16" t="n">
-        <v>20.02</v>
+        <v>17.09</v>
       </c>
       <c r="T247" s="5" t="n"/>
     </row>
     <row r="248" ht="13" customHeight="1">
       <c r="B248" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m kapp.</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>Linnea Hove Låhne</t>
+          <t>Siri Gamst Glittenberg</t>
         </is>
       </c>
       <c r="D248" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E248" s="17" t="inlineStr">
         <is>
-          <t>2,23,28</t>
+          <t>14,09,29</t>
         </is>
       </c>
       <c r="F248" s="7" t="n">
-        <v>629</v>
+        <v>729</v>
       </c>
       <c r="G248" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H248" s="16" t="n">
-        <v>11.06</v>
+        <v>11.05</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M248" s="7" t="inlineStr">
         <is>
-          <t>Emilia Totland Osa</t>
+          <t>Linnea Hove Låhne</t>
         </is>
       </c>
       <c r="N248" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O248" s="17" t="inlineStr">
         <is>
-          <t>5,10,34</t>
+          <t>2,23,28</t>
         </is>
       </c>
       <c r="P248" s="7" t="n">
-        <v>559</v>
+        <v>629</v>
       </c>
       <c r="Q248" s="7" t="inlineStr">
         <is>
-          <t>Byrkjelo</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R248" s="16" t="n">
-        <v>4.09</v>
+        <v>11.06</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
     <row r="249" ht="13" customHeight="1">
       <c r="B249" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>5000m kapp.</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>Linnea Hove Låhne</t>
+          <t>Siri Gamst Glittenberg</t>
         </is>
       </c>
       <c r="D249" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E249" s="17" t="inlineStr">
         <is>
-          <t>5,03,10</t>
+          <t>24,30,34</t>
         </is>
       </c>
       <c r="F249" s="7" t="n">
-        <v>595</v>
+        <v>732</v>
       </c>
       <c r="G249" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H249" s="16" t="n">
-        <v>4.06</v>
+        <v>24.06</v>
       </c>
       <c r="J249" s="5" t="n"/>
       <c r="L249" s="14" t="inlineStr">
         <is>
-          <t>3000m kapp.</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M249" s="7" t="inlineStr">
         <is>
-          <t>Siri Gamst Glittenberg</t>
+          <t>Linnea Hove Låhne</t>
         </is>
       </c>
       <c r="N249" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O249" s="17" t="inlineStr">
         <is>
-          <t>14,09,29</t>
+          <t>5,03,10</t>
         </is>
       </c>
       <c r="P249" s="7" t="n">
-        <v>729</v>
+        <v>595</v>
       </c>
       <c r="Q249" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R249" s="16" t="n">
-        <v>11.05</v>
+        <v>4.06</v>
       </c>
       <c r="T249" s="5" t="n"/>
     </row>
     <row r="250" ht="13" customHeight="1">
       <c r="B250" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Susanne Tveit Amundsen</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="D250" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E250" s="17" t="inlineStr">
-        <is>
-          <t>1,06,70</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E250" s="15" t="n">
+        <v>1.44</v>
       </c>
       <c r="F250" s="7" t="n">
-        <v>657</v>
+        <v>556</v>
       </c>
       <c r="G250" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H250" s="16" t="n">
-        <v>27.08</v>
+        <v>11.09</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="14" t="inlineStr">
         <is>
-          <t>5000m kapp.</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M250" s="7" t="inlineStr">
         <is>
-          <t>Siri Gamst Glittenberg</t>
+          <t>Susanne Tveit Amundsen</t>
         </is>
       </c>
       <c r="N250" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O250" s="17" t="inlineStr">
         <is>
-          <t>24,30,34</t>
+          <t>1,06,70</t>
         </is>
       </c>
       <c r="P250" s="7" t="n">
-        <v>732</v>
+        <v>657</v>
       </c>
       <c r="Q250" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R250" s="16" t="n">
-        <v>24.06</v>
+        <v>27.08</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
     <row r="251" ht="13" customHeight="1">
       <c r="B251" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Susanne Tveit Amundsen</t>
+          <t>Emilia Totland Osa</t>
         </is>
       </c>
       <c r="D251" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E251" s="15" t="n">
-        <v>1.53</v>
+        <v>10.08</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>634</v>
+        <v>567</v>
       </c>
       <c r="G251" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H251" s="16" t="n">
-        <v>12.03</v>
+        <v>21.09</v>
       </c>
       <c r="J251" s="5" t="n"/>
       <c r="L251" s="14" t="inlineStr">
@@ -57478,296 +57472,296 @@
       </c>
       <c r="M251" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Susanne Tveit Amundsen</t>
         </is>
       </c>
       <c r="N251" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O251" s="15" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="P251" s="7" t="n">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="Q251" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R251" s="16" t="n">
-        <v>11.09</v>
+        <v>12.03</v>
       </c>
       <c r="T251" s="5" t="n"/>
     </row>
     <row r="252" ht="13" customHeight="1">
       <c r="B252" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Susanne Tveit Amundsen</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="D252" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E252" s="15" t="n">
-        <v>5.51</v>
+        <v>1.18</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>730</v>
+        <v>529</v>
       </c>
       <c r="G252" s="7" t="inlineStr">
         <is>
-          <t>Seinäjoki/FIN</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H252" s="16" t="n">
-        <v>12.06</v>
+        <v>16.12</v>
       </c>
       <c r="J252" s="5" t="n"/>
       <c r="L252" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M252" s="7" t="inlineStr">
         <is>
-          <t>Emilia Totland Osa</t>
+          <t>Susanne Tveit Amundsen</t>
         </is>
       </c>
       <c r="N252" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O252" s="15" t="n">
-        <v>10.08</v>
+        <v>5.51</v>
       </c>
       <c r="P252" s="7" t="n">
-        <v>567</v>
+        <v>730</v>
       </c>
       <c r="Q252" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Seinäjoki/FIN</t>
         </is>
       </c>
       <c r="R252" s="16" t="n">
-        <v>21.09</v>
+        <v>12.06</v>
       </c>
       <c r="T252" s="5" t="n"/>
     </row>
     <row r="253" ht="13" customHeight="1">
       <c r="B253" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Susanne Tveit Amundsen</t>
+          <t>Beatrice Nedberge Llano</t>
         </is>
       </c>
       <c r="D253" s="7" t="n">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="E253" s="15" t="n">
-        <v>11.83</v>
+        <v>11.45</v>
       </c>
       <c r="F253" s="7" t="n">
-        <v>748</v>
+        <v>683</v>
       </c>
       <c r="G253" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H253" s="16" t="n">
-        <v>19.06</v>
+        <v>28.12</v>
       </c>
       <c r="J253" s="5" t="n"/>
       <c r="L253" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M253" s="7" t="inlineStr">
         <is>
-          <t>Edle Eik Litland</t>
+          <t>Susanne Tveit Amundsen</t>
         </is>
       </c>
       <c r="N253" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="O253" s="15" t="n">
-        <v>10.15</v>
+        <v>11.83</v>
       </c>
       <c r="P253" s="7" t="n">
-        <v>604</v>
+        <v>748</v>
       </c>
       <c r="Q253" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R253" s="16" t="n">
-        <v>6.06</v>
+        <v>19.06</v>
       </c>
       <c r="T253" s="5" t="n"/>
     </row>
     <row r="254" ht="13" customHeight="1">
       <c r="B254" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>Elisabeth Thon Rosvold</t>
+          <t>Beatrice Nedberge Llano</t>
         </is>
       </c>
       <c r="D254" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E254" s="15" t="n">
-        <v>13.58</v>
+        <v>35.48</v>
       </c>
       <c r="F254" s="7" t="n">
-        <v>791</v>
+        <v>662</v>
       </c>
       <c r="G254" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H254" s="16" t="n">
-        <v>24.06</v>
+        <v>28.12</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M254" s="7" t="inlineStr">
         <is>
-          <t>Edle Eik Litland</t>
+          <t>Elisabeth Thon Rosvold</t>
         </is>
       </c>
       <c r="N254" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="O254" s="15" t="n">
-        <v>29.69</v>
+        <v>13.58</v>
       </c>
       <c r="P254" s="7" t="n">
-        <v>576</v>
+        <v>791</v>
       </c>
       <c r="Q254" s="7" t="inlineStr">
         <is>
-          <t>Knarvik</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R254" s="16" t="n">
-        <v>6.06</v>
+        <v>24.06</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
     <row r="255" ht="13" customHeight="1">
       <c r="B255" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>Elisabeth Thon Rosvold</t>
+          <t>Beatrice Nedberge Llano</t>
         </is>
       </c>
       <c r="D255" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E255" s="15" t="n">
-        <v>53.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F255" s="7" t="n">
-        <v>906</v>
+        <v>1060</v>
       </c>
       <c r="G255" s="7" t="inlineStr">
         <is>
-          <t>Oslo/NIH</t>
+          <t>Eugene/OR/USA</t>
         </is>
       </c>
       <c r="H255" s="16" t="n">
-        <v>3.08</v>
+        <v>9.06</v>
       </c>
       <c r="J255" s="5" t="n"/>
       <c r="L255" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M255" s="7" t="inlineStr">
         <is>
-          <t>Beatrice Nedberge Llano</t>
+          <t>Elisabeth Thon Rosvold</t>
         </is>
       </c>
       <c r="N255" s="7" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="O255" s="15" t="n">
-        <v>72.09999999999999</v>
+        <v>53.2</v>
       </c>
       <c r="P255" s="7" t="n">
-        <v>1060</v>
+        <v>906</v>
       </c>
       <c r="Q255" s="7" t="inlineStr">
         <is>
-          <t>Eugene/OR/USA</t>
+          <t>Oslo/NIH</t>
         </is>
       </c>
       <c r="R255" s="16" t="n">
-        <v>9.06</v>
+        <v>3.08</v>
       </c>
       <c r="T255" s="5" t="n"/>
     </row>
     <row r="256" ht="13" customHeight="1">
-      <c r="B256" s="14" t="n"/>
-      <c r="C256" s="7" t="n"/>
-      <c r="D256" s="7" t="n"/>
-      <c r="E256" s="7" t="n"/>
-      <c r="F256" s="7" t="n"/>
-      <c r="G256" s="7" t="n"/>
-      <c r="H256" s="21" t="n"/>
+      <c r="B256" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C256" s="7" t="inlineStr">
+        <is>
+          <t>Vår Eik Litland</t>
+        </is>
+      </c>
+      <c r="D256" s="7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E256" s="15" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="F256" s="7" t="n">
+        <v>830</v>
+      </c>
+      <c r="G256" s="7" t="inlineStr">
+        <is>
+          <t>Knarvik</t>
+        </is>
+      </c>
+      <c r="H256" s="16" t="n">
+        <v>6.06</v>
+      </c>
       <c r="J256" s="5" t="n"/>
-      <c r="L256" s="14" t="inlineStr">
-        <is>
-          <t>Spyd</t>
-        </is>
-      </c>
-      <c r="M256" s="7" t="inlineStr">
-        <is>
-          <t>Vår Eik Litland</t>
-        </is>
-      </c>
-      <c r="N256" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O256" s="15" t="n">
-        <v>48.37</v>
-      </c>
-      <c r="P256" s="7" t="n">
-        <v>830</v>
-      </c>
-      <c r="Q256" s="7" t="inlineStr">
-        <is>
-          <t>Knarvik</t>
-        </is>
-      </c>
-      <c r="R256" s="16" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="L256" s="14" t="n"/>
+      <c r="M256" s="7" t="n"/>
+      <c r="N256" s="7" t="n"/>
+      <c r="O256" s="7" t="n"/>
+      <c r="P256" s="7" t="n"/>
+      <c r="Q256" s="7" t="n"/>
+      <c r="R256" s="21" t="n"/>
       <c r="T256" s="5" t="n"/>
     </row>
     <row r="257" ht="13" customHeight="1">
@@ -57795,7 +57789,7 @@
         </is>
       </c>
       <c r="C258" s="20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E258" s="19" t="inlineStr">
         <is>
@@ -57803,7 +57797,7 @@
         </is>
       </c>
       <c r="F258" s="20" t="n">
-        <v>8312</v>
+        <v>8541</v>
       </c>
       <c r="J258" s="5" t="n"/>
       <c r="L258" s="19" t="inlineStr">
@@ -57812,7 +57806,7 @@
         </is>
       </c>
       <c r="M258" s="20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O258" s="19" t="inlineStr">
         <is>
@@ -57820,7 +57814,7 @@
         </is>
       </c>
       <c r="P258" s="20" t="n">
-        <v>8345</v>
+        <v>8312</v>
       </c>
       <c r="T258" s="5" t="n"/>
     </row>
@@ -57923,118 +57917,116 @@
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Hedda Endsjø</t>
+          <t>Edle Eik Litland</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E263" s="15" t="n">
-        <v>27.46</v>
+        <v>10.15</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>4.06</v>
+        <v>6.06</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>Paula Llano Skagestad</t>
+          <t>Hedda Endsjø</t>
         </is>
       </c>
       <c r="N263" s="7" t="n">
-        <v>1995</v>
+        <v>2008</v>
       </c>
       <c r="O263" s="15" t="n">
-        <v>28.51</v>
+        <v>27.46</v>
       </c>
       <c r="P263" s="7" t="n">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="Q263" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R263" s="16" t="n">
-        <v>7.09</v>
+        <v>4.06</v>
       </c>
       <c r="T263" s="5" t="n"/>
     </row>
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Julie Mohn Grønnæss</t>
+          <t>Edle Eik Litland</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E264" s="15" t="n">
-        <v>8.44</v>
+        <v>29.69</v>
       </c>
       <c r="F264" s="7" t="n">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Knarvik</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>5.06</v>
+        <v>6.06</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>3000m kapp.</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Amanda Totland Osa</t>
+          <t>Julie Mohn Grønnæss</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O264" s="17" t="inlineStr">
-        <is>
-          <t>15,55,01</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O264" s="15" t="n">
+        <v>8.44</v>
       </c>
       <c r="P264" s="7" t="n">
-        <v>556</v>
+        <v>609</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>24.09</v>
+        <v>5.06</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
@@ -58046,111 +58038,113 @@
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Tora Pedersen Bergan</t>
+          <t>Paula Llano Skagestad</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="E265" s="15" t="n">
-        <v>29.14</v>
+        <v>28.51</v>
       </c>
       <c r="F265" s="7" t="n">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Heggedal</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>16.05</v>
+        <v>7.09</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Tora Pedersen Bergan</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="O265" s="15" t="n">
-        <v>1.18</v>
+        <v>29.14</v>
       </c>
       <c r="P265" s="7" t="n">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Heggedal</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>16.12</v>
+        <v>16.05</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>3000m kapp.</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Julia Refvik</t>
+          <t>Amanda Totland Osa</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E266" s="15" t="n">
-        <v>28.99</v>
+        <v>2006</v>
+      </c>
+      <c r="E266" s="17" t="inlineStr">
+        <is>
+          <t>15,55,01</t>
+        </is>
       </c>
       <c r="F266" s="7" t="n">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>4.06</v>
+        <v>24.09</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Christine-Sofie Lerøen-Pedersen</t>
+          <t>Julia Refvik</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="O266" s="15" t="n">
-        <v>28.79</v>
+        <v>28.99</v>
       </c>
       <c r="P266" s="7" t="n">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>13.08</v>
+        <v>4.06</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
@@ -58162,291 +58156,291 @@
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Thea Norgren Funderud</t>
+          <t>Christine-Sofie Lerøen-Pedersen</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E267" s="15" t="n">
-        <v>28.32</v>
+        <v>28.79</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>4.06</v>
+        <v>13.08</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Christine-Sofie Lerøen-Pedersen</t>
+          <t>Thea Norgren Funderud</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O267" s="17" t="inlineStr">
-        <is>
-          <t>1,05,46</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O267" s="15" t="n">
+        <v>28.32</v>
       </c>
       <c r="P267" s="7" t="n">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>28.09</v>
+        <v>4.06</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
     <row r="268" ht="13" customHeight="1">
       <c r="B268" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>Thea Norgren Funderud</t>
+          <t>Christine-Sofie Lerøen-Pedersen</t>
         </is>
       </c>
       <c r="D268" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="E268" s="15" t="n">
-        <v>8.65</v>
+        <v>2006</v>
+      </c>
+      <c r="E268" s="17" t="inlineStr">
+        <is>
+          <t>1,05,46</t>
+        </is>
       </c>
       <c r="F268" s="7" t="n">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="G268" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H268" s="16" t="n">
-        <v>5.06</v>
+        <v>28.09</v>
       </c>
       <c r="J268" s="5" t="n"/>
       <c r="L268" s="14" t="inlineStr">
         <is>
-          <t>5000m kapp.</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M268" s="7" t="inlineStr">
         <is>
-          <t>Amanda Totland Osa</t>
+          <t>Thea Norgren Funderud</t>
         </is>
       </c>
       <c r="N268" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O268" s="17" t="inlineStr">
-        <is>
-          <t>28,20,89</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="O268" s="15" t="n">
+        <v>8.65</v>
       </c>
       <c r="P268" s="7" t="n">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="Q268" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R268" s="16" t="n">
-        <v>21.05</v>
+        <v>5.06</v>
       </c>
       <c r="T268" s="5" t="n"/>
     </row>
     <row r="269" ht="13" customHeight="1">
       <c r="B269" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m kapp.</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>Linnea Hove Låhne</t>
+          <t>Amanda Totland Osa</t>
         </is>
       </c>
       <c r="D269" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E269" s="15" t="n">
-        <v>28.49</v>
+        <v>2006</v>
+      </c>
+      <c r="E269" s="17" t="inlineStr">
+        <is>
+          <t>28,20,89</t>
+        </is>
       </c>
       <c r="F269" s="7" t="n">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="G269" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H269" s="16" t="n">
-        <v>13.02</v>
+        <v>21.05</v>
       </c>
       <c r="J269" s="5" t="n"/>
       <c r="L269" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M269" s="7" t="inlineStr">
         <is>
-          <t>Siri Gamst Glittenberg</t>
+          <t>Linnea Hove Låhne</t>
         </is>
       </c>
       <c r="N269" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>1.17</v>
+        <v>28.49</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>29.03</v>
+        <v>13.02</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
     <row r="270" ht="13" customHeight="1">
       <c r="B270" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>Thea Bakken</t>
+          <t>Siri Gamst Glittenberg</t>
         </is>
       </c>
       <c r="D270" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E270" s="17" t="inlineStr">
-        <is>
-          <t>2,32,94</t>
-        </is>
+        <v>2002</v>
+      </c>
+      <c r="E270" s="15" t="n">
+        <v>1.17</v>
       </c>
       <c r="F270" s="7" t="n">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G270" s="7" t="inlineStr">
         <is>
-          <t>Melbourne/FL/USA</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H270" s="16" t="n">
-        <v>5.03</v>
+        <v>29.03</v>
       </c>
       <c r="J270" s="5" t="n"/>
       <c r="L270" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M270" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Thea Bakken</t>
         </is>
       </c>
       <c r="N270" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O270" s="15" t="n">
-        <v>2.32</v>
+        <v>2004</v>
+      </c>
+      <c r="O270" s="17" t="inlineStr">
+        <is>
+          <t>2,32,94</t>
+        </is>
       </c>
       <c r="P270" s="7" t="n">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="Q270" s="7" t="inlineStr">
         <is>
-          <t>Bergen/La</t>
+          <t>Melbourne/FL/USA</t>
         </is>
       </c>
       <c r="R270" s="16" t="n">
-        <v>13.12</v>
+        <v>5.03</v>
       </c>
       <c r="T270" s="5" t="n"/>
     </row>
     <row r="271" ht="13" customHeight="1">
       <c r="B271" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Thea Norgren Funderud</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="D271" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E271" s="15" t="n">
-        <v>13.98</v>
+        <v>2.32</v>
       </c>
       <c r="F271" s="7" t="n">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G271" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H271" s="16" t="n">
-        <v>3.06</v>
+        <v>13.12</v>
       </c>
       <c r="J271" s="5" t="n"/>
       <c r="L271" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M271" s="7" t="inlineStr">
         <is>
-          <t>Emilia Totland Osa</t>
+          <t>Thea Norgren Funderud</t>
         </is>
       </c>
       <c r="N271" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O271" s="15" t="n">
-        <v>8.92</v>
+        <v>13.98</v>
       </c>
       <c r="P271" s="7" t="n">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="Q271" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R271" s="16" t="n">
-        <v>21.05</v>
+        <v>3.06</v>
       </c>
       <c r="T271" s="5" t="n"/>
     </row>
@@ -58458,169 +58452,169 @@
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Nora Hulbekkmo Låstad</t>
+          <t>Christine-Sofie Lerøen-Pedersen</t>
         </is>
       </c>
       <c r="D272" s="7" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E272" s="15" t="n">
-        <v>9.24</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F272" s="7" t="n">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="G272" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Bergen/La</t>
         </is>
       </c>
       <c r="H272" s="16" t="n">
-        <v>5.06</v>
+        <v>21.09</v>
       </c>
       <c r="J272" s="5" t="n"/>
       <c r="L272" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M272" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Nora Hulbekkmo Låstad</t>
         </is>
       </c>
       <c r="N272" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O272" s="15" t="n">
-        <v>29.62</v>
+        <v>9.24</v>
       </c>
       <c r="P272" s="7" t="n">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="Q272" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R272" s="16" t="n">
-        <v>27.05</v>
+        <v>5.06</v>
       </c>
       <c r="T272" s="5" t="n"/>
     </row>
     <row r="273" ht="13" customHeight="1">
       <c r="B273" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>Nora Hulbekkmo Låstad</t>
+          <t>Emilia Totland Osa</t>
         </is>
       </c>
       <c r="D273" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E273" s="15" t="n">
-        <v>1.3</v>
+        <v>8.92</v>
       </c>
       <c r="F273" s="7" t="n">
-        <v>418</v>
+        <v>491</v>
       </c>
       <c r="G273" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="H273" s="16" t="n">
-        <v>5.06</v>
+        <v>21.05</v>
       </c>
       <c r="J273" s="5" t="n"/>
       <c r="L273" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M273" s="7" t="inlineStr">
         <is>
-          <t>Henriette Torgersen</t>
+          <t>Nora Hulbekkmo Låstad</t>
         </is>
       </c>
       <c r="N273" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O273" s="15" t="n">
-        <v>9.02</v>
+        <v>1.3</v>
       </c>
       <c r="P273" s="7" t="n">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="Q273" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R273" s="16" t="n">
-        <v>21.05</v>
+        <v>5.06</v>
       </c>
       <c r="T273" s="5" t="n"/>
     </row>
     <row r="274" ht="13" customHeight="1">
       <c r="B274" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>Pippa Alessandra Schrama</t>
+          <t>Henriette Torgersen</t>
         </is>
       </c>
       <c r="D274" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E274" s="15" t="n">
-        <v>1.2</v>
+        <v>29.62</v>
       </c>
       <c r="F274" s="7" t="n">
-        <v>303</v>
+        <v>474</v>
       </c>
       <c r="G274" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H274" s="16" t="n">
-        <v>5.06</v>
+        <v>27.05</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M274" s="7" t="inlineStr">
         <is>
-          <t>Henriette Mæhlum</t>
+          <t>Pippa Alessandra Schrama</t>
         </is>
       </c>
       <c r="N274" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O274" s="15" t="n">
-        <v>9.06</v>
+        <v>1.2</v>
       </c>
       <c r="P274" s="7" t="n">
-        <v>459</v>
+        <v>303</v>
       </c>
       <c r="Q274" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R274" s="16" t="n">
-        <v>24.09</v>
+        <v>5.06</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -58657,7 +58651,7 @@
         </is>
       </c>
       <c r="F276" s="20" t="n">
-        <v>6199</v>
+        <v>6355</v>
       </c>
       <c r="J276" s="5" t="n"/>
       <c r="L276" s="19" t="inlineStr">
@@ -58674,7 +58668,7 @@
         </is>
       </c>
       <c r="P276" s="20" t="n">
-        <v>6133</v>
+        <v>6199</v>
       </c>
       <c r="T276" s="5" t="n"/>
     </row>
@@ -58689,7 +58683,7 @@
         </is>
       </c>
       <c r="C278" s="20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E278" s="19" t="inlineStr">
         <is>
@@ -58697,7 +58691,7 @@
         </is>
       </c>
       <c r="F278" s="20" t="n">
-        <v>14511</v>
+        <v>14896</v>
       </c>
       <c r="J278" s="5" t="n"/>
       <c r="L278" s="19" t="inlineStr">
@@ -58706,7 +58700,7 @@
         </is>
       </c>
       <c r="M278" s="20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O278" s="19" t="inlineStr">
         <is>
@@ -58714,7 +58708,7 @@
         </is>
       </c>
       <c r="P278" s="20" t="n">
-        <v>14478</v>
+        <v>14511</v>
       </c>
       <c r="T278" s="5" t="n"/>
     </row>
@@ -58729,7 +58723,7 @@
         </is>
       </c>
       <c r="C280" s="20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="19" t="inlineStr">
@@ -58738,7 +58732,7 @@
         </is>
       </c>
       <c r="M280" s="20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -30755,25 +30755,25 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>22063</v>
+        <v>22109</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -30783,25 +30783,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>21990</v>
+        <v>22063</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -30811,25 +30811,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Fredrikstad IF</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(30/13)</t>
+          <t>(30/14)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>21939</v>
+        <v>21990</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -30839,25 +30839,25 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Fredrikstad IF</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>(30/14)</t>
+          <t>(30/13)</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>21836</v>
+        <v>21939</v>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -35565,7 +35565,7 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
       <c r="F106" s="8" t="n">
@@ -35579,7 +35579,7 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Rogaland</t>
         </is>
       </c>
       <c r="P106" s="8" t="n">
@@ -35595,7 +35595,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="J107" s="5" t="n"/>
@@ -35606,7 +35606,7 @@
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Idrettslaget Skjalg</t>
         </is>
       </c>
       <c r="T107" s="5" t="n"/>
@@ -35735,25 +35735,25 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Solveig Bustgård Gran</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>7.97</v>
+        <v>7.73</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>743</v>
+        <v>821</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>10.09</v>
+        <v>5.03</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -35763,25 +35763,25 @@
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Nora Aune</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>7.74</v>
+        <v>7.97</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>818</v>
+        <v>743</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>12.02</v>
+        <v>10.09</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
@@ -35793,25 +35793,25 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Solveig Bustgård Gran</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>12.29</v>
+        <v>12.24</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>12.08</v>
+        <v>24.06</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -35821,25 +35821,25 @@
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Nora Aune</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>12.2</v>
+        <v>12.29</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>16.06</v>
+        <v>12.08</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -35851,25 +35851,25 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Elisabeth Slettum</t>
+          <t>Solveig Bustgård Gran</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>1986</v>
+        <v>2002</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>23.32</v>
+        <v>25.01</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>958</v>
+        <v>806</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>16.06</v>
+        <v>6.03</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -35879,25 +35879,25 @@
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Nora Aune</t>
+          <t>Elisabeth Slettum</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>2004</v>
+        <v>1986</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>24.71</v>
+        <v>23.32</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>831</v>
+        <v>958</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>6.03</v>
+        <v>16.06</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -35909,25 +35909,25 @@
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Elisabeth Slettum</t>
+          <t>Solveig Bustgård Gran</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>1986</v>
+        <v>2002</v>
       </c>
       <c r="E116" s="15" t="n">
-        <v>53.15</v>
+        <v>56.11</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>928</v>
+        <v>814</v>
       </c>
       <c r="G116" s="7" t="inlineStr">
         <is>
-          <t>Berlin/GER</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H116" s="16" t="n">
-        <v>4.09</v>
+        <v>16.07</v>
       </c>
       <c r="J116" s="5" t="n"/>
       <c r="L116" s="14" t="inlineStr">
@@ -35937,25 +35937,25 @@
       </c>
       <c r="M116" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Elisabeth Slettum</t>
         </is>
       </c>
       <c r="N116" s="7" t="n">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="O116" s="15" t="n">
-        <v>55.69</v>
+        <v>53.15</v>
       </c>
       <c r="P116" s="7" t="n">
-        <v>829</v>
+        <v>928</v>
       </c>
       <c r="Q116" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Berlin/GER</t>
         </is>
       </c>
       <c r="R116" s="16" t="n">
-        <v>25.06</v>
+        <v>4.09</v>
       </c>
       <c r="T116" s="5" t="n"/>
     </row>
@@ -35967,27 +35967,27 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Sara Busic</t>
+          <t>Aurora Langbakk</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E117" s="17" t="inlineStr">
         <is>
-          <t>2,08,24</t>
+          <t>2,16,33</t>
         </is>
       </c>
       <c r="F117" s="7" t="n">
-        <v>829</v>
+        <v>713</v>
       </c>
       <c r="G117" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>5.08</v>
+        <v>27.08</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="inlineStr">
@@ -35997,27 +35997,27 @@
       </c>
       <c r="M117" s="7" t="inlineStr">
         <is>
-          <t>Synnøve Antonsen Torp</t>
+          <t>Sara Busic</t>
         </is>
       </c>
       <c r="N117" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="O117" s="17" t="inlineStr">
         <is>
-          <t>2,13,93</t>
+          <t>2,08,24</t>
         </is>
       </c>
       <c r="P117" s="7" t="n">
-        <v>745</v>
+        <v>829</v>
       </c>
       <c r="Q117" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R117" s="16" t="n">
-        <v>11.06</v>
+        <v>5.08</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -36029,27 +36029,27 @@
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Sara Busic</t>
+          <t>Aurora Langbakk</t>
         </is>
       </c>
       <c r="D118" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E118" s="17" t="inlineStr">
         <is>
-          <t>4,19,82</t>
+          <t>4,50,32</t>
         </is>
       </c>
       <c r="F118" s="7" t="n">
-        <v>865</v>
+        <v>664</v>
       </c>
       <c r="G118" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H118" s="16" t="n">
-        <v>25.06</v>
+        <v>26.08</v>
       </c>
       <c r="J118" s="5" t="n"/>
       <c r="L118" s="14" t="inlineStr">
@@ -36059,19 +36059,19 @@
       </c>
       <c r="M118" s="7" t="inlineStr">
         <is>
-          <t>Synnøve Antonsen Torp</t>
+          <t>Sara Busic</t>
         </is>
       </c>
       <c r="N118" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="O118" s="17" t="inlineStr">
         <is>
-          <t>4,33,65</t>
+          <t>4,19,82</t>
         </is>
       </c>
       <c r="P118" s="7" t="n">
-        <v>765</v>
+        <v>865</v>
       </c>
       <c r="Q118" s="7" t="inlineStr">
         <is>
@@ -36091,27 +36091,27 @@
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>Sara Busic</t>
+          <t>Cathrine Grønbech</t>
         </is>
       </c>
       <c r="D119" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E119" s="17" t="inlineStr">
         <is>
-          <t>9,24,30</t>
+          <t>10,59,78</t>
         </is>
       </c>
       <c r="F119" s="7" t="n">
-        <v>851</v>
+        <v>591</v>
       </c>
       <c r="G119" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H119" s="16" t="n">
-        <v>30.07</v>
+        <v>12.08</v>
       </c>
       <c r="J119" s="5" t="n"/>
       <c r="L119" s="14" t="inlineStr">
@@ -36121,27 +36121,27 @@
       </c>
       <c r="M119" s="7" t="inlineStr">
         <is>
-          <t>Synnøve Antonsen Torp</t>
+          <t>Sara Busic</t>
         </is>
       </c>
       <c r="N119" s="7" t="n">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="O119" s="17" t="inlineStr">
         <is>
-          <t>10,25,62</t>
+          <t>9,24,30</t>
         </is>
       </c>
       <c r="P119" s="7" t="n">
-        <v>674</v>
+        <v>851</v>
       </c>
       <c r="Q119" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R119" s="16" t="n">
-        <v>3.05</v>
+        <v>30.07</v>
       </c>
       <c r="T119" s="5" t="n"/>
     </row>
@@ -36153,25 +36153,25 @@
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Josefina Biernacki</t>
         </is>
       </c>
       <c r="D120" s="7" t="n">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E120" s="15" t="n">
-        <v>8.720000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="F120" s="7" t="n">
-        <v>836</v>
+        <v>794</v>
       </c>
       <c r="G120" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Allston/MA/USA</t>
         </is>
       </c>
       <c r="H120" s="16" t="n">
-        <v>15.01</v>
+        <v>3.12</v>
       </c>
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="14" t="inlineStr">
@@ -36181,25 +36181,25 @@
       </c>
       <c r="M120" s="7" t="inlineStr">
         <is>
-          <t>Kristina Reppe</t>
+          <t>Tonje Nedberg</t>
         </is>
       </c>
       <c r="N120" s="7" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="O120" s="15" t="n">
-        <v>8.6</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="P120" s="7" t="n">
-        <v>862</v>
+        <v>836</v>
       </c>
       <c r="Q120" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R120" s="16" t="n">
-        <v>4.03</v>
+        <v>15.01</v>
       </c>
       <c r="T120" s="5" t="n"/>
     </row>
@@ -36211,55 +36211,53 @@
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Josefina Biernacki</t>
         </is>
       </c>
       <c r="D121" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E121" s="15" t="n">
-        <v>14.88</v>
+        <v>13.74</v>
       </c>
       <c r="F121" s="7" t="n">
-        <v>778</v>
+        <v>902</v>
       </c>
       <c r="G121" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Malmø/SWE</t>
         </is>
       </c>
       <c r="H121" s="16" t="n">
-        <v>28.08</v>
+        <v>17.07</v>
       </c>
       <c r="J121" s="5" t="n"/>
       <c r="L121" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M121" s="7" t="inlineStr">
         <is>
-          <t>Nora Bakke</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="N121" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O121" s="17" t="inlineStr">
-        <is>
-          <t>1,06,43</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O121" s="15" t="n">
+        <v>14.88</v>
       </c>
       <c r="P121" s="7" t="n">
-        <v>664</v>
+        <v>778</v>
       </c>
       <c r="Q121" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R121" s="16" t="n">
-        <v>4.06</v>
+        <v>28.08</v>
       </c>
       <c r="T121" s="5" t="n"/>
     </row>
@@ -36271,141 +36269,143 @@
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Elisabeth Slettum</t>
+          <t>Elizabeth Pettersen Turk</t>
         </is>
       </c>
       <c r="D122" s="7" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E122" s="15" t="n">
-        <v>55.77</v>
+        <v>2001</v>
+      </c>
+      <c r="E122" s="17" t="inlineStr">
+        <is>
+          <t>1,08,31</t>
+        </is>
       </c>
       <c r="F122" s="7" t="n">
-        <v>989</v>
+        <v>622</v>
       </c>
       <c r="G122" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Sagunto/ESP</t>
         </is>
       </c>
       <c r="H122" s="16" t="n">
-        <v>30.06</v>
+        <v>11.06</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M122" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Elisabeth Slettum</t>
         </is>
       </c>
       <c r="N122" s="7" t="n">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="O122" s="15" t="n">
-        <v>1.63</v>
+        <v>55.77</v>
       </c>
       <c r="P122" s="7" t="n">
-        <v>716</v>
+        <v>989</v>
       </c>
       <c r="Q122" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R122" s="16" t="n">
-        <v>13.08</v>
+        <v>30.06</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
     <row r="123" ht="13" customHeight="1">
       <c r="B123" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>Anna Theodora Helgesen</t>
+          <t>Lene Onsrud Retzius</t>
         </is>
       </c>
       <c r="D123" s="7" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E123" s="15" t="n">
-        <v>1.55</v>
+        <v>4.7</v>
       </c>
       <c r="F123" s="7" t="n">
-        <v>651</v>
+        <v>1067</v>
       </c>
       <c r="G123" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Genève/SUI</t>
         </is>
       </c>
       <c r="H123" s="16" t="n">
-        <v>25.08</v>
+        <v>11.06</v>
       </c>
       <c r="J123" s="5" t="n"/>
       <c r="L123" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M123" s="7" t="inlineStr">
         <is>
-          <t>Agnes Elisabeth Morud</t>
+          <t>Anna Theodora Helgesen</t>
         </is>
       </c>
       <c r="N123" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O123" s="15" t="n">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="P123" s="7" t="n">
-        <v>806</v>
+        <v>651</v>
       </c>
       <c r="Q123" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R123" s="16" t="n">
-        <v>16.06</v>
+        <v>25.08</v>
       </c>
       <c r="T123" s="5" t="n"/>
     </row>
     <row r="124" ht="13" customHeight="1">
       <c r="B124" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Solveig Bustgård Gran</t>
         </is>
       </c>
       <c r="D124" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E124" s="15" t="n">
-        <v>4.94</v>
+        <v>11.73</v>
       </c>
       <c r="F124" s="7" t="n">
-        <v>605</v>
+        <v>738</v>
       </c>
       <c r="G124" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H124" s="16" t="n">
-        <v>15.01</v>
+        <v>28.08</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="14" t="inlineStr">
@@ -36415,55 +36415,55 @@
       </c>
       <c r="M124" s="7" t="inlineStr">
         <is>
-          <t>Mia Guldteig Lien</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="N124" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O124" s="15" t="n">
-        <v>6.2</v>
+        <v>4.94</v>
       </c>
       <c r="P124" s="7" t="n">
-        <v>887</v>
+        <v>605</v>
       </c>
       <c r="Q124" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R124" s="16" t="n">
-        <v>6.02</v>
+        <v>15.01</v>
       </c>
       <c r="T124" s="5" t="n"/>
     </row>
     <row r="125" ht="13" customHeight="1">
       <c r="B125" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Anna Theodora Helgesen</t>
+          <t>Lene Onsrud Retzius</t>
         </is>
       </c>
       <c r="D125" s="7" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E125" s="15" t="n">
-        <v>10.44</v>
+        <v>2.56</v>
       </c>
       <c r="F125" s="7" t="n">
-        <v>604</v>
+        <v>666</v>
       </c>
       <c r="G125" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H125" s="16" t="n">
-        <v>18.06</v>
+        <v>6.02</v>
       </c>
       <c r="J125" s="5" t="n"/>
       <c r="L125" s="14" t="inlineStr">
@@ -36473,55 +36473,55 @@
       </c>
       <c r="M125" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Anna Theodora Helgesen</t>
         </is>
       </c>
       <c r="N125" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O125" s="15" t="n">
-        <v>11.6</v>
+        <v>10.44</v>
       </c>
       <c r="P125" s="7" t="n">
-        <v>724</v>
+        <v>604</v>
       </c>
       <c r="Q125" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R125" s="16" t="n">
-        <v>28.08</v>
+        <v>18.06</v>
       </c>
       <c r="T125" s="5" t="n"/>
     </row>
     <row r="126" ht="13" customHeight="1">
       <c r="B126" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Arianne Duarte Morais</t>
         </is>
       </c>
       <c r="D126" s="7" t="n">
         <v>1999</v>
       </c>
       <c r="E126" s="15" t="n">
-        <v>2.6</v>
+        <v>13.08</v>
       </c>
       <c r="F126" s="7" t="n">
-        <v>689</v>
+        <v>767</v>
       </c>
       <c r="G126" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Tempe/AZ/USA</t>
         </is>
       </c>
       <c r="H126" s="16" t="n">
-        <v>6.02</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J126" s="5" t="n"/>
       <c r="L126" s="14" t="inlineStr">
@@ -36531,55 +36531,55 @@
       </c>
       <c r="M126" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Tonje Nedberg</t>
         </is>
       </c>
       <c r="N126" s="7" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="O126" s="15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="P126" s="7" t="n">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="Q126" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R126" s="16" t="n">
-        <v>29.09</v>
+        <v>6.02</v>
       </c>
       <c r="T126" s="5" t="n"/>
     </row>
     <row r="127" ht="13" customHeight="1">
       <c r="B127" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>Pia Omdahl Tresselt</t>
+          <t>Arianne Duarte Morais</t>
         </is>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E127" s="15" t="n">
-        <v>21.9</v>
+        <v>51.04</v>
       </c>
       <c r="F127" s="7" t="n">
-        <v>430</v>
+        <v>871</v>
       </c>
       <c r="G127" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Fayetteville/AR/USA</t>
         </is>
       </c>
       <c r="H127" s="16" t="n">
-        <v>11.09</v>
+        <v>26.05</v>
       </c>
       <c r="J127" s="5" t="n"/>
       <c r="L127" s="14" t="inlineStr">
@@ -36589,25 +36589,25 @@
       </c>
       <c r="M127" s="7" t="inlineStr">
         <is>
-          <t>Maia Kristine Hepsø</t>
+          <t>Pia Omdahl Tresselt</t>
         </is>
       </c>
       <c r="N127" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O127" s="15" t="n">
-        <v>26.5</v>
+        <v>21.9</v>
       </c>
       <c r="P127" s="7" t="n">
-        <v>522</v>
+        <v>430</v>
       </c>
       <c r="Q127" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R127" s="16" t="n">
-        <v>12.06</v>
+        <v>11.09</v>
       </c>
       <c r="T127" s="5" t="n"/>
     </row>
@@ -36644,7 +36644,7 @@
         </is>
       </c>
       <c r="F129" s="20" t="n">
-        <v>11554</v>
+        <v>11644</v>
       </c>
       <c r="J129" s="5" t="n"/>
       <c r="L129" s="19" t="inlineStr">
@@ -36661,7 +36661,7 @@
         </is>
       </c>
       <c r="P129" s="20" t="n">
-        <v>11358</v>
+        <v>11554</v>
       </c>
       <c r="T129" s="5" t="n"/>
     </row>
@@ -36764,146 +36764,146 @@
     <row r="134" ht="13" customHeight="1">
       <c r="B134" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Thea Aase Pedersen</t>
         </is>
       </c>
       <c r="D134" s="7" t="n">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E134" s="15" t="n">
-        <v>54.17</v>
+        <v>7.76</v>
       </c>
       <c r="F134" s="7" t="n">
-        <v>887</v>
+        <v>811</v>
       </c>
       <c r="G134" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H134" s="16" t="n">
-        <v>25.06</v>
+        <v>5.03</v>
       </c>
       <c r="J134" s="5" t="n"/>
       <c r="L134" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M134" s="7" t="inlineStr">
         <is>
-          <t>Hannah Rebekah Murai-Ubby</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="N134" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O134" s="15" t="n">
-        <v>24.9</v>
+        <v>54.17</v>
       </c>
       <c r="P134" s="7" t="n">
-        <v>815</v>
+        <v>887</v>
       </c>
       <c r="Q134" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R134" s="16" t="n">
-        <v>6.03</v>
+        <v>25.06</v>
       </c>
       <c r="T134" s="5" t="n"/>
     </row>
     <row r="135" ht="13" customHeight="1">
       <c r="B135" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>Marin Stray Gautadottir</t>
+          <t>Lilje Lopes Patey</t>
         </is>
       </c>
       <c r="D135" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E135" s="15" t="n">
-        <v>59.62</v>
+        <v>25.39</v>
       </c>
       <c r="F135" s="7" t="n">
-        <v>855</v>
+        <v>775</v>
       </c>
       <c r="G135" s="7" t="inlineStr">
         <is>
-          <t>Cali/COL</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H135" s="16" t="n">
-        <v>3.08</v>
+        <v>5.08</v>
       </c>
       <c r="J135" s="5" t="n"/>
       <c r="L135" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M135" s="7" t="inlineStr">
         <is>
-          <t>Mia Guldteig Lien</t>
+          <t>Marin Stray Gautadottir</t>
         </is>
       </c>
       <c r="N135" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="O135" s="15" t="n">
-        <v>25.16</v>
+        <v>59.62</v>
       </c>
       <c r="P135" s="7" t="n">
-        <v>793</v>
+        <v>855</v>
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Cali/COL</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>23.01</v>
+        <v>3.08</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
     <row r="136" ht="13" customHeight="1">
       <c r="B136" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Angelica Okparaebo</t>
         </is>
       </c>
       <c r="D136" s="7" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="E136" s="15" t="n">
-        <v>24.81</v>
+        <v>12.45</v>
       </c>
       <c r="F136" s="7" t="n">
-        <v>823</v>
+        <v>768</v>
       </c>
       <c r="G136" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H136" s="16" t="n">
-        <v>14.08</v>
+        <v>19.06</v>
       </c>
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
@@ -36913,255 +36913,255 @@
       </c>
       <c r="M136" s="7" t="inlineStr">
         <is>
-          <t>Agnes Elisabeth Morud</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="N136" s="7" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="O136" s="15" t="n">
-        <v>25.26</v>
+        <v>24.81</v>
       </c>
       <c r="P136" s="7" t="n">
-        <v>785</v>
+        <v>823</v>
       </c>
       <c r="Q136" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R136" s="16" t="n">
-        <v>5.08</v>
+        <v>14.08</v>
       </c>
       <c r="T136" s="5" t="n"/>
     </row>
     <row r="137" ht="13" customHeight="1">
       <c r="B137" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>Line Al-Saiddi</t>
+          <t>Lilje Lopes Patey</t>
         </is>
       </c>
       <c r="D137" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E137" s="17" t="inlineStr">
-        <is>
-          <t>2,09,11</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E137" s="15" t="n">
+        <v>12.61</v>
       </c>
       <c r="F137" s="7" t="n">
-        <v>815</v>
+        <v>739</v>
       </c>
       <c r="G137" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H137" s="16" t="n">
-        <v>5.08</v>
+        <v>30.06</v>
       </c>
       <c r="J137" s="5" t="n"/>
       <c r="L137" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M137" s="7" t="inlineStr">
         <is>
-          <t>Ida Beate Østhus</t>
+          <t>Line Al-Saiddi</t>
         </is>
       </c>
       <c r="N137" s="7" t="n">
-        <v>1987</v>
-      </c>
-      <c r="O137" s="15" t="n">
-        <v>3.4</v>
+        <v>2006</v>
+      </c>
+      <c r="O137" s="17" t="inlineStr">
+        <is>
+          <t>2,09,11</t>
+        </is>
       </c>
       <c r="P137" s="7" t="n">
-        <v>761</v>
+        <v>815</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>16.06</v>
+        <v>5.08</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
     <row r="138" ht="13" customHeight="1">
       <c r="B138" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>Astrid Cecilie Berntsen</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D138" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E138" s="17" t="inlineStr">
-        <is>
-          <t>2,12,90</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E138" s="15" t="n">
+        <v>25.85</v>
       </c>
       <c r="F138" s="7" t="n">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="G138" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H138" s="16" t="n">
-        <v>28.08</v>
+        <v>14.08</v>
       </c>
       <c r="J138" s="5" t="n"/>
       <c r="L138" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Ella Njaastad Skjesol</t>
+          <t>Astrid Cecilie Berntsen</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O138" s="15" t="n">
-        <v>57.86</v>
+        <v>2007</v>
+      </c>
+      <c r="O138" s="17" t="inlineStr">
+        <is>
+          <t>2,12,90</t>
+        </is>
       </c>
       <c r="P138" s="7" t="n">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R138" s="16" t="n">
-        <v>24.06</v>
+        <v>28.08</v>
       </c>
       <c r="T138" s="5" t="n"/>
     </row>
     <row r="139" ht="13" customHeight="1">
       <c r="B139" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>Anna Bogunovic Larsen</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D139" s="7" t="n">
-        <v>1993</v>
+        <v>2005</v>
       </c>
       <c r="E139" s="15" t="n">
-        <v>57.71</v>
+        <v>12.73</v>
       </c>
       <c r="F139" s="7" t="n">
-        <v>756</v>
+        <v>718</v>
       </c>
       <c r="G139" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H139" s="16" t="n">
-        <v>24.06</v>
+        <v>30.06</v>
       </c>
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Ella Njaastad Skjesol</t>
+          <t>Anna Bogunovic Larsen</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="O139" s="15" t="n">
-        <v>25.77</v>
+        <v>57.71</v>
       </c>
       <c r="P139" s="7" t="n">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>30.06</v>
+        <v>24.06</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
     <row r="140" ht="13" customHeight="1">
       <c r="B140" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Oda Rosland Gjerstad</t>
+          <t>Angelica Okparaebo</t>
         </is>
       </c>
       <c r="D140" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E140" s="17" t="inlineStr">
-        <is>
-          <t>4,36,69</t>
-        </is>
+        <v>1997</v>
+      </c>
+      <c r="E140" s="15" t="n">
+        <v>8.08</v>
       </c>
       <c r="F140" s="7" t="n">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="G140" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H140" s="16" t="n">
-        <v>2.06</v>
+        <v>29.01</v>
       </c>
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Agnes Elisabeth Morud</t>
+          <t>Oda Rosland Gjerstad</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O140" s="15" t="n">
-        <v>12.59</v>
+        <v>2007</v>
+      </c>
+      <c r="O140" s="17" t="inlineStr">
+        <is>
+          <t>4,36,69</t>
+        </is>
       </c>
       <c r="P140" s="7" t="n">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
@@ -37169,157 +37169,157 @@
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>7.08</v>
+        <v>2.06</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
     <row r="141" ht="13" customHeight="1">
       <c r="B141" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Oda Rosland Gjerstad</t>
+          <t>Lilje Lopes Patey</t>
         </is>
       </c>
       <c r="D141" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E141" s="17" t="inlineStr">
-        <is>
-          <t>10,01,64</t>
-        </is>
+      <c r="E141" s="15" t="n">
+        <v>59.38</v>
       </c>
       <c r="F141" s="7" t="n">
-        <v>737</v>
+        <v>699</v>
       </c>
       <c r="G141" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H141" s="16" t="n">
-        <v>28.08</v>
+        <v>12.06</v>
       </c>
       <c r="J141" s="5" t="n"/>
       <c r="L141" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M141" s="7" t="inlineStr">
         <is>
-          <t>Sanna Johnsen Møkkelgård</t>
+          <t>Oda Rosland Gjerstad</t>
         </is>
       </c>
       <c r="N141" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O141" s="15" t="n">
-        <v>25.81</v>
+        <v>2007</v>
+      </c>
+      <c r="O141" s="17" t="inlineStr">
+        <is>
+          <t>10,01,64</t>
+        </is>
       </c>
       <c r="P141" s="7" t="n">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="Q141" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R141" s="16" t="n">
-        <v>30.06</v>
+        <v>28.08</v>
       </c>
       <c r="T141" s="5" t="n"/>
     </row>
     <row r="142" ht="13" customHeight="1">
       <c r="B142" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Line Myrestøl Johansson</t>
+          <t>Elizabeth Pettersen Turk</t>
         </is>
       </c>
       <c r="D142" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E142" s="17" t="inlineStr">
-        <is>
-          <t>4,38,03</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="E142" s="15" t="n">
+        <v>11.68</v>
       </c>
       <c r="F142" s="7" t="n">
-        <v>737</v>
+        <v>696</v>
       </c>
       <c r="G142" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Nesodden</t>
         </is>
       </c>
       <c r="H142" s="16" t="n">
-        <v>24.06</v>
+        <v>25.08</v>
       </c>
       <c r="J142" s="5" t="n"/>
       <c r="L142" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M142" s="7" t="inlineStr">
         <is>
-          <t>Sanna Johnsen Møkkelgård</t>
+          <t>Line Myrestøl Johansson</t>
         </is>
       </c>
       <c r="N142" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O142" s="15" t="n">
-        <v>12.68</v>
+        <v>1998</v>
+      </c>
+      <c r="O142" s="17" t="inlineStr">
+        <is>
+          <t>4,38,03</t>
+        </is>
       </c>
       <c r="P142" s="7" t="n">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="Q142" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R142" s="16" t="n">
-        <v>4.06</v>
+        <v>24.06</v>
       </c>
       <c r="T142" s="5" t="n"/>
     </row>
     <row r="143" ht="13" customHeight="1">
       <c r="B143" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Tonje Nedberg</t>
+          <t>Nora Proctor</t>
         </is>
       </c>
       <c r="D143" s="7" t="n">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="E143" s="15" t="n">
-        <v>7.99</v>
+        <v>12.88</v>
       </c>
       <c r="F143" s="7" t="n">
-        <v>737</v>
+        <v>691</v>
       </c>
       <c r="G143" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H143" s="16" t="n">
-        <v>15.01</v>
+        <v>12.06</v>
       </c>
       <c r="J143" s="5" t="n"/>
       <c r="L143" s="14" t="inlineStr">
@@ -37329,47 +37329,47 @@
       </c>
       <c r="M143" s="7" t="inlineStr">
         <is>
-          <t>Agnes Elisabeth Morud</t>
+          <t>Tonje Nedberg</t>
         </is>
       </c>
       <c r="N143" s="7" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="O143" s="15" t="n">
-        <v>8.029999999999999</v>
+        <v>7.99</v>
       </c>
       <c r="P143" s="7" t="n">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="Q143" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R143" s="16" t="n">
-        <v>5.03</v>
+        <v>15.01</v>
       </c>
       <c r="T143" s="5" t="n"/>
     </row>
     <row r="144" ht="13" customHeight="1">
       <c r="B144" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Anna Theodora Helgesen</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D144" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E144" s="15" t="n">
-        <v>4.86</v>
+        <v>8.19</v>
       </c>
       <c r="F144" s="7" t="n">
-        <v>588</v>
+        <v>678</v>
       </c>
       <c r="G144" s="7" t="inlineStr">
         <is>
@@ -37377,65 +37377,65 @@
         </is>
       </c>
       <c r="H144" s="16" t="n">
-        <v>12.02</v>
+        <v>26.11</v>
       </c>
       <c r="J144" s="5" t="n"/>
       <c r="L144" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M144" s="7" t="inlineStr">
         <is>
-          <t>Ella Njaastad Skjesol</t>
+          <t>Anna Theodora Helgesen</t>
         </is>
       </c>
       <c r="N144" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O144" s="15" t="n">
-        <v>12.75</v>
+        <v>4.86</v>
       </c>
       <c r="P144" s="7" t="n">
-        <v>714</v>
+        <v>588</v>
       </c>
       <c r="Q144" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R144" s="16" t="n">
-        <v>30.06</v>
+        <v>12.02</v>
       </c>
       <c r="T144" s="5" t="n"/>
     </row>
     <row r="145" ht="13" customHeight="1">
       <c r="B145" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Julie Margrete Gaustad</t>
         </is>
       </c>
       <c r="D145" s="7" t="n">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E145" s="15" t="n">
-        <v>1.45</v>
+        <v>10.9</v>
       </c>
       <c r="F145" s="7" t="n">
-        <v>565</v>
+        <v>651</v>
       </c>
       <c r="G145" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H145" s="16" t="n">
-        <v>30.01</v>
+        <v>26.06</v>
       </c>
       <c r="J145" s="5" t="n"/>
       <c r="L145" s="14" t="inlineStr">
@@ -37445,25 +37445,25 @@
       </c>
       <c r="M145" s="7" t="inlineStr">
         <is>
-          <t>Hedvig Johanne Olsson Volden</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="N145" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O145" s="15" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P145" s="7" t="n">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="Q145" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R145" s="16" t="n">
-        <v>13.02</v>
+        <v>30.01</v>
       </c>
       <c r="T145" s="5" t="n"/>
     </row>
@@ -37475,53 +37475,53 @@
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Lucille Chevalier</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D146" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E146" s="15" t="n">
-        <v>4.53</v>
+        <v>5.14</v>
       </c>
       <c r="F146" s="7" t="n">
-        <v>515</v>
+        <v>649</v>
       </c>
       <c r="G146" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H146" s="16" t="n">
-        <v>22.05</v>
+        <v>28.05</v>
       </c>
       <c r="J146" s="5" t="n"/>
       <c r="L146" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M146" s="7" t="inlineStr">
         <is>
-          <t>Lotta Elfenbein</t>
+          <t>Lucille Chevalier</t>
         </is>
       </c>
       <c r="N146" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O146" s="15" t="n">
-        <v>10.3</v>
+        <v>4.53</v>
       </c>
       <c r="P146" s="7" t="n">
-        <v>589</v>
+        <v>515</v>
       </c>
       <c r="Q146" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R146" s="16" t="n">
-        <v>13.02</v>
+        <v>22.05</v>
       </c>
       <c r="T146" s="5" t="n"/>
     </row>
@@ -37533,83 +37533,83 @@
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Lucille Chevalier</t>
+          <t>Dorothy Mcmanus Ampong</t>
         </is>
       </c>
       <c r="D147" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E147" s="15" t="n">
-        <v>9.529999999999999</v>
+        <v>10.18</v>
       </c>
       <c r="F147" s="7" t="n">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="G147" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H147" s="16" t="n">
-        <v>15.05</v>
+        <v>4.03</v>
       </c>
       <c r="J147" s="5" t="n"/>
       <c r="L147" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M147" s="7" t="inlineStr">
         <is>
-          <t>Elise Eltervaag</t>
+          <t>Lucille Chevalier</t>
         </is>
       </c>
       <c r="N147" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="O147" s="15" t="n">
-        <v>4.77</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="P147" s="7" t="n">
-        <v>568</v>
+        <v>509</v>
       </c>
       <c r="Q147" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R147" s="16" t="n">
-        <v>20.03</v>
+        <v>15.05</v>
       </c>
       <c r="T147" s="5" t="n"/>
     </row>
     <row r="148" ht="13" customHeight="1">
       <c r="B148" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>Oda Asdal Hansen</t>
+          <t>Mathilde Falck</t>
         </is>
       </c>
       <c r="D148" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E148" s="15" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="F148" s="7" t="n">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="G148" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H148" s="16" t="n">
-        <v>29.01</v>
+        <v>28.05</v>
       </c>
       <c r="J148" s="5" t="n"/>
       <c r="L148" s="14" t="inlineStr">
@@ -37619,25 +37619,25 @@
       </c>
       <c r="M148" s="7" t="inlineStr">
         <is>
-          <t>Mia Guldteig Lien</t>
+          <t>Oda Asdal Hansen</t>
         </is>
       </c>
       <c r="N148" s="7" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="O148" s="15" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="P148" s="7" t="n">
-        <v>567</v>
+        <v>481</v>
       </c>
       <c r="Q148" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="R148" s="16" t="n">
-        <v>29.09</v>
+        <v>29.01</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="F150" s="20" t="n">
-        <v>10509</v>
+        <v>10465</v>
       </c>
       <c r="J150" s="5" t="n"/>
       <c r="L150" s="19" t="inlineStr">
@@ -37691,7 +37691,7 @@
         </is>
       </c>
       <c r="P150" s="20" t="n">
-        <v>10632</v>
+        <v>10509</v>
       </c>
       <c r="T150" s="5" t="n"/>
     </row>
@@ -37714,7 +37714,7 @@
         </is>
       </c>
       <c r="F152" s="20" t="n">
-        <v>22063</v>
+        <v>22109</v>
       </c>
       <c r="J152" s="5" t="n"/>
       <c r="L152" s="19" t="inlineStr">
@@ -37731,7 +37731,7 @@
         </is>
       </c>
       <c r="P152" s="20" t="n">
-        <v>21990</v>
+        <v>22063</v>
       </c>
       <c r="T152" s="5" t="n"/>
     </row>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="C154" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="19" t="inlineStr">
@@ -37755,7 +37755,7 @@
         </is>
       </c>
       <c r="M154" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -37797,7 +37797,7 @@
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
       <c r="F158" s="8" t="n">
@@ -37811,7 +37811,7 @@
       </c>
       <c r="M158" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Østfold</t>
         </is>
       </c>
       <c r="P158" s="8" t="n">
@@ -37827,7 +37827,7 @@
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad IF</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="J159" s="5" t="n"/>
@@ -37838,7 +37838,7 @@
       </c>
       <c r="M159" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>Fredrikstad IF</t>
         </is>
       </c>
       <c r="T159" s="5" t="n"/>
@@ -37967,17 +37967,17 @@
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>Dina Rosenvinge Aasen</t>
+          <t>Nora Aune</t>
         </is>
       </c>
       <c r="D165" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E165" s="15" t="n">
-        <v>7.72</v>
+        <v>7.74</v>
       </c>
       <c r="F165" s="7" t="n">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="G165" s="7" t="inlineStr">
         <is>
@@ -37995,25 +37995,25 @@
       </c>
       <c r="M165" s="7" t="inlineStr">
         <is>
-          <t>Solveig Bustgård Gran</t>
+          <t>Dina Rosenvinge Aasen</t>
         </is>
       </c>
       <c r="N165" s="7" t="n">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="O165" s="15" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="P165" s="7" t="n">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="Q165" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R165" s="16" t="n">
-        <v>5.03</v>
+        <v>12.02</v>
       </c>
       <c r="T165" s="5" t="n"/>
     </row>
@@ -38025,25 +38025,25 @@
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Nora Aune</t>
         </is>
       </c>
       <c r="D166" s="7" t="n">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="E166" s="15" t="n">
-        <v>11.95</v>
+        <v>12.2</v>
       </c>
       <c r="F166" s="7" t="n">
-        <v>864</v>
+        <v>815</v>
       </c>
       <c r="G166" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H166" s="16" t="n">
-        <v>7.08</v>
+        <v>16.06</v>
       </c>
       <c r="J166" s="5" t="n"/>
       <c r="L166" s="14" t="inlineStr">
@@ -38053,25 +38053,25 @@
       </c>
       <c r="M166" s="7" t="inlineStr">
         <is>
-          <t>Solveig Bustgård Gran</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="N166" s="7" t="n">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="O166" s="15" t="n">
-        <v>12.24</v>
+        <v>11.95</v>
       </c>
       <c r="P166" s="7" t="n">
-        <v>808</v>
+        <v>864</v>
       </c>
       <c r="Q166" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="R166" s="16" t="n">
-        <v>24.06</v>
+        <v>7.08</v>
       </c>
       <c r="T166" s="5" t="n"/>
     </row>
@@ -38083,25 +38083,25 @@
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>Ida Andrea Breigan</t>
+          <t>Nora Aune</t>
         </is>
       </c>
       <c r="D167" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E167" s="15" t="n">
-        <v>24.42</v>
+        <v>24.71</v>
       </c>
       <c r="F167" s="7" t="n">
-        <v>857</v>
+        <v>831</v>
       </c>
       <c r="G167" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H167" s="16" t="n">
-        <v>13.02</v>
+        <v>6.03</v>
       </c>
       <c r="J167" s="5" t="n"/>
       <c r="L167" s="14" t="inlineStr">
@@ -38111,25 +38111,25 @@
       </c>
       <c r="M167" s="7" t="inlineStr">
         <is>
-          <t>Solveig Bustgård Gran</t>
+          <t>Ida Andrea Breigan</t>
         </is>
       </c>
       <c r="N167" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="O167" s="15" t="n">
-        <v>25.01</v>
+        <v>24.42</v>
       </c>
       <c r="P167" s="7" t="n">
-        <v>806</v>
+        <v>857</v>
       </c>
       <c r="Q167" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R167" s="16" t="n">
-        <v>6.03</v>
+        <v>13.02</v>
       </c>
       <c r="T167" s="5" t="n"/>
     </row>
@@ -38141,25 +38141,25 @@
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>Nora Kollerød Wold</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="D168" s="7" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="E168" s="15" t="n">
-        <v>55.18</v>
+        <v>55.69</v>
       </c>
       <c r="F168" s="7" t="n">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="G168" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H168" s="16" t="n">
-        <v>29.01</v>
+        <v>25.06</v>
       </c>
       <c r="J168" s="5" t="n"/>
       <c r="L168" s="14" t="inlineStr">
@@ -38169,25 +38169,25 @@
       </c>
       <c r="M168" s="7" t="inlineStr">
         <is>
-          <t>Solveig Bustgård Gran</t>
+          <t>Nora Kollerød Wold</t>
         </is>
       </c>
       <c r="N168" s="7" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="O168" s="15" t="n">
-        <v>56.11</v>
+        <v>55.18</v>
       </c>
       <c r="P168" s="7" t="n">
-        <v>814</v>
+        <v>848</v>
       </c>
       <c r="Q168" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R168" s="16" t="n">
-        <v>16.07</v>
+        <v>29.01</v>
       </c>
       <c r="T168" s="5" t="n"/>
     </row>
@@ -38199,27 +38199,27 @@
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Synnøve Antonsen Torp</t>
         </is>
       </c>
       <c r="D169" s="7" t="n">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E169" s="17" t="inlineStr">
         <is>
-          <t>2,21,36</t>
+          <t>2,13,93</t>
         </is>
       </c>
       <c r="F169" s="7" t="n">
-        <v>651</v>
+        <v>745</v>
       </c>
       <c r="G169" s="7" t="inlineStr">
         <is>
-          <t>Seinäjoki/FIN</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H169" s="16" t="n">
-        <v>12.06</v>
+        <v>11.06</v>
       </c>
       <c r="J169" s="5" t="n"/>
       <c r="L169" s="14" t="inlineStr">
@@ -38229,27 +38229,27 @@
       </c>
       <c r="M169" s="7" t="inlineStr">
         <is>
-          <t>Aurora Langbakk</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N169" s="7" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="O169" s="17" t="inlineStr">
         <is>
-          <t>2,16,33</t>
+          <t>2,21,36</t>
         </is>
       </c>
       <c r="P169" s="7" t="n">
-        <v>713</v>
+        <v>651</v>
       </c>
       <c r="Q169" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Seinäjoki/FIN</t>
         </is>
       </c>
       <c r="R169" s="16" t="n">
-        <v>27.08</v>
+        <v>12.06</v>
       </c>
       <c r="T169" s="5" t="n"/>
     </row>
@@ -38261,27 +38261,27 @@
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Luna Andrine Stang</t>
+          <t>Synnøve Antonsen Torp</t>
         </is>
       </c>
       <c r="D170" s="7" t="n">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="E170" s="17" t="inlineStr">
         <is>
-          <t>5,26,89</t>
+          <t>4,33,65</t>
         </is>
       </c>
       <c r="F170" s="7" t="n">
-        <v>482</v>
+        <v>765</v>
       </c>
       <c r="G170" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H170" s="16" t="n">
-        <v>18.06</v>
+        <v>25.06</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="14" t="inlineStr">
@@ -38291,27 +38291,27 @@
       </c>
       <c r="M170" s="7" t="inlineStr">
         <is>
-          <t>Aurora Langbakk</t>
+          <t>Luna Andrine Stang</t>
         </is>
       </c>
       <c r="N170" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O170" s="17" t="inlineStr">
         <is>
-          <t>4,50,32</t>
+          <t>5,26,89</t>
         </is>
       </c>
       <c r="P170" s="7" t="n">
-        <v>664</v>
+        <v>482</v>
       </c>
       <c r="Q170" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R170" s="16" t="n">
-        <v>26.08</v>
+        <v>18.06</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -38323,19 +38323,19 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Hermine Ellefsen</t>
+          <t>Synnøve Antonsen Torp</t>
         </is>
       </c>
       <c r="D171" s="7" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E171" s="17" t="inlineStr">
         <is>
-          <t>13,10,36</t>
+          <t>10,25,62</t>
         </is>
       </c>
       <c r="F171" s="7" t="n">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="G171" s="7" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         </is>
       </c>
       <c r="H171" s="16" t="n">
-        <v>14.08</v>
+        <v>3.05</v>
       </c>
       <c r="J171" s="5" t="n"/>
       <c r="L171" s="14" t="inlineStr">
@@ -38353,19 +38353,19 @@
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Cathrine Grønbech</t>
+          <t>Hermine Ellefsen</t>
         </is>
       </c>
       <c r="N171" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="O171" s="17" t="inlineStr">
         <is>
-          <t>10,59,78</t>
+          <t>13,10,36</t>
         </is>
       </c>
       <c r="P171" s="7" t="n">
-        <v>591</v>
+        <v>333</v>
       </c>
       <c r="Q171" s="7" t="inlineStr">
         <is>
@@ -38373,7 +38373,7 @@
         </is>
       </c>
       <c r="R171" s="16" t="n">
-        <v>12.08</v>
+        <v>14.08</v>
       </c>
       <c r="T171" s="5" t="n"/>
     </row>
@@ -38385,279 +38385,279 @@
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Kristina Reppe</t>
         </is>
       </c>
       <c r="D172" s="7" t="n">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E172" s="15" t="n">
-        <v>8.550000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="F172" s="7" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="G172" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H172" s="16" t="n">
-        <v>6.02</v>
+        <v>4.03</v>
       </c>
       <c r="J172" s="5" t="n"/>
       <c r="L172" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M172" s="7" t="inlineStr">
         <is>
-          <t>Josefina Biernacki</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="N172" s="7" t="n">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="O172" s="15" t="n">
-        <v>13.74</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="P172" s="7" t="n">
-        <v>902</v>
+        <v>873</v>
       </c>
       <c r="Q172" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R172" s="16" t="n">
-        <v>17.07</v>
+        <v>6.02</v>
       </c>
       <c r="T172" s="5" t="n"/>
     </row>
     <row r="173" ht="13" customHeight="1">
       <c r="B173" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Nora Bakke</t>
         </is>
       </c>
       <c r="D173" s="7" t="n">
-        <v>1993</v>
-      </c>
-      <c r="E173" s="15" t="n">
-        <v>13.78</v>
+        <v>2003</v>
+      </c>
+      <c r="E173" s="17" t="inlineStr">
+        <is>
+          <t>1,06,43</t>
+        </is>
       </c>
       <c r="F173" s="7" t="n">
-        <v>897</v>
+        <v>664</v>
       </c>
       <c r="G173" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H173" s="16" t="n">
-        <v>26.06</v>
+        <v>4.06</v>
       </c>
       <c r="J173" s="5" t="n"/>
       <c r="L173" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M173" s="7" t="inlineStr">
         <is>
-          <t>Elizabeth Pettersen Turk</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="N173" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O173" s="17" t="inlineStr">
-        <is>
-          <t>1,08,31</t>
-        </is>
+        <v>1993</v>
+      </c>
+      <c r="O173" s="15" t="n">
+        <v>13.78</v>
       </c>
       <c r="P173" s="7" t="n">
-        <v>622</v>
+        <v>897</v>
       </c>
       <c r="Q173" s="7" t="inlineStr">
         <is>
-          <t>Sagunto/ESP</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R173" s="16" t="n">
-        <v>11.06</v>
+        <v>26.06</v>
       </c>
       <c r="T173" s="5" t="n"/>
     </row>
     <row r="174" ht="13" customHeight="1">
       <c r="B174" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>Nora Kollerød Wold</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="D174" s="7" t="n">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="E174" s="15" t="n">
-        <v>57.17</v>
+        <v>1.63</v>
       </c>
       <c r="F174" s="7" t="n">
-        <v>938</v>
+        <v>716</v>
       </c>
       <c r="G174" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H174" s="16" t="n">
-        <v>24.06</v>
+        <v>13.08</v>
       </c>
       <c r="J174" s="5" t="n"/>
       <c r="L174" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M174" s="7" t="inlineStr">
         <is>
-          <t>Lene Onsrud Retzius</t>
+          <t>Nora Kollerød Wold</t>
         </is>
       </c>
       <c r="N174" s="7" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="O174" s="15" t="n">
-        <v>4.7</v>
+        <v>57.17</v>
       </c>
       <c r="P174" s="7" t="n">
-        <v>1067</v>
+        <v>938</v>
       </c>
       <c r="Q174" s="7" t="inlineStr">
         <is>
-          <t>Genève/SUI</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R174" s="16" t="n">
-        <v>11.06</v>
+        <v>24.06</v>
       </c>
       <c r="T174" s="5" t="n"/>
     </row>
     <row r="175" ht="13" customHeight="1">
       <c r="B175" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Agnes Elisabeth Morud</t>
         </is>
       </c>
       <c r="D175" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E175" s="15" t="n">
-        <v>1.66</v>
+        <v>3.6</v>
       </c>
       <c r="F175" s="7" t="n">
-        <v>740</v>
+        <v>806</v>
       </c>
       <c r="G175" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="H175" s="16" t="n">
-        <v>26.08</v>
+        <v>16.06</v>
       </c>
       <c r="J175" s="5" t="n"/>
       <c r="L175" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M175" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N175" s="7" t="n">
         <v>2005</v>
       </c>
       <c r="O175" s="15" t="n">
-        <v>5.14</v>
+        <v>1.66</v>
       </c>
       <c r="P175" s="7" t="n">
-        <v>649</v>
+        <v>740</v>
       </c>
       <c r="Q175" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R175" s="16" t="n">
-        <v>28.05</v>
+        <v>26.08</v>
       </c>
       <c r="T175" s="5" t="n"/>
     </row>
     <row r="176" ht="13" customHeight="1">
       <c r="B176" s="14" t="inlineStr">
         <is>
-          <t>Stav</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Karine Magnussen</t>
+          <t>Mia Guldteig Lien</t>
         </is>
       </c>
       <c r="D176" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E176" s="15" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="F176" s="7" t="n">
-        <v>706</v>
+        <v>887</v>
       </c>
       <c r="G176" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H176" s="16" t="n">
-        <v>17.12</v>
+        <v>6.02</v>
       </c>
       <c r="J176" s="5" t="n"/>
       <c r="L176" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M176" s="7" t="inlineStr">
         <is>
-          <t>Solveig Bustgård Gran</t>
+          <t>Karine Magnussen</t>
         </is>
       </c>
       <c r="N176" s="7" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O176" s="15" t="n">
-        <v>11.73</v>
+        <v>3.15</v>
       </c>
       <c r="P176" s="7" t="n">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="Q176" s="7" t="inlineStr">
         <is>
@@ -38665,29 +38665,29 @@
         </is>
       </c>
       <c r="R176" s="16" t="n">
-        <v>28.08</v>
+        <v>17.12</v>
       </c>
       <c r="T176" s="5" t="n"/>
     </row>
     <row r="177" ht="13" customHeight="1">
       <c r="B177" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Ida Andrea Breigan</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>5.96</v>
+        <v>11.6</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>833</v>
+        <v>724</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
@@ -38695,151 +38695,151 @@
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>12.02</v>
+        <v>28.08</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Lene Onsrud Retzius</t>
+          <t>Ida Andrea Breigan</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>2.56</v>
+        <v>5.96</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>666</v>
+        <v>833</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>6.02</v>
+        <v>12.02</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
     <row r="178" ht="13" customHeight="1">
       <c r="B178" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>1.35</v>
+        <v>2.62</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>5.02</v>
+        <v>29.09</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Arianne Duarte Morais</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>13.08</v>
+        <v>1.35</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>767</v>
+        <v>712</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Tempe/AZ/USA</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>9.039999999999999</v>
+        <v>5.02</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Maia Kristine Hepsø</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>2.49</v>
+        <v>26.5</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>625</v>
+        <v>522</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>6.02</v>
+        <v>12.06</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Arianne Duarte Morais</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>51.04</v>
+        <v>2.49</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>871</v>
+        <v>625</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Fayetteville/AR/USA</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>26.05</v>
+        <v>6.02</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -38876,7 +38876,7 @@
         </is>
       </c>
       <c r="F181" s="20" t="n">
-        <v>11183</v>
+        <v>11358</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="19" t="inlineStr">
@@ -38893,7 +38893,7 @@
         </is>
       </c>
       <c r="P181" s="20" t="n">
-        <v>11499</v>
+        <v>11183</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -38996,58 +38996,58 @@
     <row r="186" ht="13" customHeight="1">
       <c r="B186" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Hannah Rebekah Murai-Ubby</t>
         </is>
       </c>
       <c r="D186" s="7" t="n">
-        <v>1993</v>
+        <v>2007</v>
       </c>
       <c r="E186" s="15" t="n">
-        <v>57.49</v>
+        <v>24.9</v>
       </c>
       <c r="F186" s="7" t="n">
-        <v>926</v>
+        <v>815</v>
       </c>
       <c r="G186" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H186" s="16" t="n">
-        <v>16.06</v>
+        <v>6.03</v>
       </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M186" s="7" t="inlineStr">
         <is>
-          <t>Thea Aase Pedersen</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="N186" s="7" t="n">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="O186" s="15" t="n">
-        <v>7.76</v>
+        <v>57.49</v>
       </c>
       <c r="P186" s="7" t="n">
-        <v>811</v>
+        <v>926</v>
       </c>
       <c r="Q186" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R186" s="16" t="n">
-        <v>5.03</v>
+        <v>16.06</v>
       </c>
       <c r="T186" s="5" t="n"/>
     </row>
@@ -39059,25 +39059,25 @@
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>Marlen Aakre</t>
+          <t>Mia Guldteig Lien</t>
         </is>
       </c>
       <c r="D187" s="7" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="E187" s="15" t="n">
-        <v>24.44</v>
+        <v>25.16</v>
       </c>
       <c r="F187" s="7" t="n">
-        <v>855</v>
+        <v>793</v>
       </c>
       <c r="G187" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H187" s="16" t="n">
-        <v>5.08</v>
+        <v>23.01</v>
       </c>
       <c r="J187" s="5" t="n"/>
       <c r="L187" s="14" t="inlineStr">
@@ -39087,17 +39087,17 @@
       </c>
       <c r="M187" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Marlen Aakre</t>
         </is>
       </c>
       <c r="N187" s="7" t="n">
-        <v>2007</v>
+        <v>1993</v>
       </c>
       <c r="O187" s="15" t="n">
-        <v>25.39</v>
+        <v>24.44</v>
       </c>
       <c r="P187" s="7" t="n">
-        <v>775</v>
+        <v>855</v>
       </c>
       <c r="Q187" s="7" t="inlineStr">
         <is>
@@ -39112,30 +39112,30 @@
     <row r="188" ht="13" customHeight="1">
       <c r="B188" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>Dina Rosenvinge Aasen</t>
+          <t>Agnes Elisabeth Morud</t>
         </is>
       </c>
       <c r="D188" s="7" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E188" s="15" t="n">
-        <v>12.07</v>
+        <v>25.26</v>
       </c>
       <c r="F188" s="7" t="n">
-        <v>840</v>
+        <v>785</v>
       </c>
       <c r="G188" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H188" s="16" t="n">
-        <v>14.05</v>
+        <v>5.08</v>
       </c>
       <c r="J188" s="5" t="n"/>
       <c r="L188" s="14" t="inlineStr">
@@ -39145,75 +39145,75 @@
       </c>
       <c r="M188" s="7" t="inlineStr">
         <is>
-          <t>Angelica Okparaebo</t>
+          <t>Dina Rosenvinge Aasen</t>
         </is>
       </c>
       <c r="N188" s="7" t="n">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="O188" s="15" t="n">
-        <v>12.45</v>
+        <v>12.07</v>
       </c>
       <c r="P188" s="7" t="n">
-        <v>768</v>
+        <v>840</v>
       </c>
       <c r="Q188" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R188" s="16" t="n">
-        <v>19.06</v>
+        <v>14.05</v>
       </c>
       <c r="T188" s="5" t="n"/>
     </row>
     <row r="189" ht="13" customHeight="1">
       <c r="B189" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>Ida Andrea Breigan</t>
+          <t>Ida Beate Østhus</t>
         </is>
       </c>
       <c r="D189" s="7" t="n">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="E189" s="15" t="n">
-        <v>56.3</v>
+        <v>3.4</v>
       </c>
       <c r="F189" s="7" t="n">
-        <v>807</v>
+        <v>761</v>
       </c>
       <c r="G189" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="H189" s="16" t="n">
-        <v>13.07</v>
+        <v>16.06</v>
       </c>
       <c r="J189" s="5" t="n"/>
       <c r="L189" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M189" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Ida Andrea Breigan</t>
         </is>
       </c>
       <c r="N189" s="7" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="O189" s="15" t="n">
-        <v>12.61</v>
+        <v>56.3</v>
       </c>
       <c r="P189" s="7" t="n">
-        <v>739</v>
+        <v>807</v>
       </c>
       <c r="Q189" s="7" t="inlineStr">
         <is>
@@ -39221,37 +39221,37 @@
         </is>
       </c>
       <c r="R189" s="16" t="n">
-        <v>30.06</v>
+        <v>13.07</v>
       </c>
       <c r="T189" s="5" t="n"/>
     </row>
     <row r="190" ht="13" customHeight="1">
       <c r="B190" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Nora Kollerød Wold</t>
+          <t>Ella Njaastad Skjesol</t>
         </is>
       </c>
       <c r="D190" s="7" t="n">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="E190" s="15" t="n">
-        <v>25.11</v>
+        <v>57.86</v>
       </c>
       <c r="F190" s="7" t="n">
-        <v>797</v>
+        <v>751</v>
       </c>
       <c r="G190" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H190" s="16" t="n">
-        <v>24.08</v>
+        <v>24.06</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="14" t="inlineStr">
@@ -39261,25 +39261,25 @@
       </c>
       <c r="M190" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Nora Kollerød Wold</t>
         </is>
       </c>
       <c r="N190" s="7" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="O190" s="15" t="n">
-        <v>25.85</v>
+        <v>25.11</v>
       </c>
       <c r="P190" s="7" t="n">
-        <v>738</v>
+        <v>797</v>
       </c>
       <c r="Q190" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R190" s="16" t="n">
-        <v>14.08</v>
+        <v>24.08</v>
       </c>
       <c r="T190" s="5" t="n"/>
     </row>
@@ -39291,17 +39291,17 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Dina Rosenvinge Aasen</t>
+          <t>Ella Njaastad Skjesol</t>
         </is>
       </c>
       <c r="D191" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E191" s="15" t="n">
-        <v>25.42</v>
+        <v>25.77</v>
       </c>
       <c r="F191" s="7" t="n">
-        <v>772</v>
+        <v>744</v>
       </c>
       <c r="G191" s="7" t="inlineStr">
         <is>
@@ -39309,27 +39309,27 @@
         </is>
       </c>
       <c r="H191" s="16" t="n">
-        <v>29.05</v>
+        <v>30.06</v>
       </c>
       <c r="J191" s="5" t="n"/>
       <c r="L191" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M191" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Dina Rosenvinge Aasen</t>
         </is>
       </c>
       <c r="N191" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O191" s="15" t="n">
-        <v>12.73</v>
+        <v>25.42</v>
       </c>
       <c r="P191" s="7" t="n">
-        <v>718</v>
+        <v>772</v>
       </c>
       <c r="Q191" s="7" t="inlineStr">
         <is>
@@ -39337,7 +39337,7 @@
         </is>
       </c>
       <c r="R191" s="16" t="n">
-        <v>30.06</v>
+        <v>29.05</v>
       </c>
       <c r="T191" s="5" t="n"/>
     </row>
@@ -39349,221 +39349,221 @@
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>Mille Matilde Røsæg</t>
+          <t>Agnes Elisabeth Morud</t>
         </is>
       </c>
       <c r="D192" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E192" s="15" t="n">
-        <v>12.51</v>
+        <v>12.59</v>
       </c>
       <c r="F192" s="7" t="n">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G192" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H192" s="16" t="n">
-        <v>9.07</v>
+        <v>7.08</v>
       </c>
       <c r="J192" s="5" t="n"/>
       <c r="L192" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M192" s="7" t="inlineStr">
         <is>
-          <t>Angelica Okparaebo</t>
+          <t>Mille Matilde Røsæg</t>
         </is>
       </c>
       <c r="N192" s="7" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="O192" s="15" t="n">
-        <v>8.08</v>
+        <v>12.51</v>
       </c>
       <c r="P192" s="7" t="n">
-        <v>710</v>
+        <v>757</v>
       </c>
       <c r="Q192" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R192" s="16" t="n">
-        <v>29.01</v>
+        <v>9.07</v>
       </c>
       <c r="T192" s="5" t="n"/>
     </row>
     <row r="193" ht="13" customHeight="1">
       <c r="B193" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>Mille Matilde Røsæg</t>
+          <t>Sanna Johnsen Møkkelgård</t>
         </is>
       </c>
       <c r="D193" s="7" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E193" s="15" t="n">
-        <v>7.96</v>
+        <v>25.81</v>
       </c>
       <c r="F193" s="7" t="n">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G193" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H193" s="16" t="n">
-        <v>29.01</v>
+        <v>30.06</v>
       </c>
       <c r="J193" s="5" t="n"/>
       <c r="L193" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M193" s="7" t="inlineStr">
         <is>
-          <t>Lilje Lopes Patey</t>
+          <t>Mille Matilde Røsæg</t>
         </is>
       </c>
       <c r="N193" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="O193" s="15" t="n">
-        <v>59.38</v>
+        <v>7.96</v>
       </c>
       <c r="P193" s="7" t="n">
-        <v>699</v>
+        <v>746</v>
       </c>
       <c r="Q193" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R193" s="16" t="n">
-        <v>12.06</v>
+        <v>29.01</v>
       </c>
       <c r="T193" s="5" t="n"/>
     </row>
     <row r="194" ht="13" customHeight="1">
       <c r="B194" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>Jamila Isman</t>
+          <t>Sanna Johnsen Møkkelgård</t>
         </is>
       </c>
       <c r="D194" s="7" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E194" s="15" t="n">
-        <v>5.54</v>
+        <v>12.68</v>
       </c>
       <c r="F194" s="7" t="n">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="G194" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H194" s="16" t="n">
-        <v>22.05</v>
+        <v>4.06</v>
       </c>
       <c r="J194" s="5" t="n"/>
       <c r="L194" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M194" s="7" t="inlineStr">
         <is>
-          <t>Elizabeth Pettersen Turk</t>
+          <t>Jamila Isman</t>
         </is>
       </c>
       <c r="N194" s="7" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="O194" s="15" t="n">
-        <v>11.68</v>
+        <v>5.54</v>
       </c>
       <c r="P194" s="7" t="n">
-        <v>696</v>
+        <v>737</v>
       </c>
       <c r="Q194" s="7" t="inlineStr">
         <is>
-          <t>Nesodden</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="R194" s="16" t="n">
-        <v>25.08</v>
+        <v>22.05</v>
       </c>
       <c r="T194" s="5" t="n"/>
     </row>
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Emma Skibstad Bekkevik</t>
+          <t>Agnes Elisabeth Morud</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E195" s="17" t="inlineStr">
-        <is>
-          <t>1,04,92</t>
-        </is>
+        <v>2003</v>
+      </c>
+      <c r="E195" s="15" t="n">
+        <v>8.029999999999999</v>
       </c>
       <c r="F195" s="7" t="n">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>10.06</v>
+        <v>5.03</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Nora Proctor</t>
+          <t>Emma Skibstad Bekkevik</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O195" s="15" t="n">
-        <v>12.88</v>
+        <v>2004</v>
+      </c>
+      <c r="O195" s="17" t="inlineStr">
+        <is>
+          <t>1,04,92</t>
+        </is>
       </c>
       <c r="P195" s="7" t="n">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
@@ -39571,57 +39571,57 @@
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>12.06</v>
+        <v>10.06</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Emma Skibstad Bekkevik</t>
+          <t>Ella Njaastad Skjesol</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E196" s="15" t="n">
-        <v>59.65</v>
+        <v>12.75</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>29.01</v>
+        <v>30.06</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M196" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Emma Skibstad Bekkevik</t>
         </is>
       </c>
       <c r="N196" s="7" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="O196" s="15" t="n">
-        <v>8.19</v>
+        <v>59.65</v>
       </c>
       <c r="P196" s="7" t="n">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="Q196" s="7" t="inlineStr">
         <is>
@@ -39629,87 +39629,87 @@
         </is>
       </c>
       <c r="R196" s="16" t="n">
-        <v>26.11</v>
+        <v>29.01</v>
       </c>
       <c r="T196" s="5" t="n"/>
     </row>
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Westberg</t>
+          <t>Hedvig Johanne Olsson Volden</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>7.04</v>
+        <v>13.02</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Julie Margrete Gaustad</t>
+          <t>Ingrid Westberg</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="O197" s="15" t="n">
-        <v>10.9</v>
+        <v>1.3</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>26.06</v>
+        <v>7.04</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
     <row r="198" ht="13" customHeight="1">
       <c r="B198" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Luna Andrine Stang</t>
+          <t>Lotta Elfenbein</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>1.4</v>
+        <v>10.3</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>518</v>
+        <v>589</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
@@ -39717,123 +39717,123 @@
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>26.11</v>
+        <v>13.02</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Dorothy Mcmanus Ampong</t>
+          <t>Luna Andrine Stang</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O198" s="15" t="n">
-        <v>10.18</v>
+        <v>1.4</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>577</v>
+        <v>518</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>4.03</v>
+        <v>26.11</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Hedvig Bossum Brimsholm</t>
+          <t>Elise Eltervaag</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>1.15</v>
+        <v>4.77</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>492</v>
+        <v>568</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>7.04</v>
+        <v>20.03</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Falck</t>
+          <t>Hedvig Bossum Brimsholm</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O199" s="15" t="n">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>565</v>
+        <v>492</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>28.05</v>
+        <v>7.04</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
     <row r="200" ht="13" customHeight="1">
       <c r="B200" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Tuva Kristine Ansteensen</t>
+          <t>Mia Guldteig Lien</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>4.28</v>
+        <v>2.4</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>456</v>
+        <v>567</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>29.05</v>
+        <v>29.09</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
@@ -39843,25 +39843,25 @@
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Falck</t>
+          <t>Tuva Kristine Ansteensen</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O200" s="15" t="n">
-        <v>4.56</v>
+        <v>4.28</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>26.11</v>
+        <v>29.05</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
@@ -39898,7 +39898,7 @@
         </is>
       </c>
       <c r="F202" s="20" t="n">
-        <v>10756</v>
+        <v>10632</v>
       </c>
       <c r="J202" s="5" t="n"/>
       <c r="L202" s="19" t="inlineStr">
@@ -39915,7 +39915,7 @@
         </is>
       </c>
       <c r="P202" s="20" t="n">
-        <v>10337</v>
+        <v>10756</v>
       </c>
       <c r="T202" s="5" t="n"/>
     </row>
@@ -39938,7 +39938,7 @@
         </is>
       </c>
       <c r="F204" s="20" t="n">
-        <v>21939</v>
+        <v>21990</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="19" t="inlineStr">
@@ -39955,7 +39955,7 @@
         </is>
       </c>
       <c r="P204" s="20" t="n">
-        <v>21836</v>
+        <v>21939</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -39970,7 +39970,7 @@
         </is>
       </c>
       <c r="C206" s="20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="19" t="inlineStr">
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="M206" s="20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>16585</v>
+        <v>16895</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -49569,7 +49569,7 @@
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="inlineStr">
         <is>
-          <t>10000m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M61" s="7" t="inlineStr">
@@ -49582,19 +49582,19 @@
       </c>
       <c r="O61" s="17" t="inlineStr">
         <is>
-          <t>34,03,01mx</t>
+          <t>16,59,16</t>
         </is>
       </c>
       <c r="P61" s="7" t="n">
-        <v>871</v>
+        <v>784</v>
       </c>
       <c r="Q61" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R61" s="16" t="n">
-        <v>14.04</v>
+        <v>29.12</v>
       </c>
       <c r="T61" s="5" t="n"/>
     </row>
@@ -49631,32 +49631,32 @@
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>10000m</t>
         </is>
       </c>
       <c r="M62" s="7" t="inlineStr">
         <is>
-          <t>Una Haukanes</t>
+          <t>Eli Anne Dvergsdal</t>
         </is>
       </c>
       <c r="N62" s="7" t="n">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="O62" s="17" t="inlineStr">
         <is>
-          <t>1,08,89</t>
+          <t>34,03,01mx</t>
         </is>
       </c>
       <c r="P62" s="7" t="n">
-        <v>610</v>
+        <v>871</v>
       </c>
       <c r="Q62" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R62" s="16" t="n">
-        <v>27.08</v>
+        <v>14.04</v>
       </c>
       <c r="T62" s="5" t="n"/>
     </row>
@@ -49693,30 +49693,32 @@
       <c r="J63" s="5" t="n"/>
       <c r="L63" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M63" s="7" t="inlineStr">
         <is>
-          <t>Mia Helene Gulbrandsen</t>
+          <t>Una Haukanes</t>
         </is>
       </c>
       <c r="N63" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O63" s="15" t="n">
-        <v>1.55</v>
+        <v>2003</v>
+      </c>
+      <c r="O63" s="17" t="inlineStr">
+        <is>
+          <t>1,08,89</t>
+        </is>
       </c>
       <c r="P63" s="7" t="n">
-        <v>651</v>
+        <v>610</v>
       </c>
       <c r="Q63" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R63" s="16" t="n">
-        <v>19.08</v>
+        <v>27.08</v>
       </c>
       <c r="T63" s="5" t="n"/>
     </row>
@@ -49753,30 +49755,30 @@
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M64" s="7" t="inlineStr">
         <is>
-          <t>Emma Dahl Sørbo</t>
+          <t>Mia Helene Gulbrandsen</t>
         </is>
       </c>
       <c r="N64" s="7" t="n">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>5.47</v>
+        <v>1.55</v>
       </c>
       <c r="P64" s="7" t="n">
-        <v>721</v>
+        <v>651</v>
       </c>
       <c r="Q64" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R64" s="16" t="n">
-        <v>29.01</v>
+        <v>19.08</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -49811,30 +49813,30 @@
       <c r="J65" s="5" t="n"/>
       <c r="L65" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M65" s="7" t="inlineStr">
         <is>
-          <t>Liza Sofia Aune</t>
+          <t>Emma Dahl Sørbo</t>
         </is>
       </c>
       <c r="N65" s="7" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="O65" s="15" t="n">
-        <v>11.18</v>
+        <v>5.47</v>
       </c>
       <c r="P65" s="7" t="n">
-        <v>680</v>
+        <v>721</v>
       </c>
       <c r="Q65" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R65" s="16" t="n">
-        <v>12.08</v>
+        <v>29.01</v>
       </c>
       <c r="T65" s="5" t="n"/>
     </row>
@@ -49869,30 +49871,30 @@
       <c r="J66" s="5" t="n"/>
       <c r="L66" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M66" s="7" t="inlineStr">
         <is>
-          <t>Elise Wolff-Hansen</t>
+          <t>Liza Sofia Aune</t>
         </is>
       </c>
       <c r="N66" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O66" s="15" t="n">
-        <v>2.27</v>
+        <v>11.18</v>
       </c>
       <c r="P66" s="7" t="n">
-        <v>474</v>
+        <v>680</v>
       </c>
       <c r="Q66" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R66" s="16" t="n">
-        <v>19.03</v>
+        <v>12.08</v>
       </c>
       <c r="T66" s="5" t="n"/>
     </row>
@@ -50062,7 +50064,7 @@
         </is>
       </c>
       <c r="P70" s="20" t="n">
-        <v>9075</v>
+        <v>9385</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -50962,7 +50964,7 @@
         </is>
       </c>
       <c r="P90" s="20" t="n">
-        <v>16585</v>
+        <v>16895</v>
       </c>
       <c r="T90" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -30708,7 +30708,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>23753</v>
+        <v>23756</v>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
@@ -35296,30 +35296,30 @@
     <row r="95" ht="13" customHeight="1">
       <c r="B95" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Sophia Borgen</t>
+          <t>Anastasia Schnell</t>
         </is>
       </c>
       <c r="D95" s="7" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E95" s="15" t="n">
-        <v>5.29</v>
+        <v>1.59</v>
       </c>
       <c r="F95" s="7" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G95" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Dresden/GER</t>
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>28.05</v>
+        <v>17.12</v>
       </c>
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
@@ -35354,22 +35354,22 @@
     <row r="96" ht="13" customHeight="1">
       <c r="B96" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Vilde Marsteinstredet</t>
+          <t>Sophia Borgen</t>
         </is>
       </c>
       <c r="D96" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E96" s="15" t="n">
-        <v>38.64</v>
+        <v>5.29</v>
       </c>
       <c r="F96" s="7" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
@@ -35442,7 +35442,7 @@
         </is>
       </c>
       <c r="F98" s="20" t="n">
-        <v>11429</v>
+        <v>11432</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="19" t="inlineStr">
@@ -35482,7 +35482,7 @@
         </is>
       </c>
       <c r="F100" s="20" t="n">
-        <v>23753</v>
+        <v>23756</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="19" t="inlineStr">
@@ -46863,7 +46863,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>15987</v>
+        <v>16081</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
@@ -51521,32 +51521,30 @@
       <c r="J108" s="5" t="n"/>
       <c r="L108" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m hekk</t>
         </is>
       </c>
       <c r="M108" s="7" t="inlineStr">
         <is>
-          <t>Ragnhild Lindhjem-Godal</t>
+          <t>Ida Leir</t>
         </is>
       </c>
       <c r="N108" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="O108" s="17" t="inlineStr">
-        <is>
-          <t>5,05,06</t>
-        </is>
+      <c r="O108" s="15" t="n">
+        <v>9.4</v>
       </c>
       <c r="P108" s="7" t="n">
-        <v>586</v>
+        <v>703</v>
       </c>
       <c r="Q108" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R108" s="16" t="n">
-        <v>20.08</v>
+        <v>13.02</v>
       </c>
       <c r="T108" s="5" t="n"/>
     </row>
@@ -51583,7 +51581,7 @@
       <c r="J109" s="5" t="n"/>
       <c r="L109" s="14" t="inlineStr">
         <is>
-          <t>60m hekk</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="M109" s="7" t="inlineStr">
@@ -51595,10 +51593,10 @@
         <v>2003</v>
       </c>
       <c r="O109" s="15" t="n">
-        <v>9.4</v>
+        <v>16.04</v>
       </c>
       <c r="P109" s="7" t="n">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="Q109" s="7" t="inlineStr">
         <is>
@@ -51606,7 +51604,7 @@
         </is>
       </c>
       <c r="R109" s="16" t="n">
-        <v>13.02</v>
+        <v>28.08</v>
       </c>
       <c r="T109" s="5" t="n"/>
     </row>
@@ -51641,7 +51639,7 @@
       <c r="J110" s="5" t="n"/>
       <c r="L110" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>400m hekk</t>
         </is>
       </c>
       <c r="M110" s="7" t="inlineStr">
@@ -51652,19 +51650,21 @@
       <c r="N110" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="O110" s="15" t="n">
-        <v>16.04</v>
+      <c r="O110" s="17" t="inlineStr">
+        <is>
+          <t>1,07,09</t>
+        </is>
       </c>
       <c r="P110" s="7" t="n">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="Q110" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Ås</t>
         </is>
       </c>
       <c r="R110" s="16" t="n">
-        <v>28.08</v>
+        <v>1.05</v>
       </c>
       <c r="T110" s="5" t="n"/>
     </row>
@@ -51699,32 +51699,30 @@
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
         <is>
-          <t>400m hekk</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M111" s="7" t="inlineStr">
         <is>
-          <t>Ida Leir</t>
+          <t>Emmy Margrethe Rismark</t>
         </is>
       </c>
       <c r="N111" s="7" t="n">
         <v>2003</v>
       </c>
-      <c r="O111" s="17" t="inlineStr">
-        <is>
-          <t>1,07,09</t>
-        </is>
+      <c r="O111" s="15" t="n">
+        <v>1.5</v>
       </c>
       <c r="P111" s="7" t="n">
-        <v>648</v>
+        <v>609</v>
       </c>
       <c r="Q111" s="7" t="inlineStr">
         <is>
-          <t>Ås</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R111" s="16" t="n">
-        <v>1.05</v>
+        <v>12.02</v>
       </c>
       <c r="T111" s="5" t="n"/>
     </row>
@@ -51759,30 +51757,30 @@
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Emmy Margrethe Rismark</t>
+          <t>Ida Leir</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
         <v>2003</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>1.5</v>
+        <v>5.08</v>
       </c>
       <c r="P112" s="7" t="n">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="Q112" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R112" s="16" t="n">
-        <v>12.02</v>
+        <v>9.07</v>
       </c>
       <c r="T112" s="5" t="n"/>
     </row>
@@ -51817,30 +51815,30 @@
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Ida Leir</t>
+          <t>Henriette Collett-Østensen</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>5.08</v>
+        <v>10.61</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>9.07</v>
+        <v>12.06</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
@@ -51875,30 +51873,30 @@
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Henriette Collett-Østensen</t>
+          <t>Ida Yessica Nesse</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>10.61</v>
+        <v>31.67</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>12.06</v>
+        <v>29.1</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -51933,30 +51931,30 @@
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Spyd</t>
         </is>
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Ida Yessica Nesse</t>
+          <t>Vilde Marsteinstredet</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>31.67</v>
+        <v>38.64</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>29.1</v>
+        <v>28.05</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -52010,7 +52008,7 @@
         </is>
       </c>
       <c r="P117" s="20" t="n">
-        <v>8446</v>
+        <v>8540</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
@@ -52910,7 +52908,7 @@
         </is>
       </c>
       <c r="P137" s="20" t="n">
-        <v>15987</v>
+        <v>16081</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D14" s="3" t="n">
-        <v>19847</v>
+        <v>19903</v>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
@@ -12452,18 +12452,18 @@
         <v>2006</v>
       </c>
       <c r="O269" s="15" t="n">
-        <v>7.72</v>
+        <v>7.66</v>
       </c>
       <c r="P269" s="7" t="n">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="Q269" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R269" s="16" t="n">
-        <v>28.05</v>
+        <v>29.12</v>
       </c>
       <c r="T269" s="5" t="n"/>
     </row>
@@ -13351,7 +13351,7 @@
         </is>
       </c>
       <c r="P285" s="20" t="n">
-        <v>10128</v>
+        <v>10148</v>
       </c>
       <c r="T285" s="5" t="n"/>
     </row>
@@ -14102,18 +14102,18 @@
         <v>2007</v>
       </c>
       <c r="O300" s="15" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="P300" s="7" t="n">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="Q300" s="7" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Leirvik</t>
         </is>
       </c>
       <c r="R300" s="16" t="n">
-        <v>13.03</v>
+        <v>29.12</v>
       </c>
       <c r="T300" s="5" t="n"/>
     </row>
@@ -14399,7 +14399,7 @@
         </is>
       </c>
       <c r="P306" s="20" t="n">
-        <v>9719</v>
+        <v>9755</v>
       </c>
       <c r="T306" s="5" t="n"/>
     </row>
@@ -14439,7 +14439,7 @@
         </is>
       </c>
       <c r="P308" s="20" t="n">
-        <v>19847</v>
+        <v>19903</v>
       </c>
       <c r="T308" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 1-2. div.xlsx
+++ b/output/Lagserien 2022 1-2. div.xlsx
@@ -707,20 +707,20 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IL Tyrving</t>
+          <t>Ullensaker/Kisa IL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>(30/18)</t>
+          <t>(30/15)</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>23387</v>
+        <v>23812</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -735,25 +735,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>IL Tyrving</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>(30/19)</t>
+          <t>(30/18)</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>23343</v>
+        <v>23387</v>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -763,25 +763,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL</t>
+          <t>IL i BUL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>(30/16)</t>
+          <t>(30/19)</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>23277</v>
+        <v>23343</v>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="M106" s="7" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
       <c r="P106" s="8" t="n">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>IL Tyrving</t>
+          <t>Ullensaker/Kisa IL</t>
         </is>
       </c>
       <c r="J107" s="5" t="n"/>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="M107" s="7" t="inlineStr">
         <is>
-          <t>IL i BUL</t>
+          <t>IL Tyrving</t>
         </is>
       </c>
       <c r="T107" s="5" t="n"/>
@@ -5687,17 +5687,17 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Peter Svoren</t>
+          <t>Emil Nordal</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>7.15</v>
+        <v>7.57</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>797</v>
+        <v>635</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>12.02</v>
+        <v>29.01</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Peter Svoren</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>6.87</v>
+        <v>7.15</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>924</v>
+        <v>797</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>20.02</v>
+        <v>12.02</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
@@ -5745,25 +5745,25 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Einar Johannes Rye</t>
+          <t>Martin Aarbogh Brustad</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>10.85</v>
+        <v>12.3</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>881</v>
+        <v>550</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>19.06</v>
+        <v>13.07</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -5773,25 +5773,25 @@
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Per Tinius Fremstad-Waldron</t>
+          <t>Einar Johannes Rye</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>10.62</v>
+        <v>10.85</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>943</v>
+        <v>881</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>26.08</v>
+        <v>19.06</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
@@ -5803,25 +5803,25 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Peter Svoren</t>
+          <t>Emil Nordal</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>22.16</v>
+        <v>23.17</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>842</v>
+        <v>731</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>13.02</v>
+        <v>6.03</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
@@ -5831,25 +5831,25 @@
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Edem Schaanning Agbo</t>
+          <t>Peter Svoren</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>21.49</v>
+        <v>22.16</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>922</v>
+        <v>842</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>La Chaux-de-Fonds/SUI</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>3.07</v>
+        <v>13.02</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
@@ -5861,25 +5861,25 @@
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Kristian Drabløs</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="E116" s="15" t="n">
-        <v>49.8</v>
+        <v>48.42</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>794</v>
+        <v>868</v>
       </c>
       <c r="G116" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H116" s="16" t="n">
-        <v>28.05</v>
+        <v>5.02</v>
       </c>
       <c r="J116" s="5" t="n"/>
       <c r="L116" s="14" t="inlineStr">
@@ -5889,25 +5889,25 @@
       </c>
       <c r="M116" s="7" t="inlineStr">
         <is>
-          <t>Leon Samuel Douglas Mjaaland</t>
+          <t>Kristian Drabløs</t>
         </is>
       </c>
       <c r="N116" s="7" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="O116" s="15" t="n">
-        <v>48.67</v>
+        <v>49.8</v>
       </c>
       <c r="P116" s="7" t="n">
-        <v>854</v>
+        <v>794</v>
       </c>
       <c r="Q116" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R116" s="16" t="n">
-        <v>27.08</v>
+        <v>28.05</v>
       </c>
       <c r="T116" s="5" t="n"/>
     </row>
@@ -5919,27 +5919,27 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Lewis Kjemhus</t>
+          <t>Andreas Kramer</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="E117" s="17" t="inlineStr">
         <is>
-          <t>1,59,84</t>
+          <t>1,44,75</t>
         </is>
       </c>
       <c r="F117" s="7" t="n">
-        <v>690</v>
+        <v>1073</v>
       </c>
       <c r="G117" s="7" t="